--- a/日语.xlsx
+++ b/日语.xlsx
@@ -5,15 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cshen/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cshen/Documents/GitHub/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25000" windowHeight="15560" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="动词形态" sheetId="1" r:id="rId1"/>
     <sheet name="自动他动词" sheetId="2" r:id="rId2"/>
+    <sheet name="动词敬体简体" sheetId="3" r:id="rId3"/>
+    <sheet name="形容词" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">动词形态!$A$1:$E$6</definedName>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="89">
   <si>
     <t>一类动词</t>
     <rPh sb="0" eb="1">
@@ -69,13 +71,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>备注</t>
-    <rPh sb="0" eb="1">
-      <t>bei zhu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>（特殊）满足二类的规则，但却是一类的动词：
 焦る（あせる）、要る（いる）、帰る（かえる）、返る（かえる）、限る（かぎる）、切る（きる）、蹴る（ける）、茂る（しげる）、知る（しる）、喋る（しゃべる）、滑る（すべる）、散る（ちる）、入る（はいる）、走る（はしる）、減る（へる）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,10 +91,6 @@
   </si>
   <si>
     <t>た形</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ない形</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -299,12 +290,935 @@
     <t xml:space="preserve"> 动词“ます形”去掉ます后直接加て</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>备注1</t>
+    <rPh sb="0" eb="1">
+      <t>bei zhu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注2</t>
+    <rPh sb="0" eb="1">
+      <t>bei zhu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示动词的现在时否定，对应的过去时否定为「なっかた」</t>
+    <rPh sb="0" eb="1">
+      <t>biao shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dogn ci</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xian zai shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shi hou</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fou ding</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>dui ying</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>guo qv shi</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>fou ding</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ない形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.表示动作或者状态同时进行
+2.表示动作或行为相继发生
+3.表示行为的方法和手段
+4.表示原因</t>
+    <rPh sb="2" eb="3">
+      <t>biao shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dong zuo</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>huo zhe huang tai</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zhuagn tai</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>tong shi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>jin xing</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>biao shi</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>xing wei</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>de</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>fang fa</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>he</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>shou duan</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>biao shi</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>yuan yin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.动词的过去时，是「ました」对应的简体形
+2.た形可以在句中修饰名词、代词等</t>
+    <rPh sb="2" eb="3">
+      <t>dong ci</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>guo qv shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shi tai</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>dui ying</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>de</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>jian ti</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>xing</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>xing</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ke yi</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>jv</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>xiu shi</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ming ci</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>dai ci</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>deng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时态</t>
+    <rPh sb="0" eb="1">
+      <t>shi tai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敬体形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简体形</t>
+    <rPh sb="0" eb="1">
+      <t>jian ti xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现在是否定形</t>
+    <rPh sb="0" eb="1">
+      <t>xian zai shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fou ding xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过去式肯定形</t>
+    <rPh sb="0" eb="1">
+      <t>guo qv shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ken dign</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现在时肯定形</t>
+    <rPh sb="0" eb="1">
+      <t>xian zai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ken ding xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过去时否定形</t>
+    <rPh sb="0" eb="1">
+      <t>guo qv</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fou ding</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～ます（書きます）</t>
+    <rPh sb="4" eb="5">
+      <t>かきm</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～ません（書きません）</t>
+    <rPh sb="5" eb="6">
+      <t>かきませn</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～ました（書きました）</t>
+    <rPh sb="5" eb="6">
+      <t>かk</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～ませんでした（書きませんでした）</t>
+    <rPh sb="8" eb="9">
+      <t>かk</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动词基本形（書く）</t>
+    <rPh sb="0" eb="1">
+      <t>dong ci ji ben xing</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>かく</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ない形的过去时（書かなかった）</t>
+    <rPh sb="2" eb="3">
+      <t>xing</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>guo qv shi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>かかn</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ない形（書かない）</t>
+    <rPh sb="2" eb="3">
+      <t>xing</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>かかな</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>た形（書いた）</t>
+    <rPh sb="1" eb="2">
+      <t>xing</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>かいた</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>い形容词</t>
+    <rPh sb="1" eb="2">
+      <t>xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>い形容词</t>
+    <rPh sb="1" eb="2">
+      <t>xing rong ci</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>い形容词简体形</t>
+    <rPh sb="1" eb="2">
+      <t>xing rong ci</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jian ti xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现在时</t>
+    <rPh sb="0" eb="1">
+      <t>xian zai shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过去时</t>
+    <rPh sb="0" eb="1">
+      <t>guo qv shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肯定形</t>
+    <rPh sb="0" eb="1">
+      <t>ken dign</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否定形</t>
+    <rPh sb="0" eb="1">
+      <t>fou ding xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>い形容词词干 + い</t>
+    <rPh sb="1" eb="2">
+      <t>xing rong ci</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ci gan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>い形容词词干 + かった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>い形容词词干 + くない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>い形容词词干 + くなかった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>い形容词敬体形</t>
+    <rPh sb="1" eb="2">
+      <t>xing rong ci</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">い形容词词干 + い + です </t>
+    <rPh sb="1" eb="2">
+      <t>xing rong ci</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ci gan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>い形容词词干 + かった + です</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">い形容词词干 + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>くないです</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+〜　+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ありません</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">い形容词词干 + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>くなかったです</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+〜 + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ありませんでした</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>て形：词尾「い」变成「く」再加「て」，即「い形容词词干 + く + て」。</t>
+    <rPh sb="1" eb="2">
+      <t>xing</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ci wei</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>bian chegn</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zai jia</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>xing rong ci</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ci gan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用法：</t>
+    <rPh sb="0" eb="1">
+      <t>yong fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. い形容词「て」形，表示同一事物的各种性质</t>
+    <rPh sb="4" eb="5">
+      <t>xing rong ci</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xing</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>biao shi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>tong yi</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>shi wu</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>de</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ge zhogn</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>xing zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. い形容词 + 动词（即作副词，要把词尾「い」改为「く」再接动词）</t>
+    <rPh sb="4" eb="5">
+      <t>xing rong ci</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>dong ci</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>zuo fu ci</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>yao ba ci wei</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>agi wei</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>zai jie</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>dong ci</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. い形容词 + 名词。い形容词简体形的过去时（い形容词词干 + かった）也可以用于修饰名词，表示该物体、事物过去的性质，状态等。</t>
+    <rPh sb="4" eb="5">
+      <t>xing rong ci</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ming ci</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>xing rong ci</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>jian ti</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>xing</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>de</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>guo qv shi</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>xing rong ci</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ci gan</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ye ke yi</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>yong yu</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>xiu shi</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ming ci</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>biao shi</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>gai wu ti</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>shi wu</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>guo qv</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>de</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>xing zhi</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>zhuang tai</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>deng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>な形容词</t>
+    <rPh sb="1" eb="2">
+      <t>xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>な形容词简体形</t>
+    <rPh sb="1" eb="2">
+      <t>xing rong ci</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jian ti xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>な形容词</t>
+    <rPh sb="1" eb="2">
+      <t>xing rong ci</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>な形容词词干 + だ</t>
+    <rPh sb="1" eb="2">
+      <t>xing rong ci</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ci gan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">な形容词词干 + です </t>
+    <rPh sb="1" eb="2">
+      <t>xing rong ci</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ci gan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>な形容词词干 + だった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>な形容词词干 + ではない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>な形容词词干 + ではなかった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>い形容词词干 + でした</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">い形容词词干 + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ではありません</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+〜　+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ではないです</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">い形容词词干 + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ではありませんでした</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+〜 + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ではなかったです</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（谓语是对主语动作或状态的陈述或说明）</t>
+    <rPh sb="1" eb="2">
+      <t>wei yu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>又叫形容动词，可以充当简体形句子的谓语部分。Eg：漢字のテストは大変だったとみんな言っていました。</t>
+    <rPh sb="25" eb="27">
+      <t>かn</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>たいへn</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>いっt</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>句型中出现的「では」都可以换成「じゃ」</t>
+    <rPh sb="0" eb="1">
+      <t>jv</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>xing</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>chu xian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>dou ke yi huan cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. な形容词 + 名词。要把词尾的「だ」改为「な」再接名词。</t>
+    <rPh sb="4" eb="5">
+      <t>xing rong ci</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ming ci</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>yao ba</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ci wei de</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>gai wei</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>zai jie</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ming ci</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. な形容词「で」形，在句中表示并列活着中顿时，要把词尾的「だ」改为「で」（形容词为「て」形，不是「で」形）</t>
+    <rPh sb="4" eb="5">
+      <t>xing rong ci</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xing</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zai gu zhong</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>jv zhong</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>biao shi</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>bing lie</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>huo zhe</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>zhong dun</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>yao ba</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ci wei</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>de</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>gai wei</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>xing rong</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ci</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>xing</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>bu shi</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. な形容词 + 动词，要把词尾的「だ」改为「に」再接动词。</t>
+    <rPh sb="4" eb="5">
+      <t>xing rong ci</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>dogn ci</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>yao ba</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ci wei de</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>gai wei</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>zai jie</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>dong ci</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -341,8 +1255,31 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -361,8 +1298,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -385,11 +1340,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -418,6 +1436,61 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -695,10 +1768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -708,10 +1781,11 @@
     <col min="3" max="3" width="33.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="40.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="61.5" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="34.83203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -723,15 +1797,18 @@
         <v>2</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>4</v>
@@ -740,73 +1817,84 @@
         <v>5</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="C4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:5" ht="64" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="E4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="C5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>22</v>
+      <c r="F6" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -819,8 +1907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -832,10 +1920,10 @@
     <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.25">
@@ -843,10 +1931,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.25">
@@ -854,10 +1942,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.25">
@@ -865,7 +1953,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6" s="11"/>
     </row>
@@ -873,4 +1961,585 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="18" style="13" customWidth="1"/>
+    <col min="3" max="3" width="46.6640625" customWidth="1"/>
+    <col min="4" max="4" width="50" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="B3" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="B4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="B5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="B7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:K43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="1:10" ht="28" x14ac:dyDescent="0.3">
+      <c r="B3" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="25"/>
+    </row>
+    <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+    </row>
+    <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+    </row>
+    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="14"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+    </row>
+    <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="14"/>
+      <c r="B7" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+    </row>
+    <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="14"/>
+      <c r="B8" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+    </row>
+    <row r="9" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="14"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+    </row>
+    <row r="10" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="14"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+    </row>
+    <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="14"/>
+      <c r="B11" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+    </row>
+    <row r="12" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="14"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="28"/>
+    </row>
+    <row r="13" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="14"/>
+      <c r="B13" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+    </row>
+    <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" s="14"/>
+      <c r="B14" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+    </row>
+    <row r="15" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" s="14"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+    </row>
+    <row r="16" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+    </row>
+    <row r="17" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+    </row>
+    <row r="18" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+    </row>
+    <row r="19" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B19" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B20" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B21" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B22" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="28" x14ac:dyDescent="0.3">
+      <c r="B25" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="25"/>
+    </row>
+    <row r="26" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B26" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+    </row>
+    <row r="29" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="17"/>
+      <c r="C29" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+    </row>
+    <row r="30" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+    </row>
+    <row r="31" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+    </row>
+    <row r="32" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B32" s="21"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+    </row>
+    <row r="33" spans="2:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="B33" s="21"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+    </row>
+    <row r="34" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+    </row>
+    <row r="35" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="22"/>
+      <c r="C35" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="28"/>
+    </row>
+    <row r="36" spans="2:11" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+    </row>
+    <row r="37" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+    </row>
+    <row r="38" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="23"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="36">
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:F38"/>
+    <mergeCell ref="G37:J38"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:F15"/>
+    <mergeCell ref="G14:J15"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:H7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/日语.xlsx
+++ b/日语.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25000" windowHeight="15560" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="动词形态" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="94">
   <si>
     <t>一类动词</t>
     <rPh sb="0" eb="1">
@@ -803,34 +803,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2. い形容词「て」形，表示同一事物的各种性质</t>
-    <rPh sb="4" eb="5">
-      <t>xing rong ci</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>xing</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>biao shi</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>tong yi</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>shi wu</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>de</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ge zhogn</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>xing zhi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3. い形容词 + 动词（即作副词，要把词尾「い」改为「く」再接动词）</t>
     <rPh sb="4" eb="5">
       <t>xing rong ci</t>
@@ -1128,67 +1100,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2. な形容词「で」形，在句中表示并列活着中顿时，要把词尾的「だ」改为「で」（形容词为「て」形，不是「で」形）</t>
-    <rPh sb="4" eb="5">
-      <t>xing rong ci</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>xing</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>zai gu zhong</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>jv zhong</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>biao shi</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>bing lie</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>huo zhe</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>zhong dun</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>yao ba</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ci wei</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>de</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>gai wei</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>xing rong</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>ci</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>xing</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>bu shi</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>xing</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3. な形容词 + 动词，要把词尾的「だ」改为「に」再接动词。</t>
     <rPh sb="4" eb="5">
       <t>xing rong ci</t>
@@ -1210,6 +1121,148 @@
     </rPh>
     <rPh sb="28" eb="29">
       <t>dong ci</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. い形容词「て」形，表示同一事物的各种性质。</t>
+    <rPh sb="4" eb="5">
+      <t>xing rong ci</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xing</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>biao shi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>tong yi</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>shi wu</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>de</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ge zhogn</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>xing zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多个形容词用于对同一主体进行描述且属于并列关系时，「て」可以省略。这种表达方式多用于书面语。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>この道は暗く(て)危ないです。</t>
+    <rPh sb="4" eb="5">
+      <t>くらk</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>あぶな</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. な形容词「で」形，在句中表示并列或者中顿时，要把词尾的「だ」改为「で」（形容词为「て」形，不是「で」形）</t>
+    <rPh sb="4" eb="5">
+      <t>xing rong ci</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xing</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>zai gu zhong</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>jv zhong</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>biao shi</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>bing lie</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>huo zhe</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>zhong dun</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>yao ba</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ci wei</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>de</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>gai wei</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>xing rong</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ci</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>xing</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>bu shi</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>この町は賑やかで便利なところです。</t>
+    <rPh sb="4" eb="5">
+      <t>ニｷﾞヤk</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ﾍﾞンr</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>この辺りはとても静かで、風景も綺麗です。</t>
+    <rPh sb="2" eb="3">
+      <t>ヘン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>シｽﾞカd</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>フウケ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キレ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>図書館では、静かに歩いてください。</t>
+    <rPh sb="0" eb="3">
+      <t>とsh</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>しずk</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>あるいて</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1443,38 +1496,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1486,10 +1521,28 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1770,8 +1823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2041,19 +2094,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:K43"/>
+  <dimension ref="A3:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="3" spans="1:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="25"/>
+      <c r="C3" s="28"/>
     </row>
     <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="14"/>
@@ -2069,75 +2122,75 @@
     </row>
     <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
     </row>
     <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="18" t="s">
+      <c r="B6" s="30"/>
+      <c r="C6" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18" t="s">
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
     </row>
     <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20" t="s">
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
     </row>
     <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20" t="s">
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
     </row>
     <row r="9" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
-      <c r="B9" s="21"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
@@ -2149,7 +2202,7 @@
     </row>
     <row r="10" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="14"/>
-      <c r="B10" s="21"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
@@ -2161,83 +2214,83 @@
     </row>
     <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
     </row>
     <row r="12" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="18" t="s">
+      <c r="B12" s="24"/>
+      <c r="C12" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="26" t="s">
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="28"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="22"/>
     </row>
     <row r="13" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20" t="s">
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
     </row>
     <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="24" t="s">
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
     </row>
     <row r="15" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
     </row>
     <row r="16" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
@@ -2284,251 +2337,266 @@
     </row>
     <row r="20" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B20" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B21" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B22" s="14"/>
+      <c r="C22" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+    </row>
+    <row r="23" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B23" s="14"/>
+      <c r="C23" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+    </row>
+    <row r="24" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B24" s="14" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="B22" s="14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="B25" s="25" t="s">
+    <row r="27" spans="1:10" ht="28" x14ac:dyDescent="0.3">
+      <c r="B27" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="28"/>
+    </row>
+    <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B28" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="25"/>
-    </row>
-    <row r="26" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="B26" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-    </row>
-    <row r="29" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="17"/>
-      <c r="C29" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-    </row>
-    <row r="30" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
       <c r="I30" s="14"/>
       <c r="J30" s="14"/>
     </row>
-    <row r="31" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
+    <row r="31" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="30"/>
+      <c r="C31" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
       <c r="I31" s="14"/>
       <c r="J31" s="14"/>
     </row>
-    <row r="32" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="B32" s="21"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
+    <row r="32" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
       <c r="I32" s="14"/>
       <c r="J32" s="14"/>
     </row>
-    <row r="33" spans="2:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="B33" s="21"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
+    <row r="33" spans="2:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
       <c r="I33" s="14"/>
       <c r="J33" s="14"/>
     </row>
-    <row r="34" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="22" t="s">
+    <row r="34" spans="2:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="B34" s="16"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+    </row>
+    <row r="35" spans="2:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="B35" s="16"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+    </row>
+    <row r="36" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C36" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-    </row>
-    <row r="35" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="22"/>
-      <c r="C35" s="18" t="s">
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+    </row>
+    <row r="37" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="24"/>
+      <c r="C37" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="26" t="s">
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="28"/>
-    </row>
-    <row r="36" spans="2:11" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="19" t="s">
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="22"/>
+    </row>
+    <row r="38" spans="2:11" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C36" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29" t="s">
+      <c r="C38" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+    </row>
+    <row r="39" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
-    </row>
-    <row r="37" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C37" s="30" t="s">
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
-    </row>
-    <row r="38" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="23"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
-      <c r="K38" t="s">
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+    </row>
+    <row r="40" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="18"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="B42" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="B43" s="14" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
+    <row r="44" spans="2:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="B44" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="B45" s="14"/>
+      <c r="C45" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D45" s="14"/>
+    </row>
+    <row r="46" spans="2:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="B46" s="14"/>
+      <c r="C46" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D46" s="14"/>
+    </row>
+    <row r="47" spans="2:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="B47" s="14" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
-        <v>88</v>
-      </c>
+    <row r="48" spans="2:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="C48" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="C49" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:F38"/>
-    <mergeCell ref="G37:J38"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:J34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:F15"/>
-    <mergeCell ref="G14:J15"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="G13:J13"/>
     <mergeCell ref="F8:H8"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="B5:B6"/>
@@ -2538,6 +2606,33 @@
     <mergeCell ref="F6:H6"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="F7:H7"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:J36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:F15"/>
+    <mergeCell ref="G14:J15"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:F40"/>
+    <mergeCell ref="G39:J40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/日语.xlsx
+++ b/日语.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25000" windowHeight="15560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="动词形态" sheetId="1" r:id="rId1"/>
@@ -30,24 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="94">
-  <si>
-    <t>一类动词</t>
-    <rPh sb="0" eb="1">
-      <t>yi lei</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>dong ci</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二类动词</t>
-    <rPh sb="0" eb="1">
-      <t>er lei dong ci</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="96">
   <si>
     <t>三类动词</t>
     <rPh sb="0" eb="1">
@@ -1266,12 +1249,61 @@
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>自动词宾语用が、他动词宾语用を</t>
+    <rPh sb="8" eb="9">
+      <t>ta dong ci</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>bin yu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>yong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（大部分）五段动词一般都是自动词，一段动词一般都是他动词。</t>
+    <rPh sb="1" eb="2">
+      <t>da bu fen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一类动词(五段动词)</t>
+    <rPh sb="0" eb="1">
+      <t>yi lei</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dong ci</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wu duan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>dong ci</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二类动词(一段动词)</t>
+    <rPh sb="0" eb="1">
+      <t>er lei dong ci</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yi duan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>dong ci</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1330,6 +1362,11 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Abadi MT Condensed Extra Bold"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1460,7 +1497,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1502,6 +1539,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1510,18 +1548,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1535,6 +1561,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1543,6 +1572,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1823,131 +1861,131 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="3"/>
-    <col min="2" max="2" width="54.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="46.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="33.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="40.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="61.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="34.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="48.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35.1640625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="121" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="B2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="80" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" ht="59" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>7</v>
-      </c>
       <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="77" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="F4" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="C5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="F6" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1958,10 +1996,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:C6"/>
+  <dimension ref="A3:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1973,10 +2011,10 @@
     <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.25">
@@ -1984,10 +2022,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.25">
@@ -1995,10 +2033,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.25">
@@ -2006,9 +2044,19 @@
         <v>3</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6" s="11"/>
+    </row>
+    <row r="9" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="B9" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="B10" s="17" t="s">
+        <v>93</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2033,57 +2081,57 @@
   <sheetData>
     <row r="3" spans="2:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>36</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>43</v>
-      </c>
       <c r="D4" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C7" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>46</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2096,17 +2144,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="3" spans="1:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="B3" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="28"/>
+      <c r="B3" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="26"/>
     </row>
     <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="14"/>
@@ -2122,69 +2170,69 @@
     </row>
     <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
-      <c r="B5" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
+      <c r="B5" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
     </row>
     <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
     </row>
     <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
     </row>
     <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
+        <v>55</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
     </row>
@@ -2214,83 +2262,83 @@
     </row>
     <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
-      <c r="B11" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
+      <c r="B11" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
     </row>
     <row r="12" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="22"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="31"/>
     </row>
     <row r="13" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
       <c r="B13" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
+        <v>54</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
     </row>
     <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
-      <c r="B14" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
+      <c r="B14" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
     </row>
     <row r="15" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
     </row>
     <row r="16" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
@@ -2307,7 +2355,7 @@
     <row r="17" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
       <c r="B17" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
@@ -2332,23 +2380,23 @@
     </row>
     <row r="19" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B19" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B20" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B21" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B22" s="14"/>
       <c r="C22" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
@@ -2358,7 +2406,7 @@
     <row r="23" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B23" s="14"/>
       <c r="C23" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
@@ -2367,18 +2415,18 @@
     </row>
     <row r="24" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B24" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="28" x14ac:dyDescent="0.3">
+      <c r="B27" s="26" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="B27" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27" s="28"/>
+      <c r="C27" s="26"/>
     </row>
     <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B28" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
@@ -2386,70 +2434,70 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
+      <c r="B30" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
       <c r="I30" s="14"/>
       <c r="J30" s="14"/>
     </row>
     <row r="31" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="30"/>
-      <c r="C31" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
       <c r="I31" s="14"/>
       <c r="J31" s="14"/>
     </row>
     <row r="32" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C32" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
       <c r="I32" s="14"/>
       <c r="J32" s="14"/>
     </row>
     <row r="33" spans="2:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
+        <v>55</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
       <c r="I33" s="14"/>
       <c r="J33" s="14"/>
     </row>
@@ -2476,120 +2524,120 @@
       <c r="J35" s="14"/>
     </row>
     <row r="36" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="24" t="s">
+      <c r="B36" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+    </row>
+    <row r="37" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="21"/>
+      <c r="C37" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
-    </row>
-    <row r="37" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="24"/>
-      <c r="C37" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="22"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="31"/>
     </row>
     <row r="38" spans="2:11" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+    </row>
+    <row r="39" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-    </row>
-    <row r="39" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C39" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
     </row>
     <row r="40" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="18"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
       <c r="K40" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B42" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B43" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B44" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B45" s="14"/>
       <c r="C45" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D45" s="14"/>
     </row>
     <row r="46" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B46" s="14"/>
       <c r="C46" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D46" s="14"/>
     </row>
     <row r="47" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B47" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="C48" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="3:3" ht="18" x14ac:dyDescent="0.2">

--- a/日语.xlsx
+++ b/日语.xlsx
@@ -89,104 +89,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">动词"ます形"去掉"ます"后加"て"。加"て"的时候发音会有些变化。即：
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian (正文)"/>
-        <charset val="134"/>
-      </rPr>
-      <t>"き"-&gt;"いて"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4" tint="-0.249977111117893"/>
-        <rFont val="DengXian (正文)"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>"ぎ"-&gt;"いで"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian (正文)"/>
-        <charset val="134"/>
-      </rPr>
-      <t>“び、み、に"-&gt;"んで"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4" tint="-0.249977111117893"/>
-        <rFont val="DengXian (正文)"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>"ち、ら、い"-&gt;"って"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian (正文)"/>
-        <charset val="134"/>
-      </rPr>
-      <t>"し"-&gt;"して"</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 动词“ます形”去掉ます后直接加て</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -374,65 +276,6 @@
     </rPh>
     <rPh sb="46" eb="47">
       <t>yuan yin</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.动词的过去时，是「ました」对应的简体形
-2.た形可以在句中修饰名词、代词等</t>
-    <rPh sb="2" eb="3">
-      <t>dong ci</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>de</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>guo qv shi</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>shi tai</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>dui ying</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>de</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>jian ti</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>xing</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>xing</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ke yi</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>zai</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>jv</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>zhong</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>xiu shi</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ming ci</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>dai ci</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>deng</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1296,6 +1139,221 @@
     <rPh sb="7" eb="8">
       <t>dong ci</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.动词的过去时，是「ました」对应的简体形
+2.た形可以在句中修饰名词、代词等(表示名词过去的状态等，现在时是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>动词原形+名词</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <rPh sb="2" eb="3">
+      <t>dong ci</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>guo qv shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shi tai</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>dui ying</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>de</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>jian ti</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>xing</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>xing</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ke yi</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>jv</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>xiu shi</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ming ci</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>dai ci</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>biao shi</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ming ci</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>guo qv</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>de</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>zhuang tai</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>deng</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>xian zai</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>dong ci</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>yuan x</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ming ci</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">动词"ます形"去掉"ます"后加"て"。加"て"的时候发音会有些变化。即：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"き"-&gt;"いて"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"ぎ"-&gt;"いで"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“び、み、に"-&gt;"んで"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"ち、り、い"-&gt;"って"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"し"-&gt;"して"</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1497,7 +1555,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1581,6 +1639,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1872,26 +1936,26 @@
     <col min="3" max="3" width="33.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="32.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="48.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41" style="1" customWidth="1"/>
     <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="32" t="s">
         <v>28</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="121" customHeight="1" x14ac:dyDescent="0.2">
@@ -1899,7 +1963,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>2</v>
@@ -1910,7 +1974,7 @@
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:6" ht="59" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
@@ -1926,26 +1990,26 @@
         <v>10</v>
       </c>
       <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="F3" s="33"/>
     </row>
     <row r="4" spans="1:6" ht="77" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>32</v>
+      <c r="F4" s="33" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="64" customHeight="1" x14ac:dyDescent="0.2">
@@ -1953,39 +2017,39 @@
         <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>30</v>
+      <c r="F6" s="33" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1999,7 +2063,7 @@
   <dimension ref="A3:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2011,10 +2075,10 @@
     <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.25">
@@ -2022,10 +2086,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.25">
@@ -2033,10 +2097,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.25">
@@ -2044,18 +2108,18 @@
         <v>3</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="11"/>
     </row>
     <row r="9" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="B9" s="17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="B10" s="17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2069,7 +2133,7 @@
   <dimension ref="B3:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2081,57 +2145,57 @@
   <sheetData>
     <row r="3" spans="2:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>34</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>41</v>
-      </c>
       <c r="D4" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>44</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2152,7 +2216,7 @@
   <sheetData>
     <row r="3" spans="1:10" ht="28" x14ac:dyDescent="0.3">
       <c r="B3" s="26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C3" s="26"/>
     </row>
@@ -2171,10 +2235,10 @@
     <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="22"/>
@@ -2188,12 +2252,12 @@
       <c r="A6" s="14"/>
       <c r="B6" s="28"/>
       <c r="C6" s="23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
       <c r="F6" s="23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G6" s="23"/>
       <c r="H6" s="23"/>
@@ -2203,15 +2267,15 @@
     <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="25" t="s">
         <v>54</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>56</v>
       </c>
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
       <c r="F7" s="25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
@@ -2221,15 +2285,15 @@
     <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
       <c r="F8" s="25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
@@ -2263,10 +2327,10 @@
     <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
       <c r="B11" s="21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
@@ -2280,13 +2344,13 @@
       <c r="A12" s="14"/>
       <c r="B12" s="21"/>
       <c r="C12" s="23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D12" s="23"/>
       <c r="E12" s="23"/>
       <c r="F12" s="23"/>
       <c r="G12" s="29" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H12" s="30"/>
       <c r="I12" s="30"/>
@@ -2295,16 +2359,16 @@
     <row r="13" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
       <c r="B13" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D13" s="25"/>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
       <c r="G13" s="25" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H13" s="25"/>
       <c r="I13" s="25"/>
@@ -2313,16 +2377,16 @@
     <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
       <c r="B14" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D14" s="25"/>
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
       <c r="G14" s="24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
@@ -2355,7 +2419,7 @@
     <row r="17" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
       <c r="B17" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
@@ -2380,23 +2444,23 @@
     </row>
     <row r="19" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B19" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B20" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B21" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B22" s="14"/>
       <c r="C22" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
@@ -2406,7 +2470,7 @@
     <row r="23" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B23" s="14"/>
       <c r="C23" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
@@ -2415,18 +2479,18 @@
     </row>
     <row r="24" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B24" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="28" x14ac:dyDescent="0.3">
       <c r="B27" s="26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C27" s="26"/>
     </row>
     <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B28" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
@@ -2434,15 +2498,15 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="27" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D30" s="22"/>
       <c r="E30" s="22"/>
@@ -2455,12 +2519,12 @@
     <row r="31" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="28"/>
       <c r="C31" s="23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D31" s="23"/>
       <c r="E31" s="23"/>
       <c r="F31" s="23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G31" s="23"/>
       <c r="H31" s="23"/>
@@ -2469,15 +2533,15 @@
     </row>
     <row r="32" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D32" s="25"/>
       <c r="E32" s="25"/>
       <c r="F32" s="25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G32" s="25"/>
       <c r="H32" s="25"/>
@@ -2486,15 +2550,15 @@
     </row>
     <row r="33" spans="2:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D33" s="25"/>
       <c r="E33" s="25"/>
       <c r="F33" s="25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G33" s="25"/>
       <c r="H33" s="25"/>
@@ -2525,10 +2589,10 @@
     </row>
     <row r="36" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D36" s="22"/>
       <c r="E36" s="22"/>
@@ -2541,13 +2605,13 @@
     <row r="37" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="21"/>
       <c r="C37" s="23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D37" s="23"/>
       <c r="E37" s="23"/>
       <c r="F37" s="23"/>
       <c r="G37" s="29" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H37" s="30"/>
       <c r="I37" s="30"/>
@@ -2555,16 +2619,16 @@
     </row>
     <row r="38" spans="2:11" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D38" s="18"/>
       <c r="E38" s="18"/>
       <c r="F38" s="18"/>
       <c r="G38" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H38" s="18"/>
       <c r="I38" s="18"/>
@@ -2572,16 +2636,16 @@
     </row>
     <row r="39" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D39" s="18"/>
       <c r="E39" s="18"/>
       <c r="F39" s="18"/>
       <c r="G39" s="20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H39" s="18"/>
       <c r="I39" s="18"/>
@@ -2598,46 +2662,46 @@
       <c r="I40" s="18"/>
       <c r="J40" s="18"/>
       <c r="K40" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B42" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B43" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B44" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B45" s="14"/>
       <c r="C45" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D45" s="14"/>
     </row>
     <row r="46" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B46" s="14"/>
       <c r="C46" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D46" s="14"/>
     </row>
     <row r="47" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B47" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="C48" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="3:3" ht="18" x14ac:dyDescent="0.2">

--- a/日语.xlsx
+++ b/日语.xlsx
@@ -9,13 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25000" windowHeight="15560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="24900" windowHeight="15560" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="动词形态" sheetId="1" r:id="rId1"/>
     <sheet name="自动他动词" sheetId="2" r:id="rId2"/>
     <sheet name="动词敬体简体" sheetId="3" r:id="rId3"/>
     <sheet name="形容词" sheetId="4" r:id="rId4"/>
+    <sheet name="基本句" sheetId="5" r:id="rId5"/>
+    <sheet name="体言用言" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">动词形态!$A$1:$E$6</definedName>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="140">
   <si>
     <t>三类动词</t>
     <rPh sb="0" eb="1">
@@ -228,55 +230,6 @@
   </si>
   <si>
     <t>ない形</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.表示动作或者状态同时进行
-2.表示动作或行为相继发生
-3.表示行为的方法和手段
-4.表示原因</t>
-    <rPh sb="2" eb="3">
-      <t>biao shi</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>dong zuo</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>huo zhe huang tai</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>zhuagn tai</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>tong shi</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>jin xing</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>biao shi</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>xing wei</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>de</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>fang fa</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>he</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>shou duan</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>biao shi</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>yuan yin</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -862,19 +815,6 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>shi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>又叫形容动词，可以充当简体形句子的谓语部分。Eg：漢字のテストは大変だったとみんな言っていました。</t>
-    <rPh sb="25" eb="27">
-      <t>かn</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>たいへn</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>いっt</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1356,12 +1296,896 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>又叫形容动词</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，可以充当简体形句子的谓语部分。Eg：漢字のテストは大変だったとみんな言っていました。</t>
+    </r>
+    <rPh sb="25" eb="27">
+      <t>かn</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>たいへn</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>いっt</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一、 AはBです。（名词判断句／名词句）</t>
+    <rPh sb="0" eb="1">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ming ci</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>pan duan jv</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ming ci gu</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>jv</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. A、B一定是名词</t>
+    <rPh sb="6" eb="7">
+      <t>yi ding shi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ming ci</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. です变化（4种敬+4种简体+で形）</t>
+    <rPh sb="5" eb="6">
+      <t>bian huan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>hua</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>jian ti</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中顿，表示话还没有说完</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.表示动作或者状态同时进行
+2.表示动作或行为相继发生
+3.表示行为的方法和手段
+4.表示原因</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>zhong dun</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>biao shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>hua</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>hai mei you</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shuo wan</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>biao shi</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>dong zuo</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>huo zhe huang tai</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>zhuagn tai</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>tong shi</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>jin xing</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>biao shi</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>xing wei</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>de</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>fang fa</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>he</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>shou duan</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>biao shi</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>yuan yin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 格助词用法</t>
+    <rPh sb="3" eb="4">
+      <t>ge</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhu ci</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yong fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（10个）～が、～を、～の、～と、～へ、～に、～で、～から、～まで、～より</t>
+    <rPh sb="3" eb="4">
+      <t>ge</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 动词的变化</t>
+    <rPh sb="3" eb="4">
+      <t>dong ci</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bian hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>①　词尾（9种） う、く、ぐ、す、つ、ぬ、ぶ、も、る</t>
+    <rPh sb="2" eb="3">
+      <t>ci wei</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>②　类型（四种）五段动词、一段动词、サ变动词、カ变动词</t>
+    <rPh sb="2" eb="3">
+      <t>lei x</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>si zhong</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wu duan dong ci</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>yi duan dong ci</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>bian</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>dong ci</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>bian dogn ci</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 提示助词</t>
+    <rPh sb="3" eb="4">
+      <t>ti shi zhu ci</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～は、～も、～でも、～しか、～さえ、～こそ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 副词</t>
+    <rPh sb="3" eb="4">
+      <t>fu ci</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于修饰用言，一般放在被修饰的用言前面，不加任何助词。</t>
+    <rPh sb="7" eb="8">
+      <t>yi ban</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>fang zai</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>bei</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>xiu shi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>yong yan</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>yan</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>qian mian</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>bu jia ren he</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>zhu ci</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（四种）固定副词、数量词当副词、变性副词（原来不是副词，变换后成副词）、ABAB副词</t>
+    <rPh sb="1" eb="2">
+      <t>si zhogn</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gu ding</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fu ci</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shu laing ci</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>dang</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>fu ci</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>bian xing</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>fu ci</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>yuan lai</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>bu shi</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>fu ci</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>bian huan hou</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>cheng</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>fu ci</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>fu ci</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用言</t>
+    <rPh sb="0" eb="1">
+      <t>yong</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>yan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>词干(无活用)+词尾(活用)</t>
+    <rPh sb="0" eb="1">
+      <t>ci gan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ci wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体言</t>
+    <rPh sb="0" eb="1">
+      <t>ti yan</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>yan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无活用，因为没有词尾</t>
+    <rPh sb="4" eb="5">
+      <t>yin wei</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>mei you</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ci wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 动词：う、く、ぐ、す、つ、ぬ、ぶ、も、る
+2. 形容词：い
+3. 形容动词：だ</t>
+    <rPh sb="3" eb="4">
+      <t>dong ci</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>xing rong ci</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>xing rong dong ci</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 名词
+2. 数词
+3. 代词</t>
+    <rPh sb="3" eb="4">
+      <t>ming ci</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shu ci</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>dai ci</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在日语中，所有的用言处在句子的末尾，其它结构同汉语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下星期开始两周因工作原因去日本出差。（“去”是用言，放在最后）</t>
+    <rPh sb="0" eb="1">
+      <t>xia xing qi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>kai shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>laing zhou</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yin</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>gong zuo yuan y</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>qv</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ri ben chu chai</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>qv</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>yong yan</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>fang zai zui hou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下星期开始两周因工作原因日本出差去。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来週から2週間仕事で日本へ出張に行く。</t>
+    <rPh sb="0" eb="2">
+      <t>らいsh</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>sh</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>しごt</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>にほn</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>しゅc</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>いk</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二、动词句</t>
+    <rPh sb="0" eb="1">
+      <t>er</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dong ci jv</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（一）～が〜で〜する（一般动词句）</t>
+    <rPh sb="1" eb="2">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>y ban</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>dong ci jv</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〜に〜がある/いる（什么地方有什么）
+〜は〜にある/いる（什么东西在什么地方）
+ある：无生命  いる：有生命</t>
+    <rPh sb="10" eb="11">
+      <t>shen me di fang</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>you shen me</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>wu sheng ming</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>you sheng ming</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 存在句</t>
+    <rPh sb="3" eb="4">
+      <t>cun zai jv</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（二）特殊动词句（句子结构固定，如表示存在时一定是存在句这个结构）</t>
+    <rPh sb="1" eb="2">
+      <t>er</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jv zi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>jie gou</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>gu ding</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ru</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>biao shi</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>cun zai</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>yi ding</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>cun zai jv</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>zhe ge jie gou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AがBにCをもらう（A从B那里得到了C，A是我方，B是对方）
+AがBにCをくれる（A把B给了C，A是对方，B是我方）
+AがBにCをあげる（A把B给了C，A是我方，B是对方）</t>
+    <rPh sb="11" eb="12">
+      <t>cong</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>na li</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>de dao le</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>wo fang</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>fang</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>shi dui fang</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ba</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>gei le</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>dui fang</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>wo fang</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>fang</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>ba</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>gei le</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>wo fang</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>fang</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>dui fang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 授受关系句</t>
+    <rPh sb="3" eb="4">
+      <t>shou</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>guan xi jv</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 来去目的句</t>
+    <rPh sb="3" eb="4">
+      <t>lai qv</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〜が〜へ〜をくに行く/来る</t>
+    <rPh sb="8" eb="9">
+      <t>いく</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>くR</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 状态变化句</t>
+    <rPh sb="3" eb="4">
+      <t>zhuang tai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bian hua</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jv</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AがBく/に/になる（A变成了B，自然变化）
+QがAをBく/に/にする（Q将A变成B，人为变化）</t>
+    <rPh sb="12" eb="13">
+      <t>bian cheng le</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>zi ran bian hua</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>jiang</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>bian cheng le</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ren wei</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>bian hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊动词句的例子</t>
+    <rPh sb="0" eb="1">
+      <t>te shu dong ci jv</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>li zi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在句</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授受关系句</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来去目的句</t>
+  </si>
+  <si>
+    <t>状态变化句</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">事務所に社員が５人います。
+財布に（人民元が）２００元あります。
+私の車はガレージにあります。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">私は田中さんに/からメールをもらいます。
+田中さんが私に日本語の辞書をくれました。
+私は田中さんに箸をあげました。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>＊这三种句子中如果有我，我可以省略。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>映画を見るー＞〜見に
+友達に会うー＞会いに
+買い物するー＞〜に　（サ变动词）
+规则：变连用形，即ます形+に
+最后一句用の是因为見物ますー＞見物(名词)，而名词+名词用の</t>
+    <rPh sb="0" eb="2">
+      <t>えいg</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>みr</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>みに</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>かいn</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>bian</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>dong ci</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>gui ze</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>bian</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>lian yong xing</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>xing</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>zui hou</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>yi jv</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>yong</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>yin wei</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>ming ci</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>er</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>ming ci</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>ming ci</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>yong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>私は町へ映画を見に行きます。
+私は町へ友達に会いに行きます。
+私は町へ買い物に行きまう。
+私の車で横浜へ花見に行きます。
+日本へ会社の見物に行きます。</t>
+    <rPh sb="0" eb="1">
+      <t>わたsh</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>まch</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>えいg</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>みr</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>いk</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ともだch</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>あい</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>いk</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>かいもn</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>いk</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>わたsh</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>くるm</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>よこはm</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>はな</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>み</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>いk</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>かいsh</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>み</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>もの</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>い</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1425,6 +2249,14 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="Abadi MT Condensed Extra Bold"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1555,7 +2387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1598,6 +2430,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1640,10 +2478,55 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1925,8 +2808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1943,10 +2826,10 @@
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>0</v>
@@ -1954,7 +2837,7 @@
       <c r="E1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="18" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1974,7 +2857,7 @@
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="33"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:6" ht="59" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
@@ -1990,14 +2873,14 @@
         <v>10</v>
       </c>
       <c r="E3" s="5"/>
-      <c r="F3" s="33"/>
-    </row>
-    <row r="4" spans="1:6" ht="77" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F3" s="19"/>
+    </row>
+    <row r="4" spans="1:6" ht="89" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>26</v>
@@ -2008,8 +2891,8 @@
       <c r="E4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="33" t="s">
-        <v>31</v>
+      <c r="F4" s="19" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="64" customHeight="1" x14ac:dyDescent="0.2">
@@ -2028,8 +2911,8 @@
       <c r="E5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="33" t="s">
-        <v>94</v>
+      <c r="F5" s="19" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="70" customHeight="1" x14ac:dyDescent="0.2">
@@ -2048,7 +2931,7 @@
       <c r="E6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="19" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2114,12 +2997,12 @@
     </row>
     <row r="9" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="B9" s="17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="B10" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2145,57 +3028,57 @@
   <sheetData>
     <row r="3" spans="2:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="9" t="s">
         <v>33</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -2208,17 +3091,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:K49"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="3" spans="1:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="B3" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="26"/>
+      <c r="B3" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="28"/>
     </row>
     <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="14"/>
@@ -2234,69 +3117,69 @@
     </row>
     <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
     </row>
     <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="23" t="s">
+      <c r="B6" s="30"/>
+      <c r="C6" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
     </row>
     <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
     </row>
     <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
     </row>
@@ -2326,83 +3209,83 @@
     </row>
     <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
-      <c r="B11" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
+      <c r="B11" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
     </row>
     <row r="12" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="23" t="s">
+      <c r="B12" s="23"/>
+      <c r="C12" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="31"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="33"/>
     </row>
     <row r="13" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
       <c r="B13" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
     </row>
     <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
-      <c r="B14" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="24" t="s">
+      <c r="B14" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
     </row>
     <row r="15" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
     </row>
     <row r="16" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
@@ -2419,7 +3302,7 @@
     <row r="17" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
       <c r="B17" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
@@ -2444,23 +3327,23 @@
     </row>
     <row r="19" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B19" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B20" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B21" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B22" s="14"/>
       <c r="C22" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
@@ -2470,7 +3353,7 @@
     <row r="23" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B23" s="14"/>
       <c r="C23" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
@@ -2479,18 +3362,18 @@
     </row>
     <row r="24" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B24" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="B27" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" s="26"/>
+      <c r="B27" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="28"/>
     </row>
     <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B28" s="14" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
@@ -2498,70 +3381,70 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" s="22" t="s">
+      <c r="B30" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
+      <c r="C30" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
       <c r="I30" s="14"/>
       <c r="J30" s="14"/>
     </row>
     <row r="31" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="28"/>
-      <c r="C31" s="23" t="s">
+      <c r="B31" s="30"/>
+      <c r="C31" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
       <c r="I31" s="14"/>
       <c r="J31" s="14"/>
     </row>
     <row r="32" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
+        <v>51</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
       <c r="I32" s="14"/>
       <c r="J32" s="14"/>
     </row>
     <row r="33" spans="2:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C33" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
       <c r="I33" s="14"/>
       <c r="J33" s="14"/>
     </row>
@@ -2588,120 +3471,120 @@
       <c r="J35" s="14"/>
     </row>
     <row r="36" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
+      <c r="B36" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
     </row>
     <row r="37" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="21"/>
-      <c r="C37" s="23" t="s">
+      <c r="B37" s="23"/>
+      <c r="C37" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="31"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="33"/>
     </row>
     <row r="38" spans="2:11" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+    </row>
+    <row r="39" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18" t="s">
+      <c r="C39" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-    </row>
-    <row r="39" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C39" s="20" t="s">
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
     </row>
     <row r="40" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="19"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
       <c r="K40" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B42" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B43" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B44" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B45" s="14"/>
       <c r="C45" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D45" s="14"/>
     </row>
     <row r="46" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B46" s="14"/>
       <c r="C46" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D46" s="14"/>
     </row>
     <row r="47" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="B47" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="2:11" ht="18" x14ac:dyDescent="0.2">
       <c r="C48" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="3:3" ht="18" x14ac:dyDescent="0.2">
@@ -2749,4 +3632,887 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:T50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27:P31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="39"/>
+    </row>
+    <row r="2" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="39"/>
+    </row>
+    <row r="3" spans="2:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="B3" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+    </row>
+    <row r="4" spans="2:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="B4" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B6" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+    </row>
+    <row r="8" spans="2:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="B8" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+    </row>
+    <row r="9" spans="2:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="B9" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+    </row>
+    <row r="10" spans="2:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="B10" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+    </row>
+    <row r="11" spans="2:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="B11" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+    </row>
+    <row r="12" spans="2:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="B12" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+    </row>
+    <row r="13" spans="2:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="B13" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+    </row>
+    <row r="14" spans="2:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="B14" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+    </row>
+    <row r="15" spans="2:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="B15" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+    </row>
+    <row r="16" spans="2:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="B16" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+    </row>
+    <row r="17" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="B17" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+    </row>
+    <row r="18" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="B18" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+    </row>
+    <row r="19" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+    </row>
+    <row r="20" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+    </row>
+    <row r="21" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="K21" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="1"/>
+    </row>
+    <row r="22" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="B22" s="40"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="43"/>
+      <c r="P22" s="43"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="1"/>
+    </row>
+    <row r="23" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="40"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="43"/>
+      <c r="P23" s="43"/>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="1"/>
+    </row>
+    <row r="24" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="K24" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="43"/>
+      <c r="P24" s="43"/>
+      <c r="Q24" s="38" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="B25" s="44"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="38"/>
+    </row>
+    <row r="26" spans="2:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="44"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="38"/>
+    </row>
+    <row r="27" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="K27" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="43"/>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="R27" s="36"/>
+      <c r="S27" s="36"/>
+      <c r="T27" s="36"/>
+    </row>
+    <row r="28" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="45"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="43"/>
+      <c r="P28" s="43"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="36"/>
+      <c r="T28" s="36"/>
+    </row>
+    <row r="29" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="C29" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="43"/>
+      <c r="Q29" s="36"/>
+      <c r="R29" s="36"/>
+      <c r="S29" s="36"/>
+      <c r="T29" s="36"/>
+    </row>
+    <row r="30" spans="2:20" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="45"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="43"/>
+      <c r="P30" s="43"/>
+      <c r="Q30" s="36"/>
+      <c r="R30" s="36"/>
+      <c r="S30" s="36"/>
+      <c r="T30" s="36"/>
+    </row>
+    <row r="31" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="43"/>
+      <c r="M31" s="43"/>
+      <c r="N31" s="43"/>
+      <c r="O31" s="43"/>
+      <c r="P31" s="43"/>
+      <c r="Q31" s="36"/>
+      <c r="R31" s="36"/>
+      <c r="S31" s="36"/>
+      <c r="T31" s="36"/>
+    </row>
+    <row r="32" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="K32" s="47"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="47"/>
+      <c r="O32" s="38"/>
+      <c r="P32" s="38"/>
+      <c r="Q32" s="38"/>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B33" s="37"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="38"/>
+    </row>
+    <row r="37" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="L37" s="48"/>
+      <c r="M37" s="47"/>
+      <c r="N37" s="47"/>
+      <c r="O37" s="47"/>
+      <c r="P37" s="47"/>
+      <c r="Q37" s="47"/>
+    </row>
+    <row r="38" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
+      <c r="L38" s="47"/>
+      <c r="M38" s="47"/>
+      <c r="N38" s="47"/>
+      <c r="O38" s="47"/>
+      <c r="P38" s="47"/>
+      <c r="Q38" s="47"/>
+    </row>
+    <row r="39" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="38"/>
+      <c r="L39" s="47"/>
+      <c r="M39" s="47"/>
+      <c r="N39" s="47"/>
+      <c r="O39" s="47"/>
+      <c r="P39" s="47"/>
+      <c r="Q39" s="47"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="38"/>
+      <c r="M40" s="38"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="38"/>
+      <c r="K41" s="38"/>
+      <c r="L41" s="38"/>
+      <c r="M41" s="38"/>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="38"/>
+      <c r="J42" s="38"/>
+      <c r="K42" s="38"/>
+      <c r="L42" s="38"/>
+      <c r="M42" s="38"/>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="38"/>
+      <c r="K43" s="38"/>
+      <c r="L43" s="38"/>
+      <c r="M43" s="38"/>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B44" s="38"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="38"/>
+      <c r="K44" s="38"/>
+      <c r="L44" s="38"/>
+      <c r="M44" s="38"/>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="38"/>
+      <c r="K45" s="38"/>
+      <c r="L45" s="38"/>
+      <c r="M45" s="38"/>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="G46" s="38"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="38"/>
+      <c r="J46" s="38"/>
+      <c r="K46" s="38"/>
+      <c r="L46" s="38"/>
+      <c r="M46" s="38"/>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="G47" s="38"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="38"/>
+      <c r="J47" s="38"/>
+      <c r="K47" s="38"/>
+      <c r="L47" s="38"/>
+      <c r="M47" s="38"/>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="G48" s="38"/>
+      <c r="H48" s="38"/>
+      <c r="I48" s="38"/>
+      <c r="J48" s="38"/>
+      <c r="K48" s="38"/>
+      <c r="L48" s="38"/>
+      <c r="M48" s="38"/>
+    </row>
+    <row r="49" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G49" s="38"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="38"/>
+      <c r="J49" s="38"/>
+      <c r="K49" s="38"/>
+      <c r="L49" s="38"/>
+      <c r="M49" s="38"/>
+    </row>
+    <row r="50" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G50" s="38"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="38"/>
+      <c r="J50" s="38"/>
+      <c r="K50" s="38"/>
+      <c r="L50" s="38"/>
+      <c r="M50" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="K21:P23"/>
+    <mergeCell ref="K24:P26"/>
+    <mergeCell ref="K27:P31"/>
+    <mergeCell ref="B6:D7"/>
+    <mergeCell ref="B1:H2"/>
+    <mergeCell ref="Q27:T31"/>
+    <mergeCell ref="J27:J31"/>
+    <mergeCell ref="J21:J23"/>
+    <mergeCell ref="J24:J26"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C27:H28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C21:H23"/>
+    <mergeCell ref="C24:H26"/>
+    <mergeCell ref="C29:H30"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:J15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E3:H5"/>
+    <mergeCell ref="E6:H8"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/日语.xlsx
+++ b/日语.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="24900" windowHeight="15560" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="24900" windowHeight="15560" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="动词形态" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="154">
   <si>
     <t>三类动词</t>
     <rPh sb="0" eb="1">
@@ -2180,12 +2180,339 @@
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>今は７時になりました。（名+に）
+天気はだんだん涼しくなりました。（形+く）
+うちの会社はだんだん有名になりました。（形动+に）
+私はこのソフトを簡単にしました。(我把这个软件变简单了)
+このソフトの時間を１０分早くしました。（早く是adj）</t>
+    <rPh sb="0" eb="1">
+      <t>きょ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>じ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ming</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>xing</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>か</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ゆうめ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>xing</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>dong</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>かんたn</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>wo ba</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>zhe ge</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>ruan jian</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>bian</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>jian dan le</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>じかn</t>
+    </rPh>
+    <rPh sb="106" eb="107">
+      <t>はやk</t>
+    </rPh>
+    <rPh sb="114" eb="115">
+      <t>はやk</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要注意的是特殊动词句在使用中不会把元素ABC说的那么的全。</t>
+    <rPh sb="0" eb="1">
+      <t>xu yao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhu yi de shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>te shu dong ci</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>shi yong zhong</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>bu hui</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ba</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>yuan su</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>shuo de</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>na me de quan</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>quan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三、Qは adj／adv作谓语。（描写句）</t>
+    <rPh sb="0" eb="1">
+      <t>san</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>miao xie jv</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 形容词变化。9种（4种敬+4种简体+で形）</t>
+    <rPh sb="3" eb="4">
+      <t>xing rong ci</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>bian hua</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なの人(A)はうちの社長(B)で部下に優しく(形)て中国人(B)です。</t>
+  </si>
+  <si>
+    <t>よって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いい=&gt;[よい]（现肯）</t>
+    <rPh sb="9" eb="10">
+      <t>xian</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ken</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>よくたり（否）</t>
+    <rPh sb="5" eb="6">
+      <t>fou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>よかった（过）</t>
+    <rPh sb="5" eb="6">
+      <t>guo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ようくなかった（过否）</t>
+    <rPh sb="8" eb="9">
+      <t>guo</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>fou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いい的现在肯定时是いい、但是他的变化是基于[よい]。</t>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xian zai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ken ding</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>dan shi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ta de</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>bian hua</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ji yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>番外：好きです中的です，无判断意义。名词句后面的です才有判断意义。</t>
+    <rPh sb="0" eb="1">
+      <t>fan wai</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>すk</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>wu pan duan yi yi</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ming ci jv</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>hou mian de</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>cai you</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>pan duan</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>yi yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     資料があります。（有资料）
+     ロッカにあります。（在铁皮箱里）
+     何をくれた？（（他）给了你什么，因为是くれた）
+     何をもらうた？（拿到了什么）
+     今日何時までいる？（今天你在这个地方待到什么时候）
+     甘くした。（我把它弄甜了）
+     白くした。（我把它弄白了）
+     白くなた。（变白了（自然））
+     取りに行く。
+     聞きに来る。（我来问一下）
+     おもしるみがある。（有趣味）</t>
+    <rPh sb="5" eb="7">
+      <t>しりょ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>you zi liao</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>zai tie pi xiang li</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>なに</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>ta</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>gei le ni shen me</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>yin wei</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>na dao le shen me</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>きょ</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>なn</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>jin tian</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>ni zai zhe ge di fang</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>dai dao shen me shi hou</t>
+    </rPh>
+    <rPh sb="126" eb="127">
+      <t>あまk</t>
+    </rPh>
+    <rPh sb="132" eb="133">
+      <t>wo ba ta</t>
+    </rPh>
+    <rPh sb="135" eb="136">
+      <t>nong</t>
+    </rPh>
+    <rPh sb="136" eb="137">
+      <t>tian</t>
+    </rPh>
+    <rPh sb="137" eb="138">
+      <t>le</t>
+    </rPh>
+    <rPh sb="151" eb="152">
+      <t>wo ba ta</t>
+    </rPh>
+    <rPh sb="154" eb="155">
+      <t>nong bai le</t>
+    </rPh>
+    <rPh sb="170" eb="171">
+      <t>bian bai le</t>
+    </rPh>
+    <rPh sb="174" eb="175">
+      <t>zi ran</t>
+    </rPh>
+    <rPh sb="199" eb="200">
+      <t>くる</t>
+    </rPh>
+    <rPh sb="203" eb="204">
+      <t>wo lai wen yi xia</t>
+    </rPh>
+    <rPh sb="225" eb="226">
+      <t>you qv wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2252,6 +2579,22 @@
     </font>
     <font>
       <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <family val="2"/>
@@ -2387,7 +2730,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2436,17 +2779,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2454,19 +2815,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2478,56 +2827,72 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3089,19 +3454,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:K49"/>
+  <dimension ref="A3:M49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:F15"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="3" spans="1:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="28"/>
+      <c r="C3" s="29"/>
     </row>
     <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="14"/>
@@ -3117,33 +3482,33 @@
     </row>
     <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
     </row>
     <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="25" t="s">
+      <c r="B6" s="28"/>
+      <c r="C6" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25" t="s">
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
     </row>
@@ -3152,16 +3517,16 @@
       <c r="B7" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27" t="s">
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
     </row>
@@ -3170,16 +3535,16 @@
       <c r="B8" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27" t="s">
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
     </row>
@@ -3209,83 +3574,83 @@
     </row>
     <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
     </row>
     <row r="12" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="25" t="s">
+      <c r="B12" s="32"/>
+      <c r="C12" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="31" t="s">
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="33"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="35"/>
     </row>
     <row r="13" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
       <c r="B13" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27" t="s">
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
     </row>
     <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="26" t="s">
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
     </row>
     <row r="15" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
     </row>
     <row r="16" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
@@ -3366,10 +3731,10 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="28"/>
+      <c r="C27" s="29"/>
     </row>
     <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B28" s="14" t="s">
@@ -3385,32 +3750,32 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
       <c r="I30" s="14"/>
       <c r="J30" s="14"/>
     </row>
     <row r="31" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="30"/>
-      <c r="C31" s="25" t="s">
+      <c r="B31" s="28"/>
+      <c r="C31" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25" t="s">
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
       <c r="I31" s="14"/>
       <c r="J31" s="14"/>
     </row>
@@ -3418,37 +3783,37 @@
       <c r="B32" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="27" t="s">
+      <c r="C32" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27" t="s">
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
       <c r="I32" s="14"/>
       <c r="J32" s="14"/>
     </row>
-    <row r="33" spans="2:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="27" t="s">
+      <c r="C33" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27" t="s">
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
       <c r="I33" s="14"/>
       <c r="J33" s="14"/>
     </row>
-    <row r="34" spans="2:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" ht="18" x14ac:dyDescent="0.2">
       <c r="B34" s="16"/>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
@@ -3459,7 +3824,7 @@
       <c r="I34" s="14"/>
       <c r="J34" s="14"/>
     </row>
-    <row r="35" spans="2:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:13" ht="18" x14ac:dyDescent="0.2">
       <c r="B35" s="16"/>
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
@@ -3470,119 +3835,130 @@
       <c r="I35" s="14"/>
       <c r="J35" s="14"/>
     </row>
-    <row r="36" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="23" t="s">
+    <row r="36" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="24" t="s">
+      <c r="C36" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="24"/>
-    </row>
-    <row r="37" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="23"/>
-      <c r="C37" s="25" t="s">
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+    </row>
+    <row r="37" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="32"/>
+      <c r="C37" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="31" t="s">
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="H37" s="32"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="33"/>
-    </row>
-    <row r="38" spans="2:11" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="35"/>
+    </row>
+    <row r="38" spans="2:13" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C38" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20" t="s">
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-    </row>
-    <row r="39" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="21" t="s">
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="38"/>
+    </row>
+    <row r="39" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="22" t="s">
+      <c r="C39" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="22" t="s">
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-    </row>
-    <row r="40" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="21"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="38"/>
+    </row>
+    <row r="40" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="36"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="38"/>
       <c r="K40" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="2:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" ht="18" x14ac:dyDescent="0.2">
       <c r="B42" s="14" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="2:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" ht="18" x14ac:dyDescent="0.2">
       <c r="B43" s="14" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="2:11" ht="18" x14ac:dyDescent="0.2">
-      <c r="B44" s="14" t="s">
+    <row r="44" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="B44" s="45" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="C44" s="46"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="46"/>
+      <c r="I44" s="46"/>
+      <c r="J44" s="46"/>
+      <c r="K44" s="46"/>
+      <c r="L44" s="46"/>
+      <c r="M44" s="46"/>
+    </row>
+    <row r="45" spans="2:13" ht="18" x14ac:dyDescent="0.2">
       <c r="B45" s="14"/>
       <c r="C45" s="14" t="s">
         <v>85</v>
       </c>
       <c r="D45" s="14"/>
     </row>
-    <row r="46" spans="2:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" ht="18" x14ac:dyDescent="0.2">
       <c r="B46" s="14"/>
       <c r="C46" s="14" t="s">
         <v>86</v>
       </c>
       <c r="D46" s="14"/>
     </row>
-    <row r="47" spans="2:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" ht="18" x14ac:dyDescent="0.2">
       <c r="B47" s="14" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="2:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" ht="18" x14ac:dyDescent="0.2">
       <c r="C48" s="14" t="s">
         <v>87</v>
       </c>
@@ -3592,21 +3968,11 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:F40"/>
+    <mergeCell ref="G39:J40"/>
     <mergeCell ref="B36:B37"/>
     <mergeCell ref="C36:J36"/>
     <mergeCell ref="C37:F37"/>
@@ -3623,11 +3989,21 @@
     <mergeCell ref="F32:H32"/>
     <mergeCell ref="C33:E33"/>
     <mergeCell ref="F33:H33"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:F40"/>
-    <mergeCell ref="G39:J40"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:H7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3636,35 +4012,35 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:T50"/>
+  <dimension ref="A1:T54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27:P31"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="39"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="21"/>
     </row>
     <row r="2" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="39"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="21"/>
     </row>
     <row r="3" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B3" s="14" t="s">
@@ -3681,16 +4057,16 @@
       <c r="D4" s="14"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
     </row>
     <row r="8" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B8" s="14" t="s">
@@ -3905,240 +4281,261 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14" t="s">
+      <c r="J20" s="60" t="s">
         <v>130</v>
       </c>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="60"/>
+      <c r="O20" s="60"/>
+      <c r="P20" s="60"/>
+      <c r="Q20" s="60"/>
+      <c r="R20" s="60"/>
+      <c r="S20" s="60"/>
+      <c r="T20" s="60"/>
     </row>
     <row r="21" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="58" t="s">
         <v>122</v>
       </c>
-      <c r="C21" s="41" t="s">
+      <c r="C21" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="42"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="22"/>
       <c r="J21" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="K21" s="43" t="s">
+      <c r="K21" s="52" t="s">
         <v>135</v>
       </c>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="43"/>
-      <c r="O21" s="43"/>
-      <c r="P21" s="43"/>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="1"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="53"/>
+      <c r="R21" s="53"/>
+      <c r="S21" s="53"/>
+      <c r="T21" s="53"/>
     </row>
     <row r="22" spans="2:20" ht="18" x14ac:dyDescent="0.2">
-      <c r="B22" s="40"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="42"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="22"/>
       <c r="J22" s="49"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="43"/>
-      <c r="O22" s="43"/>
-      <c r="P22" s="43"/>
-      <c r="Q22" s="38"/>
-      <c r="R22" s="1"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="52"/>
+      <c r="Q22" s="53"/>
+      <c r="R22" s="53"/>
+      <c r="S22" s="53"/>
+      <c r="T22" s="53"/>
     </row>
     <row r="23" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="40"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="42"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="22"/>
       <c r="J23" s="49"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="43"/>
-      <c r="N23" s="43"/>
-      <c r="O23" s="43"/>
-      <c r="P23" s="43"/>
-      <c r="Q23" s="38"/>
-      <c r="R23" s="1"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
+      <c r="P23" s="52"/>
+      <c r="Q23" s="53"/>
+      <c r="R23" s="53"/>
+      <c r="S23" s="53"/>
+      <c r="T23" s="53"/>
     </row>
     <row r="24" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="54" t="s">
         <v>125</v>
       </c>
-      <c r="C24" s="41" t="s">
+      <c r="C24" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="50" t="s">
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="K24" s="43" t="s">
+      <c r="K24" s="52" t="s">
         <v>136</v>
       </c>
-      <c r="L24" s="43"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="43"/>
-      <c r="O24" s="43"/>
-      <c r="P24" s="43"/>
-      <c r="Q24" s="38" t="s">
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="52"/>
+      <c r="P24" s="52"/>
+      <c r="Q24" s="55" t="s">
         <v>137</v>
       </c>
+      <c r="R24" s="55"/>
+      <c r="S24" s="55"/>
+      <c r="T24" s="55"/>
     </row>
     <row r="25" spans="2:20" ht="18" x14ac:dyDescent="0.2">
-      <c r="B25" s="44"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="43"/>
-      <c r="N25" s="43"/>
-      <c r="O25" s="43"/>
-      <c r="P25" s="43"/>
-      <c r="Q25" s="38"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="52"/>
+      <c r="Q25" s="55"/>
+      <c r="R25" s="55"/>
+      <c r="S25" s="55"/>
+      <c r="T25" s="55"/>
     </row>
     <row r="26" spans="2:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="44"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43"/>
-      <c r="N26" s="43"/>
-      <c r="O26" s="43"/>
-      <c r="P26" s="43"/>
-      <c r="Q26" s="38"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="52"/>
+      <c r="P26" s="52"/>
+      <c r="Q26" s="55"/>
+      <c r="R26" s="55"/>
+      <c r="S26" s="55"/>
+      <c r="T26" s="55"/>
     </row>
     <row r="27" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="45" t="s">
+      <c r="B27" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="40" t="s">
+      <c r="C27" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="44" t="s">
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="K27" s="43" t="s">
+      <c r="K27" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="L27" s="43"/>
-      <c r="M27" s="43"/>
-      <c r="N27" s="43"/>
-      <c r="O27" s="43"/>
-      <c r="P27" s="43"/>
-      <c r="Q27" s="36" t="s">
+      <c r="L27" s="52"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="52"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="56" t="s">
         <v>138</v>
       </c>
-      <c r="R27" s="36"/>
-      <c r="S27" s="36"/>
-      <c r="T27" s="36"/>
+      <c r="R27" s="56"/>
+      <c r="S27" s="56"/>
+      <c r="T27" s="56"/>
     </row>
     <row r="28" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="45"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="43"/>
-      <c r="M28" s="43"/>
-      <c r="N28" s="43"/>
-      <c r="O28" s="43"/>
-      <c r="P28" s="43"/>
-      <c r="Q28" s="36"/>
-      <c r="R28" s="36"/>
-      <c r="S28" s="36"/>
-      <c r="T28" s="36"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="54"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="52"/>
+      <c r="Q28" s="56"/>
+      <c r="R28" s="56"/>
+      <c r="S28" s="56"/>
+      <c r="T28" s="56"/>
     </row>
     <row r="29" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="45" t="s">
+      <c r="B29" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="C29" s="41" t="s">
+      <c r="C29" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="43"/>
-      <c r="M29" s="43"/>
-      <c r="N29" s="43"/>
-      <c r="O29" s="43"/>
-      <c r="P29" s="43"/>
-      <c r="Q29" s="36"/>
-      <c r="R29" s="36"/>
-      <c r="S29" s="36"/>
-      <c r="T29" s="36"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="52"/>
+      <c r="Q29" s="56"/>
+      <c r="R29" s="56"/>
+      <c r="S29" s="56"/>
+      <c r="T29" s="56"/>
     </row>
     <row r="30" spans="2:20" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="45"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="43"/>
-      <c r="L30" s="43"/>
-      <c r="M30" s="43"/>
-      <c r="N30" s="43"/>
-      <c r="O30" s="43"/>
-      <c r="P30" s="43"/>
-      <c r="Q30" s="36"/>
-      <c r="R30" s="36"/>
-      <c r="S30" s="36"/>
-      <c r="T30" s="36"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="52"/>
+      <c r="P30" s="52"/>
+      <c r="Q30" s="56"/>
+      <c r="R30" s="56"/>
+      <c r="S30" s="56"/>
+      <c r="T30" s="56"/>
     </row>
     <row r="31" spans="2:20" ht="18" x14ac:dyDescent="0.2">
       <c r="B31" s="14"/>
@@ -4149,19 +4546,19 @@
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="43"/>
-      <c r="L31" s="43"/>
-      <c r="M31" s="43"/>
-      <c r="N31" s="43"/>
-      <c r="O31" s="43"/>
-      <c r="P31" s="43"/>
-      <c r="Q31" s="36"/>
-      <c r="R31" s="36"/>
-      <c r="S31" s="36"/>
-      <c r="T31" s="36"/>
-    </row>
-    <row r="32" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="J31" s="54"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="52"/>
+      <c r="P31" s="52"/>
+      <c r="Q31" s="56"/>
+      <c r="R31" s="56"/>
+      <c r="S31" s="56"/>
+      <c r="T31" s="56"/>
+    </row>
+    <row r="32" spans="2:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
@@ -4170,238 +4567,366 @@
       <c r="G32" s="14"/>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
-      <c r="J32" s="14" t="s">
+      <c r="J32" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="K32" s="47"/>
-      <c r="L32" s="47"/>
-      <c r="M32" s="47"/>
-      <c r="N32" s="47"/>
-      <c r="O32" s="38"/>
-      <c r="P32" s="38"/>
-      <c r="Q32" s="38"/>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B33" s="37"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="38"/>
-    </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B36" s="38"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38"/>
-    </row>
-    <row r="37" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
-      <c r="L37" s="48"/>
-      <c r="M37" s="47"/>
-      <c r="N37" s="47"/>
-      <c r="O37" s="47"/>
-      <c r="P37" s="47"/>
-      <c r="Q37" s="47"/>
-    </row>
-    <row r="38" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="38"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38"/>
-      <c r="L38" s="47"/>
-      <c r="M38" s="47"/>
-      <c r="N38" s="47"/>
-      <c r="O38" s="47"/>
-      <c r="P38" s="47"/>
-      <c r="Q38" s="47"/>
-    </row>
-    <row r="39" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="38"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="38"/>
-      <c r="J39" s="38"/>
-      <c r="K39" s="38"/>
-      <c r="L39" s="47"/>
-      <c r="M39" s="47"/>
-      <c r="N39" s="47"/>
-      <c r="O39" s="47"/>
-      <c r="P39" s="47"/>
-      <c r="Q39" s="47"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="38"/>
-      <c r="K40" s="38"/>
-      <c r="L40" s="38"/>
-      <c r="M40" s="38"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B41" s="38"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="38"/>
-      <c r="J41" s="38"/>
-      <c r="K41" s="38"/>
-      <c r="L41" s="38"/>
-      <c r="M41" s="38"/>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B42" s="38"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="38"/>
-      <c r="J42" s="38"/>
-      <c r="K42" s="38"/>
-      <c r="L42" s="38"/>
-      <c r="M42" s="38"/>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B43" s="38"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="38"/>
-      <c r="J43" s="38"/>
-      <c r="K43" s="38"/>
-      <c r="L43" s="38"/>
-      <c r="M43" s="38"/>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B44" s="38"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="38"/>
-      <c r="K44" s="38"/>
-      <c r="L44" s="38"/>
-      <c r="M44" s="38"/>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="G45" s="38"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="38"/>
-      <c r="J45" s="38"/>
-      <c r="K45" s="38"/>
-      <c r="L45" s="38"/>
-      <c r="M45" s="38"/>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="G46" s="38"/>
-      <c r="H46" s="38"/>
-      <c r="I46" s="38"/>
-      <c r="J46" s="38"/>
-      <c r="K46" s="38"/>
-      <c r="L46" s="38"/>
-      <c r="M46" s="38"/>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="G47" s="38"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="38"/>
-      <c r="J47" s="38"/>
-      <c r="K47" s="38"/>
-      <c r="L47" s="38"/>
-      <c r="M47" s="38"/>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="G48" s="38"/>
-      <c r="H48" s="38"/>
-      <c r="I48" s="38"/>
-      <c r="J48" s="38"/>
-      <c r="K48" s="38"/>
-      <c r="L48" s="38"/>
-      <c r="M48" s="38"/>
-    </row>
-    <row r="49" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="G49" s="38"/>
-      <c r="H49" s="38"/>
-      <c r="I49" s="38"/>
-      <c r="J49" s="38"/>
-      <c r="K49" s="38"/>
-      <c r="L49" s="38"/>
-      <c r="M49" s="38"/>
-    </row>
-    <row r="50" spans="7:13" x14ac:dyDescent="0.2">
-      <c r="G50" s="38"/>
-      <c r="H50" s="38"/>
-      <c r="I50" s="38"/>
-      <c r="J50" s="38"/>
-      <c r="K50" s="38"/>
-      <c r="L50" s="38"/>
-      <c r="M50" s="38"/>
+      <c r="K32" s="57" t="s">
+        <v>140</v>
+      </c>
+      <c r="L32" s="57"/>
+      <c r="M32" s="57"/>
+      <c r="N32" s="57"/>
+      <c r="O32" s="57"/>
+      <c r="P32" s="57"/>
+      <c r="Q32" s="53"/>
+      <c r="R32" s="53"/>
+      <c r="S32" s="53"/>
+      <c r="T32" s="53"/>
+    </row>
+    <row r="33" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="57"/>
+      <c r="M33" s="57"/>
+      <c r="N33" s="57"/>
+      <c r="O33" s="57"/>
+      <c r="P33" s="57"/>
+      <c r="Q33" s="53"/>
+      <c r="R33" s="53"/>
+      <c r="S33" s="53"/>
+      <c r="T33" s="53"/>
+    </row>
+    <row r="34" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="54"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="57"/>
+      <c r="M34" s="57"/>
+      <c r="N34" s="57"/>
+      <c r="O34" s="57"/>
+      <c r="P34" s="57"/>
+      <c r="Q34" s="53"/>
+      <c r="R34" s="53"/>
+      <c r="S34" s="53"/>
+      <c r="T34" s="53"/>
+    </row>
+    <row r="35" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="54"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="57"/>
+      <c r="M35" s="57"/>
+      <c r="N35" s="57"/>
+      <c r="O35" s="57"/>
+      <c r="P35" s="57"/>
+      <c r="Q35" s="53"/>
+      <c r="R35" s="53"/>
+      <c r="S35" s="53"/>
+      <c r="T35" s="53"/>
+    </row>
+    <row r="36" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="54"/>
+      <c r="K36" s="57"/>
+      <c r="L36" s="57"/>
+      <c r="M36" s="57"/>
+      <c r="N36" s="57"/>
+      <c r="O36" s="57"/>
+      <c r="P36" s="57"/>
+      <c r="Q36" s="53"/>
+      <c r="R36" s="53"/>
+      <c r="S36" s="53"/>
+      <c r="T36" s="53"/>
+    </row>
+    <row r="37" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="40"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="54"/>
+      <c r="K37" s="57"/>
+      <c r="L37" s="57"/>
+      <c r="M37" s="57"/>
+      <c r="N37" s="57"/>
+      <c r="O37" s="57"/>
+      <c r="P37" s="57"/>
+      <c r="Q37" s="53"/>
+      <c r="R37" s="53"/>
+      <c r="S37" s="53"/>
+      <c r="T37" s="53"/>
+    </row>
+    <row r="38" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="40"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="42"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="24"/>
+      <c r="O38" s="24"/>
+      <c r="P38" s="24"/>
+      <c r="Q38" s="24"/>
+    </row>
+    <row r="39" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="40"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="24"/>
+      <c r="O39" s="24"/>
+      <c r="P39" s="24"/>
+      <c r="Q39" s="24"/>
+    </row>
+    <row r="40" spans="2:20" ht="21" x14ac:dyDescent="0.2">
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+    </row>
+    <row r="41" spans="2:20" ht="21" x14ac:dyDescent="0.2">
+      <c r="B41" s="40"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="20"/>
+    </row>
+    <row r="42" spans="2:20" ht="21" x14ac:dyDescent="0.2">
+      <c r="B42" s="40"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="40"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="20"/>
+    </row>
+    <row r="43" spans="2:20" ht="21" x14ac:dyDescent="0.2">
+      <c r="B43" s="40"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="40"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="20"/>
+      <c r="M43" s="20"/>
+    </row>
+    <row r="44" spans="2:20" ht="21" x14ac:dyDescent="0.2">
+      <c r="B44" s="40"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="20"/>
+      <c r="L44" s="20"/>
+      <c r="M44" s="20"/>
+    </row>
+    <row r="45" spans="2:20" ht="21" x14ac:dyDescent="0.2">
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="20"/>
+      <c r="L45" s="20"/>
+      <c r="M45" s="20"/>
+    </row>
+    <row r="46" spans="2:20" ht="21" x14ac:dyDescent="0.25">
+      <c r="B46" s="43"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="42"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="20"/>
+      <c r="L46" s="20"/>
+      <c r="M46" s="20"/>
+    </row>
+    <row r="47" spans="2:20" ht="23" x14ac:dyDescent="0.25">
+      <c r="B47" s="47" t="s">
+        <v>142</v>
+      </c>
+      <c r="C47" s="47"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="J47" s="20"/>
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="20"/>
+    </row>
+    <row r="48" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="B48" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="20"/>
+      <c r="L48" s="20"/>
+      <c r="M48" s="20"/>
+    </row>
+    <row r="49" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>151</v>
+      </c>
+      <c r="B49" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="F49" s="26"/>
+      <c r="G49" s="44"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="20"/>
+      <c r="K49" s="20"/>
+      <c r="L49" s="20"/>
+      <c r="M49" s="20"/>
+    </row>
+    <row r="50" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="B50" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="F50" s="26"/>
+      <c r="G50" s="44" t="s">
+        <v>145</v>
+      </c>
+      <c r="H50" s="24"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="20"/>
+      <c r="M50" s="20"/>
+    </row>
+    <row r="51" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="B51" s="14"/>
+      <c r="C51" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+    </row>
+    <row r="54" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="B54" s="14" t="s">
+        <v>152</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="K21:P23"/>
-    <mergeCell ref="K24:P26"/>
-    <mergeCell ref="K27:P31"/>
-    <mergeCell ref="B6:D7"/>
-    <mergeCell ref="B1:H2"/>
+  <mergeCells count="28">
+    <mergeCell ref="Q32:T37"/>
+    <mergeCell ref="J20:T20"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="K32:P37"/>
+    <mergeCell ref="J32:J37"/>
+    <mergeCell ref="B34:H44"/>
     <mergeCell ref="Q27:T31"/>
     <mergeCell ref="J27:J31"/>
     <mergeCell ref="J21:J23"/>
@@ -4414,6 +4939,13 @@
     <mergeCell ref="C21:H23"/>
     <mergeCell ref="C24:H26"/>
     <mergeCell ref="C29:H30"/>
+    <mergeCell ref="Q24:T26"/>
+    <mergeCell ref="Q21:T23"/>
+    <mergeCell ref="K21:P23"/>
+    <mergeCell ref="K24:P26"/>
+    <mergeCell ref="K27:P31"/>
+    <mergeCell ref="B6:D7"/>
+    <mergeCell ref="B1:H2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4422,95 +4954,282 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:J15"/>
+  <dimension ref="A2:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+    <row r="2" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+    </row>
+    <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="14"/>
+      <c r="B3" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="D3" s="37"/>
+      <c r="E3" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+    </row>
+    <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="14"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="14"/>
+    </row>
+    <row r="5" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="14"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="14"/>
+    </row>
+    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="14"/>
+      <c r="B6" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="D6" s="51"/>
+      <c r="E6" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="14"/>
+    </row>
+    <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="14"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+    </row>
+    <row r="8" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="14"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+    </row>
+    <row r="9" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+    </row>
+    <row r="10" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+    </row>
+    <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+    </row>
+    <row r="12" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+    </row>
+    <row r="13" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+    </row>
+    <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+    </row>
+    <row r="15" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14" t="s">
         <v>118</v>
       </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+    </row>
+    <row r="16" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+    </row>
+    <row r="17" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+    </row>
+    <row r="18" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+    </row>
+    <row r="19" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+    </row>
+    <row r="20" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+    </row>
+    <row r="21" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="6">
     <mergeCell ref="E3:H5"/>
     <mergeCell ref="E6:H8"/>
+    <mergeCell ref="C3:D5"/>
+    <mergeCell ref="C6:D8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B3:B5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/日语.xlsx
+++ b/日语.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="24900" windowHeight="15560" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="24880" windowHeight="15560" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="动词形态" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="158">
   <si>
     <t>三类动词</t>
     <rPh sb="0" eb="1">
@@ -2504,6 +2504,46 @@
     </rPh>
     <rPh sb="225" eb="226">
       <t>you qv wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>お湯を「沸かす」</t>
+    <rPh sb="1" eb="2">
+      <t>ゆ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>わk</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>お湯が「沸く」</t>
+    <rPh sb="4" eb="5">
+      <t>わく</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水烧开了(自动)</t>
+    <rPh sb="0" eb="1">
+      <t>shui</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>shao kai le</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zi dong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烧水（他动）</t>
+    <rPh sb="0" eb="1">
+      <t>shao shui</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ta dong</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2797,54 +2837,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2858,32 +2850,68 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2891,8 +2919,20 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3308,10 +3348,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:C10"/>
+  <dimension ref="A3:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3368,6 +3408,22 @@
     <row r="10" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="B10" s="17" t="s">
         <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>154</v>
+      </c>
+      <c r="C14" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -3456,17 +3512,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="3" spans="1:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="29"/>
+      <c r="C3" s="41"/>
     </row>
     <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="14"/>
@@ -3482,33 +3538,33 @@
     </row>
     <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
     </row>
     <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="31" t="s">
+      <c r="B6" s="43"/>
+      <c r="C6" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31" t="s">
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
     </row>
@@ -3517,16 +3573,16 @@
       <c r="B7" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26" t="s">
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
     </row>
@@ -3535,16 +3591,16 @@
       <c r="B8" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26" t="s">
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
     </row>
@@ -3574,83 +3630,83 @@
     </row>
     <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
     </row>
     <row r="12" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="31" t="s">
+      <c r="B12" s="36"/>
+      <c r="C12" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="33" t="s">
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="35"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="46"/>
     </row>
     <row r="13" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
       <c r="B13" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26" t="s">
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
     </row>
     <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="37" t="s">
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
     </row>
     <row r="15" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
     </row>
     <row r="16" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
@@ -3731,10 +3787,10 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="29"/>
+      <c r="C27" s="41"/>
     </row>
     <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B28" s="14" t="s">
@@ -3750,32 +3806,32 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="30" t="s">
+      <c r="C30" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
       <c r="I30" s="14"/>
       <c r="J30" s="14"/>
     </row>
     <row r="31" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="28"/>
-      <c r="C31" s="31" t="s">
+      <c r="B31" s="43"/>
+      <c r="C31" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31" t="s">
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
       <c r="I31" s="14"/>
       <c r="J31" s="14"/>
     </row>
@@ -3783,16 +3839,16 @@
       <c r="B32" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26" t="s">
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
       <c r="I32" s="14"/>
       <c r="J32" s="14"/>
     </row>
@@ -3800,16 +3856,16 @@
       <c r="B33" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26" t="s">
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
       <c r="I33" s="14"/>
       <c r="J33" s="14"/>
     </row>
@@ -3836,79 +3892,79 @@
       <c r="J35" s="14"/>
     </row>
     <row r="36" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="32" t="s">
+      <c r="B36" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="30" t="s">
+      <c r="C36" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
     </row>
     <row r="37" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="32"/>
-      <c r="C37" s="31" t="s">
+      <c r="B37" s="36"/>
+      <c r="C37" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="33" t="s">
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="35"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="45"/>
+      <c r="J37" s="46"/>
     </row>
     <row r="38" spans="2:13" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="38" t="s">
+      <c r="C38" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38" t="s">
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="38"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
     </row>
     <row r="39" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="36" t="s">
+      <c r="B39" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="39" t="s">
+      <c r="C39" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="39" t="s">
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="H39" s="38"/>
-      <c r="I39" s="38"/>
-      <c r="J39" s="38"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="33"/>
     </row>
     <row r="40" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="36"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="38"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="33"/>
       <c r="K40" t="s">
         <v>78</v>
       </c>
@@ -3924,20 +3980,20 @@
       </c>
     </row>
     <row r="44" spans="2:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="B44" s="45" t="s">
+      <c r="B44" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="C44" s="46"/>
-      <c r="D44" s="46"/>
-      <c r="E44" s="46"/>
-      <c r="F44" s="46"/>
-      <c r="G44" s="46"/>
-      <c r="H44" s="46"/>
-      <c r="I44" s="46"/>
-      <c r="J44" s="46"/>
-      <c r="K44" s="46"/>
-      <c r="L44" s="46"/>
-      <c r="M44" s="46"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="30"/>
+      <c r="L44" s="30"/>
+      <c r="M44" s="30"/>
     </row>
     <row r="45" spans="2:13" ht="18" x14ac:dyDescent="0.2">
       <c r="B45" s="14"/>
@@ -3968,11 +4024,21 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:F40"/>
-    <mergeCell ref="G39:J40"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="G13:J13"/>
     <mergeCell ref="B36:B37"/>
     <mergeCell ref="C36:J36"/>
     <mergeCell ref="C37:F37"/>
@@ -3989,21 +4055,11 @@
     <mergeCell ref="F32:H32"/>
     <mergeCell ref="C33:E33"/>
     <mergeCell ref="F33:H33"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:F40"/>
+    <mergeCell ref="G39:J40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4021,25 +4077,25 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
       <c r="I1" s="21"/>
     </row>
     <row r="2" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
       <c r="I2" s="21"/>
     </row>
     <row r="3" spans="2:14" ht="18" x14ac:dyDescent="0.2">
@@ -4057,16 +4113,16 @@
       <c r="D4" s="14"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
     </row>
     <row r="8" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B8" s="14" t="s">
@@ -4281,261 +4337,261 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
-      <c r="J20" s="60" t="s">
+      <c r="J20" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="60"/>
-      <c r="O20" s="60"/>
-      <c r="P20" s="60"/>
-      <c r="Q20" s="60"/>
-      <c r="R20" s="60"/>
-      <c r="S20" s="60"/>
-      <c r="T20" s="60"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="48"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="48"/>
+      <c r="R20" s="48"/>
+      <c r="S20" s="48"/>
+      <c r="T20" s="48"/>
     </row>
     <row r="21" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="58" t="s">
+      <c r="B21" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="C21" s="50" t="s">
+      <c r="C21" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
       <c r="I21" s="22"/>
-      <c r="J21" s="49" t="s">
+      <c r="J21" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="K21" s="52" t="s">
+      <c r="K21" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="52"/>
-      <c r="O21" s="52"/>
-      <c r="P21" s="52"/>
-      <c r="Q21" s="53"/>
-      <c r="R21" s="53"/>
-      <c r="S21" s="53"/>
-      <c r="T21" s="53"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="58"/>
+      <c r="O21" s="58"/>
+      <c r="P21" s="58"/>
+      <c r="Q21" s="47"/>
+      <c r="R21" s="47"/>
+      <c r="S21" s="47"/>
+      <c r="T21" s="47"/>
     </row>
     <row r="22" spans="2:20" ht="18" x14ac:dyDescent="0.2">
-      <c r="B22" s="58"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
       <c r="I22" s="22"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="52"/>
-      <c r="O22" s="52"/>
-      <c r="P22" s="52"/>
-      <c r="Q22" s="53"/>
-      <c r="R22" s="53"/>
-      <c r="S22" s="53"/>
-      <c r="T22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="58"/>
+      <c r="P22" s="58"/>
+      <c r="Q22" s="47"/>
+      <c r="R22" s="47"/>
+      <c r="S22" s="47"/>
+      <c r="T22" s="47"/>
     </row>
     <row r="23" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="58"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
       <c r="I23" s="22"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="52"/>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="53"/>
-      <c r="R23" s="53"/>
-      <c r="S23" s="53"/>
-      <c r="T23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="58"/>
+      <c r="O23" s="58"/>
+      <c r="P23" s="58"/>
+      <c r="Q23" s="47"/>
+      <c r="R23" s="47"/>
+      <c r="S23" s="47"/>
+      <c r="T23" s="47"/>
     </row>
     <row r="24" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="54" t="s">
+      <c r="B24" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="C24" s="50" t="s">
+      <c r="C24" s="56" t="s">
         <v>124</v>
       </c>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
       <c r="I24" s="22"/>
-      <c r="J24" s="54" t="s">
+      <c r="J24" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="K24" s="52" t="s">
+      <c r="K24" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="L24" s="52"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="52"/>
-      <c r="O24" s="52"/>
-      <c r="P24" s="52"/>
-      <c r="Q24" s="55" t="s">
+      <c r="L24" s="58"/>
+      <c r="M24" s="58"/>
+      <c r="N24" s="58"/>
+      <c r="O24" s="58"/>
+      <c r="P24" s="58"/>
+      <c r="Q24" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="R24" s="55"/>
-      <c r="S24" s="55"/>
-      <c r="T24" s="55"/>
+      <c r="R24" s="57"/>
+      <c r="S24" s="57"/>
+      <c r="T24" s="57"/>
     </row>
     <row r="25" spans="2:20" ht="18" x14ac:dyDescent="0.2">
-      <c r="B25" s="54"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
       <c r="I25" s="22"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="52"/>
-      <c r="O25" s="52"/>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="55"/>
-      <c r="R25" s="55"/>
-      <c r="S25" s="55"/>
-      <c r="T25" s="55"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="58"/>
+      <c r="N25" s="58"/>
+      <c r="O25" s="58"/>
+      <c r="P25" s="58"/>
+      <c r="Q25" s="57"/>
+      <c r="R25" s="57"/>
+      <c r="S25" s="57"/>
+      <c r="T25" s="57"/>
     </row>
     <row r="26" spans="2:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="54"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
       <c r="I26" s="22"/>
-      <c r="J26" s="54"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="52"/>
-      <c r="M26" s="52"/>
-      <c r="N26" s="52"/>
-      <c r="O26" s="52"/>
-      <c r="P26" s="52"/>
-      <c r="Q26" s="55"/>
-      <c r="R26" s="55"/>
-      <c r="S26" s="55"/>
-      <c r="T26" s="55"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="58"/>
+      <c r="N26" s="58"/>
+      <c r="O26" s="58"/>
+      <c r="P26" s="58"/>
+      <c r="Q26" s="57"/>
+      <c r="R26" s="57"/>
+      <c r="S26" s="57"/>
+      <c r="T26" s="57"/>
     </row>
     <row r="27" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="59" t="s">
+      <c r="B27" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="57" t="s">
+      <c r="C27" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
       <c r="I27" s="23"/>
-      <c r="J27" s="54" t="s">
+      <c r="J27" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="K27" s="52" t="s">
+      <c r="K27" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="L27" s="52"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="52"/>
-      <c r="O27" s="52"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="56" t="s">
+      <c r="L27" s="58"/>
+      <c r="M27" s="58"/>
+      <c r="N27" s="58"/>
+      <c r="O27" s="58"/>
+      <c r="P27" s="58"/>
+      <c r="Q27" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="R27" s="56"/>
-      <c r="S27" s="56"/>
-      <c r="T27" s="56"/>
+      <c r="R27" s="52"/>
+      <c r="S27" s="52"/>
+      <c r="T27" s="52"/>
     </row>
     <row r="28" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="59"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
       <c r="I28" s="23"/>
-      <c r="J28" s="54"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="52"/>
-      <c r="M28" s="52"/>
-      <c r="N28" s="52"/>
-      <c r="O28" s="52"/>
-      <c r="P28" s="52"/>
-      <c r="Q28" s="56"/>
-      <c r="R28" s="56"/>
-      <c r="S28" s="56"/>
-      <c r="T28" s="56"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="58"/>
+      <c r="L28" s="58"/>
+      <c r="M28" s="58"/>
+      <c r="N28" s="58"/>
+      <c r="O28" s="58"/>
+      <c r="P28" s="58"/>
+      <c r="Q28" s="52"/>
+      <c r="R28" s="52"/>
+      <c r="S28" s="52"/>
+      <c r="T28" s="52"/>
     </row>
     <row r="29" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="59" t="s">
+      <c r="B29" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="C29" s="50" t="s">
+      <c r="C29" s="56" t="s">
         <v>129</v>
       </c>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
       <c r="I29" s="22"/>
-      <c r="J29" s="54"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="52"/>
-      <c r="M29" s="52"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="52"/>
-      <c r="P29" s="52"/>
-      <c r="Q29" s="56"/>
-      <c r="R29" s="56"/>
-      <c r="S29" s="56"/>
-      <c r="T29" s="56"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="58"/>
+      <c r="M29" s="58"/>
+      <c r="N29" s="58"/>
+      <c r="O29" s="58"/>
+      <c r="P29" s="58"/>
+      <c r="Q29" s="52"/>
+      <c r="R29" s="52"/>
+      <c r="S29" s="52"/>
+      <c r="T29" s="52"/>
     </row>
     <row r="30" spans="2:20" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="59"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="50"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
       <c r="I30" s="22"/>
-      <c r="J30" s="54"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="52"/>
-      <c r="M30" s="52"/>
-      <c r="N30" s="52"/>
-      <c r="O30" s="52"/>
-      <c r="P30" s="52"/>
-      <c r="Q30" s="56"/>
-      <c r="R30" s="56"/>
-      <c r="S30" s="56"/>
-      <c r="T30" s="56"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="58"/>
+      <c r="L30" s="58"/>
+      <c r="M30" s="58"/>
+      <c r="N30" s="58"/>
+      <c r="O30" s="58"/>
+      <c r="P30" s="58"/>
+      <c r="Q30" s="52"/>
+      <c r="R30" s="52"/>
+      <c r="S30" s="52"/>
+      <c r="T30" s="52"/>
     </row>
     <row r="31" spans="2:20" ht="18" x14ac:dyDescent="0.2">
       <c r="B31" s="14"/>
@@ -4546,17 +4602,17 @@
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="52"/>
-      <c r="M31" s="52"/>
-      <c r="N31" s="52"/>
-      <c r="O31" s="52"/>
-      <c r="P31" s="52"/>
-      <c r="Q31" s="56"/>
-      <c r="R31" s="56"/>
-      <c r="S31" s="56"/>
-      <c r="T31" s="56"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="58"/>
+      <c r="L31" s="58"/>
+      <c r="M31" s="58"/>
+      <c r="N31" s="58"/>
+      <c r="O31" s="58"/>
+      <c r="P31" s="58"/>
+      <c r="Q31" s="52"/>
+      <c r="R31" s="52"/>
+      <c r="S31" s="52"/>
+      <c r="T31" s="52"/>
     </row>
     <row r="32" spans="2:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="14"/>
@@ -4567,140 +4623,140 @@
       <c r="G32" s="14"/>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
-      <c r="J32" s="54" t="s">
+      <c r="J32" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="K32" s="57" t="s">
+      <c r="K32" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="L32" s="57"/>
-      <c r="M32" s="57"/>
-      <c r="N32" s="57"/>
-      <c r="O32" s="57"/>
-      <c r="P32" s="57"/>
-      <c r="Q32" s="53"/>
-      <c r="R32" s="53"/>
-      <c r="S32" s="53"/>
-      <c r="T32" s="53"/>
+      <c r="L32" s="49"/>
+      <c r="M32" s="49"/>
+      <c r="N32" s="49"/>
+      <c r="O32" s="49"/>
+      <c r="P32" s="49"/>
+      <c r="Q32" s="47"/>
+      <c r="R32" s="47"/>
+      <c r="S32" s="47"/>
+      <c r="T32" s="47"/>
     </row>
     <row r="33" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="54"/>
-      <c r="K33" s="57"/>
-      <c r="L33" s="57"/>
-      <c r="M33" s="57"/>
-      <c r="N33" s="57"/>
-      <c r="O33" s="57"/>
-      <c r="P33" s="57"/>
-      <c r="Q33" s="53"/>
-      <c r="R33" s="53"/>
-      <c r="S33" s="53"/>
-      <c r="T33" s="53"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="49"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="49"/>
+      <c r="O33" s="49"/>
+      <c r="P33" s="49"/>
+      <c r="Q33" s="47"/>
+      <c r="R33" s="47"/>
+      <c r="S33" s="47"/>
+      <c r="T33" s="47"/>
     </row>
     <row r="34" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="40" t="s">
+      <c r="B34" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="54"/>
-      <c r="K34" s="57"/>
-      <c r="L34" s="57"/>
-      <c r="M34" s="57"/>
-      <c r="N34" s="57"/>
-      <c r="O34" s="57"/>
-      <c r="P34" s="57"/>
-      <c r="Q34" s="53"/>
-      <c r="R34" s="53"/>
-      <c r="S34" s="53"/>
-      <c r="T34" s="53"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="49"/>
+      <c r="L34" s="49"/>
+      <c r="M34" s="49"/>
+      <c r="N34" s="49"/>
+      <c r="O34" s="49"/>
+      <c r="P34" s="49"/>
+      <c r="Q34" s="47"/>
+      <c r="R34" s="47"/>
+      <c r="S34" s="47"/>
+      <c r="T34" s="47"/>
     </row>
     <row r="35" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="40"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="54"/>
-      <c r="K35" s="57"/>
-      <c r="L35" s="57"/>
-      <c r="M35" s="57"/>
-      <c r="N35" s="57"/>
-      <c r="O35" s="57"/>
-      <c r="P35" s="57"/>
-      <c r="Q35" s="53"/>
-      <c r="R35" s="53"/>
-      <c r="S35" s="53"/>
-      <c r="T35" s="53"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="49"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="49"/>
+      <c r="O35" s="49"/>
+      <c r="P35" s="49"/>
+      <c r="Q35" s="47"/>
+      <c r="R35" s="47"/>
+      <c r="S35" s="47"/>
+      <c r="T35" s="47"/>
     </row>
     <row r="36" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="40"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="40"/>
-      <c r="H36" s="40"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="54"/>
-      <c r="K36" s="57"/>
-      <c r="L36" s="57"/>
-      <c r="M36" s="57"/>
-      <c r="N36" s="57"/>
-      <c r="O36" s="57"/>
-      <c r="P36" s="57"/>
-      <c r="Q36" s="53"/>
-      <c r="R36" s="53"/>
-      <c r="S36" s="53"/>
-      <c r="T36" s="53"/>
+      <c r="B36" s="51"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="49"/>
+      <c r="M36" s="49"/>
+      <c r="N36" s="49"/>
+      <c r="O36" s="49"/>
+      <c r="P36" s="49"/>
+      <c r="Q36" s="47"/>
+      <c r="R36" s="47"/>
+      <c r="S36" s="47"/>
+      <c r="T36" s="47"/>
     </row>
     <row r="37" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="40"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="40"/>
-      <c r="F37" s="40"/>
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="42"/>
-      <c r="J37" s="54"/>
-      <c r="K37" s="57"/>
-      <c r="L37" s="57"/>
-      <c r="M37" s="57"/>
-      <c r="N37" s="57"/>
-      <c r="O37" s="57"/>
-      <c r="P37" s="57"/>
-      <c r="Q37" s="53"/>
-      <c r="R37" s="53"/>
-      <c r="S37" s="53"/>
-      <c r="T37" s="53"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="49"/>
+      <c r="L37" s="49"/>
+      <c r="M37" s="49"/>
+      <c r="N37" s="49"/>
+      <c r="O37" s="49"/>
+      <c r="P37" s="49"/>
+      <c r="Q37" s="47"/>
+      <c r="R37" s="47"/>
+      <c r="S37" s="47"/>
+      <c r="T37" s="47"/>
     </row>
     <row r="38" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="40"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="42"/>
+      <c r="B38" s="51"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="26"/>
       <c r="K38" s="24"/>
       <c r="L38" s="24"/>
       <c r="M38" s="24"/>
@@ -4710,14 +4766,14 @@
       <c r="Q38" s="24"/>
     </row>
     <row r="39" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="40"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="40"/>
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="42"/>
+      <c r="B39" s="51"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="26"/>
       <c r="J39" s="20"/>
       <c r="K39" s="20"/>
       <c r="L39" s="24"/>
@@ -4728,70 +4784,70 @@
       <c r="Q39" s="24"/>
     </row>
     <row r="40" spans="2:20" ht="21" x14ac:dyDescent="0.2">
-      <c r="B40" s="40"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="42"/>
+      <c r="B40" s="51"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="26"/>
       <c r="J40" s="20"/>
       <c r="K40" s="20"/>
       <c r="L40" s="20"/>
       <c r="M40" s="20"/>
     </row>
     <row r="41" spans="2:20" ht="21" x14ac:dyDescent="0.2">
-      <c r="B41" s="40"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="42"/>
+      <c r="B41" s="51"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="26"/>
       <c r="J41" s="20"/>
       <c r="K41" s="20"/>
       <c r="L41" s="20"/>
       <c r="M41" s="20"/>
     </row>
     <row r="42" spans="2:20" ht="21" x14ac:dyDescent="0.2">
-      <c r="B42" s="40"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="40"/>
-      <c r="G42" s="40"/>
-      <c r="H42" s="40"/>
-      <c r="I42" s="42"/>
+      <c r="B42" s="51"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="26"/>
       <c r="J42" s="20"/>
       <c r="K42" s="20"/>
       <c r="L42" s="20"/>
       <c r="M42" s="20"/>
     </row>
     <row r="43" spans="2:20" ht="21" x14ac:dyDescent="0.2">
-      <c r="B43" s="40"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="40"/>
-      <c r="F43" s="40"/>
-      <c r="G43" s="40"/>
-      <c r="H43" s="40"/>
-      <c r="I43" s="42"/>
+      <c r="B43" s="51"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="51"/>
+      <c r="F43" s="51"/>
+      <c r="G43" s="51"/>
+      <c r="H43" s="51"/>
+      <c r="I43" s="26"/>
       <c r="J43" s="20"/>
       <c r="K43" s="20"/>
       <c r="L43" s="20"/>
       <c r="M43" s="20"/>
     </row>
     <row r="44" spans="2:20" ht="21" x14ac:dyDescent="0.2">
-      <c r="B44" s="40"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="40"/>
-      <c r="G44" s="40"/>
-      <c r="H44" s="40"/>
-      <c r="I44" s="42"/>
+      <c r="B44" s="51"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="51"/>
+      <c r="I44" s="26"/>
       <c r="J44" s="20"/>
       <c r="K44" s="20"/>
       <c r="L44" s="20"/>
@@ -4805,37 +4861,37 @@
       <c r="F45" s="25"/>
       <c r="G45" s="25"/>
       <c r="H45" s="25"/>
-      <c r="I45" s="42"/>
+      <c r="I45" s="26"/>
       <c r="J45" s="20"/>
       <c r="K45" s="20"/>
       <c r="L45" s="20"/>
       <c r="M45" s="20"/>
     </row>
     <row r="46" spans="2:20" ht="21" x14ac:dyDescent="0.25">
-      <c r="B46" s="43"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="42"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="26"/>
       <c r="J46" s="20"/>
       <c r="K46" s="20"/>
       <c r="L46" s="20"/>
       <c r="M46" s="20"/>
     </row>
     <row r="47" spans="2:20" ht="23" x14ac:dyDescent="0.25">
-      <c r="B47" s="47" t="s">
+      <c r="B47" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="C47" s="47"/>
-      <c r="D47" s="47"/>
-      <c r="E47" s="47"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="42"/>
-      <c r="I47" s="42" t="s">
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="26" t="s">
         <v>144</v>
       </c>
       <c r="J47" s="20"/>
@@ -4863,16 +4919,16 @@
       <c r="A49" t="s">
         <v>151</v>
       </c>
-      <c r="B49" s="26" t="s">
+      <c r="B49" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26" t="s">
+      <c r="C49" s="40"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="F49" s="26"/>
-      <c r="G49" s="44"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="28"/>
       <c r="H49" s="24"/>
       <c r="I49" s="20"/>
       <c r="J49" s="20"/>
@@ -4881,16 +4937,16 @@
       <c r="M49" s="20"/>
     </row>
     <row r="50" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="B50" s="26" t="s">
+      <c r="B50" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26" t="s">
+      <c r="C50" s="40"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="F50" s="26"/>
-      <c r="G50" s="44" t="s">
+      <c r="F50" s="40"/>
+      <c r="G50" s="28" t="s">
         <v>145</v>
       </c>
       <c r="H50" s="24"/>
@@ -4918,6 +4974,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B6:D7"/>
+    <mergeCell ref="B1:H2"/>
+    <mergeCell ref="Q24:T26"/>
+    <mergeCell ref="Q21:T23"/>
+    <mergeCell ref="K21:P23"/>
+    <mergeCell ref="K24:P26"/>
+    <mergeCell ref="K27:P31"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C21:H23"/>
+    <mergeCell ref="C24:H26"/>
+    <mergeCell ref="C29:H30"/>
     <mergeCell ref="Q32:T37"/>
     <mergeCell ref="J20:T20"/>
     <mergeCell ref="E49:F49"/>
@@ -4934,18 +5002,6 @@
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="C27:H28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C21:H23"/>
-    <mergeCell ref="C24:H26"/>
-    <mergeCell ref="C29:H30"/>
-    <mergeCell ref="Q24:T26"/>
-    <mergeCell ref="Q21:T23"/>
-    <mergeCell ref="K21:P23"/>
-    <mergeCell ref="K24:P26"/>
-    <mergeCell ref="K27:P31"/>
-    <mergeCell ref="B6:D7"/>
-    <mergeCell ref="B1:H2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4976,85 +5032,85 @@
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14"/>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="50" t="s">
+      <c r="D3" s="39"/>
+      <c r="E3" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="14"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="48"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="32"/>
       <c r="J4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="48"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="32"/>
       <c r="J5" s="14"/>
     </row>
     <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="D6" s="51"/>
-      <c r="E6" s="50" t="s">
+      <c r="D6" s="60"/>
+      <c r="E6" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="48"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="32"/>
       <c r="J6" s="14"/>
     </row>
     <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
     </row>
     <row r="8" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
     </row>

--- a/日语.xlsx
+++ b/日语.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="24880" windowHeight="15560" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="24880" windowHeight="15560" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="动词形态" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="形容词" sheetId="4" r:id="rId4"/>
     <sheet name="基本句" sheetId="5" r:id="rId5"/>
     <sheet name="体言用言" sheetId="6" r:id="rId6"/>
+    <sheet name="その他" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">动词形态!$A$1:$E$6</definedName>
@@ -32,94 +33,81 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="196">
   <si>
     <t>三类动词</t>
     <rPh sb="0" eb="1">
       <t>san lei dong ci</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>定义</t>
     <rPh sb="0" eb="1">
       <t>ding yi</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>以る结尾。い、え段 + る (一般情况)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>する、くる</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>（特殊）满足二类的规则，但却是一类的动词：
 焦る（あせる）、要る（いる）、帰る（かえる）、返る（かえる）、限る（かぎる）、切る（きる）、蹴る（ける）、茂る（しげる）、知る（しる）、喋る（しゃべる）、滑る（すべる）、散る（ちる）、入る（はいる）、走る（はしる）、減る（へる）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ます形</t>
     <rPh sb="2" eb="3">
       <t>xing</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>て形</t>
     <rPh sb="1" eb="2">
       <t>xing</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>た形</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>把词尾的「う」段假名变为同行「い」段假名后接「ます」</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>把词尾「る」去掉后接「ます」</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>「～する」变为「～し」后接「ます」；「来る」变为「来（き）」后接「ます」</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 动词“ます形”去掉ます后直接加て</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>“行きます”的て形是“行って”
 动词的た形的变形与て形完全一致（）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>↑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>词尾的「う」段假名变为同行「あ」段假名之后接「ない」</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>词尾「る」去掉后接「ない」</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「～する」变为「～し」后接「ない」
-「来る」变为「来（こ）」后接「ない」</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>词尾是「う」的动词将词尾变成「わ」而不是「あ」；
 「ある」没有ない形，对应的否定表达就是「ない」</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>自动词词尾</t>
@@ -129,7 +117,7 @@
     <rPh sb="3" eb="4">
       <t>ci wei</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>他动词词尾</t>
@@ -139,23 +127,23 @@
     <rPh sb="3" eb="4">
       <t>ci wei</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>aru</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>eru</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>eru、ru</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>su</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>完全相同</t>
@@ -165,31 +153,31 @@
     <rPh sb="2" eb="3">
       <t>xiang tong</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1. 词尾不是る结尾的
 2. 以る结尾。 あ、う、お段 + る
 3. 以る结尾。い、え段 + る，但是い、え段假名在汉字上面，如：入(はい)る</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 动词“ます形”去掉ます后直接加て</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>备注1</t>
     <rPh sb="0" eb="1">
       <t>bei zhu</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>备注2</t>
     <rPh sb="0" eb="1">
       <t>bei zhu</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>表示动词的现在时否定，对应的过去时否定为「なっかた」</t>
@@ -226,29 +214,29 @@
     <rPh sb="19" eb="20">
       <t>wei</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ない形</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>时态</t>
     <rPh sb="0" eb="1">
       <t>shi tai</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>敬体形</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>简体形</t>
     <rPh sb="0" eb="1">
       <t>jian ti xing</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>现在是否定形</t>
@@ -258,7 +246,7 @@
     <rPh sb="3" eb="4">
       <t>fou ding xing</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>过去式肯定形</t>
@@ -271,7 +259,7 @@
     <rPh sb="5" eb="6">
       <t>xing</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>现在时肯定形</t>
@@ -284,7 +272,7 @@
     <rPh sb="3" eb="4">
       <t>ken ding xing</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>过去时否定形</t>
@@ -300,35 +288,35 @@
     <rPh sb="5" eb="6">
       <t>xing</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>～ます（書きます）</t>
     <rPh sb="4" eb="5">
       <t>かきm</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>～ません（書きません）</t>
     <rPh sb="5" eb="6">
       <t>かきませn</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>～ました（書きました）</t>
     <rPh sb="5" eb="6">
       <t>かk</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>～ませんでした（書きませんでした）</t>
     <rPh sb="8" eb="9">
       <t>かk</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>动词基本形（書く）</t>
@@ -338,7 +326,7 @@
     <rPh sb="6" eb="7">
       <t>かく</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ない形的过去时（書かなかった）</t>
@@ -354,7 +342,7 @@
     <rPh sb="8" eb="9">
       <t>かかn</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ない形（書かない）</t>
@@ -364,7 +352,7 @@
     <rPh sb="4" eb="5">
       <t>かかな</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>た形（書いた）</t>
@@ -374,21 +362,21 @@
     <rPh sb="3" eb="4">
       <t>かいた</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>い形容词</t>
     <rPh sb="1" eb="2">
       <t>xing</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>い形容词</t>
     <rPh sb="1" eb="2">
       <t>xing rong ci</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>い形容词简体形</t>
@@ -398,7 +386,7 @@
     <rPh sb="4" eb="5">
       <t>jian ti xing</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>现在时</t>
@@ -408,14 +396,14 @@
     <rPh sb="2" eb="3">
       <t>shi</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>过去时</t>
     <rPh sb="0" eb="1">
       <t>guo qv shi</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>肯定形</t>
@@ -425,14 +413,14 @@
     <rPh sb="2" eb="3">
       <t>xing</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>否定形</t>
     <rPh sb="0" eb="1">
       <t>fou ding xing</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>い形容词词干 + い</t>
@@ -442,26 +430,26 @@
     <rPh sb="4" eb="5">
       <t>ci gan</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>い形容词词干 + かった</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>い形容词词干 + くない</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>い形容词词干 + くなかった</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>い形容词敬体形</t>
     <rPh sb="1" eb="2">
       <t>xing rong ci</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">い形容词词干 + い + です </t>
@@ -471,11 +459,11 @@
     <rPh sb="4" eb="5">
       <t>ci gan</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>い形容词词干 + かった + です</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -511,7 +499,7 @@
       </rPr>
       <t>ありません</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -547,39 +535,14 @@
       </rPr>
       <t>ありませんでした</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>て形：词尾「い」变成「く」再加「て」，即「い形容词词干 + く + て」。</t>
-    <rPh sb="1" eb="2">
-      <t>xing</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ci wei</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>bian chegn</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>zai jia</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ji</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>xing rong ci</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ci gan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>用法：</t>
     <rPh sb="0" eb="1">
       <t>yong fa</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>3. い形容词 + 动词（即作副词，要把词尾「い」改为「く」再接动词）</t>
@@ -607,7 +570,7 @@
     <rPh sb="32" eb="33">
       <t>dong ci</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1. い形容词 + 名词。い形容词简体形的过去时（い形容词词干 + かった）也可以用于修饰名词，表示该物体、事物过去的性质，状态等。</t>
@@ -674,14 +637,14 @@
     <rPh sb="64" eb="65">
       <t>deng</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>な形容词</t>
     <rPh sb="1" eb="2">
       <t>xing</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>な形容词简体形</t>
@@ -691,14 +654,14 @@
     <rPh sb="4" eb="5">
       <t>jian ti xing</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>な形容词</t>
     <rPh sb="1" eb="2">
       <t>xing rong ci</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>な形容词词干 + だ</t>
@@ -708,7 +671,7 @@
     <rPh sb="4" eb="5">
       <t>ci gan</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">な形容词词干 + です </t>
@@ -718,23 +681,23 @@
     <rPh sb="4" eb="5">
       <t>ci gan</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>な形容词词干 + だった</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>な形容词词干 + ではない</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>な形容词词干 + ではなかった</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>い形容词词干 + でした</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -770,7 +733,7 @@
       </rPr>
       <t>ではないです</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -806,7 +769,7 @@
       </rPr>
       <t>ではなかったです</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>（谓语是对主语动作或状态的陈述或说明）</t>
@@ -816,7 +779,7 @@
     <rPh sb="3" eb="4">
       <t>shi</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>句型中出现的「では」都可以换成「じゃ」</t>
@@ -838,7 +801,7 @@
     <rPh sb="10" eb="11">
       <t>dou ke yi huan cheng</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1. な形容词 + 名词。要把词尾的「だ」改为「な」再接名词。</t>
@@ -863,7 +826,7 @@
     <rPh sb="28" eb="29">
       <t>ming ci</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>3. な形容词 + 动词，要把词尾的「だ」改为「に」再接动词。</t>
@@ -888,7 +851,7 @@
     <rPh sb="28" eb="29">
       <t>dong ci</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2. い形容词「て」形，表示同一事物的各种性质。</t>
@@ -916,11 +879,11 @@
     <rPh sb="21" eb="22">
       <t>xing zhi</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>多个形容词用于对同一主体进行描述且属于并列关系时，「て」可以省略。这种表达方式多用于书面语。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>この道は暗く(て)危ないです。</t>
@@ -930,7 +893,7 @@
     <rPh sb="9" eb="10">
       <t>あぶな</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2. な形容词「で」形，在句中表示并列或者中顿时，要把词尾的「だ」改为「で」（形容词为「て」形，不是「で」形）</t>
@@ -991,7 +954,7 @@
     <rPh sb="53" eb="54">
       <t>xing</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>この町は賑やかで便利なところです。</t>
@@ -1001,7 +964,7 @@
     <rPh sb="8" eb="10">
       <t>ﾍﾞンr</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>この辺りはとても静かで、風景も綺麗です。</t>
@@ -1017,7 +980,7 @@
     <rPh sb="15" eb="17">
       <t>キレ</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>図書館では、静かに歩いてください。</t>
@@ -1030,7 +993,7 @@
     <rPh sb="9" eb="10">
       <t>あるいて</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>自动词宾语用が、他动词宾语用を</t>
@@ -1043,14 +1006,14 @@
     <rPh sb="13" eb="14">
       <t>yong</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>（大部分）五段动词一般都是自动词，一段动词一般都是他动词。</t>
     <rPh sb="1" eb="2">
       <t>da bu fen</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>一类动词(五段动词)</t>
@@ -1066,7 +1029,7 @@
     <rPh sb="7" eb="8">
       <t>dong ci</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>二类动词(一段动词)</t>
@@ -1079,7 +1042,7 @@
     <rPh sb="7" eb="8">
       <t>dong ci</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1196,105 +1159,7 @@
     <rPh sb="60" eb="61">
       <t>ming ci</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">动词"ます形"去掉"ます"后加"て"。加"て"的时候发音会有些变化。即：
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian (正文)"/>
-        <charset val="134"/>
-      </rPr>
-      <t>"き"-&gt;"いて"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4" tint="-0.249977111117893"/>
-        <rFont val="DengXian (正文)"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>"ぎ"-&gt;"いで"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian (正文)"/>
-        <charset val="134"/>
-      </rPr>
-      <t>“び、み、に"-&gt;"んで"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4" tint="-0.249977111117893"/>
-        <rFont val="DengXian (正文)"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>"ち、り、い"-&gt;"って"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian (正文)"/>
-        <charset val="134"/>
-      </rPr>
-      <t>"し"-&gt;"して"</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1326,7 +1191,7 @@
     <rPh sb="41" eb="42">
       <t>いっt</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>一、 AはBです。（名词判断句／名词句）</t>
@@ -1345,7 +1210,7 @@
     <rPh sb="18" eb="19">
       <t>jv</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1. A、B一定是名词</t>
@@ -1355,7 +1220,7 @@
     <rPh sb="9" eb="10">
       <t>ming ci</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2. です变化（4种敬+4种简体+で形）</t>
@@ -1377,7 +1242,7 @@
     <rPh sb="18" eb="19">
       <t>xing</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1461,7 +1326,7 @@
     <rPh sb="58" eb="59">
       <t>yuan yin</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1. 格助词用法</t>
@@ -1474,14 +1339,14 @@
     <rPh sb="6" eb="7">
       <t>yong fa</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>（10个）～が、～を、～の、～と、～へ、～に、～で、～から、～まで、～より</t>
     <rPh sb="3" eb="4">
       <t>ge</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2. 动词的变化</t>
@@ -1494,7 +1359,7 @@
     <rPh sb="6" eb="7">
       <t>bian hua</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>①　词尾（9种） う、く、ぐ、す、つ、ぬ、ぶ、も、る</t>
@@ -1504,7 +1369,7 @@
     <rPh sb="6" eb="7">
       <t>zhong</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>②　类型（四种）五段动词、一段动词、サ变动词、カ变动词</t>
@@ -1529,25 +1394,25 @@
     <rPh sb="24" eb="25">
       <t>bian dogn ci</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>3. 提示助词</t>
     <rPh sb="3" eb="4">
       <t>ti shi zhu ci</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>～は、～も、～でも、～しか、～さえ、～こそ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>4. 副词</t>
     <rPh sb="3" eb="4">
       <t>fu ci</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>用于修饰用言，一般放在被修饰的用言前面，不加任何助词。</t>
@@ -1581,7 +1446,7 @@
     <rPh sb="24" eb="25">
       <t>zhu ci</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>（四种）固定副词、数量词当副词、变性副词（原来不是副词，变换后成副词）、ABAB副词</t>
@@ -1630,7 +1495,7 @@
     <rPh sb="40" eb="41">
       <t>fu ci</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>用言</t>
@@ -1640,7 +1505,7 @@
     <rPh sb="1" eb="2">
       <t>yan</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>词干(无活用)+词尾(活用)</t>
@@ -1650,7 +1515,7 @@
     <rPh sb="8" eb="9">
       <t>ci wei</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>体言</t>
@@ -1660,7 +1525,7 @@
     <rPh sb="1" eb="2">
       <t>yan</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>无活用，因为没有词尾</t>
@@ -1673,7 +1538,7 @@
     <rPh sb="8" eb="9">
       <t>ci wei</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1. 动词：う、く、ぐ、す、つ、ぬ、ぶ、も、る
@@ -1688,7 +1553,7 @@
     <rPh sb="36" eb="37">
       <t>xing rong dong ci</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1. 名词
@@ -1703,11 +1568,11 @@
     <rPh sb="15" eb="16">
       <t>dai ci</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>在日语中，所有的用言处在句子的末尾，其它结构同汉语</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>下星期开始两周因工作原因去日本出差。（“去”是用言，放在最后）</t>
@@ -1744,11 +1609,11 @@
     <rPh sb="26" eb="27">
       <t>fang zai zui hou</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>下星期开始两周因工作原因日本出差去。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>来週から2週間仕事で日本へ出張に行く。</t>
@@ -1770,7 +1635,7 @@
     <rPh sb="16" eb="17">
       <t>いk</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>二、动词句</t>
@@ -1780,7 +1645,7 @@
     <rPh sb="2" eb="3">
       <t>dong ci jv</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>（一）～が〜で〜する（一般动词句）</t>
@@ -1793,7 +1658,7 @@
     <rPh sb="13" eb="14">
       <t>dong ci jv</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>〜に〜がある/いる（什么地方有什么）
@@ -1811,14 +1676,14 @@
     <rPh sb="51" eb="52">
       <t>you sheng ming</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1. 存在句</t>
     <rPh sb="3" eb="4">
       <t>cun zai jv</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>（二）特殊动词句（句子结构固定，如表示存在时一定是存在句这个结构）</t>
@@ -1858,7 +1723,7 @@
     <rPh sb="28" eb="29">
       <t>zhe ge jie gou</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>AがBにCをもらう（A从B那里得到了C，A是我方，B是对方）
@@ -1927,7 +1792,7 @@
     <rPh sb="83" eb="84">
       <t>dui fang</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2. 授受关系句</t>
@@ -1940,14 +1805,14 @@
     <rPh sb="5" eb="6">
       <t>guan xi jv</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>3. 来去目的句</t>
     <rPh sb="3" eb="4">
       <t>lai qv</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>〜が〜へ〜をくに行く/来る</t>
@@ -1957,7 +1822,7 @@
     <rPh sb="11" eb="12">
       <t>くR</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>4. 状态变化句</t>
@@ -1970,7 +1835,7 @@
     <rPh sb="7" eb="8">
       <t>jv</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>AがBく/に/になる（A变成了B，自然变化）
@@ -1993,7 +1858,7 @@
     <rPh sb="45" eb="46">
       <t>bian hua</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>特殊动词句的例子</t>
@@ -2006,40 +1871,40 @@
     <rPh sb="6" eb="7">
       <t>li zi</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>存在句</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>授受关系句</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>来去目的句</t>
   </si>
   <si>
     <t>状态变化句</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">事務所に社員が５人います。
 財布に（人民元が）２００元あります。
 私の車はガレージにあります。
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">私は田中さんに/からメールをもらいます。
 田中さんが私に日本語の辞書をくれました。
 私は田中さんに箸をあげました。
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>＊这三种句子中如果有我，我可以省略。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>映画を見るー＞〜見に
@@ -2110,7 +1975,7 @@
     <rPh sb="82" eb="83">
       <t>yong</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>私は町へ映画を見に行きます。
@@ -2178,7 +2043,7 @@
     <rPh sb="70" eb="71">
       <t>い</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>今は７時になりました。（名+に）
@@ -2240,7 +2105,7 @@
     <rPh sb="116" eb="117">
       <t>shi</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>需要注意的是特殊动词句在使用中不会把元素ABC说的那么的全。</t>
@@ -2277,7 +2142,7 @@
     <rPh sb="28" eb="29">
       <t>quan</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>三、Qは adj／adv作谓语。（描写句）</t>
@@ -2287,7 +2152,7 @@
     <rPh sb="17" eb="18">
       <t>miao xie jv</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1. 形容词变化。9种（4种敬+4种简体+で形）</t>
@@ -2300,14 +2165,14 @@
     <rPh sb="10" eb="11">
       <t>zhong</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>なの人(A)はうちの社長(B)で部下に優しく(形)て中国人(B)です。</t>
   </si>
   <si>
     <t>よって</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>いい=&gt;[よい]（现肯）</t>
@@ -2317,21 +2182,21 @@
     <rPh sb="10" eb="11">
       <t>ken</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>よくたり（否）</t>
     <rPh sb="5" eb="6">
       <t>fou</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>よかった（过）</t>
     <rPh sb="5" eb="6">
       <t>guo</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ようくなかった（过否）</t>
@@ -2341,7 +2206,7 @@
     <rPh sb="9" eb="10">
       <t>fou</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>いい的现在肯定时是いい、但是他的变化是基于[よい]。</t>
@@ -2375,11 +2240,11 @@
     <rPh sb="19" eb="20">
       <t>ji yu</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>特殊：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>番外：好きです中的です，无判断意义。名词句后面的です才有判断意义。</t>
@@ -2413,7 +2278,7 @@
     <rPh sb="30" eb="31">
       <t>yi yi</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">     資料があります。（有资料）
@@ -2505,7 +2370,7 @@
     <rPh sb="225" eb="226">
       <t>you qv wei</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>お湯を「沸かす」</t>
@@ -2515,14 +2380,14 @@
     <rPh sb="4" eb="5">
       <t>わk</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>お湯が「沸く」</t>
     <rPh sb="4" eb="5">
       <t>わく</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>水烧开了(自动)</t>
@@ -2535,7 +2400,7 @@
     <rPh sb="5" eb="6">
       <t>zi dong</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>烧水（他动）</t>
@@ -2545,14 +2410,1460 @@
     <rPh sb="3" eb="4">
       <t>ta dong</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>↑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>简单来说 【定语】是修饰【名称】的，【状语】是修饰【形容词】或【动词】的。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中国へ転勤した友达に手纸を书きます</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>【中国へ転勤した】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>做定语，用来修饰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>【友达】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">这个名词。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>【 私が明日乗る飞行机は中国航空です】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>【私が明日乗る】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>做定语，修饰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>【飞行机】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。所以这句中的大主语是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>【飞行机】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，而不是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>【私】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">哦。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>【これは明日会议で使う资料です】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>【明日会议で使う】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>做定语，修饰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>【资料】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。所以这句的主语是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>【これ】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>【资料】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">是宾语。
+状语例句：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>【日本语はとても面白いです】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>【とても】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>修饰形容词</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>【面白い】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>【家でゆっくり小说を読みます】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>【ゆっくり 】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">修饰动词 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>【読みます】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>意志形</t>
+    <rPh sb="0" eb="1">
+      <t>yi zhi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xing tai</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">动词"ます形"去掉"ます"后加"て"。加"て"的时候发音会有些变化。即：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"き"-&gt;"いて"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"ぎ"-&gt;"いで"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“び、み、に"-&gt;"んで"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"ち、り、い"-&gt;"って"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"し"-&gt;"して"</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「～する」变为「～し」后接「ない」
+「来る」变为「来（こ）」后接「ない」</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「来る」变为「来（こ）よう」
+「する」变为「しよう」</t>
+    <rPh sb="1" eb="2">
+      <t>クル</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>コヨ</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般不单独使用。
+动词意志形＋と思います。自己要做某事的意志
+动词意志形＋と思っています。某种意志持续了一段时间。</t>
+    <rPh sb="0" eb="1">
+      <t>yi ban</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bu dan du shi yong</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>dong ci</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>zi ji yao zuo mou shi</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>de</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>yi zhi</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>dong ci</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>yi zhi xing</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>オモッt</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>mou zhong yi zhi</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>chi xu le</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>yi duan shi jian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ば形</t>
+    <rPh sb="2" eb="3">
+      <t>xing</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>把词尾的「う」段假名变为同行「い」段假名后接「ます」</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>词尾「る」去掉后接「ない」</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">词尾「る」去掉后接「よう」
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>食べる-&gt;食べよう,　見る-&gt;見よう</t>
+    </r>
+    <rPh sb="14" eb="15">
+      <t>タb</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>タb</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ミr</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ミヨ</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">词尾的「う」段假名变为同行「お」段上的音的长音。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>書く-&gt;書こう,　話す-&gt;話そう,　買う-&gt;買おう</t>
+    </r>
+    <rPh sb="11" eb="12">
+      <t>tong hang</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>duan</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>shang</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>de</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>yin</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>de</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>chang yin</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>カk</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ハナs</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ハナs</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">词尾的「う」段假名变为同行「え」段之后加上「ば」。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>書く-&gt;書けば,　話す-&gt;話せば,　買う-&gt;買えば</t>
+    </r>
+    <rPh sb="17" eb="18">
+      <t>zhi hou</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>jia shang</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>かけb</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>はなせb</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>か</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">词尾「る」去掉后接「れば」
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>食べる-&gt;食べれば,　見る-&gt;見れば</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>「来る」变为「来（く）れば」
+「する」变为「すれば」</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ば形</t>
+    <rPh sb="1" eb="2">
+      <t>xing tai</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>い形容词词干 + ければ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有い形容词才有ば形，eg: 楽しい -&gt; 楽しければ</t>
+    <rPh sb="0" eb="1">
+      <t>zhi you</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xing rong ci</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>cai you</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xing</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>たのsh</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>たのsh</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>词尾「い」变成「く」再加「て」，即「い形容词词干 + く + て」。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>て形</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能形</t>
+    <rPh sb="0" eb="1">
+      <t>ke neng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xing</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示假定条件
+动词和一类形容词有ば形</t>
+    <rPh sb="7" eb="8">
+      <t>dong ci</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>he</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>yi lei</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>xing rong ci</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>you</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>xing</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可能形的活用形式和二类动词相同（也有过去时等等）。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+表示能够进行某种动作</t>
+    </r>
+    <rPh sb="16" eb="17">
+      <t>ye you</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>guo qv shi</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>deng degn</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>biao shi</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>neng gou</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>jin xing</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>mou zhong dong zuo</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>李さんは日本語</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>話すことができます。
+李さんは日本語</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>が</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>話せます。
+小李会说日语。(意思完全一样)</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>りさん</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>にほn</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>はなs</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>りさn</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>にほn</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>はなs</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>xiao li</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>hui shuo</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ri yu</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>y si</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>wan quan yi yang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动形</t>
+    <rPh sb="0" eb="1">
+      <t>bei dong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xing</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>「来る」变为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>「来（こ）られる」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+「する」变为「される」</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>「来る」变为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>「来（こ）られる」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+「する」变为「できる」</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">词尾的「う」段假名变为同行「え」段之后加上「る」。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>書く-&gt;書ける,　話す-&gt;話せる,　買う-&gt;買える</t>
+    </r>
+    <rPh sb="17" eb="18">
+      <t>zhi hou</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>jia shang</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>かk</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ハナセb</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>「ない形」的「ない」变为「られる」等同于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>词尾「る」去掉后接「られる」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>食べる-&gt;食べない-&gt;食べられる,　見る-&gt;見ない-&gt;見られる</t>
+    </r>
+    <rPh sb="17" eb="18">
+      <t>deng tong yu</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>たb</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>たb</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>みらr</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>词尾「る」去掉后接「られる」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>食べる-&gt;食べられる,　見る-&gt;見られる</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使役形</t>
+    <rPh sb="0" eb="1">
+      <t>shi yi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xing</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">「ない形」的「ない」变为「れる」
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>書く-&gt;書かない-&gt;書かれる,　話す-&gt;話さない-&gt;話される,　買う-&gt;買わない-&gt;買われる</t>
+    </r>
+    <rPh sb="3" eb="4">
+      <t>xing</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>bian wei</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>かかな</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>かかr</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>はなさn</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>はなさr</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>かわな</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>かw</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">「ない形」的「ない」变为「せる」
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>書く-&gt;書かない-&gt;書かせる,　話す-&gt;話さない-&gt;話させる,　買う-&gt;買わない-&gt;買わせる</t>
+    </r>
+    <rPh sb="3" eb="4">
+      <t>xing</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>bian wei</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>かかな</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>かかr</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>はなさn</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>はなさr</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>かわな</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>かw</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>「来る」变为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>「来（こ）させる」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+「する」变为「させる」</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使役形的活用形式和二类动词相同（也有过去时等等）。</t>
+    <rPh sb="0" eb="1">
+      <t>shi yi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>「ない形」的「ない」变为「させる」等同于词尾「る」去掉后接「させる」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>食べる-&gt;食べさせる,　見る-&gt;見させる</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">被动形的活用形式和二类动词相同（也有过去时等等）。
+</t>
+    <rPh sb="0" eb="1">
+      <t>bei dogn</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>让某人做某事</t>
+    <rPh sb="0" eb="1">
+      <t>rang</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>mou ren zuo ou shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zuo</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>mou shi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使役被动</t>
+    <rPh sb="0" eb="1">
+      <t>shi yi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bei dong</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">「ない形」的「ない」变为「される」
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>書く-&gt;書かない-&gt;書かされる</t>
+    </r>
+    <rPh sb="3" eb="4">
+      <t>xing</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>bian wei</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>かかな</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>かかr</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>等同于词尾「る」去掉后接「させられる」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>食べる-&gt;食べさせられる</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>deng tong yu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>「来る」变为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>「来（こ）させられる」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+「する」变为「させるられる」</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示一种强迫性的动作</t>
+    <rPh sb="0" eb="1">
+      <t>biao shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yi zhong</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>qiang po xing</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>dong zuo</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2640,6 +3951,51 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="DengXian (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF00B050"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF00B050"/>
+      <name val="DengXian (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="DengXian (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="DengXian (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian (正文)"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="7">
@@ -2770,7 +4126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2787,33 +4143,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2822,117 +4178,139 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3211,10 +4589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3231,19 +4609,19 @@
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="121" customHeight="1" x14ac:dyDescent="0.2">
@@ -3251,7 +4629,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>2</v>
@@ -3269,13 +4647,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="19"/>
@@ -3285,19 +4663,19 @@
         <v>6</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="19" t="s">
         <v>93</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="64" customHeight="1" x14ac:dyDescent="0.2">
@@ -3305,43 +4683,155 @@
         <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>13</v>
+        <v>153</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F6" s="19" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="88" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="66" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="83" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D8" s="67" t="s">
+        <v>186</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="F8" s="68" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="83" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D9" s="67" t="s">
+        <v>194</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="F9" s="68"/>
+    </row>
+    <row r="10" spans="1:6" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F10" s="19"/>
+    </row>
+    <row r="11" spans="1:6" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3350,8 +4840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3363,10 +4853,10 @@
     <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.25">
@@ -3374,10 +4864,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.25">
@@ -3385,10 +4875,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.25">
@@ -3396,38 +4886,38 @@
         <v>3</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C6" s="11"/>
     </row>
     <row r="9" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="B9" s="17" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="B10" s="17" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C13" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C14" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3437,7 +4927,7 @@
   <dimension ref="B3:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3449,80 +4939,80 @@
   <sheetData>
     <row r="3" spans="2:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="21" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:M49"/>
+  <dimension ref="A3:M51"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="I50" sqref="I50"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="3" spans="1:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="B3" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="41"/>
+      <c r="B3" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="39"/>
     </row>
     <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="14"/>
@@ -3538,69 +5028,69 @@
     </row>
     <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
-      <c r="B5" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
+      <c r="B5" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
     </row>
     <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
     </row>
     <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
     </row>
     <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
     </row>
@@ -3630,83 +5120,83 @@
     </row>
     <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
-      <c r="B11" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
+      <c r="B11" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
     </row>
     <row r="12" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="46"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="45"/>
     </row>
     <row r="13" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
       <c r="B13" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
+        <v>48</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
     </row>
     <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
-      <c r="B14" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
+      <c r="B14" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
     </row>
     <row r="15" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
     </row>
     <row r="16" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
@@ -3722,14 +5212,18 @@
     </row>
     <row r="17" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
-      <c r="B17" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
+      <c r="B17" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="C17" s="65" t="s">
+        <v>169</v>
+      </c>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
       <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
+      <c r="G17" s="14" t="s">
+        <v>170</v>
+      </c>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
@@ -3747,283 +5241,340 @@
       <c r="J18" s="14"/>
     </row>
     <row r="19" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="B19" s="14" t="s">
-        <v>63</v>
-      </c>
+      <c r="A19" s="14"/>
+      <c r="B19" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="14"/>
     </row>
     <row r="20" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="B20" s="14" t="s">
-        <v>65</v>
-      </c>
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
     </row>
     <row r="21" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B21" s="14" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="B22" s="14"/>
-      <c r="C22" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
+      <c r="B22" s="14" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="23" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="B23" s="14"/>
-      <c r="C23" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
+      <c r="B23" s="14" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="24" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="14"/>
+      <c r="C24" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+    </row>
+    <row r="25" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B25" s="14"/>
+      <c r="C25" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+    </row>
+    <row r="26" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B26" s="35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="28" x14ac:dyDescent="0.3">
+      <c r="B29" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="39"/>
+    </row>
+    <row r="30" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B30" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="37" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="B27" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="B28" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="C30" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-    </row>
-    <row r="31" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="43"/>
-      <c r="C31" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-    </row>
-    <row r="32" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="15" t="s">
-        <v>51</v>
-      </c>
       <c r="C32" s="40" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D32" s="40"/>
       <c r="E32" s="40"/>
-      <c r="F32" s="40" t="s">
-        <v>71</v>
-      </c>
+      <c r="F32" s="40"/>
       <c r="G32" s="40"/>
       <c r="H32" s="40"/>
       <c r="I32" s="14"/>
       <c r="J32" s="14"/>
     </row>
-    <row r="33" spans="2:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C33" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
+    <row r="33" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="38"/>
+      <c r="C33" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
       <c r="I33" s="14"/>
       <c r="J33" s="14"/>
     </row>
-    <row r="34" spans="2:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="B34" s="16"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
+    <row r="34" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
       <c r="I34" s="14"/>
       <c r="J34" s="14"/>
     </row>
-    <row r="35" spans="2:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="B35" s="16"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
+    <row r="35" spans="2:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
       <c r="I35" s="14"/>
       <c r="J35" s="14"/>
     </row>
-    <row r="36" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="36" t="s">
+    <row r="36" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="B36" s="16"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+    </row>
+    <row r="37" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="B37" s="16"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+    </row>
+    <row r="38" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="40"/>
+    </row>
+    <row r="39" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="42"/>
+      <c r="C39" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="37"/>
-    </row>
-    <row r="37" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="36"/>
-      <c r="C37" s="38" t="s">
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="45"/>
+    </row>
+    <row r="40" spans="2:13" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="D40" s="48"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="H40" s="48"/>
+      <c r="I40" s="48"/>
+      <c r="J40" s="48"/>
+    </row>
+    <row r="41" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="H37" s="45"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="46"/>
-    </row>
-    <row r="38" spans="2:13" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33" t="s">
+      <c r="C41" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" s="48"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="H41" s="48"/>
+      <c r="I41" s="48"/>
+      <c r="J41" s="48"/>
+    </row>
+    <row r="42" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="46"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="48"/>
+      <c r="I42" s="48"/>
+      <c r="J42" s="48"/>
+      <c r="K42" t="s">
         <v>74</v>
       </c>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="33"/>
-    </row>
-    <row r="39" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="C39" s="35" t="s">
+    </row>
+    <row r="44" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="B44" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="B45" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="35" t="s">
+    </row>
+    <row r="46" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="B46" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="30"/>
+      <c r="K46" s="30"/>
+      <c r="L46" s="30"/>
+      <c r="M46" s="30"/>
+    </row>
+    <row r="47" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="B47" s="14"/>
+      <c r="C47" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D47" s="14"/>
+    </row>
+    <row r="48" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="B48" s="14"/>
+      <c r="C48" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D48" s="14"/>
+    </row>
+    <row r="49" spans="2:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="B49" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="33"/>
-    </row>
-    <row r="40" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="34"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="33"/>
-      <c r="K40" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="B42" s="14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="B43" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="B44" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="30"/>
-      <c r="L44" s="30"/>
-      <c r="M44" s="30"/>
-    </row>
-    <row r="45" spans="2:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="B45" s="14"/>
-      <c r="C45" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D45" s="14"/>
-    </row>
-    <row r="46" spans="2:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="B46" s="14"/>
-      <c r="C46" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="D46" s="14"/>
-    </row>
-    <row r="47" spans="2:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="B47" s="14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="C48" s="14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="49" spans="3:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="C49" s="14"/>
+    </row>
+    <row r="50" spans="2:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="C50" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="C51" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="38">
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C19:I19"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:F42"/>
+    <mergeCell ref="G41:J42"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:F15"/>
+    <mergeCell ref="G14:J15"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="G13:J13"/>
     <mergeCell ref="F8:H8"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="B5:B6"/>
@@ -4033,35 +5584,8 @@
     <mergeCell ref="F6:H6"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="F7:H7"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:J36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:F15"/>
-    <mergeCell ref="G14:J15"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="G37:J37"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:F40"/>
-    <mergeCell ref="G39:J40"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4070,63 +5594,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T54"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="59" t="s">
-        <v>95</v>
-      </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
+      <c r="B1" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
       <c r="I1" s="21"/>
     </row>
     <row r="2" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
       <c r="I2" s="21"/>
     </row>
     <row r="3" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B3" s="14" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
     </row>
     <row r="4" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B4" s="14" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B6" s="59" t="s">
-        <v>119</v>
-      </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
+      <c r="B6" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
     </row>
     <row r="8" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B8" s="14" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
@@ -4143,7 +5667,7 @@
     </row>
     <row r="9" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B9" s="14" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
@@ -4160,7 +5684,7 @@
     </row>
     <row r="10" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B10" s="14" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
@@ -4177,7 +5701,7 @@
     </row>
     <row r="11" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B11" s="14" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
@@ -4194,7 +5718,7 @@
     </row>
     <row r="12" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B12" s="14" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
@@ -4211,7 +5735,7 @@
     </row>
     <row r="13" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B13" s="14" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
@@ -4228,7 +5752,7 @@
     </row>
     <row r="14" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B14" s="14" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
@@ -4245,7 +5769,7 @@
     </row>
     <row r="15" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B15" s="14" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
@@ -4262,7 +5786,7 @@
     </row>
     <row r="16" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B16" s="14" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
@@ -4279,7 +5803,7 @@
     </row>
     <row r="17" spans="2:20" ht="18" x14ac:dyDescent="0.2">
       <c r="B17" s="14" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
@@ -4296,7 +5820,7 @@
     </row>
     <row r="18" spans="2:20" ht="18" x14ac:dyDescent="0.2">
       <c r="B18" s="14" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
@@ -4328,7 +5852,7 @@
     </row>
     <row r="20" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="14" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
@@ -4337,261 +5861,261 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
-      <c r="J20" s="48" t="s">
+      <c r="J20" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="56"/>
+      <c r="T20" s="56"/>
+    </row>
+    <row r="21" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="62" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="61" t="s">
+        <v>126</v>
+      </c>
+      <c r="K21" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="48"/>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="48"/>
-      <c r="R20" s="48"/>
-      <c r="S20" s="48"/>
-      <c r="T20" s="48"/>
-    </row>
-    <row r="21" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="54" t="s">
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="53"/>
+      <c r="Q21" s="52"/>
+      <c r="R21" s="52"/>
+      <c r="S21" s="52"/>
+      <c r="T21" s="52"/>
+    </row>
+    <row r="22" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="B22" s="62"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="53"/>
+      <c r="Q22" s="52"/>
+      <c r="R22" s="52"/>
+      <c r="S22" s="52"/>
+      <c r="T22" s="52"/>
+    </row>
+    <row r="23" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="62"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="53"/>
+      <c r="Q23" s="52"/>
+      <c r="R23" s="52"/>
+      <c r="S23" s="52"/>
+      <c r="T23" s="52"/>
+    </row>
+    <row r="24" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="58" t="s">
+        <v>127</v>
+      </c>
+      <c r="K24" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="53"/>
+      <c r="Q24" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="R24" s="51"/>
+      <c r="S24" s="51"/>
+      <c r="T24" s="51"/>
+    </row>
+    <row r="25" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="B25" s="58"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="53"/>
+      <c r="O25" s="53"/>
+      <c r="P25" s="53"/>
+      <c r="Q25" s="51"/>
+      <c r="R25" s="51"/>
+      <c r="S25" s="51"/>
+      <c r="T25" s="51"/>
+    </row>
+    <row r="26" spans="2:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="58"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="53"/>
+      <c r="Q26" s="51"/>
+      <c r="R26" s="51"/>
+      <c r="S26" s="51"/>
+      <c r="T26" s="51"/>
+    </row>
+    <row r="27" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="C21" s="56" t="s">
-        <v>121</v>
-      </c>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="53" t="s">
-        <v>131</v>
-      </c>
-      <c r="K21" s="58" t="s">
-        <v>135</v>
-      </c>
-      <c r="L21" s="58"/>
-      <c r="M21" s="58"/>
-      <c r="N21" s="58"/>
-      <c r="O21" s="58"/>
-      <c r="P21" s="58"/>
-      <c r="Q21" s="47"/>
-      <c r="R21" s="47"/>
-      <c r="S21" s="47"/>
-      <c r="T21" s="47"/>
-    </row>
-    <row r="22" spans="2:20" ht="18" x14ac:dyDescent="0.2">
-      <c r="B22" s="54"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="58"/>
-      <c r="N22" s="58"/>
-      <c r="O22" s="58"/>
-      <c r="P22" s="58"/>
-      <c r="Q22" s="47"/>
-      <c r="R22" s="47"/>
-      <c r="S22" s="47"/>
-      <c r="T22" s="47"/>
-    </row>
-    <row r="23" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="54"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="58"/>
-      <c r="L23" s="58"/>
-      <c r="M23" s="58"/>
-      <c r="N23" s="58"/>
-      <c r="O23" s="58"/>
-      <c r="P23" s="58"/>
-      <c r="Q23" s="47"/>
-      <c r="R23" s="47"/>
-      <c r="S23" s="47"/>
-      <c r="T23" s="47"/>
-    </row>
-    <row r="24" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="50" t="s">
-        <v>125</v>
-      </c>
-      <c r="C24" s="56" t="s">
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="K27" s="53" t="s">
+        <v>134</v>
+      </c>
+      <c r="L27" s="53"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="53"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="53"/>
+      <c r="Q27" s="60" t="s">
+        <v>133</v>
+      </c>
+      <c r="R27" s="60"/>
+      <c r="S27" s="60"/>
+      <c r="T27" s="60"/>
+    </row>
+    <row r="28" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="54"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="53"/>
+      <c r="N28" s="53"/>
+      <c r="O28" s="53"/>
+      <c r="P28" s="53"/>
+      <c r="Q28" s="60"/>
+      <c r="R28" s="60"/>
+      <c r="S28" s="60"/>
+      <c r="T28" s="60"/>
+    </row>
+    <row r="29" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="54" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="50" t="s">
-        <v>132</v>
-      </c>
-      <c r="K24" s="58" t="s">
-        <v>136</v>
-      </c>
-      <c r="L24" s="58"/>
-      <c r="M24" s="58"/>
-      <c r="N24" s="58"/>
-      <c r="O24" s="58"/>
-      <c r="P24" s="58"/>
-      <c r="Q24" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="R24" s="57"/>
-      <c r="S24" s="57"/>
-      <c r="T24" s="57"/>
-    </row>
-    <row r="25" spans="2:20" ht="18" x14ac:dyDescent="0.2">
-      <c r="B25" s="50"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="58"/>
-      <c r="L25" s="58"/>
-      <c r="M25" s="58"/>
-      <c r="N25" s="58"/>
-      <c r="O25" s="58"/>
-      <c r="P25" s="58"/>
-      <c r="Q25" s="57"/>
-      <c r="R25" s="57"/>
-      <c r="S25" s="57"/>
-      <c r="T25" s="57"/>
-    </row>
-    <row r="26" spans="2:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="50"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="58"/>
-      <c r="M26" s="58"/>
-      <c r="N26" s="58"/>
-      <c r="O26" s="58"/>
-      <c r="P26" s="58"/>
-      <c r="Q26" s="57"/>
-      <c r="R26" s="57"/>
-      <c r="S26" s="57"/>
-      <c r="T26" s="57"/>
-    </row>
-    <row r="27" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="55" t="s">
-        <v>126</v>
-      </c>
-      <c r="C27" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="50" t="s">
-        <v>133</v>
-      </c>
-      <c r="K27" s="58" t="s">
-        <v>139</v>
-      </c>
-      <c r="L27" s="58"/>
-      <c r="M27" s="58"/>
-      <c r="N27" s="58"/>
-      <c r="O27" s="58"/>
-      <c r="P27" s="58"/>
-      <c r="Q27" s="52" t="s">
-        <v>138</v>
-      </c>
-      <c r="R27" s="52"/>
-      <c r="S27" s="52"/>
-      <c r="T27" s="52"/>
-    </row>
-    <row r="28" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="55"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="58"/>
-      <c r="L28" s="58"/>
-      <c r="M28" s="58"/>
-      <c r="N28" s="58"/>
-      <c r="O28" s="58"/>
-      <c r="P28" s="58"/>
-      <c r="Q28" s="52"/>
-      <c r="R28" s="52"/>
-      <c r="S28" s="52"/>
-      <c r="T28" s="52"/>
-    </row>
-    <row r="29" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="55" t="s">
-        <v>128</v>
-      </c>
-      <c r="C29" s="56" t="s">
-        <v>129</v>
-      </c>
-      <c r="D29" s="56"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="56"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
       <c r="I29" s="22"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="58"/>
-      <c r="L29" s="58"/>
-      <c r="M29" s="58"/>
-      <c r="N29" s="58"/>
-      <c r="O29" s="58"/>
-      <c r="P29" s="58"/>
-      <c r="Q29" s="52"/>
-      <c r="R29" s="52"/>
-      <c r="S29" s="52"/>
-      <c r="T29" s="52"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="53"/>
+      <c r="O29" s="53"/>
+      <c r="P29" s="53"/>
+      <c r="Q29" s="60"/>
+      <c r="R29" s="60"/>
+      <c r="S29" s="60"/>
+      <c r="T29" s="60"/>
     </row>
     <row r="30" spans="2:20" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="55"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
       <c r="I30" s="22"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="58"/>
-      <c r="L30" s="58"/>
-      <c r="M30" s="58"/>
-      <c r="N30" s="58"/>
-      <c r="O30" s="58"/>
-      <c r="P30" s="58"/>
-      <c r="Q30" s="52"/>
-      <c r="R30" s="52"/>
-      <c r="S30" s="52"/>
-      <c r="T30" s="52"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="53"/>
+      <c r="O30" s="53"/>
+      <c r="P30" s="53"/>
+      <c r="Q30" s="60"/>
+      <c r="R30" s="60"/>
+      <c r="S30" s="60"/>
+      <c r="T30" s="60"/>
     </row>
     <row r="31" spans="2:20" ht="18" x14ac:dyDescent="0.2">
       <c r="B31" s="14"/>
@@ -4602,17 +6126,17 @@
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="58"/>
-      <c r="L31" s="58"/>
-      <c r="M31" s="58"/>
-      <c r="N31" s="58"/>
-      <c r="O31" s="58"/>
-      <c r="P31" s="58"/>
-      <c r="Q31" s="52"/>
-      <c r="R31" s="52"/>
-      <c r="S31" s="52"/>
-      <c r="T31" s="52"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="53"/>
+      <c r="O31" s="53"/>
+      <c r="P31" s="53"/>
+      <c r="Q31" s="60"/>
+      <c r="R31" s="60"/>
+      <c r="S31" s="60"/>
+      <c r="T31" s="60"/>
     </row>
     <row r="32" spans="2:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="14"/>
@@ -4623,25 +6147,25 @@
       <c r="G32" s="14"/>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
-      <c r="J32" s="50" t="s">
-        <v>134</v>
-      </c>
-      <c r="K32" s="49" t="s">
-        <v>140</v>
-      </c>
-      <c r="L32" s="49"/>
-      <c r="M32" s="49"/>
-      <c r="N32" s="49"/>
-      <c r="O32" s="49"/>
-      <c r="P32" s="49"/>
-      <c r="Q32" s="47"/>
-      <c r="R32" s="47"/>
-      <c r="S32" s="47"/>
-      <c r="T32" s="47"/>
+      <c r="J32" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="K32" s="57" t="s">
+        <v>135</v>
+      </c>
+      <c r="L32" s="57"/>
+      <c r="M32" s="57"/>
+      <c r="N32" s="57"/>
+      <c r="O32" s="57"/>
+      <c r="P32" s="57"/>
+      <c r="Q32" s="52"/>
+      <c r="R32" s="52"/>
+      <c r="S32" s="52"/>
+      <c r="T32" s="52"/>
     </row>
     <row r="33" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="24" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C33" s="26"/>
       <c r="D33" s="26"/>
@@ -4650,112 +6174,112 @@
       <c r="G33" s="26"/>
       <c r="H33" s="26"/>
       <c r="I33" s="26"/>
-      <c r="J33" s="50"/>
-      <c r="K33" s="49"/>
-      <c r="L33" s="49"/>
-      <c r="M33" s="49"/>
-      <c r="N33" s="49"/>
-      <c r="O33" s="49"/>
-      <c r="P33" s="49"/>
-      <c r="Q33" s="47"/>
-      <c r="R33" s="47"/>
-      <c r="S33" s="47"/>
-      <c r="T33" s="47"/>
+      <c r="J33" s="58"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="57"/>
+      <c r="M33" s="57"/>
+      <c r="N33" s="57"/>
+      <c r="O33" s="57"/>
+      <c r="P33" s="57"/>
+      <c r="Q33" s="52"/>
+      <c r="R33" s="52"/>
+      <c r="S33" s="52"/>
+      <c r="T33" s="52"/>
     </row>
     <row r="34" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="51" t="s">
-        <v>153</v>
-      </c>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="51"/>
+      <c r="B34" s="59" t="s">
+        <v>148</v>
+      </c>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
       <c r="I34" s="26"/>
-      <c r="J34" s="50"/>
-      <c r="K34" s="49"/>
-      <c r="L34" s="49"/>
-      <c r="M34" s="49"/>
-      <c r="N34" s="49"/>
-      <c r="O34" s="49"/>
-      <c r="P34" s="49"/>
-      <c r="Q34" s="47"/>
-      <c r="R34" s="47"/>
-      <c r="S34" s="47"/>
-      <c r="T34" s="47"/>
+      <c r="J34" s="58"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="57"/>
+      <c r="M34" s="57"/>
+      <c r="N34" s="57"/>
+      <c r="O34" s="57"/>
+      <c r="P34" s="57"/>
+      <c r="Q34" s="52"/>
+      <c r="R34" s="52"/>
+      <c r="S34" s="52"/>
+      <c r="T34" s="52"/>
     </row>
     <row r="35" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="51"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="51"/>
-      <c r="H35" s="51"/>
+      <c r="B35" s="59"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="59"/>
       <c r="I35" s="26"/>
-      <c r="J35" s="50"/>
-      <c r="K35" s="49"/>
-      <c r="L35" s="49"/>
-      <c r="M35" s="49"/>
-      <c r="N35" s="49"/>
-      <c r="O35" s="49"/>
-      <c r="P35" s="49"/>
-      <c r="Q35" s="47"/>
-      <c r="R35" s="47"/>
-      <c r="S35" s="47"/>
-      <c r="T35" s="47"/>
+      <c r="J35" s="58"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="57"/>
+      <c r="M35" s="57"/>
+      <c r="N35" s="57"/>
+      <c r="O35" s="57"/>
+      <c r="P35" s="57"/>
+      <c r="Q35" s="52"/>
+      <c r="R35" s="52"/>
+      <c r="S35" s="52"/>
+      <c r="T35" s="52"/>
     </row>
     <row r="36" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="51"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="51"/>
+      <c r="B36" s="59"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="59"/>
+      <c r="H36" s="59"/>
       <c r="I36" s="26"/>
-      <c r="J36" s="50"/>
-      <c r="K36" s="49"/>
-      <c r="L36" s="49"/>
-      <c r="M36" s="49"/>
-      <c r="N36" s="49"/>
-      <c r="O36" s="49"/>
-      <c r="P36" s="49"/>
-      <c r="Q36" s="47"/>
-      <c r="R36" s="47"/>
-      <c r="S36" s="47"/>
-      <c r="T36" s="47"/>
+      <c r="J36" s="58"/>
+      <c r="K36" s="57"/>
+      <c r="L36" s="57"/>
+      <c r="M36" s="57"/>
+      <c r="N36" s="57"/>
+      <c r="O36" s="57"/>
+      <c r="P36" s="57"/>
+      <c r="Q36" s="52"/>
+      <c r="R36" s="52"/>
+      <c r="S36" s="52"/>
+      <c r="T36" s="52"/>
     </row>
     <row r="37" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="51"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="51"/>
+      <c r="B37" s="59"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="59"/>
+      <c r="H37" s="59"/>
       <c r="I37" s="26"/>
-      <c r="J37" s="50"/>
-      <c r="K37" s="49"/>
-      <c r="L37" s="49"/>
-      <c r="M37" s="49"/>
-      <c r="N37" s="49"/>
-      <c r="O37" s="49"/>
-      <c r="P37" s="49"/>
-      <c r="Q37" s="47"/>
-      <c r="R37" s="47"/>
-      <c r="S37" s="47"/>
-      <c r="T37" s="47"/>
+      <c r="J37" s="58"/>
+      <c r="K37" s="57"/>
+      <c r="L37" s="57"/>
+      <c r="M37" s="57"/>
+      <c r="N37" s="57"/>
+      <c r="O37" s="57"/>
+      <c r="P37" s="57"/>
+      <c r="Q37" s="52"/>
+      <c r="R37" s="52"/>
+      <c r="S37" s="52"/>
+      <c r="T37" s="52"/>
     </row>
     <row r="38" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="51"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="51"/>
+      <c r="B38" s="59"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="59"/>
+      <c r="H38" s="59"/>
       <c r="I38" s="26"/>
       <c r="K38" s="24"/>
       <c r="L38" s="24"/>
@@ -4766,13 +6290,13 @@
       <c r="Q38" s="24"/>
     </row>
     <row r="39" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="51"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="51"/>
+      <c r="B39" s="59"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="59"/>
+      <c r="H39" s="59"/>
       <c r="I39" s="26"/>
       <c r="J39" s="20"/>
       <c r="K39" s="20"/>
@@ -4784,13 +6308,13 @@
       <c r="Q39" s="24"/>
     </row>
     <row r="40" spans="2:20" ht="21" x14ac:dyDescent="0.2">
-      <c r="B40" s="51"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="51"/>
-      <c r="H40" s="51"/>
+      <c r="B40" s="59"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="59"/>
       <c r="I40" s="26"/>
       <c r="J40" s="20"/>
       <c r="K40" s="20"/>
@@ -4798,13 +6322,13 @@
       <c r="M40" s="20"/>
     </row>
     <row r="41" spans="2:20" ht="21" x14ac:dyDescent="0.2">
-      <c r="B41" s="51"/>
-      <c r="C41" s="51"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="51"/>
-      <c r="H41" s="51"/>
+      <c r="B41" s="59"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="59"/>
+      <c r="H41" s="59"/>
       <c r="I41" s="26"/>
       <c r="J41" s="20"/>
       <c r="K41" s="20"/>
@@ -4812,13 +6336,13 @@
       <c r="M41" s="20"/>
     </row>
     <row r="42" spans="2:20" ht="21" x14ac:dyDescent="0.2">
-      <c r="B42" s="51"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="51"/>
-      <c r="H42" s="51"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="59"/>
+      <c r="H42" s="59"/>
       <c r="I42" s="26"/>
       <c r="J42" s="20"/>
       <c r="K42" s="20"/>
@@ -4826,13 +6350,13 @@
       <c r="M42" s="20"/>
     </row>
     <row r="43" spans="2:20" ht="21" x14ac:dyDescent="0.2">
-      <c r="B43" s="51"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="51"/>
-      <c r="F43" s="51"/>
-      <c r="G43" s="51"/>
-      <c r="H43" s="51"/>
+      <c r="B43" s="59"/>
+      <c r="C43" s="59"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="59"/>
+      <c r="H43" s="59"/>
       <c r="I43" s="26"/>
       <c r="J43" s="20"/>
       <c r="K43" s="20"/>
@@ -4840,13 +6364,13 @@
       <c r="M43" s="20"/>
     </row>
     <row r="44" spans="2:20" ht="21" x14ac:dyDescent="0.2">
-      <c r="B44" s="51"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="51"/>
-      <c r="E44" s="51"/>
-      <c r="F44" s="51"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="51"/>
+      <c r="B44" s="59"/>
+      <c r="C44" s="59"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="59"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="59"/>
+      <c r="H44" s="59"/>
       <c r="I44" s="26"/>
       <c r="J44" s="20"/>
       <c r="K44" s="20"/>
@@ -4883,7 +6407,7 @@
     </row>
     <row r="47" spans="2:20" ht="23" x14ac:dyDescent="0.25">
       <c r="B47" s="31" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C47" s="31"/>
       <c r="D47" s="31"/>
@@ -4892,7 +6416,7 @@
       <c r="G47" s="26"/>
       <c r="H47" s="26"/>
       <c r="I47" s="26" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="J47" s="20"/>
       <c r="K47" s="20"/>
@@ -4901,7 +6425,7 @@
     </row>
     <row r="48" spans="2:20" ht="18" x14ac:dyDescent="0.2">
       <c r="B48" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
@@ -4917,17 +6441,17 @@
     </row>
     <row r="49" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>151</v>
-      </c>
-      <c r="B49" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="C49" s="40"/>
-      <c r="D49" s="40"/>
-      <c r="E49" s="40" t="s">
-        <v>147</v>
-      </c>
-      <c r="F49" s="40"/>
+      <c r="B49" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="C49" s="36"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="F49" s="36"/>
       <c r="G49" s="28"/>
       <c r="H49" s="24"/>
       <c r="I49" s="20"/>
@@ -4937,17 +6461,17 @@
       <c r="M49" s="20"/>
     </row>
     <row r="50" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="B50" s="40" t="s">
-        <v>148</v>
-      </c>
-      <c r="C50" s="40"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40" t="s">
-        <v>149</v>
-      </c>
-      <c r="F50" s="40"/>
+      <c r="B50" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="C50" s="36"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="F50" s="36"/>
       <c r="G50" s="28" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H50" s="24"/>
       <c r="I50" s="20"/>
@@ -4959,7 +6483,7 @@
     <row r="51" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="B51" s="14"/>
       <c r="C51" s="14" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D51" s="14"/>
       <c r="E51" s="14"/>
@@ -4969,23 +6493,11 @@
     </row>
     <row r="54" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="B54" s="14" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B6:D7"/>
-    <mergeCell ref="B1:H2"/>
-    <mergeCell ref="Q24:T26"/>
-    <mergeCell ref="Q21:T23"/>
-    <mergeCell ref="K21:P23"/>
-    <mergeCell ref="K24:P26"/>
-    <mergeCell ref="K27:P31"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C21:H23"/>
-    <mergeCell ref="C24:H26"/>
-    <mergeCell ref="C29:H30"/>
     <mergeCell ref="Q32:T37"/>
     <mergeCell ref="J20:T20"/>
     <mergeCell ref="E49:F49"/>
@@ -5002,8 +6514,20 @@
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="C27:H28"/>
+    <mergeCell ref="K27:P31"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C21:H23"/>
+    <mergeCell ref="C24:H26"/>
+    <mergeCell ref="C29:H30"/>
+    <mergeCell ref="B6:D7"/>
+    <mergeCell ref="B1:H2"/>
+    <mergeCell ref="Q24:T26"/>
+    <mergeCell ref="Q21:T23"/>
+    <mergeCell ref="K21:P23"/>
+    <mergeCell ref="K24:P26"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5013,7 +6537,7 @@
   <dimension ref="A2:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5032,85 +6556,85 @@
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14"/>
-      <c r="B3" s="53" t="s">
-        <v>109</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="56" t="s">
-        <v>113</v>
-      </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
+      <c r="B3" s="61" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="47"/>
+      <c r="E3" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
       <c r="I3" s="32"/>
       <c r="J3" s="32"/>
     </row>
     <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="14"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
       <c r="I4" s="32"/>
       <c r="J4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
       <c r="I5" s="32"/>
       <c r="J5" s="14"/>
     </row>
     <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
-      <c r="B6" s="53" t="s">
-        <v>111</v>
-      </c>
-      <c r="C6" s="60" t="s">
-        <v>112</v>
-      </c>
-      <c r="D6" s="60"/>
-      <c r="E6" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
+      <c r="B6" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="63" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="63"/>
+      <c r="E6" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
       <c r="I6" s="32"/>
       <c r="J6" s="14"/>
     </row>
     <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
     </row>
     <row r="8" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
     </row>
@@ -5153,7 +6677,7 @@
     <row r="12" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
       <c r="B12" s="14" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
@@ -5167,7 +6691,7 @@
     <row r="13" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
       <c r="B13" s="14" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
@@ -5181,7 +6705,7 @@
     <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
       <c r="B14" s="14" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
@@ -5195,7 +6719,7 @@
     <row r="15" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
       <c r="B15" s="14" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
@@ -5287,7 +6811,1354 @@
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="B3:B5"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:R96"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="64" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+    </row>
+    <row r="4" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+    </row>
+    <row r="5" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+    </row>
+    <row r="6" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+    </row>
+    <row r="7" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="64"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+    </row>
+    <row r="8" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="64"/>
+      <c r="N8" s="64"/>
+      <c r="O8" s="64"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
+    </row>
+    <row r="9" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="64"/>
+      <c r="O9" s="64"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
+    </row>
+    <row r="10" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="64"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+    </row>
+    <row r="11" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+    </row>
+    <row r="12" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+    </row>
+    <row r="13" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+    </row>
+    <row r="14" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+    </row>
+    <row r="15" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+    </row>
+    <row r="16" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+    </row>
+    <row r="17" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+    </row>
+    <row r="18" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+    </row>
+    <row r="19" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+    </row>
+    <row r="20" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+    </row>
+    <row r="21" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+    </row>
+    <row r="22" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+    </row>
+    <row r="23" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+    </row>
+    <row r="24" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+    </row>
+    <row r="25" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+    </row>
+    <row r="26" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+    </row>
+    <row r="27" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+    </row>
+    <row r="28" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+    </row>
+    <row r="29" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
+    </row>
+    <row r="30" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
+    </row>
+    <row r="31" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+    </row>
+    <row r="32" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
+    </row>
+    <row r="33" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="34"/>
+    </row>
+    <row r="34" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="34"/>
+    </row>
+    <row r="35" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="34"/>
+      <c r="L35" s="34"/>
+      <c r="M35" s="34"/>
+    </row>
+    <row r="36" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="34"/>
+      <c r="M36" s="34"/>
+    </row>
+    <row r="37" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
+    </row>
+    <row r="38" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="34"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+    </row>
+    <row r="39" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="34"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="34"/>
+      <c r="M39" s="34"/>
+    </row>
+    <row r="40" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="34"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="34"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="34"/>
+      <c r="L40" s="34"/>
+      <c r="M40" s="34"/>
+    </row>
+    <row r="41" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="34"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="34"/>
+      <c r="K41" s="34"/>
+      <c r="L41" s="34"/>
+      <c r="M41" s="34"/>
+    </row>
+    <row r="42" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="34"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="34"/>
+      <c r="J42" s="34"/>
+      <c r="K42" s="34"/>
+      <c r="L42" s="34"/>
+      <c r="M42" s="34"/>
+    </row>
+    <row r="43" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="34"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="34"/>
+      <c r="K43" s="34"/>
+      <c r="L43" s="34"/>
+      <c r="M43" s="34"/>
+    </row>
+    <row r="44" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="34"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="34"/>
+      <c r="K44" s="34"/>
+      <c r="L44" s="34"/>
+      <c r="M44" s="34"/>
+    </row>
+    <row r="45" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="34"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="34"/>
+      <c r="K45" s="34"/>
+      <c r="L45" s="34"/>
+      <c r="M45" s="34"/>
+    </row>
+    <row r="46" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="34"/>
+      <c r="J46" s="34"/>
+      <c r="K46" s="34"/>
+      <c r="L46" s="34"/>
+      <c r="M46" s="34"/>
+    </row>
+    <row r="47" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="34"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="34"/>
+      <c r="J47" s="34"/>
+      <c r="K47" s="34"/>
+      <c r="L47" s="34"/>
+      <c r="M47" s="34"/>
+    </row>
+    <row r="48" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="34"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="34"/>
+      <c r="J48" s="34"/>
+      <c r="K48" s="34"/>
+      <c r="L48" s="34"/>
+      <c r="M48" s="34"/>
+    </row>
+    <row r="49" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="34"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="34"/>
+      <c r="J49" s="34"/>
+      <c r="K49" s="34"/>
+      <c r="L49" s="34"/>
+      <c r="M49" s="34"/>
+    </row>
+    <row r="50" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="34"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="34"/>
+      <c r="J50" s="34"/>
+      <c r="K50" s="34"/>
+      <c r="L50" s="34"/>
+      <c r="M50" s="34"/>
+    </row>
+    <row r="51" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="34"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="34"/>
+      <c r="I51" s="34"/>
+      <c r="J51" s="34"/>
+      <c r="K51" s="34"/>
+      <c r="L51" s="34"/>
+      <c r="M51" s="34"/>
+    </row>
+    <row r="52" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="34"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="34"/>
+      <c r="I52" s="34"/>
+      <c r="J52" s="34"/>
+      <c r="K52" s="34"/>
+      <c r="L52" s="34"/>
+      <c r="M52" s="34"/>
+    </row>
+    <row r="53" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="34"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="34"/>
+      <c r="J53" s="34"/>
+      <c r="K53" s="34"/>
+      <c r="L53" s="34"/>
+      <c r="M53" s="34"/>
+    </row>
+    <row r="54" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="34"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="34"/>
+      <c r="I54" s="34"/>
+      <c r="J54" s="34"/>
+      <c r="K54" s="34"/>
+      <c r="L54" s="34"/>
+      <c r="M54" s="34"/>
+    </row>
+    <row r="55" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="34"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="34"/>
+      <c r="H55" s="34"/>
+      <c r="I55" s="34"/>
+      <c r="J55" s="34"/>
+      <c r="K55" s="34"/>
+      <c r="L55" s="34"/>
+      <c r="M55" s="34"/>
+    </row>
+    <row r="56" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="34"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="34"/>
+      <c r="I56" s="34"/>
+      <c r="J56" s="34"/>
+      <c r="K56" s="34"/>
+      <c r="L56" s="34"/>
+      <c r="M56" s="34"/>
+    </row>
+    <row r="57" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="34"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="34"/>
+      <c r="G57" s="34"/>
+      <c r="H57" s="34"/>
+      <c r="I57" s="34"/>
+      <c r="J57" s="34"/>
+      <c r="K57" s="34"/>
+      <c r="L57" s="34"/>
+      <c r="M57" s="34"/>
+    </row>
+    <row r="58" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="34"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="34"/>
+      <c r="G58" s="34"/>
+      <c r="H58" s="34"/>
+      <c r="I58" s="34"/>
+      <c r="J58" s="34"/>
+      <c r="K58" s="34"/>
+      <c r="L58" s="34"/>
+    </row>
+    <row r="59" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="34"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="34"/>
+      <c r="I59" s="34"/>
+      <c r="J59" s="34"/>
+      <c r="K59" s="34"/>
+      <c r="L59" s="34"/>
+    </row>
+    <row r="60" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="34"/>
+      <c r="C60" s="34"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="34"/>
+      <c r="G60" s="34"/>
+      <c r="H60" s="34"/>
+      <c r="I60" s="34"/>
+      <c r="J60" s="34"/>
+      <c r="K60" s="34"/>
+      <c r="L60" s="34"/>
+    </row>
+    <row r="61" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="34"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="34"/>
+      <c r="G61" s="34"/>
+      <c r="H61" s="34"/>
+      <c r="I61" s="34"/>
+      <c r="J61" s="34"/>
+      <c r="K61" s="34"/>
+      <c r="L61" s="34"/>
+    </row>
+    <row r="62" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="34"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="34"/>
+      <c r="J62" s="34"/>
+      <c r="K62" s="34"/>
+      <c r="L62" s="34"/>
+    </row>
+    <row r="63" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="34"/>
+      <c r="C63" s="34"/>
+      <c r="D63" s="34"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="34"/>
+      <c r="G63" s="34"/>
+      <c r="H63" s="34"/>
+      <c r="I63" s="34"/>
+      <c r="J63" s="34"/>
+      <c r="K63" s="34"/>
+      <c r="L63" s="34"/>
+    </row>
+    <row r="64" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="34"/>
+      <c r="C64" s="34"/>
+      <c r="D64" s="34"/>
+      <c r="E64" s="34"/>
+      <c r="F64" s="34"/>
+      <c r="G64" s="34"/>
+      <c r="H64" s="34"/>
+      <c r="I64" s="34"/>
+      <c r="J64" s="34"/>
+      <c r="K64" s="34"/>
+      <c r="L64" s="34"/>
+    </row>
+    <row r="65" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="34"/>
+      <c r="C65" s="34"/>
+      <c r="D65" s="34"/>
+      <c r="E65" s="34"/>
+      <c r="F65" s="34"/>
+      <c r="G65" s="34"/>
+      <c r="H65" s="34"/>
+      <c r="I65" s="34"/>
+      <c r="J65" s="34"/>
+      <c r="K65" s="34"/>
+      <c r="L65" s="34"/>
+    </row>
+    <row r="66" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="34"/>
+      <c r="C66" s="34"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="34"/>
+      <c r="G66" s="34"/>
+      <c r="H66" s="34"/>
+      <c r="I66" s="34"/>
+      <c r="J66" s="34"/>
+      <c r="K66" s="34"/>
+      <c r="L66" s="34"/>
+    </row>
+    <row r="67" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="34"/>
+      <c r="C67" s="34"/>
+      <c r="D67" s="34"/>
+      <c r="E67" s="34"/>
+      <c r="F67" s="34"/>
+      <c r="G67" s="34"/>
+      <c r="H67" s="34"/>
+      <c r="I67" s="34"/>
+      <c r="J67" s="34"/>
+      <c r="K67" s="34"/>
+      <c r="L67" s="34"/>
+    </row>
+    <row r="68" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="34"/>
+      <c r="C68" s="34"/>
+      <c r="D68" s="34"/>
+      <c r="E68" s="34"/>
+      <c r="F68" s="34"/>
+      <c r="G68" s="34"/>
+      <c r="H68" s="34"/>
+      <c r="I68" s="34"/>
+      <c r="J68" s="34"/>
+      <c r="K68" s="34"/>
+      <c r="L68" s="34"/>
+    </row>
+    <row r="69" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="34"/>
+      <c r="C69" s="34"/>
+      <c r="D69" s="34"/>
+      <c r="E69" s="34"/>
+      <c r="F69" s="34"/>
+      <c r="G69" s="34"/>
+      <c r="H69" s="34"/>
+      <c r="I69" s="34"/>
+      <c r="J69" s="34"/>
+      <c r="K69" s="34"/>
+      <c r="L69" s="34"/>
+    </row>
+    <row r="70" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="34"/>
+      <c r="C70" s="34"/>
+      <c r="D70" s="34"/>
+      <c r="E70" s="34"/>
+      <c r="F70" s="34"/>
+      <c r="G70" s="34"/>
+      <c r="H70" s="34"/>
+      <c r="I70" s="34"/>
+      <c r="J70" s="34"/>
+      <c r="K70" s="34"/>
+      <c r="L70" s="34"/>
+    </row>
+    <row r="71" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="34"/>
+      <c r="C71" s="34"/>
+      <c r="D71" s="34"/>
+      <c r="E71" s="34"/>
+      <c r="F71" s="34"/>
+      <c r="G71" s="34"/>
+      <c r="H71" s="34"/>
+      <c r="I71" s="34"/>
+      <c r="J71" s="34"/>
+      <c r="K71" s="34"/>
+      <c r="L71" s="34"/>
+    </row>
+    <row r="72" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="34"/>
+      <c r="C72" s="34"/>
+      <c r="D72" s="34"/>
+      <c r="E72" s="34"/>
+      <c r="F72" s="34"/>
+      <c r="G72" s="34"/>
+      <c r="H72" s="34"/>
+      <c r="I72" s="34"/>
+      <c r="J72" s="34"/>
+      <c r="K72" s="34"/>
+      <c r="L72" s="34"/>
+    </row>
+    <row r="73" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="34"/>
+      <c r="C73" s="34"/>
+      <c r="D73" s="34"/>
+      <c r="E73" s="34"/>
+      <c r="F73" s="34"/>
+      <c r="G73" s="34"/>
+      <c r="H73" s="34"/>
+      <c r="I73" s="34"/>
+      <c r="J73" s="34"/>
+      <c r="K73" s="34"/>
+      <c r="L73" s="34"/>
+    </row>
+    <row r="74" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="34"/>
+      <c r="C74" s="34"/>
+      <c r="D74" s="34"/>
+      <c r="E74" s="34"/>
+      <c r="F74" s="34"/>
+      <c r="G74" s="34"/>
+      <c r="H74" s="34"/>
+      <c r="I74" s="34"/>
+      <c r="J74" s="34"/>
+      <c r="K74" s="34"/>
+      <c r="L74" s="34"/>
+    </row>
+    <row r="75" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="34"/>
+      <c r="C75" s="34"/>
+      <c r="D75" s="34"/>
+      <c r="E75" s="34"/>
+      <c r="F75" s="34"/>
+      <c r="G75" s="34"/>
+      <c r="H75" s="34"/>
+      <c r="I75" s="34"/>
+      <c r="J75" s="34"/>
+      <c r="K75" s="34"/>
+      <c r="L75" s="34"/>
+    </row>
+    <row r="76" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="34"/>
+      <c r="C76" s="34"/>
+      <c r="D76" s="34"/>
+      <c r="E76" s="34"/>
+      <c r="F76" s="34"/>
+      <c r="G76" s="34"/>
+      <c r="H76" s="34"/>
+      <c r="I76" s="34"/>
+      <c r="J76" s="34"/>
+      <c r="K76" s="34"/>
+      <c r="L76" s="34"/>
+    </row>
+    <row r="77" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="34"/>
+      <c r="C77" s="34"/>
+      <c r="D77" s="34"/>
+      <c r="E77" s="34"/>
+      <c r="F77" s="34"/>
+      <c r="G77" s="34"/>
+      <c r="H77" s="34"/>
+      <c r="I77" s="34"/>
+      <c r="J77" s="34"/>
+      <c r="K77" s="34"/>
+      <c r="L77" s="34"/>
+    </row>
+    <row r="78" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="34"/>
+      <c r="C78" s="34"/>
+      <c r="D78" s="34"/>
+      <c r="E78" s="34"/>
+      <c r="F78" s="34"/>
+      <c r="G78" s="34"/>
+      <c r="H78" s="34"/>
+      <c r="I78" s="34"/>
+      <c r="J78" s="34"/>
+      <c r="K78" s="34"/>
+      <c r="L78" s="34"/>
+    </row>
+    <row r="79" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="34"/>
+      <c r="C79" s="34"/>
+      <c r="D79" s="34"/>
+      <c r="E79" s="34"/>
+      <c r="F79" s="34"/>
+      <c r="G79" s="34"/>
+      <c r="H79" s="34"/>
+      <c r="I79" s="34"/>
+      <c r="J79" s="34"/>
+      <c r="K79" s="34"/>
+      <c r="L79" s="34"/>
+    </row>
+    <row r="80" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B80" s="34"/>
+      <c r="C80" s="34"/>
+      <c r="D80" s="34"/>
+      <c r="E80" s="34"/>
+      <c r="F80" s="34"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="34"/>
+      <c r="I80" s="34"/>
+      <c r="J80" s="34"/>
+      <c r="K80" s="34"/>
+      <c r="L80" s="34"/>
+    </row>
+    <row r="81" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B81" s="34"/>
+      <c r="C81" s="34"/>
+      <c r="D81" s="34"/>
+      <c r="E81" s="34"/>
+      <c r="F81" s="34"/>
+      <c r="G81" s="34"/>
+      <c r="H81" s="34"/>
+      <c r="I81" s="34"/>
+      <c r="J81" s="34"/>
+      <c r="K81" s="34"/>
+      <c r="L81" s="34"/>
+    </row>
+    <row r="82" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="34"/>
+      <c r="C82" s="34"/>
+      <c r="D82" s="34"/>
+      <c r="E82" s="34"/>
+      <c r="F82" s="34"/>
+      <c r="G82" s="34"/>
+      <c r="H82" s="34"/>
+      <c r="I82" s="34"/>
+      <c r="J82" s="34"/>
+      <c r="K82" s="34"/>
+      <c r="L82" s="34"/>
+    </row>
+    <row r="83" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="34"/>
+      <c r="C83" s="34"/>
+      <c r="D83" s="34"/>
+      <c r="E83" s="34"/>
+      <c r="F83" s="34"/>
+      <c r="G83" s="34"/>
+      <c r="H83" s="34"/>
+      <c r="I83" s="34"/>
+      <c r="J83" s="34"/>
+      <c r="K83" s="34"/>
+      <c r="L83" s="34"/>
+    </row>
+    <row r="84" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="34"/>
+      <c r="C84" s="34"/>
+      <c r="D84" s="34"/>
+      <c r="E84" s="34"/>
+      <c r="F84" s="34"/>
+      <c r="G84" s="34"/>
+      <c r="H84" s="34"/>
+      <c r="I84" s="34"/>
+      <c r="J84" s="34"/>
+      <c r="K84" s="34"/>
+      <c r="L84" s="34"/>
+    </row>
+    <row r="85" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B85" s="34"/>
+      <c r="C85" s="34"/>
+      <c r="D85" s="34"/>
+      <c r="E85" s="34"/>
+      <c r="F85" s="34"/>
+      <c r="G85" s="34"/>
+      <c r="H85" s="34"/>
+      <c r="I85" s="34"/>
+      <c r="J85" s="34"/>
+      <c r="K85" s="34"/>
+      <c r="L85" s="34"/>
+    </row>
+    <row r="86" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B86" s="34"/>
+      <c r="C86" s="34"/>
+      <c r="D86" s="34"/>
+      <c r="E86" s="34"/>
+      <c r="F86" s="34"/>
+      <c r="G86" s="34"/>
+      <c r="H86" s="34"/>
+      <c r="I86" s="34"/>
+      <c r="J86" s="34"/>
+      <c r="K86" s="34"/>
+      <c r="L86" s="34"/>
+    </row>
+    <row r="87" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B87" s="34"/>
+      <c r="C87" s="34"/>
+      <c r="D87" s="34"/>
+      <c r="E87" s="34"/>
+      <c r="F87" s="34"/>
+      <c r="G87" s="34"/>
+      <c r="H87" s="34"/>
+      <c r="I87" s="34"/>
+      <c r="J87" s="34"/>
+      <c r="K87" s="34"/>
+      <c r="L87" s="34"/>
+    </row>
+    <row r="88" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B88" s="34"/>
+      <c r="C88" s="34"/>
+      <c r="D88" s="34"/>
+      <c r="E88" s="34"/>
+      <c r="F88" s="34"/>
+      <c r="G88" s="34"/>
+      <c r="H88" s="34"/>
+      <c r="I88" s="34"/>
+      <c r="J88" s="34"/>
+      <c r="K88" s="34"/>
+      <c r="L88" s="34"/>
+    </row>
+    <row r="89" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B89" s="34"/>
+      <c r="C89" s="34"/>
+      <c r="D89" s="34"/>
+      <c r="E89" s="34"/>
+      <c r="F89" s="34"/>
+      <c r="G89" s="34"/>
+      <c r="H89" s="34"/>
+      <c r="I89" s="34"/>
+      <c r="J89" s="34"/>
+      <c r="K89" s="34"/>
+      <c r="L89" s="34"/>
+    </row>
+    <row r="90" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="34"/>
+      <c r="C90" s="34"/>
+      <c r="D90" s="34"/>
+      <c r="E90" s="34"/>
+      <c r="F90" s="34"/>
+      <c r="G90" s="34"/>
+      <c r="H90" s="34"/>
+      <c r="I90" s="34"/>
+      <c r="J90" s="34"/>
+      <c r="K90" s="34"/>
+      <c r="L90" s="34"/>
+    </row>
+    <row r="91" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B91" s="34"/>
+      <c r="C91" s="34"/>
+      <c r="D91" s="34"/>
+      <c r="E91" s="34"/>
+      <c r="F91" s="34"/>
+      <c r="G91" s="34"/>
+      <c r="H91" s="34"/>
+      <c r="I91" s="34"/>
+      <c r="J91" s="34"/>
+      <c r="K91" s="34"/>
+      <c r="L91" s="34"/>
+    </row>
+    <row r="92" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B92" s="34"/>
+      <c r="C92" s="34"/>
+      <c r="D92" s="34"/>
+      <c r="E92" s="34"/>
+      <c r="F92" s="34"/>
+      <c r="G92" s="34"/>
+      <c r="H92" s="34"/>
+      <c r="I92" s="34"/>
+      <c r="J92" s="34"/>
+      <c r="K92" s="34"/>
+      <c r="L92" s="34"/>
+    </row>
+    <row r="93" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B93" s="34"/>
+      <c r="C93" s="34"/>
+      <c r="D93" s="34"/>
+      <c r="E93" s="34"/>
+      <c r="F93" s="34"/>
+      <c r="G93" s="34"/>
+      <c r="H93" s="34"/>
+      <c r="I93" s="34"/>
+      <c r="J93" s="34"/>
+      <c r="K93" s="34"/>
+      <c r="L93" s="34"/>
+    </row>
+    <row r="94" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B94" s="34"/>
+      <c r="C94" s="34"/>
+      <c r="D94" s="34"/>
+      <c r="E94" s="34"/>
+      <c r="F94" s="34"/>
+      <c r="G94" s="34"/>
+      <c r="H94" s="34"/>
+      <c r="I94" s="34"/>
+      <c r="J94" s="34"/>
+      <c r="K94" s="34"/>
+      <c r="L94" s="34"/>
+    </row>
+    <row r="95" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B95" s="34"/>
+      <c r="C95" s="34"/>
+      <c r="D95" s="34"/>
+      <c r="E95" s="34"/>
+      <c r="F95" s="34"/>
+      <c r="G95" s="34"/>
+      <c r="H95" s="34"/>
+      <c r="I95" s="34"/>
+      <c r="J95" s="34"/>
+      <c r="K95" s="34"/>
+      <c r="L95" s="34"/>
+    </row>
+    <row r="96" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B96" s="34"/>
+      <c r="C96" s="34"/>
+      <c r="D96" s="34"/>
+      <c r="E96" s="34"/>
+      <c r="F96" s="34"/>
+      <c r="G96" s="34"/>
+      <c r="H96" s="34"/>
+      <c r="I96" s="34"/>
+      <c r="J96" s="34"/>
+      <c r="K96" s="34"/>
+      <c r="L96" s="34"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:O10"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/日语.xlsx
+++ b/日语.xlsx
@@ -33,81 +33,81 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="223">
   <si>
     <t>三类动词</t>
     <rPh sb="0" eb="1">
       <t>san lei dong ci</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>定义</t>
     <rPh sb="0" eb="1">
       <t>ding yi</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>以る结尾。い、え段 + る (一般情况)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>する、くる</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>（特殊）满足二类的规则，但却是一类的动词：
 焦る（あせる）、要る（いる）、帰る（かえる）、返る（かえる）、限る（かぎる）、切る（きる）、蹴る（ける）、茂る（しげる）、知る（しる）、喋る（しゃべる）、滑る（すべる）、散る（ちる）、入る（はいる）、走る（はしる）、減る（へる）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ます形</t>
     <rPh sb="2" eb="3">
       <t>xing</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>て形</t>
     <rPh sb="1" eb="2">
       <t>xing</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>た形</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>把词尾「る」去掉后接「ます」</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>「～する」变为「～し」后接「ます」；「来る」变为「来（き）」后接「ます」</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 动词“ます形”去掉ます后直接加て</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>“行きます”的て形是“行って”
 动词的た形的变形与て形完全一致（）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>↑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>词尾的「う」段假名变为同行「あ」段假名之后接「ない」</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>词尾是「う」的动词将词尾变成「わ」而不是「あ」；
 「ある」没有ない形，对应的否定表达就是「ない」</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>自动词词尾</t>
@@ -117,7 +117,7 @@
     <rPh sb="3" eb="4">
       <t>ci wei</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>他动词词尾</t>
@@ -127,23 +127,23 @@
     <rPh sb="3" eb="4">
       <t>ci wei</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>aru</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>eru</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>eru、ru</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>su</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>完全相同</t>
@@ -153,31 +153,31 @@
     <rPh sb="2" eb="3">
       <t>xiang tong</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. 词尾不是る结尾的
 2. 以る结尾。 あ、う、お段 + る
 3. 以る结尾。い、え段 + る，但是い、え段假名在汉字上面，如：入(はい)る</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 动词“ます形”去掉ます后直接加て</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>备注1</t>
     <rPh sb="0" eb="1">
       <t>bei zhu</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>备注2</t>
     <rPh sb="0" eb="1">
       <t>bei zhu</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>表示动词的现在时否定，对应的过去时否定为「なっかた」</t>
@@ -214,29 +214,29 @@
     <rPh sb="19" eb="20">
       <t>wei</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ない形</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>时态</t>
     <rPh sb="0" eb="1">
       <t>shi tai</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>敬体形</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>简体形</t>
     <rPh sb="0" eb="1">
       <t>jian ti xing</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>现在是否定形</t>
@@ -246,7 +246,7 @@
     <rPh sb="3" eb="4">
       <t>fou ding xing</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>过去式肯定形</t>
@@ -259,7 +259,7 @@
     <rPh sb="5" eb="6">
       <t>xing</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>现在时肯定形</t>
@@ -272,7 +272,7 @@
     <rPh sb="3" eb="4">
       <t>ken ding xing</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>过去时否定形</t>
@@ -288,35 +288,35 @@
     <rPh sb="5" eb="6">
       <t>xing</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>～ます（書きます）</t>
     <rPh sb="4" eb="5">
       <t>かきm</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>～ません（書きません）</t>
     <rPh sb="5" eb="6">
       <t>かきませn</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>～ました（書きました）</t>
     <rPh sb="5" eb="6">
       <t>かk</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>～ませんでした（書きませんでした）</t>
     <rPh sb="8" eb="9">
       <t>かk</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>动词基本形（書く）</t>
@@ -326,7 +326,7 @@
     <rPh sb="6" eb="7">
       <t>かく</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ない形的过去时（書かなかった）</t>
@@ -342,7 +342,7 @@
     <rPh sb="8" eb="9">
       <t>かかn</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ない形（書かない）</t>
@@ -352,7 +352,7 @@
     <rPh sb="4" eb="5">
       <t>かかな</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>た形（書いた）</t>
@@ -362,21 +362,21 @@
     <rPh sb="3" eb="4">
       <t>かいた</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>い形容词</t>
     <rPh sb="1" eb="2">
       <t>xing</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>い形容词</t>
     <rPh sb="1" eb="2">
       <t>xing rong ci</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>い形容词简体形</t>
@@ -386,7 +386,7 @@
     <rPh sb="4" eb="5">
       <t>jian ti xing</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>现在时</t>
@@ -396,14 +396,14 @@
     <rPh sb="2" eb="3">
       <t>shi</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>过去时</t>
     <rPh sb="0" eb="1">
       <t>guo qv shi</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>肯定形</t>
@@ -413,14 +413,14 @@
     <rPh sb="2" eb="3">
       <t>xing</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>否定形</t>
     <rPh sb="0" eb="1">
       <t>fou ding xing</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>い形容词词干 + い</t>
@@ -430,26 +430,26 @@
     <rPh sb="4" eb="5">
       <t>ci gan</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>い形容词词干 + かった</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>い形容词词干 + くない</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>い形容词词干 + くなかった</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>い形容词敬体形</t>
     <rPh sb="1" eb="2">
       <t>xing rong ci</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">い形容词词干 + い + です </t>
@@ -459,11 +459,11 @@
     <rPh sb="4" eb="5">
       <t>ci gan</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>い形容词词干 + かった + です</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -499,7 +499,7 @@
       </rPr>
       <t>ありません</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -535,14 +535,14 @@
       </rPr>
       <t>ありませんでした</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>用法：</t>
     <rPh sb="0" eb="1">
       <t>yong fa</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3. い形容词 + 动词（即作副词，要把词尾「い」改为「く」再接动词）</t>
@@ -570,7 +570,7 @@
     <rPh sb="32" eb="33">
       <t>dong ci</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. い形容词 + 名词。い形容词简体形的过去时（い形容词词干 + かった）也可以用于修饰名词，表示该物体、事物过去的性质，状态等。</t>
@@ -637,14 +637,14 @@
     <rPh sb="64" eb="65">
       <t>deng</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>な形容词</t>
     <rPh sb="1" eb="2">
       <t>xing</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>な形容词简体形</t>
@@ -654,14 +654,14 @@
     <rPh sb="4" eb="5">
       <t>jian ti xing</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>な形容词</t>
     <rPh sb="1" eb="2">
       <t>xing rong ci</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>な形容词词干 + だ</t>
@@ -671,7 +671,7 @@
     <rPh sb="4" eb="5">
       <t>ci gan</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">な形容词词干 + です </t>
@@ -681,23 +681,23 @@
     <rPh sb="4" eb="5">
       <t>ci gan</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>な形容词词干 + だった</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>な形容词词干 + ではない</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>な形容词词干 + ではなかった</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>い形容词词干 + でした</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -733,7 +733,7 @@
       </rPr>
       <t>ではないです</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -769,7 +769,7 @@
       </rPr>
       <t>ではなかったです</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>（谓语是对主语动作或状态的陈述或说明）</t>
@@ -779,7 +779,7 @@
     <rPh sb="3" eb="4">
       <t>shi</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>句型中出现的「では」都可以换成「じゃ」</t>
@@ -801,7 +801,7 @@
     <rPh sb="10" eb="11">
       <t>dou ke yi huan cheng</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. な形容词 + 名词。要把词尾的「だ」改为「な」再接名词。</t>
@@ -826,7 +826,7 @@
     <rPh sb="28" eb="29">
       <t>ming ci</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3. な形容词 + 动词，要把词尾的「だ」改为「に」再接动词。</t>
@@ -851,7 +851,7 @@
     <rPh sb="28" eb="29">
       <t>dong ci</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2. い形容词「て」形，表示同一事物的各种性质。</t>
@@ -879,11 +879,11 @@
     <rPh sb="21" eb="22">
       <t>xing zhi</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>多个形容词用于对同一主体进行描述且属于并列关系时，「て」可以省略。这种表达方式多用于书面语。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>この道は暗く(て)危ないです。</t>
@@ -893,7 +893,7 @@
     <rPh sb="9" eb="10">
       <t>あぶな</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2. な形容词「で」形，在句中表示并列或者中顿时，要把词尾的「だ」改为「で」（形容词为「て」形，不是「で」形）</t>
@@ -954,7 +954,7 @@
     <rPh sb="53" eb="54">
       <t>xing</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>この町は賑やかで便利なところです。</t>
@@ -964,7 +964,7 @@
     <rPh sb="8" eb="10">
       <t>ﾍﾞンr</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>この辺りはとても静かで、風景も綺麗です。</t>
@@ -980,7 +980,7 @@
     <rPh sb="15" eb="17">
       <t>キレ</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>図書館では、静かに歩いてください。</t>
@@ -993,7 +993,7 @@
     <rPh sb="9" eb="10">
       <t>あるいて</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>自动词宾语用が、他动词宾语用を</t>
@@ -1006,14 +1006,14 @@
     <rPh sb="13" eb="14">
       <t>yong</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>（大部分）五段动词一般都是自动词，一段动词一般都是他动词。</t>
     <rPh sb="1" eb="2">
       <t>da bu fen</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>一类动词(五段动词)</t>
@@ -1029,7 +1029,7 @@
     <rPh sb="7" eb="8">
       <t>dong ci</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>二类动词(一段动词)</t>
@@ -1042,7 +1042,7 @@
     <rPh sb="7" eb="8">
       <t>dong ci</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1159,7 +1159,7 @@
     <rPh sb="60" eb="61">
       <t>ming ci</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1191,7 +1191,7 @@
     <rPh sb="41" eb="42">
       <t>いっt</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>一、 AはBです。（名词判断句／名词句）</t>
@@ -1210,7 +1210,7 @@
     <rPh sb="18" eb="19">
       <t>jv</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. A、B一定是名词</t>
@@ -1220,7 +1220,7 @@
     <rPh sb="9" eb="10">
       <t>ming ci</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2. です变化（4种敬+4种简体+で形）</t>
@@ -1242,7 +1242,7 @@
     <rPh sb="18" eb="19">
       <t>xing</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1326,7 +1326,7 @@
     <rPh sb="58" eb="59">
       <t>yuan yin</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. 格助词用法</t>
@@ -1339,14 +1339,14 @@
     <rPh sb="6" eb="7">
       <t>yong fa</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>（10个）～が、～を、～の、～と、～へ、～に、～で、～から、～まで、～より</t>
     <rPh sb="3" eb="4">
       <t>ge</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2. 动词的变化</t>
@@ -1359,7 +1359,7 @@
     <rPh sb="6" eb="7">
       <t>bian hua</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>①　词尾（9种） う、く、ぐ、す、つ、ぬ、ぶ、も、る</t>
@@ -1369,7 +1369,7 @@
     <rPh sb="6" eb="7">
       <t>zhong</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>②　类型（四种）五段动词、一段动词、サ变动词、カ变动词</t>
@@ -1394,25 +1394,25 @@
     <rPh sb="24" eb="25">
       <t>bian dogn ci</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3. 提示助词</t>
     <rPh sb="3" eb="4">
       <t>ti shi zhu ci</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>～は、～も、～でも、～しか、～さえ、～こそ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4. 副词</t>
     <rPh sb="3" eb="4">
       <t>fu ci</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>用于修饰用言，一般放在被修饰的用言前面，不加任何助词。</t>
@@ -1446,7 +1446,7 @@
     <rPh sb="24" eb="25">
       <t>zhu ci</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>（四种）固定副词、数量词当副词、变性副词（原来不是副词，变换后成副词）、ABAB副词</t>
@@ -1495,7 +1495,7 @@
     <rPh sb="40" eb="41">
       <t>fu ci</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>用言</t>
@@ -1505,7 +1505,7 @@
     <rPh sb="1" eb="2">
       <t>yan</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>词干(无活用)+词尾(活用)</t>
@@ -1515,7 +1515,7 @@
     <rPh sb="8" eb="9">
       <t>ci wei</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>体言</t>
@@ -1525,7 +1525,7 @@
     <rPh sb="1" eb="2">
       <t>yan</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>无活用，因为没有词尾</t>
@@ -1538,7 +1538,7 @@
     <rPh sb="8" eb="9">
       <t>ci wei</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. 动词：う、く、ぐ、す、つ、ぬ、ぶ、も、る
@@ -1553,7 +1553,7 @@
     <rPh sb="36" eb="37">
       <t>xing rong dong ci</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. 名词
@@ -1568,11 +1568,11 @@
     <rPh sb="15" eb="16">
       <t>dai ci</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>在日语中，所有的用言处在句子的末尾，其它结构同汉语</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>下星期开始两周因工作原因去日本出差。（“去”是用言，放在最后）</t>
@@ -1609,11 +1609,11 @@
     <rPh sb="26" eb="27">
       <t>fang zai zui hou</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>下星期开始两周因工作原因日本出差去。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>来週から2週間仕事で日本へ出張に行く。</t>
@@ -1635,7 +1635,7 @@
     <rPh sb="16" eb="17">
       <t>いk</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>二、动词句</t>
@@ -1645,7 +1645,7 @@
     <rPh sb="2" eb="3">
       <t>dong ci jv</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>（一）～が〜で〜する（一般动词句）</t>
@@ -1658,7 +1658,7 @@
     <rPh sb="13" eb="14">
       <t>dong ci jv</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>〜に〜がある/いる（什么地方有什么）
@@ -1676,14 +1676,14 @@
     <rPh sb="51" eb="52">
       <t>you sheng ming</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. 存在句</t>
     <rPh sb="3" eb="4">
       <t>cun zai jv</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>（二）特殊动词句（句子结构固定，如表示存在时一定是存在句这个结构）</t>
@@ -1723,7 +1723,7 @@
     <rPh sb="28" eb="29">
       <t>zhe ge jie gou</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>AがBにCをもらう（A从B那里得到了C，A是我方，B是对方）
@@ -1792,7 +1792,7 @@
     <rPh sb="83" eb="84">
       <t>dui fang</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2. 授受关系句</t>
@@ -1805,14 +1805,14 @@
     <rPh sb="5" eb="6">
       <t>guan xi jv</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3. 来去目的句</t>
     <rPh sb="3" eb="4">
       <t>lai qv</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>〜が〜へ〜をくに行く/来る</t>
@@ -1822,7 +1822,7 @@
     <rPh sb="11" eb="12">
       <t>くR</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4. 状态变化句</t>
@@ -1835,7 +1835,7 @@
     <rPh sb="7" eb="8">
       <t>jv</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>AがBく/に/になる（A变成了B，自然变化）
@@ -1858,7 +1858,7 @@
     <rPh sb="45" eb="46">
       <t>bian hua</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>特殊动词句的例子</t>
@@ -1871,40 +1871,40 @@
     <rPh sb="6" eb="7">
       <t>li zi</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>存在句</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>授受关系句</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>来去目的句</t>
   </si>
   <si>
     <t>状态变化句</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">事務所に社員が５人います。
 財布に（人民元が）２００元あります。
 私の車はガレージにあります。
 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">私は田中さんに/からメールをもらいます。
 田中さんが私に日本語の辞書をくれました。
 私は田中さんに箸をあげました。
 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>＊这三种句子中如果有我，我可以省略。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>映画を見るー＞〜見に
@@ -1975,7 +1975,7 @@
     <rPh sb="82" eb="83">
       <t>yong</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>私は町へ映画を見に行きます。
@@ -2043,7 +2043,7 @@
     <rPh sb="70" eb="71">
       <t>い</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>今は７時になりました。（名+に）
@@ -2105,7 +2105,7 @@
     <rPh sb="116" eb="117">
       <t>shi</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>需要注意的是特殊动词句在使用中不会把元素ABC说的那么的全。</t>
@@ -2142,7 +2142,7 @@
     <rPh sb="28" eb="29">
       <t>quan</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>三、Qは adj／adv作谓语。（描写句）</t>
@@ -2152,7 +2152,7 @@
     <rPh sb="17" eb="18">
       <t>miao xie jv</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. 形容词变化。9种（4种敬+4种简体+で形）</t>
@@ -2165,14 +2165,14 @@
     <rPh sb="10" eb="11">
       <t>zhong</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>なの人(A)はうちの社長(B)で部下に優しく(形)て中国人(B)です。</t>
   </si>
   <si>
     <t>よって</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>いい=&gt;[よい]（现肯）</t>
@@ -2182,21 +2182,21 @@
     <rPh sb="10" eb="11">
       <t>ken</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>よくたり（否）</t>
     <rPh sb="5" eb="6">
       <t>fou</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>よかった（过）</t>
     <rPh sb="5" eb="6">
       <t>guo</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ようくなかった（过否）</t>
@@ -2206,7 +2206,7 @@
     <rPh sb="9" eb="10">
       <t>fou</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>いい的现在肯定时是いい、但是他的变化是基于[よい]。</t>
@@ -2240,11 +2240,11 @@
     <rPh sb="19" eb="20">
       <t>ji yu</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>特殊：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>番外：好きです中的です，无判断意义。名词句后面的です才有判断意义。</t>
@@ -2278,7 +2278,7 @@
     <rPh sb="30" eb="31">
       <t>yi yi</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">     資料があります。（有资料）
@@ -2370,7 +2370,7 @@
     <rPh sb="225" eb="226">
       <t>you qv wei</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>お湯を「沸かす」</t>
@@ -2380,14 +2380,14 @@
     <rPh sb="4" eb="5">
       <t>わk</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>お湯が「沸く」</t>
     <rPh sb="4" eb="5">
       <t>わく</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>水烧开了(自动)</t>
@@ -2400,7 +2400,7 @@
     <rPh sb="5" eb="6">
       <t>zi dong</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>烧水（他动）</t>
@@ -2410,11 +2410,11 @@
     <rPh sb="3" eb="4">
       <t>ta dong</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>↑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2846,7 +2846,7 @@
       </rPr>
       <t>。</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>意志形</t>
@@ -2856,7 +2856,7 @@
     <rPh sb="2" eb="3">
       <t>xing tai</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2954,12 +2954,12 @@
       </rPr>
       <t>"し"-&gt;"して"</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>「～する」变为「～し」后接「ない」
 「来る」变为「来（こ）」后接「ない」</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>「来る」变为「来（こ）よう」
@@ -2970,7 +2970,7 @@
     <rPh sb="7" eb="8">
       <t>コヨ</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>一般不单独使用。
@@ -3012,22 +3012,22 @@
     <rPh sb="52" eb="53">
       <t>yi duan shi jian</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> ば形</t>
     <rPh sb="2" eb="3">
       <t>xing</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>把词尾的「う」段假名变为同行「い」段假名后接「ます」</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>词尾「る」去掉后接「ない」</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3055,7 +3055,7 @@
     <rPh sb="29" eb="30">
       <t>ミヨ</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3110,7 +3110,7 @@
     <rPh sb="47" eb="48">
       <t>カ</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3141,7 +3141,7 @@
     <rPh sb="48" eb="49">
       <t>か</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3157,23 +3157,23 @@
       </rPr>
       <t>食べる-&gt;食べれば,　見る-&gt;見れば</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>「来る」变为「来（く）れば」
 「する」变为「すれば」</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ば形</t>
     <rPh sb="1" eb="2">
       <t>xing tai</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>い形容词词干 + ければ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>只有い形容词才有ば形，eg: 楽しい -&gt; 楽しければ</t>
@@ -3195,15 +3195,15 @@
     <rPh sb="22" eb="23">
       <t>たのsh</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>词尾「い」变成「く」再加「て」，即「い形容词词干 + く + て」。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>て形</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>可能形</t>
@@ -3213,7 +3213,7 @@
     <rPh sb="2" eb="3">
       <t>xing</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>表示假定条件
@@ -3236,7 +3236,7 @@
     <rPh sb="17" eb="18">
       <t>xing</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3281,7 +3281,7 @@
     <rPh sb="32" eb="33">
       <t>mou zhong dong zuo</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3362,7 +3362,7 @@
     <rPh sb="43" eb="44">
       <t>wan quan yi yang</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>被动形</t>
@@ -3372,7 +3372,7 @@
     <rPh sb="2" eb="3">
       <t>xing</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3399,7 +3399,7 @@
       <t xml:space="preserve">
 「する」变为「される」</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3426,7 +3426,7 @@
       <t xml:space="preserve">
 「する」变为「できる」</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3457,7 +3457,7 @@
     <rPh sb="48" eb="49">
       <t>カ</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3505,7 +3505,7 @@
     <rPh sb="62" eb="63">
       <t>みらr</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3538,7 +3538,7 @@
       </rPr>
       <t>食べる-&gt;食べられる,　見る-&gt;見られる</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>使役形</t>
@@ -3548,7 +3548,7 @@
     <rPh sb="2" eb="3">
       <t>xing</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3591,7 +3591,7 @@
     <rPh sb="59" eb="60">
       <t>かw</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3634,7 +3634,7 @@
     <rPh sb="59" eb="60">
       <t>かw</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3661,14 +3661,14 @@
       <t xml:space="preserve">
 「する」变为「させる」</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>使役形的活用形式和二类动词相同（也有过去时等等）。</t>
     <rPh sb="0" eb="1">
       <t>shi yi</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3701,7 +3701,7 @@
       </rPr>
       <t>食べる-&gt;食べさせる,　見る-&gt;見させる</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">被动形的活用形式和二类动词相同（也有过去时等等）。
@@ -3709,7 +3709,7 @@
     <rPh sb="0" eb="1">
       <t>bei dogn</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>让某人做某事</t>
@@ -3725,7 +3725,7 @@
     <rPh sb="4" eb="5">
       <t>mou shi</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>使役被动</t>
@@ -3735,7 +3735,7 @@
     <rPh sb="2" eb="3">
       <t>bei dong</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3766,7 +3766,7 @@
     <rPh sb="28" eb="29">
       <t>かかr</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3802,7 +3802,7 @@
     <rPh sb="0" eb="1">
       <t>deng tong yu</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3829,7 +3829,7 @@
       <t xml:space="preserve">
 「する」变为「させるられる」</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>表示一种强迫性的动作</t>
@@ -3848,7 +3848,318 @@
     <rPh sb="8" eb="9">
       <t>dong zuo</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未然形</t>
+    <rPh sb="0" eb="1">
+      <t>wei ran</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未然1: 即ない
+未然2(推量形): 即意志形</t>
+    <rPh sb="0" eb="1">
+      <t>wei ran</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>wei ran</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>yi zhi</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终止形</t>
+    <rPh sb="0" eb="1">
+      <t>zhong zhi xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终止形即终止句子的形式，即原形。终止形后面还可以跟某些助词、助动词，给句子增添某种意义。后续助词如[から][が]，后续助动词如[でしょう]。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きょうは暑いね。今天好热呀！
+夏が暑いです。夏天炎热。
+冬は寒いでしょう。冬天大概很冷吧。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连用形</t>
+    <rPh sb="0" eb="1">
+      <t>lian yong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(还没有发生的事情)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顾名思义，连接用言</t>
+    <rPh sb="0" eb="1">
+      <t>gu ming si yi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>lian jie</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yong yan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动词连用形</t>
+    <rPh sb="0" eb="1">
+      <t>dong ci</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lian yong xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>即ます形动词去掉“ます”的形式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>形容词连用形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>形容动词连用形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>即将形容词词尾“い”变为“く”的形式。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>即在形容动词词干后加“に”的形式。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速く走る  快速的跑</t>
+    <rPh sb="6" eb="7">
+      <t>kuai su</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>pao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绮丽になる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连体形</t>
+    <rPh sb="0" eb="1">
+      <t>lian ti xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>假定形</t>
+    <rPh sb="0" eb="1">
+      <t>jia ding</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>即ば形。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>以下是与假定无关的惯用形
+①「……も……ば、……も……」表示“同时出现两种情况。” 翻译为：“既……，又……。”
+运动会で、両亲も走れば、子供も走る。（在运动会上，父母跑，孩子也跑。）
+②「动词假定形+ば、同一动词连体形+ほど」，表示“变化过程。”翻译为：“越来越……。”
+この本は読めば、読むほど面白くなる。（这本书越读越有趣。）</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xing</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yi xia shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动词的活用形</t>
+    <rPh sb="0" eb="1">
+      <t>dong ci</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>huo yong xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令形</t>
+    <rPh sb="0" eb="1">
+      <t>ming ling</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">词尾的「う」段假名变为同行「え」段
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>進む-&gt;進め</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>词尾「る」变为「ろ」或「よ」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>考える-&gt;考えろ（考えよ）</t>
+    </r>
+    <rPh sb="5" eb="6">
+      <t>bian wei</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>huo zhe shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>「来る」变为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>「来（こ）い」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+「する」变为「せよ」或「しろ」</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本語で話せ。
+止まれ。
+早くしろ。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令形</t>
+    <rPh sb="0" eb="1">
+      <t>ming lign xing</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xing tai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>即动词命令形</t>
+    <rPh sb="0" eb="1">
+      <t>ji</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>dong ci</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ming ling xing</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3856,14 +4167,6 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="20" x14ac:knownFonts="1">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3997,6 +4300,15 @@
       <name val="DengXian (正文)"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -4126,7 +4438,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4143,33 +4455,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4178,139 +4490,151 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4589,10 +4913,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4732,7 +5056,7 @@
         <v>178</v>
       </c>
       <c r="E7" s="5"/>
-      <c r="F7" s="66" t="s">
+      <c r="F7" s="36" t="s">
         <v>189</v>
       </c>
     </row>
@@ -4746,13 +5070,13 @@
       <c r="C8" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="D8" s="67" t="s">
+      <c r="D8" s="37" t="s">
         <v>186</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="F8" s="68" t="s">
+      <c r="F8" s="38" t="s">
         <v>187</v>
       </c>
     </row>
@@ -4766,13 +5090,13 @@
       <c r="C9" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="D9" s="67" t="s">
+      <c r="D9" s="37" t="s">
         <v>194</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="F9" s="68"/>
+      <c r="F9" s="38"/>
     </row>
     <row r="10" spans="1:6" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
@@ -4830,8 +5154,26 @@
         <v>175</v>
       </c>
     </row>
+    <row r="13" spans="1:6" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="F13" s="19"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4917,7 +5259,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4993,7 +5335,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5009,10 +5351,10 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="3" spans="1:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="39"/>
+      <c r="C3" s="48"/>
     </row>
     <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="14"/>
@@ -5028,33 +5370,33 @@
     </row>
     <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
     </row>
     <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="41" t="s">
+      <c r="B6" s="50"/>
+      <c r="C6" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41" t="s">
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
     </row>
@@ -5063,16 +5405,16 @@
       <c r="B7" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36" t="s">
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
     </row>
@@ -5081,16 +5423,16 @@
       <c r="B8" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36" t="s">
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
     </row>
@@ -5120,83 +5462,83 @@
     </row>
     <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
     </row>
     <row r="12" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="41" t="s">
+      <c r="B12" s="44"/>
+      <c r="C12" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="43" t="s">
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="45"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="53"/>
     </row>
     <row r="13" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
       <c r="B13" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36" t="s">
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
     </row>
     <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="42" t="s">
         <v>49</v>
       </c>
       <c r="C14" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
       <c r="G14" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
     </row>
     <row r="15" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
     </row>
     <row r="16" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
@@ -5215,11 +5557,11 @@
       <c r="B17" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="C17" s="65" t="s">
+      <c r="C17" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14" t="s">
         <v>170</v>
@@ -5245,15 +5587,15 @@
       <c r="B19" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
       <c r="J19" s="14"/>
     </row>
     <row r="20" spans="1:10" ht="18" x14ac:dyDescent="0.2">
@@ -5309,10 +5651,10 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="B29" s="39" t="s">
+      <c r="B29" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="39"/>
+      <c r="C29" s="48"/>
     </row>
     <row r="30" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B30" s="14" t="s">
@@ -5328,32 +5670,32 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="37" t="s">
+      <c r="B32" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="40" t="s">
+      <c r="C32" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
       <c r="I32" s="14"/>
       <c r="J32" s="14"/>
     </row>
     <row r="33" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="38"/>
-      <c r="C33" s="41" t="s">
+      <c r="B33" s="50"/>
+      <c r="C33" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41" t="s">
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
       <c r="I33" s="14"/>
       <c r="J33" s="14"/>
     </row>
@@ -5361,16 +5703,16 @@
       <c r="B34" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="36" t="s">
+      <c r="C34" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36" t="s">
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
       <c r="I34" s="14"/>
       <c r="J34" s="14"/>
     </row>
@@ -5378,16 +5720,16 @@
       <c r="B35" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="36" t="s">
+      <c r="C35" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36" t="s">
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
       <c r="I35" s="14"/>
       <c r="J35" s="14"/>
     </row>
@@ -5414,79 +5756,79 @@
       <c r="J37" s="14"/>
     </row>
     <row r="38" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="42" t="s">
+      <c r="B38" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="40" t="s">
+      <c r="C38" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="D38" s="40"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="45"/>
     </row>
     <row r="39" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="42"/>
-      <c r="C39" s="41" t="s">
+      <c r="B39" s="44"/>
+      <c r="C39" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="43" t="s">
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="H39" s="44"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="45"/>
+      <c r="H39" s="52"/>
+      <c r="I39" s="52"/>
+      <c r="J39" s="53"/>
     </row>
     <row r="40" spans="2:13" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C40" s="48" t="s">
+      <c r="C40" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="D40" s="48"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="48" t="s">
+      <c r="D40" s="41"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="H40" s="48"/>
-      <c r="I40" s="48"/>
-      <c r="J40" s="48"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
     </row>
     <row r="41" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="46" t="s">
+      <c r="B41" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="49" t="s">
+      <c r="C41" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="D41" s="48"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="49" t="s">
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="H41" s="48"/>
-      <c r="I41" s="48"/>
-      <c r="J41" s="48"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
     </row>
     <row r="42" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="46"/>
-      <c r="C42" s="48"/>
-      <c r="D42" s="48"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="48"/>
-      <c r="G42" s="48"/>
-      <c r="H42" s="48"/>
-      <c r="I42" s="48"/>
-      <c r="J42" s="48"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="41"/>
       <c r="K42" t="s">
         <v>74</v>
       </c>
@@ -5546,6 +5888,29 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:F15"/>
+    <mergeCell ref="G14:J15"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:H33"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="C19:I19"/>
     <mergeCell ref="C40:F40"/>
@@ -5556,36 +5921,13 @@
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="C38:J38"/>
     <mergeCell ref="C39:F39"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:F15"/>
-    <mergeCell ref="G14:J15"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:H33"/>
     <mergeCell ref="G39:J39"/>
     <mergeCell ref="C34:E34"/>
     <mergeCell ref="F34:H34"/>
     <mergeCell ref="C35:E35"/>
     <mergeCell ref="F35:H35"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:H7"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5601,25 +5943,25 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
       <c r="I1" s="21"/>
     </row>
     <row r="2" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
       <c r="I2" s="21"/>
     </row>
     <row r="3" spans="2:14" ht="18" x14ac:dyDescent="0.2">
@@ -5637,16 +5979,16 @@
       <c r="D4" s="14"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
     </row>
     <row r="8" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B8" s="14" t="s">
@@ -5861,261 +6203,261 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
-      <c r="J20" s="56" t="s">
+      <c r="J20" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="56"/>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="56"/>
-      <c r="R20" s="56"/>
-      <c r="S20" s="56"/>
-      <c r="T20" s="56"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="55"/>
+      <c r="O20" s="55"/>
+      <c r="P20" s="55"/>
+      <c r="Q20" s="55"/>
+      <c r="R20" s="55"/>
+      <c r="S20" s="55"/>
+      <c r="T20" s="55"/>
     </row>
     <row r="21" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="62" t="s">
+      <c r="B21" s="61" t="s">
         <v>117</v>
       </c>
-      <c r="C21" s="55" t="s">
+      <c r="C21" s="64" t="s">
         <v>116</v>
       </c>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
       <c r="I21" s="22"/>
-      <c r="J21" s="61" t="s">
+      <c r="J21" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="K21" s="53" t="s">
+      <c r="K21" s="62" t="s">
         <v>130</v>
       </c>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="53"/>
-      <c r="P21" s="53"/>
-      <c r="Q21" s="52"/>
-      <c r="R21" s="52"/>
-      <c r="S21" s="52"/>
-      <c r="T21" s="52"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="62"/>
+      <c r="N21" s="62"/>
+      <c r="O21" s="62"/>
+      <c r="P21" s="62"/>
+      <c r="Q21" s="54"/>
+      <c r="R21" s="54"/>
+      <c r="S21" s="54"/>
+      <c r="T21" s="54"/>
     </row>
     <row r="22" spans="2:20" ht="18" x14ac:dyDescent="0.2">
-      <c r="B22" s="62"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
       <c r="I22" s="22"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="53"/>
-      <c r="P22" s="53"/>
-      <c r="Q22" s="52"/>
-      <c r="R22" s="52"/>
-      <c r="S22" s="52"/>
-      <c r="T22" s="52"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="62"/>
+      <c r="Q22" s="54"/>
+      <c r="R22" s="54"/>
+      <c r="S22" s="54"/>
+      <c r="T22" s="54"/>
     </row>
     <row r="23" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="62"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
       <c r="I23" s="22"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="53"/>
-      <c r="O23" s="53"/>
-      <c r="P23" s="53"/>
-      <c r="Q23" s="52"/>
-      <c r="R23" s="52"/>
-      <c r="S23" s="52"/>
-      <c r="T23" s="52"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="62"/>
+      <c r="N23" s="62"/>
+      <c r="O23" s="62"/>
+      <c r="P23" s="62"/>
+      <c r="Q23" s="54"/>
+      <c r="R23" s="54"/>
+      <c r="S23" s="54"/>
+      <c r="T23" s="54"/>
     </row>
     <row r="24" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="58" t="s">
+      <c r="B24" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="C24" s="55" t="s">
+      <c r="C24" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
       <c r="I24" s="22"/>
-      <c r="J24" s="58" t="s">
+      <c r="J24" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="K24" s="53" t="s">
+      <c r="K24" s="62" t="s">
         <v>131</v>
       </c>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="53"/>
-      <c r="P24" s="53"/>
-      <c r="Q24" s="51" t="s">
+      <c r="L24" s="62"/>
+      <c r="M24" s="62"/>
+      <c r="N24" s="62"/>
+      <c r="O24" s="62"/>
+      <c r="P24" s="62"/>
+      <c r="Q24" s="66" t="s">
         <v>132</v>
       </c>
-      <c r="R24" s="51"/>
-      <c r="S24" s="51"/>
-      <c r="T24" s="51"/>
+      <c r="R24" s="66"/>
+      <c r="S24" s="66"/>
+      <c r="T24" s="66"/>
     </row>
     <row r="25" spans="2:20" ht="18" x14ac:dyDescent="0.2">
-      <c r="B25" s="58"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
       <c r="I25" s="22"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="53"/>
-      <c r="O25" s="53"/>
-      <c r="P25" s="53"/>
-      <c r="Q25" s="51"/>
-      <c r="R25" s="51"/>
-      <c r="S25" s="51"/>
-      <c r="T25" s="51"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="62"/>
+      <c r="M25" s="62"/>
+      <c r="N25" s="62"/>
+      <c r="O25" s="62"/>
+      <c r="P25" s="62"/>
+      <c r="Q25" s="66"/>
+      <c r="R25" s="66"/>
+      <c r="S25" s="66"/>
+      <c r="T25" s="66"/>
     </row>
     <row r="26" spans="2:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="58"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
       <c r="I26" s="22"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="53"/>
-      <c r="O26" s="53"/>
-      <c r="P26" s="53"/>
-      <c r="Q26" s="51"/>
-      <c r="R26" s="51"/>
-      <c r="S26" s="51"/>
-      <c r="T26" s="51"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="62"/>
+      <c r="M26" s="62"/>
+      <c r="N26" s="62"/>
+      <c r="O26" s="62"/>
+      <c r="P26" s="62"/>
+      <c r="Q26" s="66"/>
+      <c r="R26" s="66"/>
+      <c r="S26" s="66"/>
+      <c r="T26" s="66"/>
     </row>
     <row r="27" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="54" t="s">
+      <c r="B27" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="C27" s="57" t="s">
+      <c r="C27" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
       <c r="I27" s="23"/>
-      <c r="J27" s="58" t="s">
+      <c r="J27" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="K27" s="53" t="s">
+      <c r="K27" s="62" t="s">
         <v>134</v>
       </c>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="53"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="53"/>
-      <c r="Q27" s="60" t="s">
+      <c r="L27" s="62"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="62"/>
+      <c r="O27" s="62"/>
+      <c r="P27" s="62"/>
+      <c r="Q27" s="59" t="s">
         <v>133</v>
       </c>
-      <c r="R27" s="60"/>
-      <c r="S27" s="60"/>
-      <c r="T27" s="60"/>
+      <c r="R27" s="59"/>
+      <c r="S27" s="59"/>
+      <c r="T27" s="59"/>
     </row>
     <row r="28" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="54"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
       <c r="I28" s="23"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="53"/>
-      <c r="O28" s="53"/>
-      <c r="P28" s="53"/>
-      <c r="Q28" s="60"/>
-      <c r="R28" s="60"/>
-      <c r="S28" s="60"/>
-      <c r="T28" s="60"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="62"/>
+      <c r="L28" s="62"/>
+      <c r="M28" s="62"/>
+      <c r="N28" s="62"/>
+      <c r="O28" s="62"/>
+      <c r="P28" s="62"/>
+      <c r="Q28" s="59"/>
+      <c r="R28" s="59"/>
+      <c r="S28" s="59"/>
+      <c r="T28" s="59"/>
     </row>
     <row r="29" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="54" t="s">
+      <c r="B29" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="C29" s="55" t="s">
+      <c r="C29" s="64" t="s">
         <v>124</v>
       </c>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
       <c r="I29" s="22"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="53"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="53"/>
-      <c r="O29" s="53"/>
-      <c r="P29" s="53"/>
-      <c r="Q29" s="60"/>
-      <c r="R29" s="60"/>
-      <c r="S29" s="60"/>
-      <c r="T29" s="60"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="62"/>
+      <c r="L29" s="62"/>
+      <c r="M29" s="62"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="62"/>
+      <c r="Q29" s="59"/>
+      <c r="R29" s="59"/>
+      <c r="S29" s="59"/>
+      <c r="T29" s="59"/>
     </row>
     <row r="30" spans="2:20" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="54"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
       <c r="I30" s="22"/>
-      <c r="J30" s="58"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="53"/>
-      <c r="O30" s="53"/>
-      <c r="P30" s="53"/>
-      <c r="Q30" s="60"/>
-      <c r="R30" s="60"/>
-      <c r="S30" s="60"/>
-      <c r="T30" s="60"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="62"/>
+      <c r="L30" s="62"/>
+      <c r="M30" s="62"/>
+      <c r="N30" s="62"/>
+      <c r="O30" s="62"/>
+      <c r="P30" s="62"/>
+      <c r="Q30" s="59"/>
+      <c r="R30" s="59"/>
+      <c r="S30" s="59"/>
+      <c r="T30" s="59"/>
     </row>
     <row r="31" spans="2:20" ht="18" x14ac:dyDescent="0.2">
       <c r="B31" s="14"/>
@@ -6126,17 +6468,17 @@
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
-      <c r="J31" s="58"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="53"/>
-      <c r="O31" s="53"/>
-      <c r="P31" s="53"/>
-      <c r="Q31" s="60"/>
-      <c r="R31" s="60"/>
-      <c r="S31" s="60"/>
-      <c r="T31" s="60"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="62"/>
+      <c r="M31" s="62"/>
+      <c r="N31" s="62"/>
+      <c r="O31" s="62"/>
+      <c r="P31" s="62"/>
+      <c r="Q31" s="59"/>
+      <c r="R31" s="59"/>
+      <c r="S31" s="59"/>
+      <c r="T31" s="59"/>
     </row>
     <row r="32" spans="2:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="14"/>
@@ -6147,21 +6489,21 @@
       <c r="G32" s="14"/>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
-      <c r="J32" s="58" t="s">
+      <c r="J32" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="K32" s="57" t="s">
+      <c r="K32" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="L32" s="57"/>
-      <c r="M32" s="57"/>
-      <c r="N32" s="57"/>
-      <c r="O32" s="57"/>
-      <c r="P32" s="57"/>
-      <c r="Q32" s="52"/>
-      <c r="R32" s="52"/>
-      <c r="S32" s="52"/>
-      <c r="T32" s="52"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="56"/>
+      <c r="O32" s="56"/>
+      <c r="P32" s="56"/>
+      <c r="Q32" s="54"/>
+      <c r="R32" s="54"/>
+      <c r="S32" s="54"/>
+      <c r="T32" s="54"/>
     </row>
     <row r="33" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="24" t="s">
@@ -6174,112 +6516,112 @@
       <c r="G33" s="26"/>
       <c r="H33" s="26"/>
       <c r="I33" s="26"/>
-      <c r="J33" s="58"/>
-      <c r="K33" s="57"/>
-      <c r="L33" s="57"/>
-      <c r="M33" s="57"/>
-      <c r="N33" s="57"/>
-      <c r="O33" s="57"/>
-      <c r="P33" s="57"/>
-      <c r="Q33" s="52"/>
-      <c r="R33" s="52"/>
-      <c r="S33" s="52"/>
-      <c r="T33" s="52"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="56"/>
+      <c r="M33" s="56"/>
+      <c r="N33" s="56"/>
+      <c r="O33" s="56"/>
+      <c r="P33" s="56"/>
+      <c r="Q33" s="54"/>
+      <c r="R33" s="54"/>
+      <c r="S33" s="54"/>
+      <c r="T33" s="54"/>
     </row>
     <row r="34" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="59" t="s">
+      <c r="B34" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="58"/>
       <c r="I34" s="26"/>
-      <c r="J34" s="58"/>
-      <c r="K34" s="57"/>
-      <c r="L34" s="57"/>
-      <c r="M34" s="57"/>
-      <c r="N34" s="57"/>
-      <c r="O34" s="57"/>
-      <c r="P34" s="57"/>
-      <c r="Q34" s="52"/>
-      <c r="R34" s="52"/>
-      <c r="S34" s="52"/>
-      <c r="T34" s="52"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="56"/>
+      <c r="L34" s="56"/>
+      <c r="M34" s="56"/>
+      <c r="N34" s="56"/>
+      <c r="O34" s="56"/>
+      <c r="P34" s="56"/>
+      <c r="Q34" s="54"/>
+      <c r="R34" s="54"/>
+      <c r="S34" s="54"/>
+      <c r="T34" s="54"/>
     </row>
     <row r="35" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="59"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="59"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="58"/>
       <c r="I35" s="26"/>
-      <c r="J35" s="58"/>
-      <c r="K35" s="57"/>
-      <c r="L35" s="57"/>
-      <c r="M35" s="57"/>
-      <c r="N35" s="57"/>
-      <c r="O35" s="57"/>
-      <c r="P35" s="57"/>
-      <c r="Q35" s="52"/>
-      <c r="R35" s="52"/>
-      <c r="S35" s="52"/>
-      <c r="T35" s="52"/>
+      <c r="J35" s="57"/>
+      <c r="K35" s="56"/>
+      <c r="L35" s="56"/>
+      <c r="M35" s="56"/>
+      <c r="N35" s="56"/>
+      <c r="O35" s="56"/>
+      <c r="P35" s="56"/>
+      <c r="Q35" s="54"/>
+      <c r="R35" s="54"/>
+      <c r="S35" s="54"/>
+      <c r="T35" s="54"/>
     </row>
     <row r="36" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="59"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="59"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="59"/>
-      <c r="H36" s="59"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
       <c r="I36" s="26"/>
-      <c r="J36" s="58"/>
-      <c r="K36" s="57"/>
-      <c r="L36" s="57"/>
-      <c r="M36" s="57"/>
-      <c r="N36" s="57"/>
-      <c r="O36" s="57"/>
-      <c r="P36" s="57"/>
-      <c r="Q36" s="52"/>
-      <c r="R36" s="52"/>
-      <c r="S36" s="52"/>
-      <c r="T36" s="52"/>
+      <c r="J36" s="57"/>
+      <c r="K36" s="56"/>
+      <c r="L36" s="56"/>
+      <c r="M36" s="56"/>
+      <c r="N36" s="56"/>
+      <c r="O36" s="56"/>
+      <c r="P36" s="56"/>
+      <c r="Q36" s="54"/>
+      <c r="R36" s="54"/>
+      <c r="S36" s="54"/>
+      <c r="T36" s="54"/>
     </row>
     <row r="37" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="59"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="59"/>
-      <c r="H37" s="59"/>
+      <c r="B37" s="58"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="58"/>
       <c r="I37" s="26"/>
-      <c r="J37" s="58"/>
-      <c r="K37" s="57"/>
-      <c r="L37" s="57"/>
-      <c r="M37" s="57"/>
-      <c r="N37" s="57"/>
-      <c r="O37" s="57"/>
-      <c r="P37" s="57"/>
-      <c r="Q37" s="52"/>
-      <c r="R37" s="52"/>
-      <c r="S37" s="52"/>
-      <c r="T37" s="52"/>
+      <c r="J37" s="57"/>
+      <c r="K37" s="56"/>
+      <c r="L37" s="56"/>
+      <c r="M37" s="56"/>
+      <c r="N37" s="56"/>
+      <c r="O37" s="56"/>
+      <c r="P37" s="56"/>
+      <c r="Q37" s="54"/>
+      <c r="R37" s="54"/>
+      <c r="S37" s="54"/>
+      <c r="T37" s="54"/>
     </row>
     <row r="38" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="59"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="59"/>
-      <c r="G38" s="59"/>
-      <c r="H38" s="59"/>
+      <c r="B38" s="58"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="58"/>
       <c r="I38" s="26"/>
       <c r="K38" s="24"/>
       <c r="L38" s="24"/>
@@ -6290,13 +6632,13 @@
       <c r="Q38" s="24"/>
     </row>
     <row r="39" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="59"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="59"/>
-      <c r="G39" s="59"/>
-      <c r="H39" s="59"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="58"/>
       <c r="I39" s="26"/>
       <c r="J39" s="20"/>
       <c r="K39" s="20"/>
@@ -6308,13 +6650,13 @@
       <c r="Q39" s="24"/>
     </row>
     <row r="40" spans="2:20" ht="21" x14ac:dyDescent="0.2">
-      <c r="B40" s="59"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="59"/>
-      <c r="F40" s="59"/>
-      <c r="G40" s="59"/>
-      <c r="H40" s="59"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="58"/>
+      <c r="F40" s="58"/>
+      <c r="G40" s="58"/>
+      <c r="H40" s="58"/>
       <c r="I40" s="26"/>
       <c r="J40" s="20"/>
       <c r="K40" s="20"/>
@@ -6322,13 +6664,13 @@
       <c r="M40" s="20"/>
     </row>
     <row r="41" spans="2:20" ht="21" x14ac:dyDescent="0.2">
-      <c r="B41" s="59"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="59"/>
-      <c r="E41" s="59"/>
-      <c r="F41" s="59"/>
-      <c r="G41" s="59"/>
-      <c r="H41" s="59"/>
+      <c r="B41" s="58"/>
+      <c r="C41" s="58"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="58"/>
       <c r="I41" s="26"/>
       <c r="J41" s="20"/>
       <c r="K41" s="20"/>
@@ -6336,13 +6678,13 @@
       <c r="M41" s="20"/>
     </row>
     <row r="42" spans="2:20" ht="21" x14ac:dyDescent="0.2">
-      <c r="B42" s="59"/>
-      <c r="C42" s="59"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="59"/>
-      <c r="F42" s="59"/>
-      <c r="G42" s="59"/>
-      <c r="H42" s="59"/>
+      <c r="B42" s="58"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="58"/>
+      <c r="H42" s="58"/>
       <c r="I42" s="26"/>
       <c r="J42" s="20"/>
       <c r="K42" s="20"/>
@@ -6350,13 +6692,13 @@
       <c r="M42" s="20"/>
     </row>
     <row r="43" spans="2:20" ht="21" x14ac:dyDescent="0.2">
-      <c r="B43" s="59"/>
-      <c r="C43" s="59"/>
-      <c r="D43" s="59"/>
-      <c r="E43" s="59"/>
-      <c r="F43" s="59"/>
-      <c r="G43" s="59"/>
-      <c r="H43" s="59"/>
+      <c r="B43" s="58"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="58"/>
+      <c r="H43" s="58"/>
       <c r="I43" s="26"/>
       <c r="J43" s="20"/>
       <c r="K43" s="20"/>
@@ -6364,13 +6706,13 @@
       <c r="M43" s="20"/>
     </row>
     <row r="44" spans="2:20" ht="21" x14ac:dyDescent="0.2">
-      <c r="B44" s="59"/>
-      <c r="C44" s="59"/>
-      <c r="D44" s="59"/>
-      <c r="E44" s="59"/>
-      <c r="F44" s="59"/>
-      <c r="G44" s="59"/>
-      <c r="H44" s="59"/>
+      <c r="B44" s="58"/>
+      <c r="C44" s="58"/>
+      <c r="D44" s="58"/>
+      <c r="E44" s="58"/>
+      <c r="F44" s="58"/>
+      <c r="G44" s="58"/>
+      <c r="H44" s="58"/>
       <c r="I44" s="26"/>
       <c r="J44" s="20"/>
       <c r="K44" s="20"/>
@@ -6443,15 +6785,15 @@
       <c r="A49" t="s">
         <v>146</v>
       </c>
-      <c r="B49" s="36" t="s">
+      <c r="B49" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36" t="s">
+      <c r="C49" s="40"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="F49" s="36"/>
+      <c r="F49" s="40"/>
       <c r="G49" s="28"/>
       <c r="H49" s="24"/>
       <c r="I49" s="20"/>
@@ -6461,15 +6803,15 @@
       <c r="M49" s="20"/>
     </row>
     <row r="50" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="B50" s="36" t="s">
+      <c r="B50" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="C50" s="36"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="36" t="s">
+      <c r="C50" s="40"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="F50" s="36"/>
+      <c r="F50" s="40"/>
       <c r="G50" s="28" t="s">
         <v>140</v>
       </c>
@@ -6498,6 +6840,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B6:D7"/>
+    <mergeCell ref="B1:H2"/>
+    <mergeCell ref="Q24:T26"/>
+    <mergeCell ref="Q21:T23"/>
+    <mergeCell ref="K21:P23"/>
+    <mergeCell ref="K24:P26"/>
+    <mergeCell ref="K27:P31"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C21:H23"/>
+    <mergeCell ref="C24:H26"/>
+    <mergeCell ref="C29:H30"/>
     <mergeCell ref="Q32:T37"/>
     <mergeCell ref="J20:T20"/>
     <mergeCell ref="E49:F49"/>
@@ -6514,20 +6868,8 @@
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="C27:H28"/>
-    <mergeCell ref="K27:P31"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C21:H23"/>
-    <mergeCell ref="C24:H26"/>
-    <mergeCell ref="C29:H30"/>
-    <mergeCell ref="B6:D7"/>
-    <mergeCell ref="B1:H2"/>
-    <mergeCell ref="Q24:T26"/>
-    <mergeCell ref="Q21:T23"/>
-    <mergeCell ref="K21:P23"/>
-    <mergeCell ref="K24:P26"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6556,85 +6898,85 @@
     </row>
     <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14"/>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="60" t="s">
         <v>104</v>
       </c>
       <c r="C3" s="47" t="s">
         <v>105</v>
       </c>
       <c r="D3" s="47"/>
-      <c r="E3" s="55" t="s">
+      <c r="E3" s="64" t="s">
         <v>108</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
       <c r="I3" s="32"/>
       <c r="J3" s="32"/>
     </row>
     <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="14"/>
-      <c r="B4" s="61"/>
+      <c r="B4" s="60"/>
       <c r="C4" s="47"/>
       <c r="D4" s="47"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
       <c r="I4" s="32"/>
       <c r="J4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
-      <c r="B5" s="61"/>
+      <c r="B5" s="60"/>
       <c r="C5" s="47"/>
       <c r="D5" s="47"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
       <c r="I5" s="32"/>
       <c r="J5" s="14"/>
     </row>
     <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="D6" s="63"/>
-      <c r="E6" s="55" t="s">
+      <c r="D6" s="67"/>
+      <c r="E6" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
       <c r="I6" s="32"/>
       <c r="J6" s="14"/>
     </row>
     <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
     </row>
     <row r="8" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
     </row>
@@ -6811,7 +7153,7 @@
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="B3:B5"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6820,162 +7162,162 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:R96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="3" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="68" t="s">
         <v>154</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
       <c r="P3" s="34"/>
       <c r="Q3" s="34"/>
       <c r="R3" s="34"/>
     </row>
     <row r="4" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="64"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
       <c r="P4" s="34"/>
       <c r="Q4" s="34"/>
       <c r="R4" s="34"/>
     </row>
     <row r="5" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="64"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
       <c r="P5" s="34"/>
       <c r="Q5" s="34"/>
       <c r="R5" s="34"/>
     </row>
     <row r="6" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
       <c r="P6" s="34"/>
       <c r="Q6" s="34"/>
       <c r="R6" s="34"/>
     </row>
     <row r="7" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="64"/>
-      <c r="M7" s="64"/>
-      <c r="N7" s="64"/>
-      <c r="O7" s="64"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="68"/>
       <c r="P7" s="34"/>
       <c r="Q7" s="34"/>
       <c r="R7" s="34"/>
     </row>
     <row r="8" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="64"/>
-      <c r="N8" s="64"/>
-      <c r="O8" s="64"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="68"/>
       <c r="P8" s="34"/>
       <c r="Q8" s="34"/>
       <c r="R8" s="34"/>
     </row>
     <row r="9" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="64"/>
-      <c r="N9" s="64"/>
-      <c r="O9" s="64"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="68"/>
       <c r="P9" s="34"/>
       <c r="Q9" s="34"/>
       <c r="R9" s="34"/>
     </row>
     <row r="10" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="64"/>
-      <c r="O10" s="64"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="68"/>
+      <c r="N10" s="68"/>
+      <c r="O10" s="68"/>
       <c r="P10" s="34"/>
       <c r="Q10" s="34"/>
       <c r="R10" s="34"/>
@@ -7015,9 +7357,11 @@
       <c r="N12" s="34"/>
     </row>
     <row r="13" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
+      <c r="B13" s="72" t="s">
+        <v>215</v>
+      </c>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
       <c r="E13" s="34"/>
       <c r="F13" s="34"/>
       <c r="G13" s="34"/>
@@ -7030,261 +7374,373 @@
       <c r="N13" s="34"/>
     </row>
     <row r="14" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
+      <c r="B14" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="C14" s="68" t="s">
+        <v>197</v>
+      </c>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="69"/>
+      <c r="M14" s="69"/>
+      <c r="N14" s="69"/>
+      <c r="O14" s="69"/>
+      <c r="P14" s="71" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q14" s="71"/>
     </row>
     <row r="15" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="69"/>
+      <c r="N15" s="69"/>
+      <c r="O15" s="69"/>
+      <c r="P15" s="71"/>
+      <c r="Q15" s="71"/>
     </row>
     <row r="16" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-    </row>
-    <row r="17" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-    </row>
-    <row r="18" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="69"/>
+      <c r="N16" s="69"/>
+      <c r="O16" s="69"/>
+      <c r="P16" s="71"/>
+      <c r="Q16" s="71"/>
+    </row>
+    <row r="17" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="C17" s="68" t="s">
+        <v>199</v>
+      </c>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="69" t="s">
+        <v>200</v>
+      </c>
+      <c r="L17" s="69"/>
+      <c r="M17" s="69"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="69"/>
+      <c r="P17" s="70"/>
+      <c r="Q17" s="70"/>
+    </row>
+    <row r="18" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-    </row>
-    <row r="19" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="69"/>
+      <c r="O18" s="69"/>
+      <c r="P18" s="70"/>
+      <c r="Q18" s="70"/>
+    </row>
+    <row r="19" spans="2:17" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-    </row>
-    <row r="20" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-    </row>
-    <row r="21" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="69"/>
+      <c r="N19" s="69"/>
+      <c r="O19" s="69"/>
+      <c r="P19" s="70"/>
+      <c r="Q19" s="70"/>
+    </row>
+    <row r="20" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="C20" s="69" t="s">
+        <v>204</v>
+      </c>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69" t="s">
+        <v>205</v>
+      </c>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="69"/>
+      <c r="M20" s="69"/>
+      <c r="N20" s="69"/>
+      <c r="O20" s="69"/>
+      <c r="P20" s="71" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q20" s="71"/>
+    </row>
+    <row r="21" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-    </row>
-    <row r="22" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="69" t="s">
+        <v>206</v>
+      </c>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69" t="s">
+        <v>208</v>
+      </c>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="69" t="s">
+        <v>210</v>
+      </c>
+      <c r="L21" s="69"/>
+      <c r="M21" s="69"/>
+      <c r="N21" s="69"/>
+      <c r="O21" s="69"/>
+      <c r="P21" s="71"/>
+      <c r="Q21" s="71"/>
+    </row>
+    <row r="22" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
-    </row>
-    <row r="23" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="34"/>
-    </row>
-    <row r="24" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C22" s="69" t="s">
+        <v>207</v>
+      </c>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69" t="s">
+        <v>209</v>
+      </c>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="69"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="69" t="s">
+        <v>211</v>
+      </c>
+      <c r="L22" s="69"/>
+      <c r="M22" s="69"/>
+      <c r="N22" s="69"/>
+      <c r="O22" s="69"/>
+      <c r="P22" s="71"/>
+      <c r="Q22" s="71"/>
+    </row>
+    <row r="23" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="C23" s="58" t="s">
+        <v>214</v>
+      </c>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="69"/>
+      <c r="N23" s="69"/>
+      <c r="O23" s="69"/>
+      <c r="P23" s="70"/>
+      <c r="Q23" s="70"/>
+    </row>
+    <row r="24" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
-    </row>
-    <row r="25" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="69"/>
+      <c r="N24" s="69"/>
+      <c r="O24" s="69"/>
+      <c r="P24" s="70"/>
+      <c r="Q24" s="70"/>
+    </row>
+    <row r="25" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-    </row>
-    <row r="26" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="69"/>
+      <c r="N25" s="69"/>
+      <c r="O25" s="69"/>
+      <c r="P25" s="70"/>
+      <c r="Q25" s="70"/>
+    </row>
+    <row r="26" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
-    </row>
-    <row r="27" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="69"/>
+      <c r="L26" s="69"/>
+      <c r="M26" s="69"/>
+      <c r="N26" s="69"/>
+      <c r="O26" s="69"/>
+      <c r="P26" s="70"/>
+      <c r="Q26" s="70"/>
+    </row>
+    <row r="27" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
-    </row>
-    <row r="28" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="69"/>
+      <c r="L27" s="69"/>
+      <c r="M27" s="69"/>
+      <c r="N27" s="69"/>
+      <c r="O27" s="69"/>
+      <c r="P27" s="70"/>
+      <c r="Q27" s="70"/>
+    </row>
+    <row r="28" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="34"/>
-    </row>
-    <row r="29" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="69"/>
+      <c r="L28" s="69"/>
+      <c r="M28" s="69"/>
+      <c r="N28" s="69"/>
+      <c r="O28" s="69"/>
+      <c r="P28" s="70"/>
+      <c r="Q28" s="70"/>
+    </row>
+    <row r="29" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="34"/>
-    </row>
-    <row r="30" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="69"/>
+      <c r="L29" s="69"/>
+      <c r="M29" s="69"/>
+      <c r="N29" s="69"/>
+      <c r="O29" s="69"/>
+      <c r="P29" s="70"/>
+      <c r="Q29" s="70"/>
+    </row>
+    <row r="30" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="34"/>
-      <c r="M30" s="34"/>
-    </row>
-    <row r="31" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
-    </row>
-    <row r="32" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="34"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="58"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="69"/>
+      <c r="L30" s="69"/>
+      <c r="M30" s="69"/>
+      <c r="N30" s="69"/>
+      <c r="O30" s="69"/>
+      <c r="P30" s="70"/>
+      <c r="Q30" s="70"/>
+    </row>
+    <row r="31" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="C31" s="68" t="s">
+        <v>222</v>
+      </c>
+      <c r="D31" s="68"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="68"/>
+      <c r="H31" s="68"/>
+      <c r="I31" s="68"/>
+      <c r="J31" s="68"/>
+      <c r="K31" s="69"/>
+      <c r="L31" s="69"/>
+      <c r="M31" s="69"/>
+      <c r="N31" s="69"/>
+      <c r="O31" s="69"/>
+      <c r="P31" s="70"/>
+      <c r="Q31" s="70"/>
+    </row>
+    <row r="32" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="34" t="s">
+        <v>212</v>
+      </c>
       <c r="C32" s="34"/>
       <c r="D32" s="34"/>
       <c r="E32" s="34"/>
@@ -8155,10 +8611,33 @@
       <c r="L96" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="24">
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="K31:O31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="C23:J30"/>
+    <mergeCell ref="K23:O30"/>
+    <mergeCell ref="P23:Q30"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="K20:O20"/>
+    <mergeCell ref="K21:O21"/>
+    <mergeCell ref="K22:O22"/>
+    <mergeCell ref="P14:Q16"/>
+    <mergeCell ref="P17:Q19"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="P20:Q22"/>
     <mergeCell ref="B3:O10"/>
+    <mergeCell ref="C14:J16"/>
+    <mergeCell ref="C17:J19"/>
+    <mergeCell ref="K17:O19"/>
+    <mergeCell ref="K14:O16"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/日语.xlsx
+++ b/日语.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cshen/Documents/GitHub/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Self\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="24880" windowHeight="15560" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="24885" windowHeight="15555" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="动词形态" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="229">
   <si>
     <t>三类动词</t>
     <rPh sb="0" eb="1">
@@ -3915,19 +3915,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>顾名思义，连接用言</t>
-    <rPh sb="0" eb="1">
-      <t>gu ming si yi</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>lian jie</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>yong yan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>动词连用形</t>
     <rPh sb="0" eb="1">
       <t>dong ci</t>
@@ -3938,23 +3925,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>即ます形动词去掉“ます”的形式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>形容词连用形</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>形容动词连用形</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>即将形容词词尾“い”变为“く”的形式。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>即在形容动词词干后加“に”的形式。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4161,12 +4136,209 @@
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ます形动词去掉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ます</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的形式</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>词尾的「い」变成「く」再后续「て」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>词尾的「い」变成「く」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>形容动词词干后加「で」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>形容动词词干后加「に」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>静かで広い部屋　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>　安静又宽敞的房间</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接体言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名词做连体修饰语时后面直接接「の」，Ⅰ类形容词的简体形式可以直接做连体修饰语，Ⅱ类形容词做连体修饰语时，是词干后面接「な」。动词的简体形式都可以作为连体修饰语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接用言</t>
+    <rPh sb="0" eb="1">
+      <t>gu ming si yi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>lian jie</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yong yan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这个表格只是说明</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>个形态是什么意思，各形态（连体，连用形）不仅仅有表格中这几种变化形式</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4309,8 +4481,39 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4344,6 +4547,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4438,7 +4647,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4534,23 +4743,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4558,16 +4761,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4579,8 +4773,38 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4604,47 +4828,47 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4915,22 +5139,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="3"/>
-    <col min="2" max="2" width="46.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="32.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" style="3"/>
+    <col min="2" max="2" width="46.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.77734375" style="1" customWidth="1"/>
     <col min="5" max="5" width="48.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="41" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
+    <col min="7" max="16384" width="10.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="20.25">
       <c r="A1" s="2"/>
       <c r="B1" s="6" t="s">
         <v>86</v>
@@ -4948,7 +5172,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="121" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="120.95" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -4966,7 +5190,7 @@
       </c>
       <c r="F2" s="19"/>
     </row>
-    <row r="3" spans="1:6" ht="59" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="59.1" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
@@ -4982,7 +5206,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="19"/>
     </row>
-    <row r="4" spans="1:6" ht="89" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="89.1" customHeight="1">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
@@ -5002,7 +5226,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="63.95" customHeight="1">
       <c r="A5" s="7" t="s">
         <v>7</v>
       </c>
@@ -5022,7 +5246,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="69.95" customHeight="1">
       <c r="A6" s="7" t="s">
         <v>27</v>
       </c>
@@ -5042,7 +5266,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="88" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="87.95" customHeight="1">
       <c r="A7" s="7" t="s">
         <v>177</v>
       </c>
@@ -5060,7 +5284,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="83" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="83.1" customHeight="1">
       <c r="A8" s="7" t="s">
         <v>183</v>
       </c>
@@ -5080,7 +5304,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="83" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="83.1" customHeight="1">
       <c r="A9" s="7" t="s">
         <v>191</v>
       </c>
@@ -5098,7 +5322,7 @@
       </c>
       <c r="F9" s="38"/>
     </row>
-    <row r="10" spans="1:6" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="68.099999999999994" customHeight="1">
       <c r="A10" s="7" t="s">
         <v>155</v>
       </c>
@@ -5116,7 +5340,7 @@
       </c>
       <c r="F10" s="19"/>
     </row>
-    <row r="11" spans="1:6" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="68.099999999999994" customHeight="1">
       <c r="A11" s="7" t="s">
         <v>160</v>
       </c>
@@ -5134,7 +5358,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="68.099999999999994" customHeight="1">
       <c r="A12" s="7" t="s">
         <v>173</v>
       </c>
@@ -5154,21 +5378,21 @@
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="68.099999999999994" customHeight="1">
       <c r="A13" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>220</v>
       </c>
       <c r="F13" s="19"/>
     </row>
@@ -5186,13 +5410,13 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="30.1640625" customWidth="1"/>
+    <col min="3" max="3" width="30.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="20.25">
       <c r="A3" s="8"/>
       <c r="B3" s="9" t="s">
         <v>15</v>
@@ -5201,7 +5425,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="20.25">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -5212,7 +5436,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="20.25">
       <c r="A5" s="8">
         <v>2</v>
       </c>
@@ -5223,7 +5447,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="20.25">
       <c r="A6" s="8">
         <v>3</v>
       </c>
@@ -5232,17 +5456,17 @@
       </c>
       <c r="C6" s="11"/>
     </row>
-    <row r="9" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="20.25">
       <c r="B9" s="17" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="20.25">
       <c r="B10" s="17" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="B13" t="s">
         <v>150</v>
       </c>
@@ -5250,7 +5474,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="B14" t="s">
         <v>149</v>
       </c>
@@ -5272,14 +5496,14 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="18" style="13" customWidth="1"/>
     <col min="3" max="3" width="46.6640625" customWidth="1"/>
     <col min="4" max="4" width="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" ht="20.25">
       <c r="B3" s="12" t="s">
         <v>28</v>
       </c>
@@ -5290,7 +5514,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" ht="20.25">
       <c r="B4" s="12" t="s">
         <v>33</v>
       </c>
@@ -5301,7 +5525,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="20.25">
       <c r="B5" s="12" t="s">
         <v>31</v>
       </c>
@@ -5312,7 +5536,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" ht="20.25">
       <c r="B6" s="12" t="s">
         <v>32</v>
       </c>
@@ -5323,7 +5547,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" ht="20.25">
       <c r="B7" s="12" t="s">
         <v>34</v>
       </c>
@@ -5344,19 +5568,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M51"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A54" workbookViewId="0">
       <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="3" spans="1:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="B3" s="48" t="s">
+    <row r="3" spans="1:10" ht="27.75">
+      <c r="B3" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="48"/>
-    </row>
-    <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="C3" s="42"/>
+    </row>
+    <row r="4" spans="1:10" ht="18">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
@@ -5368,75 +5592,75 @@
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
     </row>
-    <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="18">
       <c r="A5" s="14"/>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
     </row>
-    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="18">
       <c r="A6" s="14"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="46" t="s">
+      <c r="B6" s="41"/>
+      <c r="C6" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46" t="s">
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
     </row>
-    <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="18">
       <c r="A7" s="14"/>
       <c r="B7" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40" t="s">
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
     </row>
-    <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="18">
       <c r="A8" s="14"/>
       <c r="B8" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40" t="s">
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
     </row>
-    <row r="9" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="18">
       <c r="A9" s="14"/>
       <c r="B9" s="16"/>
       <c r="C9" s="14"/>
@@ -5448,7 +5672,7 @@
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
     </row>
-    <row r="10" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="18">
       <c r="A10" s="14"/>
       <c r="B10" s="16"/>
       <c r="C10" s="14"/>
@@ -5460,87 +5684,87 @@
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
     </row>
-    <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="18">
       <c r="A11" s="14"/>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-    </row>
-    <row r="12" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+    </row>
+    <row r="12" spans="1:10" ht="18">
       <c r="A12" s="14"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="46" t="s">
+      <c r="B12" s="45"/>
+      <c r="C12" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="51" t="s">
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="53"/>
-    </row>
-    <row r="13" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="48"/>
+    </row>
+    <row r="13" spans="1:10" ht="18">
       <c r="A13" s="14"/>
       <c r="B13" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40" t="s">
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-    </row>
-    <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+    </row>
+    <row r="14" spans="1:10" ht="18">
       <c r="A14" s="14"/>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="47" t="s">
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-    </row>
-    <row r="15" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+    </row>
+    <row r="15" spans="1:10" ht="18">
       <c r="A15" s="14"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-    </row>
-    <row r="16" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B15" s="49"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+    </row>
+    <row r="16" spans="1:10" ht="18">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
@@ -5552,16 +5776,16 @@
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
     </row>
-    <row r="17" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="18">
       <c r="A17" s="14"/>
       <c r="B17" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="51" t="s">
         <v>169</v>
       </c>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14" t="s">
         <v>170</v>
@@ -5570,7 +5794,7 @@
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
     </row>
-    <row r="18" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="18">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -5582,23 +5806,23 @@
       <c r="I18" s="14"/>
       <c r="J18" s="14"/>
     </row>
-    <row r="19" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="18">
       <c r="A19" s="14"/>
       <c r="B19" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
       <c r="J19" s="14"/>
     </row>
-    <row r="20" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="18">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
@@ -5610,22 +5834,22 @@
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
     </row>
-    <row r="21" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="18">
       <c r="B21" s="14" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="18">
       <c r="B22" s="14" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="18">
       <c r="B23" s="14" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="18">
       <c r="B24" s="14"/>
       <c r="C24" s="14" t="s">
         <v>78</v>
@@ -5635,7 +5859,7 @@
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="18">
       <c r="B25" s="14"/>
       <c r="C25" s="14" t="s">
         <v>79</v>
@@ -5645,18 +5869,18 @@
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="18.75">
       <c r="B26" s="35" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="B29" s="48" t="s">
+    <row r="29" spans="1:10" ht="27.75">
+      <c r="B29" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="48"/>
-    </row>
-    <row r="30" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="C29" s="42"/>
+    </row>
+    <row r="30" spans="1:10" ht="18.75">
       <c r="B30" s="14" t="s">
         <v>89</v>
       </c>
@@ -5664,76 +5888,76 @@
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10">
       <c r="B31" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="49" t="s">
+    <row r="32" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="B32" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="45" t="s">
+      <c r="C32" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
       <c r="I32" s="14"/>
       <c r="J32" s="14"/>
     </row>
-    <row r="33" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="50"/>
-      <c r="C33" s="46" t="s">
+    <row r="33" spans="2:13" ht="21" customHeight="1">
+      <c r="B33" s="41"/>
+      <c r="C33" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46" t="s">
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
       <c r="I33" s="14"/>
       <c r="J33" s="14"/>
     </row>
-    <row r="34" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" ht="20.100000000000001" customHeight="1">
       <c r="B34" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="40" t="s">
+      <c r="C34" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40" t="s">
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
       <c r="I34" s="14"/>
       <c r="J34" s="14"/>
     </row>
-    <row r="35" spans="2:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:13" ht="18.95" customHeight="1">
       <c r="B35" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="40" t="s">
+      <c r="C35" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="40" t="s">
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
       <c r="I35" s="14"/>
       <c r="J35" s="14"/>
     </row>
-    <row r="36" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:13" ht="18">
       <c r="B36" s="16"/>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
@@ -5744,7 +5968,7 @@
       <c r="I36" s="14"/>
       <c r="J36" s="14"/>
     </row>
-    <row r="37" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" ht="18">
       <c r="B37" s="16"/>
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
@@ -5755,95 +5979,95 @@
       <c r="I37" s="14"/>
       <c r="J37" s="14"/>
     </row>
-    <row r="38" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="44" t="s">
+    <row r="38" spans="2:13" ht="21" customHeight="1">
+      <c r="B38" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="45" t="s">
+      <c r="C38" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="D38" s="45"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="45"/>
-      <c r="G38" s="45"/>
-      <c r="H38" s="45"/>
-      <c r="I38" s="45"/>
-      <c r="J38" s="45"/>
-    </row>
-    <row r="39" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="44"/>
-      <c r="C39" s="46" t="s">
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="43"/>
+    </row>
+    <row r="39" spans="2:13" ht="20.100000000000001" customHeight="1">
+      <c r="B39" s="45"/>
+      <c r="C39" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="51" t="s">
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="H39" s="52"/>
-      <c r="I39" s="52"/>
-      <c r="J39" s="53"/>
-    </row>
-    <row r="40" spans="2:13" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H39" s="47"/>
+      <c r="I39" s="47"/>
+      <c r="J39" s="48"/>
+    </row>
+    <row r="40" spans="2:13" ht="23.1" customHeight="1">
       <c r="B40" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C40" s="41" t="s">
+      <c r="C40" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="D40" s="41"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41" t="s">
+      <c r="D40" s="52"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="H40" s="41"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="41"/>
-    </row>
-    <row r="41" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="42" t="s">
+      <c r="H40" s="52"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="52"/>
+    </row>
+    <row r="41" spans="2:13" ht="21" customHeight="1">
+      <c r="B41" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="43" t="s">
+      <c r="C41" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="43" t="s">
+      <c r="D41" s="52"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="H41" s="41"/>
-      <c r="I41" s="41"/>
-      <c r="J41" s="41"/>
-    </row>
-    <row r="42" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="42"/>
-      <c r="C42" s="41"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="41"/>
-      <c r="F42" s="41"/>
-      <c r="G42" s="41"/>
-      <c r="H42" s="41"/>
-      <c r="I42" s="41"/>
-      <c r="J42" s="41"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="52"/>
+      <c r="J41" s="52"/>
+    </row>
+    <row r="42" spans="2:13" ht="21" customHeight="1">
+      <c r="B42" s="49"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="52"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="52"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="52"/>
+      <c r="J42" s="52"/>
       <c r="K42" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" ht="18">
       <c r="B44" s="14" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" ht="18">
       <c r="B45" s="14" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" ht="18">
       <c r="B46" s="29" t="s">
         <v>80</v>
       </c>
@@ -5859,50 +6083,48 @@
       <c r="L46" s="30"/>
       <c r="M46" s="30"/>
     </row>
-    <row r="47" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" ht="18">
       <c r="B47" s="14"/>
       <c r="C47" s="14" t="s">
         <v>81</v>
       </c>
       <c r="D47" s="14"/>
     </row>
-    <row r="48" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" ht="18">
       <c r="B48" s="14"/>
       <c r="C48" s="14" t="s">
         <v>82</v>
       </c>
       <c r="D48" s="14"/>
     </row>
-    <row r="49" spans="2:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:3" ht="18">
       <c r="B49" s="14" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="2:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:3" ht="18">
       <c r="C50" s="14" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="51" spans="2:3" ht="18" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:3" ht="18">
       <c r="C51" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:F42"/>
+    <mergeCell ref="G41:J42"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:F15"/>
     <mergeCell ref="G14:J15"/>
@@ -5913,19 +6135,21 @@
     <mergeCell ref="F33:H33"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="C19:I19"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:F42"/>
-    <mergeCell ref="G41:J42"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:H7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5936,61 +6160,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T54"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="65" t="s">
+    <row r="1" spans="2:14" ht="15.95" customHeight="1">
+      <c r="B1" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
       <c r="I1" s="21"/>
     </row>
-    <row r="2" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
+    <row r="2" spans="2:14" ht="15.95" customHeight="1">
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
       <c r="I2" s="21"/>
     </row>
-    <row r="3" spans="2:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:14" ht="18">
       <c r="B3" s="14" t="s">
         <v>91</v>
       </c>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
     </row>
-    <row r="4" spans="2:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:14" ht="18">
       <c r="B4" s="14" t="s">
         <v>92</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B6" s="65" t="s">
+    <row r="6" spans="2:14">
+      <c r="B6" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-    </row>
-    <row r="8" spans="2:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+    </row>
+    <row r="8" spans="2:14" ht="18">
       <c r="B8" s="14" t="s">
         <v>115</v>
       </c>
@@ -6007,7 +6231,7 @@
       <c r="M8" s="14"/>
       <c r="N8" s="14"/>
     </row>
-    <row r="9" spans="2:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:14" ht="18">
       <c r="B9" s="14" t="s">
         <v>94</v>
       </c>
@@ -6024,7 +6248,7 @@
       <c r="M9" s="14"/>
       <c r="N9" s="14"/>
     </row>
-    <row r="10" spans="2:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:14" ht="18">
       <c r="B10" s="14" t="s">
         <v>95</v>
       </c>
@@ -6041,7 +6265,7 @@
       <c r="M10" s="14"/>
       <c r="N10" s="14"/>
     </row>
-    <row r="11" spans="2:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:14" ht="18">
       <c r="B11" s="14" t="s">
         <v>96</v>
       </c>
@@ -6058,7 +6282,7 @@
       <c r="M11" s="14"/>
       <c r="N11" s="14"/>
     </row>
-    <row r="12" spans="2:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:14" ht="18">
       <c r="B12" s="14" t="s">
         <v>97</v>
       </c>
@@ -6075,7 +6299,7 @@
       <c r="M12" s="14"/>
       <c r="N12" s="14"/>
     </row>
-    <row r="13" spans="2:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:14" ht="18">
       <c r="B13" s="14" t="s">
         <v>98</v>
       </c>
@@ -6092,7 +6316,7 @@
       <c r="M13" s="14"/>
       <c r="N13" s="14"/>
     </row>
-    <row r="14" spans="2:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:14" ht="18">
       <c r="B14" s="14" t="s">
         <v>99</v>
       </c>
@@ -6109,7 +6333,7 @@
       <c r="M14" s="14"/>
       <c r="N14" s="14"/>
     </row>
-    <row r="15" spans="2:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:14" ht="18">
       <c r="B15" s="14" t="s">
         <v>100</v>
       </c>
@@ -6126,7 +6350,7 @@
       <c r="M15" s="14"/>
       <c r="N15" s="14"/>
     </row>
-    <row r="16" spans="2:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:14" ht="18">
       <c r="B16" s="14" t="s">
         <v>101</v>
       </c>
@@ -6143,7 +6367,7 @@
       <c r="M16" s="14"/>
       <c r="N16" s="14"/>
     </row>
-    <row r="17" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:20" ht="18">
       <c r="B17" s="14" t="s">
         <v>102</v>
       </c>
@@ -6160,7 +6384,7 @@
       <c r="M17" s="14"/>
       <c r="N17" s="14"/>
     </row>
-    <row r="18" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:20" ht="18">
       <c r="B18" s="14" t="s">
         <v>103</v>
       </c>
@@ -6177,7 +6401,7 @@
       <c r="M18" s="14"/>
       <c r="N18" s="14"/>
     </row>
-    <row r="19" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:20" ht="18">
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
@@ -6192,7 +6416,7 @@
       <c r="M19" s="14"/>
       <c r="N19" s="14"/>
     </row>
-    <row r="20" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:20" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="14" t="s">
         <v>118</v>
       </c>
@@ -6203,263 +6427,263 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
-      <c r="J20" s="55" t="s">
+      <c r="J20" s="60" t="s">
         <v>125</v>
       </c>
-      <c r="K20" s="55"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="55"/>
-      <c r="N20" s="55"/>
-      <c r="O20" s="55"/>
-      <c r="P20" s="55"/>
-      <c r="Q20" s="55"/>
-      <c r="R20" s="55"/>
-      <c r="S20" s="55"/>
-      <c r="T20" s="55"/>
-    </row>
-    <row r="21" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="61" t="s">
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="60"/>
+      <c r="O20" s="60"/>
+      <c r="P20" s="60"/>
+      <c r="Q20" s="60"/>
+      <c r="R20" s="60"/>
+      <c r="S20" s="60"/>
+      <c r="T20" s="60"/>
+    </row>
+    <row r="21" spans="2:20" ht="15.95" customHeight="1">
+      <c r="B21" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="C21" s="64" t="s">
+      <c r="C21" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
       <c r="I21" s="22"/>
-      <c r="J21" s="60" t="s">
+      <c r="J21" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="K21" s="62" t="s">
+      <c r="K21" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="L21" s="62"/>
-      <c r="M21" s="62"/>
-      <c r="N21" s="62"/>
-      <c r="O21" s="62"/>
-      <c r="P21" s="62"/>
-      <c r="Q21" s="54"/>
-      <c r="R21" s="54"/>
-      <c r="S21" s="54"/>
-      <c r="T21" s="54"/>
-    </row>
-    <row r="22" spans="2:20" ht="18" x14ac:dyDescent="0.2">
-      <c r="B22" s="61"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="57"/>
+      <c r="O21" s="57"/>
+      <c r="P21" s="57"/>
+      <c r="Q21" s="56"/>
+      <c r="R21" s="56"/>
+      <c r="S21" s="56"/>
+      <c r="T21" s="56"/>
+    </row>
+    <row r="22" spans="2:20" ht="18">
+      <c r="B22" s="66"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
       <c r="I22" s="22"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="62"/>
-      <c r="L22" s="62"/>
-      <c r="M22" s="62"/>
-      <c r="N22" s="62"/>
-      <c r="O22" s="62"/>
-      <c r="P22" s="62"/>
-      <c r="Q22" s="54"/>
-      <c r="R22" s="54"/>
-      <c r="S22" s="54"/>
-      <c r="T22" s="54"/>
-    </row>
-    <row r="23" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="61"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="57"/>
+      <c r="N22" s="57"/>
+      <c r="O22" s="57"/>
+      <c r="P22" s="57"/>
+      <c r="Q22" s="56"/>
+      <c r="R22" s="56"/>
+      <c r="S22" s="56"/>
+      <c r="T22" s="56"/>
+    </row>
+    <row r="23" spans="2:20" ht="21" customHeight="1">
+      <c r="B23" s="66"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
       <c r="I23" s="22"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="62"/>
-      <c r="M23" s="62"/>
-      <c r="N23" s="62"/>
-      <c r="O23" s="62"/>
-      <c r="P23" s="62"/>
-      <c r="Q23" s="54"/>
-      <c r="R23" s="54"/>
-      <c r="S23" s="54"/>
-      <c r="T23" s="54"/>
-    </row>
-    <row r="24" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="57" t="s">
+      <c r="J23" s="65"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="57"/>
+      <c r="N23" s="57"/>
+      <c r="O23" s="57"/>
+      <c r="P23" s="57"/>
+      <c r="Q23" s="56"/>
+      <c r="R23" s="56"/>
+      <c r="S23" s="56"/>
+      <c r="T23" s="56"/>
+    </row>
+    <row r="24" spans="2:20" ht="15.95" customHeight="1">
+      <c r="B24" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="C24" s="64" t="s">
+      <c r="C24" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
       <c r="I24" s="22"/>
-      <c r="J24" s="57" t="s">
+      <c r="J24" s="62" t="s">
         <v>127</v>
       </c>
-      <c r="K24" s="62" t="s">
+      <c r="K24" s="57" t="s">
         <v>131</v>
       </c>
-      <c r="L24" s="62"/>
-      <c r="M24" s="62"/>
-      <c r="N24" s="62"/>
-      <c r="O24" s="62"/>
-      <c r="P24" s="62"/>
-      <c r="Q24" s="66" t="s">
+      <c r="L24" s="57"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="57"/>
+      <c r="O24" s="57"/>
+      <c r="P24" s="57"/>
+      <c r="Q24" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="R24" s="66"/>
-      <c r="S24" s="66"/>
-      <c r="T24" s="66"/>
-    </row>
-    <row r="25" spans="2:20" ht="18" x14ac:dyDescent="0.2">
-      <c r="B25" s="57"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="64"/>
+      <c r="R24" s="55"/>
+      <c r="S24" s="55"/>
+      <c r="T24" s="55"/>
+    </row>
+    <row r="25" spans="2:20" ht="18">
+      <c r="B25" s="62"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
       <c r="I25" s="22"/>
-      <c r="J25" s="57"/>
-      <c r="K25" s="62"/>
-      <c r="L25" s="62"/>
-      <c r="M25" s="62"/>
-      <c r="N25" s="62"/>
-      <c r="O25" s="62"/>
-      <c r="P25" s="62"/>
-      <c r="Q25" s="66"/>
-      <c r="R25" s="66"/>
-      <c r="S25" s="66"/>
-      <c r="T25" s="66"/>
-    </row>
-    <row r="26" spans="2:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="57"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="57"/>
+      <c r="N25" s="57"/>
+      <c r="O25" s="57"/>
+      <c r="P25" s="57"/>
+      <c r="Q25" s="55"/>
+      <c r="R25" s="55"/>
+      <c r="S25" s="55"/>
+      <c r="T25" s="55"/>
+    </row>
+    <row r="26" spans="2:20" ht="21.95" customHeight="1">
+      <c r="B26" s="62"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
       <c r="I26" s="22"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="62"/>
-      <c r="L26" s="62"/>
-      <c r="M26" s="62"/>
-      <c r="N26" s="62"/>
-      <c r="O26" s="62"/>
-      <c r="P26" s="62"/>
-      <c r="Q26" s="66"/>
-      <c r="R26" s="66"/>
-      <c r="S26" s="66"/>
-      <c r="T26" s="66"/>
-    </row>
-    <row r="27" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="63" t="s">
+      <c r="J26" s="62"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="57"/>
+      <c r="N26" s="57"/>
+      <c r="O26" s="57"/>
+      <c r="P26" s="57"/>
+      <c r="Q26" s="55"/>
+      <c r="R26" s="55"/>
+      <c r="S26" s="55"/>
+      <c r="T26" s="55"/>
+    </row>
+    <row r="27" spans="2:20" ht="15.95" customHeight="1">
+      <c r="B27" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="C27" s="56" t="s">
+      <c r="C27" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="56"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
       <c r="I27" s="23"/>
-      <c r="J27" s="57" t="s">
+      <c r="J27" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="K27" s="62" t="s">
+      <c r="K27" s="57" t="s">
         <v>134</v>
       </c>
-      <c r="L27" s="62"/>
-      <c r="M27" s="62"/>
-      <c r="N27" s="62"/>
-      <c r="O27" s="62"/>
-      <c r="P27" s="62"/>
-      <c r="Q27" s="59" t="s">
+      <c r="L27" s="57"/>
+      <c r="M27" s="57"/>
+      <c r="N27" s="57"/>
+      <c r="O27" s="57"/>
+      <c r="P27" s="57"/>
+      <c r="Q27" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="R27" s="59"/>
-      <c r="S27" s="59"/>
-      <c r="T27" s="59"/>
-    </row>
-    <row r="28" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="63"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
+      <c r="R27" s="64"/>
+      <c r="S27" s="64"/>
+      <c r="T27" s="64"/>
+    </row>
+    <row r="28" spans="2:20" ht="20.100000000000001" customHeight="1">
+      <c r="B28" s="58"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
       <c r="I28" s="23"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="62"/>
-      <c r="L28" s="62"/>
-      <c r="M28" s="62"/>
-      <c r="N28" s="62"/>
-      <c r="O28" s="62"/>
-      <c r="P28" s="62"/>
-      <c r="Q28" s="59"/>
-      <c r="R28" s="59"/>
-      <c r="S28" s="59"/>
-      <c r="T28" s="59"/>
-    </row>
-    <row r="29" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="63" t="s">
+      <c r="J28" s="62"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="57"/>
+      <c r="N28" s="57"/>
+      <c r="O28" s="57"/>
+      <c r="P28" s="57"/>
+      <c r="Q28" s="64"/>
+      <c r="R28" s="64"/>
+      <c r="S28" s="64"/>
+      <c r="T28" s="64"/>
+    </row>
+    <row r="29" spans="2:20" ht="21" customHeight="1">
+      <c r="B29" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="C29" s="64" t="s">
+      <c r="C29" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="64"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
       <c r="I29" s="22"/>
-      <c r="J29" s="57"/>
-      <c r="K29" s="62"/>
-      <c r="L29" s="62"/>
-      <c r="M29" s="62"/>
-      <c r="N29" s="62"/>
-      <c r="O29" s="62"/>
-      <c r="P29" s="62"/>
-      <c r="Q29" s="59"/>
-      <c r="R29" s="59"/>
-      <c r="S29" s="59"/>
-      <c r="T29" s="59"/>
-    </row>
-    <row r="30" spans="2:20" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="63"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="64"/>
+      <c r="J29" s="62"/>
+      <c r="K29" s="57"/>
+      <c r="L29" s="57"/>
+      <c r="M29" s="57"/>
+      <c r="N29" s="57"/>
+      <c r="O29" s="57"/>
+      <c r="P29" s="57"/>
+      <c r="Q29" s="64"/>
+      <c r="R29" s="64"/>
+      <c r="S29" s="64"/>
+      <c r="T29" s="64"/>
+    </row>
+    <row r="30" spans="2:20" ht="23.1" customHeight="1">
+      <c r="B30" s="58"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
       <c r="I30" s="22"/>
-      <c r="J30" s="57"/>
-      <c r="K30" s="62"/>
-      <c r="L30" s="62"/>
-      <c r="M30" s="62"/>
-      <c r="N30" s="62"/>
-      <c r="O30" s="62"/>
-      <c r="P30" s="62"/>
-      <c r="Q30" s="59"/>
-      <c r="R30" s="59"/>
-      <c r="S30" s="59"/>
-      <c r="T30" s="59"/>
-    </row>
-    <row r="31" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="J30" s="62"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="57"/>
+      <c r="N30" s="57"/>
+      <c r="O30" s="57"/>
+      <c r="P30" s="57"/>
+      <c r="Q30" s="64"/>
+      <c r="R30" s="64"/>
+      <c r="S30" s="64"/>
+      <c r="T30" s="64"/>
+    </row>
+    <row r="31" spans="2:20" ht="18">
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
@@ -6468,19 +6692,19 @@
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
-      <c r="J31" s="57"/>
-      <c r="K31" s="62"/>
-      <c r="L31" s="62"/>
-      <c r="M31" s="62"/>
-      <c r="N31" s="62"/>
-      <c r="O31" s="62"/>
-      <c r="P31" s="62"/>
-      <c r="Q31" s="59"/>
-      <c r="R31" s="59"/>
-      <c r="S31" s="59"/>
-      <c r="T31" s="59"/>
-    </row>
-    <row r="32" spans="2:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J31" s="62"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="57"/>
+      <c r="N31" s="57"/>
+      <c r="O31" s="57"/>
+      <c r="P31" s="57"/>
+      <c r="Q31" s="64"/>
+      <c r="R31" s="64"/>
+      <c r="S31" s="64"/>
+      <c r="T31" s="64"/>
+    </row>
+    <row r="32" spans="2:20" ht="18" customHeight="1">
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
@@ -6489,23 +6713,23 @@
       <c r="G32" s="14"/>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
-      <c r="J32" s="57" t="s">
+      <c r="J32" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="K32" s="56" t="s">
+      <c r="K32" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="L32" s="56"/>
-      <c r="M32" s="56"/>
-      <c r="N32" s="56"/>
-      <c r="O32" s="56"/>
-      <c r="P32" s="56"/>
-      <c r="Q32" s="54"/>
-      <c r="R32" s="54"/>
-      <c r="S32" s="54"/>
-      <c r="T32" s="54"/>
-    </row>
-    <row r="33" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L32" s="61"/>
+      <c r="M32" s="61"/>
+      <c r="N32" s="61"/>
+      <c r="O32" s="61"/>
+      <c r="P32" s="61"/>
+      <c r="Q32" s="56"/>
+      <c r="R32" s="56"/>
+      <c r="S32" s="56"/>
+      <c r="T32" s="56"/>
+    </row>
+    <row r="33" spans="2:20" ht="20.100000000000001" customHeight="1">
       <c r="B33" s="24" t="s">
         <v>136</v>
       </c>
@@ -6516,112 +6740,112 @@
       <c r="G33" s="26"/>
       <c r="H33" s="26"/>
       <c r="I33" s="26"/>
-      <c r="J33" s="57"/>
-      <c r="K33" s="56"/>
-      <c r="L33" s="56"/>
-      <c r="M33" s="56"/>
-      <c r="N33" s="56"/>
-      <c r="O33" s="56"/>
-      <c r="P33" s="56"/>
-      <c r="Q33" s="54"/>
-      <c r="R33" s="54"/>
-      <c r="S33" s="54"/>
-      <c r="T33" s="54"/>
-    </row>
-    <row r="34" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="58" t="s">
+      <c r="J33" s="62"/>
+      <c r="K33" s="61"/>
+      <c r="L33" s="61"/>
+      <c r="M33" s="61"/>
+      <c r="N33" s="61"/>
+      <c r="O33" s="61"/>
+      <c r="P33" s="61"/>
+      <c r="Q33" s="56"/>
+      <c r="R33" s="56"/>
+      <c r="S33" s="56"/>
+      <c r="T33" s="56"/>
+    </row>
+    <row r="34" spans="2:20" ht="15.95" customHeight="1">
+      <c r="B34" s="63" t="s">
         <v>148</v>
       </c>
-      <c r="C34" s="58"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="58"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
       <c r="I34" s="26"/>
-      <c r="J34" s="57"/>
-      <c r="K34" s="56"/>
-      <c r="L34" s="56"/>
-      <c r="M34" s="56"/>
-      <c r="N34" s="56"/>
-      <c r="O34" s="56"/>
-      <c r="P34" s="56"/>
-      <c r="Q34" s="54"/>
-      <c r="R34" s="54"/>
-      <c r="S34" s="54"/>
-      <c r="T34" s="54"/>
-    </row>
-    <row r="35" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="58"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="58"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="58"/>
+      <c r="J34" s="62"/>
+      <c r="K34" s="61"/>
+      <c r="L34" s="61"/>
+      <c r="M34" s="61"/>
+      <c r="N34" s="61"/>
+      <c r="O34" s="61"/>
+      <c r="P34" s="61"/>
+      <c r="Q34" s="56"/>
+      <c r="R34" s="56"/>
+      <c r="S34" s="56"/>
+      <c r="T34" s="56"/>
+    </row>
+    <row r="35" spans="2:20" ht="15.95" customHeight="1">
+      <c r="B35" s="63"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="63"/>
       <c r="I35" s="26"/>
-      <c r="J35" s="57"/>
-      <c r="K35" s="56"/>
-      <c r="L35" s="56"/>
-      <c r="M35" s="56"/>
-      <c r="N35" s="56"/>
-      <c r="O35" s="56"/>
-      <c r="P35" s="56"/>
-      <c r="Q35" s="54"/>
-      <c r="R35" s="54"/>
-      <c r="S35" s="54"/>
-      <c r="T35" s="54"/>
-    </row>
-    <row r="36" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="58"/>
-      <c r="C36" s="58"/>
-      <c r="D36" s="58"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="58"/>
+      <c r="J35" s="62"/>
+      <c r="K35" s="61"/>
+      <c r="L35" s="61"/>
+      <c r="M35" s="61"/>
+      <c r="N35" s="61"/>
+      <c r="O35" s="61"/>
+      <c r="P35" s="61"/>
+      <c r="Q35" s="56"/>
+      <c r="R35" s="56"/>
+      <c r="S35" s="56"/>
+      <c r="T35" s="56"/>
+    </row>
+    <row r="36" spans="2:20" ht="15.95" customHeight="1">
+      <c r="B36" s="63"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="63"/>
+      <c r="G36" s="63"/>
+      <c r="H36" s="63"/>
       <c r="I36" s="26"/>
-      <c r="J36" s="57"/>
-      <c r="K36" s="56"/>
-      <c r="L36" s="56"/>
-      <c r="M36" s="56"/>
-      <c r="N36" s="56"/>
-      <c r="O36" s="56"/>
-      <c r="P36" s="56"/>
-      <c r="Q36" s="54"/>
-      <c r="R36" s="54"/>
-      <c r="S36" s="54"/>
-      <c r="T36" s="54"/>
-    </row>
-    <row r="37" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="58"/>
-      <c r="C37" s="58"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="58"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="58"/>
-      <c r="H37" s="58"/>
+      <c r="J36" s="62"/>
+      <c r="K36" s="61"/>
+      <c r="L36" s="61"/>
+      <c r="M36" s="61"/>
+      <c r="N36" s="61"/>
+      <c r="O36" s="61"/>
+      <c r="P36" s="61"/>
+      <c r="Q36" s="56"/>
+      <c r="R36" s="56"/>
+      <c r="S36" s="56"/>
+      <c r="T36" s="56"/>
+    </row>
+    <row r="37" spans="2:20" ht="15.95" customHeight="1">
+      <c r="B37" s="63"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="63"/>
       <c r="I37" s="26"/>
-      <c r="J37" s="57"/>
-      <c r="K37" s="56"/>
-      <c r="L37" s="56"/>
-      <c r="M37" s="56"/>
-      <c r="N37" s="56"/>
-      <c r="O37" s="56"/>
-      <c r="P37" s="56"/>
-      <c r="Q37" s="54"/>
-      <c r="R37" s="54"/>
-      <c r="S37" s="54"/>
-      <c r="T37" s="54"/>
-    </row>
-    <row r="38" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="58"/>
-      <c r="C38" s="58"/>
-      <c r="D38" s="58"/>
-      <c r="E38" s="58"/>
-      <c r="F38" s="58"/>
-      <c r="G38" s="58"/>
-      <c r="H38" s="58"/>
+      <c r="J37" s="62"/>
+      <c r="K37" s="61"/>
+      <c r="L37" s="61"/>
+      <c r="M37" s="61"/>
+      <c r="N37" s="61"/>
+      <c r="O37" s="61"/>
+      <c r="P37" s="61"/>
+      <c r="Q37" s="56"/>
+      <c r="R37" s="56"/>
+      <c r="S37" s="56"/>
+      <c r="T37" s="56"/>
+    </row>
+    <row r="38" spans="2:20" ht="15.95" customHeight="1">
+      <c r="B38" s="63"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="63"/>
+      <c r="G38" s="63"/>
+      <c r="H38" s="63"/>
       <c r="I38" s="26"/>
       <c r="K38" s="24"/>
       <c r="L38" s="24"/>
@@ -6631,14 +6855,14 @@
       <c r="P38" s="24"/>
       <c r="Q38" s="24"/>
     </row>
-    <row r="39" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="58"/>
-      <c r="C39" s="58"/>
-      <c r="D39" s="58"/>
-      <c r="E39" s="58"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="58"/>
-      <c r="H39" s="58"/>
+    <row r="39" spans="2:20" ht="15.95" customHeight="1">
+      <c r="B39" s="63"/>
+      <c r="C39" s="63"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="63"/>
+      <c r="F39" s="63"/>
+      <c r="G39" s="63"/>
+      <c r="H39" s="63"/>
       <c r="I39" s="26"/>
       <c r="J39" s="20"/>
       <c r="K39" s="20"/>
@@ -6649,77 +6873,77 @@
       <c r="P39" s="24"/>
       <c r="Q39" s="24"/>
     </row>
-    <row r="40" spans="2:20" ht="21" x14ac:dyDescent="0.2">
-      <c r="B40" s="58"/>
-      <c r="C40" s="58"/>
-      <c r="D40" s="58"/>
-      <c r="E40" s="58"/>
-      <c r="F40" s="58"/>
-      <c r="G40" s="58"/>
-      <c r="H40" s="58"/>
+    <row r="40" spans="2:20" ht="20.25">
+      <c r="B40" s="63"/>
+      <c r="C40" s="63"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="63"/>
+      <c r="F40" s="63"/>
+      <c r="G40" s="63"/>
+      <c r="H40" s="63"/>
       <c r="I40" s="26"/>
       <c r="J40" s="20"/>
       <c r="K40" s="20"/>
       <c r="L40" s="20"/>
       <c r="M40" s="20"/>
     </row>
-    <row r="41" spans="2:20" ht="21" x14ac:dyDescent="0.2">
-      <c r="B41" s="58"/>
-      <c r="C41" s="58"/>
-      <c r="D41" s="58"/>
-      <c r="E41" s="58"/>
-      <c r="F41" s="58"/>
-      <c r="G41" s="58"/>
-      <c r="H41" s="58"/>
+    <row r="41" spans="2:20" ht="20.25">
+      <c r="B41" s="63"/>
+      <c r="C41" s="63"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="63"/>
       <c r="I41" s="26"/>
       <c r="J41" s="20"/>
       <c r="K41" s="20"/>
       <c r="L41" s="20"/>
       <c r="M41" s="20"/>
     </row>
-    <row r="42" spans="2:20" ht="21" x14ac:dyDescent="0.2">
-      <c r="B42" s="58"/>
-      <c r="C42" s="58"/>
-      <c r="D42" s="58"/>
-      <c r="E42" s="58"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="58"/>
-      <c r="H42" s="58"/>
+    <row r="42" spans="2:20" ht="20.25">
+      <c r="B42" s="63"/>
+      <c r="C42" s="63"/>
+      <c r="D42" s="63"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="63"/>
+      <c r="G42" s="63"/>
+      <c r="H42" s="63"/>
       <c r="I42" s="26"/>
       <c r="J42" s="20"/>
       <c r="K42" s="20"/>
       <c r="L42" s="20"/>
       <c r="M42" s="20"/>
     </row>
-    <row r="43" spans="2:20" ht="21" x14ac:dyDescent="0.2">
-      <c r="B43" s="58"/>
-      <c r="C43" s="58"/>
-      <c r="D43" s="58"/>
-      <c r="E43" s="58"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="58"/>
-      <c r="H43" s="58"/>
+    <row r="43" spans="2:20" ht="20.25">
+      <c r="B43" s="63"/>
+      <c r="C43" s="63"/>
+      <c r="D43" s="63"/>
+      <c r="E43" s="63"/>
+      <c r="F43" s="63"/>
+      <c r="G43" s="63"/>
+      <c r="H43" s="63"/>
       <c r="I43" s="26"/>
       <c r="J43" s="20"/>
       <c r="K43" s="20"/>
       <c r="L43" s="20"/>
       <c r="M43" s="20"/>
     </row>
-    <row r="44" spans="2:20" ht="21" x14ac:dyDescent="0.2">
-      <c r="B44" s="58"/>
-      <c r="C44" s="58"/>
-      <c r="D44" s="58"/>
-      <c r="E44" s="58"/>
-      <c r="F44" s="58"/>
-      <c r="G44" s="58"/>
-      <c r="H44" s="58"/>
+    <row r="44" spans="2:20" ht="20.25">
+      <c r="B44" s="63"/>
+      <c r="C44" s="63"/>
+      <c r="D44" s="63"/>
+      <c r="E44" s="63"/>
+      <c r="F44" s="63"/>
+      <c r="G44" s="63"/>
+      <c r="H44" s="63"/>
       <c r="I44" s="26"/>
       <c r="J44" s="20"/>
       <c r="K44" s="20"/>
       <c r="L44" s="20"/>
       <c r="M44" s="20"/>
     </row>
-    <row r="45" spans="2:20" ht="21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" ht="20.25">
       <c r="B45" s="25"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
@@ -6733,7 +6957,7 @@
       <c r="L45" s="20"/>
       <c r="M45" s="20"/>
     </row>
-    <row r="46" spans="2:20" ht="21" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:20" ht="20.25">
       <c r="B46" s="27"/>
       <c r="C46" s="27"/>
       <c r="D46" s="27"/>
@@ -6747,7 +6971,7 @@
       <c r="L46" s="20"/>
       <c r="M46" s="20"/>
     </row>
-    <row r="47" spans="2:20" ht="23" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:20" ht="23.25">
       <c r="B47" s="31" t="s">
         <v>137</v>
       </c>
@@ -6765,7 +6989,7 @@
       <c r="L47" s="20"/>
       <c r="M47" s="20"/>
     </row>
-    <row r="48" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" ht="18">
       <c r="B48" s="14" t="s">
         <v>138</v>
       </c>
@@ -6781,19 +7005,19 @@
       <c r="L48" s="20"/>
       <c r="M48" s="20"/>
     </row>
-    <row r="49" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" ht="18">
       <c r="A49" t="s">
         <v>146</v>
       </c>
-      <c r="B49" s="40" t="s">
+      <c r="B49" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="C49" s="40"/>
-      <c r="D49" s="40"/>
-      <c r="E49" s="40" t="s">
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="F49" s="40"/>
+      <c r="F49" s="39"/>
       <c r="G49" s="28"/>
       <c r="H49" s="24"/>
       <c r="I49" s="20"/>
@@ -6802,16 +7026,16 @@
       <c r="L49" s="20"/>
       <c r="M49" s="20"/>
     </row>
-    <row r="50" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="B50" s="40" t="s">
+    <row r="50" spans="1:13" ht="18">
+      <c r="B50" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="C50" s="40"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40" t="s">
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="F50" s="40"/>
+      <c r="F50" s="39"/>
       <c r="G50" s="28" t="s">
         <v>140</v>
       </c>
@@ -6822,7 +7046,7 @@
       <c r="L50" s="20"/>
       <c r="M50" s="20"/>
     </row>
-    <row r="51" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" ht="18">
       <c r="B51" s="14"/>
       <c r="C51" s="14" t="s">
         <v>145</v>
@@ -6833,25 +7057,13 @@
       <c r="G51" s="14"/>
       <c r="H51" s="14"/>
     </row>
-    <row r="54" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" ht="18">
       <c r="B54" s="14" t="s">
         <v>147</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B6:D7"/>
-    <mergeCell ref="B1:H2"/>
-    <mergeCell ref="Q24:T26"/>
-    <mergeCell ref="Q21:T23"/>
-    <mergeCell ref="K21:P23"/>
-    <mergeCell ref="K24:P26"/>
-    <mergeCell ref="K27:P31"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C21:H23"/>
-    <mergeCell ref="C24:H26"/>
-    <mergeCell ref="C29:H30"/>
     <mergeCell ref="Q32:T37"/>
     <mergeCell ref="J20:T20"/>
     <mergeCell ref="E49:F49"/>
@@ -6868,6 +7080,18 @@
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="C27:H28"/>
+    <mergeCell ref="K27:P31"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C21:H23"/>
+    <mergeCell ref="C24:H26"/>
+    <mergeCell ref="C29:H30"/>
+    <mergeCell ref="B6:D7"/>
+    <mergeCell ref="B1:H2"/>
+    <mergeCell ref="Q24:T26"/>
+    <mergeCell ref="Q21:T23"/>
+    <mergeCell ref="K21:P23"/>
+    <mergeCell ref="K24:P26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6882,9 +7106,9 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="18.95" customHeight="1">
       <c r="A2" s="14"/>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
@@ -6896,91 +7120,91 @@
       <c r="I2" s="14"/>
       <c r="J2" s="14"/>
     </row>
-    <row r="3" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="15.95" customHeight="1">
       <c r="A3" s="14"/>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="65" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="64" t="s">
+      <c r="D3" s="50"/>
+      <c r="E3" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
       <c r="I3" s="32"/>
       <c r="J3" s="32"/>
     </row>
-    <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="18">
       <c r="A4" s="14"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
       <c r="I4" s="32"/>
       <c r="J4" s="14"/>
     </row>
-    <row r="5" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="38.1" customHeight="1">
       <c r="A5" s="14"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
       <c r="I5" s="32"/>
       <c r="J5" s="14"/>
     </row>
-    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="18">
       <c r="A6" s="14"/>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="65" t="s">
         <v>106</v>
       </c>
       <c r="C6" s="67" t="s">
         <v>107</v>
       </c>
       <c r="D6" s="67"/>
-      <c r="E6" s="64" t="s">
+      <c r="E6" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
       <c r="I6" s="32"/>
       <c r="J6" s="14"/>
     </row>
-    <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="18">
       <c r="A7" s="14"/>
-      <c r="B7" s="60"/>
+      <c r="B7" s="65"/>
       <c r="C7" s="67"/>
       <c r="D7" s="67"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
     </row>
-    <row r="8" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="32.1" customHeight="1">
       <c r="A8" s="14"/>
-      <c r="B8" s="60"/>
+      <c r="B8" s="65"/>
       <c r="C8" s="67"/>
       <c r="D8" s="67"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
     </row>
-    <row r="9" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="18">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -6992,7 +7216,7 @@
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
     </row>
-    <row r="10" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="18">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
@@ -7004,7 +7228,7 @@
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
     </row>
-    <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="18">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
@@ -7016,7 +7240,7 @@
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
     </row>
-    <row r="12" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="18">
       <c r="A12" s="14"/>
       <c r="B12" s="14" t="s">
         <v>110</v>
@@ -7030,7 +7254,7 @@
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
     </row>
-    <row r="13" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="18">
       <c r="A13" s="14"/>
       <c r="B13" s="14" t="s">
         <v>111</v>
@@ -7044,7 +7268,7 @@
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
     </row>
-    <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="18">
       <c r="A14" s="14"/>
       <c r="B14" s="14" t="s">
         <v>112</v>
@@ -7058,7 +7282,7 @@
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
     </row>
-    <row r="15" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="18">
       <c r="A15" s="14"/>
       <c r="B15" s="14" t="s">
         <v>113</v>
@@ -7072,7 +7296,7 @@
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
     </row>
-    <row r="16" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="18">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
@@ -7084,7 +7308,7 @@
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
     </row>
-    <row r="17" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="18">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
@@ -7096,7 +7320,7 @@
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
     </row>
-    <row r="18" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="18">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -7108,7 +7332,7 @@
       <c r="I18" s="14"/>
       <c r="J18" s="14"/>
     </row>
-    <row r="19" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="18">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -7120,7 +7344,7 @@
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
     </row>
-    <row r="20" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="18">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
@@ -7132,7 +7356,7 @@
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
     </row>
-    <row r="21" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="18">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
@@ -7160,15 +7384,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:R96"/>
+  <dimension ref="B3:R97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="3" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:18" ht="15.95" customHeight="1">
       <c r="B3" s="68" t="s">
         <v>154</v>
       </c>
@@ -7189,7 +7413,7 @@
       <c r="Q3" s="34"/>
       <c r="R3" s="34"/>
     </row>
-    <row r="4" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:18" ht="15.95" customHeight="1">
       <c r="B4" s="68"/>
       <c r="C4" s="68"/>
       <c r="D4" s="68"/>
@@ -7208,7 +7432,7 @@
       <c r="Q4" s="34"/>
       <c r="R4" s="34"/>
     </row>
-    <row r="5" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:18" ht="15.95" customHeight="1">
       <c r="B5" s="68"/>
       <c r="C5" s="68"/>
       <c r="D5" s="68"/>
@@ -7227,7 +7451,7 @@
       <c r="Q5" s="34"/>
       <c r="R5" s="34"/>
     </row>
-    <row r="6" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:18" ht="15.95" customHeight="1">
       <c r="B6" s="68"/>
       <c r="C6" s="68"/>
       <c r="D6" s="68"/>
@@ -7246,7 +7470,7 @@
       <c r="Q6" s="34"/>
       <c r="R6" s="34"/>
     </row>
-    <row r="7" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:18" ht="15.95" customHeight="1">
       <c r="B7" s="68"/>
       <c r="C7" s="68"/>
       <c r="D7" s="68"/>
@@ -7265,7 +7489,7 @@
       <c r="Q7" s="34"/>
       <c r="R7" s="34"/>
     </row>
-    <row r="8" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:18" ht="15.95" customHeight="1">
       <c r="B8" s="68"/>
       <c r="C8" s="68"/>
       <c r="D8" s="68"/>
@@ -7284,7 +7508,7 @@
       <c r="Q8" s="34"/>
       <c r="R8" s="34"/>
     </row>
-    <row r="9" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:18" ht="15.95" customHeight="1">
       <c r="B9" s="68"/>
       <c r="C9" s="68"/>
       <c r="D9" s="68"/>
@@ -7303,7 +7527,7 @@
       <c r="Q9" s="34"/>
       <c r="R9" s="34"/>
     </row>
-    <row r="10" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:18" ht="15.95" customHeight="1">
       <c r="B10" s="68"/>
       <c r="C10" s="68"/>
       <c r="D10" s="68"/>
@@ -7322,7 +7546,7 @@
       <c r="Q10" s="34"/>
       <c r="R10" s="34"/>
     </row>
-    <row r="11" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:18" ht="15.95" customHeight="1">
       <c r="B11" s="34"/>
       <c r="C11" s="34"/>
       <c r="D11" s="34"/>
@@ -7341,7 +7565,7 @@
       <c r="Q11" s="34"/>
       <c r="R11" s="34"/>
     </row>
-    <row r="12" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:18" ht="15.95" customHeight="1">
       <c r="B12" s="34"/>
       <c r="C12" s="34"/>
       <c r="D12" s="34"/>
@@ -7356,12 +7580,12 @@
       <c r="M12" s="34"/>
       <c r="N12" s="34"/>
     </row>
-    <row r="13" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="72" t="s">
-        <v>215</v>
-      </c>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
+    <row r="13" spans="2:18" ht="15.95" customHeight="1">
+      <c r="B13" s="69" t="s">
+        <v>211</v>
+      </c>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
       <c r="E13" s="34"/>
       <c r="F13" s="34"/>
       <c r="G13" s="34"/>
@@ -7373,444 +7597,476 @@
       <c r="M13" s="34"/>
       <c r="N13" s="34"/>
     </row>
-    <row r="14" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="34" t="s">
+    <row r="14" spans="2:18" ht="15.95" customHeight="1">
+      <c r="B14" s="74" t="s">
         <v>196</v>
       </c>
-      <c r="C14" s="68" t="s">
+      <c r="C14" s="61" t="s">
         <v>197</v>
       </c>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="69"/>
-      <c r="N14" s="69"/>
-      <c r="O14" s="69"/>
-      <c r="P14" s="71" t="s">
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="70" t="s">
         <v>202</v>
       </c>
-      <c r="Q14" s="71"/>
-    </row>
-    <row r="15" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="34"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="69"/>
-      <c r="M15" s="69"/>
-      <c r="N15" s="69"/>
-      <c r="O15" s="69"/>
-      <c r="P15" s="71"/>
-      <c r="Q15" s="71"/>
-    </row>
-    <row r="16" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="34"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="69"/>
-      <c r="N16" s="69"/>
-      <c r="O16" s="69"/>
-      <c r="P16" s="71"/>
-      <c r="Q16" s="71"/>
-    </row>
-    <row r="17" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="34" t="s">
+      <c r="Q14" s="70"/>
+    </row>
+    <row r="15" spans="2:18" ht="15.95" customHeight="1">
+      <c r="B15" s="74"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="70"/>
+      <c r="Q15" s="70"/>
+    </row>
+    <row r="16" spans="2:18" ht="15.95" customHeight="1">
+      <c r="B16" s="74"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="70"/>
+      <c r="Q16" s="70"/>
+    </row>
+    <row r="17" spans="2:17" ht="15.95" customHeight="1">
+      <c r="B17" s="74" t="s">
         <v>198</v>
       </c>
-      <c r="C17" s="68" t="s">
+      <c r="C17" s="61" t="s">
         <v>199</v>
       </c>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="69" t="s">
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="53" t="s">
         <v>200</v>
       </c>
-      <c r="L17" s="69"/>
-      <c r="M17" s="69"/>
-      <c r="N17" s="69"/>
-      <c r="O17" s="69"/>
-      <c r="P17" s="70"/>
-      <c r="Q17" s="70"/>
-    </row>
-    <row r="18" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="34"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="69"/>
-      <c r="N18" s="69"/>
-      <c r="O18" s="69"/>
-      <c r="P18" s="70"/>
-      <c r="Q18" s="70"/>
-    </row>
-    <row r="19" spans="2:17" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="34"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="69"/>
-      <c r="L19" s="69"/>
-      <c r="M19" s="69"/>
-      <c r="N19" s="69"/>
-      <c r="O19" s="69"/>
-      <c r="P19" s="70"/>
-      <c r="Q19" s="70"/>
-    </row>
-    <row r="20" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="34" t="s">
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="71"/>
+      <c r="Q17" s="71"/>
+    </row>
+    <row r="18" spans="2:17" ht="15.95" customHeight="1">
+      <c r="B18" s="74"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="71"/>
+      <c r="Q18" s="71"/>
+    </row>
+    <row r="19" spans="2:17" ht="23.1" customHeight="1">
+      <c r="B19" s="74"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="53"/>
+      <c r="P19" s="71"/>
+      <c r="Q19" s="71"/>
+    </row>
+    <row r="20" spans="2:17" ht="15.95" customHeight="1">
+      <c r="B20" s="74" t="s">
         <v>201</v>
       </c>
-      <c r="C20" s="69" t="s">
+      <c r="C20" s="53" t="s">
+        <v>203</v>
+      </c>
+      <c r="D20" s="53"/>
+      <c r="E20" s="72" t="s">
+        <v>219</v>
+      </c>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="73" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q20" s="70"/>
+    </row>
+    <row r="21" spans="2:17" ht="15.95" customHeight="1">
+      <c r="B21" s="74"/>
+      <c r="C21" s="53" t="s">
         <v>204</v>
       </c>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69" t="s">
+      <c r="D21" s="53"/>
+      <c r="E21" s="72" t="s">
+        <v>221</v>
+      </c>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53" t="s">
+        <v>206</v>
+      </c>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="70"/>
+      <c r="Q21" s="70"/>
+    </row>
+    <row r="22" spans="2:17" ht="15.95" customHeight="1">
+      <c r="B22" s="74"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="72" t="s">
+        <v>220</v>
+      </c>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="70"/>
+      <c r="Q22" s="70"/>
+    </row>
+    <row r="23" spans="2:17" ht="15.95" customHeight="1">
+      <c r="B23" s="74"/>
+      <c r="C23" s="53" t="s">
         <v>205</v>
       </c>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="69"/>
-      <c r="L20" s="69"/>
-      <c r="M20" s="69"/>
-      <c r="N20" s="69"/>
-      <c r="O20" s="69"/>
-      <c r="P20" s="71" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q20" s="71"/>
-    </row>
-    <row r="21" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="34"/>
-      <c r="C21" s="69" t="s">
-        <v>206</v>
-      </c>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69" t="s">
-        <v>208</v>
-      </c>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="69" t="s">
-        <v>210</v>
-      </c>
-      <c r="L21" s="69"/>
-      <c r="M21" s="69"/>
-      <c r="N21" s="69"/>
-      <c r="O21" s="69"/>
-      <c r="P21" s="71"/>
-      <c r="Q21" s="71"/>
-    </row>
-    <row r="22" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="34"/>
-      <c r="C22" s="69" t="s">
+      <c r="D23" s="53"/>
+      <c r="E23" s="72" t="s">
+        <v>223</v>
+      </c>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53" t="s">
         <v>207</v>
       </c>
-      <c r="D22" s="69"/>
-      <c r="E22" s="69" t="s">
-        <v>209</v>
-      </c>
-      <c r="F22" s="69"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="69"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="69" t="s">
-        <v>211</v>
-      </c>
-      <c r="L22" s="69"/>
-      <c r="M22" s="69"/>
-      <c r="N22" s="69"/>
-      <c r="O22" s="69"/>
-      <c r="P22" s="71"/>
-      <c r="Q22" s="71"/>
-    </row>
-    <row r="23" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="34" t="s">
-        <v>213</v>
-      </c>
-      <c r="C23" s="58" t="s">
-        <v>214</v>
-      </c>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="69"/>
-      <c r="N23" s="69"/>
-      <c r="O23" s="69"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="53"/>
       <c r="P23" s="70"/>
       <c r="Q23" s="70"/>
     </row>
-    <row r="24" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="34"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="69"/>
-      <c r="N24" s="69"/>
-      <c r="O24" s="69"/>
+    <row r="24" spans="2:17" ht="15.95" customHeight="1">
+      <c r="B24" s="74"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="72" t="s">
+        <v>222</v>
+      </c>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="72" t="s">
+        <v>224</v>
+      </c>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="53"/>
       <c r="P24" s="70"/>
       <c r="Q24" s="70"/>
     </row>
-    <row r="25" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="34"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="69"/>
-      <c r="N25" s="69"/>
-      <c r="O25" s="69"/>
-      <c r="P25" s="70"/>
-      <c r="Q25" s="70"/>
-    </row>
-    <row r="26" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="34"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="69"/>
-      <c r="M26" s="69"/>
-      <c r="N26" s="69"/>
-      <c r="O26" s="69"/>
-      <c r="P26" s="70"/>
-      <c r="Q26" s="70"/>
-    </row>
-    <row r="27" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="34"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="69"/>
-      <c r="L27" s="69"/>
-      <c r="M27" s="69"/>
-      <c r="N27" s="69"/>
-      <c r="O27" s="69"/>
-      <c r="P27" s="70"/>
-      <c r="Q27" s="70"/>
-    </row>
-    <row r="28" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="34"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="69"/>
-      <c r="L28" s="69"/>
-      <c r="M28" s="69"/>
-      <c r="N28" s="69"/>
-      <c r="O28" s="69"/>
-      <c r="P28" s="70"/>
-      <c r="Q28" s="70"/>
-    </row>
-    <row r="29" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="34"/>
-      <c r="C29" s="58"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="69"/>
-      <c r="L29" s="69"/>
-      <c r="M29" s="69"/>
-      <c r="N29" s="69"/>
-      <c r="O29" s="69"/>
-      <c r="P29" s="70"/>
-      <c r="Q29" s="70"/>
-    </row>
-    <row r="30" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="34"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="58"/>
-      <c r="K30" s="69"/>
-      <c r="L30" s="69"/>
-      <c r="M30" s="69"/>
-      <c r="N30" s="69"/>
-      <c r="O30" s="69"/>
-      <c r="P30" s="70"/>
-      <c r="Q30" s="70"/>
-    </row>
-    <row r="31" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="34" t="s">
-        <v>221</v>
-      </c>
-      <c r="C31" s="68" t="s">
-        <v>222</v>
-      </c>
-      <c r="D31" s="68"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="68"/>
-      <c r="H31" s="68"/>
-      <c r="I31" s="68"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="69"/>
-      <c r="L31" s="69"/>
-      <c r="M31" s="69"/>
-      <c r="N31" s="69"/>
-      <c r="O31" s="69"/>
-      <c r="P31" s="70"/>
-      <c r="Q31" s="70"/>
-    </row>
-    <row r="32" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="34"/>
-    </row>
-    <row r="33" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="34"/>
-      <c r="M33" s="34"/>
-    </row>
-    <row r="34" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="34"/>
-      <c r="L34" s="34"/>
-      <c r="M34" s="34"/>
-    </row>
-    <row r="35" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="34"/>
-      <c r="K35" s="34"/>
-      <c r="L35" s="34"/>
-      <c r="M35" s="34"/>
-    </row>
-    <row r="36" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="34"/>
-      <c r="L36" s="34"/>
-      <c r="M36" s="34"/>
-    </row>
-    <row r="37" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="34"/>
+    <row r="25" spans="2:17" ht="15.95" customHeight="1">
+      <c r="B25" s="74" t="s">
+        <v>209</v>
+      </c>
+      <c r="C25" s="57" t="s">
+        <v>210</v>
+      </c>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="53"/>
+      <c r="O25" s="53"/>
+      <c r="P25" s="71"/>
+      <c r="Q25" s="71"/>
+    </row>
+    <row r="26" spans="2:17" ht="15.95" customHeight="1">
+      <c r="B26" s="74"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="71"/>
+      <c r="Q26" s="71"/>
+    </row>
+    <row r="27" spans="2:17" ht="15.95" customHeight="1">
+      <c r="B27" s="74"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="53"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="71"/>
+      <c r="Q27" s="71"/>
+    </row>
+    <row r="28" spans="2:17" ht="15.95" customHeight="1">
+      <c r="B28" s="74"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="53"/>
+      <c r="N28" s="53"/>
+      <c r="O28" s="53"/>
+      <c r="P28" s="71"/>
+      <c r="Q28" s="71"/>
+    </row>
+    <row r="29" spans="2:17" ht="15.95" customHeight="1">
+      <c r="B29" s="74"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="53"/>
+      <c r="O29" s="53"/>
+      <c r="P29" s="71"/>
+      <c r="Q29" s="71"/>
+    </row>
+    <row r="30" spans="2:17" ht="15.95" customHeight="1">
+      <c r="B30" s="74"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="53"/>
+      <c r="O30" s="53"/>
+      <c r="P30" s="71"/>
+      <c r="Q30" s="71"/>
+    </row>
+    <row r="31" spans="2:17" ht="15.95" customHeight="1">
+      <c r="B31" s="74"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="53"/>
+      <c r="O31" s="53"/>
+      <c r="P31" s="71"/>
+      <c r="Q31" s="71"/>
+    </row>
+    <row r="32" spans="2:17" ht="27.75" customHeight="1">
+      <c r="B32" s="75" t="s">
+        <v>217</v>
+      </c>
+      <c r="C32" s="61" t="s">
+        <v>218</v>
+      </c>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="53"/>
+      <c r="M32" s="53"/>
+      <c r="N32" s="53"/>
+      <c r="O32" s="53"/>
+      <c r="P32" s="71"/>
+      <c r="Q32" s="71"/>
+    </row>
+    <row r="33" spans="2:17" ht="15.95" customHeight="1">
+      <c r="B33" s="74" t="s">
+        <v>208</v>
+      </c>
+      <c r="C33" s="72" t="s">
+        <v>226</v>
+      </c>
+      <c r="D33" s="72"/>
+      <c r="E33" s="72"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="72"/>
+      <c r="J33" s="72"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="53"/>
+      <c r="M33" s="53"/>
+      <c r="N33" s="53"/>
+      <c r="O33" s="53"/>
+      <c r="P33" s="73" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q33" s="73"/>
+    </row>
+    <row r="34" spans="2:17" ht="15.95" customHeight="1">
+      <c r="B34" s="74"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="72"/>
+      <c r="J34" s="72"/>
+      <c r="K34" s="53"/>
+      <c r="L34" s="53"/>
+      <c r="M34" s="53"/>
+      <c r="N34" s="53"/>
+      <c r="O34" s="53"/>
+      <c r="P34" s="73"/>
+      <c r="Q34" s="73"/>
+    </row>
+    <row r="35" spans="2:17" ht="15.95" customHeight="1">
+      <c r="B35" s="74"/>
+      <c r="C35" s="72"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="72"/>
+      <c r="J35" s="72"/>
+      <c r="K35" s="53"/>
+      <c r="L35" s="53"/>
+      <c r="M35" s="53"/>
+      <c r="N35" s="53"/>
+      <c r="O35" s="53"/>
+      <c r="P35" s="73"/>
+      <c r="Q35" s="73"/>
+    </row>
+    <row r="36" spans="2:17" ht="15.95" customHeight="1">
+      <c r="B36" s="74"/>
+      <c r="C36" s="72"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="72"/>
+      <c r="H36" s="72"/>
+      <c r="I36" s="72"/>
+      <c r="J36" s="72"/>
+      <c r="K36" s="53"/>
+      <c r="L36" s="53"/>
+      <c r="M36" s="53"/>
+      <c r="N36" s="53"/>
+      <c r="O36" s="53"/>
+      <c r="P36" s="73"/>
+      <c r="Q36" s="73"/>
+    </row>
+    <row r="37" spans="2:17" ht="15.95" customHeight="1">
+      <c r="B37" s="76" t="s">
+        <v>228</v>
+      </c>
       <c r="C37" s="34"/>
       <c r="D37" s="34"/>
       <c r="E37" s="34"/>
@@ -7823,7 +8079,7 @@
       <c r="L37" s="34"/>
       <c r="M37" s="34"/>
     </row>
-    <row r="38" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" ht="15.95" customHeight="1">
       <c r="B38" s="34"/>
       <c r="C38" s="34"/>
       <c r="D38" s="34"/>
@@ -7837,7 +8093,7 @@
       <c r="L38" s="34"/>
       <c r="M38" s="34"/>
     </row>
-    <row r="39" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" ht="15.95" customHeight="1">
       <c r="B39" s="34"/>
       <c r="C39" s="34"/>
       <c r="D39" s="34"/>
@@ -7851,7 +8107,7 @@
       <c r="L39" s="34"/>
       <c r="M39" s="34"/>
     </row>
-    <row r="40" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:17" ht="15.95" customHeight="1">
       <c r="B40" s="34"/>
       <c r="C40" s="34"/>
       <c r="D40" s="34"/>
@@ -7865,7 +8121,7 @@
       <c r="L40" s="34"/>
       <c r="M40" s="34"/>
     </row>
-    <row r="41" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:17" ht="15.95" customHeight="1">
       <c r="B41" s="34"/>
       <c r="C41" s="34"/>
       <c r="D41" s="34"/>
@@ -7879,7 +8135,7 @@
       <c r="L41" s="34"/>
       <c r="M41" s="34"/>
     </row>
-    <row r="42" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" ht="15.95" customHeight="1">
       <c r="B42" s="34"/>
       <c r="C42" s="34"/>
       <c r="D42" s="34"/>
@@ -7893,7 +8149,7 @@
       <c r="L42" s="34"/>
       <c r="M42" s="34"/>
     </row>
-    <row r="43" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:17" ht="15.95" customHeight="1">
       <c r="B43" s="34"/>
       <c r="C43" s="34"/>
       <c r="D43" s="34"/>
@@ -7907,7 +8163,7 @@
       <c r="L43" s="34"/>
       <c r="M43" s="34"/>
     </row>
-    <row r="44" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" ht="15.95" customHeight="1">
       <c r="B44" s="34"/>
       <c r="C44" s="34"/>
       <c r="D44" s="34"/>
@@ -7921,7 +8177,7 @@
       <c r="L44" s="34"/>
       <c r="M44" s="34"/>
     </row>
-    <row r="45" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" ht="15.95" customHeight="1">
       <c r="B45" s="34"/>
       <c r="C45" s="34"/>
       <c r="D45" s="34"/>
@@ -7935,7 +8191,7 @@
       <c r="L45" s="34"/>
       <c r="M45" s="34"/>
     </row>
-    <row r="46" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" ht="15.95" customHeight="1">
       <c r="B46" s="34"/>
       <c r="C46" s="34"/>
       <c r="D46" s="34"/>
@@ -7949,7 +8205,7 @@
       <c r="L46" s="34"/>
       <c r="M46" s="34"/>
     </row>
-    <row r="47" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" ht="15.95" customHeight="1">
       <c r="B47" s="34"/>
       <c r="C47" s="34"/>
       <c r="D47" s="34"/>
@@ -7963,7 +8219,7 @@
       <c r="L47" s="34"/>
       <c r="M47" s="34"/>
     </row>
-    <row r="48" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" ht="15.95" customHeight="1">
       <c r="B48" s="34"/>
       <c r="C48" s="34"/>
       <c r="D48" s="34"/>
@@ -7977,7 +8233,7 @@
       <c r="L48" s="34"/>
       <c r="M48" s="34"/>
     </row>
-    <row r="49" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:13" ht="15.95" customHeight="1">
       <c r="B49" s="34"/>
       <c r="C49" s="34"/>
       <c r="D49" s="34"/>
@@ -7991,7 +8247,7 @@
       <c r="L49" s="34"/>
       <c r="M49" s="34"/>
     </row>
-    <row r="50" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:13" ht="15.95" customHeight="1">
       <c r="B50" s="34"/>
       <c r="C50" s="34"/>
       <c r="D50" s="34"/>
@@ -8005,7 +8261,7 @@
       <c r="L50" s="34"/>
       <c r="M50" s="34"/>
     </row>
-    <row r="51" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:13" ht="15.95" customHeight="1">
       <c r="B51" s="34"/>
       <c r="C51" s="34"/>
       <c r="D51" s="34"/>
@@ -8019,7 +8275,7 @@
       <c r="L51" s="34"/>
       <c r="M51" s="34"/>
     </row>
-    <row r="52" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:13" ht="15.95" customHeight="1">
       <c r="B52" s="34"/>
       <c r="C52" s="34"/>
       <c r="D52" s="34"/>
@@ -8033,7 +8289,7 @@
       <c r="L52" s="34"/>
       <c r="M52" s="34"/>
     </row>
-    <row r="53" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:13" ht="15.95" customHeight="1">
       <c r="B53" s="34"/>
       <c r="C53" s="34"/>
       <c r="D53" s="34"/>
@@ -8047,7 +8303,7 @@
       <c r="L53" s="34"/>
       <c r="M53" s="34"/>
     </row>
-    <row r="54" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:13" ht="15.95" customHeight="1">
       <c r="B54" s="34"/>
       <c r="C54" s="34"/>
       <c r="D54" s="34"/>
@@ -8061,7 +8317,7 @@
       <c r="L54" s="34"/>
       <c r="M54" s="34"/>
     </row>
-    <row r="55" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:13" ht="15.95" customHeight="1">
       <c r="B55" s="34"/>
       <c r="C55" s="34"/>
       <c r="D55" s="34"/>
@@ -8075,7 +8331,7 @@
       <c r="L55" s="34"/>
       <c r="M55" s="34"/>
     </row>
-    <row r="56" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:13" ht="15.95" customHeight="1">
       <c r="B56" s="34"/>
       <c r="C56" s="34"/>
       <c r="D56" s="34"/>
@@ -8089,7 +8345,7 @@
       <c r="L56" s="34"/>
       <c r="M56" s="34"/>
     </row>
-    <row r="57" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:13" ht="15.95" customHeight="1">
       <c r="B57" s="34"/>
       <c r="C57" s="34"/>
       <c r="D57" s="34"/>
@@ -8103,7 +8359,7 @@
       <c r="L57" s="34"/>
       <c r="M57" s="34"/>
     </row>
-    <row r="58" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:13" ht="15.95" customHeight="1">
       <c r="B58" s="34"/>
       <c r="C58" s="34"/>
       <c r="D58" s="34"/>
@@ -8115,8 +8371,9 @@
       <c r="J58" s="34"/>
       <c r="K58" s="34"/>
       <c r="L58" s="34"/>
-    </row>
-    <row r="59" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M58" s="34"/>
+    </row>
+    <row r="59" spans="2:13" ht="15.95" customHeight="1">
       <c r="B59" s="34"/>
       <c r="C59" s="34"/>
       <c r="D59" s="34"/>
@@ -8129,7 +8386,7 @@
       <c r="K59" s="34"/>
       <c r="L59" s="34"/>
     </row>
-    <row r="60" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:13" ht="15.95" customHeight="1">
       <c r="B60" s="34"/>
       <c r="C60" s="34"/>
       <c r="D60" s="34"/>
@@ -8142,7 +8399,7 @@
       <c r="K60" s="34"/>
       <c r="L60" s="34"/>
     </row>
-    <row r="61" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:13" ht="15.95" customHeight="1">
       <c r="B61" s="34"/>
       <c r="C61" s="34"/>
       <c r="D61" s="34"/>
@@ -8155,7 +8412,7 @@
       <c r="K61" s="34"/>
       <c r="L61" s="34"/>
     </row>
-    <row r="62" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:13" ht="15.95" customHeight="1">
       <c r="B62" s="34"/>
       <c r="C62" s="34"/>
       <c r="D62" s="34"/>
@@ -8168,7 +8425,7 @@
       <c r="K62" s="34"/>
       <c r="L62" s="34"/>
     </row>
-    <row r="63" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:13" ht="15.95" customHeight="1">
       <c r="B63" s="34"/>
       <c r="C63" s="34"/>
       <c r="D63" s="34"/>
@@ -8181,7 +8438,7 @@
       <c r="K63" s="34"/>
       <c r="L63" s="34"/>
     </row>
-    <row r="64" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:13" ht="15.95" customHeight="1">
       <c r="B64" s="34"/>
       <c r="C64" s="34"/>
       <c r="D64" s="34"/>
@@ -8194,7 +8451,7 @@
       <c r="K64" s="34"/>
       <c r="L64" s="34"/>
     </row>
-    <row r="65" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:12" ht="15.95" customHeight="1">
       <c r="B65" s="34"/>
       <c r="C65" s="34"/>
       <c r="D65" s="34"/>
@@ -8207,7 +8464,7 @@
       <c r="K65" s="34"/>
       <c r="L65" s="34"/>
     </row>
-    <row r="66" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:12" ht="15.95" customHeight="1">
       <c r="B66" s="34"/>
       <c r="C66" s="34"/>
       <c r="D66" s="34"/>
@@ -8220,7 +8477,7 @@
       <c r="K66" s="34"/>
       <c r="L66" s="34"/>
     </row>
-    <row r="67" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" ht="15.95" customHeight="1">
       <c r="B67" s="34"/>
       <c r="C67" s="34"/>
       <c r="D67" s="34"/>
@@ -8233,7 +8490,7 @@
       <c r="K67" s="34"/>
       <c r="L67" s="34"/>
     </row>
-    <row r="68" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:12" ht="15.95" customHeight="1">
       <c r="B68" s="34"/>
       <c r="C68" s="34"/>
       <c r="D68" s="34"/>
@@ -8246,7 +8503,7 @@
       <c r="K68" s="34"/>
       <c r="L68" s="34"/>
     </row>
-    <row r="69" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:12" ht="15.95" customHeight="1">
       <c r="B69" s="34"/>
       <c r="C69" s="34"/>
       <c r="D69" s="34"/>
@@ -8259,7 +8516,7 @@
       <c r="K69" s="34"/>
       <c r="L69" s="34"/>
     </row>
-    <row r="70" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:12" ht="15.95" customHeight="1">
       <c r="B70" s="34"/>
       <c r="C70" s="34"/>
       <c r="D70" s="34"/>
@@ -8272,7 +8529,7 @@
       <c r="K70" s="34"/>
       <c r="L70" s="34"/>
     </row>
-    <row r="71" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:12" ht="15.95" customHeight="1">
       <c r="B71" s="34"/>
       <c r="C71" s="34"/>
       <c r="D71" s="34"/>
@@ -8285,7 +8542,7 @@
       <c r="K71" s="34"/>
       <c r="L71" s="34"/>
     </row>
-    <row r="72" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:12" ht="15.95" customHeight="1">
       <c r="B72" s="34"/>
       <c r="C72" s="34"/>
       <c r="D72" s="34"/>
@@ -8298,7 +8555,7 @@
       <c r="K72" s="34"/>
       <c r="L72" s="34"/>
     </row>
-    <row r="73" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" ht="15.95" customHeight="1">
       <c r="B73" s="34"/>
       <c r="C73" s="34"/>
       <c r="D73" s="34"/>
@@ -8311,7 +8568,7 @@
       <c r="K73" s="34"/>
       <c r="L73" s="34"/>
     </row>
-    <row r="74" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:12" ht="15.95" customHeight="1">
       <c r="B74" s="34"/>
       <c r="C74" s="34"/>
       <c r="D74" s="34"/>
@@ -8324,7 +8581,7 @@
       <c r="K74" s="34"/>
       <c r="L74" s="34"/>
     </row>
-    <row r="75" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:12" ht="15.95" customHeight="1">
       <c r="B75" s="34"/>
       <c r="C75" s="34"/>
       <c r="D75" s="34"/>
@@ -8337,7 +8594,7 @@
       <c r="K75" s="34"/>
       <c r="L75" s="34"/>
     </row>
-    <row r="76" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:12" ht="15.95" customHeight="1">
       <c r="B76" s="34"/>
       <c r="C76" s="34"/>
       <c r="D76" s="34"/>
@@ -8350,7 +8607,7 @@
       <c r="K76" s="34"/>
       <c r="L76" s="34"/>
     </row>
-    <row r="77" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" ht="15.95" customHeight="1">
       <c r="B77" s="34"/>
       <c r="C77" s="34"/>
       <c r="D77" s="34"/>
@@ -8363,7 +8620,7 @@
       <c r="K77" s="34"/>
       <c r="L77" s="34"/>
     </row>
-    <row r="78" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:12" ht="15.95" customHeight="1">
       <c r="B78" s="34"/>
       <c r="C78" s="34"/>
       <c r="D78" s="34"/>
@@ -8376,7 +8633,7 @@
       <c r="K78" s="34"/>
       <c r="L78" s="34"/>
     </row>
-    <row r="79" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:12" ht="15.95" customHeight="1">
       <c r="B79" s="34"/>
       <c r="C79" s="34"/>
       <c r="D79" s="34"/>
@@ -8389,7 +8646,7 @@
       <c r="K79" s="34"/>
       <c r="L79" s="34"/>
     </row>
-    <row r="80" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" ht="15.95" customHeight="1">
       <c r="B80" s="34"/>
       <c r="C80" s="34"/>
       <c r="D80" s="34"/>
@@ -8402,7 +8659,7 @@
       <c r="K80" s="34"/>
       <c r="L80" s="34"/>
     </row>
-    <row r="81" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:12" ht="15.95" customHeight="1">
       <c r="B81" s="34"/>
       <c r="C81" s="34"/>
       <c r="D81" s="34"/>
@@ -8415,7 +8672,7 @@
       <c r="K81" s="34"/>
       <c r="L81" s="34"/>
     </row>
-    <row r="82" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:12" ht="15.95" customHeight="1">
       <c r="B82" s="34"/>
       <c r="C82" s="34"/>
       <c r="D82" s="34"/>
@@ -8428,7 +8685,7 @@
       <c r="K82" s="34"/>
       <c r="L82" s="34"/>
     </row>
-    <row r="83" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:12" ht="15.95" customHeight="1">
       <c r="B83" s="34"/>
       <c r="C83" s="34"/>
       <c r="D83" s="34"/>
@@ -8441,7 +8698,7 @@
       <c r="K83" s="34"/>
       <c r="L83" s="34"/>
     </row>
-    <row r="84" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:12" ht="15.95" customHeight="1">
       <c r="B84" s="34"/>
       <c r="C84" s="34"/>
       <c r="D84" s="34"/>
@@ -8454,7 +8711,7 @@
       <c r="K84" s="34"/>
       <c r="L84" s="34"/>
     </row>
-    <row r="85" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:12" ht="15.95" customHeight="1">
       <c r="B85" s="34"/>
       <c r="C85" s="34"/>
       <c r="D85" s="34"/>
@@ -8467,7 +8724,7 @@
       <c r="K85" s="34"/>
       <c r="L85" s="34"/>
     </row>
-    <row r="86" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:12" ht="15.95" customHeight="1">
       <c r="B86" s="34"/>
       <c r="C86" s="34"/>
       <c r="D86" s="34"/>
@@ -8480,7 +8737,7 @@
       <c r="K86" s="34"/>
       <c r="L86" s="34"/>
     </row>
-    <row r="87" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:12" ht="15.95" customHeight="1">
       <c r="B87" s="34"/>
       <c r="C87" s="34"/>
       <c r="D87" s="34"/>
@@ -8493,7 +8750,7 @@
       <c r="K87" s="34"/>
       <c r="L87" s="34"/>
     </row>
-    <row r="88" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:12" ht="15.95" customHeight="1">
       <c r="B88" s="34"/>
       <c r="C88" s="34"/>
       <c r="D88" s="34"/>
@@ -8506,7 +8763,7 @@
       <c r="K88" s="34"/>
       <c r="L88" s="34"/>
     </row>
-    <row r="89" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:12" ht="15.95" customHeight="1">
       <c r="B89" s="34"/>
       <c r="C89" s="34"/>
       <c r="D89" s="34"/>
@@ -8519,7 +8776,7 @@
       <c r="K89" s="34"/>
       <c r="L89" s="34"/>
     </row>
-    <row r="90" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:12" ht="15.95" customHeight="1">
       <c r="B90" s="34"/>
       <c r="C90" s="34"/>
       <c r="D90" s="34"/>
@@ -8532,7 +8789,7 @@
       <c r="K90" s="34"/>
       <c r="L90" s="34"/>
     </row>
-    <row r="91" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:12" ht="15.95" customHeight="1">
       <c r="B91" s="34"/>
       <c r="C91" s="34"/>
       <c r="D91" s="34"/>
@@ -8545,7 +8802,7 @@
       <c r="K91" s="34"/>
       <c r="L91" s="34"/>
     </row>
-    <row r="92" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:12" ht="15.95" customHeight="1">
       <c r="B92" s="34"/>
       <c r="C92" s="34"/>
       <c r="D92" s="34"/>
@@ -8558,7 +8815,7 @@
       <c r="K92" s="34"/>
       <c r="L92" s="34"/>
     </row>
-    <row r="93" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:12" ht="15.95" customHeight="1">
       <c r="B93" s="34"/>
       <c r="C93" s="34"/>
       <c r="D93" s="34"/>
@@ -8571,7 +8828,7 @@
       <c r="K93" s="34"/>
       <c r="L93" s="34"/>
     </row>
-    <row r="94" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:12" ht="15.95" customHeight="1">
       <c r="B94" s="34"/>
       <c r="C94" s="34"/>
       <c r="D94" s="34"/>
@@ -8584,7 +8841,7 @@
       <c r="K94" s="34"/>
       <c r="L94" s="34"/>
     </row>
-    <row r="95" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:12" ht="15.95" customHeight="1">
       <c r="B95" s="34"/>
       <c r="C95" s="34"/>
       <c r="D95" s="34"/>
@@ -8597,7 +8854,7 @@
       <c r="K95" s="34"/>
       <c r="L95" s="34"/>
     </row>
-    <row r="96" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:12" ht="15.95" customHeight="1">
       <c r="B96" s="34"/>
       <c r="C96" s="34"/>
       <c r="D96" s="34"/>
@@ -8610,32 +8867,57 @@
       <c r="K96" s="34"/>
       <c r="L96" s="34"/>
     </row>
+    <row r="97" spans="2:12" ht="15.95" customHeight="1">
+      <c r="B97" s="34"/>
+      <c r="C97" s="34"/>
+      <c r="D97" s="34"/>
+      <c r="E97" s="34"/>
+      <c r="F97" s="34"/>
+      <c r="G97" s="34"/>
+      <c r="H97" s="34"/>
+      <c r="I97" s="34"/>
+      <c r="J97" s="34"/>
+      <c r="K97" s="34"/>
+      <c r="L97" s="34"/>
+    </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="K31:O31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="C23:J30"/>
-    <mergeCell ref="K23:O30"/>
-    <mergeCell ref="P23:Q30"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="K20:O20"/>
-    <mergeCell ref="K21:O21"/>
+  <mergeCells count="36">
+    <mergeCell ref="C33:J36"/>
+    <mergeCell ref="K33:O36"/>
+    <mergeCell ref="P33:Q36"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="B25:B31"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="E22:J22"/>
     <mergeCell ref="K22:O22"/>
-    <mergeCell ref="P14:Q16"/>
-    <mergeCell ref="P17:Q19"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="P20:Q22"/>
+    <mergeCell ref="K24:O24"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="C23:D24"/>
     <mergeCell ref="B3:O10"/>
     <mergeCell ref="C14:J16"/>
     <mergeCell ref="C17:J19"/>
     <mergeCell ref="K17:O19"/>
     <mergeCell ref="K14:O16"/>
+    <mergeCell ref="P14:Q16"/>
+    <mergeCell ref="P17:Q19"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="P20:Q24"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="K20:O20"/>
+    <mergeCell ref="K21:O21"/>
+    <mergeCell ref="K23:O23"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="K32:O32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="C25:J31"/>
+    <mergeCell ref="K25:O31"/>
+    <mergeCell ref="P25:Q31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/日语.xlsx
+++ b/日语.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Self\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shen_chao.pfu\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="24885" windowHeight="15555" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="24885" windowHeight="15555" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="动词形态" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="228">
   <si>
     <t>三类动词</t>
     <rPh sb="0" eb="1">
@@ -4137,6 +4137,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>名词做连体修饰语时后面直接接「の」，Ⅰ类形容词的简体形式可以直接做连体修饰语，Ⅱ类形容词做连体修饰语时，是词干后面接「な」。动词的简体形式都可以作为连体修饰语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="14"/>
@@ -4195,19 +4199,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>连接用言</t>
+    <rPh sb="0" eb="1">
+      <t>gu ming si yilian jieyong yan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>词尾的「い」变成「く」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>词尾的「い」变成「く」再后续「て」</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>词尾的「い」变成「く」</t>
+    <t>形容动词词干后加「に」</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>形容动词词干后加「で」</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>形容动词词干后加「に」</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4244,27 +4255,6 @@
       </rPr>
       <t>　安静又宽敞的房间</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>连接体言</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名词做连体修饰语时后面直接接「の」，Ⅰ类形容词的简体形式可以直接做连体修饰语，Ⅱ类形容词做连体修饰语时，是词干后面接「な」。动词的简体形式都可以作为连体修饰语</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>连接用言</t>
-    <rPh sb="0" eb="1">
-      <t>gu ming si yi</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>lian jie</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>yong yan</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4557,7 +4547,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -4643,11 +4633,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4743,26 +4744,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4773,38 +4768,35 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4828,34 +4820,52 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5139,8 +5149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15"/>
@@ -5568,17 +5578,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M51"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="3" spans="1:10" ht="27.75">
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="42"/>
+      <c r="C3" s="52"/>
     </row>
     <row r="4" spans="1:10" ht="18">
       <c r="A4" s="14"/>
@@ -5594,33 +5604,33 @@
     </row>
     <row r="5" spans="1:10" ht="18">
       <c r="A5" s="14"/>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
     </row>
     <row r="6" spans="1:10" ht="18">
       <c r="A6" s="14"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="44" t="s">
+      <c r="B6" s="54"/>
+      <c r="C6" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44" t="s">
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
     </row>
@@ -5629,16 +5639,16 @@
       <c r="B7" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39" t="s">
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
     </row>
@@ -5647,16 +5657,16 @@
       <c r="B8" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39" t="s">
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
     </row>
@@ -5686,83 +5696,83 @@
     </row>
     <row r="11" spans="1:10" ht="18">
       <c r="A11" s="14"/>
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
     </row>
     <row r="12" spans="1:10" ht="18">
       <c r="A12" s="14"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="44" t="s">
+      <c r="B12" s="41"/>
+      <c r="C12" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="46" t="s">
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="48"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="46"/>
     </row>
     <row r="13" spans="1:10" ht="18">
       <c r="A13" s="14"/>
       <c r="B13" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="C13" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39" t="s">
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
     </row>
     <row r="14" spans="1:10" ht="18">
       <c r="A14" s="14"/>
       <c r="B14" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="50" t="s">
+      <c r="C14" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="50" t="s">
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
     </row>
     <row r="15" spans="1:10" ht="18">
       <c r="A15" s="14"/>
       <c r="B15" s="49"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
     </row>
     <row r="16" spans="1:10" ht="18">
       <c r="A16" s="14"/>
@@ -5781,11 +5791,11 @@
       <c r="B17" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="C17" s="51" t="s">
+      <c r="C17" s="55" t="s">
         <v>169</v>
       </c>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14" t="s">
         <v>170</v>
@@ -5811,15 +5821,15 @@
       <c r="B19" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="47" t="s">
         <v>171</v>
       </c>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
       <c r="J19" s="14"/>
     </row>
     <row r="20" spans="1:10" ht="18">
@@ -5875,10 +5885,10 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="27.75">
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="42"/>
+      <c r="C29" s="52"/>
     </row>
     <row r="30" spans="1:10" ht="18.75">
       <c r="B30" s="14" t="s">
@@ -5894,32 +5904,32 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="43" t="s">
+      <c r="C32" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
       <c r="I32" s="14"/>
       <c r="J32" s="14"/>
     </row>
     <row r="33" spans="2:13" ht="21" customHeight="1">
-      <c r="B33" s="41"/>
-      <c r="C33" s="44" t="s">
+      <c r="B33" s="54"/>
+      <c r="C33" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44" t="s">
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
       <c r="I33" s="14"/>
       <c r="J33" s="14"/>
     </row>
@@ -5927,16 +5937,16 @@
       <c r="B34" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="39" t="s">
+      <c r="C34" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39" t="s">
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
       <c r="I34" s="14"/>
       <c r="J34" s="14"/>
     </row>
@@ -5944,16 +5954,16 @@
       <c r="B35" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="39" t="s">
+      <c r="C35" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="39" t="s">
+      <c r="D35" s="47"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="47"/>
       <c r="I35" s="14"/>
       <c r="J35" s="14"/>
     </row>
@@ -5980,79 +5990,79 @@
       <c r="J37" s="14"/>
     </row>
     <row r="38" spans="2:13" ht="21" customHeight="1">
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="43" t="s">
+      <c r="C38" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="43"/>
-      <c r="J38" s="43"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="42"/>
     </row>
     <row r="39" spans="2:13" ht="20.100000000000001" customHeight="1">
-      <c r="B39" s="45"/>
-      <c r="C39" s="44" t="s">
+      <c r="B39" s="41"/>
+      <c r="C39" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="46" t="s">
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="H39" s="47"/>
-      <c r="I39" s="47"/>
-      <c r="J39" s="48"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="46"/>
     </row>
     <row r="40" spans="2:13" ht="23.1" customHeight="1">
       <c r="B40" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C40" s="52" t="s">
+      <c r="C40" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="D40" s="52"/>
-      <c r="E40" s="52"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="52" t="s">
+      <c r="D40" s="48"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="H40" s="52"/>
-      <c r="I40" s="52"/>
-      <c r="J40" s="52"/>
+      <c r="H40" s="48"/>
+      <c r="I40" s="48"/>
+      <c r="J40" s="48"/>
     </row>
     <row r="41" spans="2:13" ht="21" customHeight="1">
       <c r="B41" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="53" t="s">
+      <c r="C41" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="D41" s="52"/>
-      <c r="E41" s="52"/>
-      <c r="F41" s="52"/>
-      <c r="G41" s="53" t="s">
+      <c r="D41" s="48"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="H41" s="52"/>
-      <c r="I41" s="52"/>
-      <c r="J41" s="52"/>
+      <c r="H41" s="48"/>
+      <c r="I41" s="48"/>
+      <c r="J41" s="48"/>
     </row>
     <row r="42" spans="2:13" ht="21" customHeight="1">
       <c r="B42" s="49"/>
-      <c r="C42" s="52"/>
-      <c r="D42" s="52"/>
-      <c r="E42" s="52"/>
-      <c r="F42" s="52"/>
-      <c r="G42" s="52"/>
-      <c r="H42" s="52"/>
-      <c r="I42" s="52"/>
-      <c r="J42" s="52"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="48"/>
+      <c r="I42" s="48"/>
+      <c r="J42" s="48"/>
       <c r="K42" t="s">
         <v>74</v>
       </c>
@@ -6112,19 +6122,21 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:F42"/>
-    <mergeCell ref="G41:J42"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="G13:J13"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:F15"/>
     <mergeCell ref="G14:J15"/>
@@ -6135,21 +6147,19 @@
     <mergeCell ref="F33:H33"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="C19:I19"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:F42"/>
+    <mergeCell ref="G41:J42"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="F35:H35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6160,32 +6170,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="2:14" ht="15.95" customHeight="1">
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
       <c r="I1" s="21"/>
     </row>
     <row r="2" spans="2:14" ht="15.95" customHeight="1">
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
       <c r="I2" s="21"/>
     </row>
     <row r="3" spans="2:14" ht="18">
@@ -6203,16 +6213,16 @@
       <c r="D4" s="14"/>
     </row>
     <row r="6" spans="2:14">
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
     </row>
     <row r="8" spans="2:14" ht="18">
       <c r="B8" s="14" t="s">
@@ -6427,261 +6437,261 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
-      <c r="J20" s="60" t="s">
+      <c r="J20" s="57" t="s">
         <v>125</v>
       </c>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="60"/>
-      <c r="O20" s="60"/>
-      <c r="P20" s="60"/>
-      <c r="Q20" s="60"/>
-      <c r="R20" s="60"/>
-      <c r="S20" s="60"/>
-      <c r="T20" s="60"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="57"/>
+      <c r="P20" s="57"/>
+      <c r="Q20" s="57"/>
+      <c r="R20" s="57"/>
+      <c r="S20" s="57"/>
+      <c r="T20" s="57"/>
     </row>
     <row r="21" spans="2:20" ht="15.95" customHeight="1">
-      <c r="B21" s="66" t="s">
+      <c r="B21" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="C21" s="59" t="s">
+      <c r="C21" s="66" t="s">
         <v>116</v>
       </c>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
       <c r="I21" s="22"/>
-      <c r="J21" s="65" t="s">
+      <c r="J21" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="K21" s="57" t="s">
+      <c r="K21" s="64" t="s">
         <v>130</v>
       </c>
-      <c r="L21" s="57"/>
-      <c r="M21" s="57"/>
-      <c r="N21" s="57"/>
-      <c r="O21" s="57"/>
-      <c r="P21" s="57"/>
+      <c r="L21" s="64"/>
+      <c r="M21" s="64"/>
+      <c r="N21" s="64"/>
+      <c r="O21" s="64"/>
+      <c r="P21" s="64"/>
       <c r="Q21" s="56"/>
       <c r="R21" s="56"/>
       <c r="S21" s="56"/>
       <c r="T21" s="56"/>
     </row>
     <row r="22" spans="2:20" ht="18">
-      <c r="B22" s="66"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
       <c r="I22" s="22"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="57"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="64"/>
+      <c r="O22" s="64"/>
+      <c r="P22" s="64"/>
       <c r="Q22" s="56"/>
       <c r="R22" s="56"/>
       <c r="S22" s="56"/>
       <c r="T22" s="56"/>
     </row>
     <row r="23" spans="2:20" ht="21" customHeight="1">
-      <c r="B23" s="66"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
       <c r="I23" s="22"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="57"/>
-      <c r="L23" s="57"/>
-      <c r="M23" s="57"/>
-      <c r="N23" s="57"/>
-      <c r="O23" s="57"/>
-      <c r="P23" s="57"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="64"/>
+      <c r="M23" s="64"/>
+      <c r="N23" s="64"/>
+      <c r="O23" s="64"/>
+      <c r="P23" s="64"/>
       <c r="Q23" s="56"/>
       <c r="R23" s="56"/>
       <c r="S23" s="56"/>
       <c r="T23" s="56"/>
     </row>
     <row r="24" spans="2:20" ht="15.95" customHeight="1">
-      <c r="B24" s="62" t="s">
+      <c r="B24" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="C24" s="59" t="s">
+      <c r="C24" s="66" t="s">
         <v>119</v>
       </c>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
       <c r="I24" s="22"/>
-      <c r="J24" s="62" t="s">
+      <c r="J24" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="K24" s="57" t="s">
+      <c r="K24" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="L24" s="57"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="57"/>
-      <c r="O24" s="57"/>
-      <c r="P24" s="57"/>
-      <c r="Q24" s="55" t="s">
+      <c r="L24" s="64"/>
+      <c r="M24" s="64"/>
+      <c r="N24" s="64"/>
+      <c r="O24" s="64"/>
+      <c r="P24" s="64"/>
+      <c r="Q24" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="R24" s="55"/>
-      <c r="S24" s="55"/>
-      <c r="T24" s="55"/>
+      <c r="R24" s="68"/>
+      <c r="S24" s="68"/>
+      <c r="T24" s="68"/>
     </row>
     <row r="25" spans="2:20" ht="18">
-      <c r="B25" s="62"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
       <c r="I25" s="22"/>
-      <c r="J25" s="62"/>
-      <c r="K25" s="57"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="57"/>
-      <c r="N25" s="57"/>
-      <c r="O25" s="57"/>
-      <c r="P25" s="57"/>
-      <c r="Q25" s="55"/>
-      <c r="R25" s="55"/>
-      <c r="S25" s="55"/>
-      <c r="T25" s="55"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="64"/>
+      <c r="L25" s="64"/>
+      <c r="M25" s="64"/>
+      <c r="N25" s="64"/>
+      <c r="O25" s="64"/>
+      <c r="P25" s="64"/>
+      <c r="Q25" s="68"/>
+      <c r="R25" s="68"/>
+      <c r="S25" s="68"/>
+      <c r="T25" s="68"/>
     </row>
     <row r="26" spans="2:20" ht="21.95" customHeight="1">
-      <c r="B26" s="62"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="66"/>
       <c r="I26" s="22"/>
-      <c r="J26" s="62"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="57"/>
-      <c r="N26" s="57"/>
-      <c r="O26" s="57"/>
-      <c r="P26" s="57"/>
-      <c r="Q26" s="55"/>
-      <c r="R26" s="55"/>
-      <c r="S26" s="55"/>
-      <c r="T26" s="55"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="64"/>
+      <c r="L26" s="64"/>
+      <c r="M26" s="64"/>
+      <c r="N26" s="64"/>
+      <c r="O26" s="64"/>
+      <c r="P26" s="64"/>
+      <c r="Q26" s="68"/>
+      <c r="R26" s="68"/>
+      <c r="S26" s="68"/>
+      <c r="T26" s="68"/>
     </row>
     <row r="27" spans="2:20" ht="15.95" customHeight="1">
-      <c r="B27" s="58" t="s">
+      <c r="B27" s="65" t="s">
         <v>121</v>
       </c>
-      <c r="C27" s="61" t="s">
+      <c r="C27" s="58" t="s">
         <v>122</v>
       </c>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
       <c r="I27" s="23"/>
-      <c r="J27" s="62" t="s">
+      <c r="J27" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="K27" s="57" t="s">
+      <c r="K27" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="L27" s="57"/>
-      <c r="M27" s="57"/>
-      <c r="N27" s="57"/>
-      <c r="O27" s="57"/>
-      <c r="P27" s="57"/>
-      <c r="Q27" s="64" t="s">
+      <c r="L27" s="64"/>
+      <c r="M27" s="64"/>
+      <c r="N27" s="64"/>
+      <c r="O27" s="64"/>
+      <c r="P27" s="64"/>
+      <c r="Q27" s="61" t="s">
         <v>133</v>
       </c>
-      <c r="R27" s="64"/>
-      <c r="S27" s="64"/>
-      <c r="T27" s="64"/>
+      <c r="R27" s="61"/>
+      <c r="S27" s="61"/>
+      <c r="T27" s="61"/>
     </row>
     <row r="28" spans="2:20" ht="20.100000000000001" customHeight="1">
-      <c r="B28" s="58"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
       <c r="I28" s="23"/>
-      <c r="J28" s="62"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="57"/>
-      <c r="N28" s="57"/>
-      <c r="O28" s="57"/>
-      <c r="P28" s="57"/>
-      <c r="Q28" s="64"/>
-      <c r="R28" s="64"/>
-      <c r="S28" s="64"/>
-      <c r="T28" s="64"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="64"/>
+      <c r="M28" s="64"/>
+      <c r="N28" s="64"/>
+      <c r="O28" s="64"/>
+      <c r="P28" s="64"/>
+      <c r="Q28" s="61"/>
+      <c r="R28" s="61"/>
+      <c r="S28" s="61"/>
+      <c r="T28" s="61"/>
     </row>
     <row r="29" spans="2:20" ht="21" customHeight="1">
-      <c r="B29" s="58" t="s">
+      <c r="B29" s="65" t="s">
         <v>123</v>
       </c>
-      <c r="C29" s="59" t="s">
+      <c r="C29" s="66" t="s">
         <v>124</v>
       </c>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="66"/>
       <c r="I29" s="22"/>
-      <c r="J29" s="62"/>
-      <c r="K29" s="57"/>
-      <c r="L29" s="57"/>
-      <c r="M29" s="57"/>
-      <c r="N29" s="57"/>
-      <c r="O29" s="57"/>
-      <c r="P29" s="57"/>
-      <c r="Q29" s="64"/>
-      <c r="R29" s="64"/>
-      <c r="S29" s="64"/>
-      <c r="T29" s="64"/>
+      <c r="J29" s="59"/>
+      <c r="K29" s="64"/>
+      <c r="L29" s="64"/>
+      <c r="M29" s="64"/>
+      <c r="N29" s="64"/>
+      <c r="O29" s="64"/>
+      <c r="P29" s="64"/>
+      <c r="Q29" s="61"/>
+      <c r="R29" s="61"/>
+      <c r="S29" s="61"/>
+      <c r="T29" s="61"/>
     </row>
     <row r="30" spans="2:20" ht="23.1" customHeight="1">
-      <c r="B30" s="58"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="66"/>
       <c r="I30" s="22"/>
-      <c r="J30" s="62"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="57"/>
-      <c r="M30" s="57"/>
-      <c r="N30" s="57"/>
-      <c r="O30" s="57"/>
-      <c r="P30" s="57"/>
-      <c r="Q30" s="64"/>
-      <c r="R30" s="64"/>
-      <c r="S30" s="64"/>
-      <c r="T30" s="64"/>
+      <c r="J30" s="59"/>
+      <c r="K30" s="64"/>
+      <c r="L30" s="64"/>
+      <c r="M30" s="64"/>
+      <c r="N30" s="64"/>
+      <c r="O30" s="64"/>
+      <c r="P30" s="64"/>
+      <c r="Q30" s="61"/>
+      <c r="R30" s="61"/>
+      <c r="S30" s="61"/>
+      <c r="T30" s="61"/>
     </row>
     <row r="31" spans="2:20" ht="18">
       <c r="B31" s="14"/>
@@ -6692,17 +6702,17 @@
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
-      <c r="J31" s="62"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="57"/>
-      <c r="M31" s="57"/>
-      <c r="N31" s="57"/>
-      <c r="O31" s="57"/>
-      <c r="P31" s="57"/>
-      <c r="Q31" s="64"/>
-      <c r="R31" s="64"/>
-      <c r="S31" s="64"/>
-      <c r="T31" s="64"/>
+      <c r="J31" s="59"/>
+      <c r="K31" s="64"/>
+      <c r="L31" s="64"/>
+      <c r="M31" s="64"/>
+      <c r="N31" s="64"/>
+      <c r="O31" s="64"/>
+      <c r="P31" s="64"/>
+      <c r="Q31" s="61"/>
+      <c r="R31" s="61"/>
+      <c r="S31" s="61"/>
+      <c r="T31" s="61"/>
     </row>
     <row r="32" spans="2:20" ht="18" customHeight="1">
       <c r="B32" s="14"/>
@@ -6713,17 +6723,17 @@
       <c r="G32" s="14"/>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
-      <c r="J32" s="62" t="s">
+      <c r="J32" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="K32" s="61" t="s">
+      <c r="K32" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="L32" s="61"/>
-      <c r="M32" s="61"/>
-      <c r="N32" s="61"/>
-      <c r="O32" s="61"/>
-      <c r="P32" s="61"/>
+      <c r="L32" s="58"/>
+      <c r="M32" s="58"/>
+      <c r="N32" s="58"/>
+      <c r="O32" s="58"/>
+      <c r="P32" s="58"/>
       <c r="Q32" s="56"/>
       <c r="R32" s="56"/>
       <c r="S32" s="56"/>
@@ -6740,112 +6750,112 @@
       <c r="G33" s="26"/>
       <c r="H33" s="26"/>
       <c r="I33" s="26"/>
-      <c r="J33" s="62"/>
-      <c r="K33" s="61"/>
-      <c r="L33" s="61"/>
-      <c r="M33" s="61"/>
-      <c r="N33" s="61"/>
-      <c r="O33" s="61"/>
-      <c r="P33" s="61"/>
+      <c r="J33" s="59"/>
+      <c r="K33" s="58"/>
+      <c r="L33" s="58"/>
+      <c r="M33" s="58"/>
+      <c r="N33" s="58"/>
+      <c r="O33" s="58"/>
+      <c r="P33" s="58"/>
       <c r="Q33" s="56"/>
       <c r="R33" s="56"/>
       <c r="S33" s="56"/>
       <c r="T33" s="56"/>
     </row>
     <row r="34" spans="2:20" ht="15.95" customHeight="1">
-      <c r="B34" s="63" t="s">
+      <c r="B34" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="C34" s="63"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="63"/>
-      <c r="F34" s="63"/>
-      <c r="G34" s="63"/>
-      <c r="H34" s="63"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="60"/>
       <c r="I34" s="26"/>
-      <c r="J34" s="62"/>
-      <c r="K34" s="61"/>
-      <c r="L34" s="61"/>
-      <c r="M34" s="61"/>
-      <c r="N34" s="61"/>
-      <c r="O34" s="61"/>
-      <c r="P34" s="61"/>
+      <c r="J34" s="59"/>
+      <c r="K34" s="58"/>
+      <c r="L34" s="58"/>
+      <c r="M34" s="58"/>
+      <c r="N34" s="58"/>
+      <c r="O34" s="58"/>
+      <c r="P34" s="58"/>
       <c r="Q34" s="56"/>
       <c r="R34" s="56"/>
       <c r="S34" s="56"/>
       <c r="T34" s="56"/>
     </row>
     <row r="35" spans="2:20" ht="15.95" customHeight="1">
-      <c r="B35" s="63"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="63"/>
-      <c r="F35" s="63"/>
-      <c r="G35" s="63"/>
-      <c r="H35" s="63"/>
+      <c r="B35" s="60"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
       <c r="I35" s="26"/>
-      <c r="J35" s="62"/>
-      <c r="K35" s="61"/>
-      <c r="L35" s="61"/>
-      <c r="M35" s="61"/>
-      <c r="N35" s="61"/>
-      <c r="O35" s="61"/>
-      <c r="P35" s="61"/>
+      <c r="J35" s="59"/>
+      <c r="K35" s="58"/>
+      <c r="L35" s="58"/>
+      <c r="M35" s="58"/>
+      <c r="N35" s="58"/>
+      <c r="O35" s="58"/>
+      <c r="P35" s="58"/>
       <c r="Q35" s="56"/>
       <c r="R35" s="56"/>
       <c r="S35" s="56"/>
       <c r="T35" s="56"/>
     </row>
     <row r="36" spans="2:20" ht="15.95" customHeight="1">
-      <c r="B36" s="63"/>
-      <c r="C36" s="63"/>
-      <c r="D36" s="63"/>
-      <c r="E36" s="63"/>
-      <c r="F36" s="63"/>
-      <c r="G36" s="63"/>
-      <c r="H36" s="63"/>
+      <c r="B36" s="60"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
       <c r="I36" s="26"/>
-      <c r="J36" s="62"/>
-      <c r="K36" s="61"/>
-      <c r="L36" s="61"/>
-      <c r="M36" s="61"/>
-      <c r="N36" s="61"/>
-      <c r="O36" s="61"/>
-      <c r="P36" s="61"/>
+      <c r="J36" s="59"/>
+      <c r="K36" s="58"/>
+      <c r="L36" s="58"/>
+      <c r="M36" s="58"/>
+      <c r="N36" s="58"/>
+      <c r="O36" s="58"/>
+      <c r="P36" s="58"/>
       <c r="Q36" s="56"/>
       <c r="R36" s="56"/>
       <c r="S36" s="56"/>
       <c r="T36" s="56"/>
     </row>
     <row r="37" spans="2:20" ht="15.95" customHeight="1">
-      <c r="B37" s="63"/>
-      <c r="C37" s="63"/>
-      <c r="D37" s="63"/>
-      <c r="E37" s="63"/>
-      <c r="F37" s="63"/>
-      <c r="G37" s="63"/>
-      <c r="H37" s="63"/>
+      <c r="B37" s="60"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="60"/>
       <c r="I37" s="26"/>
-      <c r="J37" s="62"/>
-      <c r="K37" s="61"/>
-      <c r="L37" s="61"/>
-      <c r="M37" s="61"/>
-      <c r="N37" s="61"/>
-      <c r="O37" s="61"/>
-      <c r="P37" s="61"/>
+      <c r="J37" s="59"/>
+      <c r="K37" s="58"/>
+      <c r="L37" s="58"/>
+      <c r="M37" s="58"/>
+      <c r="N37" s="58"/>
+      <c r="O37" s="58"/>
+      <c r="P37" s="58"/>
       <c r="Q37" s="56"/>
       <c r="R37" s="56"/>
       <c r="S37" s="56"/>
       <c r="T37" s="56"/>
     </row>
     <row r="38" spans="2:20" ht="15.95" customHeight="1">
-      <c r="B38" s="63"/>
-      <c r="C38" s="63"/>
-      <c r="D38" s="63"/>
-      <c r="E38" s="63"/>
-      <c r="F38" s="63"/>
-      <c r="G38" s="63"/>
-      <c r="H38" s="63"/>
+      <c r="B38" s="60"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="60"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="60"/>
       <c r="I38" s="26"/>
       <c r="K38" s="24"/>
       <c r="L38" s="24"/>
@@ -6856,13 +6866,13 @@
       <c r="Q38" s="24"/>
     </row>
     <row r="39" spans="2:20" ht="15.95" customHeight="1">
-      <c r="B39" s="63"/>
-      <c r="C39" s="63"/>
-      <c r="D39" s="63"/>
-      <c r="E39" s="63"/>
-      <c r="F39" s="63"/>
-      <c r="G39" s="63"/>
-      <c r="H39" s="63"/>
+      <c r="B39" s="60"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="60"/>
+      <c r="H39" s="60"/>
       <c r="I39" s="26"/>
       <c r="J39" s="20"/>
       <c r="K39" s="20"/>
@@ -6874,13 +6884,13 @@
       <c r="Q39" s="24"/>
     </row>
     <row r="40" spans="2:20" ht="20.25">
-      <c r="B40" s="63"/>
-      <c r="C40" s="63"/>
-      <c r="D40" s="63"/>
-      <c r="E40" s="63"/>
-      <c r="F40" s="63"/>
-      <c r="G40" s="63"/>
-      <c r="H40" s="63"/>
+      <c r="B40" s="60"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="60"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="60"/>
       <c r="I40" s="26"/>
       <c r="J40" s="20"/>
       <c r="K40" s="20"/>
@@ -6888,13 +6898,13 @@
       <c r="M40" s="20"/>
     </row>
     <row r="41" spans="2:20" ht="20.25">
-      <c r="B41" s="63"/>
-      <c r="C41" s="63"/>
-      <c r="D41" s="63"/>
-      <c r="E41" s="63"/>
-      <c r="F41" s="63"/>
-      <c r="G41" s="63"/>
-      <c r="H41" s="63"/>
+      <c r="B41" s="60"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="60"/>
+      <c r="H41" s="60"/>
       <c r="I41" s="26"/>
       <c r="J41" s="20"/>
       <c r="K41" s="20"/>
@@ -6902,13 +6912,13 @@
       <c r="M41" s="20"/>
     </row>
     <row r="42" spans="2:20" ht="20.25">
-      <c r="B42" s="63"/>
-      <c r="C42" s="63"/>
-      <c r="D42" s="63"/>
-      <c r="E42" s="63"/>
-      <c r="F42" s="63"/>
-      <c r="G42" s="63"/>
-      <c r="H42" s="63"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="60"/>
+      <c r="G42" s="60"/>
+      <c r="H42" s="60"/>
       <c r="I42" s="26"/>
       <c r="J42" s="20"/>
       <c r="K42" s="20"/>
@@ -6916,13 +6926,13 @@
       <c r="M42" s="20"/>
     </row>
     <row r="43" spans="2:20" ht="20.25">
-      <c r="B43" s="63"/>
-      <c r="C43" s="63"/>
-      <c r="D43" s="63"/>
-      <c r="E43" s="63"/>
-      <c r="F43" s="63"/>
-      <c r="G43" s="63"/>
-      <c r="H43" s="63"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="60"/>
+      <c r="F43" s="60"/>
+      <c r="G43" s="60"/>
+      <c r="H43" s="60"/>
       <c r="I43" s="26"/>
       <c r="J43" s="20"/>
       <c r="K43" s="20"/>
@@ -6930,13 +6940,13 @@
       <c r="M43" s="20"/>
     </row>
     <row r="44" spans="2:20" ht="20.25">
-      <c r="B44" s="63"/>
-      <c r="C44" s="63"/>
-      <c r="D44" s="63"/>
-      <c r="E44" s="63"/>
-      <c r="F44" s="63"/>
-      <c r="G44" s="63"/>
-      <c r="H44" s="63"/>
+      <c r="B44" s="60"/>
+      <c r="C44" s="60"/>
+      <c r="D44" s="60"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="60"/>
+      <c r="G44" s="60"/>
+      <c r="H44" s="60"/>
       <c r="I44" s="26"/>
       <c r="J44" s="20"/>
       <c r="K44" s="20"/>
@@ -7009,15 +7019,15 @@
       <c r="A49" t="s">
         <v>146</v>
       </c>
-      <c r="B49" s="39" t="s">
+      <c r="B49" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="39" t="s">
+      <c r="C49" s="47"/>
+      <c r="D49" s="47"/>
+      <c r="E49" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="F49" s="39"/>
+      <c r="F49" s="47"/>
       <c r="G49" s="28"/>
       <c r="H49" s="24"/>
       <c r="I49" s="20"/>
@@ -7027,15 +7037,15 @@
       <c r="M49" s="20"/>
     </row>
     <row r="50" spans="1:13" ht="18">
-      <c r="B50" s="39" t="s">
+      <c r="B50" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="C50" s="39"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="39" t="s">
+      <c r="C50" s="47"/>
+      <c r="D50" s="47"/>
+      <c r="E50" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="F50" s="39"/>
+      <c r="F50" s="47"/>
       <c r="G50" s="28" t="s">
         <v>140</v>
       </c>
@@ -7064,6 +7074,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B6:D7"/>
+    <mergeCell ref="B1:H2"/>
+    <mergeCell ref="Q24:T26"/>
+    <mergeCell ref="Q21:T23"/>
+    <mergeCell ref="K21:P23"/>
+    <mergeCell ref="K24:P26"/>
+    <mergeCell ref="K27:P31"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C21:H23"/>
+    <mergeCell ref="C24:H26"/>
+    <mergeCell ref="C29:H30"/>
     <mergeCell ref="Q32:T37"/>
     <mergeCell ref="J20:T20"/>
     <mergeCell ref="E49:F49"/>
@@ -7080,18 +7102,6 @@
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="C27:H28"/>
-    <mergeCell ref="K27:P31"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C21:H23"/>
-    <mergeCell ref="C24:H26"/>
-    <mergeCell ref="C29:H30"/>
-    <mergeCell ref="B6:D7"/>
-    <mergeCell ref="B1:H2"/>
-    <mergeCell ref="Q24:T26"/>
-    <mergeCell ref="Q21:T23"/>
-    <mergeCell ref="K21:P23"/>
-    <mergeCell ref="K24:P26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7122,85 +7132,85 @@
     </row>
     <row r="3" spans="1:10" ht="15.95" customHeight="1">
       <c r="A3" s="14"/>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="59" t="s">
+      <c r="D3" s="51"/>
+      <c r="E3" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
       <c r="I3" s="32"/>
       <c r="J3" s="32"/>
     </row>
     <row r="4" spans="1:10" ht="18">
       <c r="A4" s="14"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
       <c r="I4" s="32"/>
       <c r="J4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="38.1" customHeight="1">
       <c r="A5" s="14"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
       <c r="I5" s="32"/>
       <c r="J5" s="14"/>
     </row>
     <row r="6" spans="1:10" ht="18">
       <c r="A6" s="14"/>
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="69" t="s">
         <v>107</v>
       </c>
-      <c r="D6" s="67"/>
-      <c r="E6" s="59" t="s">
+      <c r="D6" s="69"/>
+      <c r="E6" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
       <c r="I6" s="32"/>
       <c r="J6" s="14"/>
     </row>
     <row r="7" spans="1:10" ht="18">
       <c r="A7" s="14"/>
-      <c r="B7" s="65"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
     </row>
     <row r="8" spans="1:10" ht="32.1" customHeight="1">
       <c r="A8" s="14"/>
-      <c r="B8" s="65"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
     </row>
@@ -7384,164 +7394,164 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:R97"/>
+  <dimension ref="B3:R96"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="3" spans="2:18" ht="15.95" customHeight="1">
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="76" t="s">
         <v>154</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68"/>
-      <c r="O3" s="68"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
       <c r="P3" s="34"/>
       <c r="Q3" s="34"/>
       <c r="R3" s="34"/>
     </row>
     <row r="4" spans="2:18" ht="15.95" customHeight="1">
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="68"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
       <c r="P4" s="34"/>
       <c r="Q4" s="34"/>
       <c r="R4" s="34"/>
     </row>
     <row r="5" spans="2:18" ht="15.95" customHeight="1">
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
       <c r="P5" s="34"/>
       <c r="Q5" s="34"/>
       <c r="R5" s="34"/>
     </row>
     <row r="6" spans="2:18" ht="15.95" customHeight="1">
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="68"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="76"/>
       <c r="P6" s="34"/>
       <c r="Q6" s="34"/>
       <c r="R6" s="34"/>
     </row>
     <row r="7" spans="2:18" ht="15.95" customHeight="1">
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
-      <c r="N7" s="68"/>
-      <c r="O7" s="68"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="76"/>
+      <c r="M7" s="76"/>
+      <c r="N7" s="76"/>
+      <c r="O7" s="76"/>
       <c r="P7" s="34"/>
       <c r="Q7" s="34"/>
       <c r="R7" s="34"/>
     </row>
     <row r="8" spans="2:18" ht="15.95" customHeight="1">
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68"/>
-      <c r="O8" s="68"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="76"/>
+      <c r="O8" s="76"/>
       <c r="P8" s="34"/>
       <c r="Q8" s="34"/>
       <c r="R8" s="34"/>
     </row>
     <row r="9" spans="2:18" ht="15.95" customHeight="1">
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="68"/>
-      <c r="M9" s="68"/>
-      <c r="N9" s="68"/>
-      <c r="O9" s="68"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="76"/>
+      <c r="O9" s="76"/>
       <c r="P9" s="34"/>
       <c r="Q9" s="34"/>
       <c r="R9" s="34"/>
     </row>
     <row r="10" spans="2:18" ht="15.95" customHeight="1">
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="68"/>
-      <c r="N10" s="68"/>
-      <c r="O10" s="68"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="76"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="76"/>
+      <c r="O10" s="76"/>
       <c r="P10" s="34"/>
       <c r="Q10" s="34"/>
       <c r="R10" s="34"/>
@@ -7581,11 +7591,11 @@
       <c r="N12" s="34"/>
     </row>
     <row r="13" spans="2:18" ht="15.95" customHeight="1">
-      <c r="B13" s="69" t="s">
+      <c r="B13" s="79" t="s">
         <v>211</v>
       </c>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
       <c r="E13" s="34"/>
       <c r="F13" s="34"/>
       <c r="G13" s="34"/>
@@ -7598,475 +7608,465 @@
       <c r="N13" s="34"/>
     </row>
     <row r="14" spans="2:18" ht="15.95" customHeight="1">
-      <c r="B14" s="74" t="s">
+      <c r="B14" s="73" t="s">
         <v>196</v>
       </c>
-      <c r="C14" s="61" t="s">
+      <c r="C14" s="58" t="s">
         <v>197</v>
       </c>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="70" t="s">
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="77" t="s">
         <v>202</v>
       </c>
-      <c r="Q14" s="70"/>
+      <c r="Q14" s="77"/>
     </row>
     <row r="15" spans="2:18" ht="15.95" customHeight="1">
       <c r="B15" s="74"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="70"/>
-      <c r="Q15" s="70"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="77"/>
+      <c r="Q15" s="77"/>
     </row>
     <row r="16" spans="2:18" ht="15.95" customHeight="1">
-      <c r="B16" s="74"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="70"/>
-      <c r="Q16" s="70"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="77"/>
+      <c r="Q16" s="77"/>
     </row>
     <row r="17" spans="2:17" ht="15.95" customHeight="1">
-      <c r="B17" s="74" t="s">
+      <c r="B17" s="73" t="s">
         <v>198</v>
       </c>
-      <c r="C17" s="61" t="s">
+      <c r="C17" s="58" t="s">
         <v>199</v>
       </c>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="53" t="s">
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="50" t="s">
         <v>200</v>
       </c>
-      <c r="L17" s="53"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="53"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
       <c r="P17" s="71"/>
       <c r="Q17" s="71"/>
     </row>
     <row r="18" spans="2:17" ht="15.95" customHeight="1">
       <c r="B18" s="74"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="53"/>
-      <c r="O18" s="53"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
       <c r="P18" s="71"/>
       <c r="Q18" s="71"/>
     </row>
     <row r="19" spans="2:17" ht="23.1" customHeight="1">
-      <c r="B19" s="74"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="53"/>
+      <c r="B19" s="75"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
       <c r="P19" s="71"/>
       <c r="Q19" s="71"/>
     </row>
     <row r="20" spans="2:17" ht="15.95" customHeight="1">
-      <c r="B20" s="74" t="s">
+      <c r="B20" s="72" t="s">
         <v>201</v>
       </c>
-      <c r="C20" s="53" t="s">
+      <c r="C20" s="50" t="s">
         <v>203</v>
       </c>
-      <c r="D20" s="53"/>
-      <c r="E20" s="72" t="s">
-        <v>219</v>
-      </c>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="53"/>
-      <c r="O20" s="53"/>
-      <c r="P20" s="73" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q20" s="70"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="70" t="s">
+        <v>220</v>
+      </c>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="78" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q20" s="77"/>
     </row>
     <row r="21" spans="2:17" ht="15.95" customHeight="1">
-      <c r="B21" s="74"/>
-      <c r="C21" s="53" t="s">
+      <c r="B21" s="72"/>
+      <c r="C21" s="50" t="s">
         <v>204</v>
       </c>
-      <c r="D21" s="53"/>
-      <c r="E21" s="72" t="s">
-        <v>221</v>
-      </c>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53" t="s">
+      <c r="D21" s="50"/>
+      <c r="E21" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50" t="s">
         <v>206</v>
       </c>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="53"/>
-      <c r="P21" s="70"/>
-      <c r="Q21" s="70"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="77"/>
+      <c r="Q21" s="77"/>
     </row>
     <row r="22" spans="2:17" ht="15.95" customHeight="1">
-      <c r="B22" s="74"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="72" t="s">
-        <v>220</v>
-      </c>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="53"/>
-      <c r="P22" s="70"/>
-      <c r="Q22" s="70"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="70" t="s">
+        <v>223</v>
+      </c>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="77"/>
+      <c r="Q22" s="77"/>
     </row>
     <row r="23" spans="2:17" ht="15.95" customHeight="1">
-      <c r="B23" s="74"/>
-      <c r="C23" s="53" t="s">
+      <c r="B23" s="72"/>
+      <c r="C23" s="50" t="s">
         <v>205</v>
       </c>
-      <c r="D23" s="53"/>
-      <c r="E23" s="72" t="s">
-        <v>223</v>
-      </c>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53" t="s">
+      <c r="D23" s="50"/>
+      <c r="E23" s="70" t="s">
+        <v>224</v>
+      </c>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50" t="s">
         <v>207</v>
       </c>
-      <c r="L23" s="53"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="53"/>
-      <c r="O23" s="53"/>
-      <c r="P23" s="70"/>
-      <c r="Q23" s="70"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="77"/>
+      <c r="Q23" s="77"/>
     </row>
     <row r="24" spans="2:17" ht="15.95" customHeight="1">
-      <c r="B24" s="74"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="72" t="s">
-        <v>222</v>
-      </c>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="72" t="s">
-        <v>224</v>
-      </c>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="53"/>
-      <c r="P24" s="70"/>
-      <c r="Q24" s="70"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="70" t="s">
+        <v>225</v>
+      </c>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="70" t="s">
+        <v>226</v>
+      </c>
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="50"/>
+      <c r="P24" s="77"/>
+      <c r="Q24" s="77"/>
     </row>
     <row r="25" spans="2:17" ht="15.95" customHeight="1">
-      <c r="B25" s="74" t="s">
+      <c r="B25" s="73" t="s">
         <v>209</v>
       </c>
-      <c r="C25" s="57" t="s">
+      <c r="C25" s="58" t="s">
         <v>210</v>
       </c>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="57"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="53"/>
-      <c r="O25" s="53"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="50"/>
       <c r="P25" s="71"/>
       <c r="Q25" s="71"/>
     </row>
     <row r="26" spans="2:17" ht="15.95" customHeight="1">
       <c r="B26" s="74"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="53"/>
-      <c r="O26" s="53"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="50"/>
       <c r="P26" s="71"/>
       <c r="Q26" s="71"/>
     </row>
     <row r="27" spans="2:17" ht="15.95" customHeight="1">
       <c r="B27" s="74"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="53"/>
-      <c r="O27" s="53"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="50"/>
       <c r="P27" s="71"/>
       <c r="Q27" s="71"/>
     </row>
     <row r="28" spans="2:17" ht="15.95" customHeight="1">
       <c r="B28" s="74"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="53"/>
-      <c r="O28" s="53"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="50"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="50"/>
       <c r="P28" s="71"/>
       <c r="Q28" s="71"/>
     </row>
     <row r="29" spans="2:17" ht="15.95" customHeight="1">
       <c r="B29" s="74"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="57"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="53"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="53"/>
-      <c r="O29" s="53"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="50"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="50"/>
       <c r="P29" s="71"/>
       <c r="Q29" s="71"/>
     </row>
-    <row r="30" spans="2:17" ht="15.95" customHeight="1">
+    <row r="30" spans="2:17" ht="24" customHeight="1">
       <c r="B30" s="74"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="57"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="53"/>
-      <c r="O30" s="53"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="58"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="50"/>
+      <c r="M30" s="50"/>
+      <c r="N30" s="50"/>
+      <c r="O30" s="50"/>
       <c r="P30" s="71"/>
       <c r="Q30" s="71"/>
     </row>
-    <row r="31" spans="2:17" ht="15.95" customHeight="1">
-      <c r="B31" s="74"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="57"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="53"/>
-      <c r="O31" s="53"/>
+    <row r="31" spans="2:17" ht="25.5" customHeight="1">
+      <c r="B31" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="C31" s="58" t="s">
+        <v>218</v>
+      </c>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="50"/>
       <c r="P31" s="71"/>
       <c r="Q31" s="71"/>
     </row>
-    <row r="32" spans="2:17" ht="27.75" customHeight="1">
-      <c r="B32" s="75" t="s">
-        <v>217</v>
-      </c>
-      <c r="C32" s="61" t="s">
-        <v>218</v>
-      </c>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="61"/>
-      <c r="J32" s="61"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="53"/>
-      <c r="N32" s="53"/>
-      <c r="O32" s="53"/>
+    <row r="32" spans="2:17" ht="15.95" customHeight="1">
+      <c r="B32" s="73" t="s">
+        <v>208</v>
+      </c>
+      <c r="C32" s="70" t="s">
+        <v>219</v>
+      </c>
+      <c r="D32" s="70"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="70"/>
+      <c r="H32" s="70"/>
+      <c r="I32" s="70"/>
+      <c r="J32" s="70"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="50"/>
+      <c r="M32" s="50"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="50"/>
       <c r="P32" s="71"/>
       <c r="Q32" s="71"/>
     </row>
     <row r="33" spans="2:17" ht="15.95" customHeight="1">
-      <c r="B33" s="74" t="s">
-        <v>208</v>
-      </c>
-      <c r="C33" s="72" t="s">
-        <v>226</v>
-      </c>
-      <c r="D33" s="72"/>
-      <c r="E33" s="72"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="72"/>
-      <c r="I33" s="72"/>
-      <c r="J33" s="72"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="53"/>
-      <c r="O33" s="53"/>
-      <c r="P33" s="73" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q33" s="73"/>
+      <c r="B33" s="74"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="70"/>
+      <c r="H33" s="70"/>
+      <c r="I33" s="70"/>
+      <c r="J33" s="70"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="50"/>
+      <c r="N33" s="50"/>
+      <c r="O33" s="50"/>
+      <c r="P33" s="71"/>
+      <c r="Q33" s="71"/>
     </row>
     <row r="34" spans="2:17" ht="15.95" customHeight="1">
-      <c r="B34" s="74"/>
-      <c r="C34" s="72"/>
-      <c r="D34" s="72"/>
-      <c r="E34" s="72"/>
-      <c r="F34" s="72"/>
-      <c r="G34" s="72"/>
-      <c r="H34" s="72"/>
-      <c r="I34" s="72"/>
-      <c r="J34" s="72"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="53"/>
-      <c r="M34" s="53"/>
-      <c r="N34" s="53"/>
-      <c r="O34" s="53"/>
-      <c r="P34" s="73"/>
-      <c r="Q34" s="73"/>
+      <c r="B34" s="75"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="70"/>
+      <c r="H34" s="70"/>
+      <c r="I34" s="70"/>
+      <c r="J34" s="70"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="50"/>
+      <c r="M34" s="50"/>
+      <c r="N34" s="50"/>
+      <c r="O34" s="50"/>
+      <c r="P34" s="71"/>
+      <c r="Q34" s="71"/>
     </row>
     <row r="35" spans="2:17" ht="15.95" customHeight="1">
-      <c r="B35" s="74"/>
-      <c r="C35" s="72"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="72"/>
-      <c r="J35" s="72"/>
-      <c r="K35" s="53"/>
-      <c r="L35" s="53"/>
-      <c r="M35" s="53"/>
-      <c r="N35" s="53"/>
-      <c r="O35" s="53"/>
-      <c r="P35" s="73"/>
-      <c r="Q35" s="73"/>
+      <c r="B35" s="40" t="s">
+        <v>227</v>
+      </c>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="34"/>
+      <c r="L35" s="34"/>
+      <c r="M35" s="34"/>
     </row>
     <row r="36" spans="2:17" ht="15.95" customHeight="1">
-      <c r="B36" s="74"/>
-      <c r="C36" s="72"/>
-      <c r="D36" s="72"/>
-      <c r="E36" s="72"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="72"/>
-      <c r="H36" s="72"/>
-      <c r="I36" s="72"/>
-      <c r="J36" s="72"/>
-      <c r="K36" s="53"/>
-      <c r="L36" s="53"/>
-      <c r="M36" s="53"/>
-      <c r="N36" s="53"/>
-      <c r="O36" s="53"/>
-      <c r="P36" s="73"/>
-      <c r="Q36" s="73"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="34"/>
+      <c r="M36" s="34"/>
     </row>
     <row r="37" spans="2:17" ht="15.95" customHeight="1">
-      <c r="B37" s="76" t="s">
-        <v>228</v>
-      </c>
+      <c r="B37" s="34"/>
       <c r="C37" s="34"/>
       <c r="D37" s="34"/>
       <c r="E37" s="34"/>
@@ -8371,7 +8371,6 @@
       <c r="J58" s="34"/>
       <c r="K58" s="34"/>
       <c r="L58" s="34"/>
-      <c r="M58" s="34"/>
     </row>
     <row r="59" spans="2:13" ht="15.95" customHeight="1">
       <c r="B59" s="34"/>
@@ -8867,57 +8866,44 @@
       <c r="K96" s="34"/>
       <c r="L96" s="34"/>
     </row>
-    <row r="97" spans="2:12" ht="15.95" customHeight="1">
-      <c r="B97" s="34"/>
-      <c r="C97" s="34"/>
-      <c r="D97" s="34"/>
-      <c r="E97" s="34"/>
-      <c r="F97" s="34"/>
-      <c r="G97" s="34"/>
-      <c r="H97" s="34"/>
-      <c r="I97" s="34"/>
-      <c r="J97" s="34"/>
-      <c r="K97" s="34"/>
-      <c r="L97" s="34"/>
-    </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C33:J36"/>
-    <mergeCell ref="K33:O36"/>
-    <mergeCell ref="P33:Q36"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="B25:B31"/>
-    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="C25:J30"/>
+    <mergeCell ref="K25:O30"/>
+    <mergeCell ref="P25:Q30"/>
+    <mergeCell ref="P14:Q16"/>
+    <mergeCell ref="P17:Q19"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="E22:J22"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="P20:Q24"/>
+    <mergeCell ref="K20:O20"/>
     <mergeCell ref="K22:O22"/>
     <mergeCell ref="K24:O24"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="C23:D24"/>
     <mergeCell ref="B3:O10"/>
     <mergeCell ref="C14:J16"/>
     <mergeCell ref="C17:J19"/>
     <mergeCell ref="K17:O19"/>
     <mergeCell ref="K14:O16"/>
-    <mergeCell ref="P14:Q16"/>
-    <mergeCell ref="P17:Q19"/>
-    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="C32:J34"/>
+    <mergeCell ref="K32:O34"/>
+    <mergeCell ref="P32:Q34"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="C21:D22"/>
     <mergeCell ref="E21:J21"/>
+    <mergeCell ref="K21:O21"/>
+    <mergeCell ref="C23:D24"/>
     <mergeCell ref="E23:J23"/>
-    <mergeCell ref="P20:Q24"/>
-    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="K23:O23"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="B32:B34"/>
     <mergeCell ref="C20:D20"/>
-    <mergeCell ref="K20:O20"/>
-    <mergeCell ref="K21:O21"/>
-    <mergeCell ref="K23:O23"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="K32:O32"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="C25:J31"/>
-    <mergeCell ref="K25:O31"/>
-    <mergeCell ref="P25:Q31"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="K31:O31"/>
+    <mergeCell ref="P31:Q31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/日语.xlsx
+++ b/日语.xlsx
@@ -5,20 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shen_chao.pfu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Self\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="24885" windowHeight="15555" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="24885" windowHeight="15555" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="动词形态" sheetId="1" r:id="rId1"/>
-    <sheet name="自动他动词" sheetId="2" r:id="rId2"/>
-    <sheet name="动词敬体简体" sheetId="3" r:id="rId3"/>
-    <sheet name="形容词" sheetId="4" r:id="rId4"/>
-    <sheet name="基本句" sheetId="5" r:id="rId5"/>
-    <sheet name="体言用言" sheetId="6" r:id="rId6"/>
-    <sheet name="その他" sheetId="7" r:id="rId7"/>
+    <sheet name="其他-动词" sheetId="2" r:id="rId2"/>
+    <sheet name="形容词" sheetId="4" r:id="rId3"/>
+    <sheet name="基本句" sheetId="5" r:id="rId4"/>
+    <sheet name="その他" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">动词形态!$A$1:$E$6</definedName>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="230">
   <si>
     <t>三类动词</t>
     <rPh sb="0" eb="1">
@@ -120,16 +118,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>他动词词尾</t>
-    <rPh sb="0" eb="1">
-      <t>ta dong ci</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ci wei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>aru</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -138,21 +126,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>eru、ru</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>su</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完全相同</t>
-    <rPh sb="0" eb="1">
-      <t>wan quan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xiang tong</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -228,17 +202,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>敬体形</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>简体形</t>
-    <rPh sb="0" eb="1">
-      <t>jian ti xing</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>现在是否定形</t>
     <rPh sb="0" eb="1">
       <t>xian zai shi</t>
@@ -287,80 +250,6 @@
     </rPh>
     <rPh sb="5" eb="6">
       <t>xing</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>～ます（書きます）</t>
-    <rPh sb="4" eb="5">
-      <t>かきm</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>～ません（書きません）</t>
-    <rPh sb="5" eb="6">
-      <t>かきませn</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>～ました（書きました）</t>
-    <rPh sb="5" eb="6">
-      <t>かk</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>～ませんでした（書きませんでした）</t>
-    <rPh sb="8" eb="9">
-      <t>かk</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动词基本形（書く）</t>
-    <rPh sb="0" eb="1">
-      <t>dong ci ji ben xing</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>かく</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ない形的过去时（書かなかった）</t>
-    <rPh sb="2" eb="3">
-      <t>xing</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>de</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>guo qv shi</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>かかn</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ない形（書かない）</t>
-    <rPh sb="2" eb="3">
-      <t>xing</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>かかな</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>た形（書いた）</t>
-    <rPh sb="1" eb="2">
-      <t>xing</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>かいた</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1508,16 +1397,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>词干(无活用)+词尾(活用)</t>
-    <rPh sb="0" eb="1">
-      <t>ci gan</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ci wei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>体言</t>
     <rPh sb="0" eb="1">
       <t>ti yan</t>
@@ -1528,113 +1407,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>无活用，因为没有词尾</t>
-    <rPh sb="4" eb="5">
-      <t>yin wei</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>mei you</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ci wei</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 动词：う、く、ぐ、す、つ、ぬ、ぶ、も、る
-2. 形容词：い
-3. 形容动词：だ</t>
-    <rPh sb="3" eb="4">
-      <t>dong ci</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>xing rong ci</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>xing rong dong ci</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 名词
-2. 数词
-3. 代词</t>
-    <rPh sb="3" eb="4">
-      <t>ming ci</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>shu ci</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>dai ci</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在日语中，所有的用言处在句子的末尾，其它结构同汉语</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下星期开始两周因工作原因去日本出差。（“去”是用言，放在最后）</t>
-    <rPh sb="0" eb="1">
-      <t>xia xing qi</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>kai shi</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>laing zhou</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>yin</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>gong zuo yuan y</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>qv</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ri ben chu chai</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>qv</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>yong yan</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>fang zai zui hou</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>下星期开始两周因工作原因日本出差去。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>来週から2週間仕事で日本へ出張に行く。</t>
-    <rPh sb="0" eb="2">
-      <t>らいsh</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>sh</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>しごt</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>にほn</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>しゅc</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>いk</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4323,12 +4096,743 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>お湯</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>が</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>沸く</t>
+    </r>
+    <rPh sb="4" eb="5">
+      <t>わく</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>お湯</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>沸かす</t>
+    </r>
+    <rPh sb="1" eb="2">
+      <t>ゆ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>わk</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>敬体形</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>简体形</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>jian ti xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>他动词词尾</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>ta dong ci</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ci wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>eru</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ru</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>完全相同</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>wan quan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiang tong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>～ます（書きます）</t>
+    </r>
+    <rPh sb="4" eb="5">
+      <t>カキm</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>～ません（書きません）</t>
+    </r>
+    <rPh sb="5" eb="6">
+      <t>カキマセn</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>～ました（書きました）</t>
+    </r>
+    <rPh sb="5" eb="6">
+      <t>カk</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>～ませんでした（書きませんでした）</t>
+    </r>
+    <rPh sb="8" eb="9">
+      <t>カk</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动词基本形（書く）</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>dong ci ji ben xing</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カク</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ない形（書かない）</t>
+    </r>
+    <rPh sb="2" eb="3">
+      <t>xing</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カカナ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>た形（書いた）</t>
+    </r>
+    <rPh sb="1" eb="2">
+      <t>xing</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カイタ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ない形的过去时（書かなかった）</t>
+    </r>
+    <rPh sb="2" eb="3">
+      <t>xing</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>de</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>guo qv shi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カカn</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>词干</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>无活用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>词尾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>活用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>ci gan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ci wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">动词：う、く、ぐ、す、つ、ぬ、ぶ、も、る
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">形容词：い
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>形容动词：だ</t>
+    </r>
+    <rPh sb="3" eb="4">
+      <t>dong ci</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>xing rong ci</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>xing rong dong ci</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>无活用，因为没有词尾</t>
+    </r>
+    <rPh sb="4" eb="5">
+      <t>yin wei</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>mei you</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ci wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">名词
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">数词
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>代词</t>
+    </r>
+    <rPh sb="3" eb="4">
+      <t>ming ci</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shu ci</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>dai ci</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>在日语中，所有的用言处在句子的末尾，其它结构同汉语</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>下星期开始两周因工作原因去日本出差。（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>去</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是用言，放在最后）</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>xia xing qi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>kai shi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>laing zhou</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yin</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>gong zuo yuan y</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>qv</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ri ben chu chai</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>qv</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>yong yan</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>fang zai zui hou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>来週から</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>週間仕事で日本へ出張に行く。</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>らいsh</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>sh</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>しごt</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>にほn</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>しゅc</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>いk</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4387,11 +4891,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Abadi MT Condensed Extra Bold"/>
     </font>
     <font>
       <sz val="18"/>
@@ -4502,8 +5001,20 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Abadi MT Condensed Extra Bold"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4543,6 +5054,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4648,7 +5171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4671,18 +5194,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4690,7 +5201,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4700,7 +5210,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4722,20 +5232,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4747,17 +5254,29 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4768,35 +5287,38 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4819,32 +5341,20 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4855,17 +5365,51 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5149,7 +5693,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -5167,19 +5711,19 @@
     <row r="1" spans="1:6" ht="20.25">
       <c r="A1" s="2"/>
       <c r="B1" s="6" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="120.95" customHeight="1">
@@ -5187,7 +5731,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>2</v>
@@ -5198,14 +5742,14 @@
       <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="19"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6" ht="59.1" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>8</v>
@@ -5214,17 +5758,17 @@
         <v>9</v>
       </c>
       <c r="E3" s="5"/>
-      <c r="F3" s="19"/>
+      <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:6" ht="89.1" customHeight="1">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>10</v>
@@ -5232,8 +5776,8 @@
       <c r="E4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="19" t="s">
-        <v>93</v>
+      <c r="F4" s="12" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="63.95" customHeight="1">
@@ -5241,7 +5785,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>12</v>
@@ -5252,159 +5796,159 @@
       <c r="E5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="19" t="s">
-        <v>88</v>
+      <c r="F5" s="12" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="69.95" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="19" t="s">
-        <v>26</v>
+      <c r="F6" s="12" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="87.95" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="E7" s="5"/>
-      <c r="F7" s="36" t="s">
-        <v>189</v>
+      <c r="F7" s="28" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="83.1" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>186</v>
+        <v>168</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>166</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="F8" s="38" t="s">
-        <v>187</v>
+        <v>170</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="83.1" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>194</v>
+        <v>173</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>174</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="F9" s="38"/>
+        <v>175</v>
+      </c>
+      <c r="F9" s="30"/>
     </row>
     <row r="10" spans="1:6" ht="68.099999999999994" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="F10" s="19"/>
+        <v>139</v>
+      </c>
+      <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:6" ht="68.099999999999994" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="E11" s="5"/>
-      <c r="F11" s="19" t="s">
-        <v>174</v>
+      <c r="F11" s="12" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="68.099999999999994" customHeight="1">
       <c r="A12" s="7" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>175</v>
+        <v>156</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="68.099999999999994" customHeight="1">
       <c r="A13" s="7" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="F13" s="19"/>
+        <v>196</v>
+      </c>
+      <c r="F13" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5414,85 +5958,194 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:C14"/>
+  <dimension ref="B3:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="30.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" ht="20.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9" t="s">
+    <row r="3" spans="2:8" ht="18">
+      <c r="B3" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="79" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="18">
+      <c r="B4" s="81" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="20.25">
-      <c r="A4" s="8">
-        <v>1</v>
-      </c>
-      <c r="B4" s="10" t="s">
+      <c r="C4" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="E4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="18">
+      <c r="B5" s="81" t="s">
+        <v>213</v>
+      </c>
+      <c r="C5" s="81" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="20.25">
-      <c r="A5" s="8">
-        <v>2</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="20.25">
-      <c r="A6" s="8">
-        <v>3</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="11"/>
-    </row>
-    <row r="9" spans="1:3" ht="20.25">
-      <c r="B9" s="17" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="20.25">
-      <c r="B10" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="B13" t="s">
-        <v>150</v>
-      </c>
-      <c r="C13" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="B14" t="s">
-        <v>149</v>
-      </c>
-      <c r="C14" t="s">
-        <v>152</v>
-      </c>
+      <c r="E5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="18">
+      <c r="B6" s="83" t="s">
+        <v>214</v>
+      </c>
+      <c r="C6" s="83"/>
+    </row>
+    <row r="9" spans="2:8" ht="18">
+      <c r="B9" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="2:8" ht="18">
+      <c r="B10" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="2:8" ht="18">
+      <c r="B11" s="77" t="s">
+        <v>208</v>
+      </c>
+      <c r="C11" s="75" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" s="76"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="2:8" ht="18">
+      <c r="B12" s="77" t="s">
+        <v>209</v>
+      </c>
+      <c r="C12" s="73" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" s="74"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="15" spans="2:8" ht="18">
+      <c r="B15" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="84" t="s">
+        <v>210</v>
+      </c>
+      <c r="D15" s="84"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="84" t="s">
+        <v>211</v>
+      </c>
+      <c r="G15" s="84"/>
+      <c r="H15" s="84"/>
+    </row>
+    <row r="16" spans="2:8" ht="18">
+      <c r="B16" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="61" t="s">
+        <v>215</v>
+      </c>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="85" t="s">
+        <v>219</v>
+      </c>
+      <c r="G16" s="85"/>
+      <c r="H16" s="85"/>
+    </row>
+    <row r="17" spans="2:8" ht="18">
+      <c r="B17" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="61" t="s">
+        <v>216</v>
+      </c>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="85" t="s">
+        <v>220</v>
+      </c>
+      <c r="G17" s="85"/>
+      <c r="H17" s="85"/>
+    </row>
+    <row r="18" spans="2:8" ht="18">
+      <c r="B18" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="61" t="s">
+        <v>217</v>
+      </c>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="85" t="s">
+        <v>221</v>
+      </c>
+      <c r="G18" s="85"/>
+      <c r="H18" s="85"/>
+    </row>
+    <row r="19" spans="2:8" ht="18">
+      <c r="B19" s="78" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="61" t="s">
+        <v>218</v>
+      </c>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="85" t="s">
+        <v>222</v>
+      </c>
+      <c r="G19" s="85"/>
+      <c r="H19" s="85"/>
     </row>
   </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5500,643 +6153,565 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="18" style="13" customWidth="1"/>
-    <col min="3" max="3" width="46.6640625" customWidth="1"/>
-    <col min="4" max="4" width="50" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:4" ht="20.25">
-      <c r="B3" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" ht="20.25">
-      <c r="B4" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" ht="20.25">
-      <c r="B5" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="20.25">
-      <c r="B6" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="20.25">
-      <c r="B7" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M51"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="3" spans="1:10" ht="27.75">
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="36"/>
+    </row>
+    <row r="4" spans="1:10" ht="18">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:10" ht="18">
+      <c r="A5" s="8"/>
+      <c r="B5" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" ht="18">
+      <c r="A6" s="8"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" ht="18">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" ht="18">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" ht="18">
+      <c r="A9" s="8"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" ht="18">
+      <c r="A10" s="8"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" ht="18">
+      <c r="A11" s="8"/>
+      <c r="B11" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+    </row>
+    <row r="12" spans="1:10" ht="18">
+      <c r="A12" s="8"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="42"/>
+    </row>
+    <row r="13" spans="1:10" ht="18">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="52"/>
-    </row>
-    <row r="4" spans="1:10" ht="18">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-    </row>
-    <row r="5" spans="1:10" ht="18">
-      <c r="A5" s="14"/>
-      <c r="B5" s="53" t="s">
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+    </row>
+    <row r="14" spans="1:10" ht="18">
+      <c r="A14" s="8"/>
+      <c r="B14" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-    </row>
-    <row r="6" spans="1:10" ht="18">
-      <c r="A6" s="14"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="43" t="s">
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+    </row>
+    <row r="15" spans="1:10" ht="18">
+      <c r="A15" s="8"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+    </row>
+    <row r="16" spans="1:10" ht="18">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="1:10" ht="18">
+      <c r="A17" s="8"/>
+      <c r="B17" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="C17" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+    </row>
+    <row r="18" spans="1:10" ht="18">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" spans="1:10" ht="18">
+      <c r="A19" s="8"/>
+      <c r="B19" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="1:10" ht="18">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" spans="1:10" ht="18">
+      <c r="B21" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43" t="s">
+    </row>
+    <row r="22" spans="1:10" ht="18">
+      <c r="B22" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="18">
+      <c r="B23" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="18">
+      <c r="B24" s="8"/>
+      <c r="C24" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:10" ht="18">
+      <c r="B25" s="8"/>
+      <c r="C25" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="1:10" ht="18.75">
+      <c r="B26" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-    </row>
-    <row r="7" spans="1:10" ht="18">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-    </row>
-    <row r="8" spans="1:10" ht="18">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15" t="s">
+    </row>
+    <row r="29" spans="1:10" ht="27.75">
+      <c r="B29" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-    </row>
-    <row r="9" spans="1:10" ht="18">
-      <c r="A9" s="14"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" ht="18">
-      <c r="A10" s="14"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-    </row>
-    <row r="11" spans="1:10" ht="18">
-      <c r="A11" s="14"/>
-      <c r="B11" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-    </row>
-    <row r="12" spans="1:10" ht="18">
-      <c r="A12" s="14"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="46"/>
-    </row>
-    <row r="13" spans="1:10" ht="18">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-    </row>
-    <row r="14" spans="1:10" ht="18">
-      <c r="A14" s="14"/>
-      <c r="B14" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-    </row>
-    <row r="15" spans="1:10" ht="18">
-      <c r="A15" s="14"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-    </row>
-    <row r="16" spans="1:10" ht="18">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-    </row>
-    <row r="17" spans="1:10" ht="18">
-      <c r="A17" s="14"/>
-      <c r="B17" s="33" t="s">
-        <v>168</v>
-      </c>
-      <c r="C17" s="55" t="s">
-        <v>169</v>
-      </c>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-    </row>
-    <row r="18" spans="1:10" ht="18">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-    </row>
-    <row r="19" spans="1:10" ht="18">
-      <c r="A19" s="14"/>
-      <c r="B19" s="33" t="s">
-        <v>172</v>
-      </c>
-      <c r="C19" s="47" t="s">
-        <v>171</v>
-      </c>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="14"/>
-    </row>
-    <row r="20" spans="1:10" ht="18">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-    </row>
-    <row r="21" spans="1:10" ht="18">
-      <c r="B21" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="18">
-      <c r="B22" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="18">
-      <c r="B23" s="14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="18">
-      <c r="B24" s="14"/>
-      <c r="C24" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-    </row>
-    <row r="25" spans="1:10" ht="18">
-      <c r="B25" s="14"/>
-      <c r="C25" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-    </row>
-    <row r="26" spans="1:10" ht="18.75">
-      <c r="B26" s="35" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="27.75">
-      <c r="B29" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" s="52"/>
+      <c r="C29" s="36"/>
     </row>
     <row r="30" spans="1:10" ht="18.75">
-      <c r="B30" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
+      <c r="B30" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
     </row>
     <row r="31" spans="1:10">
       <c r="B31" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="B32" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32" s="42" t="s">
+      <c r="B32" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+    </row>
+    <row r="33" spans="2:13" ht="21" customHeight="1">
+      <c r="B33" s="35"/>
+      <c r="C33" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+    </row>
+    <row r="34" spans="2:13" ht="20.100000000000001" customHeight="1">
+      <c r="B34" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+    </row>
+    <row r="35" spans="2:13" ht="18.95" customHeight="1">
+      <c r="B35" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+    </row>
+    <row r="36" spans="2:13" ht="18">
+      <c r="B36" s="10"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+    </row>
+    <row r="37" spans="2:13" ht="18">
+      <c r="B37" s="10"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+    </row>
+    <row r="38" spans="2:13" ht="21" customHeight="1">
+      <c r="B38" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
+    </row>
+    <row r="39" spans="2:13" ht="20.100000000000001" customHeight="1">
+      <c r="B39" s="39"/>
+      <c r="C39" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="42"/>
+    </row>
+    <row r="40" spans="2:13" ht="23.1" customHeight="1">
+      <c r="B40" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="H40" s="46"/>
+      <c r="I40" s="46"/>
+      <c r="J40" s="46"/>
+    </row>
+    <row r="41" spans="2:13" ht="21" customHeight="1">
+      <c r="B41" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="H41" s="46"/>
+      <c r="I41" s="46"/>
+      <c r="J41" s="46"/>
+    </row>
+    <row r="42" spans="2:13" ht="21" customHeight="1">
+      <c r="B42" s="43"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="46"/>
+      <c r="I42" s="46"/>
+      <c r="J42" s="46"/>
+      <c r="K42" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" ht="18">
+      <c r="B44" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" ht="18">
+      <c r="B45" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" ht="18">
+      <c r="B46" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="23"/>
+      <c r="L46" s="23"/>
+      <c r="M46" s="23"/>
+    </row>
+    <row r="47" spans="2:13" ht="18">
+      <c r="B47" s="8"/>
+      <c r="C47" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" s="8"/>
+    </row>
+    <row r="48" spans="2:13" ht="18">
+      <c r="B48" s="8"/>
+      <c r="C48" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D48" s="8"/>
+    </row>
+    <row r="49" spans="2:3" ht="18">
+      <c r="B49" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-    </row>
-    <row r="33" spans="2:13" ht="21" customHeight="1">
-      <c r="B33" s="54"/>
-      <c r="C33" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-    </row>
-    <row r="34" spans="2:13" ht="20.100000000000001" customHeight="1">
-      <c r="B34" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="G34" s="47"/>
-      <c r="H34" s="47"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-    </row>
-    <row r="35" spans="2:13" ht="18.95" customHeight="1">
-      <c r="B35" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="G35" s="47"/>
-      <c r="H35" s="47"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-    </row>
-    <row r="36" spans="2:13" ht="18">
-      <c r="B36" s="16"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-    </row>
-    <row r="37" spans="2:13" ht="18">
-      <c r="B37" s="16"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-    </row>
-    <row r="38" spans="2:13" ht="21" customHeight="1">
-      <c r="B38" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="C38" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="42"/>
-      <c r="J38" s="42"/>
-    </row>
-    <row r="39" spans="2:13" ht="20.100000000000001" customHeight="1">
-      <c r="B39" s="41"/>
-      <c r="C39" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="H39" s="45"/>
-      <c r="I39" s="45"/>
-      <c r="J39" s="46"/>
-    </row>
-    <row r="40" spans="2:13" ht="23.1" customHeight="1">
-      <c r="B40" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C40" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="D40" s="48"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="48" t="s">
+    </row>
+    <row r="50" spans="2:3" ht="18">
+      <c r="C50" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="H40" s="48"/>
-      <c r="I40" s="48"/>
-      <c r="J40" s="48"/>
-    </row>
-    <row r="41" spans="2:13" ht="21" customHeight="1">
-      <c r="B41" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="C41" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="D41" s="48"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="H41" s="48"/>
-      <c r="I41" s="48"/>
-      <c r="J41" s="48"/>
-    </row>
-    <row r="42" spans="2:13" ht="21" customHeight="1">
-      <c r="B42" s="49"/>
-      <c r="C42" s="48"/>
-      <c r="D42" s="48"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="48"/>
-      <c r="G42" s="48"/>
-      <c r="H42" s="48"/>
-      <c r="I42" s="48"/>
-      <c r="J42" s="48"/>
-      <c r="K42" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" ht="18">
-      <c r="B44" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13" ht="18">
-      <c r="B45" s="14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" ht="18">
-      <c r="B46" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="C46" s="30"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="30"/>
-      <c r="K46" s="30"/>
-      <c r="L46" s="30"/>
-      <c r="M46" s="30"/>
-    </row>
-    <row r="47" spans="2:13" ht="18">
-      <c r="B47" s="14"/>
-      <c r="C47" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="D47" s="14"/>
-    </row>
-    <row r="48" spans="2:13" ht="18">
-      <c r="B48" s="14"/>
-      <c r="C48" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="D48" s="14"/>
-    </row>
-    <row r="49" spans="2:3" ht="18">
-      <c r="B49" s="14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" ht="18">
-      <c r="C50" s="14" t="s">
-        <v>83</v>
-      </c>
     </row>
     <row r="51" spans="2:3" ht="18">
-      <c r="C51" s="14"/>
+      <c r="C51" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:F42"/>
+    <mergeCell ref="G41:J42"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:F15"/>
     <mergeCell ref="G14:J15"/>
@@ -6147,26 +6722,28 @@
     <mergeCell ref="F33:H33"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="C19:I19"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:F42"/>
-    <mergeCell ref="G41:J42"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:H7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T54"/>
   <sheetViews>
@@ -6177,915 +6754,903 @@
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="2:14" ht="15.95" customHeight="1">
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="14"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.95" customHeight="1">
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="14"/>
+    </row>
+    <row r="3" spans="2:14" ht="18">
+      <c r="B3" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="2:14" ht="18">
+      <c r="B4" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="B6" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+    </row>
+    <row r="8" spans="2:14" ht="18">
+      <c r="B8" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+    </row>
+    <row r="9" spans="2:14" ht="18">
+      <c r="B9" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+    </row>
+    <row r="10" spans="2:14" ht="18">
+      <c r="B10" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+    </row>
+    <row r="11" spans="2:14" ht="18">
+      <c r="B11" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+    </row>
+    <row r="12" spans="2:14" ht="18">
+      <c r="B12" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+    </row>
+    <row r="13" spans="2:14" ht="18">
+      <c r="B13" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+    </row>
+    <row r="14" spans="2:14" ht="18">
+      <c r="B14" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+    </row>
+    <row r="15" spans="2:14" ht="18">
+      <c r="B15" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+    </row>
+    <row r="16" spans="2:14" ht="18">
+      <c r="B16" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+    </row>
+    <row r="17" spans="2:20" ht="18">
+      <c r="B17" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+    </row>
+    <row r="18" spans="2:20" ht="18">
+      <c r="B18" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="21"/>
-    </row>
-    <row r="2" spans="2:14" ht="15.95" customHeight="1">
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="21"/>
-    </row>
-    <row r="3" spans="2:14" ht="18">
-      <c r="B3" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-    </row>
-    <row r="4" spans="2:14" ht="18">
-      <c r="B4" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-    </row>
-    <row r="6" spans="2:14">
-      <c r="B6" s="67" t="s">
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+    </row>
+    <row r="19" spans="2:20" ht="18">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+    </row>
+    <row r="20" spans="2:20" ht="20.100000000000001" customHeight="1">
+      <c r="B20" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="54"/>
+      <c r="R20" s="54"/>
+      <c r="S20" s="54"/>
+      <c r="T20" s="54"/>
+    </row>
+    <row r="21" spans="2:20" ht="15.95" customHeight="1">
+      <c r="B21" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="59" t="s">
+        <v>106</v>
+      </c>
+      <c r="K21" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="L21" s="51"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="51"/>
+      <c r="P21" s="51"/>
+      <c r="Q21" s="50"/>
+      <c r="R21" s="50"/>
+      <c r="S21" s="50"/>
+      <c r="T21" s="50"/>
+    </row>
+    <row r="22" spans="2:20" ht="18">
+      <c r="B22" s="60"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="51"/>
+      <c r="Q22" s="50"/>
+      <c r="R22" s="50"/>
+      <c r="S22" s="50"/>
+      <c r="T22" s="50"/>
+    </row>
+    <row r="23" spans="2:20" ht="21" customHeight="1">
+      <c r="B23" s="60"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="51"/>
+      <c r="P23" s="51"/>
+      <c r="Q23" s="50"/>
+      <c r="R23" s="50"/>
+      <c r="S23" s="50"/>
+      <c r="T23" s="50"/>
+    </row>
+    <row r="24" spans="2:20" ht="15.95" customHeight="1">
+      <c r="B24" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="K24" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="L24" s="51"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="51"/>
+      <c r="O24" s="51"/>
+      <c r="P24" s="51"/>
+      <c r="Q24" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="R24" s="49"/>
+      <c r="S24" s="49"/>
+      <c r="T24" s="49"/>
+    </row>
+    <row r="25" spans="2:20" ht="18">
+      <c r="B25" s="56"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="51"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="51"/>
+      <c r="P25" s="51"/>
+      <c r="Q25" s="49"/>
+      <c r="R25" s="49"/>
+      <c r="S25" s="49"/>
+      <c r="T25" s="49"/>
+    </row>
+    <row r="26" spans="2:20" ht="21.95" customHeight="1">
+      <c r="B26" s="56"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="51"/>
+      <c r="N26" s="51"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="49"/>
+      <c r="R26" s="49"/>
+      <c r="S26" s="49"/>
+      <c r="T26" s="49"/>
+    </row>
+    <row r="27" spans="2:20" ht="15.95" customHeight="1">
+      <c r="B27" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="K27" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-    </row>
-    <row r="7" spans="2:14">
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-    </row>
-    <row r="8" spans="2:14" ht="18">
-      <c r="B8" s="14" t="s">
+      <c r="L27" s="51"/>
+      <c r="M27" s="51"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="51"/>
+      <c r="P27" s="51"/>
+      <c r="Q27" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="R27" s="58"/>
+      <c r="S27" s="58"/>
+      <c r="T27" s="58"/>
+    </row>
+    <row r="28" spans="2:20" ht="20.100000000000001" customHeight="1">
+      <c r="B28" s="52"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="51"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="51"/>
+      <c r="N28" s="51"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="51"/>
+      <c r="Q28" s="58"/>
+      <c r="R28" s="58"/>
+      <c r="S28" s="58"/>
+      <c r="T28" s="58"/>
+    </row>
+    <row r="29" spans="2:20" ht="21" customHeight="1">
+      <c r="B29" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="51"/>
+      <c r="L29" s="51"/>
+      <c r="M29" s="51"/>
+      <c r="N29" s="51"/>
+      <c r="O29" s="51"/>
+      <c r="P29" s="51"/>
+      <c r="Q29" s="58"/>
+      <c r="R29" s="58"/>
+      <c r="S29" s="58"/>
+      <c r="T29" s="58"/>
+    </row>
+    <row r="30" spans="2:20" ht="23.1" customHeight="1">
+      <c r="B30" s="52"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="51"/>
+      <c r="L30" s="51"/>
+      <c r="M30" s="51"/>
+      <c r="N30" s="51"/>
+      <c r="O30" s="51"/>
+      <c r="P30" s="51"/>
+      <c r="Q30" s="58"/>
+      <c r="R30" s="58"/>
+      <c r="S30" s="58"/>
+      <c r="T30" s="58"/>
+    </row>
+    <row r="31" spans="2:20" ht="18">
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="51"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="51"/>
+      <c r="N31" s="51"/>
+      <c r="O31" s="51"/>
+      <c r="P31" s="51"/>
+      <c r="Q31" s="58"/>
+      <c r="R31" s="58"/>
+      <c r="S31" s="58"/>
+      <c r="T31" s="58"/>
+    </row>
+    <row r="32" spans="2:20" ht="18" customHeight="1">
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="K32" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-    </row>
-    <row r="9" spans="2:14" ht="18">
-      <c r="B9" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-    </row>
-    <row r="10" spans="2:14" ht="18">
-      <c r="B10" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-    </row>
-    <row r="11" spans="2:14" ht="18">
-      <c r="B11" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-    </row>
-    <row r="12" spans="2:14" ht="18">
-      <c r="B12" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-    </row>
-    <row r="13" spans="2:14" ht="18">
-      <c r="B13" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-    </row>
-    <row r="14" spans="2:14" ht="18">
-      <c r="B14" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-    </row>
-    <row r="15" spans="2:14" ht="18">
-      <c r="B15" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-    </row>
-    <row r="16" spans="2:14" ht="18">
-      <c r="B16" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-    </row>
-    <row r="17" spans="2:20" ht="18">
-      <c r="B17" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-    </row>
-    <row r="18" spans="2:20" ht="18">
-      <c r="B18" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-    </row>
-    <row r="19" spans="2:20" ht="18">
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-    </row>
-    <row r="20" spans="2:20" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="14" t="s">
+      <c r="L32" s="55"/>
+      <c r="M32" s="55"/>
+      <c r="N32" s="55"/>
+      <c r="O32" s="55"/>
+      <c r="P32" s="55"/>
+      <c r="Q32" s="50"/>
+      <c r="R32" s="50"/>
+      <c r="S32" s="50"/>
+      <c r="T32" s="50"/>
+    </row>
+    <row r="33" spans="2:20" ht="20.100000000000001" customHeight="1">
+      <c r="B33" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="55"/>
+      <c r="L33" s="55"/>
+      <c r="M33" s="55"/>
+      <c r="N33" s="55"/>
+      <c r="O33" s="55"/>
+      <c r="P33" s="55"/>
+      <c r="Q33" s="50"/>
+      <c r="R33" s="50"/>
+      <c r="S33" s="50"/>
+      <c r="T33" s="50"/>
+    </row>
+    <row r="34" spans="2:20" ht="15.95" customHeight="1">
+      <c r="B34" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="55"/>
+      <c r="L34" s="55"/>
+      <c r="M34" s="55"/>
+      <c r="N34" s="55"/>
+      <c r="O34" s="55"/>
+      <c r="P34" s="55"/>
+      <c r="Q34" s="50"/>
+      <c r="R34" s="50"/>
+      <c r="S34" s="50"/>
+      <c r="T34" s="50"/>
+    </row>
+    <row r="35" spans="2:20" ht="15.95" customHeight="1">
+      <c r="B35" s="57"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="55"/>
+      <c r="L35" s="55"/>
+      <c r="M35" s="55"/>
+      <c r="N35" s="55"/>
+      <c r="O35" s="55"/>
+      <c r="P35" s="55"/>
+      <c r="Q35" s="50"/>
+      <c r="R35" s="50"/>
+      <c r="S35" s="50"/>
+      <c r="T35" s="50"/>
+    </row>
+    <row r="36" spans="2:20" ht="15.95" customHeight="1">
+      <c r="B36" s="57"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="55"/>
+      <c r="L36" s="55"/>
+      <c r="M36" s="55"/>
+      <c r="N36" s="55"/>
+      <c r="O36" s="55"/>
+      <c r="P36" s="55"/>
+      <c r="Q36" s="50"/>
+      <c r="R36" s="50"/>
+      <c r="S36" s="50"/>
+      <c r="T36" s="50"/>
+    </row>
+    <row r="37" spans="2:20" ht="15.95" customHeight="1">
+      <c r="B37" s="57"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="56"/>
+      <c r="K37" s="55"/>
+      <c r="L37" s="55"/>
+      <c r="M37" s="55"/>
+      <c r="N37" s="55"/>
+      <c r="O37" s="55"/>
+      <c r="P37" s="55"/>
+      <c r="Q37" s="50"/>
+      <c r="R37" s="50"/>
+      <c r="S37" s="50"/>
+      <c r="T37" s="50"/>
+    </row>
+    <row r="38" spans="2:20" ht="15.95" customHeight="1">
+      <c r="B38" s="57"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="57"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="19"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
+    </row>
+    <row r="39" spans="2:20" ht="15.95" customHeight="1">
+      <c r="B39" s="57"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="57"/>
+      <c r="H39" s="57"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
+    </row>
+    <row r="40" spans="2:20" ht="20.25">
+      <c r="B40" s="57"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="57"/>
+      <c r="H40" s="57"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="13"/>
+    </row>
+    <row r="41" spans="2:20" ht="20.25">
+      <c r="B41" s="57"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="57"/>
+      <c r="G41" s="57"/>
+      <c r="H41" s="57"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+    </row>
+    <row r="42" spans="2:20" ht="20.25">
+      <c r="B42" s="57"/>
+      <c r="C42" s="57"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="57"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="57"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="13"/>
+    </row>
+    <row r="43" spans="2:20" ht="20.25">
+      <c r="B43" s="57"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="57"/>
+      <c r="H43" s="57"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="13"/>
+    </row>
+    <row r="44" spans="2:20" ht="20.25">
+      <c r="B44" s="57"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="57"/>
+      <c r="H44" s="57"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
+    </row>
+    <row r="45" spans="2:20" ht="20.25">
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="13"/>
+    </row>
+    <row r="46" spans="2:20" ht="20.25">
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="13"/>
+    </row>
+    <row r="47" spans="2:20" ht="23.25">
+      <c r="B47" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="13"/>
+    </row>
+    <row r="48" spans="2:20" ht="18">
+      <c r="B48" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="57"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="57"/>
-      <c r="P20" s="57"/>
-      <c r="Q20" s="57"/>
-      <c r="R20" s="57"/>
-      <c r="S20" s="57"/>
-      <c r="T20" s="57"/>
-    </row>
-    <row r="21" spans="2:20" ht="15.95" customHeight="1">
-      <c r="B21" s="63" t="s">
-        <v>117</v>
-      </c>
-      <c r="C21" s="66" t="s">
-        <v>116</v>
-      </c>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="62" t="s">
-        <v>126</v>
-      </c>
-      <c r="K21" s="64" t="s">
-        <v>130</v>
-      </c>
-      <c r="L21" s="64"/>
-      <c r="M21" s="64"/>
-      <c r="N21" s="64"/>
-      <c r="O21" s="64"/>
-      <c r="P21" s="64"/>
-      <c r="Q21" s="56"/>
-      <c r="R21" s="56"/>
-      <c r="S21" s="56"/>
-      <c r="T21" s="56"/>
-    </row>
-    <row r="22" spans="2:20" ht="18">
-      <c r="B22" s="63"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="64"/>
-      <c r="L22" s="64"/>
-      <c r="M22" s="64"/>
-      <c r="N22" s="64"/>
-      <c r="O22" s="64"/>
-      <c r="P22" s="64"/>
-      <c r="Q22" s="56"/>
-      <c r="R22" s="56"/>
-      <c r="S22" s="56"/>
-      <c r="T22" s="56"/>
-    </row>
-    <row r="23" spans="2:20" ht="21" customHeight="1">
-      <c r="B23" s="63"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="64"/>
-      <c r="L23" s="64"/>
-      <c r="M23" s="64"/>
-      <c r="N23" s="64"/>
-      <c r="O23" s="64"/>
-      <c r="P23" s="64"/>
-      <c r="Q23" s="56"/>
-      <c r="R23" s="56"/>
-      <c r="S23" s="56"/>
-      <c r="T23" s="56"/>
-    </row>
-    <row r="24" spans="2:20" ht="15.95" customHeight="1">
-      <c r="B24" s="59" t="s">
-        <v>120</v>
-      </c>
-      <c r="C24" s="66" t="s">
-        <v>119</v>
-      </c>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="59" t="s">
-        <v>127</v>
-      </c>
-      <c r="K24" s="64" t="s">
-        <v>131</v>
-      </c>
-      <c r="L24" s="64"/>
-      <c r="M24" s="64"/>
-      <c r="N24" s="64"/>
-      <c r="O24" s="64"/>
-      <c r="P24" s="64"/>
-      <c r="Q24" s="68" t="s">
-        <v>132</v>
-      </c>
-      <c r="R24" s="68"/>
-      <c r="S24" s="68"/>
-      <c r="T24" s="68"/>
-    </row>
-    <row r="25" spans="2:20" ht="18">
-      <c r="B25" s="59"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="64"/>
-      <c r="L25" s="64"/>
-      <c r="M25" s="64"/>
-      <c r="N25" s="64"/>
-      <c r="O25" s="64"/>
-      <c r="P25" s="64"/>
-      <c r="Q25" s="68"/>
-      <c r="R25" s="68"/>
-      <c r="S25" s="68"/>
-      <c r="T25" s="68"/>
-    </row>
-    <row r="26" spans="2:20" ht="21.95" customHeight="1">
-      <c r="B26" s="59"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="64"/>
-      <c r="L26" s="64"/>
-      <c r="M26" s="64"/>
-      <c r="N26" s="64"/>
-      <c r="O26" s="64"/>
-      <c r="P26" s="64"/>
-      <c r="Q26" s="68"/>
-      <c r="R26" s="68"/>
-      <c r="S26" s="68"/>
-      <c r="T26" s="68"/>
-    </row>
-    <row r="27" spans="2:20" ht="15.95" customHeight="1">
-      <c r="B27" s="65" t="s">
-        <v>121</v>
-      </c>
-      <c r="C27" s="58" t="s">
-        <v>122</v>
-      </c>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="59" t="s">
-        <v>128</v>
-      </c>
-      <c r="K27" s="64" t="s">
-        <v>134</v>
-      </c>
-      <c r="L27" s="64"/>
-      <c r="M27" s="64"/>
-      <c r="N27" s="64"/>
-      <c r="O27" s="64"/>
-      <c r="P27" s="64"/>
-      <c r="Q27" s="61" t="s">
-        <v>133</v>
-      </c>
-      <c r="R27" s="61"/>
-      <c r="S27" s="61"/>
-      <c r="T27" s="61"/>
-    </row>
-    <row r="28" spans="2:20" ht="20.100000000000001" customHeight="1">
-      <c r="B28" s="65"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="64"/>
-      <c r="L28" s="64"/>
-      <c r="M28" s="64"/>
-      <c r="N28" s="64"/>
-      <c r="O28" s="64"/>
-      <c r="P28" s="64"/>
-      <c r="Q28" s="61"/>
-      <c r="R28" s="61"/>
-      <c r="S28" s="61"/>
-      <c r="T28" s="61"/>
-    </row>
-    <row r="29" spans="2:20" ht="21" customHeight="1">
-      <c r="B29" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="C29" s="66" t="s">
-        <v>124</v>
-      </c>
-      <c r="D29" s="66"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="59"/>
-      <c r="K29" s="64"/>
-      <c r="L29" s="64"/>
-      <c r="M29" s="64"/>
-      <c r="N29" s="64"/>
-      <c r="O29" s="64"/>
-      <c r="P29" s="64"/>
-      <c r="Q29" s="61"/>
-      <c r="R29" s="61"/>
-      <c r="S29" s="61"/>
-      <c r="T29" s="61"/>
-    </row>
-    <row r="30" spans="2:20" ht="23.1" customHeight="1">
-      <c r="B30" s="65"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="66"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="59"/>
-      <c r="K30" s="64"/>
-      <c r="L30" s="64"/>
-      <c r="M30" s="64"/>
-      <c r="N30" s="64"/>
-      <c r="O30" s="64"/>
-      <c r="P30" s="64"/>
-      <c r="Q30" s="61"/>
-      <c r="R30" s="61"/>
-      <c r="S30" s="61"/>
-      <c r="T30" s="61"/>
-    </row>
-    <row r="31" spans="2:20" ht="18">
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="59"/>
-      <c r="K31" s="64"/>
-      <c r="L31" s="64"/>
-      <c r="M31" s="64"/>
-      <c r="N31" s="64"/>
-      <c r="O31" s="64"/>
-      <c r="P31" s="64"/>
-      <c r="Q31" s="61"/>
-      <c r="R31" s="61"/>
-      <c r="S31" s="61"/>
-      <c r="T31" s="61"/>
-    </row>
-    <row r="32" spans="2:20" ht="18" customHeight="1">
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="59" t="s">
-        <v>129</v>
-      </c>
-      <c r="K32" s="58" t="s">
-        <v>135</v>
-      </c>
-      <c r="L32" s="58"/>
-      <c r="M32" s="58"/>
-      <c r="N32" s="58"/>
-      <c r="O32" s="58"/>
-      <c r="P32" s="58"/>
-      <c r="Q32" s="56"/>
-      <c r="R32" s="56"/>
-      <c r="S32" s="56"/>
-      <c r="T32" s="56"/>
-    </row>
-    <row r="33" spans="2:20" ht="20.100000000000001" customHeight="1">
-      <c r="B33" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="59"/>
-      <c r="K33" s="58"/>
-      <c r="L33" s="58"/>
-      <c r="M33" s="58"/>
-      <c r="N33" s="58"/>
-      <c r="O33" s="58"/>
-      <c r="P33" s="58"/>
-      <c r="Q33" s="56"/>
-      <c r="R33" s="56"/>
-      <c r="S33" s="56"/>
-      <c r="T33" s="56"/>
-    </row>
-    <row r="34" spans="2:20" ht="15.95" customHeight="1">
-      <c r="B34" s="60" t="s">
-        <v>148</v>
-      </c>
-      <c r="C34" s="60"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="60"/>
-      <c r="G34" s="60"/>
-      <c r="H34" s="60"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="59"/>
-      <c r="K34" s="58"/>
-      <c r="L34" s="58"/>
-      <c r="M34" s="58"/>
-      <c r="N34" s="58"/>
-      <c r="O34" s="58"/>
-      <c r="P34" s="58"/>
-      <c r="Q34" s="56"/>
-      <c r="R34" s="56"/>
-      <c r="S34" s="56"/>
-      <c r="T34" s="56"/>
-    </row>
-    <row r="35" spans="2:20" ht="15.95" customHeight="1">
-      <c r="B35" s="60"/>
-      <c r="C35" s="60"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="60"/>
-      <c r="G35" s="60"/>
-      <c r="H35" s="60"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="59"/>
-      <c r="K35" s="58"/>
-      <c r="L35" s="58"/>
-      <c r="M35" s="58"/>
-      <c r="N35" s="58"/>
-      <c r="O35" s="58"/>
-      <c r="P35" s="58"/>
-      <c r="Q35" s="56"/>
-      <c r="R35" s="56"/>
-      <c r="S35" s="56"/>
-      <c r="T35" s="56"/>
-    </row>
-    <row r="36" spans="2:20" ht="15.95" customHeight="1">
-      <c r="B36" s="60"/>
-      <c r="C36" s="60"/>
-      <c r="D36" s="60"/>
-      <c r="E36" s="60"/>
-      <c r="F36" s="60"/>
-      <c r="G36" s="60"/>
-      <c r="H36" s="60"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="59"/>
-      <c r="K36" s="58"/>
-      <c r="L36" s="58"/>
-      <c r="M36" s="58"/>
-      <c r="N36" s="58"/>
-      <c r="O36" s="58"/>
-      <c r="P36" s="58"/>
-      <c r="Q36" s="56"/>
-      <c r="R36" s="56"/>
-      <c r="S36" s="56"/>
-      <c r="T36" s="56"/>
-    </row>
-    <row r="37" spans="2:20" ht="15.95" customHeight="1">
-      <c r="B37" s="60"/>
-      <c r="C37" s="60"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="60"/>
-      <c r="F37" s="60"/>
-      <c r="G37" s="60"/>
-      <c r="H37" s="60"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="59"/>
-      <c r="K37" s="58"/>
-      <c r="L37" s="58"/>
-      <c r="M37" s="58"/>
-      <c r="N37" s="58"/>
-      <c r="O37" s="58"/>
-      <c r="P37" s="58"/>
-      <c r="Q37" s="56"/>
-      <c r="R37" s="56"/>
-      <c r="S37" s="56"/>
-      <c r="T37" s="56"/>
-    </row>
-    <row r="38" spans="2:20" ht="15.95" customHeight="1">
-      <c r="B38" s="60"/>
-      <c r="C38" s="60"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="60"/>
-      <c r="F38" s="60"/>
-      <c r="G38" s="60"/>
-      <c r="H38" s="60"/>
-      <c r="I38" s="26"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="24"/>
-      <c r="N38" s="24"/>
-      <c r="O38" s="24"/>
-      <c r="P38" s="24"/>
-      <c r="Q38" s="24"/>
-    </row>
-    <row r="39" spans="2:20" ht="15.95" customHeight="1">
-      <c r="B39" s="60"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="60"/>
-      <c r="F39" s="60"/>
-      <c r="G39" s="60"/>
-      <c r="H39" s="60"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="24"/>
-      <c r="M39" s="24"/>
-      <c r="N39" s="24"/>
-      <c r="O39" s="24"/>
-      <c r="P39" s="24"/>
-      <c r="Q39" s="24"/>
-    </row>
-    <row r="40" spans="2:20" ht="20.25">
-      <c r="B40" s="60"/>
-      <c r="C40" s="60"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="60"/>
-      <c r="G40" s="60"/>
-      <c r="H40" s="60"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="20"/>
-      <c r="L40" s="20"/>
-      <c r="M40" s="20"/>
-    </row>
-    <row r="41" spans="2:20" ht="20.25">
-      <c r="B41" s="60"/>
-      <c r="C41" s="60"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="60"/>
-      <c r="F41" s="60"/>
-      <c r="G41" s="60"/>
-      <c r="H41" s="60"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="20"/>
-    </row>
-    <row r="42" spans="2:20" ht="20.25">
-      <c r="B42" s="60"/>
-      <c r="C42" s="60"/>
-      <c r="D42" s="60"/>
-      <c r="E42" s="60"/>
-      <c r="F42" s="60"/>
-      <c r="G42" s="60"/>
-      <c r="H42" s="60"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="20"/>
-    </row>
-    <row r="43" spans="2:20" ht="20.25">
-      <c r="B43" s="60"/>
-      <c r="C43" s="60"/>
-      <c r="D43" s="60"/>
-      <c r="E43" s="60"/>
-      <c r="F43" s="60"/>
-      <c r="G43" s="60"/>
-      <c r="H43" s="60"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="20"/>
-      <c r="L43" s="20"/>
-      <c r="M43" s="20"/>
-    </row>
-    <row r="44" spans="2:20" ht="20.25">
-      <c r="B44" s="60"/>
-      <c r="C44" s="60"/>
-      <c r="D44" s="60"/>
-      <c r="E44" s="60"/>
-      <c r="F44" s="60"/>
-      <c r="G44" s="60"/>
-      <c r="H44" s="60"/>
-      <c r="I44" s="26"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="20"/>
-      <c r="L44" s="20"/>
-      <c r="M44" s="20"/>
-    </row>
-    <row r="45" spans="2:20" ht="20.25">
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="26"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="20"/>
-      <c r="L45" s="20"/>
-      <c r="M45" s="20"/>
-    </row>
-    <row r="46" spans="2:20" ht="20.25">
-      <c r="B46" s="27"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="20"/>
-      <c r="K46" s="20"/>
-      <c r="L46" s="20"/>
-      <c r="M46" s="20"/>
-    </row>
-    <row r="47" spans="2:20" ht="23.25">
-      <c r="B47" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="C47" s="31"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="J47" s="20"/>
-      <c r="K47" s="20"/>
-      <c r="L47" s="20"/>
-      <c r="M47" s="20"/>
-    </row>
-    <row r="48" spans="2:20" ht="18">
-      <c r="B48" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="20"/>
-      <c r="L48" s="20"/>
-      <c r="M48" s="20"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="13"/>
     </row>
     <row r="49" spans="1:13" ht="18">
       <c r="A49" t="s">
-        <v>146</v>
-      </c>
-      <c r="B49" s="47" t="s">
-        <v>141</v>
-      </c>
-      <c r="C49" s="47"/>
-      <c r="D49" s="47"/>
-      <c r="E49" s="47" t="s">
-        <v>142</v>
-      </c>
-      <c r="F49" s="47"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="20"/>
-      <c r="K49" s="20"/>
-      <c r="L49" s="20"/>
-      <c r="M49" s="20"/>
+        <v>126</v>
+      </c>
+      <c r="B49" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="F49" s="33"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="13"/>
+      <c r="M49" s="13"/>
     </row>
     <row r="50" spans="1:13" ht="18">
-      <c r="B50" s="47" t="s">
-        <v>143</v>
-      </c>
-      <c r="C50" s="47"/>
-      <c r="D50" s="47"/>
-      <c r="E50" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="F50" s="47"/>
-      <c r="G50" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="H50" s="24"/>
-      <c r="I50" s="20"/>
-      <c r="J50" s="20"/>
-      <c r="K50" s="20"/>
-      <c r="L50" s="20"/>
-      <c r="M50" s="20"/>
+      <c r="B50" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C50" s="33"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="F50" s="33"/>
+      <c r="G50" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="H50" s="17"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="13"/>
+      <c r="M50" s="13"/>
     </row>
     <row r="51" spans="1:13" ht="18">
-      <c r="B51" s="14"/>
-      <c r="C51" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
     </row>
     <row r="54" spans="1:13" ht="18">
-      <c r="B54" s="14" t="s">
-        <v>147</v>
+      <c r="B54" s="8" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B6:D7"/>
-    <mergeCell ref="B1:H2"/>
-    <mergeCell ref="Q24:T26"/>
-    <mergeCell ref="Q21:T23"/>
-    <mergeCell ref="K21:P23"/>
-    <mergeCell ref="K24:P26"/>
-    <mergeCell ref="K27:P31"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C21:H23"/>
-    <mergeCell ref="C24:H26"/>
-    <mergeCell ref="C29:H30"/>
     <mergeCell ref="Q32:T37"/>
     <mergeCell ref="J20:T20"/>
     <mergeCell ref="E49:F49"/>
@@ -7102,1792 +7667,1538 @@
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="C27:H28"/>
+    <mergeCell ref="K27:P31"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C21:H23"/>
+    <mergeCell ref="C24:H26"/>
+    <mergeCell ref="C29:H30"/>
+    <mergeCell ref="B6:D7"/>
+    <mergeCell ref="B1:H2"/>
+    <mergeCell ref="Q24:T26"/>
+    <mergeCell ref="Q21:T23"/>
+    <mergeCell ref="K21:P23"/>
+    <mergeCell ref="K24:P26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J21"/>
+  <dimension ref="B3:R98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="2" spans="1:10" ht="18.95" customHeight="1">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.95" customHeight="1">
-      <c r="A3" s="14"/>
-      <c r="B3" s="62" t="s">
-        <v>104</v>
-      </c>
-      <c r="C3" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="66" t="s">
-        <v>108</v>
-      </c>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-    </row>
-    <row r="4" spans="1:10" ht="18">
-      <c r="A4" s="14"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="14"/>
-    </row>
-    <row r="5" spans="1:10" ht="38.1" customHeight="1">
-      <c r="A5" s="14"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="14"/>
-    </row>
-    <row r="6" spans="1:10" ht="18">
-      <c r="A6" s="14"/>
-      <c r="B6" s="62" t="s">
-        <v>106</v>
-      </c>
-      <c r="C6" s="69" t="s">
-        <v>107</v>
-      </c>
-      <c r="D6" s="69"/>
-      <c r="E6" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="14"/>
-    </row>
-    <row r="7" spans="1:10" ht="18">
-      <c r="A7" s="14"/>
-      <c r="B7" s="62"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-    </row>
-    <row r="8" spans="1:10" ht="32.1" customHeight="1">
-      <c r="A8" s="14"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-    </row>
-    <row r="9" spans="1:10" ht="18">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" ht="18">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-    </row>
-    <row r="11" spans="1:10" ht="18">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-    </row>
-    <row r="12" spans="1:10" ht="18">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-    </row>
-    <row r="13" spans="1:10" ht="18">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-    </row>
-    <row r="14" spans="1:10" ht="18">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-    </row>
-    <row r="15" spans="1:10" ht="18">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-    </row>
-    <row r="16" spans="1:10" ht="18">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-    </row>
-    <row r="17" spans="1:10" ht="18">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-    </row>
-    <row r="18" spans="1:10" ht="18">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-    </row>
-    <row r="19" spans="1:10" ht="18">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-    </row>
-    <row r="20" spans="1:10" ht="18">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-    </row>
-    <row r="21" spans="1:10" ht="18">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="E3:H5"/>
-    <mergeCell ref="E6:H8"/>
-    <mergeCell ref="C3:D5"/>
-    <mergeCell ref="C6:D8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B3:B5"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:R96"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="3" spans="2:18" ht="15.95" customHeight="1">
-      <c r="B3" s="76" t="s">
-        <v>154</v>
-      </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
+      <c r="B3" s="65" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
     </row>
     <row r="4" spans="2:18" ht="15.95" customHeight="1">
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
     </row>
     <row r="5" spans="2:18" ht="15.95" customHeight="1">
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="34"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
     </row>
     <row r="6" spans="2:18" ht="15.95" customHeight="1">
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="76"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="76"/>
-      <c r="O6" s="76"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="65"/>
+      <c r="O6" s="65"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
     </row>
     <row r="7" spans="2:18" ht="15.95" customHeight="1">
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
-      <c r="L7" s="76"/>
-      <c r="M7" s="76"/>
-      <c r="N7" s="76"/>
-      <c r="O7" s="76"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="34"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="65"/>
+      <c r="N7" s="65"/>
+      <c r="O7" s="65"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
     </row>
     <row r="8" spans="2:18" ht="15.95" customHeight="1">
-      <c r="B8" s="76"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="76"/>
-      <c r="M8" s="76"/>
-      <c r="N8" s="76"/>
-      <c r="O8" s="76"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="65"/>
+      <c r="O8" s="65"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
     </row>
     <row r="9" spans="2:18" ht="15.95" customHeight="1">
-      <c r="B9" s="76"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="76"/>
-      <c r="M9" s="76"/>
-      <c r="N9" s="76"/>
-      <c r="O9" s="76"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="65"/>
+      <c r="O9" s="65"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
     </row>
     <row r="10" spans="2:18" ht="15.95" customHeight="1">
-      <c r="B10" s="76"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="76"/>
-      <c r="L10" s="76"/>
-      <c r="M10" s="76"/>
-      <c r="N10" s="76"/>
-      <c r="O10" s="76"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="65"/>
+      <c r="M10" s="65"/>
+      <c r="N10" s="65"/>
+      <c r="O10" s="65"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
     </row>
     <row r="11" spans="2:18" ht="15.95" customHeight="1">
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
     </row>
     <row r="12" spans="2:18" ht="15.95" customHeight="1">
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
     </row>
     <row r="13" spans="2:18" ht="15.95" customHeight="1">
-      <c r="B13" s="79" t="s">
-        <v>211</v>
-      </c>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
+      <c r="B13" s="69" t="s">
+        <v>191</v>
+      </c>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
     </row>
     <row r="14" spans="2:18" ht="15.95" customHeight="1">
-      <c r="B14" s="73" t="s">
-        <v>196</v>
-      </c>
-      <c r="C14" s="58" t="s">
+      <c r="B14" s="66" t="s">
+        <v>176</v>
+      </c>
+      <c r="C14" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="47"/>
+      <c r="P14" s="62" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q14" s="62"/>
+    </row>
+    <row r="15" spans="2:18" ht="15.95" customHeight="1">
+      <c r="B15" s="67"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="62"/>
+      <c r="Q15" s="62"/>
+    </row>
+    <row r="16" spans="2:18" ht="15.95" customHeight="1">
+      <c r="B16" s="68"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="62"/>
+      <c r="Q16" s="62"/>
+    </row>
+    <row r="17" spans="2:17" ht="15.95" customHeight="1">
+      <c r="B17" s="66" t="s">
+        <v>178</v>
+      </c>
+      <c r="C17" s="55" t="s">
+        <v>179</v>
+      </c>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="47" t="s">
+        <v>180</v>
+      </c>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="61"/>
+      <c r="Q17" s="61"/>
+    </row>
+    <row r="18" spans="2:17" ht="15.95" customHeight="1">
+      <c r="B18" s="67"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="61"/>
+      <c r="Q18" s="61"/>
+    </row>
+    <row r="19" spans="2:17" ht="23.1" customHeight="1">
+      <c r="B19" s="68"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="61"/>
+      <c r="Q19" s="61"/>
+    </row>
+    <row r="20" spans="2:17" ht="15.95" customHeight="1">
+      <c r="B20" s="70" t="s">
+        <v>181</v>
+      </c>
+      <c r="C20" s="47" t="s">
+        <v>183</v>
+      </c>
+      <c r="D20" s="47"/>
+      <c r="E20" s="63" t="s">
+        <v>200</v>
+      </c>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="64" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q20" s="62"/>
+    </row>
+    <row r="21" spans="2:17" ht="15.95" customHeight="1">
+      <c r="B21" s="70"/>
+      <c r="C21" s="47" t="s">
+        <v>184</v>
+      </c>
+      <c r="D21" s="47"/>
+      <c r="E21" s="63" t="s">
+        <v>202</v>
+      </c>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47" t="s">
+        <v>186</v>
+      </c>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="47"/>
+      <c r="P21" s="62"/>
+      <c r="Q21" s="62"/>
+    </row>
+    <row r="22" spans="2:17" ht="15.95" customHeight="1">
+      <c r="B22" s="70"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="63" t="s">
+        <v>203</v>
+      </c>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="47"/>
+      <c r="O22" s="47"/>
+      <c r="P22" s="62"/>
+      <c r="Q22" s="62"/>
+    </row>
+    <row r="23" spans="2:17" ht="15.95" customHeight="1">
+      <c r="B23" s="70"/>
+      <c r="C23" s="47" t="s">
+        <v>185</v>
+      </c>
+      <c r="D23" s="47"/>
+      <c r="E23" s="63" t="s">
+        <v>204</v>
+      </c>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47" t="s">
+        <v>187</v>
+      </c>
+      <c r="L23" s="47"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="62"/>
+      <c r="Q23" s="62"/>
+    </row>
+    <row r="24" spans="2:17" ht="15.95" customHeight="1">
+      <c r="B24" s="70"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="63" t="s">
+        <v>205</v>
+      </c>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="63" t="s">
+        <v>206</v>
+      </c>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="47"/>
+      <c r="P24" s="62"/>
+      <c r="Q24" s="62"/>
+    </row>
+    <row r="25" spans="2:17" ht="15.95" customHeight="1">
+      <c r="B25" s="66" t="s">
+        <v>189</v>
+      </c>
+      <c r="C25" s="55" t="s">
+        <v>190</v>
+      </c>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="61"/>
+      <c r="Q25" s="61"/>
+    </row>
+    <row r="26" spans="2:17" ht="15.95" customHeight="1">
+      <c r="B26" s="67"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="47"/>
+      <c r="N26" s="47"/>
+      <c r="O26" s="47"/>
+      <c r="P26" s="61"/>
+      <c r="Q26" s="61"/>
+    </row>
+    <row r="27" spans="2:17" ht="15.95" customHeight="1">
+      <c r="B27" s="67"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="47"/>
+      <c r="O27" s="47"/>
+      <c r="P27" s="61"/>
+      <c r="Q27" s="61"/>
+    </row>
+    <row r="28" spans="2:17" ht="15.95" customHeight="1">
+      <c r="B28" s="67"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="47"/>
+      <c r="O28" s="47"/>
+      <c r="P28" s="61"/>
+      <c r="Q28" s="61"/>
+    </row>
+    <row r="29" spans="2:17" ht="15.95" customHeight="1">
+      <c r="B29" s="67"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="47"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="47"/>
+      <c r="P29" s="61"/>
+      <c r="Q29" s="61"/>
+    </row>
+    <row r="30" spans="2:17" ht="24" customHeight="1">
+      <c r="B30" s="67"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="47"/>
+      <c r="M30" s="47"/>
+      <c r="N30" s="47"/>
+      <c r="O30" s="47"/>
+      <c r="P30" s="61"/>
+      <c r="Q30" s="61"/>
+    </row>
+    <row r="31" spans="2:17" ht="25.5" customHeight="1">
+      <c r="B31" s="31" t="s">
         <v>197</v>
       </c>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="50"/>
-      <c r="P14" s="77" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q14" s="77"/>
-    </row>
-    <row r="15" spans="2:18" ht="15.95" customHeight="1">
-      <c r="B15" s="74"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="50"/>
-      <c r="P15" s="77"/>
-      <c r="Q15" s="77"/>
-    </row>
-    <row r="16" spans="2:18" ht="15.95" customHeight="1">
-      <c r="B16" s="75"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="50"/>
-      <c r="P16" s="77"/>
-      <c r="Q16" s="77"/>
-    </row>
-    <row r="17" spans="2:17" ht="15.95" customHeight="1">
-      <c r="B17" s="73" t="s">
+      <c r="C31" s="55" t="s">
         <v>198</v>
       </c>
-      <c r="C17" s="58" t="s">
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="47"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="61"/>
+      <c r="Q31" s="61"/>
+    </row>
+    <row r="32" spans="2:17" ht="15.95" customHeight="1">
+      <c r="B32" s="66" t="s">
+        <v>188</v>
+      </c>
+      <c r="C32" s="63" t="s">
         <v>199</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="50" t="s">
-        <v>200</v>
-      </c>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="50"/>
-      <c r="P17" s="71"/>
-      <c r="Q17" s="71"/>
-    </row>
-    <row r="18" spans="2:17" ht="15.95" customHeight="1">
-      <c r="B18" s="74"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="50"/>
-      <c r="P18" s="71"/>
-      <c r="Q18" s="71"/>
-    </row>
-    <row r="19" spans="2:17" ht="23.1" customHeight="1">
-      <c r="B19" s="75"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="71"/>
-      <c r="Q19" s="71"/>
-    </row>
-    <row r="20" spans="2:17" ht="15.95" customHeight="1">
-      <c r="B20" s="72" t="s">
-        <v>201</v>
-      </c>
-      <c r="C20" s="50" t="s">
-        <v>203</v>
-      </c>
-      <c r="D20" s="50"/>
-      <c r="E20" s="70" t="s">
-        <v>220</v>
-      </c>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="50"/>
-      <c r="O20" s="50"/>
-      <c r="P20" s="78" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q20" s="77"/>
-    </row>
-    <row r="21" spans="2:17" ht="15.95" customHeight="1">
-      <c r="B21" s="72"/>
-      <c r="C21" s="50" t="s">
-        <v>204</v>
-      </c>
-      <c r="D21" s="50"/>
-      <c r="E21" s="70" t="s">
-        <v>222</v>
-      </c>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50" t="s">
-        <v>206</v>
-      </c>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="50"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="77"/>
-      <c r="Q21" s="77"/>
-    </row>
-    <row r="22" spans="2:17" ht="15.95" customHeight="1">
-      <c r="B22" s="72"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="70" t="s">
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="47"/>
+      <c r="O32" s="47"/>
+      <c r="P32" s="61"/>
+      <c r="Q32" s="61"/>
+    </row>
+    <row r="33" spans="2:17" ht="15.95" customHeight="1">
+      <c r="B33" s="67"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="47"/>
+      <c r="L33" s="47"/>
+      <c r="M33" s="47"/>
+      <c r="N33" s="47"/>
+      <c r="O33" s="47"/>
+      <c r="P33" s="61"/>
+      <c r="Q33" s="61"/>
+    </row>
+    <row r="34" spans="2:17" ht="15.95" customHeight="1">
+      <c r="B34" s="68"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="47"/>
+      <c r="M34" s="47"/>
+      <c r="N34" s="47"/>
+      <c r="O34" s="47"/>
+      <c r="P34" s="61"/>
+      <c r="Q34" s="61"/>
+    </row>
+    <row r="35" spans="2:17" ht="15.95" customHeight="1">
+      <c r="B35" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="26"/>
+    </row>
+    <row r="36" spans="2:17" ht="15.95" customHeight="1">
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="26"/>
+    </row>
+    <row r="37" spans="2:17" ht="15.95" customHeight="1">
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="26"/>
+    </row>
+    <row r="38" spans="2:17" ht="15.95" customHeight="1">
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="26"/>
+    </row>
+    <row r="39" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="26"/>
+    </row>
+    <row r="40" spans="2:17" ht="19.5" customHeight="1">
+      <c r="B40" s="59" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="86" t="s">
         <v>223</v>
       </c>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="50"/>
-      <c r="O22" s="50"/>
-      <c r="P22" s="77"/>
-      <c r="Q22" s="77"/>
-    </row>
-    <row r="23" spans="2:17" ht="15.95" customHeight="1">
-      <c r="B23" s="72"/>
-      <c r="C23" s="50" t="s">
-        <v>205</v>
-      </c>
-      <c r="D23" s="50"/>
-      <c r="E23" s="70" t="s">
+      <c r="D40" s="86"/>
+      <c r="E40" s="87" t="s">
         <v>224</v>
       </c>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50" t="s">
-        <v>207</v>
-      </c>
-      <c r="L23" s="50"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="50"/>
-      <c r="O23" s="50"/>
-      <c r="P23" s="77"/>
-      <c r="Q23" s="77"/>
-    </row>
-    <row r="24" spans="2:17" ht="15.95" customHeight="1">
-      <c r="B24" s="72"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="70" t="s">
+      <c r="F40" s="87"/>
+      <c r="G40" s="87"/>
+      <c r="H40" s="87"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="26"/>
+      <c r="M40" s="26"/>
+    </row>
+    <row r="41" spans="2:17" ht="18" customHeight="1">
+      <c r="B41" s="59"/>
+      <c r="C41" s="86"/>
+      <c r="D41" s="86"/>
+      <c r="E41" s="87"/>
+      <c r="F41" s="87"/>
+      <c r="G41" s="87"/>
+      <c r="H41" s="87"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="80" t="s">
+        <v>227</v>
+      </c>
+      <c r="K41" s="80"/>
+      <c r="L41" s="80"/>
+      <c r="M41" s="80"/>
+      <c r="N41" s="80"/>
+      <c r="O41" s="80"/>
+    </row>
+    <row r="42" spans="2:17" ht="19.5" customHeight="1">
+      <c r="B42" s="59"/>
+      <c r="C42" s="86"/>
+      <c r="D42" s="86"/>
+      <c r="E42" s="87"/>
+      <c r="F42" s="87"/>
+      <c r="G42" s="87"/>
+      <c r="H42" s="87"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="80" t="s">
+        <v>228</v>
+      </c>
+      <c r="K42" s="80"/>
+      <c r="L42" s="80"/>
+      <c r="M42" s="80"/>
+      <c r="N42" s="80"/>
+      <c r="O42" s="80"/>
+    </row>
+    <row r="43" spans="2:17" ht="19.5" customHeight="1">
+      <c r="B43" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="88" t="s">
         <v>225</v>
       </c>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="70" t="s">
+      <c r="D43" s="88"/>
+      <c r="E43" s="87" t="s">
         <v>226</v>
       </c>
-      <c r="L24" s="50"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="50"/>
-      <c r="O24" s="50"/>
-      <c r="P24" s="77"/>
-      <c r="Q24" s="77"/>
-    </row>
-    <row r="25" spans="2:17" ht="15.95" customHeight="1">
-      <c r="B25" s="73" t="s">
-        <v>209</v>
-      </c>
-      <c r="C25" s="58" t="s">
-        <v>210</v>
-      </c>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="50"/>
-      <c r="O25" s="50"/>
-      <c r="P25" s="71"/>
-      <c r="Q25" s="71"/>
-    </row>
-    <row r="26" spans="2:17" ht="15.95" customHeight="1">
-      <c r="B26" s="74"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="50"/>
-      <c r="N26" s="50"/>
-      <c r="O26" s="50"/>
-      <c r="P26" s="71"/>
-      <c r="Q26" s="71"/>
-    </row>
-    <row r="27" spans="2:17" ht="15.95" customHeight="1">
-      <c r="B27" s="74"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="50"/>
-      <c r="M27" s="50"/>
-      <c r="N27" s="50"/>
-      <c r="O27" s="50"/>
-      <c r="P27" s="71"/>
-      <c r="Q27" s="71"/>
-    </row>
-    <row r="28" spans="2:17" ht="15.95" customHeight="1">
-      <c r="B28" s="74"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="50"/>
-      <c r="L28" s="50"/>
-      <c r="M28" s="50"/>
-      <c r="N28" s="50"/>
-      <c r="O28" s="50"/>
-      <c r="P28" s="71"/>
-      <c r="Q28" s="71"/>
-    </row>
-    <row r="29" spans="2:17" ht="15.95" customHeight="1">
-      <c r="B29" s="74"/>
-      <c r="C29" s="58"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="50"/>
-      <c r="M29" s="50"/>
-      <c r="N29" s="50"/>
-      <c r="O29" s="50"/>
-      <c r="P29" s="71"/>
-      <c r="Q29" s="71"/>
-    </row>
-    <row r="30" spans="2:17" ht="24" customHeight="1">
-      <c r="B30" s="74"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="58"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="50"/>
-      <c r="M30" s="50"/>
-      <c r="N30" s="50"/>
-      <c r="O30" s="50"/>
-      <c r="P30" s="71"/>
-      <c r="Q30" s="71"/>
-    </row>
-    <row r="31" spans="2:17" ht="25.5" customHeight="1">
-      <c r="B31" s="39" t="s">
-        <v>217</v>
-      </c>
-      <c r="C31" s="58" t="s">
-        <v>218</v>
-      </c>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="58"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="50"/>
-      <c r="M31" s="50"/>
-      <c r="N31" s="50"/>
-      <c r="O31" s="50"/>
-      <c r="P31" s="71"/>
-      <c r="Q31" s="71"/>
-    </row>
-    <row r="32" spans="2:17" ht="15.95" customHeight="1">
-      <c r="B32" s="73" t="s">
-        <v>208</v>
-      </c>
-      <c r="C32" s="70" t="s">
-        <v>219</v>
-      </c>
-      <c r="D32" s="70"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="70"/>
-      <c r="G32" s="70"/>
-      <c r="H32" s="70"/>
-      <c r="I32" s="70"/>
-      <c r="J32" s="70"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="50"/>
-      <c r="M32" s="50"/>
-      <c r="N32" s="50"/>
-      <c r="O32" s="50"/>
-      <c r="P32" s="71"/>
-      <c r="Q32" s="71"/>
-    </row>
-    <row r="33" spans="2:17" ht="15.95" customHeight="1">
-      <c r="B33" s="74"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="70"/>
-      <c r="F33" s="70"/>
-      <c r="G33" s="70"/>
-      <c r="H33" s="70"/>
-      <c r="I33" s="70"/>
-      <c r="J33" s="70"/>
-      <c r="K33" s="50"/>
-      <c r="L33" s="50"/>
-      <c r="M33" s="50"/>
-      <c r="N33" s="50"/>
-      <c r="O33" s="50"/>
-      <c r="P33" s="71"/>
-      <c r="Q33" s="71"/>
-    </row>
-    <row r="34" spans="2:17" ht="15.95" customHeight="1">
-      <c r="B34" s="75"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="70"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="70"/>
-      <c r="H34" s="70"/>
-      <c r="I34" s="70"/>
-      <c r="J34" s="70"/>
-      <c r="K34" s="50"/>
-      <c r="L34" s="50"/>
-      <c r="M34" s="50"/>
-      <c r="N34" s="50"/>
-      <c r="O34" s="50"/>
-      <c r="P34" s="71"/>
-      <c r="Q34" s="71"/>
-    </row>
-    <row r="35" spans="2:17" ht="15.95" customHeight="1">
-      <c r="B35" s="40" t="s">
-        <v>227</v>
-      </c>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="34"/>
-      <c r="K35" s="34"/>
-      <c r="L35" s="34"/>
-      <c r="M35" s="34"/>
-    </row>
-    <row r="36" spans="2:17" ht="15.95" customHeight="1">
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="34"/>
-      <c r="L36" s="34"/>
-      <c r="M36" s="34"/>
-    </row>
-    <row r="37" spans="2:17" ht="15.95" customHeight="1">
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="34"/>
-      <c r="M37" s="34"/>
-    </row>
-    <row r="38" spans="2:17" ht="15.95" customHeight="1">
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="34"/>
-    </row>
-    <row r="39" spans="2:17" ht="15.95" customHeight="1">
-      <c r="B39" s="34"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="34"/>
-      <c r="K39" s="34"/>
-      <c r="L39" s="34"/>
-      <c r="M39" s="34"/>
-    </row>
-    <row r="40" spans="2:17" ht="15.95" customHeight="1">
-      <c r="B40" s="34"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="34"/>
-      <c r="J40" s="34"/>
-      <c r="K40" s="34"/>
-      <c r="L40" s="34"/>
-      <c r="M40" s="34"/>
-    </row>
-    <row r="41" spans="2:17" ht="15.95" customHeight="1">
-      <c r="B41" s="34"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="34"/>
-      <c r="K41" s="34"/>
-      <c r="L41" s="34"/>
-      <c r="M41" s="34"/>
-    </row>
-    <row r="42" spans="2:17" ht="15.95" customHeight="1">
-      <c r="B42" s="34"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="34"/>
-      <c r="K42" s="34"/>
-      <c r="L42" s="34"/>
-      <c r="M42" s="34"/>
-    </row>
-    <row r="43" spans="2:17" ht="15.95" customHeight="1">
-      <c r="B43" s="34"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="34"/>
-      <c r="K43" s="34"/>
-      <c r="L43" s="34"/>
-      <c r="M43" s="34"/>
-    </row>
-    <row r="44" spans="2:17" ht="15.95" customHeight="1">
-      <c r="B44" s="34"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="34"/>
-      <c r="K44" s="34"/>
-      <c r="L44" s="34"/>
-      <c r="M44" s="34"/>
-    </row>
-    <row r="45" spans="2:17" ht="15.95" customHeight="1">
-      <c r="B45" s="34"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="34"/>
-      <c r="K45" s="34"/>
-      <c r="L45" s="34"/>
-      <c r="M45" s="34"/>
+      <c r="F43" s="87"/>
+      <c r="G43" s="87"/>
+      <c r="H43" s="87"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="72" t="s">
+        <v>93</v>
+      </c>
+      <c r="K43" s="80"/>
+      <c r="L43" s="80"/>
+      <c r="M43" s="80"/>
+      <c r="N43" s="80"/>
+      <c r="O43" s="80"/>
+    </row>
+    <row r="44" spans="2:17" ht="23.25" customHeight="1">
+      <c r="B44" s="59"/>
+      <c r="C44" s="88"/>
+      <c r="D44" s="88"/>
+      <c r="E44" s="87"/>
+      <c r="F44" s="87"/>
+      <c r="G44" s="87"/>
+      <c r="H44" s="87"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="80" t="s">
+        <v>229</v>
+      </c>
+      <c r="K44" s="80"/>
+      <c r="L44" s="80"/>
+      <c r="M44" s="80"/>
+      <c r="N44" s="80"/>
+      <c r="O44" s="80"/>
+    </row>
+    <row r="45" spans="2:17" ht="16.5" customHeight="1">
+      <c r="B45" s="59"/>
+      <c r="C45" s="88"/>
+      <c r="D45" s="88"/>
+      <c r="E45" s="87"/>
+      <c r="F45" s="87"/>
+      <c r="G45" s="87"/>
+      <c r="H45" s="87"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="26"/>
+      <c r="K45" s="26"/>
+      <c r="L45" s="26"/>
+      <c r="M45" s="26"/>
     </row>
     <row r="46" spans="2:17" ht="15.95" customHeight="1">
-      <c r="B46" s="34"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="34"/>
-      <c r="I46" s="34"/>
-      <c r="J46" s="34"/>
-      <c r="K46" s="34"/>
-      <c r="L46" s="34"/>
-      <c r="M46" s="34"/>
+      <c r="B46" s="80"/>
+      <c r="C46" s="80"/>
+      <c r="D46" s="80"/>
+      <c r="E46" s="80"/>
+      <c r="F46" s="80"/>
+      <c r="G46" s="80"/>
+      <c r="H46" s="80"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="26"/>
+      <c r="L46" s="26"/>
+      <c r="M46" s="26"/>
     </row>
     <row r="47" spans="2:17" ht="15.95" customHeight="1">
-      <c r="B47" s="34"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="34"/>
-      <c r="J47" s="34"/>
-      <c r="K47" s="34"/>
-      <c r="L47" s="34"/>
-      <c r="M47" s="34"/>
+      <c r="B47" s="80"/>
+      <c r="C47" s="80"/>
+      <c r="D47" s="80"/>
+      <c r="E47" s="80"/>
+      <c r="F47" s="80"/>
+      <c r="G47" s="80"/>
+      <c r="H47" s="80"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="26"/>
+      <c r="K47" s="26"/>
+      <c r="L47" s="26"/>
+      <c r="M47" s="26"/>
     </row>
     <row r="48" spans="2:17" ht="15.95" customHeight="1">
-      <c r="B48" s="34"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="34"/>
-      <c r="I48" s="34"/>
-      <c r="J48" s="34"/>
-      <c r="K48" s="34"/>
-      <c r="L48" s="34"/>
-      <c r="M48" s="34"/>
+      <c r="B48" s="80"/>
+      <c r="C48" s="80"/>
+      <c r="D48" s="80"/>
+      <c r="E48" s="80"/>
+      <c r="F48" s="80"/>
+      <c r="G48" s="80"/>
+      <c r="H48" s="80"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="26"/>
+      <c r="K48" s="26"/>
+      <c r="L48" s="26"/>
+      <c r="M48" s="26"/>
     </row>
     <row r="49" spans="2:13" ht="15.95" customHeight="1">
-      <c r="B49" s="34"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="34"/>
-      <c r="G49" s="34"/>
-      <c r="H49" s="34"/>
-      <c r="I49" s="34"/>
-      <c r="J49" s="34"/>
-      <c r="K49" s="34"/>
-      <c r="L49" s="34"/>
-      <c r="M49" s="34"/>
+      <c r="H49" s="80"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="26"/>
+      <c r="K49" s="26"/>
+      <c r="L49" s="26"/>
+      <c r="M49" s="26"/>
     </row>
     <row r="50" spans="2:13" ht="15.95" customHeight="1">
-      <c r="B50" s="34"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="34"/>
-      <c r="I50" s="34"/>
-      <c r="J50" s="34"/>
-      <c r="K50" s="34"/>
-      <c r="L50" s="34"/>
-      <c r="M50" s="34"/>
+      <c r="H50" s="80"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="26"/>
+      <c r="K50" s="26"/>
+      <c r="L50" s="26"/>
+      <c r="M50" s="26"/>
     </row>
     <row r="51" spans="2:13" ht="15.95" customHeight="1">
-      <c r="B51" s="34"/>
-      <c r="C51" s="34"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="34"/>
-      <c r="I51" s="34"/>
-      <c r="J51" s="34"/>
-      <c r="K51" s="34"/>
-      <c r="L51" s="34"/>
-      <c r="M51" s="34"/>
+      <c r="H51" s="80"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="26"/>
+      <c r="K51" s="26"/>
+      <c r="L51" s="26"/>
+      <c r="M51" s="26"/>
     </row>
     <row r="52" spans="2:13" ht="15.95" customHeight="1">
-      <c r="B52" s="34"/>
-      <c r="C52" s="34"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="34"/>
-      <c r="H52" s="34"/>
-      <c r="I52" s="34"/>
-      <c r="J52" s="34"/>
-      <c r="K52" s="34"/>
-      <c r="L52" s="34"/>
-      <c r="M52" s="34"/>
+      <c r="H52" s="80"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="26"/>
+      <c r="K52" s="26"/>
+      <c r="L52" s="26"/>
+      <c r="M52" s="26"/>
     </row>
     <row r="53" spans="2:13" ht="15.95" customHeight="1">
-      <c r="B53" s="34"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="34"/>
-      <c r="J53" s="34"/>
-      <c r="K53" s="34"/>
-      <c r="L53" s="34"/>
-      <c r="M53" s="34"/>
+      <c r="B53" s="26"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="26"/>
+      <c r="K53" s="26"/>
+      <c r="L53" s="26"/>
+      <c r="M53" s="26"/>
     </row>
     <row r="54" spans="2:13" ht="15.95" customHeight="1">
-      <c r="B54" s="34"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="34"/>
-      <c r="H54" s="34"/>
-      <c r="I54" s="34"/>
-      <c r="J54" s="34"/>
-      <c r="K54" s="34"/>
-      <c r="L54" s="34"/>
-      <c r="M54" s="34"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="26"/>
+      <c r="J54" s="26"/>
+      <c r="K54" s="26"/>
+      <c r="L54" s="26"/>
+      <c r="M54" s="26"/>
     </row>
     <row r="55" spans="2:13" ht="15.95" customHeight="1">
-      <c r="B55" s="34"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="34"/>
-      <c r="G55" s="34"/>
-      <c r="H55" s="34"/>
-      <c r="I55" s="34"/>
-      <c r="J55" s="34"/>
-      <c r="K55" s="34"/>
-      <c r="L55" s="34"/>
-      <c r="M55" s="34"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="26"/>
+      <c r="J55" s="26"/>
+      <c r="K55" s="26"/>
+      <c r="L55" s="26"/>
+      <c r="M55" s="26"/>
     </row>
     <row r="56" spans="2:13" ht="15.95" customHeight="1">
-      <c r="B56" s="34"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="34"/>
-      <c r="G56" s="34"/>
-      <c r="H56" s="34"/>
-      <c r="I56" s="34"/>
-      <c r="J56" s="34"/>
-      <c r="K56" s="34"/>
-      <c r="L56" s="34"/>
-      <c r="M56" s="34"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="26"/>
+      <c r="I56" s="26"/>
+      <c r="J56" s="26"/>
+      <c r="K56" s="26"/>
+      <c r="L56" s="26"/>
+      <c r="M56" s="26"/>
     </row>
     <row r="57" spans="2:13" ht="15.95" customHeight="1">
-      <c r="B57" s="34"/>
-      <c r="C57" s="34"/>
-      <c r="D57" s="34"/>
-      <c r="E57" s="34"/>
-      <c r="F57" s="34"/>
-      <c r="G57" s="34"/>
-      <c r="H57" s="34"/>
-      <c r="I57" s="34"/>
-      <c r="J57" s="34"/>
-      <c r="K57" s="34"/>
-      <c r="L57" s="34"/>
-      <c r="M57" s="34"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="26"/>
+      <c r="I57" s="26"/>
+      <c r="J57" s="26"/>
+      <c r="K57" s="26"/>
+      <c r="L57" s="26"/>
+      <c r="M57" s="26"/>
     </row>
     <row r="58" spans="2:13" ht="15.95" customHeight="1">
-      <c r="B58" s="34"/>
-      <c r="C58" s="34"/>
-      <c r="D58" s="34"/>
-      <c r="E58" s="34"/>
-      <c r="F58" s="34"/>
-      <c r="G58" s="34"/>
-      <c r="H58" s="34"/>
-      <c r="I58" s="34"/>
-      <c r="J58" s="34"/>
-      <c r="K58" s="34"/>
-      <c r="L58" s="34"/>
+      <c r="B58" s="26"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="26"/>
+      <c r="I58" s="26"/>
+      <c r="J58" s="26"/>
+      <c r="K58" s="26"/>
+      <c r="L58" s="26"/>
+      <c r="M58" s="26"/>
     </row>
     <row r="59" spans="2:13" ht="15.95" customHeight="1">
-      <c r="B59" s="34"/>
-      <c r="C59" s="34"/>
-      <c r="D59" s="34"/>
-      <c r="E59" s="34"/>
-      <c r="F59" s="34"/>
-      <c r="G59" s="34"/>
-      <c r="H59" s="34"/>
-      <c r="I59" s="34"/>
-      <c r="J59" s="34"/>
-      <c r="K59" s="34"/>
-      <c r="L59" s="34"/>
+      <c r="B59" s="26"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="26"/>
+      <c r="I59" s="26"/>
+      <c r="J59" s="26"/>
+      <c r="K59" s="26"/>
+      <c r="L59" s="26"/>
+      <c r="M59" s="26"/>
     </row>
     <row r="60" spans="2:13" ht="15.95" customHeight="1">
-      <c r="B60" s="34"/>
-      <c r="C60" s="34"/>
-      <c r="D60" s="34"/>
-      <c r="E60" s="34"/>
-      <c r="F60" s="34"/>
-      <c r="G60" s="34"/>
-      <c r="H60" s="34"/>
-      <c r="I60" s="34"/>
-      <c r="J60" s="34"/>
-      <c r="K60" s="34"/>
-      <c r="L60" s="34"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="26"/>
+      <c r="I60" s="26"/>
+      <c r="J60" s="26"/>
+      <c r="K60" s="26"/>
+      <c r="L60" s="26"/>
     </row>
     <row r="61" spans="2:13" ht="15.95" customHeight="1">
-      <c r="B61" s="34"/>
-      <c r="C61" s="34"/>
-      <c r="D61" s="34"/>
-      <c r="E61" s="34"/>
-      <c r="F61" s="34"/>
-      <c r="G61" s="34"/>
-      <c r="H61" s="34"/>
-      <c r="I61" s="34"/>
-      <c r="J61" s="34"/>
-      <c r="K61" s="34"/>
-      <c r="L61" s="34"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="26"/>
+      <c r="I61" s="26"/>
+      <c r="J61" s="26"/>
+      <c r="K61" s="26"/>
+      <c r="L61" s="26"/>
     </row>
     <row r="62" spans="2:13" ht="15.95" customHeight="1">
-      <c r="B62" s="34"/>
-      <c r="C62" s="34"/>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="34"/>
-      <c r="I62" s="34"/>
-      <c r="J62" s="34"/>
-      <c r="K62" s="34"/>
-      <c r="L62" s="34"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="26"/>
+      <c r="I62" s="26"/>
+      <c r="J62" s="26"/>
+      <c r="K62" s="26"/>
+      <c r="L62" s="26"/>
     </row>
     <row r="63" spans="2:13" ht="15.95" customHeight="1">
-      <c r="B63" s="34"/>
-      <c r="C63" s="34"/>
-      <c r="D63" s="34"/>
-      <c r="E63" s="34"/>
-      <c r="F63" s="34"/>
-      <c r="G63" s="34"/>
-      <c r="H63" s="34"/>
-      <c r="I63" s="34"/>
-      <c r="J63" s="34"/>
-      <c r="K63" s="34"/>
-      <c r="L63" s="34"/>
+      <c r="B63" s="26"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="26"/>
+      <c r="G63" s="26"/>
+      <c r="H63" s="26"/>
+      <c r="I63" s="26"/>
+      <c r="J63" s="26"/>
+      <c r="K63" s="26"/>
+      <c r="L63" s="26"/>
     </row>
     <row r="64" spans="2:13" ht="15.95" customHeight="1">
-      <c r="B64" s="34"/>
-      <c r="C64" s="34"/>
-      <c r="D64" s="34"/>
-      <c r="E64" s="34"/>
-      <c r="F64" s="34"/>
-      <c r="G64" s="34"/>
-      <c r="H64" s="34"/>
-      <c r="I64" s="34"/>
-      <c r="J64" s="34"/>
-      <c r="K64" s="34"/>
-      <c r="L64" s="34"/>
+      <c r="B64" s="26"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="26"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="26"/>
+      <c r="J64" s="26"/>
+      <c r="K64" s="26"/>
+      <c r="L64" s="26"/>
     </row>
     <row r="65" spans="2:12" ht="15.95" customHeight="1">
-      <c r="B65" s="34"/>
-      <c r="C65" s="34"/>
-      <c r="D65" s="34"/>
-      <c r="E65" s="34"/>
-      <c r="F65" s="34"/>
-      <c r="G65" s="34"/>
-      <c r="H65" s="34"/>
-      <c r="I65" s="34"/>
-      <c r="J65" s="34"/>
-      <c r="K65" s="34"/>
-      <c r="L65" s="34"/>
+      <c r="B65" s="26"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="26"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="26"/>
+      <c r="H65" s="26"/>
+      <c r="I65" s="26"/>
+      <c r="J65" s="26"/>
+      <c r="K65" s="26"/>
+      <c r="L65" s="26"/>
     </row>
     <row r="66" spans="2:12" ht="15.95" customHeight="1">
-      <c r="B66" s="34"/>
-      <c r="C66" s="34"/>
-      <c r="D66" s="34"/>
-      <c r="E66" s="34"/>
-      <c r="F66" s="34"/>
-      <c r="G66" s="34"/>
-      <c r="H66" s="34"/>
-      <c r="I66" s="34"/>
-      <c r="J66" s="34"/>
-      <c r="K66" s="34"/>
-      <c r="L66" s="34"/>
+      <c r="B66" s="26"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="26"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="26"/>
+      <c r="G66" s="26"/>
+      <c r="H66" s="26"/>
+      <c r="I66" s="26"/>
+      <c r="J66" s="26"/>
+      <c r="K66" s="26"/>
+      <c r="L66" s="26"/>
     </row>
     <row r="67" spans="2:12" ht="15.95" customHeight="1">
-      <c r="B67" s="34"/>
-      <c r="C67" s="34"/>
-      <c r="D67" s="34"/>
-      <c r="E67" s="34"/>
-      <c r="F67" s="34"/>
-      <c r="G67" s="34"/>
-      <c r="H67" s="34"/>
-      <c r="I67" s="34"/>
-      <c r="J67" s="34"/>
-      <c r="K67" s="34"/>
-      <c r="L67" s="34"/>
+      <c r="B67" s="26"/>
+      <c r="C67" s="26"/>
+      <c r="D67" s="26"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="26"/>
+      <c r="G67" s="26"/>
+      <c r="H67" s="26"/>
+      <c r="I67" s="26"/>
+      <c r="J67" s="26"/>
+      <c r="K67" s="26"/>
+      <c r="L67" s="26"/>
     </row>
     <row r="68" spans="2:12" ht="15.95" customHeight="1">
-      <c r="B68" s="34"/>
-      <c r="C68" s="34"/>
-      <c r="D68" s="34"/>
-      <c r="E68" s="34"/>
-      <c r="F68" s="34"/>
-      <c r="G68" s="34"/>
-      <c r="H68" s="34"/>
-      <c r="I68" s="34"/>
-      <c r="J68" s="34"/>
-      <c r="K68" s="34"/>
-      <c r="L68" s="34"/>
+      <c r="B68" s="26"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="26"/>
+      <c r="G68" s="26"/>
+      <c r="H68" s="26"/>
+      <c r="I68" s="26"/>
+      <c r="J68" s="26"/>
+      <c r="K68" s="26"/>
+      <c r="L68" s="26"/>
     </row>
     <row r="69" spans="2:12" ht="15.95" customHeight="1">
-      <c r="B69" s="34"/>
-      <c r="C69" s="34"/>
-      <c r="D69" s="34"/>
-      <c r="E69" s="34"/>
-      <c r="F69" s="34"/>
-      <c r="G69" s="34"/>
-      <c r="H69" s="34"/>
-      <c r="I69" s="34"/>
-      <c r="J69" s="34"/>
-      <c r="K69" s="34"/>
-      <c r="L69" s="34"/>
+      <c r="B69" s="26"/>
+      <c r="C69" s="26"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="26"/>
+      <c r="I69" s="26"/>
+      <c r="J69" s="26"/>
+      <c r="K69" s="26"/>
+      <c r="L69" s="26"/>
     </row>
     <row r="70" spans="2:12" ht="15.95" customHeight="1">
-      <c r="B70" s="34"/>
-      <c r="C70" s="34"/>
-      <c r="D70" s="34"/>
-      <c r="E70" s="34"/>
-      <c r="F70" s="34"/>
-      <c r="G70" s="34"/>
-      <c r="H70" s="34"/>
-      <c r="I70" s="34"/>
-      <c r="J70" s="34"/>
-      <c r="K70" s="34"/>
-      <c r="L70" s="34"/>
+      <c r="B70" s="26"/>
+      <c r="C70" s="26"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="26"/>
+      <c r="G70" s="26"/>
+      <c r="H70" s="26"/>
+      <c r="I70" s="26"/>
+      <c r="J70" s="26"/>
+      <c r="K70" s="26"/>
+      <c r="L70" s="26"/>
     </row>
     <row r="71" spans="2:12" ht="15.95" customHeight="1">
-      <c r="B71" s="34"/>
-      <c r="C71" s="34"/>
-      <c r="D71" s="34"/>
-      <c r="E71" s="34"/>
-      <c r="F71" s="34"/>
-      <c r="G71" s="34"/>
-      <c r="H71" s="34"/>
-      <c r="I71" s="34"/>
-      <c r="J71" s="34"/>
-      <c r="K71" s="34"/>
-      <c r="L71" s="34"/>
+      <c r="B71" s="26"/>
+      <c r="C71" s="26"/>
+      <c r="D71" s="26"/>
+      <c r="E71" s="26"/>
+      <c r="F71" s="26"/>
+      <c r="G71" s="26"/>
+      <c r="H71" s="26"/>
+      <c r="I71" s="26"/>
+      <c r="J71" s="26"/>
+      <c r="K71" s="26"/>
+      <c r="L71" s="26"/>
     </row>
     <row r="72" spans="2:12" ht="15.95" customHeight="1">
-      <c r="B72" s="34"/>
-      <c r="C72" s="34"/>
-      <c r="D72" s="34"/>
-      <c r="E72" s="34"/>
-      <c r="F72" s="34"/>
-      <c r="G72" s="34"/>
-      <c r="H72" s="34"/>
-      <c r="I72" s="34"/>
-      <c r="J72" s="34"/>
-      <c r="K72" s="34"/>
-      <c r="L72" s="34"/>
+      <c r="B72" s="26"/>
+      <c r="C72" s="26"/>
+      <c r="D72" s="26"/>
+      <c r="E72" s="26"/>
+      <c r="F72" s="26"/>
+      <c r="G72" s="26"/>
+      <c r="H72" s="26"/>
+      <c r="I72" s="26"/>
+      <c r="J72" s="26"/>
+      <c r="K72" s="26"/>
+      <c r="L72" s="26"/>
     </row>
     <row r="73" spans="2:12" ht="15.95" customHeight="1">
-      <c r="B73" s="34"/>
-      <c r="C73" s="34"/>
-      <c r="D73" s="34"/>
-      <c r="E73" s="34"/>
-      <c r="F73" s="34"/>
-      <c r="G73" s="34"/>
-      <c r="H73" s="34"/>
-      <c r="I73" s="34"/>
-      <c r="J73" s="34"/>
-      <c r="K73" s="34"/>
-      <c r="L73" s="34"/>
+      <c r="B73" s="26"/>
+      <c r="C73" s="26"/>
+      <c r="D73" s="26"/>
+      <c r="E73" s="26"/>
+      <c r="F73" s="26"/>
+      <c r="G73" s="26"/>
+      <c r="H73" s="26"/>
+      <c r="I73" s="26"/>
+      <c r="J73" s="26"/>
+      <c r="K73" s="26"/>
+      <c r="L73" s="26"/>
     </row>
     <row r="74" spans="2:12" ht="15.95" customHeight="1">
-      <c r="B74" s="34"/>
-      <c r="C74" s="34"/>
-      <c r="D74" s="34"/>
-      <c r="E74" s="34"/>
-      <c r="F74" s="34"/>
-      <c r="G74" s="34"/>
-      <c r="H74" s="34"/>
-      <c r="I74" s="34"/>
-      <c r="J74" s="34"/>
-      <c r="K74" s="34"/>
-      <c r="L74" s="34"/>
+      <c r="B74" s="26"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="26"/>
+      <c r="E74" s="26"/>
+      <c r="F74" s="26"/>
+      <c r="G74" s="26"/>
+      <c r="H74" s="26"/>
+      <c r="I74" s="26"/>
+      <c r="J74" s="26"/>
+      <c r="K74" s="26"/>
+      <c r="L74" s="26"/>
     </row>
     <row r="75" spans="2:12" ht="15.95" customHeight="1">
-      <c r="B75" s="34"/>
-      <c r="C75" s="34"/>
-      <c r="D75" s="34"/>
-      <c r="E75" s="34"/>
-      <c r="F75" s="34"/>
-      <c r="G75" s="34"/>
-      <c r="H75" s="34"/>
-      <c r="I75" s="34"/>
-      <c r="J75" s="34"/>
-      <c r="K75" s="34"/>
-      <c r="L75" s="34"/>
+      <c r="B75" s="26"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="26"/>
+      <c r="E75" s="26"/>
+      <c r="F75" s="26"/>
+      <c r="G75" s="26"/>
+      <c r="H75" s="26"/>
+      <c r="I75" s="26"/>
+      <c r="J75" s="26"/>
+      <c r="K75" s="26"/>
+      <c r="L75" s="26"/>
     </row>
     <row r="76" spans="2:12" ht="15.95" customHeight="1">
-      <c r="B76" s="34"/>
-      <c r="C76" s="34"/>
-      <c r="D76" s="34"/>
-      <c r="E76" s="34"/>
-      <c r="F76" s="34"/>
-      <c r="G76" s="34"/>
-      <c r="H76" s="34"/>
-      <c r="I76" s="34"/>
-      <c r="J76" s="34"/>
-      <c r="K76" s="34"/>
-      <c r="L76" s="34"/>
+      <c r="B76" s="26"/>
+      <c r="C76" s="26"/>
+      <c r="D76" s="26"/>
+      <c r="E76" s="26"/>
+      <c r="F76" s="26"/>
+      <c r="G76" s="26"/>
+      <c r="H76" s="26"/>
+      <c r="I76" s="26"/>
+      <c r="J76" s="26"/>
+      <c r="K76" s="26"/>
+      <c r="L76" s="26"/>
     </row>
     <row r="77" spans="2:12" ht="15.95" customHeight="1">
-      <c r="B77" s="34"/>
-      <c r="C77" s="34"/>
-      <c r="D77" s="34"/>
-      <c r="E77" s="34"/>
-      <c r="F77" s="34"/>
-      <c r="G77" s="34"/>
-      <c r="H77" s="34"/>
-      <c r="I77" s="34"/>
-      <c r="J77" s="34"/>
-      <c r="K77" s="34"/>
-      <c r="L77" s="34"/>
+      <c r="B77" s="26"/>
+      <c r="C77" s="26"/>
+      <c r="D77" s="26"/>
+      <c r="E77" s="26"/>
+      <c r="F77" s="26"/>
+      <c r="G77" s="26"/>
+      <c r="H77" s="26"/>
+      <c r="I77" s="26"/>
+      <c r="J77" s="26"/>
+      <c r="K77" s="26"/>
+      <c r="L77" s="26"/>
     </row>
     <row r="78" spans="2:12" ht="15.95" customHeight="1">
-      <c r="B78" s="34"/>
-      <c r="C78" s="34"/>
-      <c r="D78" s="34"/>
-      <c r="E78" s="34"/>
-      <c r="F78" s="34"/>
-      <c r="G78" s="34"/>
-      <c r="H78" s="34"/>
-      <c r="I78" s="34"/>
-      <c r="J78" s="34"/>
-      <c r="K78" s="34"/>
-      <c r="L78" s="34"/>
+      <c r="B78" s="26"/>
+      <c r="C78" s="26"/>
+      <c r="D78" s="26"/>
+      <c r="E78" s="26"/>
+      <c r="F78" s="26"/>
+      <c r="G78" s="26"/>
+      <c r="H78" s="26"/>
+      <c r="I78" s="26"/>
+      <c r="J78" s="26"/>
+      <c r="K78" s="26"/>
+      <c r="L78" s="26"/>
     </row>
     <row r="79" spans="2:12" ht="15.95" customHeight="1">
-      <c r="B79" s="34"/>
-      <c r="C79" s="34"/>
-      <c r="D79" s="34"/>
-      <c r="E79" s="34"/>
-      <c r="F79" s="34"/>
-      <c r="G79" s="34"/>
-      <c r="H79" s="34"/>
-      <c r="I79" s="34"/>
-      <c r="J79" s="34"/>
-      <c r="K79" s="34"/>
-      <c r="L79" s="34"/>
+      <c r="B79" s="26"/>
+      <c r="C79" s="26"/>
+      <c r="D79" s="26"/>
+      <c r="E79" s="26"/>
+      <c r="F79" s="26"/>
+      <c r="G79" s="26"/>
+      <c r="H79" s="26"/>
+      <c r="I79" s="26"/>
+      <c r="J79" s="26"/>
+      <c r="K79" s="26"/>
+      <c r="L79" s="26"/>
     </row>
     <row r="80" spans="2:12" ht="15.95" customHeight="1">
-      <c r="B80" s="34"/>
-      <c r="C80" s="34"/>
-      <c r="D80" s="34"/>
-      <c r="E80" s="34"/>
-      <c r="F80" s="34"/>
-      <c r="G80" s="34"/>
-      <c r="H80" s="34"/>
-      <c r="I80" s="34"/>
-      <c r="J80" s="34"/>
-      <c r="K80" s="34"/>
-      <c r="L80" s="34"/>
+      <c r="B80" s="26"/>
+      <c r="C80" s="26"/>
+      <c r="D80" s="26"/>
+      <c r="E80" s="26"/>
+      <c r="F80" s="26"/>
+      <c r="G80" s="26"/>
+      <c r="H80" s="26"/>
+      <c r="I80" s="26"/>
+      <c r="J80" s="26"/>
+      <c r="K80" s="26"/>
+      <c r="L80" s="26"/>
     </row>
     <row r="81" spans="2:12" ht="15.95" customHeight="1">
-      <c r="B81" s="34"/>
-      <c r="C81" s="34"/>
-      <c r="D81" s="34"/>
-      <c r="E81" s="34"/>
-      <c r="F81" s="34"/>
-      <c r="G81" s="34"/>
-      <c r="H81" s="34"/>
-      <c r="I81" s="34"/>
-      <c r="J81" s="34"/>
-      <c r="K81" s="34"/>
-      <c r="L81" s="34"/>
+      <c r="B81" s="26"/>
+      <c r="C81" s="26"/>
+      <c r="D81" s="26"/>
+      <c r="E81" s="26"/>
+      <c r="F81" s="26"/>
+      <c r="G81" s="26"/>
+      <c r="H81" s="26"/>
+      <c r="I81" s="26"/>
+      <c r="J81" s="26"/>
+      <c r="K81" s="26"/>
+      <c r="L81" s="26"/>
     </row>
     <row r="82" spans="2:12" ht="15.95" customHeight="1">
-      <c r="B82" s="34"/>
-      <c r="C82" s="34"/>
-      <c r="D82" s="34"/>
-      <c r="E82" s="34"/>
-      <c r="F82" s="34"/>
-      <c r="G82" s="34"/>
-      <c r="H82" s="34"/>
-      <c r="I82" s="34"/>
-      <c r="J82" s="34"/>
-      <c r="K82" s="34"/>
-      <c r="L82" s="34"/>
+      <c r="B82" s="26"/>
+      <c r="C82" s="26"/>
+      <c r="D82" s="26"/>
+      <c r="E82" s="26"/>
+      <c r="F82" s="26"/>
+      <c r="G82" s="26"/>
+      <c r="H82" s="26"/>
+      <c r="I82" s="26"/>
+      <c r="J82" s="26"/>
+      <c r="K82" s="26"/>
+      <c r="L82" s="26"/>
     </row>
     <row r="83" spans="2:12" ht="15.95" customHeight="1">
-      <c r="B83" s="34"/>
-      <c r="C83" s="34"/>
-      <c r="D83" s="34"/>
-      <c r="E83" s="34"/>
-      <c r="F83" s="34"/>
-      <c r="G83" s="34"/>
-      <c r="H83" s="34"/>
-      <c r="I83" s="34"/>
-      <c r="J83" s="34"/>
-      <c r="K83" s="34"/>
-      <c r="L83" s="34"/>
+      <c r="B83" s="26"/>
+      <c r="C83" s="26"/>
+      <c r="D83" s="26"/>
+      <c r="E83" s="26"/>
+      <c r="F83" s="26"/>
+      <c r="G83" s="26"/>
+      <c r="H83" s="26"/>
+      <c r="I83" s="26"/>
+      <c r="J83" s="26"/>
+      <c r="K83" s="26"/>
+      <c r="L83" s="26"/>
     </row>
     <row r="84" spans="2:12" ht="15.95" customHeight="1">
-      <c r="B84" s="34"/>
-      <c r="C84" s="34"/>
-      <c r="D84" s="34"/>
-      <c r="E84" s="34"/>
-      <c r="F84" s="34"/>
-      <c r="G84" s="34"/>
-      <c r="H84" s="34"/>
-      <c r="I84" s="34"/>
-      <c r="J84" s="34"/>
-      <c r="K84" s="34"/>
-      <c r="L84" s="34"/>
+      <c r="B84" s="26"/>
+      <c r="C84" s="26"/>
+      <c r="D84" s="26"/>
+      <c r="E84" s="26"/>
+      <c r="F84" s="26"/>
+      <c r="G84" s="26"/>
+      <c r="H84" s="26"/>
+      <c r="I84" s="26"/>
+      <c r="J84" s="26"/>
+      <c r="K84" s="26"/>
+      <c r="L84" s="26"/>
     </row>
     <row r="85" spans="2:12" ht="15.95" customHeight="1">
-      <c r="B85" s="34"/>
-      <c r="C85" s="34"/>
-      <c r="D85" s="34"/>
-      <c r="E85" s="34"/>
-      <c r="F85" s="34"/>
-      <c r="G85" s="34"/>
-      <c r="H85" s="34"/>
-      <c r="I85" s="34"/>
-      <c r="J85" s="34"/>
-      <c r="K85" s="34"/>
-      <c r="L85" s="34"/>
+      <c r="B85" s="26"/>
+      <c r="C85" s="26"/>
+      <c r="D85" s="26"/>
+      <c r="E85" s="26"/>
+      <c r="F85" s="26"/>
+      <c r="G85" s="26"/>
+      <c r="H85" s="26"/>
+      <c r="I85" s="26"/>
+      <c r="J85" s="26"/>
+      <c r="K85" s="26"/>
+      <c r="L85" s="26"/>
     </row>
     <row r="86" spans="2:12" ht="15.95" customHeight="1">
-      <c r="B86" s="34"/>
-      <c r="C86" s="34"/>
-      <c r="D86" s="34"/>
-      <c r="E86" s="34"/>
-      <c r="F86" s="34"/>
-      <c r="G86" s="34"/>
-      <c r="H86" s="34"/>
-      <c r="I86" s="34"/>
-      <c r="J86" s="34"/>
-      <c r="K86" s="34"/>
-      <c r="L86" s="34"/>
+      <c r="B86" s="26"/>
+      <c r="C86" s="26"/>
+      <c r="D86" s="26"/>
+      <c r="E86" s="26"/>
+      <c r="F86" s="26"/>
+      <c r="G86" s="26"/>
+      <c r="H86" s="26"/>
+      <c r="I86" s="26"/>
+      <c r="J86" s="26"/>
+      <c r="K86" s="26"/>
+      <c r="L86" s="26"/>
     </row>
     <row r="87" spans="2:12" ht="15.95" customHeight="1">
-      <c r="B87" s="34"/>
-      <c r="C87" s="34"/>
-      <c r="D87" s="34"/>
-      <c r="E87" s="34"/>
-      <c r="F87" s="34"/>
-      <c r="G87" s="34"/>
-      <c r="H87" s="34"/>
-      <c r="I87" s="34"/>
-      <c r="J87" s="34"/>
-      <c r="K87" s="34"/>
-      <c r="L87" s="34"/>
+      <c r="B87" s="26"/>
+      <c r="C87" s="26"/>
+      <c r="D87" s="26"/>
+      <c r="E87" s="26"/>
+      <c r="F87" s="26"/>
+      <c r="G87" s="26"/>
+      <c r="H87" s="26"/>
+      <c r="I87" s="26"/>
+      <c r="J87" s="26"/>
+      <c r="K87" s="26"/>
+      <c r="L87" s="26"/>
     </row>
     <row r="88" spans="2:12" ht="15.95" customHeight="1">
-      <c r="B88" s="34"/>
-      <c r="C88" s="34"/>
-      <c r="D88" s="34"/>
-      <c r="E88" s="34"/>
-      <c r="F88" s="34"/>
-      <c r="G88" s="34"/>
-      <c r="H88" s="34"/>
-      <c r="I88" s="34"/>
-      <c r="J88" s="34"/>
-      <c r="K88" s="34"/>
-      <c r="L88" s="34"/>
+      <c r="B88" s="26"/>
+      <c r="C88" s="26"/>
+      <c r="D88" s="26"/>
+      <c r="E88" s="26"/>
+      <c r="F88" s="26"/>
+      <c r="G88" s="26"/>
+      <c r="H88" s="26"/>
+      <c r="I88" s="26"/>
+      <c r="J88" s="26"/>
+      <c r="K88" s="26"/>
+      <c r="L88" s="26"/>
     </row>
     <row r="89" spans="2:12" ht="15.95" customHeight="1">
-      <c r="B89" s="34"/>
-      <c r="C89" s="34"/>
-      <c r="D89" s="34"/>
-      <c r="E89" s="34"/>
-      <c r="F89" s="34"/>
-      <c r="G89" s="34"/>
-      <c r="H89" s="34"/>
-      <c r="I89" s="34"/>
-      <c r="J89" s="34"/>
-      <c r="K89" s="34"/>
-      <c r="L89" s="34"/>
+      <c r="B89" s="26"/>
+      <c r="C89" s="26"/>
+      <c r="D89" s="26"/>
+      <c r="E89" s="26"/>
+      <c r="F89" s="26"/>
+      <c r="G89" s="26"/>
+      <c r="H89" s="26"/>
+      <c r="I89" s="26"/>
+      <c r="J89" s="26"/>
+      <c r="K89" s="26"/>
+      <c r="L89" s="26"/>
     </row>
     <row r="90" spans="2:12" ht="15.95" customHeight="1">
-      <c r="B90" s="34"/>
-      <c r="C90" s="34"/>
-      <c r="D90" s="34"/>
-      <c r="E90" s="34"/>
-      <c r="F90" s="34"/>
-      <c r="G90" s="34"/>
-      <c r="H90" s="34"/>
-      <c r="I90" s="34"/>
-      <c r="J90" s="34"/>
-      <c r="K90" s="34"/>
-      <c r="L90" s="34"/>
+      <c r="B90" s="26"/>
+      <c r="C90" s="26"/>
+      <c r="D90" s="26"/>
+      <c r="E90" s="26"/>
+      <c r="F90" s="26"/>
+      <c r="G90" s="26"/>
+      <c r="H90" s="26"/>
+      <c r="I90" s="26"/>
+      <c r="J90" s="26"/>
+      <c r="K90" s="26"/>
+      <c r="L90" s="26"/>
     </row>
     <row r="91" spans="2:12" ht="15.95" customHeight="1">
-      <c r="B91" s="34"/>
-      <c r="C91" s="34"/>
-      <c r="D91" s="34"/>
-      <c r="E91" s="34"/>
-      <c r="F91" s="34"/>
-      <c r="G91" s="34"/>
-      <c r="H91" s="34"/>
-      <c r="I91" s="34"/>
-      <c r="J91" s="34"/>
-      <c r="K91" s="34"/>
-      <c r="L91" s="34"/>
+      <c r="B91" s="26"/>
+      <c r="C91" s="26"/>
+      <c r="D91" s="26"/>
+      <c r="E91" s="26"/>
+      <c r="F91" s="26"/>
+      <c r="G91" s="26"/>
+      <c r="H91" s="26"/>
+      <c r="I91" s="26"/>
+      <c r="J91" s="26"/>
+      <c r="K91" s="26"/>
+      <c r="L91" s="26"/>
     </row>
     <row r="92" spans="2:12" ht="15.95" customHeight="1">
-      <c r="B92" s="34"/>
-      <c r="C92" s="34"/>
-      <c r="D92" s="34"/>
-      <c r="E92" s="34"/>
-      <c r="F92" s="34"/>
-      <c r="G92" s="34"/>
-      <c r="H92" s="34"/>
-      <c r="I92" s="34"/>
-      <c r="J92" s="34"/>
-      <c r="K92" s="34"/>
-      <c r="L92" s="34"/>
+      <c r="B92" s="26"/>
+      <c r="C92" s="26"/>
+      <c r="D92" s="26"/>
+      <c r="E92" s="26"/>
+      <c r="F92" s="26"/>
+      <c r="G92" s="26"/>
+      <c r="H92" s="26"/>
+      <c r="I92" s="26"/>
+      <c r="J92" s="26"/>
+      <c r="K92" s="26"/>
+      <c r="L92" s="26"/>
     </row>
     <row r="93" spans="2:12" ht="15.95" customHeight="1">
-      <c r="B93" s="34"/>
-      <c r="C93" s="34"/>
-      <c r="D93" s="34"/>
-      <c r="E93" s="34"/>
-      <c r="F93" s="34"/>
-      <c r="G93" s="34"/>
-      <c r="H93" s="34"/>
-      <c r="I93" s="34"/>
-      <c r="J93" s="34"/>
-      <c r="K93" s="34"/>
-      <c r="L93" s="34"/>
+      <c r="B93" s="26"/>
+      <c r="C93" s="26"/>
+      <c r="D93" s="26"/>
+      <c r="E93" s="26"/>
+      <c r="F93" s="26"/>
+      <c r="G93" s="26"/>
+      <c r="H93" s="26"/>
+      <c r="I93" s="26"/>
+      <c r="J93" s="26"/>
+      <c r="K93" s="26"/>
+      <c r="L93" s="26"/>
     </row>
     <row r="94" spans="2:12" ht="15.95" customHeight="1">
-      <c r="B94" s="34"/>
-      <c r="C94" s="34"/>
-      <c r="D94" s="34"/>
-      <c r="E94" s="34"/>
-      <c r="F94" s="34"/>
-      <c r="G94" s="34"/>
-      <c r="H94" s="34"/>
-      <c r="I94" s="34"/>
-      <c r="J94" s="34"/>
-      <c r="K94" s="34"/>
-      <c r="L94" s="34"/>
+      <c r="B94" s="26"/>
+      <c r="C94" s="26"/>
+      <c r="D94" s="26"/>
+      <c r="E94" s="26"/>
+      <c r="F94" s="26"/>
+      <c r="G94" s="26"/>
+      <c r="H94" s="26"/>
+      <c r="I94" s="26"/>
+      <c r="J94" s="26"/>
+      <c r="K94" s="26"/>
+      <c r="L94" s="26"/>
     </row>
     <row r="95" spans="2:12" ht="15.95" customHeight="1">
-      <c r="B95" s="34"/>
-      <c r="C95" s="34"/>
-      <c r="D95" s="34"/>
-      <c r="E95" s="34"/>
-      <c r="F95" s="34"/>
-      <c r="G95" s="34"/>
-      <c r="H95" s="34"/>
-      <c r="I95" s="34"/>
-      <c r="J95" s="34"/>
-      <c r="K95" s="34"/>
-      <c r="L95" s="34"/>
+      <c r="B95" s="26"/>
+      <c r="C95" s="26"/>
+      <c r="D95" s="26"/>
+      <c r="E95" s="26"/>
+      <c r="F95" s="26"/>
+      <c r="G95" s="26"/>
+      <c r="H95" s="26"/>
+      <c r="I95" s="26"/>
+      <c r="J95" s="26"/>
+      <c r="K95" s="26"/>
+      <c r="L95" s="26"/>
     </row>
     <row r="96" spans="2:12" ht="15.95" customHeight="1">
-      <c r="B96" s="34"/>
-      <c r="C96" s="34"/>
-      <c r="D96" s="34"/>
-      <c r="E96" s="34"/>
-      <c r="F96" s="34"/>
-      <c r="G96" s="34"/>
-      <c r="H96" s="34"/>
-      <c r="I96" s="34"/>
-      <c r="J96" s="34"/>
-      <c r="K96" s="34"/>
-      <c r="L96" s="34"/>
+      <c r="B96" s="26"/>
+      <c r="C96" s="26"/>
+      <c r="D96" s="26"/>
+      <c r="E96" s="26"/>
+      <c r="F96" s="26"/>
+      <c r="G96" s="26"/>
+      <c r="H96" s="26"/>
+      <c r="I96" s="26"/>
+      <c r="J96" s="26"/>
+      <c r="K96" s="26"/>
+      <c r="L96" s="26"/>
+    </row>
+    <row r="97" spans="2:12" ht="15.95" customHeight="1">
+      <c r="B97" s="26"/>
+      <c r="C97" s="26"/>
+      <c r="D97" s="26"/>
+      <c r="E97" s="26"/>
+      <c r="F97" s="26"/>
+      <c r="G97" s="26"/>
+      <c r="H97" s="26"/>
+      <c r="I97" s="26"/>
+      <c r="J97" s="26"/>
+      <c r="K97" s="26"/>
+      <c r="L97" s="26"/>
+    </row>
+    <row r="98" spans="2:12" ht="15.95" customHeight="1">
+      <c r="B98" s="26"/>
+      <c r="C98" s="26"/>
+      <c r="D98" s="26"/>
+      <c r="E98" s="26"/>
+      <c r="F98" s="26"/>
+      <c r="G98" s="26"/>
+      <c r="H98" s="26"/>
+      <c r="I98" s="26"/>
+      <c r="J98" s="26"/>
+      <c r="K98" s="26"/>
+      <c r="L98" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="C25:J30"/>
-    <mergeCell ref="K25:O30"/>
-    <mergeCell ref="P25:Q30"/>
-    <mergeCell ref="P14:Q16"/>
-    <mergeCell ref="P17:Q19"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="P20:Q24"/>
-    <mergeCell ref="K20:O20"/>
-    <mergeCell ref="K22:O22"/>
-    <mergeCell ref="K24:O24"/>
-    <mergeCell ref="B3:O10"/>
-    <mergeCell ref="C14:J16"/>
-    <mergeCell ref="C17:J19"/>
-    <mergeCell ref="K17:O19"/>
-    <mergeCell ref="K14:O16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B13:D13"/>
+  <mergeCells count="42">
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="C40:D42"/>
+    <mergeCell ref="E40:H42"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:D45"/>
+    <mergeCell ref="E43:H45"/>
     <mergeCell ref="C32:J34"/>
     <mergeCell ref="K32:O34"/>
     <mergeCell ref="P32:Q34"/>
@@ -8904,6 +9215,26 @@
     <mergeCell ref="C31:J31"/>
     <mergeCell ref="K31:O31"/>
     <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="B3:O10"/>
+    <mergeCell ref="C14:J16"/>
+    <mergeCell ref="C17:J19"/>
+    <mergeCell ref="K17:O19"/>
+    <mergeCell ref="K14:O16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="C25:J30"/>
+    <mergeCell ref="K25:O30"/>
+    <mergeCell ref="P25:Q30"/>
+    <mergeCell ref="P14:Q16"/>
+    <mergeCell ref="P17:Q19"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="P20:Q24"/>
+    <mergeCell ref="K20:O20"/>
+    <mergeCell ref="K22:O22"/>
+    <mergeCell ref="K24:O24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/日语.xlsx
+++ b/日语.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Self\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cshen/Documents/GitHub/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="24885" windowHeight="15555" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="24880" windowHeight="15560" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="动词形态" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="232">
   <si>
     <t>三类动词</t>
     <rPh sb="0" eb="1">
@@ -3919,7 +3919,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="DengXian"/>
-        <family val="3"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3941,7 +3941,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="DengXian"/>
-        <family val="3"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3963,7 +3963,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="DengXian"/>
-        <family val="3"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4000,116 +4000,119 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>静かで広い部屋　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>　安静又宽敞的房间</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这个表格只是说明</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>个形态是什么意思，各形态（连体，连用形）不仅仅有表格中这几种变化形式</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>お湯</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>静かで広い部屋　</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>//</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>　安静又宽敞的房间</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>这个表格只是说明</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>个形态是什么意思，各形态（连体，连用形）不仅仅有表格中这几种变化形式</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>お湯</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>が</t>
     </r>
     <r>
@@ -4117,7 +4120,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="DengXian"/>
-        <family val="3"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4149,7 +4152,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="DengXian"/>
-        <family val="3"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4235,6 +4238,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>ru</t>
@@ -4433,6 +4437,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>(</t>
@@ -4454,6 +4459,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>)+</t>
@@ -4475,6 +4481,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>(</t>
@@ -4496,6 +4503,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>)</t>
@@ -4530,6 +4538,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">2. </t>
@@ -4552,6 +4561,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">3. </t>
@@ -4623,6 +4633,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">2. </t>
@@ -4645,6 +4656,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">3. </t>
@@ -4703,6 +4715,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>“</t>
@@ -4724,6 +4737,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>”</t>
@@ -4792,6 +4806,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>2</t>
@@ -4826,13 +4841,19 @@
       <t>いk</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水烧开了(自动)</t>
+  </si>
+  <si>
+    <t>烧水（他动）</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4991,14 +5012,6 @@
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5257,26 +5270,48 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5287,38 +5322,35 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5341,20 +5373,35 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5365,55 +5412,21 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -5697,18 +5710,18 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" style="3"/>
-    <col min="2" max="2" width="46.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="32.77734375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="3"/>
+    <col min="2" max="2" width="46.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="48.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="41" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.77734375" style="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.25">
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="6" t="s">
         <v>73</v>
@@ -5726,7 +5739,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="120.95" customHeight="1">
+    <row r="2" spans="1:6" ht="121" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -5744,7 +5757,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="59.1" customHeight="1">
+    <row r="3" spans="1:6" ht="59" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
@@ -5760,7 +5773,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="12"/>
     </row>
-    <row r="4" spans="1:6" ht="89.1" customHeight="1">
+    <row r="4" spans="1:6" ht="89" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
@@ -5780,7 +5793,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="63.95" customHeight="1">
+    <row r="5" spans="1:6" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>7</v>
       </c>
@@ -5800,7 +5813,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="69.95" customHeight="1">
+    <row r="6" spans="1:6" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>24</v>
       </c>
@@ -5820,7 +5833,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="87.95" customHeight="1">
+    <row r="7" spans="1:6" ht="88" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>157</v>
       </c>
@@ -5838,7 +5851,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="83.1" customHeight="1">
+    <row r="8" spans="1:6" ht="83" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>163</v>
       </c>
@@ -5858,7 +5871,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="83.1" customHeight="1">
+    <row r="9" spans="1:6" ht="83" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>171</v>
       </c>
@@ -5876,7 +5889,7 @@
       </c>
       <c r="F9" s="30"/>
     </row>
-    <row r="10" spans="1:6" ht="68.099999999999994" customHeight="1">
+    <row r="10" spans="1:6" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>135</v>
       </c>
@@ -5894,7 +5907,7 @@
       </c>
       <c r="F10" s="12"/>
     </row>
-    <row r="11" spans="1:6" ht="68.099999999999994" customHeight="1">
+    <row r="11" spans="1:6" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>140</v>
       </c>
@@ -5912,7 +5925,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="68.099999999999994" customHeight="1">
+    <row r="12" spans="1:6" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>153</v>
       </c>
@@ -5932,7 +5945,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="68.099999999999994" customHeight="1">
+    <row r="13" spans="1:6" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>192</v>
       </c>
@@ -5960,60 +5973,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" ht="18">
-      <c r="B3" s="82" t="s">
+    <row r="3" spans="2:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="B3" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="79" t="s">
+      <c r="C3" s="37" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="18">
-      <c r="B4" s="81" t="s">
+    <row r="4" spans="2:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="B4" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="81" t="s">
+      <c r="C4" s="39" t="s">
         <v>17</v>
       </c>
       <c r="E4" t="s">
         <v>130</v>
       </c>
-      <c r="F4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="18">
-      <c r="B5" s="81" t="s">
+      <c r="G4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="B5" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="C5" s="81" t="s">
+      <c r="C5" s="39" t="s">
         <v>18</v>
       </c>
       <c r="E5" t="s">
         <v>129</v>
       </c>
-      <c r="F5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="18">
-      <c r="B6" s="83" t="s">
+      <c r="G5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="B6" s="41" t="s">
         <v>214</v>
       </c>
-      <c r="C6" s="83"/>
-    </row>
-    <row r="9" spans="2:8" ht="18">
-      <c r="B9" s="71" t="s">
+      <c r="C6" s="41"/>
+    </row>
+    <row r="9" spans="2:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="B9" s="33" t="s">
         <v>71</v>
       </c>
       <c r="C9" s="8"/>
@@ -6022,8 +6035,8 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="2:8" ht="18">
-      <c r="B10" s="71" t="s">
+    <row r="10" spans="2:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="B10" s="33" t="s">
         <v>72</v>
       </c>
       <c r="C10" s="8"/>
@@ -6032,118 +6045,118 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="2:8" ht="18">
-      <c r="B11" s="77" t="s">
+    <row r="11" spans="2:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="B11" s="35" t="s">
         <v>208</v>
       </c>
-      <c r="C11" s="75" t="s">
+      <c r="C11" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="D11" s="76"/>
+      <c r="D11" s="48"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="2:8" ht="18">
-      <c r="B12" s="77" t="s">
+    <row r="12" spans="2:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="B12" s="35" t="s">
         <v>209</v>
       </c>
-      <c r="C12" s="73" t="s">
+      <c r="C12" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="D12" s="74"/>
+      <c r="D12" s="46"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="15" spans="2:8" ht="18">
-      <c r="B15" s="78" t="s">
+    <row r="15" spans="2:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="B15" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="84" t="s">
+      <c r="C15" s="43" t="s">
         <v>210</v>
       </c>
-      <c r="D15" s="84"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="84" t="s">
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43" t="s">
         <v>211</v>
       </c>
-      <c r="G15" s="84"/>
-      <c r="H15" s="84"/>
-    </row>
-    <row r="16" spans="2:8" ht="18">
-      <c r="B16" s="78" t="s">
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+    </row>
+    <row r="16" spans="2:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="B16" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="61" t="s">
+      <c r="C16" s="42" t="s">
         <v>215</v>
       </c>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="85" t="s">
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="44" t="s">
         <v>219</v>
       </c>
-      <c r="G16" s="85"/>
-      <c r="H16" s="85"/>
-    </row>
-    <row r="17" spans="2:8" ht="18">
-      <c r="B17" s="78" t="s">
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+    </row>
+    <row r="17" spans="2:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="B17" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="61" t="s">
+      <c r="C17" s="42" t="s">
         <v>216</v>
       </c>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="85" t="s">
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="44" t="s">
         <v>220</v>
       </c>
-      <c r="G17" s="85"/>
-      <c r="H17" s="85"/>
-    </row>
-    <row r="18" spans="2:8" ht="18">
-      <c r="B18" s="78" t="s">
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+    </row>
+    <row r="18" spans="2:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="B18" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="61" t="s">
+      <c r="C18" s="42" t="s">
         <v>217</v>
       </c>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="85" t="s">
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="44" t="s">
         <v>221</v>
       </c>
-      <c r="G18" s="85"/>
-      <c r="H18" s="85"/>
-    </row>
-    <row r="19" spans="2:8" ht="18">
-      <c r="B19" s="78" t="s">
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+    </row>
+    <row r="19" spans="2:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="B19" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="61" t="s">
+      <c r="C19" s="42" t="s">
         <v>218</v>
       </c>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="85" t="s">
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="44" t="s">
         <v>222</v>
       </c>
-      <c r="G19" s="85"/>
-      <c r="H19" s="85"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="F17:H17"/>
     <mergeCell ref="F18:H18"/>
     <mergeCell ref="F19:H19"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
     <mergeCell ref="C18:E18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6159,15 +6172,15 @@
       <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="1:10" ht="27.75">
-      <c r="B3" s="36" t="s">
+    <row r="3" spans="1:10" ht="28" x14ac:dyDescent="0.3">
+      <c r="B3" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="36"/>
-    </row>
-    <row r="4" spans="1:10" ht="18">
+      <c r="C3" s="60"/>
+    </row>
+    <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -6179,75 +6192,75 @@
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="1:10" ht="18">
+    <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:10" ht="18">
+    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="38" t="s">
+      <c r="B6" s="62"/>
+      <c r="C6" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38" t="s">
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:10" ht="18">
+    <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
       <c r="B7" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="1:10" ht="18">
+    <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
       <c r="B8" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33" t="s">
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:10" ht="18">
+    <row r="9" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
       <c r="B9" s="10"/>
       <c r="C9" s="8"/>
@@ -6259,7 +6272,7 @@
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:10" ht="18">
+    <row r="10" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
       <c r="B10" s="10"/>
       <c r="C10" s="8"/>
@@ -6271,87 +6284,87 @@
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:10" ht="18">
+    <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-    </row>
-    <row r="12" spans="1:10" ht="18">
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+    </row>
+    <row r="12" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="38" t="s">
+      <c r="B12" s="49"/>
+      <c r="C12" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="40" t="s">
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="42"/>
-    </row>
-    <row r="13" spans="1:10" ht="18">
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="54"/>
+    </row>
+    <row r="13" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33" t="s">
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-    </row>
-    <row r="14" spans="1:10" ht="18">
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+    </row>
+    <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="44" t="s">
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-    </row>
-    <row r="15" spans="1:10" ht="18">
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+    </row>
+    <row r="15" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-    </row>
-    <row r="16" spans="1:10" ht="18">
+      <c r="B15" s="57"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+    </row>
+    <row r="16" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -6363,16 +6376,16 @@
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" ht="18">
+    <row r="17" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="C17" s="45" t="s">
+      <c r="C17" s="63" t="s">
         <v>149</v>
       </c>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8" t="s">
         <v>150</v>
@@ -6381,7 +6394,7 @@
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="1:10" ht="18">
+    <row r="18" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -6393,23 +6406,23 @@
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="1:10" ht="18">
+    <row r="19" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
       <c r="B19" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="55" t="s">
         <v>151</v>
       </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="1:10" ht="18">
+    <row r="20" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -6421,22 +6434,22 @@
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="1:10" ht="18">
+    <row r="21" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B21" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="18">
+    <row r="22" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B22" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="18">
+    <row r="23" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B23" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="18">
+    <row r="24" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B24" s="8"/>
       <c r="C24" s="8" t="s">
         <v>65</v>
@@ -6446,7 +6459,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
     </row>
-    <row r="25" spans="1:10" ht="18">
+    <row r="25" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B25" s="8"/>
       <c r="C25" s="8" t="s">
         <v>66</v>
@@ -6456,18 +6469,18 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
     </row>
-    <row r="26" spans="1:10" ht="18.75">
+    <row r="26" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B26" s="27" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="27.75">
-      <c r="B29" s="36" t="s">
+    <row r="29" spans="1:10" ht="28" x14ac:dyDescent="0.3">
+      <c r="B29" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="36"/>
-    </row>
-    <row r="30" spans="1:10" ht="18.75">
+      <c r="C29" s="60"/>
+    </row>
+    <row r="30" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B30" s="8" t="s">
         <v>76</v>
       </c>
@@ -6475,76 +6488,76 @@
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="B32" s="34" t="s">
+    <row r="32" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="37" t="s">
+      <c r="C32" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
     </row>
-    <row r="33" spans="2:13" ht="21" customHeight="1">
-      <c r="B33" s="35"/>
-      <c r="C33" s="38" t="s">
+    <row r="33" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="62"/>
+      <c r="C33" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38" t="s">
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
     </row>
-    <row r="34" spans="2:13" ht="20.100000000000001" customHeight="1">
+    <row r="34" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="33" t="s">
+      <c r="C34" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33" t="s">
+      <c r="D34" s="55"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="55"/>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
     </row>
-    <row r="35" spans="2:13" ht="18.95" customHeight="1">
+    <row r="35" spans="2:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="33" t="s">
+      <c r="C35" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33" t="s">
+      <c r="D35" s="55"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="55"/>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
     </row>
-    <row r="36" spans="2:13" ht="18">
+    <row r="36" spans="2:13" ht="18" x14ac:dyDescent="0.2">
       <c r="B36" s="10"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
@@ -6555,7 +6568,7 @@
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
     </row>
-    <row r="37" spans="2:13" ht="18">
+    <row r="37" spans="2:13" ht="18" x14ac:dyDescent="0.2">
       <c r="B37" s="10"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
@@ -6566,95 +6579,95 @@
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
     </row>
-    <row r="38" spans="2:13" ht="21" customHeight="1">
-      <c r="B38" s="39" t="s">
+    <row r="38" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="37" t="s">
+      <c r="C38" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="37"/>
-    </row>
-    <row r="39" spans="2:13" ht="20.100000000000001" customHeight="1">
-      <c r="B39" s="39"/>
-      <c r="C39" s="38" t="s">
+      <c r="D38" s="50"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="50"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="50"/>
+    </row>
+    <row r="39" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="49"/>
+      <c r="C39" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="40" t="s">
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="H39" s="41"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="42"/>
-    </row>
-    <row r="40" spans="2:13" ht="23.1" customHeight="1">
+      <c r="H39" s="53"/>
+      <c r="I39" s="53"/>
+      <c r="J39" s="54"/>
+    </row>
+    <row r="40" spans="2:13" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="46" t="s">
+      <c r="C40" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="D40" s="46"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="46" t="s">
+      <c r="D40" s="56"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="H40" s="46"/>
-      <c r="I40" s="46"/>
-      <c r="J40" s="46"/>
-    </row>
-    <row r="41" spans="2:13" ht="21" customHeight="1">
-      <c r="B41" s="43" t="s">
+      <c r="H40" s="56"/>
+      <c r="I40" s="56"/>
+      <c r="J40" s="56"/>
+    </row>
+    <row r="41" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="47" t="s">
+      <c r="C41" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="D41" s="46"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="47" t="s">
+      <c r="D41" s="56"/>
+      <c r="E41" s="56"/>
+      <c r="F41" s="56"/>
+      <c r="G41" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="H41" s="46"/>
-      <c r="I41" s="46"/>
-      <c r="J41" s="46"/>
-    </row>
-    <row r="42" spans="2:13" ht="21" customHeight="1">
-      <c r="B42" s="43"/>
-      <c r="C42" s="46"/>
-      <c r="D42" s="46"/>
-      <c r="E42" s="46"/>
-      <c r="F42" s="46"/>
-      <c r="G42" s="46"/>
-      <c r="H42" s="46"/>
-      <c r="I42" s="46"/>
-      <c r="J42" s="46"/>
+      <c r="H41" s="56"/>
+      <c r="I41" s="56"/>
+      <c r="J41" s="56"/>
+    </row>
+    <row r="42" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="57"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="56"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="56"/>
+      <c r="G42" s="56"/>
+      <c r="H42" s="56"/>
+      <c r="I42" s="56"/>
+      <c r="J42" s="56"/>
       <c r="K42" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="2:13" ht="18">
+    <row r="44" spans="2:13" ht="18" x14ac:dyDescent="0.2">
       <c r="B44" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="2:13" ht="18">
+    <row r="45" spans="2:13" ht="18" x14ac:dyDescent="0.2">
       <c r="B45" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="2:13" ht="18">
+    <row r="46" spans="2:13" ht="18" x14ac:dyDescent="0.2">
       <c r="B46" s="22" t="s">
         <v>67</v>
       </c>
@@ -6670,48 +6683,50 @@
       <c r="L46" s="23"/>
       <c r="M46" s="23"/>
     </row>
-    <row r="47" spans="2:13" ht="18">
+    <row r="47" spans="2:13" ht="18" x14ac:dyDescent="0.2">
       <c r="B47" s="8"/>
       <c r="C47" s="8" t="s">
         <v>68</v>
       </c>
       <c r="D47" s="8"/>
     </row>
-    <row r="48" spans="2:13" ht="18">
+    <row r="48" spans="2:13" ht="18" x14ac:dyDescent="0.2">
       <c r="B48" s="8"/>
       <c r="C48" s="8" t="s">
         <v>69</v>
       </c>
       <c r="D48" s="8"/>
     </row>
-    <row r="49" spans="2:3" ht="18">
+    <row r="49" spans="2:3" ht="18" x14ac:dyDescent="0.2">
       <c r="B49" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="50" spans="2:3" ht="18">
+    <row r="50" spans="2:3" ht="18" x14ac:dyDescent="0.2">
       <c r="C50" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="51" spans="2:3" ht="18">
+    <row r="51" spans="2:3" ht="18" x14ac:dyDescent="0.2">
       <c r="C51" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:F42"/>
-    <mergeCell ref="G41:J42"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="G13:J13"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:F15"/>
     <mergeCell ref="G14:J15"/>
@@ -6722,21 +6737,19 @@
     <mergeCell ref="F33:H33"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="C19:I19"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:F42"/>
+    <mergeCell ref="G41:J42"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="F35:H35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6751,57 +6764,57 @@
       <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="2:14" ht="15.95" customHeight="1">
-      <c r="B1" s="48" t="s">
+    <row r="1" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="75" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
       <c r="I1" s="14"/>
     </row>
-    <row r="2" spans="2:14" ht="15.95" customHeight="1">
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
+    <row r="2" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
       <c r="I2" s="14"/>
     </row>
-    <row r="3" spans="2:14" ht="18">
+    <row r="3" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>78</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
     </row>
-    <row r="4" spans="2:14" ht="18">
+    <row r="4" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>79</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
     </row>
-    <row r="6" spans="2:14">
-      <c r="B6" s="48" t="s">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B6" s="75" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-    </row>
-    <row r="7" spans="2:14">
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-    </row>
-    <row r="8" spans="2:14" ht="18">
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+    </row>
+    <row r="8" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B8" s="8" t="s">
         <v>95</v>
       </c>
@@ -6818,7 +6831,7 @@
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
     </row>
-    <row r="9" spans="2:14" ht="18">
+    <row r="9" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B9" s="8" t="s">
         <v>81</v>
       </c>
@@ -6835,7 +6848,7 @@
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
     </row>
-    <row r="10" spans="2:14" ht="18">
+    <row r="10" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
         <v>82</v>
       </c>
@@ -6852,7 +6865,7 @@
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
     </row>
-    <row r="11" spans="2:14" ht="18">
+    <row r="11" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B11" s="8" t="s">
         <v>83</v>
       </c>
@@ -6869,7 +6882,7 @@
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
     </row>
-    <row r="12" spans="2:14" ht="18">
+    <row r="12" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B12" s="8" t="s">
         <v>84</v>
       </c>
@@ -6886,7 +6899,7 @@
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
     </row>
-    <row r="13" spans="2:14" ht="18">
+    <row r="13" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B13" s="8" t="s">
         <v>85</v>
       </c>
@@ -6903,7 +6916,7 @@
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
     </row>
-    <row r="14" spans="2:14" ht="18">
+    <row r="14" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B14" s="8" t="s">
         <v>86</v>
       </c>
@@ -6920,7 +6933,7 @@
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
     </row>
-    <row r="15" spans="2:14" ht="18">
+    <row r="15" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B15" s="8" t="s">
         <v>87</v>
       </c>
@@ -6937,7 +6950,7 @@
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
     </row>
-    <row r="16" spans="2:14" ht="18">
+    <row r="16" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B16" s="8" t="s">
         <v>88</v>
       </c>
@@ -6954,7 +6967,7 @@
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
     </row>
-    <row r="17" spans="2:20" ht="18">
+    <row r="17" spans="2:20" ht="18" x14ac:dyDescent="0.2">
       <c r="B17" s="8" t="s">
         <v>89</v>
       </c>
@@ -6971,7 +6984,7 @@
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
     </row>
-    <row r="18" spans="2:20" ht="18">
+    <row r="18" spans="2:20" ht="18" x14ac:dyDescent="0.2">
       <c r="B18" s="8" t="s">
         <v>90</v>
       </c>
@@ -6988,7 +7001,7 @@
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
     </row>
-    <row r="19" spans="2:20" ht="18">
+    <row r="19" spans="2:20" ht="18" x14ac:dyDescent="0.2">
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -7003,7 +7016,7 @@
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
     </row>
-    <row r="20" spans="2:20" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="8" t="s">
         <v>98</v>
       </c>
@@ -7014,263 +7027,263 @@
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
-      <c r="J20" s="54" t="s">
+      <c r="J20" s="65" t="s">
         <v>105</v>
       </c>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="54"/>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="54"/>
-      <c r="R20" s="54"/>
-      <c r="S20" s="54"/>
-      <c r="T20" s="54"/>
-    </row>
-    <row r="21" spans="2:20" ht="15.95" customHeight="1">
-      <c r="B21" s="60" t="s">
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="65"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="65"/>
+      <c r="P20" s="65"/>
+      <c r="Q20" s="65"/>
+      <c r="R20" s="65"/>
+      <c r="S20" s="65"/>
+      <c r="T20" s="65"/>
+    </row>
+    <row r="21" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="C21" s="53" t="s">
+      <c r="C21" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="74"/>
       <c r="I21" s="15"/>
-      <c r="J21" s="59" t="s">
+      <c r="J21" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="K21" s="51" t="s">
+      <c r="K21" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="L21" s="51"/>
-      <c r="M21" s="51"/>
-      <c r="N21" s="51"/>
-      <c r="O21" s="51"/>
-      <c r="P21" s="51"/>
-      <c r="Q21" s="50"/>
-      <c r="R21" s="50"/>
-      <c r="S21" s="50"/>
-      <c r="T21" s="50"/>
-    </row>
-    <row r="22" spans="2:20" ht="18">
-      <c r="B22" s="60"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
+      <c r="L21" s="72"/>
+      <c r="M21" s="72"/>
+      <c r="N21" s="72"/>
+      <c r="O21" s="72"/>
+      <c r="P21" s="72"/>
+      <c r="Q21" s="64"/>
+      <c r="R21" s="64"/>
+      <c r="S21" s="64"/>
+      <c r="T21" s="64"/>
+    </row>
+    <row r="22" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="B22" s="71"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
       <c r="I22" s="15"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="51"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="51"/>
-      <c r="P22" s="51"/>
-      <c r="Q22" s="50"/>
-      <c r="R22" s="50"/>
-      <c r="S22" s="50"/>
-      <c r="T22" s="50"/>
-    </row>
-    <row r="23" spans="2:20" ht="21" customHeight="1">
-      <c r="B23" s="60"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="72"/>
+      <c r="L22" s="72"/>
+      <c r="M22" s="72"/>
+      <c r="N22" s="72"/>
+      <c r="O22" s="72"/>
+      <c r="P22" s="72"/>
+      <c r="Q22" s="64"/>
+      <c r="R22" s="64"/>
+      <c r="S22" s="64"/>
+      <c r="T22" s="64"/>
+    </row>
+    <row r="23" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="71"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="74"/>
       <c r="I23" s="15"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="51"/>
-      <c r="N23" s="51"/>
-      <c r="O23" s="51"/>
-      <c r="P23" s="51"/>
-      <c r="Q23" s="50"/>
-      <c r="R23" s="50"/>
-      <c r="S23" s="50"/>
-      <c r="T23" s="50"/>
-    </row>
-    <row r="24" spans="2:20" ht="15.95" customHeight="1">
-      <c r="B24" s="56" t="s">
+      <c r="J23" s="70"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="72"/>
+      <c r="M23" s="72"/>
+      <c r="N23" s="72"/>
+      <c r="O23" s="72"/>
+      <c r="P23" s="72"/>
+      <c r="Q23" s="64"/>
+      <c r="R23" s="64"/>
+      <c r="S23" s="64"/>
+      <c r="T23" s="64"/>
+    </row>
+    <row r="24" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="67" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="53" t="s">
+      <c r="C24" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
       <c r="I24" s="15"/>
-      <c r="J24" s="56" t="s">
+      <c r="J24" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="K24" s="51" t="s">
+      <c r="K24" s="72" t="s">
         <v>111</v>
       </c>
-      <c r="L24" s="51"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="51"/>
-      <c r="P24" s="51"/>
-      <c r="Q24" s="49" t="s">
+      <c r="L24" s="72"/>
+      <c r="M24" s="72"/>
+      <c r="N24" s="72"/>
+      <c r="O24" s="72"/>
+      <c r="P24" s="72"/>
+      <c r="Q24" s="76" t="s">
         <v>112</v>
       </c>
-      <c r="R24" s="49"/>
-      <c r="S24" s="49"/>
-      <c r="T24" s="49"/>
-    </row>
-    <row r="25" spans="2:20" ht="18">
-      <c r="B25" s="56"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
+      <c r="R24" s="76"/>
+      <c r="S24" s="76"/>
+      <c r="T24" s="76"/>
+    </row>
+    <row r="25" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="B25" s="67"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="74"/>
       <c r="I25" s="15"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="51"/>
-      <c r="N25" s="51"/>
-      <c r="O25" s="51"/>
-      <c r="P25" s="51"/>
-      <c r="Q25" s="49"/>
-      <c r="R25" s="49"/>
-      <c r="S25" s="49"/>
-      <c r="T25" s="49"/>
-    </row>
-    <row r="26" spans="2:20" ht="21.95" customHeight="1">
-      <c r="B26" s="56"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="72"/>
+      <c r="M25" s="72"/>
+      <c r="N25" s="72"/>
+      <c r="O25" s="72"/>
+      <c r="P25" s="72"/>
+      <c r="Q25" s="76"/>
+      <c r="R25" s="76"/>
+      <c r="S25" s="76"/>
+      <c r="T25" s="76"/>
+    </row>
+    <row r="26" spans="2:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="67"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
       <c r="I26" s="15"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="51"/>
-      <c r="O26" s="51"/>
-      <c r="P26" s="51"/>
-      <c r="Q26" s="49"/>
-      <c r="R26" s="49"/>
-      <c r="S26" s="49"/>
-      <c r="T26" s="49"/>
-    </row>
-    <row r="27" spans="2:20" ht="15.95" customHeight="1">
-      <c r="B27" s="52" t="s">
+      <c r="J26" s="67"/>
+      <c r="K26" s="72"/>
+      <c r="L26" s="72"/>
+      <c r="M26" s="72"/>
+      <c r="N26" s="72"/>
+      <c r="O26" s="72"/>
+      <c r="P26" s="72"/>
+      <c r="Q26" s="76"/>
+      <c r="R26" s="76"/>
+      <c r="S26" s="76"/>
+      <c r="T26" s="76"/>
+    </row>
+    <row r="27" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="73" t="s">
         <v>101</v>
       </c>
-      <c r="C27" s="55" t="s">
+      <c r="C27" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
       <c r="I27" s="16"/>
-      <c r="J27" s="56" t="s">
+      <c r="J27" s="67" t="s">
         <v>108</v>
       </c>
-      <c r="K27" s="51" t="s">
+      <c r="K27" s="72" t="s">
         <v>114</v>
       </c>
-      <c r="L27" s="51"/>
-      <c r="M27" s="51"/>
-      <c r="N27" s="51"/>
-      <c r="O27" s="51"/>
-      <c r="P27" s="51"/>
-      <c r="Q27" s="58" t="s">
+      <c r="L27" s="72"/>
+      <c r="M27" s="72"/>
+      <c r="N27" s="72"/>
+      <c r="O27" s="72"/>
+      <c r="P27" s="72"/>
+      <c r="Q27" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="R27" s="58"/>
-      <c r="S27" s="58"/>
-      <c r="T27" s="58"/>
-    </row>
-    <row r="28" spans="2:20" ht="20.100000000000001" customHeight="1">
-      <c r="B28" s="52"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
+      <c r="R27" s="69"/>
+      <c r="S27" s="69"/>
+      <c r="T27" s="69"/>
+    </row>
+    <row r="28" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="73"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="66"/>
       <c r="I28" s="16"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="51"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="51"/>
-      <c r="N28" s="51"/>
-      <c r="O28" s="51"/>
-      <c r="P28" s="51"/>
-      <c r="Q28" s="58"/>
-      <c r="R28" s="58"/>
-      <c r="S28" s="58"/>
-      <c r="T28" s="58"/>
-    </row>
-    <row r="29" spans="2:20" ht="21" customHeight="1">
-      <c r="B29" s="52" t="s">
+      <c r="J28" s="67"/>
+      <c r="K28" s="72"/>
+      <c r="L28" s="72"/>
+      <c r="M28" s="72"/>
+      <c r="N28" s="72"/>
+      <c r="O28" s="72"/>
+      <c r="P28" s="72"/>
+      <c r="Q28" s="69"/>
+      <c r="R28" s="69"/>
+      <c r="S28" s="69"/>
+      <c r="T28" s="69"/>
+    </row>
+    <row r="29" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="C29" s="53" t="s">
+      <c r="C29" s="74" t="s">
         <v>104</v>
       </c>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="74"/>
       <c r="I29" s="15"/>
-      <c r="J29" s="56"/>
-      <c r="K29" s="51"/>
-      <c r="L29" s="51"/>
-      <c r="M29" s="51"/>
-      <c r="N29" s="51"/>
-      <c r="O29" s="51"/>
-      <c r="P29" s="51"/>
-      <c r="Q29" s="58"/>
-      <c r="R29" s="58"/>
-      <c r="S29" s="58"/>
-      <c r="T29" s="58"/>
-    </row>
-    <row r="30" spans="2:20" ht="23.1" customHeight="1">
-      <c r="B30" s="52"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="72"/>
+      <c r="N29" s="72"/>
+      <c r="O29" s="72"/>
+      <c r="P29" s="72"/>
+      <c r="Q29" s="69"/>
+      <c r="R29" s="69"/>
+      <c r="S29" s="69"/>
+      <c r="T29" s="69"/>
+    </row>
+    <row r="30" spans="2:20" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="73"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="74"/>
       <c r="I30" s="15"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="51"/>
-      <c r="L30" s="51"/>
-      <c r="M30" s="51"/>
-      <c r="N30" s="51"/>
-      <c r="O30" s="51"/>
-      <c r="P30" s="51"/>
-      <c r="Q30" s="58"/>
-      <c r="R30" s="58"/>
-      <c r="S30" s="58"/>
-      <c r="T30" s="58"/>
-    </row>
-    <row r="31" spans="2:20" ht="18">
+      <c r="J30" s="67"/>
+      <c r="K30" s="72"/>
+      <c r="L30" s="72"/>
+      <c r="M30" s="72"/>
+      <c r="N30" s="72"/>
+      <c r="O30" s="72"/>
+      <c r="P30" s="72"/>
+      <c r="Q30" s="69"/>
+      <c r="R30" s="69"/>
+      <c r="S30" s="69"/>
+      <c r="T30" s="69"/>
+    </row>
+    <row r="31" spans="2:20" ht="18" x14ac:dyDescent="0.2">
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
@@ -7279,19 +7292,19 @@
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
-      <c r="J31" s="56"/>
-      <c r="K31" s="51"/>
-      <c r="L31" s="51"/>
-      <c r="M31" s="51"/>
-      <c r="N31" s="51"/>
-      <c r="O31" s="51"/>
-      <c r="P31" s="51"/>
-      <c r="Q31" s="58"/>
-      <c r="R31" s="58"/>
-      <c r="S31" s="58"/>
-      <c r="T31" s="58"/>
-    </row>
-    <row r="32" spans="2:20" ht="18" customHeight="1">
+      <c r="J31" s="67"/>
+      <c r="K31" s="72"/>
+      <c r="L31" s="72"/>
+      <c r="M31" s="72"/>
+      <c r="N31" s="72"/>
+      <c r="O31" s="72"/>
+      <c r="P31" s="72"/>
+      <c r="Q31" s="69"/>
+      <c r="R31" s="69"/>
+      <c r="S31" s="69"/>
+      <c r="T31" s="69"/>
+    </row>
+    <row r="32" spans="2:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
@@ -7300,23 +7313,23 @@
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
-      <c r="J32" s="56" t="s">
+      <c r="J32" s="67" t="s">
         <v>109</v>
       </c>
-      <c r="K32" s="55" t="s">
+      <c r="K32" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="L32" s="55"/>
-      <c r="M32" s="55"/>
-      <c r="N32" s="55"/>
-      <c r="O32" s="55"/>
-      <c r="P32" s="55"/>
-      <c r="Q32" s="50"/>
-      <c r="R32" s="50"/>
-      <c r="S32" s="50"/>
-      <c r="T32" s="50"/>
-    </row>
-    <row r="33" spans="2:20" ht="20.100000000000001" customHeight="1">
+      <c r="L32" s="66"/>
+      <c r="M32" s="66"/>
+      <c r="N32" s="66"/>
+      <c r="O32" s="66"/>
+      <c r="P32" s="66"/>
+      <c r="Q32" s="64"/>
+      <c r="R32" s="64"/>
+      <c r="S32" s="64"/>
+      <c r="T32" s="64"/>
+    </row>
+    <row r="33" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="17" t="s">
         <v>116</v>
       </c>
@@ -7327,112 +7340,112 @@
       <c r="G33" s="19"/>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
-      <c r="J33" s="56"/>
-      <c r="K33" s="55"/>
-      <c r="L33" s="55"/>
-      <c r="M33" s="55"/>
-      <c r="N33" s="55"/>
-      <c r="O33" s="55"/>
-      <c r="P33" s="55"/>
-      <c r="Q33" s="50"/>
-      <c r="R33" s="50"/>
-      <c r="S33" s="50"/>
-      <c r="T33" s="50"/>
-    </row>
-    <row r="34" spans="2:20" ht="15.95" customHeight="1">
-      <c r="B34" s="57" t="s">
+      <c r="J33" s="67"/>
+      <c r="K33" s="66"/>
+      <c r="L33" s="66"/>
+      <c r="M33" s="66"/>
+      <c r="N33" s="66"/>
+      <c r="O33" s="66"/>
+      <c r="P33" s="66"/>
+      <c r="Q33" s="64"/>
+      <c r="R33" s="64"/>
+      <c r="S33" s="64"/>
+      <c r="T33" s="64"/>
+    </row>
+    <row r="34" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="C34" s="57"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
+      <c r="C34" s="68"/>
+      <c r="D34" s="68"/>
+      <c r="E34" s="68"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="68"/>
+      <c r="H34" s="68"/>
       <c r="I34" s="19"/>
-      <c r="J34" s="56"/>
-      <c r="K34" s="55"/>
-      <c r="L34" s="55"/>
-      <c r="M34" s="55"/>
-      <c r="N34" s="55"/>
-      <c r="O34" s="55"/>
-      <c r="P34" s="55"/>
-      <c r="Q34" s="50"/>
-      <c r="R34" s="50"/>
-      <c r="S34" s="50"/>
-      <c r="T34" s="50"/>
-    </row>
-    <row r="35" spans="2:20" ht="15.95" customHeight="1">
-      <c r="B35" s="57"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
+      <c r="J34" s="67"/>
+      <c r="K34" s="66"/>
+      <c r="L34" s="66"/>
+      <c r="M34" s="66"/>
+      <c r="N34" s="66"/>
+      <c r="O34" s="66"/>
+      <c r="P34" s="66"/>
+      <c r="Q34" s="64"/>
+      <c r="R34" s="64"/>
+      <c r="S34" s="64"/>
+      <c r="T34" s="64"/>
+    </row>
+    <row r="35" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="68"/>
+      <c r="C35" s="68"/>
+      <c r="D35" s="68"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="68"/>
+      <c r="G35" s="68"/>
+      <c r="H35" s="68"/>
       <c r="I35" s="19"/>
-      <c r="J35" s="56"/>
-      <c r="K35" s="55"/>
-      <c r="L35" s="55"/>
-      <c r="M35" s="55"/>
-      <c r="N35" s="55"/>
-      <c r="O35" s="55"/>
-      <c r="P35" s="55"/>
-      <c r="Q35" s="50"/>
-      <c r="R35" s="50"/>
-      <c r="S35" s="50"/>
-      <c r="T35" s="50"/>
-    </row>
-    <row r="36" spans="2:20" ht="15.95" customHeight="1">
-      <c r="B36" s="57"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
+      <c r="J35" s="67"/>
+      <c r="K35" s="66"/>
+      <c r="L35" s="66"/>
+      <c r="M35" s="66"/>
+      <c r="N35" s="66"/>
+      <c r="O35" s="66"/>
+      <c r="P35" s="66"/>
+      <c r="Q35" s="64"/>
+      <c r="R35" s="64"/>
+      <c r="S35" s="64"/>
+      <c r="T35" s="64"/>
+    </row>
+    <row r="36" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="68"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="68"/>
+      <c r="G36" s="68"/>
+      <c r="H36" s="68"/>
       <c r="I36" s="19"/>
-      <c r="J36" s="56"/>
-      <c r="K36" s="55"/>
-      <c r="L36" s="55"/>
-      <c r="M36" s="55"/>
-      <c r="N36" s="55"/>
-      <c r="O36" s="55"/>
-      <c r="P36" s="55"/>
-      <c r="Q36" s="50"/>
-      <c r="R36" s="50"/>
-      <c r="S36" s="50"/>
-      <c r="T36" s="50"/>
-    </row>
-    <row r="37" spans="2:20" ht="15.95" customHeight="1">
-      <c r="B37" s="57"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="57"/>
+      <c r="J36" s="67"/>
+      <c r="K36" s="66"/>
+      <c r="L36" s="66"/>
+      <c r="M36" s="66"/>
+      <c r="N36" s="66"/>
+      <c r="O36" s="66"/>
+      <c r="P36" s="66"/>
+      <c r="Q36" s="64"/>
+      <c r="R36" s="64"/>
+      <c r="S36" s="64"/>
+      <c r="T36" s="64"/>
+    </row>
+    <row r="37" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="68"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="68"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="68"/>
+      <c r="G37" s="68"/>
+      <c r="H37" s="68"/>
       <c r="I37" s="19"/>
-      <c r="J37" s="56"/>
-      <c r="K37" s="55"/>
-      <c r="L37" s="55"/>
-      <c r="M37" s="55"/>
-      <c r="N37" s="55"/>
-      <c r="O37" s="55"/>
-      <c r="P37" s="55"/>
-      <c r="Q37" s="50"/>
-      <c r="R37" s="50"/>
-      <c r="S37" s="50"/>
-      <c r="T37" s="50"/>
-    </row>
-    <row r="38" spans="2:20" ht="15.95" customHeight="1">
-      <c r="B38" s="57"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="57"/>
+      <c r="J37" s="67"/>
+      <c r="K37" s="66"/>
+      <c r="L37" s="66"/>
+      <c r="M37" s="66"/>
+      <c r="N37" s="66"/>
+      <c r="O37" s="66"/>
+      <c r="P37" s="66"/>
+      <c r="Q37" s="64"/>
+      <c r="R37" s="64"/>
+      <c r="S37" s="64"/>
+      <c r="T37" s="64"/>
+    </row>
+    <row r="38" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="68"/>
+      <c r="C38" s="68"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="68"/>
+      <c r="H38" s="68"/>
       <c r="I38" s="19"/>
       <c r="K38" s="17"/>
       <c r="L38" s="17"/>
@@ -7442,14 +7455,14 @@
       <c r="P38" s="17"/>
       <c r="Q38" s="17"/>
     </row>
-    <row r="39" spans="2:20" ht="15.95" customHeight="1">
-      <c r="B39" s="57"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="57"/>
-      <c r="H39" s="57"/>
+    <row r="39" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="68"/>
+      <c r="C39" s="68"/>
+      <c r="D39" s="68"/>
+      <c r="E39" s="68"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="68"/>
+      <c r="H39" s="68"/>
       <c r="I39" s="19"/>
       <c r="J39" s="13"/>
       <c r="K39" s="13"/>
@@ -7460,77 +7473,77 @@
       <c r="P39" s="17"/>
       <c r="Q39" s="17"/>
     </row>
-    <row r="40" spans="2:20" ht="20.25">
-      <c r="B40" s="57"/>
-      <c r="C40" s="57"/>
-      <c r="D40" s="57"/>
-      <c r="E40" s="57"/>
-      <c r="F40" s="57"/>
-      <c r="G40" s="57"/>
-      <c r="H40" s="57"/>
+    <row r="40" spans="2:20" ht="21" x14ac:dyDescent="0.2">
+      <c r="B40" s="68"/>
+      <c r="C40" s="68"/>
+      <c r="D40" s="68"/>
+      <c r="E40" s="68"/>
+      <c r="F40" s="68"/>
+      <c r="G40" s="68"/>
+      <c r="H40" s="68"/>
       <c r="I40" s="19"/>
       <c r="J40" s="13"/>
       <c r="K40" s="13"/>
       <c r="L40" s="13"/>
       <c r="M40" s="13"/>
     </row>
-    <row r="41" spans="2:20" ht="20.25">
-      <c r="B41" s="57"/>
-      <c r="C41" s="57"/>
-      <c r="D41" s="57"/>
-      <c r="E41" s="57"/>
-      <c r="F41" s="57"/>
-      <c r="G41" s="57"/>
-      <c r="H41" s="57"/>
+    <row r="41" spans="2:20" ht="21" x14ac:dyDescent="0.2">
+      <c r="B41" s="68"/>
+      <c r="C41" s="68"/>
+      <c r="D41" s="68"/>
+      <c r="E41" s="68"/>
+      <c r="F41" s="68"/>
+      <c r="G41" s="68"/>
+      <c r="H41" s="68"/>
       <c r="I41" s="19"/>
       <c r="J41" s="13"/>
       <c r="K41" s="13"/>
       <c r="L41" s="13"/>
       <c r="M41" s="13"/>
     </row>
-    <row r="42" spans="2:20" ht="20.25">
-      <c r="B42" s="57"/>
-      <c r="C42" s="57"/>
-      <c r="D42" s="57"/>
-      <c r="E42" s="57"/>
-      <c r="F42" s="57"/>
-      <c r="G42" s="57"/>
-      <c r="H42" s="57"/>
+    <row r="42" spans="2:20" ht="21" x14ac:dyDescent="0.2">
+      <c r="B42" s="68"/>
+      <c r="C42" s="68"/>
+      <c r="D42" s="68"/>
+      <c r="E42" s="68"/>
+      <c r="F42" s="68"/>
+      <c r="G42" s="68"/>
+      <c r="H42" s="68"/>
       <c r="I42" s="19"/>
       <c r="J42" s="13"/>
       <c r="K42" s="13"/>
       <c r="L42" s="13"/>
       <c r="M42" s="13"/>
     </row>
-    <row r="43" spans="2:20" ht="20.25">
-      <c r="B43" s="57"/>
-      <c r="C43" s="57"/>
-      <c r="D43" s="57"/>
-      <c r="E43" s="57"/>
-      <c r="F43" s="57"/>
-      <c r="G43" s="57"/>
-      <c r="H43" s="57"/>
+    <row r="43" spans="2:20" ht="21" x14ac:dyDescent="0.2">
+      <c r="B43" s="68"/>
+      <c r="C43" s="68"/>
+      <c r="D43" s="68"/>
+      <c r="E43" s="68"/>
+      <c r="F43" s="68"/>
+      <c r="G43" s="68"/>
+      <c r="H43" s="68"/>
       <c r="I43" s="19"/>
       <c r="J43" s="13"/>
       <c r="K43" s="13"/>
       <c r="L43" s="13"/>
       <c r="M43" s="13"/>
     </row>
-    <row r="44" spans="2:20" ht="20.25">
-      <c r="B44" s="57"/>
-      <c r="C44" s="57"/>
-      <c r="D44" s="57"/>
-      <c r="E44" s="57"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="57"/>
-      <c r="H44" s="57"/>
+    <row r="44" spans="2:20" ht="21" x14ac:dyDescent="0.2">
+      <c r="B44" s="68"/>
+      <c r="C44" s="68"/>
+      <c r="D44" s="68"/>
+      <c r="E44" s="68"/>
+      <c r="F44" s="68"/>
+      <c r="G44" s="68"/>
+      <c r="H44" s="68"/>
       <c r="I44" s="19"/>
       <c r="J44" s="13"/>
       <c r="K44" s="13"/>
       <c r="L44" s="13"/>
       <c r="M44" s="13"/>
     </row>
-    <row r="45" spans="2:20" ht="20.25">
+    <row r="45" spans="2:20" ht="21" x14ac:dyDescent="0.2">
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
       <c r="D45" s="18"/>
@@ -7544,7 +7557,7 @@
       <c r="L45" s="13"/>
       <c r="M45" s="13"/>
     </row>
-    <row r="46" spans="2:20" ht="20.25">
+    <row r="46" spans="2:20" ht="21" x14ac:dyDescent="0.25">
       <c r="B46" s="20"/>
       <c r="C46" s="20"/>
       <c r="D46" s="20"/>
@@ -7558,7 +7571,7 @@
       <c r="L46" s="13"/>
       <c r="M46" s="13"/>
     </row>
-    <row r="47" spans="2:20" ht="23.25">
+    <row r="47" spans="2:20" ht="23" x14ac:dyDescent="0.25">
       <c r="B47" s="24" t="s">
         <v>117</v>
       </c>
@@ -7576,7 +7589,7 @@
       <c r="L47" s="13"/>
       <c r="M47" s="13"/>
     </row>
-    <row r="48" spans="2:20" ht="18">
+    <row r="48" spans="2:20" ht="18" x14ac:dyDescent="0.2">
       <c r="B48" s="8" t="s">
         <v>118</v>
       </c>
@@ -7592,19 +7605,19 @@
       <c r="L48" s="13"/>
       <c r="M48" s="13"/>
     </row>
-    <row r="49" spans="1:13" ht="18">
+    <row r="49" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>126</v>
       </c>
-      <c r="B49" s="33" t="s">
+      <c r="B49" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33" t="s">
+      <c r="C49" s="55"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="F49" s="33"/>
+      <c r="F49" s="55"/>
       <c r="G49" s="21"/>
       <c r="H49" s="17"/>
       <c r="I49" s="13"/>
@@ -7613,16 +7626,16 @@
       <c r="L49" s="13"/>
       <c r="M49" s="13"/>
     </row>
-    <row r="50" spans="1:13" ht="18">
-      <c r="B50" s="33" t="s">
+    <row r="50" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="B50" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="C50" s="33"/>
-      <c r="D50" s="33"/>
-      <c r="E50" s="33" t="s">
+      <c r="C50" s="55"/>
+      <c r="D50" s="55"/>
+      <c r="E50" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="F50" s="33"/>
+      <c r="F50" s="55"/>
       <c r="G50" s="21" t="s">
         <v>120</v>
       </c>
@@ -7633,7 +7646,7 @@
       <c r="L50" s="13"/>
       <c r="M50" s="13"/>
     </row>
-    <row r="51" spans="1:13" ht="18">
+    <row r="51" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="B51" s="8"/>
       <c r="C51" s="8" t="s">
         <v>125</v>
@@ -7644,13 +7657,25 @@
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
     </row>
-    <row r="54" spans="1:13" ht="18">
+    <row r="54" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="B54" s="8" t="s">
         <v>127</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B6:D7"/>
+    <mergeCell ref="B1:H2"/>
+    <mergeCell ref="Q24:T26"/>
+    <mergeCell ref="Q21:T23"/>
+    <mergeCell ref="K21:P23"/>
+    <mergeCell ref="K24:P26"/>
+    <mergeCell ref="K27:P31"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C21:H23"/>
+    <mergeCell ref="C24:H26"/>
+    <mergeCell ref="C29:H30"/>
     <mergeCell ref="Q32:T37"/>
     <mergeCell ref="J20:T20"/>
     <mergeCell ref="E49:F49"/>
@@ -7667,18 +7692,6 @@
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="C27:H28"/>
-    <mergeCell ref="K27:P31"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C21:H23"/>
-    <mergeCell ref="C24:H26"/>
-    <mergeCell ref="C29:H30"/>
-    <mergeCell ref="B6:D7"/>
-    <mergeCell ref="B1:H2"/>
-    <mergeCell ref="Q24:T26"/>
-    <mergeCell ref="Q21:T23"/>
-    <mergeCell ref="K21:P23"/>
-    <mergeCell ref="K24:P26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7689,167 +7702,167 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:R98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:18" ht="15.95" customHeight="1">
-      <c r="B3" s="65" t="s">
+    <row r="3" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="85" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
       <c r="P3" s="26"/>
       <c r="Q3" s="26"/>
       <c r="R3" s="26"/>
     </row>
-    <row r="4" spans="2:18" ht="15.95" customHeight="1">
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="65"/>
+    <row r="4" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
       <c r="P4" s="26"/>
       <c r="Q4" s="26"/>
       <c r="R4" s="26"/>
     </row>
-    <row r="5" spans="2:18" ht="15.95" customHeight="1">
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
+    <row r="5" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="85"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
       <c r="P5" s="26"/>
       <c r="Q5" s="26"/>
       <c r="R5" s="26"/>
     </row>
-    <row r="6" spans="2:18" ht="15.95" customHeight="1">
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="65"/>
-      <c r="O6" s="65"/>
+    <row r="6" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="85"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="85"/>
+      <c r="M6" s="85"/>
+      <c r="N6" s="85"/>
+      <c r="O6" s="85"/>
       <c r="P6" s="26"/>
       <c r="Q6" s="26"/>
       <c r="R6" s="26"/>
     </row>
-    <row r="7" spans="2:18" ht="15.95" customHeight="1">
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="65"/>
-      <c r="N7" s="65"/>
-      <c r="O7" s="65"/>
+    <row r="7" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="85"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="85"/>
+      <c r="N7" s="85"/>
+      <c r="O7" s="85"/>
       <c r="P7" s="26"/>
       <c r="Q7" s="26"/>
       <c r="R7" s="26"/>
     </row>
-    <row r="8" spans="2:18" ht="15.95" customHeight="1">
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="65"/>
-      <c r="N8" s="65"/>
-      <c r="O8" s="65"/>
+    <row r="8" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="85"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="85"/>
+      <c r="M8" s="85"/>
+      <c r="N8" s="85"/>
+      <c r="O8" s="85"/>
       <c r="P8" s="26"/>
       <c r="Q8" s="26"/>
       <c r="R8" s="26"/>
     </row>
-    <row r="9" spans="2:18" ht="15.95" customHeight="1">
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="65"/>
-      <c r="O9" s="65"/>
+    <row r="9" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="85"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="85"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="85"/>
+      <c r="M9" s="85"/>
+      <c r="N9" s="85"/>
+      <c r="O9" s="85"/>
       <c r="P9" s="26"/>
       <c r="Q9" s="26"/>
       <c r="R9" s="26"/>
     </row>
-    <row r="10" spans="2:18" ht="15.95" customHeight="1">
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="65"/>
-      <c r="N10" s="65"/>
-      <c r="O10" s="65"/>
+    <row r="10" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="85"/>
+      <c r="M10" s="85"/>
+      <c r="N10" s="85"/>
+      <c r="O10" s="85"/>
       <c r="P10" s="26"/>
       <c r="Q10" s="26"/>
       <c r="R10" s="26"/>
     </row>
-    <row r="11" spans="2:18" ht="15.95" customHeight="1">
+    <row r="11" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="26"/>
       <c r="C11" s="26"/>
       <c r="D11" s="26"/>
@@ -7868,7 +7881,7 @@
       <c r="Q11" s="26"/>
       <c r="R11" s="26"/>
     </row>
-    <row r="12" spans="2:18" ht="15.95" customHeight="1">
+    <row r="12" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="26"/>
       <c r="C12" s="26"/>
       <c r="D12" s="26"/>
@@ -7883,12 +7896,12 @@
       <c r="M12" s="26"/>
       <c r="N12" s="26"/>
     </row>
-    <row r="13" spans="2:18" ht="15.95" customHeight="1">
-      <c r="B13" s="69" t="s">
+    <row r="13" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="86" t="s">
         <v>191</v>
       </c>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="86"/>
       <c r="E13" s="26"/>
       <c r="F13" s="26"/>
       <c r="G13" s="26"/>
@@ -7900,435 +7913,435 @@
       <c r="M13" s="26"/>
       <c r="N13" s="26"/>
     </row>
-    <row r="14" spans="2:18" ht="15.95" customHeight="1">
-      <c r="B14" s="66" t="s">
+    <row r="14" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="82" t="s">
         <v>176</v>
       </c>
-      <c r="C14" s="55" t="s">
+      <c r="C14" s="66" t="s">
         <v>177</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="47"/>
-      <c r="P14" s="62" t="s">
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="87" t="s">
         <v>182</v>
       </c>
-      <c r="Q14" s="62"/>
-    </row>
-    <row r="15" spans="2:18" ht="15.95" customHeight="1">
-      <c r="B15" s="67"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="47"/>
-      <c r="O15" s="47"/>
-      <c r="P15" s="62"/>
-      <c r="Q15" s="62"/>
-    </row>
-    <row r="16" spans="2:18" ht="15.95" customHeight="1">
-      <c r="B16" s="68"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="47"/>
-      <c r="P16" s="62"/>
-      <c r="Q16" s="62"/>
-    </row>
-    <row r="17" spans="2:17" ht="15.95" customHeight="1">
-      <c r="B17" s="66" t="s">
+      <c r="Q14" s="87"/>
+    </row>
+    <row r="15" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="83"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="58"/>
+      <c r="P15" s="87"/>
+      <c r="Q15" s="87"/>
+    </row>
+    <row r="16" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="84"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="58"/>
+      <c r="P16" s="87"/>
+      <c r="Q16" s="87"/>
+    </row>
+    <row r="17" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="82" t="s">
         <v>178</v>
       </c>
-      <c r="C17" s="55" t="s">
+      <c r="C17" s="66" t="s">
         <v>179</v>
       </c>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="47" t="s">
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="58" t="s">
         <v>180</v>
       </c>
-      <c r="L17" s="47"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="47"/>
-      <c r="P17" s="61"/>
-      <c r="Q17" s="61"/>
-    </row>
-    <row r="18" spans="2:17" ht="15.95" customHeight="1">
-      <c r="B18" s="67"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="47"/>
-      <c r="O18" s="47"/>
-      <c r="P18" s="61"/>
-      <c r="Q18" s="61"/>
-    </row>
-    <row r="19" spans="2:17" ht="23.1" customHeight="1">
-      <c r="B19" s="68"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="61"/>
-      <c r="Q19" s="61"/>
-    </row>
-    <row r="20" spans="2:17" ht="15.95" customHeight="1">
-      <c r="B20" s="70" t="s">
+      <c r="L17" s="58"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="58"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
+    </row>
+    <row r="18" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="83"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="58"/>
+      <c r="O18" s="58"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="42"/>
+    </row>
+    <row r="19" spans="2:17" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="84"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="58"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+    </row>
+    <row r="20" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="81" t="s">
         <v>181</v>
       </c>
-      <c r="C20" s="47" t="s">
+      <c r="C20" s="58" t="s">
         <v>183</v>
       </c>
-      <c r="D20" s="47"/>
-      <c r="E20" s="63" t="s">
+      <c r="D20" s="58"/>
+      <c r="E20" s="80" t="s">
         <v>200</v>
       </c>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="64" t="s">
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="58"/>
+      <c r="N20" s="58"/>
+      <c r="O20" s="58"/>
+      <c r="P20" s="88" t="s">
         <v>201</v>
       </c>
-      <c r="Q20" s="62"/>
-    </row>
-    <row r="21" spans="2:17" ht="15.95" customHeight="1">
-      <c r="B21" s="70"/>
-      <c r="C21" s="47" t="s">
+      <c r="Q20" s="87"/>
+    </row>
+    <row r="21" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="81"/>
+      <c r="C21" s="58" t="s">
         <v>184</v>
       </c>
-      <c r="D21" s="47"/>
-      <c r="E21" s="63" t="s">
+      <c r="D21" s="58"/>
+      <c r="E21" s="80" t="s">
         <v>202</v>
       </c>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47" t="s">
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58" t="s">
         <v>186</v>
       </c>
-      <c r="L21" s="47"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="47"/>
-      <c r="P21" s="62"/>
-      <c r="Q21" s="62"/>
-    </row>
-    <row r="22" spans="2:17" ht="15.95" customHeight="1">
-      <c r="B22" s="70"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="63" t="s">
+      <c r="L21" s="58"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="58"/>
+      <c r="O21" s="58"/>
+      <c r="P21" s="87"/>
+      <c r="Q21" s="87"/>
+    </row>
+    <row r="22" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="81"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="80" t="s">
         <v>203</v>
       </c>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="47"/>
-      <c r="O22" s="47"/>
-      <c r="P22" s="62"/>
-      <c r="Q22" s="62"/>
-    </row>
-    <row r="23" spans="2:17" ht="15.95" customHeight="1">
-      <c r="B23" s="70"/>
-      <c r="C23" s="47" t="s">
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="58"/>
+      <c r="P22" s="87"/>
+      <c r="Q22" s="87"/>
+    </row>
+    <row r="23" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="81"/>
+      <c r="C23" s="58" t="s">
         <v>185</v>
       </c>
-      <c r="D23" s="47"/>
-      <c r="E23" s="63" t="s">
+      <c r="D23" s="58"/>
+      <c r="E23" s="80" t="s">
         <v>204</v>
       </c>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47" t="s">
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="58" t="s">
         <v>187</v>
       </c>
-      <c r="L23" s="47"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="47"/>
-      <c r="P23" s="62"/>
-      <c r="Q23" s="62"/>
-    </row>
-    <row r="24" spans="2:17" ht="15.95" customHeight="1">
-      <c r="B24" s="70"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="63" t="s">
+      <c r="L23" s="58"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="58"/>
+      <c r="O23" s="58"/>
+      <c r="P23" s="87"/>
+      <c r="Q23" s="87"/>
+    </row>
+    <row r="24" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="81"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="80" t="s">
         <v>205</v>
       </c>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="63" t="s">
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="80" t="s">
         <v>206</v>
       </c>
-      <c r="L24" s="47"/>
-      <c r="M24" s="47"/>
-      <c r="N24" s="47"/>
-      <c r="O24" s="47"/>
-      <c r="P24" s="62"/>
-      <c r="Q24" s="62"/>
-    </row>
-    <row r="25" spans="2:17" ht="15.95" customHeight="1">
-      <c r="B25" s="66" t="s">
+      <c r="L24" s="58"/>
+      <c r="M24" s="58"/>
+      <c r="N24" s="58"/>
+      <c r="O24" s="58"/>
+      <c r="P24" s="87"/>
+      <c r="Q24" s="87"/>
+    </row>
+    <row r="25" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="82" t="s">
         <v>189</v>
       </c>
-      <c r="C25" s="55" t="s">
+      <c r="C25" s="66" t="s">
         <v>190</v>
       </c>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="47"/>
-      <c r="P25" s="61"/>
-      <c r="Q25" s="61"/>
-    </row>
-    <row r="26" spans="2:17" ht="15.95" customHeight="1">
-      <c r="B26" s="67"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="47"/>
-      <c r="N26" s="47"/>
-      <c r="O26" s="47"/>
-      <c r="P26" s="61"/>
-      <c r="Q26" s="61"/>
-    </row>
-    <row r="27" spans="2:17" ht="15.95" customHeight="1">
-      <c r="B27" s="67"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="47"/>
-      <c r="P27" s="61"/>
-      <c r="Q27" s="61"/>
-    </row>
-    <row r="28" spans="2:17" ht="15.95" customHeight="1">
-      <c r="B28" s="67"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="47"/>
-      <c r="O28" s="47"/>
-      <c r="P28" s="61"/>
-      <c r="Q28" s="61"/>
-    </row>
-    <row r="29" spans="2:17" ht="15.95" customHeight="1">
-      <c r="B29" s="67"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="55"/>
-      <c r="K29" s="47"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="47"/>
-      <c r="N29" s="47"/>
-      <c r="O29" s="47"/>
-      <c r="P29" s="61"/>
-      <c r="Q29" s="61"/>
-    </row>
-    <row r="30" spans="2:17" ht="24" customHeight="1">
-      <c r="B30" s="67"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="55"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="47"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="47"/>
-      <c r="O30" s="47"/>
-      <c r="P30" s="61"/>
-      <c r="Q30" s="61"/>
-    </row>
-    <row r="31" spans="2:17" ht="25.5" customHeight="1">
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="58"/>
+      <c r="N25" s="58"/>
+      <c r="O25" s="58"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="42"/>
+    </row>
+    <row r="26" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="83"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="66"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="58"/>
+      <c r="N26" s="58"/>
+      <c r="O26" s="58"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="42"/>
+    </row>
+    <row r="27" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="83"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="66"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="58"/>
+      <c r="M27" s="58"/>
+      <c r="N27" s="58"/>
+      <c r="O27" s="58"/>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="42"/>
+    </row>
+    <row r="28" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="83"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="66"/>
+      <c r="J28" s="66"/>
+      <c r="K28" s="58"/>
+      <c r="L28" s="58"/>
+      <c r="M28" s="58"/>
+      <c r="N28" s="58"/>
+      <c r="O28" s="58"/>
+      <c r="P28" s="42"/>
+      <c r="Q28" s="42"/>
+    </row>
+    <row r="29" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="83"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="66"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="58"/>
+      <c r="M29" s="58"/>
+      <c r="N29" s="58"/>
+      <c r="O29" s="58"/>
+      <c r="P29" s="42"/>
+      <c r="Q29" s="42"/>
+    </row>
+    <row r="30" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="83"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="58"/>
+      <c r="L30" s="58"/>
+      <c r="M30" s="58"/>
+      <c r="N30" s="58"/>
+      <c r="O30" s="58"/>
+      <c r="P30" s="42"/>
+      <c r="Q30" s="42"/>
+    </row>
+    <row r="31" spans="2:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="31" t="s">
         <v>197</v>
       </c>
-      <c r="C31" s="55" t="s">
+      <c r="C31" s="66" t="s">
         <v>198</v>
       </c>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="55"/>
-      <c r="K31" s="47"/>
-      <c r="L31" s="47"/>
-      <c r="M31" s="47"/>
-      <c r="N31" s="47"/>
-      <c r="O31" s="47"/>
-      <c r="P31" s="61"/>
-      <c r="Q31" s="61"/>
-    </row>
-    <row r="32" spans="2:17" ht="15.95" customHeight="1">
-      <c r="B32" s="66" t="s">
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="66"/>
+      <c r="J31" s="66"/>
+      <c r="K31" s="58"/>
+      <c r="L31" s="58"/>
+      <c r="M31" s="58"/>
+      <c r="N31" s="58"/>
+      <c r="O31" s="58"/>
+      <c r="P31" s="42"/>
+      <c r="Q31" s="42"/>
+    </row>
+    <row r="32" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="82" t="s">
         <v>188</v>
       </c>
-      <c r="C32" s="63" t="s">
+      <c r="C32" s="80" t="s">
         <v>199</v>
       </c>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="63"/>
-      <c r="J32" s="63"/>
-      <c r="K32" s="47"/>
-      <c r="L32" s="47"/>
-      <c r="M32" s="47"/>
-      <c r="N32" s="47"/>
-      <c r="O32" s="47"/>
-      <c r="P32" s="61"/>
-      <c r="Q32" s="61"/>
-    </row>
-    <row r="33" spans="2:17" ht="15.95" customHeight="1">
-      <c r="B33" s="67"/>
-      <c r="C33" s="63"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="63"/>
-      <c r="F33" s="63"/>
-      <c r="G33" s="63"/>
-      <c r="H33" s="63"/>
-      <c r="I33" s="63"/>
-      <c r="J33" s="63"/>
-      <c r="K33" s="47"/>
-      <c r="L33" s="47"/>
-      <c r="M33" s="47"/>
-      <c r="N33" s="47"/>
-      <c r="O33" s="47"/>
-      <c r="P33" s="61"/>
-      <c r="Q33" s="61"/>
-    </row>
-    <row r="34" spans="2:17" ht="15.95" customHeight="1">
-      <c r="B34" s="68"/>
-      <c r="C34" s="63"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="63"/>
-      <c r="F34" s="63"/>
-      <c r="G34" s="63"/>
-      <c r="H34" s="63"/>
-      <c r="I34" s="63"/>
-      <c r="J34" s="63"/>
-      <c r="K34" s="47"/>
-      <c r="L34" s="47"/>
-      <c r="M34" s="47"/>
-      <c r="N34" s="47"/>
-      <c r="O34" s="47"/>
-      <c r="P34" s="61"/>
-      <c r="Q34" s="61"/>
-    </row>
-    <row r="35" spans="2:17" ht="15.95" customHeight="1">
+      <c r="D32" s="80"/>
+      <c r="E32" s="80"/>
+      <c r="F32" s="80"/>
+      <c r="G32" s="80"/>
+      <c r="H32" s="80"/>
+      <c r="I32" s="80"/>
+      <c r="J32" s="80"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="58"/>
+      <c r="M32" s="58"/>
+      <c r="N32" s="58"/>
+      <c r="O32" s="58"/>
+      <c r="P32" s="42"/>
+      <c r="Q32" s="42"/>
+    </row>
+    <row r="33" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="83"/>
+      <c r="C33" s="80"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="80"/>
+      <c r="G33" s="80"/>
+      <c r="H33" s="80"/>
+      <c r="I33" s="80"/>
+      <c r="J33" s="80"/>
+      <c r="K33" s="58"/>
+      <c r="L33" s="58"/>
+      <c r="M33" s="58"/>
+      <c r="N33" s="58"/>
+      <c r="O33" s="58"/>
+      <c r="P33" s="42"/>
+      <c r="Q33" s="42"/>
+    </row>
+    <row r="34" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="84"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="80"/>
+      <c r="E34" s="80"/>
+      <c r="F34" s="80"/>
+      <c r="G34" s="80"/>
+      <c r="H34" s="80"/>
+      <c r="I34" s="80"/>
+      <c r="J34" s="80"/>
+      <c r="K34" s="58"/>
+      <c r="L34" s="58"/>
+      <c r="M34" s="58"/>
+      <c r="N34" s="58"/>
+      <c r="O34" s="58"/>
+      <c r="P34" s="42"/>
+      <c r="Q34" s="42"/>
+    </row>
+    <row r="35" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="32" t="s">
         <v>207</v>
       </c>
@@ -8344,7 +8357,7 @@
       <c r="L35" s="26"/>
       <c r="M35" s="26"/>
     </row>
-    <row r="36" spans="2:17" ht="15.95" customHeight="1">
+    <row r="36" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="26"/>
       <c r="C36" s="26"/>
       <c r="D36" s="26"/>
@@ -8358,7 +8371,7 @@
       <c r="L36" s="26"/>
       <c r="M36" s="26"/>
     </row>
-    <row r="37" spans="2:17" ht="15.95" customHeight="1">
+    <row r="37" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="26"/>
       <c r="C37" s="26"/>
       <c r="D37" s="26"/>
@@ -8372,7 +8385,7 @@
       <c r="L37" s="26"/>
       <c r="M37" s="26"/>
     </row>
-    <row r="38" spans="2:17" ht="15.95" customHeight="1">
+    <row r="38" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="26"/>
       <c r="C38" s="26"/>
       <c r="D38" s="26"/>
@@ -8386,7 +8399,7 @@
       <c r="L38" s="26"/>
       <c r="M38" s="26"/>
     </row>
-    <row r="39" spans="2:17" ht="15.75" customHeight="1">
+    <row r="39" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="26"/>
       <c r="C39" s="26"/>
       <c r="D39" s="26"/>
@@ -8400,193 +8413,193 @@
       <c r="L39" s="26"/>
       <c r="M39" s="26"/>
     </row>
-    <row r="40" spans="2:17" ht="19.5" customHeight="1">
-      <c r="B40" s="59" t="s">
+    <row r="40" spans="2:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="C40" s="86" t="s">
+      <c r="C40" s="77" t="s">
         <v>223</v>
       </c>
-      <c r="D40" s="86"/>
-      <c r="E40" s="87" t="s">
+      <c r="D40" s="77"/>
+      <c r="E40" s="78" t="s">
         <v>224</v>
       </c>
-      <c r="F40" s="87"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="87"/>
+      <c r="F40" s="78"/>
+      <c r="G40" s="78"/>
+      <c r="H40" s="78"/>
       <c r="I40" s="26"/>
       <c r="J40" s="26"/>
       <c r="K40" s="26"/>
       <c r="L40" s="26"/>
       <c r="M40" s="26"/>
     </row>
-    <row r="41" spans="2:17" ht="18" customHeight="1">
-      <c r="B41" s="59"/>
-      <c r="C41" s="86"/>
-      <c r="D41" s="86"/>
-      <c r="E41" s="87"/>
-      <c r="F41" s="87"/>
-      <c r="G41" s="87"/>
-      <c r="H41" s="87"/>
+    <row r="41" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="70"/>
+      <c r="C41" s="77"/>
+      <c r="D41" s="77"/>
+      <c r="E41" s="78"/>
+      <c r="F41" s="78"/>
+      <c r="G41" s="78"/>
+      <c r="H41" s="78"/>
       <c r="I41" s="26"/>
-      <c r="J41" s="80" t="s">
+      <c r="J41" s="38" t="s">
         <v>227</v>
       </c>
-      <c r="K41" s="80"/>
-      <c r="L41" s="80"/>
-      <c r="M41" s="80"/>
-      <c r="N41" s="80"/>
-      <c r="O41" s="80"/>
-    </row>
-    <row r="42" spans="2:17" ht="19.5" customHeight="1">
-      <c r="B42" s="59"/>
-      <c r="C42" s="86"/>
-      <c r="D42" s="86"/>
-      <c r="E42" s="87"/>
-      <c r="F42" s="87"/>
-      <c r="G42" s="87"/>
-      <c r="H42" s="87"/>
+      <c r="K41" s="38"/>
+      <c r="L41" s="38"/>
+      <c r="M41" s="38"/>
+      <c r="N41" s="38"/>
+      <c r="O41" s="38"/>
+    </row>
+    <row r="42" spans="2:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="70"/>
+      <c r="C42" s="77"/>
+      <c r="D42" s="77"/>
+      <c r="E42" s="78"/>
+      <c r="F42" s="78"/>
+      <c r="G42" s="78"/>
+      <c r="H42" s="78"/>
       <c r="I42" s="26"/>
-      <c r="J42" s="80" t="s">
+      <c r="J42" s="38" t="s">
         <v>228</v>
       </c>
-      <c r="K42" s="80"/>
-      <c r="L42" s="80"/>
-      <c r="M42" s="80"/>
-      <c r="N42" s="80"/>
-      <c r="O42" s="80"/>
-    </row>
-    <row r="43" spans="2:17" ht="19.5" customHeight="1">
-      <c r="B43" s="59" t="s">
+      <c r="K42" s="38"/>
+      <c r="L42" s="38"/>
+      <c r="M42" s="38"/>
+      <c r="N42" s="38"/>
+      <c r="O42" s="38"/>
+    </row>
+    <row r="43" spans="2:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="C43" s="88" t="s">
+      <c r="C43" s="79" t="s">
         <v>225</v>
       </c>
-      <c r="D43" s="88"/>
-      <c r="E43" s="87" t="s">
+      <c r="D43" s="79"/>
+      <c r="E43" s="78" t="s">
         <v>226</v>
       </c>
-      <c r="F43" s="87"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="87"/>
+      <c r="F43" s="78"/>
+      <c r="G43" s="78"/>
+      <c r="H43" s="78"/>
       <c r="I43" s="26"/>
-      <c r="J43" s="72" t="s">
+      <c r="J43" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="K43" s="80"/>
-      <c r="L43" s="80"/>
-      <c r="M43" s="80"/>
-      <c r="N43" s="80"/>
-      <c r="O43" s="80"/>
-    </row>
-    <row r="44" spans="2:17" ht="23.25" customHeight="1">
-      <c r="B44" s="59"/>
-      <c r="C44" s="88"/>
-      <c r="D44" s="88"/>
-      <c r="E44" s="87"/>
-      <c r="F44" s="87"/>
-      <c r="G44" s="87"/>
-      <c r="H44" s="87"/>
+      <c r="K43" s="38"/>
+      <c r="L43" s="38"/>
+      <c r="M43" s="38"/>
+      <c r="N43" s="38"/>
+      <c r="O43" s="38"/>
+    </row>
+    <row r="44" spans="2:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="70"/>
+      <c r="C44" s="79"/>
+      <c r="D44" s="79"/>
+      <c r="E44" s="78"/>
+      <c r="F44" s="78"/>
+      <c r="G44" s="78"/>
+      <c r="H44" s="78"/>
       <c r="I44" s="26"/>
-      <c r="J44" s="80" t="s">
+      <c r="J44" s="38" t="s">
         <v>229</v>
       </c>
-      <c r="K44" s="80"/>
-      <c r="L44" s="80"/>
-      <c r="M44" s="80"/>
-      <c r="N44" s="80"/>
-      <c r="O44" s="80"/>
-    </row>
-    <row r="45" spans="2:17" ht="16.5" customHeight="1">
-      <c r="B45" s="59"/>
-      <c r="C45" s="88"/>
-      <c r="D45" s="88"/>
-      <c r="E45" s="87"/>
-      <c r="F45" s="87"/>
-      <c r="G45" s="87"/>
-      <c r="H45" s="87"/>
+      <c r="K44" s="38"/>
+      <c r="L44" s="38"/>
+      <c r="M44" s="38"/>
+      <c r="N44" s="38"/>
+      <c r="O44" s="38"/>
+    </row>
+    <row r="45" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="70"/>
+      <c r="C45" s="79"/>
+      <c r="D45" s="79"/>
+      <c r="E45" s="78"/>
+      <c r="F45" s="78"/>
+      <c r="G45" s="78"/>
+      <c r="H45" s="78"/>
       <c r="I45" s="26"/>
       <c r="J45" s="26"/>
       <c r="K45" s="26"/>
       <c r="L45" s="26"/>
       <c r="M45" s="26"/>
     </row>
-    <row r="46" spans="2:17" ht="15.95" customHeight="1">
-      <c r="B46" s="80"/>
-      <c r="C46" s="80"/>
-      <c r="D46" s="80"/>
-      <c r="E46" s="80"/>
-      <c r="F46" s="80"/>
-      <c r="G46" s="80"/>
-      <c r="H46" s="80"/>
+    <row r="46" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="38"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="38"/>
       <c r="I46" s="26"/>
       <c r="J46" s="26"/>
       <c r="K46" s="26"/>
       <c r="L46" s="26"/>
       <c r="M46" s="26"/>
     </row>
-    <row r="47" spans="2:17" ht="15.95" customHeight="1">
-      <c r="B47" s="80"/>
-      <c r="C47" s="80"/>
-      <c r="D47" s="80"/>
-      <c r="E47" s="80"/>
-      <c r="F47" s="80"/>
-      <c r="G47" s="80"/>
-      <c r="H47" s="80"/>
+    <row r="47" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="38"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="38"/>
       <c r="I47" s="26"/>
       <c r="J47" s="26"/>
       <c r="K47" s="26"/>
       <c r="L47" s="26"/>
       <c r="M47" s="26"/>
     </row>
-    <row r="48" spans="2:17" ht="15.95" customHeight="1">
-      <c r="B48" s="80"/>
-      <c r="C48" s="80"/>
-      <c r="D48" s="80"/>
-      <c r="E48" s="80"/>
-      <c r="F48" s="80"/>
-      <c r="G48" s="80"/>
-      <c r="H48" s="80"/>
+    <row r="48" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="38"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="38"/>
+      <c r="G48" s="38"/>
+      <c r="H48" s="38"/>
       <c r="I48" s="26"/>
       <c r="J48" s="26"/>
       <c r="K48" s="26"/>
       <c r="L48" s="26"/>
       <c r="M48" s="26"/>
     </row>
-    <row r="49" spans="2:13" ht="15.95" customHeight="1">
-      <c r="H49" s="80"/>
+    <row r="49" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H49" s="38"/>
       <c r="I49" s="26"/>
       <c r="J49" s="26"/>
       <c r="K49" s="26"/>
       <c r="L49" s="26"/>
       <c r="M49" s="26"/>
     </row>
-    <row r="50" spans="2:13" ht="15.95" customHeight="1">
-      <c r="H50" s="80"/>
+    <row r="50" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H50" s="38"/>
       <c r="I50" s="26"/>
       <c r="J50" s="26"/>
       <c r="K50" s="26"/>
       <c r="L50" s="26"/>
       <c r="M50" s="26"/>
     </row>
-    <row r="51" spans="2:13" ht="15.95" customHeight="1">
-      <c r="H51" s="80"/>
+    <row r="51" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H51" s="38"/>
       <c r="I51" s="26"/>
       <c r="J51" s="26"/>
       <c r="K51" s="26"/>
       <c r="L51" s="26"/>
       <c r="M51" s="26"/>
     </row>
-    <row r="52" spans="2:13" ht="15.95" customHeight="1">
-      <c r="H52" s="80"/>
+    <row r="52" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H52" s="38"/>
       <c r="I52" s="26"/>
       <c r="J52" s="26"/>
       <c r="K52" s="26"/>
       <c r="L52" s="26"/>
       <c r="M52" s="26"/>
     </row>
-    <row r="53" spans="2:13" ht="15.95" customHeight="1">
+    <row r="53" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="26"/>
       <c r="C53" s="26"/>
       <c r="D53" s="26"/>
@@ -8600,7 +8613,7 @@
       <c r="L53" s="26"/>
       <c r="M53" s="26"/>
     </row>
-    <row r="54" spans="2:13" ht="15.95" customHeight="1">
+    <row r="54" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="26"/>
       <c r="C54" s="26"/>
       <c r="D54" s="26"/>
@@ -8614,7 +8627,7 @@
       <c r="L54" s="26"/>
       <c r="M54" s="26"/>
     </row>
-    <row r="55" spans="2:13" ht="15.95" customHeight="1">
+    <row r="55" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="26"/>
       <c r="C55" s="26"/>
       <c r="D55" s="26"/>
@@ -8628,7 +8641,7 @@
       <c r="L55" s="26"/>
       <c r="M55" s="26"/>
     </row>
-    <row r="56" spans="2:13" ht="15.95" customHeight="1">
+    <row r="56" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="26"/>
       <c r="C56" s="26"/>
       <c r="D56" s="26"/>
@@ -8642,7 +8655,7 @@
       <c r="L56" s="26"/>
       <c r="M56" s="26"/>
     </row>
-    <row r="57" spans="2:13" ht="15.95" customHeight="1">
+    <row r="57" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="26"/>
       <c r="C57" s="26"/>
       <c r="D57" s="26"/>
@@ -8656,7 +8669,7 @@
       <c r="L57" s="26"/>
       <c r="M57" s="26"/>
     </row>
-    <row r="58" spans="2:13" ht="15.95" customHeight="1">
+    <row r="58" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="26"/>
       <c r="C58" s="26"/>
       <c r="D58" s="26"/>
@@ -8670,7 +8683,7 @@
       <c r="L58" s="26"/>
       <c r="M58" s="26"/>
     </row>
-    <row r="59" spans="2:13" ht="15.95" customHeight="1">
+    <row r="59" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="26"/>
       <c r="C59" s="26"/>
       <c r="D59" s="26"/>
@@ -8684,7 +8697,7 @@
       <c r="L59" s="26"/>
       <c r="M59" s="26"/>
     </row>
-    <row r="60" spans="2:13" ht="15.95" customHeight="1">
+    <row r="60" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="26"/>
       <c r="C60" s="26"/>
       <c r="D60" s="26"/>
@@ -8697,7 +8710,7 @@
       <c r="K60" s="26"/>
       <c r="L60" s="26"/>
     </row>
-    <row r="61" spans="2:13" ht="15.95" customHeight="1">
+    <row r="61" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="26"/>
       <c r="C61" s="26"/>
       <c r="D61" s="26"/>
@@ -8710,7 +8723,7 @@
       <c r="K61" s="26"/>
       <c r="L61" s="26"/>
     </row>
-    <row r="62" spans="2:13" ht="15.95" customHeight="1">
+    <row r="62" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="26"/>
       <c r="C62" s="26"/>
       <c r="D62" s="26"/>
@@ -8723,7 +8736,7 @@
       <c r="K62" s="26"/>
       <c r="L62" s="26"/>
     </row>
-    <row r="63" spans="2:13" ht="15.95" customHeight="1">
+    <row r="63" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="26"/>
       <c r="C63" s="26"/>
       <c r="D63" s="26"/>
@@ -8736,7 +8749,7 @@
       <c r="K63" s="26"/>
       <c r="L63" s="26"/>
     </row>
-    <row r="64" spans="2:13" ht="15.95" customHeight="1">
+    <row r="64" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="26"/>
       <c r="C64" s="26"/>
       <c r="D64" s="26"/>
@@ -8749,7 +8762,7 @@
       <c r="K64" s="26"/>
       <c r="L64" s="26"/>
     </row>
-    <row r="65" spans="2:12" ht="15.95" customHeight="1">
+    <row r="65" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="26"/>
       <c r="C65" s="26"/>
       <c r="D65" s="26"/>
@@ -8762,7 +8775,7 @@
       <c r="K65" s="26"/>
       <c r="L65" s="26"/>
     </row>
-    <row r="66" spans="2:12" ht="15.95" customHeight="1">
+    <row r="66" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="26"/>
       <c r="C66" s="26"/>
       <c r="D66" s="26"/>
@@ -8775,7 +8788,7 @@
       <c r="K66" s="26"/>
       <c r="L66" s="26"/>
     </row>
-    <row r="67" spans="2:12" ht="15.95" customHeight="1">
+    <row r="67" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="26"/>
       <c r="C67" s="26"/>
       <c r="D67" s="26"/>
@@ -8788,7 +8801,7 @@
       <c r="K67" s="26"/>
       <c r="L67" s="26"/>
     </row>
-    <row r="68" spans="2:12" ht="15.95" customHeight="1">
+    <row r="68" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="26"/>
       <c r="C68" s="26"/>
       <c r="D68" s="26"/>
@@ -8801,7 +8814,7 @@
       <c r="K68" s="26"/>
       <c r="L68" s="26"/>
     </row>
-    <row r="69" spans="2:12" ht="15.95" customHeight="1">
+    <row r="69" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="26"/>
       <c r="C69" s="26"/>
       <c r="D69" s="26"/>
@@ -8814,7 +8827,7 @@
       <c r="K69" s="26"/>
       <c r="L69" s="26"/>
     </row>
-    <row r="70" spans="2:12" ht="15.95" customHeight="1">
+    <row r="70" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="26"/>
       <c r="C70" s="26"/>
       <c r="D70" s="26"/>
@@ -8827,7 +8840,7 @@
       <c r="K70" s="26"/>
       <c r="L70" s="26"/>
     </row>
-    <row r="71" spans="2:12" ht="15.95" customHeight="1">
+    <row r="71" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="26"/>
       <c r="C71" s="26"/>
       <c r="D71" s="26"/>
@@ -8840,7 +8853,7 @@
       <c r="K71" s="26"/>
       <c r="L71" s="26"/>
     </row>
-    <row r="72" spans="2:12" ht="15.95" customHeight="1">
+    <row r="72" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="26"/>
       <c r="C72" s="26"/>
       <c r="D72" s="26"/>
@@ -8853,7 +8866,7 @@
       <c r="K72" s="26"/>
       <c r="L72" s="26"/>
     </row>
-    <row r="73" spans="2:12" ht="15.95" customHeight="1">
+    <row r="73" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="26"/>
       <c r="C73" s="26"/>
       <c r="D73" s="26"/>
@@ -8866,7 +8879,7 @@
       <c r="K73" s="26"/>
       <c r="L73" s="26"/>
     </row>
-    <row r="74" spans="2:12" ht="15.95" customHeight="1">
+    <row r="74" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="26"/>
       <c r="C74" s="26"/>
       <c r="D74" s="26"/>
@@ -8879,7 +8892,7 @@
       <c r="K74" s="26"/>
       <c r="L74" s="26"/>
     </row>
-    <row r="75" spans="2:12" ht="15.95" customHeight="1">
+    <row r="75" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="26"/>
       <c r="C75" s="26"/>
       <c r="D75" s="26"/>
@@ -8892,7 +8905,7 @@
       <c r="K75" s="26"/>
       <c r="L75" s="26"/>
     </row>
-    <row r="76" spans="2:12" ht="15.95" customHeight="1">
+    <row r="76" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="26"/>
       <c r="C76" s="26"/>
       <c r="D76" s="26"/>
@@ -8905,7 +8918,7 @@
       <c r="K76" s="26"/>
       <c r="L76" s="26"/>
     </row>
-    <row r="77" spans="2:12" ht="15.95" customHeight="1">
+    <row r="77" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="26"/>
       <c r="C77" s="26"/>
       <c r="D77" s="26"/>
@@ -8918,7 +8931,7 @@
       <c r="K77" s="26"/>
       <c r="L77" s="26"/>
     </row>
-    <row r="78" spans="2:12" ht="15.95" customHeight="1">
+    <row r="78" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="26"/>
       <c r="C78" s="26"/>
       <c r="D78" s="26"/>
@@ -8931,7 +8944,7 @@
       <c r="K78" s="26"/>
       <c r="L78" s="26"/>
     </row>
-    <row r="79" spans="2:12" ht="15.95" customHeight="1">
+    <row r="79" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="26"/>
       <c r="C79" s="26"/>
       <c r="D79" s="26"/>
@@ -8944,7 +8957,7 @@
       <c r="K79" s="26"/>
       <c r="L79" s="26"/>
     </row>
-    <row r="80" spans="2:12" ht="15.95" customHeight="1">
+    <row r="80" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="26"/>
       <c r="C80" s="26"/>
       <c r="D80" s="26"/>
@@ -8957,7 +8970,7 @@
       <c r="K80" s="26"/>
       <c r="L80" s="26"/>
     </row>
-    <row r="81" spans="2:12" ht="15.95" customHeight="1">
+    <row r="81" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="26"/>
       <c r="C81" s="26"/>
       <c r="D81" s="26"/>
@@ -8970,7 +8983,7 @@
       <c r="K81" s="26"/>
       <c r="L81" s="26"/>
     </row>
-    <row r="82" spans="2:12" ht="15.95" customHeight="1">
+    <row r="82" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="26"/>
       <c r="C82" s="26"/>
       <c r="D82" s="26"/>
@@ -8983,7 +8996,7 @@
       <c r="K82" s="26"/>
       <c r="L82" s="26"/>
     </row>
-    <row r="83" spans="2:12" ht="15.95" customHeight="1">
+    <row r="83" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="26"/>
       <c r="C83" s="26"/>
       <c r="D83" s="26"/>
@@ -8996,7 +9009,7 @@
       <c r="K83" s="26"/>
       <c r="L83" s="26"/>
     </row>
-    <row r="84" spans="2:12" ht="15.95" customHeight="1">
+    <row r="84" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="26"/>
       <c r="C84" s="26"/>
       <c r="D84" s="26"/>
@@ -9009,7 +9022,7 @@
       <c r="K84" s="26"/>
       <c r="L84" s="26"/>
     </row>
-    <row r="85" spans="2:12" ht="15.95" customHeight="1">
+    <row r="85" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="26"/>
       <c r="C85" s="26"/>
       <c r="D85" s="26"/>
@@ -9022,7 +9035,7 @@
       <c r="K85" s="26"/>
       <c r="L85" s="26"/>
     </row>
-    <row r="86" spans="2:12" ht="15.95" customHeight="1">
+    <row r="86" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="26"/>
       <c r="C86" s="26"/>
       <c r="D86" s="26"/>
@@ -9035,7 +9048,7 @@
       <c r="K86" s="26"/>
       <c r="L86" s="26"/>
     </row>
-    <row r="87" spans="2:12" ht="15.95" customHeight="1">
+    <row r="87" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="26"/>
       <c r="C87" s="26"/>
       <c r="D87" s="26"/>
@@ -9048,7 +9061,7 @@
       <c r="K87" s="26"/>
       <c r="L87" s="26"/>
     </row>
-    <row r="88" spans="2:12" ht="15.95" customHeight="1">
+    <row r="88" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="26"/>
       <c r="C88" s="26"/>
       <c r="D88" s="26"/>
@@ -9061,7 +9074,7 @@
       <c r="K88" s="26"/>
       <c r="L88" s="26"/>
     </row>
-    <row r="89" spans="2:12" ht="15.95" customHeight="1">
+    <row r="89" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="26"/>
       <c r="C89" s="26"/>
       <c r="D89" s="26"/>
@@ -9074,7 +9087,7 @@
       <c r="K89" s="26"/>
       <c r="L89" s="26"/>
     </row>
-    <row r="90" spans="2:12" ht="15.95" customHeight="1">
+    <row r="90" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="26"/>
       <c r="C90" s="26"/>
       <c r="D90" s="26"/>
@@ -9087,7 +9100,7 @@
       <c r="K90" s="26"/>
       <c r="L90" s="26"/>
     </row>
-    <row r="91" spans="2:12" ht="15.95" customHeight="1">
+    <row r="91" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="26"/>
       <c r="C91" s="26"/>
       <c r="D91" s="26"/>
@@ -9100,7 +9113,7 @@
       <c r="K91" s="26"/>
       <c r="L91" s="26"/>
     </row>
-    <row r="92" spans="2:12" ht="15.95" customHeight="1">
+    <row r="92" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="26"/>
       <c r="C92" s="26"/>
       <c r="D92" s="26"/>
@@ -9113,7 +9126,7 @@
       <c r="K92" s="26"/>
       <c r="L92" s="26"/>
     </row>
-    <row r="93" spans="2:12" ht="15.95" customHeight="1">
+    <row r="93" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="26"/>
       <c r="C93" s="26"/>
       <c r="D93" s="26"/>
@@ -9126,7 +9139,7 @@
       <c r="K93" s="26"/>
       <c r="L93" s="26"/>
     </row>
-    <row r="94" spans="2:12" ht="15.95" customHeight="1">
+    <row r="94" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="26"/>
       <c r="C94" s="26"/>
       <c r="D94" s="26"/>
@@ -9139,7 +9152,7 @@
       <c r="K94" s="26"/>
       <c r="L94" s="26"/>
     </row>
-    <row r="95" spans="2:12" ht="15.95" customHeight="1">
+    <row r="95" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="26"/>
       <c r="C95" s="26"/>
       <c r="D95" s="26"/>
@@ -9152,7 +9165,7 @@
       <c r="K95" s="26"/>
       <c r="L95" s="26"/>
     </row>
-    <row r="96" spans="2:12" ht="15.95" customHeight="1">
+    <row r="96" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="26"/>
       <c r="C96" s="26"/>
       <c r="D96" s="26"/>
@@ -9165,7 +9178,7 @@
       <c r="K96" s="26"/>
       <c r="L96" s="26"/>
     </row>
-    <row r="97" spans="2:12" ht="15.95" customHeight="1">
+    <row r="97" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="26"/>
       <c r="C97" s="26"/>
       <c r="D97" s="26"/>
@@ -9178,7 +9191,7 @@
       <c r="K97" s="26"/>
       <c r="L97" s="26"/>
     </row>
-    <row r="98" spans="2:12" ht="15.95" customHeight="1">
+    <row r="98" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="26"/>
       <c r="C98" s="26"/>
       <c r="D98" s="26"/>
@@ -9193,12 +9206,26 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="C40:D42"/>
-    <mergeCell ref="E40:H42"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:D45"/>
-    <mergeCell ref="E43:H45"/>
+    <mergeCell ref="C25:J30"/>
+    <mergeCell ref="K25:O30"/>
+    <mergeCell ref="P25:Q30"/>
+    <mergeCell ref="P14:Q16"/>
+    <mergeCell ref="P17:Q19"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="P20:Q24"/>
+    <mergeCell ref="K20:O20"/>
+    <mergeCell ref="K22:O22"/>
+    <mergeCell ref="K24:O24"/>
+    <mergeCell ref="B3:O10"/>
+    <mergeCell ref="C14:J16"/>
+    <mergeCell ref="C17:J19"/>
+    <mergeCell ref="K17:O19"/>
+    <mergeCell ref="K14:O16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B13:D13"/>
     <mergeCell ref="C32:J34"/>
     <mergeCell ref="K32:O34"/>
     <mergeCell ref="P32:Q34"/>
@@ -9215,26 +9242,12 @@
     <mergeCell ref="C31:J31"/>
     <mergeCell ref="K31:O31"/>
     <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="B3:O10"/>
-    <mergeCell ref="C14:J16"/>
-    <mergeCell ref="C17:J19"/>
-    <mergeCell ref="K17:O19"/>
-    <mergeCell ref="K14:O16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="C25:J30"/>
-    <mergeCell ref="K25:O30"/>
-    <mergeCell ref="P25:Q30"/>
-    <mergeCell ref="P14:Q16"/>
-    <mergeCell ref="P17:Q19"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="P20:Q24"/>
-    <mergeCell ref="K20:O20"/>
-    <mergeCell ref="K22:O22"/>
-    <mergeCell ref="K24:O24"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="C40:D42"/>
+    <mergeCell ref="E40:H42"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:D45"/>
+    <mergeCell ref="E43:H45"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/日语.xlsx
+++ b/日语.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Self\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cshen/Documents/GitHub/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="24885" windowHeight="15555" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="24880" windowHeight="15560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="动词形态" sheetId="1" r:id="rId1"/>
@@ -100,10 +100,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>词尾的「う」段假名变为同行「あ」段假名之后接「ない」</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>词尾是「う」的动词将词尾变成「わ」而不是「あ」；
 「ある」没有ない形，对应的否定表达就是「ない」</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2239,54 +2235,6 @@
   </si>
   <si>
     <r>
-      <t>「ない形」的「ない」变为「られる」等同于</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="DengXian (正文)"/>
-        <charset val="134"/>
-      </rPr>
-      <t>词尾「る」去掉后接「られる」</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian (正文)"/>
-        <charset val="134"/>
-      </rPr>
-      <t>食べる-&gt;食べない-&gt;食べられる,　見る-&gt;見ない-&gt;見られる</t>
-    </r>
-    <rPh sb="17" eb="18">
-      <t>deng tong yu</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>たb</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>たb</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>みらr</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FF0070C0"/>
@@ -2330,92 +2278,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">「ない形」的「ない」变为「れる」
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian (正文)"/>
-        <charset val="134"/>
-      </rPr>
-      <t>書く-&gt;書かない-&gt;書かれる,　話す-&gt;話さない-&gt;話される,　買う-&gt;買わない-&gt;買われる</t>
-    </r>
-    <rPh sb="3" eb="4">
-      <t>xing</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>de</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>bian wei</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>かかな</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>かかr</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>はなさn</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>はなさr</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>かわな</t>
-    </rPh>
-    <rPh sb="59" eb="60">
-      <t>かw</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">「ない形」的「ない」变为「せる」
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian (正文)"/>
-        <charset val="134"/>
-      </rPr>
-      <t>書く-&gt;書かない-&gt;書かせる,　話す-&gt;話さない-&gt;話させる,　買う-&gt;買わない-&gt;買わせる</t>
-    </r>
-    <rPh sb="3" eb="4">
-      <t>xing</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>de</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>bian wei</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>かかな</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>かかr</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>はなさn</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>はなさr</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>かわな</t>
-    </rPh>
-    <rPh sb="59" eb="60">
-      <t>かw</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>「来る」变为</t>
     </r>
     <r>
@@ -2446,39 +2308,6 @@
     <rPh sb="0" eb="1">
       <t>shi yi</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian (正文)"/>
-        <charset val="134"/>
-      </rPr>
-      <t>「ない形」的「ない」变为「させる」等同于词尾「る」去掉后接「させる」</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian (正文)"/>
-        <charset val="134"/>
-      </rPr>
-      <t>食べる-&gt;食べさせる,　見る-&gt;見させる</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2512,73 +2341,6 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>bei dong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">「ない形」的「ない」变为「される」
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian (正文)"/>
-        <charset val="134"/>
-      </rPr>
-      <t>書く-&gt;書かない-&gt;書かされる</t>
-    </r>
-    <rPh sb="3" eb="4">
-      <t>xing</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>de</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>bian wei</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>かかな</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>かかr</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian (正文)"/>
-        <charset val="134"/>
-      </rPr>
-      <t>等同于词尾「る」去掉后接「させられる」</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian (正文)"/>
-        <charset val="134"/>
-      </rPr>
-      <t>食べる-&gt;食べさせられる</t>
-    </r>
-    <rPh sb="0" eb="1">
-      <t>deng tong yu</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3337,6 +3099,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>(</t>
@@ -3358,6 +3121,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>)+</t>
@@ -3379,6 +3143,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>(</t>
@@ -3400,6 +3165,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>)</t>
@@ -3434,6 +3200,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">2. </t>
@@ -3456,6 +3223,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">3. </t>
@@ -3514,6 +3282,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>“</t>
@@ -3535,6 +3304,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>”</t>
@@ -3650,6 +3420,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">2. </t>
@@ -3672,6 +3443,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">3. </t>
@@ -3704,7 +3476,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="DengXian"/>
-        <family val="3"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3730,6 +3502,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>2</t>
@@ -3771,7 +3544,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="DengXian"/>
-        <family val="3"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3785,7 +3558,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="DengXian"/>
-        <family val="3"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3814,6 +3587,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>B</t>
@@ -3855,6 +3629,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>〜</t>
@@ -3876,6 +3651,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>〜</t>
@@ -3946,6 +3722,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>10</t>
@@ -4010,6 +3787,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>9</t>
@@ -4031,6 +3809,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -4205,6 +3984,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>ABAB</t>
@@ -4381,6 +4161,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>〜</t>
@@ -4402,6 +4183,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>/</t>
@@ -4424,6 +4206,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>〜</t>
@@ -4445,6 +4228,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>〜</t>
@@ -4466,6 +4250,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>/</t>
@@ -4488,6 +4273,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">  </t>
@@ -4595,6 +4381,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>B</t>
@@ -4616,6 +4403,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>C</t>
@@ -4637,6 +4425,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>A</t>
@@ -4658,6 +4447,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>B</t>
@@ -4679,6 +4469,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>C</t>
@@ -4700,6 +4491,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>A</t>
@@ -4721,6 +4513,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>B</t>
@@ -4743,6 +4536,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>A</t>
@@ -4764,6 +4558,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>B</t>
@@ -4785,6 +4580,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>C</t>
@@ -4806,6 +4602,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>A</t>
@@ -4827,6 +4624,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>B</t>
@@ -4848,6 +4646,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>C</t>
@@ -4869,6 +4668,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>A</t>
@@ -4890,6 +4690,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>B</t>
@@ -4912,6 +4713,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>A</t>
@@ -4933,6 +4735,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>B</t>
@@ -4954,6 +4757,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>C</t>
@@ -4975,6 +4779,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>A</t>
@@ -4996,6 +4801,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>B</t>
@@ -5017,6 +4823,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>C</t>
@@ -5038,6 +4845,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>A</t>
@@ -5059,6 +4867,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>B</t>
@@ -5171,6 +4980,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>/</t>
@@ -5246,6 +5056,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>〜</t>
@@ -5267,6 +5078,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>〜</t>
@@ -5288,6 +5100,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>/</t>
@@ -5420,6 +5233,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>〜</t>
@@ -5443,6 +5257,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>〜</t>
@@ -5465,6 +5280,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>+</t>
@@ -5487,6 +5303,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>(</t>
@@ -5508,6 +5325,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>)</t>
@@ -5529,6 +5347,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>+</t>
@@ -5656,6 +5475,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>B</t>
@@ -5677,6 +5497,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>/</t>
@@ -5698,6 +5519,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>/</t>
@@ -5719,6 +5541,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>A</t>
@@ -5740,6 +5563,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>B</t>
@@ -5762,6 +5586,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Q</t>
@@ -5783,6 +5608,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>A</t>
@@ -5804,6 +5630,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>B</t>
@@ -5825,6 +5652,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>/</t>
@@ -5846,6 +5674,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>/</t>
@@ -5867,6 +5696,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Q</t>
@@ -5888,6 +5718,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>A</t>
@@ -5909,6 +5740,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>B</t>
@@ -5976,6 +5808,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>+</t>
@@ -5998,6 +5831,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>+</t>
@@ -6020,6 +5854,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>+</t>
@@ -6042,6 +5877,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>(</t>
@@ -6063,6 +5899,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">)
@@ -6085,6 +5922,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>adj</t>
@@ -6174,6 +6012,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>ABC</t>
@@ -6246,6 +6085,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">     </t>
@@ -6268,6 +6108,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">     </t>
@@ -6290,6 +6131,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">     </t>
@@ -6312,6 +6154,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">     </t>
@@ -6334,6 +6177,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">     </t>
@@ -6356,6 +6200,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">     </t>
@@ -6378,6 +6223,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">     </t>
@@ -6400,6 +6246,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">     </t>
@@ -6422,6 +6269,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">     </t>
@@ -6444,6 +6292,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">     </t>
@@ -6557,6 +6406,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>(A)</t>
@@ -6578,6 +6428,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>(B)</t>
@@ -6599,6 +6450,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>(</t>
@@ -6620,6 +6472,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>)</t>
@@ -6641,6 +6494,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>(B)</t>
@@ -6678,6 +6532,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>9</t>
@@ -6699,6 +6554,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>4</t>
@@ -6720,6 +6576,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>+4</t>
@@ -6741,6 +6598,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>+</t>
@@ -6799,6 +6657,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>=&gt;[</t>
@@ -6820,6 +6679,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>]</t>
@@ -6929,6 +6789,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>[</t>
@@ -6950,6 +6811,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>]</t>
@@ -7048,7 +6910,6 @@
         <color rgb="FFFF0000"/>
         <rFont val="DengXian"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>一、</t>
@@ -7069,7 +6930,6 @@
         <color rgb="FFFF0000"/>
         <rFont val="DengXian"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>は</t>
@@ -7090,7 +6950,6 @@
         <color rgb="FFFF0000"/>
         <rFont val="DengXian"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>です。（名词判断句／名词句）</t>
@@ -7119,7 +6978,6 @@
         <color rgb="FFFF0000"/>
         <rFont val="DengXian"/>
         <family val="2"/>
-        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>二、动词句</t>
@@ -7138,8 +6996,7 @@
         <sz val="16"/>
         <color rgb="FFFF0000"/>
         <rFont val="DengXian"/>
-        <family val="3"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>三、</t>
@@ -7159,8 +7016,7 @@
         <sz val="16"/>
         <color rgb="FFFF0000"/>
         <rFont val="DengXian"/>
-        <family val="3"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>は</t>
@@ -7180,8 +7036,7 @@
         <sz val="16"/>
         <color rgb="FFFF0000"/>
         <rFont val="DengXian"/>
-        <family val="3"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>／</t>
@@ -7201,8 +7056,7 @@
         <sz val="16"/>
         <color rgb="FFFF0000"/>
         <rFont val="DengXian"/>
-        <family val="3"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>作谓语。（描写句）</t>
@@ -7237,7 +7091,8 @@
       <rPr>
         <sz val="12"/>
         <rFont val="DengXian"/>
-        <family val="2"/>
+        <family val="3"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -7263,12 +7118,25 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="DengXian"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>の</t>
-    </r>
+      <t>」名词</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -7277,6 +7145,129 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>名词「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>」他动词</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>名词「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>が</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>」自动词</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>形容词「い→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>く</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>」动词</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>形容动词「だ→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>な</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="DengXian"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>」名词</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7290,177 +7281,41 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>名词「</t>
+      <t>形容动词「だ→</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="DengXian"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>を</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="DengXian"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>」他动词</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="DengXian"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>名词「</t>
+      <t>」动词</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>PS</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="DengXian"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>が</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="DengXian"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>」自动词</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="DengXian"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>形容词「い→</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>く</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="DengXian"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>」动词</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="DengXian"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>形容动词「だ→</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>な</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="DengXian"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>」名词</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="DengXian"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>形容动词「だ→</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>に</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="DengXian"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>」动词</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>PS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian"/>
-        <family val="3"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7485,7 +7340,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="DengXian"/>
-        <family val="3"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7497,6 +7352,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>4</t>
@@ -7506,7 +7362,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="DengXian"/>
-        <family val="3"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7518,6 +7374,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>+4</t>
@@ -7527,7 +7384,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="DengXian"/>
-        <family val="3"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7539,6 +7396,7 @@
         <color theme="1"/>
         <rFont val="DengXian"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>+</t>
@@ -7548,7 +7406,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="DengXian"/>
-        <family val="3"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7599,7 +7457,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="DengXian"/>
-        <family val="3"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7610,7 +7468,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="DengXian"/>
-        <family val="3"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7621,7 +7479,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="DengXian"/>
-        <family val="3"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7681,14 +7539,216 @@
   </si>
   <si>
     <t>https://language.koolearn.com/20150413/824402.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>词尾「る」去掉后接「させる」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>食べる-&gt;食べさせる,　見る-&gt;見させる</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>词尾「る」去掉后接「られる」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>食べる-&gt;食べない-&gt;食べられる,　見る-&gt;見ない-&gt;見られる</t>
+    </r>
+    <rPh sb="20" eb="21">
+      <t>たb</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>たb</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>みらr</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>词尾「る」去掉后接「させられる」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>食べる-&gt;食べさせられる</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>词尾的「う」段假名变为同行「あ」段假名之后接「ない」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">词尾的「う」段假名变为同行「あ」段假名之后接「れる」
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>書く-&gt;書かない-&gt;書かれる,　話す-&gt;話さない-&gt;話される,　買う-&gt;買わない-&gt;買われる</t>
+    </r>
+    <rPh sb="31" eb="32">
+      <t>かかな</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>かかr</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>はなさn</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>はなさr</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>かわな</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>かw</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">词尾的「う」段假名变为同行「あ」段假名之后接「せる」
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>書く-&gt;書かない-&gt;書かせる,　話す-&gt;話さない-&gt;話させる,　買う-&gt;買わない-&gt;買わせる</t>
+    </r>
+    <rPh sb="31" eb="32">
+      <t>かかな</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>かかr</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>はなさn</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>はなさr</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>かわな</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>かw</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">词尾的「う」段假名变为同行「あ」段假名之后接「される」
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>書く-&gt;書かない-&gt;書かされる</t>
+    </r>
+    <rPh sb="32" eb="33">
+      <t>かかな</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>かかr</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="33">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7851,14 +7911,6 @@
       <color theme="1"/>
       <name val="DengXian"/>
       <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7876,26 +7928,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8085,7 +8121,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -8153,6 +8189,60 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8165,35 +8255,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8204,44 +8273,110 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8250,120 +8385,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -8643,45 +8679,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" style="3"/>
-    <col min="2" max="2" width="46.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="32.77734375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="3"/>
+    <col min="2" max="2" width="46.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="48.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="41" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.77734375" style="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.25">
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>74</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="120.95" customHeight="1">
+    </row>
+    <row r="2" spans="1:6" ht="121" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>2</v>
@@ -8694,12 +8730,12 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="59.1" customHeight="1">
+    <row r="3" spans="1:6" ht="59" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>8</v>
@@ -8710,15 +8746,15 @@
       <c r="E3" s="5"/>
       <c r="F3" s="12"/>
     </row>
-    <row r="4" spans="1:6" ht="89.1" customHeight="1">
+    <row r="4" spans="1:6" ht="89" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>10</v>
@@ -8727,15 +8763,15 @@
         <v>11</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="63.95" customHeight="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>12</v>
@@ -8747,156 +8783,156 @@
         <v>12</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="69.95" customHeight="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="F6" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="87.95" customHeight="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="88" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>104</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>105</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="18" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="83.1" customHeight="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="83" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C8" s="5" t="s">
+    </row>
+    <row r="9" spans="1:6" ht="83" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D8" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="83.1" customHeight="1">
-      <c r="A9" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>122</v>
-      </c>
       <c r="F9" s="20"/>
     </row>
-    <row r="10" spans="1:6" ht="68.099999999999994" customHeight="1">
+    <row r="10" spans="1:6" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" s="12"/>
+    </row>
+    <row r="11" spans="1:6" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F10" s="12"/>
-    </row>
-    <row r="11" spans="1:6" ht="68.099999999999994" customHeight="1">
-      <c r="A11" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>94</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F12" s="12" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="68.099999999999994" customHeight="1">
-      <c r="A12" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="68.099999999999994" customHeight="1">
+    <row r="13" spans="1:6" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F13" s="12"/>
     </row>
@@ -8910,49 +8946,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" ht="18">
+    <row r="3" spans="2:8" ht="18" x14ac:dyDescent="0.2">
       <c r="B3" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="B4" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="24" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="18">
-      <c r="B4" s="26" t="s">
+      <c r="C4" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="26" t="s">
+    </row>
+    <row r="5" spans="2:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="B5" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="26" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="18">
-      <c r="B5" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="18">
+    <row r="6" spans="2:8" ht="18" x14ac:dyDescent="0.2">
       <c r="B6" s="28" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C6" s="28"/>
     </row>
-    <row r="9" spans="2:8" ht="18">
+    <row r="9" spans="2:8" ht="19" x14ac:dyDescent="0.25">
       <c r="B9" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -8960,9 +8996,9 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="2:8" ht="18.75">
-      <c r="B10" s="56" t="s">
-        <v>72</v>
+    <row r="10" spans="2:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="B10" s="31" t="s">
+        <v>71</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -8970,107 +9006,112 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="2:8" ht="18">
+    <row r="11" spans="2:8" ht="18" x14ac:dyDescent="0.2">
       <c r="B11" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="32"/>
+        <v>143</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="54"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="2:8" ht="18">
+    <row r="12" spans="2:8" ht="18" x14ac:dyDescent="0.2">
       <c r="B12" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" s="30"/>
+        <v>144</v>
+      </c>
+      <c r="C12" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="52"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="15" spans="2:8" ht="18">
+    <row r="15" spans="2:8" ht="18" x14ac:dyDescent="0.2">
       <c r="B15" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+    </row>
+    <row r="16" spans="2:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="B16" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+    </row>
+    <row r="17" spans="2:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="B17" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C17" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+    </row>
+    <row r="18" spans="2:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="B18" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33" t="s">
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+    </row>
+    <row r="19" spans="2:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="B19" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-    </row>
-    <row r="16" spans="2:8" ht="18">
-      <c r="B16" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="34" t="s">
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="35" t="s">
-        <v>161</v>
-      </c>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-    </row>
-    <row r="17" spans="2:8" ht="18">
-      <c r="B17" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-    </row>
-    <row r="18" spans="2:8" ht="18">
-      <c r="B18" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-    </row>
-    <row r="19" spans="2:8" ht="18">
-      <c r="B19" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="F16:H16"/>
@@ -9078,11 +9119,6 @@
     <mergeCell ref="F18:H18"/>
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9097,15 +9133,15 @@
       <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="1:10" ht="27.75">
-      <c r="B3" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="39"/>
-    </row>
-    <row r="4" spans="1:10" ht="18">
+    <row r="3" spans="1:10" ht="28" x14ac:dyDescent="0.3">
+      <c r="B3" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="66"/>
+    </row>
+    <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -9117,75 +9153,75 @@
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="1:10" ht="18">
+    <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:10" ht="18">
+    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="41" t="s">
+      <c r="B6" s="68"/>
+      <c r="C6" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:10" ht="18">
+    <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
       <c r="B7" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="1:10" ht="18">
+    <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
       <c r="B8" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:10" ht="18">
+    <row r="9" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
       <c r="B9" s="10"/>
       <c r="C9" s="8"/>
@@ -9197,7 +9233,7 @@
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:10" ht="18">
+    <row r="10" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
       <c r="B10" s="10"/>
       <c r="C10" s="8"/>
@@ -9209,87 +9245,87 @@
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:10" ht="18">
+    <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
-      <c r="B11" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-    </row>
-    <row r="12" spans="1:10" ht="18">
+      <c r="B11" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+    </row>
+    <row r="12" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="41" t="s">
+      <c r="B12" s="55"/>
+      <c r="C12" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="45"/>
-    </row>
-    <row r="13" spans="1:10" ht="18">
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="60"/>
+    </row>
+    <row r="13" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+    </row>
+    <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" s="8"/>
+      <c r="B14" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36" t="s">
+      <c r="C14" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-    </row>
-    <row r="14" spans="1:10" ht="18">
-      <c r="A14" s="8"/>
-      <c r="B14" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="47" t="s">
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-    </row>
-    <row r="15" spans="1:10" ht="18">
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+    </row>
+    <row r="15" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-    </row>
-    <row r="16" spans="1:10" ht="18">
+      <c r="B15" s="63"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+    </row>
+    <row r="16" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -9301,25 +9337,25 @@
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" ht="18">
+    <row r="17" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="1:10" ht="18">
+    <row r="18" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -9331,23 +9367,23 @@
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="1:10" ht="18">
+    <row r="19" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
       <c r="B19" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="C19" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
+      <c r="C19" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="1:10" ht="18">
+    <row r="20" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -9359,130 +9395,130 @@
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="1:10" ht="18">
+    <row r="21" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B21" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="18">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B22" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="18">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B23" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="18">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B24" s="8"/>
       <c r="C24" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
     </row>
-    <row r="25" spans="1:10" ht="18">
+    <row r="25" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B25" s="8"/>
       <c r="C25" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
     </row>
-    <row r="26" spans="1:10" ht="18.75">
+    <row r="26" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B26" s="17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="27.75">
-      <c r="B29" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="39"/>
-    </row>
-    <row r="30" spans="1:10" ht="18.75">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="28" x14ac:dyDescent="0.3">
+      <c r="B29" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="66"/>
+    </row>
+    <row r="30" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B30" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="B32" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" s="40" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
+      <c r="C32" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
     </row>
-    <row r="33" spans="2:13" ht="21" customHeight="1">
-      <c r="B33" s="38"/>
-      <c r="C33" s="41" t="s">
+    <row r="33" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="68"/>
+      <c r="C33" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
     </row>
-    <row r="34" spans="2:13" ht="20.100000000000001" customHeight="1">
+    <row r="34" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
+        <v>34</v>
+      </c>
+      <c r="C34" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="G34" s="61"/>
+      <c r="H34" s="61"/>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
     </row>
-    <row r="35" spans="2:13" ht="18.95" customHeight="1">
+    <row r="35" spans="2:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="61"/>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
     </row>
-    <row r="36" spans="2:13" ht="18">
+    <row r="36" spans="2:13" ht="18" x14ac:dyDescent="0.2">
       <c r="B36" s="10"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
@@ -9493,7 +9529,7 @@
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
     </row>
-    <row r="37" spans="2:13" ht="18">
+    <row r="37" spans="2:13" ht="18" x14ac:dyDescent="0.2">
       <c r="B37" s="10"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
@@ -9504,97 +9540,97 @@
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
     </row>
-    <row r="38" spans="2:13" ht="21" customHeight="1">
-      <c r="B38" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="C38" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="D38" s="40"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
-    </row>
-    <row r="39" spans="2:13" ht="20.100000000000001" customHeight="1">
-      <c r="B39" s="42"/>
-      <c r="C39" s="41" t="s">
+    <row r="38" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="56"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="56"/>
+      <c r="I38" s="56"/>
+      <c r="J38" s="56"/>
+    </row>
+    <row r="39" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="55"/>
+      <c r="C39" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="43" t="s">
+      <c r="H39" s="59"/>
+      <c r="I39" s="59"/>
+      <c r="J39" s="60"/>
+    </row>
+    <row r="40" spans="2:13" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="H39" s="44"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="45"/>
-    </row>
-    <row r="40" spans="2:13" ht="23.1" customHeight="1">
-      <c r="B40" s="9" t="s">
+      <c r="C40" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="62"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="62"/>
+      <c r="G40" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="H40" s="62"/>
+      <c r="I40" s="62"/>
+      <c r="J40" s="62"/>
+    </row>
+    <row r="41" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="D40" s="49"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49" t="s">
+      <c r="C41" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="H40" s="49"/>
-      <c r="I40" s="49"/>
-      <c r="J40" s="49"/>
-    </row>
-    <row r="41" spans="2:13" ht="21" customHeight="1">
-      <c r="B41" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="C41" s="50" t="s">
+      <c r="D41" s="62"/>
+      <c r="E41" s="62"/>
+      <c r="F41" s="62"/>
+      <c r="G41" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="D41" s="49"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="H41" s="49"/>
-      <c r="I41" s="49"/>
-      <c r="J41" s="49"/>
-    </row>
-    <row r="42" spans="2:13" ht="21" customHeight="1">
-      <c r="B42" s="46"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="49"/>
-      <c r="I42" s="49"/>
-      <c r="J42" s="49"/>
+      <c r="H41" s="62"/>
+      <c r="I41" s="62"/>
+      <c r="J41" s="62"/>
+    </row>
+    <row r="42" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="63"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="62"/>
+      <c r="H42" s="62"/>
+      <c r="I42" s="62"/>
+      <c r="J42" s="62"/>
       <c r="K42" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="B44" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="B45" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="2:13" ht="18">
-      <c r="B44" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13" ht="18">
-      <c r="B45" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" ht="18">
+    <row r="46" spans="2:13" ht="18" x14ac:dyDescent="0.2">
       <c r="B46" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
@@ -9608,48 +9644,50 @@
       <c r="L46" s="14"/>
       <c r="M46" s="14"/>
     </row>
-    <row r="47" spans="2:13" ht="18">
+    <row r="47" spans="2:13" ht="18" x14ac:dyDescent="0.2">
       <c r="B47" s="8"/>
       <c r="C47" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D47" s="8"/>
     </row>
-    <row r="48" spans="2:13" ht="18">
+    <row r="48" spans="2:13" ht="18" x14ac:dyDescent="0.2">
       <c r="B48" s="8"/>
       <c r="C48" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" s="8"/>
+    </row>
+    <row r="49" spans="2:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="B49" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="C50" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D48" s="8"/>
-    </row>
-    <row r="49" spans="2:3" ht="18">
-      <c r="B49" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" ht="18">
-      <c r="C50" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" ht="18">
+    </row>
+    <row r="51" spans="2:3" ht="18" x14ac:dyDescent="0.2">
       <c r="C51" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:F42"/>
-    <mergeCell ref="G41:J42"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="G13:J13"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:F15"/>
     <mergeCell ref="G14:J15"/>
@@ -9660,21 +9698,19 @@
     <mergeCell ref="F33:H33"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="C19:I19"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:F42"/>
+    <mergeCell ref="G41:J42"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="F35:H35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9689,737 +9725,750 @@
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="11.44140625" style="55"/>
+    <col min="1" max="16384" width="11.5" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15.95" customHeight="1">
-      <c r="B1" s="91" t="s">
-        <v>225</v>
-      </c>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="75"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.95" customHeight="1">
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="75"/>
-    </row>
-    <row r="3" spans="2:9">
-      <c r="B3" s="55" t="s">
+    <row r="1" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="82" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="36"/>
+    </row>
+    <row r="2" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="36"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3" s="30" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="30" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B6" s="82" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B8" s="30" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B9" s="30" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B10" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B11" s="30" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B12" s="30" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B13" s="30" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B14" s="30" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="2:9">
-      <c r="B4" s="55" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9">
-      <c r="B6" s="91" t="s">
-        <v>226</v>
-      </c>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-    </row>
-    <row r="7" spans="2:9">
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-    </row>
-    <row r="8" spans="2:9">
-      <c r="B8" s="55" t="s">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B15" s="30" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
-      <c r="B9" s="55" t="s">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B16" s="30" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="10" spans="2:9">
-      <c r="B10" s="55" t="s">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B17" s="30" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="2:9">
-      <c r="B11" s="55" t="s">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B18" s="30" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="12" spans="2:9">
-      <c r="B12" s="55" t="s">
+    <row r="20" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="30" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="13" spans="2:9">
-      <c r="B13" s="55" t="s">
+      <c r="J20" s="72" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="14" spans="2:9">
-      <c r="B14" s="55" t="s">
+      <c r="K20" s="72"/>
+      <c r="L20" s="72"/>
+      <c r="M20" s="72"/>
+      <c r="N20" s="72"/>
+      <c r="O20" s="72"/>
+      <c r="P20" s="72"/>
+      <c r="Q20" s="72"/>
+      <c r="R20" s="72"/>
+      <c r="S20" s="72"/>
+      <c r="T20" s="72"/>
+    </row>
+    <row r="21" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="79" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="15" spans="2:9">
-      <c r="B15" s="55" t="s">
+      <c r="C21" s="81" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="16" spans="2:9">
-      <c r="B16" s="55" t="s">
+      <c r="D21" s="81"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="78" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="17" spans="2:20">
-      <c r="B17" s="55" t="s">
+      <c r="K21" s="77" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="18" spans="2:20">
-      <c r="B18" s="55" t="s">
+      <c r="L21" s="77"/>
+      <c r="M21" s="77"/>
+      <c r="N21" s="77"/>
+      <c r="O21" s="77"/>
+      <c r="P21" s="77"/>
+      <c r="Q21" s="71"/>
+      <c r="R21" s="71"/>
+      <c r="S21" s="71"/>
+      <c r="T21" s="71"/>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B22" s="79"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="78"/>
+      <c r="K22" s="77"/>
+      <c r="L22" s="77"/>
+      <c r="M22" s="77"/>
+      <c r="N22" s="77"/>
+      <c r="O22" s="77"/>
+      <c r="P22" s="77"/>
+      <c r="Q22" s="71"/>
+      <c r="R22" s="71"/>
+      <c r="S22" s="71"/>
+      <c r="T22" s="71"/>
+    </row>
+    <row r="23" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="79"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="81"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="78"/>
+      <c r="K23" s="77"/>
+      <c r="L23" s="77"/>
+      <c r="M23" s="77"/>
+      <c r="N23" s="77"/>
+      <c r="O23" s="77"/>
+      <c r="P23" s="77"/>
+      <c r="Q23" s="71"/>
+      <c r="R23" s="71"/>
+      <c r="S23" s="71"/>
+      <c r="T23" s="71"/>
+    </row>
+    <row r="24" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="75" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="20" spans="2:20" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="55" t="s">
+      <c r="C24" s="81" t="s">
         <v>193</v>
       </c>
-      <c r="J20" s="76" t="s">
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="75" t="s">
         <v>194</v>
       </c>
-      <c r="K20" s="76"/>
-      <c r="L20" s="76"/>
-      <c r="M20" s="76"/>
-      <c r="N20" s="76"/>
-      <c r="O20" s="76"/>
-      <c r="P20" s="76"/>
-      <c r="Q20" s="76"/>
-      <c r="R20" s="76"/>
-      <c r="S20" s="76"/>
-      <c r="T20" s="76"/>
-    </row>
-    <row r="21" spans="2:20" ht="15.95" customHeight="1">
-      <c r="B21" s="77" t="s">
+      <c r="K24" s="77" t="s">
         <v>195</v>
       </c>
-      <c r="C21" s="71" t="s">
+      <c r="L24" s="77"/>
+      <c r="M24" s="77"/>
+      <c r="N24" s="77"/>
+      <c r="O24" s="77"/>
+      <c r="P24" s="77"/>
+      <c r="Q24" s="83" t="s">
         <v>196</v>
-      </c>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="79" t="s">
-        <v>197</v>
-      </c>
-      <c r="K21" s="80" t="s">
-        <v>198</v>
-      </c>
-      <c r="L21" s="80"/>
-      <c r="M21" s="80"/>
-      <c r="N21" s="80"/>
-      <c r="O21" s="80"/>
-      <c r="P21" s="80"/>
-      <c r="Q21" s="81"/>
-      <c r="R21" s="81"/>
-      <c r="S21" s="81"/>
-      <c r="T21" s="81"/>
-    </row>
-    <row r="22" spans="2:20">
-      <c r="B22" s="77"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="78"/>
-      <c r="J22" s="79"/>
-      <c r="K22" s="80"/>
-      <c r="L22" s="80"/>
-      <c r="M22" s="80"/>
-      <c r="N22" s="80"/>
-      <c r="O22" s="80"/>
-      <c r="P22" s="80"/>
-      <c r="Q22" s="81"/>
-      <c r="R22" s="81"/>
-      <c r="S22" s="81"/>
-      <c r="T22" s="81"/>
-    </row>
-    <row r="23" spans="2:20" ht="21" customHeight="1">
-      <c r="B23" s="77"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="71"/>
-      <c r="I23" s="78"/>
-      <c r="J23" s="79"/>
-      <c r="K23" s="80"/>
-      <c r="L23" s="80"/>
-      <c r="M23" s="80"/>
-      <c r="N23" s="80"/>
-      <c r="O23" s="80"/>
-      <c r="P23" s="80"/>
-      <c r="Q23" s="81"/>
-      <c r="R23" s="81"/>
-      <c r="S23" s="81"/>
-      <c r="T23" s="81"/>
-    </row>
-    <row r="24" spans="2:20" ht="15.95" customHeight="1">
-      <c r="B24" s="82" t="s">
-        <v>199</v>
-      </c>
-      <c r="C24" s="71" t="s">
-        <v>200</v>
-      </c>
-      <c r="D24" s="71"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="78"/>
-      <c r="J24" s="82" t="s">
-        <v>201</v>
-      </c>
-      <c r="K24" s="80" t="s">
-        <v>202</v>
-      </c>
-      <c r="L24" s="80"/>
-      <c r="M24" s="80"/>
-      <c r="N24" s="80"/>
-      <c r="O24" s="80"/>
-      <c r="P24" s="80"/>
-      <c r="Q24" s="83" t="s">
-        <v>203</v>
       </c>
       <c r="R24" s="83"/>
       <c r="S24" s="83"/>
       <c r="T24" s="83"/>
     </row>
-    <row r="25" spans="2:20">
-      <c r="B25" s="82"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="78"/>
-      <c r="J25" s="82"/>
-      <c r="K25" s="80"/>
-      <c r="L25" s="80"/>
-      <c r="M25" s="80"/>
-      <c r="N25" s="80"/>
-      <c r="O25" s="80"/>
-      <c r="P25" s="80"/>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B25" s="75"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="81"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="75"/>
+      <c r="K25" s="77"/>
+      <c r="L25" s="77"/>
+      <c r="M25" s="77"/>
+      <c r="N25" s="77"/>
+      <c r="O25" s="77"/>
+      <c r="P25" s="77"/>
       <c r="Q25" s="83"/>
       <c r="R25" s="83"/>
       <c r="S25" s="83"/>
       <c r="T25" s="83"/>
     </row>
-    <row r="26" spans="2:20" ht="21.95" customHeight="1">
-      <c r="B26" s="82"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="78"/>
-      <c r="J26" s="82"/>
-      <c r="K26" s="80"/>
-      <c r="L26" s="80"/>
-      <c r="M26" s="80"/>
-      <c r="N26" s="80"/>
-      <c r="O26" s="80"/>
-      <c r="P26" s="80"/>
+    <row r="26" spans="2:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="75"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="81"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="75"/>
+      <c r="K26" s="77"/>
+      <c r="L26" s="77"/>
+      <c r="M26" s="77"/>
+      <c r="N26" s="77"/>
+      <c r="O26" s="77"/>
+      <c r="P26" s="77"/>
       <c r="Q26" s="83"/>
       <c r="R26" s="83"/>
       <c r="S26" s="83"/>
       <c r="T26" s="83"/>
     </row>
-    <row r="27" spans="2:20" ht="15.95" customHeight="1">
-      <c r="B27" s="84" t="s">
-        <v>204</v>
+    <row r="27" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="80" t="s">
+        <v>197</v>
       </c>
       <c r="C27" s="74" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D27" s="74"/>
       <c r="E27" s="74"/>
       <c r="F27" s="74"/>
       <c r="G27" s="74"/>
       <c r="H27" s="74"/>
-      <c r="I27" s="85"/>
-      <c r="J27" s="82" t="s">
-        <v>206</v>
-      </c>
-      <c r="K27" s="80" t="s">
-        <v>207</v>
-      </c>
-      <c r="L27" s="80"/>
-      <c r="M27" s="80"/>
-      <c r="N27" s="80"/>
-      <c r="O27" s="80"/>
-      <c r="P27" s="80"/>
-      <c r="Q27" s="80" t="s">
-        <v>208</v>
-      </c>
-      <c r="R27" s="80"/>
-      <c r="S27" s="80"/>
-      <c r="T27" s="80"/>
-    </row>
-    <row r="28" spans="2:20" ht="20.100000000000001" customHeight="1">
-      <c r="B28" s="84"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="75" t="s">
+        <v>199</v>
+      </c>
+      <c r="K27" s="77" t="s">
+        <v>200</v>
+      </c>
+      <c r="L27" s="77"/>
+      <c r="M27" s="77"/>
+      <c r="N27" s="77"/>
+      <c r="O27" s="77"/>
+      <c r="P27" s="77"/>
+      <c r="Q27" s="77" t="s">
+        <v>201</v>
+      </c>
+      <c r="R27" s="77"/>
+      <c r="S27" s="77"/>
+      <c r="T27" s="77"/>
+    </row>
+    <row r="28" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="80"/>
       <c r="C28" s="74"/>
       <c r="D28" s="74"/>
       <c r="E28" s="74"/>
       <c r="F28" s="74"/>
       <c r="G28" s="74"/>
       <c r="H28" s="74"/>
-      <c r="I28" s="85"/>
-      <c r="J28" s="82"/>
-      <c r="K28" s="80"/>
-      <c r="L28" s="80"/>
-      <c r="M28" s="80"/>
-      <c r="N28" s="80"/>
-      <c r="O28" s="80"/>
-      <c r="P28" s="80"/>
-      <c r="Q28" s="80"/>
-      <c r="R28" s="80"/>
-      <c r="S28" s="80"/>
-      <c r="T28" s="80"/>
-    </row>
-    <row r="29" spans="2:20" ht="21" customHeight="1">
-      <c r="B29" s="84" t="s">
-        <v>209</v>
-      </c>
-      <c r="C29" s="71" t="s">
-        <v>210</v>
-      </c>
-      <c r="D29" s="71"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="71"/>
-      <c r="I29" s="78"/>
-      <c r="J29" s="82"/>
-      <c r="K29" s="80"/>
-      <c r="L29" s="80"/>
-      <c r="M29" s="80"/>
-      <c r="N29" s="80"/>
-      <c r="O29" s="80"/>
-      <c r="P29" s="80"/>
-      <c r="Q29" s="80"/>
-      <c r="R29" s="80"/>
-      <c r="S29" s="80"/>
-      <c r="T29" s="80"/>
-    </row>
-    <row r="30" spans="2:20" ht="23.1" customHeight="1">
-      <c r="B30" s="84"/>
-      <c r="C30" s="71"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="71"/>
-      <c r="I30" s="78"/>
-      <c r="J30" s="82"/>
-      <c r="K30" s="80"/>
-      <c r="L30" s="80"/>
-      <c r="M30" s="80"/>
-      <c r="N30" s="80"/>
-      <c r="O30" s="80"/>
-      <c r="P30" s="80"/>
-      <c r="Q30" s="80"/>
-      <c r="R30" s="80"/>
-      <c r="S30" s="80"/>
-      <c r="T30" s="80"/>
-    </row>
-    <row r="31" spans="2:20">
-      <c r="J31" s="82"/>
-      <c r="K31" s="80"/>
-      <c r="L31" s="80"/>
-      <c r="M31" s="80"/>
-      <c r="N31" s="80"/>
-      <c r="O31" s="80"/>
-      <c r="P31" s="80"/>
-      <c r="Q31" s="80"/>
-      <c r="R31" s="80"/>
-      <c r="S31" s="80"/>
-      <c r="T31" s="80"/>
-    </row>
-    <row r="32" spans="2:20" ht="18" customHeight="1">
-      <c r="J32" s="82" t="s">
-        <v>211</v>
+      <c r="I28" s="38"/>
+      <c r="J28" s="75"/>
+      <c r="K28" s="77"/>
+      <c r="L28" s="77"/>
+      <c r="M28" s="77"/>
+      <c r="N28" s="77"/>
+      <c r="O28" s="77"/>
+      <c r="P28" s="77"/>
+      <c r="Q28" s="77"/>
+      <c r="R28" s="77"/>
+      <c r="S28" s="77"/>
+      <c r="T28" s="77"/>
+    </row>
+    <row r="29" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="80" t="s">
+        <v>202</v>
+      </c>
+      <c r="C29" s="81" t="s">
+        <v>203</v>
+      </c>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="75"/>
+      <c r="K29" s="77"/>
+      <c r="L29" s="77"/>
+      <c r="M29" s="77"/>
+      <c r="N29" s="77"/>
+      <c r="O29" s="77"/>
+      <c r="P29" s="77"/>
+      <c r="Q29" s="77"/>
+      <c r="R29" s="77"/>
+      <c r="S29" s="77"/>
+      <c r="T29" s="77"/>
+    </row>
+    <row r="30" spans="2:20" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="80"/>
+      <c r="C30" s="81"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="81"/>
+      <c r="G30" s="81"/>
+      <c r="H30" s="81"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="75"/>
+      <c r="K30" s="77"/>
+      <c r="L30" s="77"/>
+      <c r="M30" s="77"/>
+      <c r="N30" s="77"/>
+      <c r="O30" s="77"/>
+      <c r="P30" s="77"/>
+      <c r="Q30" s="77"/>
+      <c r="R30" s="77"/>
+      <c r="S30" s="77"/>
+      <c r="T30" s="77"/>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="J31" s="75"/>
+      <c r="K31" s="77"/>
+      <c r="L31" s="77"/>
+      <c r="M31" s="77"/>
+      <c r="N31" s="77"/>
+      <c r="O31" s="77"/>
+      <c r="P31" s="77"/>
+      <c r="Q31" s="77"/>
+      <c r="R31" s="77"/>
+      <c r="S31" s="77"/>
+      <c r="T31" s="77"/>
+    </row>
+    <row r="32" spans="2:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J32" s="75" t="s">
+        <v>204</v>
       </c>
       <c r="K32" s="74" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="L32" s="74"/>
       <c r="M32" s="74"/>
       <c r="N32" s="74"/>
       <c r="O32" s="74"/>
       <c r="P32" s="74"/>
-      <c r="Q32" s="81"/>
-      <c r="R32" s="81"/>
-      <c r="S32" s="81"/>
-      <c r="T32" s="81"/>
-    </row>
-    <row r="33" spans="2:20" ht="20.100000000000001" customHeight="1">
-      <c r="B33" s="86" t="s">
-        <v>213</v>
-      </c>
-      <c r="C33" s="86"/>
-      <c r="D33" s="86"/>
-      <c r="E33" s="86"/>
-      <c r="F33" s="86"/>
-      <c r="G33" s="86"/>
-      <c r="H33" s="86"/>
-      <c r="I33" s="86"/>
-      <c r="J33" s="82"/>
+      <c r="Q32" s="71"/>
+      <c r="R32" s="71"/>
+      <c r="S32" s="71"/>
+      <c r="T32" s="71"/>
+    </row>
+    <row r="33" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="75"/>
       <c r="K33" s="74"/>
       <c r="L33" s="74"/>
       <c r="M33" s="74"/>
       <c r="N33" s="74"/>
       <c r="O33" s="74"/>
       <c r="P33" s="74"/>
-      <c r="Q33" s="81"/>
-      <c r="R33" s="81"/>
-      <c r="S33" s="81"/>
-      <c r="T33" s="81"/>
-    </row>
-    <row r="34" spans="2:20" ht="15.95" customHeight="1">
-      <c r="B34" s="87" t="s">
-        <v>214</v>
-      </c>
-      <c r="C34" s="87"/>
-      <c r="D34" s="87"/>
-      <c r="E34" s="87"/>
-      <c r="F34" s="87"/>
-      <c r="G34" s="87"/>
-      <c r="H34" s="87"/>
-      <c r="I34" s="86"/>
-      <c r="J34" s="82"/>
+      <c r="Q33" s="71"/>
+      <c r="R33" s="71"/>
+      <c r="S33" s="71"/>
+      <c r="T33" s="71"/>
+    </row>
+    <row r="34" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="76" t="s">
+        <v>207</v>
+      </c>
+      <c r="C34" s="76"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="76"/>
+      <c r="G34" s="76"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="75"/>
       <c r="K34" s="74"/>
       <c r="L34" s="74"/>
       <c r="M34" s="74"/>
       <c r="N34" s="74"/>
       <c r="O34" s="74"/>
       <c r="P34" s="74"/>
-      <c r="Q34" s="81"/>
-      <c r="R34" s="81"/>
-      <c r="S34" s="81"/>
-      <c r="T34" s="81"/>
-    </row>
-    <row r="35" spans="2:20" ht="15.95" customHeight="1">
-      <c r="B35" s="87"/>
-      <c r="C35" s="87"/>
-      <c r="D35" s="87"/>
-      <c r="E35" s="87"/>
-      <c r="F35" s="87"/>
-      <c r="G35" s="87"/>
-      <c r="H35" s="87"/>
-      <c r="I35" s="86"/>
-      <c r="J35" s="82"/>
+      <c r="Q34" s="71"/>
+      <c r="R34" s="71"/>
+      <c r="S34" s="71"/>
+      <c r="T34" s="71"/>
+    </row>
+    <row r="35" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="76"/>
+      <c r="C35" s="76"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="76"/>
+      <c r="F35" s="76"/>
+      <c r="G35" s="76"/>
+      <c r="H35" s="76"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="75"/>
       <c r="K35" s="74"/>
       <c r="L35" s="74"/>
       <c r="M35" s="74"/>
       <c r="N35" s="74"/>
       <c r="O35" s="74"/>
       <c r="P35" s="74"/>
-      <c r="Q35" s="81"/>
-      <c r="R35" s="81"/>
-      <c r="S35" s="81"/>
-      <c r="T35" s="81"/>
-    </row>
-    <row r="36" spans="2:20" ht="15.95" customHeight="1">
-      <c r="B36" s="87"/>
-      <c r="C36" s="87"/>
-      <c r="D36" s="87"/>
-      <c r="E36" s="87"/>
-      <c r="F36" s="87"/>
-      <c r="G36" s="87"/>
-      <c r="H36" s="87"/>
-      <c r="I36" s="86"/>
-      <c r="J36" s="82"/>
+      <c r="Q35" s="71"/>
+      <c r="R35" s="71"/>
+      <c r="S35" s="71"/>
+      <c r="T35" s="71"/>
+    </row>
+    <row r="36" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="76"/>
+      <c r="C36" s="76"/>
+      <c r="D36" s="76"/>
+      <c r="E36" s="76"/>
+      <c r="F36" s="76"/>
+      <c r="G36" s="76"/>
+      <c r="H36" s="76"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="75"/>
       <c r="K36" s="74"/>
       <c r="L36" s="74"/>
       <c r="M36" s="74"/>
       <c r="N36" s="74"/>
       <c r="O36" s="74"/>
       <c r="P36" s="74"/>
-      <c r="Q36" s="81"/>
-      <c r="R36" s="81"/>
-      <c r="S36" s="81"/>
-      <c r="T36" s="81"/>
-    </row>
-    <row r="37" spans="2:20" ht="15.95" customHeight="1">
-      <c r="B37" s="87"/>
-      <c r="C37" s="87"/>
-      <c r="D37" s="87"/>
-      <c r="E37" s="87"/>
-      <c r="F37" s="87"/>
-      <c r="G37" s="87"/>
-      <c r="H37" s="87"/>
-      <c r="I37" s="86"/>
-      <c r="J37" s="82"/>
+      <c r="Q36" s="71"/>
+      <c r="R36" s="71"/>
+      <c r="S36" s="71"/>
+      <c r="T36" s="71"/>
+    </row>
+    <row r="37" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="76"/>
+      <c r="C37" s="76"/>
+      <c r="D37" s="76"/>
+      <c r="E37" s="76"/>
+      <c r="F37" s="76"/>
+      <c r="G37" s="76"/>
+      <c r="H37" s="76"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="75"/>
       <c r="K37" s="74"/>
       <c r="L37" s="74"/>
       <c r="M37" s="74"/>
       <c r="N37" s="74"/>
       <c r="O37" s="74"/>
       <c r="P37" s="74"/>
-      <c r="Q37" s="81"/>
-      <c r="R37" s="81"/>
-      <c r="S37" s="81"/>
-      <c r="T37" s="81"/>
-    </row>
-    <row r="38" spans="2:20" ht="15.95" customHeight="1">
-      <c r="B38" s="87"/>
-      <c r="C38" s="87"/>
-      <c r="D38" s="87"/>
-      <c r="E38" s="87"/>
-      <c r="F38" s="87"/>
-      <c r="G38" s="87"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="86"/>
-      <c r="K38" s="86"/>
-      <c r="L38" s="86"/>
-      <c r="M38" s="86"/>
-      <c r="N38" s="86"/>
-      <c r="O38" s="86"/>
-      <c r="P38" s="86"/>
-      <c r="Q38" s="86"/>
-    </row>
-    <row r="39" spans="2:20" ht="15.95" customHeight="1">
-      <c r="B39" s="87"/>
-      <c r="C39" s="87"/>
-      <c r="D39" s="87"/>
-      <c r="E39" s="87"/>
-      <c r="F39" s="87"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="86"/>
-      <c r="J39" s="86"/>
-      <c r="K39" s="86"/>
-      <c r="L39" s="86"/>
-      <c r="M39" s="86"/>
-      <c r="N39" s="86"/>
-      <c r="O39" s="86"/>
-      <c r="P39" s="86"/>
-      <c r="Q39" s="86"/>
-    </row>
-    <row r="40" spans="2:20">
-      <c r="B40" s="87"/>
-      <c r="C40" s="87"/>
-      <c r="D40" s="87"/>
-      <c r="E40" s="87"/>
-      <c r="F40" s="87"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="87"/>
-      <c r="I40" s="86"/>
-      <c r="J40" s="86"/>
-      <c r="K40" s="86"/>
-      <c r="L40" s="86"/>
-      <c r="M40" s="86"/>
-    </row>
-    <row r="41" spans="2:20">
-      <c r="B41" s="87"/>
-      <c r="C41" s="87"/>
-      <c r="D41" s="87"/>
-      <c r="E41" s="87"/>
-      <c r="F41" s="87"/>
-      <c r="G41" s="87"/>
-      <c r="H41" s="87"/>
-      <c r="I41" s="86"/>
-      <c r="J41" s="86"/>
-      <c r="K41" s="86"/>
-      <c r="L41" s="86"/>
-      <c r="M41" s="86"/>
-    </row>
-    <row r="42" spans="2:20">
-      <c r="B42" s="87"/>
-      <c r="C42" s="87"/>
-      <c r="D42" s="87"/>
-      <c r="E42" s="87"/>
-      <c r="F42" s="87"/>
-      <c r="G42" s="87"/>
-      <c r="H42" s="87"/>
-      <c r="I42" s="86"/>
-      <c r="J42" s="86"/>
-      <c r="K42" s="86"/>
-      <c r="L42" s="86"/>
-      <c r="M42" s="86"/>
-    </row>
-    <row r="43" spans="2:20">
-      <c r="B43" s="87"/>
-      <c r="C43" s="87"/>
-      <c r="D43" s="87"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="87"/>
-      <c r="I43" s="86"/>
-      <c r="J43" s="86"/>
-      <c r="K43" s="86"/>
-      <c r="L43" s="86"/>
-      <c r="M43" s="86"/>
-    </row>
-    <row r="44" spans="2:20">
-      <c r="B44" s="87"/>
-      <c r="C44" s="87"/>
-      <c r="D44" s="87"/>
-      <c r="E44" s="87"/>
-      <c r="F44" s="87"/>
-      <c r="G44" s="87"/>
-      <c r="H44" s="87"/>
-      <c r="I44" s="86"/>
-      <c r="J44" s="86"/>
-      <c r="K44" s="86"/>
-      <c r="L44" s="86"/>
-      <c r="M44" s="86"/>
-    </row>
-    <row r="45" spans="2:20">
-      <c r="B45" s="88"/>
-      <c r="C45" s="88"/>
-      <c r="D45" s="88"/>
-      <c r="E45" s="88"/>
-      <c r="F45" s="88"/>
-      <c r="G45" s="88"/>
-      <c r="H45" s="88"/>
-      <c r="I45" s="86"/>
-      <c r="J45" s="86"/>
-      <c r="K45" s="86"/>
-      <c r="L45" s="86"/>
-      <c r="M45" s="86"/>
-    </row>
-    <row r="46" spans="2:20">
-      <c r="B46" s="88"/>
-      <c r="C46" s="88"/>
-      <c r="D46" s="88"/>
-      <c r="E46" s="88"/>
-      <c r="F46" s="88"/>
-      <c r="G46" s="88"/>
-      <c r="H46" s="88"/>
-      <c r="I46" s="86"/>
-      <c r="J46" s="86"/>
-      <c r="K46" s="86"/>
-      <c r="L46" s="86"/>
-      <c r="M46" s="86"/>
-    </row>
-    <row r="47" spans="2:20" ht="20.25" customHeight="1">
-      <c r="B47" s="92" t="s">
-        <v>227</v>
-      </c>
-      <c r="C47" s="92"/>
-      <c r="D47" s="92"/>
-      <c r="E47" s="92"/>
-      <c r="G47" s="86"/>
-      <c r="H47" s="86"/>
-      <c r="I47" s="86"/>
-      <c r="J47" s="86"/>
-      <c r="K47" s="86"/>
-      <c r="L47" s="86"/>
-      <c r="M47" s="86"/>
-    </row>
-    <row r="48" spans="2:20">
-      <c r="B48" s="92"/>
-      <c r="C48" s="92"/>
-      <c r="D48" s="92"/>
-      <c r="E48" s="92"/>
-      <c r="G48" s="86"/>
-      <c r="H48" s="86"/>
-      <c r="I48" s="86" t="s">
+      <c r="Q37" s="71"/>
+      <c r="R37" s="71"/>
+      <c r="S37" s="71"/>
+      <c r="T37" s="71"/>
+    </row>
+    <row r="38" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="76"/>
+      <c r="C38" s="76"/>
+      <c r="D38" s="76"/>
+      <c r="E38" s="76"/>
+      <c r="F38" s="76"/>
+      <c r="G38" s="76"/>
+      <c r="H38" s="76"/>
+      <c r="I38" s="39"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="39"/>
+      <c r="O38" s="39"/>
+      <c r="P38" s="39"/>
+      <c r="Q38" s="39"/>
+    </row>
+    <row r="39" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="76"/>
+      <c r="C39" s="76"/>
+      <c r="D39" s="76"/>
+      <c r="E39" s="76"/>
+      <c r="F39" s="76"/>
+      <c r="G39" s="76"/>
+      <c r="H39" s="76"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="39"/>
+      <c r="K39" s="39"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="39"/>
+      <c r="N39" s="39"/>
+      <c r="O39" s="39"/>
+      <c r="P39" s="39"/>
+      <c r="Q39" s="39"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B40" s="76"/>
+      <c r="C40" s="76"/>
+      <c r="D40" s="76"/>
+      <c r="E40" s="76"/>
+      <c r="F40" s="76"/>
+      <c r="G40" s="76"/>
+      <c r="H40" s="76"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="39"/>
+      <c r="K40" s="39"/>
+      <c r="L40" s="39"/>
+      <c r="M40" s="39"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B41" s="76"/>
+      <c r="C41" s="76"/>
+      <c r="D41" s="76"/>
+      <c r="E41" s="76"/>
+      <c r="F41" s="76"/>
+      <c r="G41" s="76"/>
+      <c r="H41" s="76"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="39"/>
+      <c r="K41" s="39"/>
+      <c r="L41" s="39"/>
+      <c r="M41" s="39"/>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B42" s="76"/>
+      <c r="C42" s="76"/>
+      <c r="D42" s="76"/>
+      <c r="E42" s="76"/>
+      <c r="F42" s="76"/>
+      <c r="G42" s="76"/>
+      <c r="H42" s="76"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="39"/>
+      <c r="K42" s="39"/>
+      <c r="L42" s="39"/>
+      <c r="M42" s="39"/>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B43" s="76"/>
+      <c r="C43" s="76"/>
+      <c r="D43" s="76"/>
+      <c r="E43" s="76"/>
+      <c r="F43" s="76"/>
+      <c r="G43" s="76"/>
+      <c r="H43" s="76"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="39"/>
+      <c r="K43" s="39"/>
+      <c r="L43" s="39"/>
+      <c r="M43" s="39"/>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B44" s="76"/>
+      <c r="C44" s="76"/>
+      <c r="D44" s="76"/>
+      <c r="E44" s="76"/>
+      <c r="F44" s="76"/>
+      <c r="G44" s="76"/>
+      <c r="H44" s="76"/>
+      <c r="I44" s="39"/>
+      <c r="J44" s="39"/>
+      <c r="K44" s="39"/>
+      <c r="L44" s="39"/>
+      <c r="M44" s="39"/>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B45" s="40"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="39"/>
+      <c r="K45" s="39"/>
+      <c r="L45" s="39"/>
+      <c r="M45" s="39"/>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B46" s="40"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="40"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="39"/>
+      <c r="K46" s="39"/>
+      <c r="L46" s="39"/>
+      <c r="M46" s="39"/>
+    </row>
+    <row r="47" spans="2:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="70" t="s">
+        <v>220</v>
+      </c>
+      <c r="C47" s="70"/>
+      <c r="D47" s="70"/>
+      <c r="E47" s="70"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="39"/>
+      <c r="K47" s="39"/>
+      <c r="L47" s="39"/>
+      <c r="M47" s="39"/>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B48" s="70"/>
+      <c r="C48" s="70"/>
+      <c r="D48" s="70"/>
+      <c r="E48" s="70"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="39"/>
+      <c r="I48" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="J48" s="39"/>
+      <c r="K48" s="39"/>
+      <c r="L48" s="39"/>
+      <c r="M48" s="39"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B49" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="G49" s="39"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="39"/>
+      <c r="J49" s="39"/>
+      <c r="K49" s="39"/>
+      <c r="L49" s="39"/>
+      <c r="M49" s="39"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A50" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="B50" s="73" t="s">
+        <v>211</v>
+      </c>
+      <c r="C50" s="73"/>
+      <c r="D50" s="73"/>
+      <c r="E50" s="73" t="s">
+        <v>212</v>
+      </c>
+      <c r="F50" s="73"/>
+      <c r="G50" s="41"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="39"/>
+      <c r="J50" s="39"/>
+      <c r="K50" s="39"/>
+      <c r="L50" s="39"/>
+      <c r="M50" s="39"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B51" s="73" t="s">
+        <v>213</v>
+      </c>
+      <c r="C51" s="73"/>
+      <c r="D51" s="73"/>
+      <c r="E51" s="73" t="s">
+        <v>214</v>
+      </c>
+      <c r="F51" s="73"/>
+      <c r="G51" s="41" t="s">
         <v>215</v>
       </c>
-      <c r="J48" s="86"/>
-      <c r="K48" s="86"/>
-      <c r="L48" s="86"/>
-      <c r="M48" s="86"/>
-    </row>
-    <row r="49" spans="1:13">
-      <c r="B49" s="55" t="s">
+      <c r="H51" s="39"/>
+      <c r="I51" s="39"/>
+      <c r="J51" s="39"/>
+      <c r="K51" s="39"/>
+      <c r="L51" s="39"/>
+      <c r="M51" s="39"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C52" s="30" t="s">
         <v>216</v>
       </c>
-      <c r="G49" s="86"/>
-      <c r="H49" s="86"/>
-      <c r="I49" s="86"/>
-      <c r="J49" s="86"/>
-      <c r="K49" s="86"/>
-      <c r="L49" s="86"/>
-      <c r="M49" s="86"/>
-    </row>
-    <row r="50" spans="1:13">
-      <c r="A50" s="55" t="s">
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B55" s="30" t="s">
         <v>217</v>
-      </c>
-      <c r="B50" s="89" t="s">
-        <v>218</v>
-      </c>
-      <c r="C50" s="89"/>
-      <c r="D50" s="89"/>
-      <c r="E50" s="89" t="s">
-        <v>219</v>
-      </c>
-      <c r="F50" s="89"/>
-      <c r="G50" s="90"/>
-      <c r="H50" s="86"/>
-      <c r="I50" s="86"/>
-      <c r="J50" s="86"/>
-      <c r="K50" s="86"/>
-      <c r="L50" s="86"/>
-      <c r="M50" s="86"/>
-    </row>
-    <row r="51" spans="1:13">
-      <c r="B51" s="89" t="s">
-        <v>220</v>
-      </c>
-      <c r="C51" s="89"/>
-      <c r="D51" s="89"/>
-      <c r="E51" s="89" t="s">
-        <v>221</v>
-      </c>
-      <c r="F51" s="89"/>
-      <c r="G51" s="90" t="s">
-        <v>222</v>
-      </c>
-      <c r="H51" s="86"/>
-      <c r="I51" s="86"/>
-      <c r="J51" s="86"/>
-      <c r="K51" s="86"/>
-      <c r="L51" s="86"/>
-      <c r="M51" s="86"/>
-    </row>
-    <row r="52" spans="1:13">
-      <c r="C52" s="55" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
-      <c r="B55" s="55" t="s">
-        <v>224</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B6:D7"/>
+    <mergeCell ref="B1:H2"/>
+    <mergeCell ref="Q24:T26"/>
+    <mergeCell ref="Q21:T23"/>
+    <mergeCell ref="K21:P23"/>
+    <mergeCell ref="K24:P26"/>
+    <mergeCell ref="C27:H28"/>
+    <mergeCell ref="K27:P31"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C21:H23"/>
+    <mergeCell ref="C24:H26"/>
+    <mergeCell ref="C29:H30"/>
     <mergeCell ref="B47:E48"/>
     <mergeCell ref="Q32:T37"/>
     <mergeCell ref="J20:T20"/>
@@ -10436,19 +10485,6 @@
     <mergeCell ref="J24:J26"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C27:H28"/>
-    <mergeCell ref="K27:P31"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C21:H23"/>
-    <mergeCell ref="C24:H26"/>
-    <mergeCell ref="C29:H30"/>
-    <mergeCell ref="B6:D7"/>
-    <mergeCell ref="B1:H2"/>
-    <mergeCell ref="Q24:T26"/>
-    <mergeCell ref="Q21:T23"/>
-    <mergeCell ref="K21:P23"/>
-    <mergeCell ref="K24:P26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10463,163 +10499,163 @@
       <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:18" ht="15.95" customHeight="1">
-      <c r="B3" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
+    <row r="3" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="100" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
       <c r="P3" s="16"/>
       <c r="Q3" s="16"/>
       <c r="R3" s="16"/>
     </row>
-    <row r="4" spans="2:18" ht="15.95" customHeight="1">
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
+    <row r="4" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="100"/>
+      <c r="N4" s="100"/>
+      <c r="O4" s="100"/>
       <c r="P4" s="16"/>
       <c r="Q4" s="16"/>
       <c r="R4" s="16"/>
     </row>
-    <row r="5" spans="2:18" ht="15.95" customHeight="1">
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
+    <row r="5" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="100"/>
+      <c r="O5" s="100"/>
       <c r="P5" s="16"/>
       <c r="Q5" s="16"/>
       <c r="R5" s="16"/>
     </row>
-    <row r="6" spans="2:18" ht="15.95" customHeight="1">
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="52"/>
+    <row r="6" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
+      <c r="N6" s="100"/>
+      <c r="O6" s="100"/>
       <c r="P6" s="16"/>
       <c r="Q6" s="16"/>
       <c r="R6" s="16"/>
     </row>
-    <row r="7" spans="2:18" ht="15.95" customHeight="1">
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52"/>
+    <row r="7" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
+      <c r="N7" s="100"/>
+      <c r="O7" s="100"/>
       <c r="P7" s="16"/>
       <c r="Q7" s="16"/>
       <c r="R7" s="16"/>
     </row>
-    <row r="8" spans="2:18" ht="15.95" customHeight="1">
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="52"/>
+    <row r="8" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="100"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="100"/>
+      <c r="N8" s="100"/>
+      <c r="O8" s="100"/>
       <c r="P8" s="16"/>
       <c r="Q8" s="16"/>
       <c r="R8" s="16"/>
     </row>
-    <row r="9" spans="2:18" ht="15.95" customHeight="1">
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="52"/>
+    <row r="9" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="100"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="100"/>
+      <c r="J9" s="100"/>
+      <c r="K9" s="100"/>
+      <c r="L9" s="100"/>
+      <c r="M9" s="100"/>
+      <c r="N9" s="100"/>
+      <c r="O9" s="100"/>
       <c r="P9" s="16"/>
       <c r="Q9" s="16"/>
       <c r="R9" s="16"/>
     </row>
-    <row r="10" spans="2:18" ht="15.95" customHeight="1">
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="52"/>
-      <c r="O10" s="52"/>
+    <row r="10" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="100"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="100"/>
+      <c r="K10" s="100"/>
+      <c r="L10" s="100"/>
+      <c r="M10" s="100"/>
+      <c r="N10" s="100"/>
+      <c r="O10" s="100"/>
       <c r="P10" s="16"/>
       <c r="Q10" s="16"/>
       <c r="R10" s="16"/>
     </row>
-    <row r="11" spans="2:18" ht="15.95" customHeight="1">
+    <row r="11" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -10638,7 +10674,7 @@
       <c r="Q11" s="16"/>
       <c r="R11" s="16"/>
     </row>
-    <row r="12" spans="2:18" ht="15.95" customHeight="1">
+    <row r="12" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
@@ -10653,12 +10689,12 @@
       <c r="M12" s="16"/>
       <c r="N12" s="16"/>
     </row>
-    <row r="13" spans="2:18" ht="15.95" customHeight="1">
-      <c r="B13" s="53" t="s">
-        <v>137</v>
-      </c>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
+    <row r="13" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="101" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="101"/>
+      <c r="D13" s="101"/>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
@@ -10670,475 +10706,475 @@
       <c r="M13" s="16"/>
       <c r="N13" s="16"/>
     </row>
-    <row r="14" spans="2:18" ht="15.95" customHeight="1">
-      <c r="B14" s="57" t="s">
+    <row r="14" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="95" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="98" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" s="98"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="98"/>
+      <c r="H14" s="98"/>
+      <c r="I14" s="98"/>
+      <c r="J14" s="98"/>
+      <c r="K14" s="91"/>
+      <c r="L14" s="91"/>
+      <c r="M14" s="91"/>
+      <c r="N14" s="91"/>
+      <c r="O14" s="91"/>
+      <c r="P14" s="93" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q14" s="93"/>
+    </row>
+    <row r="15" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="96"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="98"/>
+      <c r="I15" s="98"/>
+      <c r="J15" s="98"/>
+      <c r="K15" s="91"/>
+      <c r="L15" s="91"/>
+      <c r="M15" s="91"/>
+      <c r="N15" s="91"/>
+      <c r="O15" s="91"/>
+      <c r="P15" s="93"/>
+      <c r="Q15" s="93"/>
+    </row>
+    <row r="16" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="97"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="98"/>
+      <c r="I16" s="98"/>
+      <c r="J16" s="98"/>
+      <c r="K16" s="91"/>
+      <c r="L16" s="91"/>
+      <c r="M16" s="91"/>
+      <c r="N16" s="91"/>
+      <c r="O16" s="91"/>
+      <c r="P16" s="93"/>
+      <c r="Q16" s="93"/>
+    </row>
+    <row r="17" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="95" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="98" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" s="98"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="98"/>
+      <c r="J17" s="98"/>
+      <c r="K17" s="91" t="s">
+        <v>120</v>
+      </c>
+      <c r="L17" s="91"/>
+      <c r="M17" s="91"/>
+      <c r="N17" s="91"/>
+      <c r="O17" s="91"/>
+      <c r="P17" s="99"/>
+      <c r="Q17" s="99"/>
+    </row>
+    <row r="18" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="96"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="98"/>
+      <c r="H18" s="98"/>
+      <c r="I18" s="98"/>
+      <c r="J18" s="98"/>
+      <c r="K18" s="91"/>
+      <c r="L18" s="91"/>
+      <c r="M18" s="91"/>
+      <c r="N18" s="91"/>
+      <c r="O18" s="91"/>
+      <c r="P18" s="99"/>
+      <c r="Q18" s="99"/>
+    </row>
+    <row r="19" spans="2:17" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="97"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="98"/>
+      <c r="H19" s="98"/>
+      <c r="I19" s="98"/>
+      <c r="J19" s="98"/>
+      <c r="K19" s="91"/>
+      <c r="L19" s="91"/>
+      <c r="M19" s="91"/>
+      <c r="N19" s="91"/>
+      <c r="O19" s="91"/>
+      <c r="P19" s="99"/>
+      <c r="Q19" s="99"/>
+    </row>
+    <row r="20" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="94" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="C14" s="58" t="s">
+      <c r="D20" s="91"/>
+      <c r="E20" s="84" t="s">
+        <v>158</v>
+      </c>
+      <c r="F20" s="91"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="91"/>
+      <c r="J20" s="91"/>
+      <c r="K20" s="91"/>
+      <c r="L20" s="91"/>
+      <c r="M20" s="91"/>
+      <c r="N20" s="91"/>
+      <c r="O20" s="91"/>
+      <c r="P20" s="92" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q20" s="93"/>
+    </row>
+    <row r="21" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="94"/>
+      <c r="C21" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="59"/>
-      <c r="P14" s="60" t="s">
+      <c r="D21" s="91"/>
+      <c r="E21" s="84" t="s">
+        <v>139</v>
+      </c>
+      <c r="F21" s="91"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="91" t="s">
+        <v>126</v>
+      </c>
+      <c r="L21" s="91"/>
+      <c r="M21" s="91"/>
+      <c r="N21" s="91"/>
+      <c r="O21" s="91"/>
+      <c r="P21" s="93"/>
+      <c r="Q21" s="93"/>
+    </row>
+    <row r="22" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="94"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="84" t="s">
+        <v>140</v>
+      </c>
+      <c r="F22" s="91"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="91"/>
+      <c r="I22" s="91"/>
+      <c r="J22" s="91"/>
+      <c r="K22" s="91"/>
+      <c r="L22" s="91"/>
+      <c r="M22" s="91"/>
+      <c r="N22" s="91"/>
+      <c r="O22" s="91"/>
+      <c r="P22" s="93"/>
+      <c r="Q22" s="93"/>
+    </row>
+    <row r="23" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="94"/>
+      <c r="C23" s="91" t="s">
+        <v>125</v>
+      </c>
+      <c r="D23" s="91"/>
+      <c r="E23" s="84" t="s">
+        <v>141</v>
+      </c>
+      <c r="F23" s="91"/>
+      <c r="G23" s="91"/>
+      <c r="H23" s="91"/>
+      <c r="I23" s="91"/>
+      <c r="J23" s="91"/>
+      <c r="K23" s="91" t="s">
+        <v>127</v>
+      </c>
+      <c r="L23" s="91"/>
+      <c r="M23" s="91"/>
+      <c r="N23" s="91"/>
+      <c r="O23" s="91"/>
+      <c r="P23" s="93"/>
+      <c r="Q23" s="93"/>
+    </row>
+    <row r="24" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="94"/>
+      <c r="C24" s="91"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="84" t="s">
+        <v>142</v>
+      </c>
+      <c r="F24" s="91"/>
+      <c r="G24" s="91"/>
+      <c r="H24" s="91"/>
+      <c r="I24" s="91"/>
+      <c r="J24" s="91"/>
+      <c r="K24" s="84" t="s">
+        <v>159</v>
+      </c>
+      <c r="L24" s="91"/>
+      <c r="M24" s="91"/>
+      <c r="N24" s="91"/>
+      <c r="O24" s="91"/>
+      <c r="P24" s="93"/>
+      <c r="Q24" s="93"/>
+    </row>
+    <row r="25" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="95" t="s">
         <v>129</v>
       </c>
-      <c r="Q14" s="60"/>
-    </row>
-    <row r="15" spans="2:18" ht="15.95" customHeight="1">
-      <c r="B15" s="61"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="60"/>
-      <c r="Q15" s="60"/>
-    </row>
-    <row r="16" spans="2:18" ht="15.95" customHeight="1">
-      <c r="B16" s="62"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="59"/>
-      <c r="N16" s="59"/>
-      <c r="O16" s="59"/>
-      <c r="P16" s="60"/>
-      <c r="Q16" s="60"/>
-    </row>
-    <row r="17" spans="2:17" ht="15.95" customHeight="1">
-      <c r="B17" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="C17" s="58" t="s">
-        <v>126</v>
-      </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="59" t="s">
-        <v>127</v>
-      </c>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="59"/>
-      <c r="P17" s="63"/>
-      <c r="Q17" s="63"/>
-    </row>
-    <row r="18" spans="2:17" ht="15.95" customHeight="1">
-      <c r="B18" s="61"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="59"/>
-      <c r="O18" s="59"/>
-      <c r="P18" s="63"/>
-      <c r="Q18" s="63"/>
-    </row>
-    <row r="19" spans="2:17" ht="23.1" customHeight="1">
-      <c r="B19" s="62"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="59"/>
-      <c r="P19" s="63"/>
-      <c r="Q19" s="63"/>
-    </row>
-    <row r="20" spans="2:17" ht="15.95" customHeight="1">
-      <c r="B20" s="64" t="s">
+      <c r="C25" s="98" t="s">
+        <v>160</v>
+      </c>
+      <c r="D25" s="98"/>
+      <c r="E25" s="98"/>
+      <c r="F25" s="98"/>
+      <c r="G25" s="98"/>
+      <c r="H25" s="98"/>
+      <c r="I25" s="98"/>
+      <c r="J25" s="98"/>
+      <c r="K25" s="91"/>
+      <c r="L25" s="91"/>
+      <c r="M25" s="91"/>
+      <c r="N25" s="91"/>
+      <c r="O25" s="91"/>
+      <c r="P25" s="99"/>
+      <c r="Q25" s="99"/>
+    </row>
+    <row r="26" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="96"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="98"/>
+      <c r="F26" s="98"/>
+      <c r="G26" s="98"/>
+      <c r="H26" s="98"/>
+      <c r="I26" s="98"/>
+      <c r="J26" s="98"/>
+      <c r="K26" s="91"/>
+      <c r="L26" s="91"/>
+      <c r="M26" s="91"/>
+      <c r="N26" s="91"/>
+      <c r="O26" s="91"/>
+      <c r="P26" s="99"/>
+      <c r="Q26" s="99"/>
+    </row>
+    <row r="27" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="96"/>
+      <c r="C27" s="98"/>
+      <c r="D27" s="98"/>
+      <c r="E27" s="98"/>
+      <c r="F27" s="98"/>
+      <c r="G27" s="98"/>
+      <c r="H27" s="98"/>
+      <c r="I27" s="98"/>
+      <c r="J27" s="98"/>
+      <c r="K27" s="91"/>
+      <c r="L27" s="91"/>
+      <c r="M27" s="91"/>
+      <c r="N27" s="91"/>
+      <c r="O27" s="91"/>
+      <c r="P27" s="99"/>
+      <c r="Q27" s="99"/>
+    </row>
+    <row r="28" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="96"/>
+      <c r="C28" s="98"/>
+      <c r="D28" s="98"/>
+      <c r="E28" s="98"/>
+      <c r="F28" s="98"/>
+      <c r="G28" s="98"/>
+      <c r="H28" s="98"/>
+      <c r="I28" s="98"/>
+      <c r="J28" s="98"/>
+      <c r="K28" s="91"/>
+      <c r="L28" s="91"/>
+      <c r="M28" s="91"/>
+      <c r="N28" s="91"/>
+      <c r="O28" s="91"/>
+      <c r="P28" s="99"/>
+      <c r="Q28" s="99"/>
+    </row>
+    <row r="29" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="96"/>
+      <c r="C29" s="98"/>
+      <c r="D29" s="98"/>
+      <c r="E29" s="98"/>
+      <c r="F29" s="98"/>
+      <c r="G29" s="98"/>
+      <c r="H29" s="98"/>
+      <c r="I29" s="98"/>
+      <c r="J29" s="98"/>
+      <c r="K29" s="91"/>
+      <c r="L29" s="91"/>
+      <c r="M29" s="91"/>
+      <c r="N29" s="91"/>
+      <c r="O29" s="91"/>
+      <c r="P29" s="99"/>
+      <c r="Q29" s="99"/>
+    </row>
+    <row r="30" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="96"/>
+      <c r="C30" s="98"/>
+      <c r="D30" s="98"/>
+      <c r="E30" s="98"/>
+      <c r="F30" s="98"/>
+      <c r="G30" s="98"/>
+      <c r="H30" s="98"/>
+      <c r="I30" s="98"/>
+      <c r="J30" s="98"/>
+      <c r="K30" s="91"/>
+      <c r="L30" s="91"/>
+      <c r="M30" s="91"/>
+      <c r="N30" s="91"/>
+      <c r="O30" s="91"/>
+      <c r="P30" s="99"/>
+      <c r="Q30" s="99"/>
+    </row>
+    <row r="31" spans="2:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="C31" s="98" t="s">
+        <v>137</v>
+      </c>
+      <c r="D31" s="98"/>
+      <c r="E31" s="98"/>
+      <c r="F31" s="98"/>
+      <c r="G31" s="98"/>
+      <c r="H31" s="98"/>
+      <c r="I31" s="98"/>
+      <c r="J31" s="98"/>
+      <c r="K31" s="91"/>
+      <c r="L31" s="91"/>
+      <c r="M31" s="91"/>
+      <c r="N31" s="91"/>
+      <c r="O31" s="91"/>
+      <c r="P31" s="99"/>
+      <c r="Q31" s="99"/>
+    </row>
+    <row r="32" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="95" t="s">
         <v>128</v>
       </c>
-      <c r="C20" s="59" t="s">
-        <v>130</v>
-      </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="65" t="s">
-        <v>165</v>
-      </c>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="59"/>
-      <c r="O20" s="59"/>
-      <c r="P20" s="51" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q20" s="60"/>
-    </row>
-    <row r="21" spans="2:17" ht="15.95" customHeight="1">
-      <c r="B21" s="64"/>
-      <c r="C21" s="59" t="s">
-        <v>131</v>
-      </c>
-      <c r="D21" s="59"/>
-      <c r="E21" s="65" t="s">
-        <v>146</v>
-      </c>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59" t="s">
-        <v>133</v>
-      </c>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
-      <c r="N21" s="59"/>
-      <c r="O21" s="59"/>
-      <c r="P21" s="60"/>
-      <c r="Q21" s="60"/>
-    </row>
-    <row r="22" spans="2:17" ht="15.95" customHeight="1">
-      <c r="B22" s="64"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="65" t="s">
-        <v>147</v>
-      </c>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="59"/>
-      <c r="M22" s="59"/>
-      <c r="N22" s="59"/>
-      <c r="O22" s="59"/>
-      <c r="P22" s="60"/>
-      <c r="Q22" s="60"/>
-    </row>
-    <row r="23" spans="2:17" ht="15.95" customHeight="1">
-      <c r="B23" s="64"/>
-      <c r="C23" s="59" t="s">
-        <v>132</v>
-      </c>
-      <c r="D23" s="59"/>
-      <c r="E23" s="65" t="s">
-        <v>148</v>
-      </c>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="59" t="s">
-        <v>134</v>
-      </c>
-      <c r="L23" s="59"/>
-      <c r="M23" s="59"/>
-      <c r="N23" s="59"/>
-      <c r="O23" s="59"/>
-      <c r="P23" s="60"/>
-      <c r="Q23" s="60"/>
-    </row>
-    <row r="24" spans="2:17" ht="15.95" customHeight="1">
-      <c r="B24" s="64"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="65" t="s">
-        <v>149</v>
-      </c>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="65" t="s">
-        <v>166</v>
-      </c>
-      <c r="L24" s="59"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="59"/>
-      <c r="O24" s="59"/>
-      <c r="P24" s="60"/>
-      <c r="Q24" s="60"/>
-    </row>
-    <row r="25" spans="2:17" ht="15.95" customHeight="1">
-      <c r="B25" s="57" t="s">
-        <v>136</v>
-      </c>
-      <c r="C25" s="58" t="s">
-        <v>167</v>
-      </c>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="59"/>
-      <c r="M25" s="59"/>
-      <c r="N25" s="59"/>
-      <c r="O25" s="59"/>
-      <c r="P25" s="63"/>
-      <c r="Q25" s="63"/>
-    </row>
-    <row r="26" spans="2:17" ht="15.95" customHeight="1">
-      <c r="B26" s="61"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="59"/>
-      <c r="L26" s="59"/>
-      <c r="M26" s="59"/>
-      <c r="N26" s="59"/>
-      <c r="O26" s="59"/>
-      <c r="P26" s="63"/>
-      <c r="Q26" s="63"/>
-    </row>
-    <row r="27" spans="2:17" ht="15.95" customHeight="1">
-      <c r="B27" s="61"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="59"/>
-      <c r="M27" s="59"/>
-      <c r="N27" s="59"/>
-      <c r="O27" s="59"/>
-      <c r="P27" s="63"/>
-      <c r="Q27" s="63"/>
-    </row>
-    <row r="28" spans="2:17" ht="15.95" customHeight="1">
-      <c r="B28" s="61"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="59"/>
-      <c r="L28" s="59"/>
-      <c r="M28" s="59"/>
-      <c r="N28" s="59"/>
-      <c r="O28" s="59"/>
-      <c r="P28" s="63"/>
-      <c r="Q28" s="63"/>
-    </row>
-    <row r="29" spans="2:17" ht="15.95" customHeight="1">
-      <c r="B29" s="61"/>
-      <c r="C29" s="58"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="59"/>
-      <c r="L29" s="59"/>
-      <c r="M29" s="59"/>
-      <c r="N29" s="59"/>
-      <c r="O29" s="59"/>
-      <c r="P29" s="63"/>
-      <c r="Q29" s="63"/>
-    </row>
-    <row r="30" spans="2:17" ht="24" customHeight="1">
-      <c r="B30" s="61"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="58"/>
-      <c r="K30" s="59"/>
-      <c r="L30" s="59"/>
-      <c r="M30" s="59"/>
-      <c r="N30" s="59"/>
-      <c r="O30" s="59"/>
-      <c r="P30" s="63"/>
-      <c r="Q30" s="63"/>
-    </row>
-    <row r="31" spans="2:17" ht="25.5" customHeight="1">
-      <c r="B31" s="66" t="s">
-        <v>143</v>
-      </c>
-      <c r="C31" s="58" t="s">
-        <v>144</v>
-      </c>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="58"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="59"/>
-      <c r="M31" s="59"/>
-      <c r="N31" s="59"/>
-      <c r="O31" s="59"/>
-      <c r="P31" s="63"/>
-      <c r="Q31" s="63"/>
-    </row>
-    <row r="32" spans="2:17" ht="15.95" customHeight="1">
-      <c r="B32" s="57" t="s">
-        <v>135</v>
-      </c>
-      <c r="C32" s="99" t="s">
-        <v>242</v>
-      </c>
-      <c r="D32" s="99"/>
-      <c r="E32" s="99"/>
-      <c r="F32" s="99"/>
-      <c r="G32" s="99"/>
-      <c r="H32" s="99"/>
-      <c r="I32" s="99"/>
-      <c r="J32" s="99"/>
-      <c r="K32" s="59"/>
-      <c r="L32" s="59"/>
-      <c r="M32" s="59"/>
-      <c r="N32" s="59"/>
-      <c r="O32" s="59"/>
-      <c r="P32" s="51" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q32" s="60"/>
-    </row>
-    <row r="33" spans="2:17" ht="15.95" customHeight="1">
-      <c r="B33" s="61"/>
-      <c r="C33" s="99"/>
-      <c r="D33" s="99"/>
-      <c r="E33" s="99"/>
-      <c r="F33" s="99"/>
-      <c r="G33" s="99"/>
-      <c r="H33" s="99"/>
-      <c r="I33" s="99"/>
-      <c r="J33" s="99"/>
-      <c r="K33" s="59"/>
-      <c r="L33" s="59"/>
-      <c r="M33" s="59"/>
-      <c r="N33" s="59"/>
-      <c r="O33" s="59"/>
-      <c r="P33" s="60"/>
-      <c r="Q33" s="60"/>
-    </row>
-    <row r="34" spans="2:17" ht="15.95" customHeight="1">
-      <c r="B34" s="61"/>
-      <c r="C34" s="99"/>
-      <c r="D34" s="99"/>
-      <c r="E34" s="99"/>
-      <c r="F34" s="99"/>
-      <c r="G34" s="99"/>
-      <c r="H34" s="99"/>
-      <c r="I34" s="99"/>
-      <c r="J34" s="99"/>
-      <c r="K34" s="59"/>
-      <c r="L34" s="59"/>
-      <c r="M34" s="59"/>
-      <c r="N34" s="59"/>
-      <c r="O34" s="59"/>
-      <c r="P34" s="60"/>
-      <c r="Q34" s="60"/>
-    </row>
-    <row r="35" spans="2:17" ht="15.95" customHeight="1">
-      <c r="B35" s="62"/>
-      <c r="C35" s="99"/>
-      <c r="D35" s="99"/>
-      <c r="E35" s="99"/>
-      <c r="F35" s="99"/>
-      <c r="G35" s="99"/>
-      <c r="H35" s="99"/>
-      <c r="I35" s="99"/>
-      <c r="J35" s="99"/>
-      <c r="K35" s="59"/>
-      <c r="L35" s="59"/>
-      <c r="M35" s="59"/>
-      <c r="N35" s="59"/>
-      <c r="O35" s="59"/>
-      <c r="P35" s="60"/>
-      <c r="Q35" s="60"/>
-    </row>
-    <row r="36" spans="2:17" ht="15.95" customHeight="1">
-      <c r="B36" s="67" t="s">
-        <v>168</v>
-      </c>
-      <c r="C36" s="68"/>
-      <c r="D36" s="68"/>
-      <c r="E36" s="68"/>
-      <c r="F36" s="68"/>
-      <c r="G36" s="68"/>
-      <c r="H36" s="68"/>
-      <c r="I36" s="68"/>
-      <c r="J36" s="68"/>
-      <c r="K36" s="68"/>
-      <c r="L36" s="68"/>
-      <c r="M36" s="68"/>
-      <c r="N36" s="69"/>
-      <c r="O36" s="69"/>
-      <c r="P36" s="69"/>
-      <c r="Q36" s="69"/>
-    </row>
-    <row r="37" spans="2:17" ht="15.95" customHeight="1">
+      <c r="C32" s="90" t="s">
+        <v>235</v>
+      </c>
+      <c r="D32" s="90"/>
+      <c r="E32" s="90"/>
+      <c r="F32" s="90"/>
+      <c r="G32" s="90"/>
+      <c r="H32" s="90"/>
+      <c r="I32" s="90"/>
+      <c r="J32" s="90"/>
+      <c r="K32" s="91"/>
+      <c r="L32" s="91"/>
+      <c r="M32" s="91"/>
+      <c r="N32" s="91"/>
+      <c r="O32" s="91"/>
+      <c r="P32" s="92" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q32" s="93"/>
+    </row>
+    <row r="33" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="96"/>
+      <c r="C33" s="90"/>
+      <c r="D33" s="90"/>
+      <c r="E33" s="90"/>
+      <c r="F33" s="90"/>
+      <c r="G33" s="90"/>
+      <c r="H33" s="90"/>
+      <c r="I33" s="90"/>
+      <c r="J33" s="90"/>
+      <c r="K33" s="91"/>
+      <c r="L33" s="91"/>
+      <c r="M33" s="91"/>
+      <c r="N33" s="91"/>
+      <c r="O33" s="91"/>
+      <c r="P33" s="93"/>
+      <c r="Q33" s="93"/>
+    </row>
+    <row r="34" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="96"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="90"/>
+      <c r="E34" s="90"/>
+      <c r="F34" s="90"/>
+      <c r="G34" s="90"/>
+      <c r="H34" s="90"/>
+      <c r="I34" s="90"/>
+      <c r="J34" s="90"/>
+      <c r="K34" s="91"/>
+      <c r="L34" s="91"/>
+      <c r="M34" s="91"/>
+      <c r="N34" s="91"/>
+      <c r="O34" s="91"/>
+      <c r="P34" s="93"/>
+      <c r="Q34" s="93"/>
+    </row>
+    <row r="35" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="97"/>
+      <c r="C35" s="90"/>
+      <c r="D35" s="90"/>
+      <c r="E35" s="90"/>
+      <c r="F35" s="90"/>
+      <c r="G35" s="90"/>
+      <c r="H35" s="90"/>
+      <c r="I35" s="90"/>
+      <c r="J35" s="90"/>
+      <c r="K35" s="91"/>
+      <c r="L35" s="91"/>
+      <c r="M35" s="91"/>
+      <c r="N35" s="91"/>
+      <c r="O35" s="91"/>
+      <c r="P35" s="93"/>
+      <c r="Q35" s="93"/>
+    </row>
+    <row r="36" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="34"/>
+      <c r="M36" s="34"/>
+      <c r="N36" s="35"/>
+      <c r="O36" s="35"/>
+      <c r="P36" s="35"/>
+      <c r="Q36" s="35"/>
+    </row>
+    <row r="37" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
       <c r="D37" s="16"/>
@@ -11152,7 +11188,7 @@
       <c r="L37" s="16"/>
       <c r="M37" s="16"/>
     </row>
-    <row r="38" spans="2:17" ht="15.95" customHeight="1">
+    <row r="38" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
       <c r="D38" s="16"/>
@@ -11166,498 +11202,498 @@
       <c r="L38" s="16"/>
       <c r="M38" s="16"/>
     </row>
-    <row r="39" spans="2:17" ht="15.95" customHeight="1">
-      <c r="B39" s="68"/>
-      <c r="C39" s="68"/>
-      <c r="D39" s="68"/>
-      <c r="E39" s="68"/>
-      <c r="F39" s="68"/>
-      <c r="G39" s="68"/>
-      <c r="H39" s="68"/>
-      <c r="I39" s="68"/>
-      <c r="J39" s="68"/>
-      <c r="K39" s="68"/>
-      <c r="L39" s="68"/>
-      <c r="M39" s="68"/>
-      <c r="N39" s="69"/>
-    </row>
-    <row r="40" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B40" s="68"/>
-      <c r="C40" s="68"/>
-      <c r="D40" s="68"/>
-      <c r="E40" s="68"/>
-      <c r="F40" s="68"/>
-      <c r="G40" s="68"/>
-      <c r="H40" s="68"/>
-      <c r="I40" s="68"/>
-      <c r="J40" s="68"/>
-      <c r="K40" s="68"/>
-      <c r="L40" s="68"/>
-      <c r="M40" s="68"/>
-      <c r="N40" s="69"/>
-    </row>
-    <row r="41" spans="2:17" ht="19.5" customHeight="1">
-      <c r="B41" s="70" t="s">
-        <v>169</v>
-      </c>
-      <c r="C41" s="72" t="s">
-        <v>170</v>
-      </c>
-      <c r="D41" s="72"/>
+    <row r="39" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="34"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="34"/>
+      <c r="M39" s="34"/>
+      <c r="N39" s="35"/>
+    </row>
+    <row r="40" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="34"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="34"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="34"/>
+      <c r="L40" s="34"/>
+      <c r="M40" s="34"/>
+      <c r="N40" s="35"/>
+    </row>
+    <row r="41" spans="2:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="88" t="s">
+        <v>162</v>
+      </c>
+      <c r="C41" s="87" t="s">
+        <v>163</v>
+      </c>
+      <c r="D41" s="87"/>
       <c r="E41" s="74" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="F41" s="74"/>
       <c r="G41" s="74"/>
       <c r="H41" s="74"/>
-      <c r="I41" s="68"/>
-      <c r="J41" s="68"/>
-      <c r="K41" s="68"/>
-      <c r="L41" s="68"/>
-      <c r="M41" s="68"/>
-      <c r="N41" s="69"/>
-    </row>
-    <row r="42" spans="2:17" ht="18" customHeight="1">
-      <c r="B42" s="70"/>
-      <c r="C42" s="72"/>
-      <c r="D42" s="72"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="34"/>
+      <c r="K41" s="34"/>
+      <c r="L41" s="34"/>
+      <c r="M41" s="34"/>
+      <c r="N41" s="35"/>
+    </row>
+    <row r="42" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="88"/>
+      <c r="C42" s="87"/>
+      <c r="D42" s="87"/>
       <c r="E42" s="74"/>
       <c r="F42" s="74"/>
       <c r="G42" s="74"/>
       <c r="H42" s="74"/>
-      <c r="I42" s="68"/>
-      <c r="J42" s="94" t="s">
-        <v>172</v>
-      </c>
-      <c r="K42" s="55"/>
-      <c r="L42" s="55"/>
-      <c r="M42" s="55"/>
-      <c r="N42" s="55"/>
+      <c r="I42" s="34"/>
+      <c r="J42" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="K42" s="30"/>
+      <c r="L42" s="30"/>
+      <c r="M42" s="30"/>
+      <c r="N42" s="30"/>
       <c r="O42" s="25"/>
     </row>
-    <row r="43" spans="2:17" ht="19.5" customHeight="1">
-      <c r="B43" s="70"/>
-      <c r="C43" s="72"/>
-      <c r="D43" s="72"/>
+    <row r="43" spans="2:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="88"/>
+      <c r="C43" s="87"/>
+      <c r="D43" s="87"/>
       <c r="E43" s="74"/>
       <c r="F43" s="74"/>
       <c r="G43" s="74"/>
       <c r="H43" s="74"/>
-      <c r="I43" s="68"/>
-      <c r="J43" s="94" t="s">
-        <v>173</v>
-      </c>
-      <c r="K43" s="55"/>
-      <c r="L43" s="55"/>
-      <c r="M43" s="55"/>
-      <c r="N43" s="55"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="K43" s="30"/>
+      <c r="L43" s="30"/>
+      <c r="M43" s="30"/>
+      <c r="N43" s="30"/>
       <c r="O43" s="25"/>
     </row>
-    <row r="44" spans="2:17" ht="19.5" customHeight="1">
-      <c r="B44" s="70" t="s">
-        <v>174</v>
-      </c>
-      <c r="C44" s="73" t="s">
-        <v>175</v>
-      </c>
-      <c r="D44" s="73"/>
+    <row r="44" spans="2:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="88" t="s">
+        <v>167</v>
+      </c>
+      <c r="C44" s="89" t="s">
+        <v>168</v>
+      </c>
+      <c r="D44" s="89"/>
       <c r="E44" s="74" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="F44" s="74"/>
       <c r="G44" s="74"/>
       <c r="H44" s="74"/>
-      <c r="I44" s="68"/>
-      <c r="J44" s="94" t="s">
-        <v>177</v>
-      </c>
-      <c r="K44" s="55"/>
-      <c r="L44" s="55"/>
-      <c r="M44" s="55"/>
-      <c r="N44" s="55"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="K44" s="30"/>
+      <c r="L44" s="30"/>
+      <c r="M44" s="30"/>
+      <c r="N44" s="30"/>
       <c r="O44" s="25"/>
     </row>
-    <row r="45" spans="2:17" ht="23.25" customHeight="1">
-      <c r="B45" s="70"/>
-      <c r="C45" s="73"/>
-      <c r="D45" s="73"/>
+    <row r="45" spans="2:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="88"/>
+      <c r="C45" s="89"/>
+      <c r="D45" s="89"/>
       <c r="E45" s="74"/>
       <c r="F45" s="74"/>
       <c r="G45" s="74"/>
       <c r="H45" s="74"/>
-      <c r="I45" s="68"/>
-      <c r="J45" s="94" t="s">
-        <v>178</v>
-      </c>
-      <c r="K45" s="55"/>
-      <c r="L45" s="55"/>
-      <c r="M45" s="55"/>
-      <c r="N45" s="55"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="K45" s="30"/>
+      <c r="L45" s="30"/>
+      <c r="M45" s="30"/>
+      <c r="N45" s="30"/>
       <c r="O45" s="25"/>
     </row>
-    <row r="46" spans="2:17" ht="16.5" customHeight="1">
-      <c r="B46" s="70"/>
-      <c r="C46" s="73"/>
-      <c r="D46" s="73"/>
+    <row r="46" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="88"/>
+      <c r="C46" s="89"/>
+      <c r="D46" s="89"/>
       <c r="E46" s="74"/>
       <c r="F46" s="74"/>
       <c r="G46" s="74"/>
       <c r="H46" s="74"/>
-      <c r="I46" s="68"/>
-      <c r="J46" s="68"/>
-      <c r="K46" s="68"/>
-      <c r="L46" s="68"/>
-      <c r="M46" s="68"/>
-      <c r="N46" s="69"/>
-    </row>
-    <row r="47" spans="2:17" ht="15.95" customHeight="1">
-      <c r="B47" s="55"/>
-      <c r="C47" s="55"/>
-      <c r="D47" s="55"/>
-      <c r="E47" s="55"/>
-      <c r="F47" s="55"/>
-      <c r="G47" s="55"/>
-      <c r="H47" s="55"/>
-      <c r="I47" s="68"/>
-      <c r="J47" s="68"/>
-      <c r="K47" s="68"/>
-      <c r="L47" s="68"/>
-      <c r="M47" s="68"/>
-      <c r="N47" s="69"/>
-    </row>
-    <row r="48" spans="2:17" ht="15.95" customHeight="1">
-      <c r="B48" s="55"/>
-      <c r="C48" s="55"/>
-      <c r="D48" s="55"/>
-      <c r="E48" s="55"/>
-      <c r="F48" s="55"/>
-      <c r="G48" s="55"/>
-      <c r="H48" s="55"/>
-      <c r="I48" s="68"/>
-      <c r="J48" s="68"/>
-      <c r="K48" s="68"/>
-      <c r="L48" s="68"/>
-      <c r="M48" s="68"/>
-      <c r="N48" s="69"/>
-    </row>
-    <row r="49" spans="2:14" ht="15.95" customHeight="1">
-      <c r="B49" s="68"/>
-      <c r="C49" s="68"/>
-      <c r="D49" s="68"/>
-      <c r="E49" s="68"/>
-      <c r="F49" s="68"/>
-      <c r="G49" s="68"/>
-      <c r="H49" s="68"/>
-      <c r="I49" s="68"/>
-      <c r="J49" s="68"/>
-      <c r="K49" s="68"/>
-      <c r="L49" s="68"/>
-      <c r="M49" s="68"/>
-      <c r="N49" s="69"/>
-    </row>
-    <row r="50" spans="2:14" ht="15.95" customHeight="1">
-      <c r="B50" s="95" t="s">
+      <c r="I46" s="34"/>
+      <c r="J46" s="34"/>
+      <c r="K46" s="34"/>
+      <c r="L46" s="34"/>
+      <c r="M46" s="34"/>
+      <c r="N46" s="35"/>
+    </row>
+    <row r="47" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="30"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="34"/>
+      <c r="J47" s="34"/>
+      <c r="K47" s="34"/>
+      <c r="L47" s="34"/>
+      <c r="M47" s="34"/>
+      <c r="N47" s="35"/>
+    </row>
+    <row r="48" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="30"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="34"/>
+      <c r="J48" s="34"/>
+      <c r="K48" s="34"/>
+      <c r="L48" s="34"/>
+      <c r="M48" s="34"/>
+      <c r="N48" s="35"/>
+    </row>
+    <row r="49" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="34"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="34"/>
+      <c r="J49" s="34"/>
+      <c r="K49" s="34"/>
+      <c r="L49" s="34"/>
+      <c r="M49" s="34"/>
+      <c r="N49" s="35"/>
+    </row>
+    <row r="50" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="85" t="s">
+        <v>224</v>
+      </c>
+      <c r="C50" s="86"/>
+      <c r="D50" s="87" t="s">
+        <v>172</v>
+      </c>
+      <c r="E50" s="87"/>
+      <c r="F50" s="84"/>
+      <c r="G50" s="84"/>
+      <c r="H50" s="84"/>
+      <c r="I50" s="34"/>
+      <c r="J50" s="34"/>
+      <c r="K50" s="34"/>
+      <c r="L50" s="34"/>
+      <c r="M50" s="34"/>
+      <c r="N50" s="35"/>
+    </row>
+    <row r="51" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="85" t="s">
+        <v>225</v>
+      </c>
+      <c r="C51" s="86"/>
+      <c r="D51" s="87" t="s">
+        <v>173</v>
+      </c>
+      <c r="E51" s="87"/>
+      <c r="F51" s="84"/>
+      <c r="G51" s="84"/>
+      <c r="H51" s="84"/>
+      <c r="I51" s="34"/>
+      <c r="J51" s="34"/>
+      <c r="K51" s="34"/>
+      <c r="L51" s="34"/>
+      <c r="M51" s="34"/>
+      <c r="N51" s="35"/>
+    </row>
+    <row r="52" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="85" t="s">
+        <v>226</v>
+      </c>
+      <c r="C52" s="86"/>
+      <c r="D52" s="87" t="s">
+        <v>173</v>
+      </c>
+      <c r="E52" s="87"/>
+      <c r="F52" s="84"/>
+      <c r="G52" s="84"/>
+      <c r="H52" s="84"/>
+      <c r="I52" s="34"/>
+      <c r="J52" s="34"/>
+      <c r="K52" s="34"/>
+      <c r="L52" s="34"/>
+      <c r="M52" s="34"/>
+      <c r="N52" s="35"/>
+    </row>
+    <row r="53" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="86" t="s">
+        <v>223</v>
+      </c>
+      <c r="C53" s="86"/>
+      <c r="D53" s="87"/>
+      <c r="E53" s="87"/>
+      <c r="F53" s="84"/>
+      <c r="G53" s="84"/>
+      <c r="H53" s="84"/>
+      <c r="I53" s="34"/>
+      <c r="J53" s="45" t="s">
+        <v>232</v>
+      </c>
+      <c r="K53" s="34"/>
+      <c r="L53" s="34"/>
+      <c r="M53" s="34"/>
+      <c r="N53" s="35"/>
+    </row>
+    <row r="54" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="85" t="s">
+        <v>227</v>
+      </c>
+      <c r="C54" s="86"/>
+      <c r="D54" s="87"/>
+      <c r="E54" s="87"/>
+      <c r="F54" s="84" t="s">
+        <v>221</v>
+      </c>
+      <c r="G54" s="84"/>
+      <c r="H54" s="84"/>
+      <c r="I54" s="34"/>
+      <c r="J54" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="C50" s="96"/>
-      <c r="D50" s="72" t="s">
-        <v>179</v>
-      </c>
-      <c r="E50" s="72"/>
-      <c r="F50" s="65"/>
-      <c r="G50" s="65"/>
-      <c r="H50" s="65"/>
-      <c r="I50" s="68"/>
-      <c r="J50" s="68"/>
-      <c r="K50" s="68"/>
-      <c r="L50" s="68"/>
-      <c r="M50" s="68"/>
-      <c r="N50" s="69"/>
-    </row>
-    <row r="51" spans="2:14" ht="15.95" customHeight="1">
-      <c r="B51" s="95" t="s">
-        <v>232</v>
-      </c>
-      <c r="C51" s="96"/>
-      <c r="D51" s="72" t="s">
-        <v>180</v>
-      </c>
-      <c r="E51" s="72"/>
-      <c r="F51" s="65"/>
-      <c r="G51" s="65"/>
-      <c r="H51" s="65"/>
-      <c r="I51" s="68"/>
-      <c r="J51" s="68"/>
-      <c r="K51" s="68"/>
-      <c r="L51" s="68"/>
-      <c r="M51" s="68"/>
-      <c r="N51" s="69"/>
-    </row>
-    <row r="52" spans="2:14" ht="15.95" customHeight="1">
-      <c r="B52" s="95" t="s">
-        <v>233</v>
-      </c>
-      <c r="C52" s="96"/>
-      <c r="D52" s="72" t="s">
-        <v>180</v>
-      </c>
-      <c r="E52" s="72"/>
-      <c r="F52" s="65"/>
-      <c r="G52" s="65"/>
-      <c r="H52" s="65"/>
-      <c r="I52" s="68"/>
-      <c r="J52" s="68"/>
-      <c r="K52" s="68"/>
-      <c r="L52" s="68"/>
-      <c r="M52" s="68"/>
-      <c r="N52" s="69"/>
-    </row>
-    <row r="53" spans="2:14" ht="15.95" customHeight="1">
-      <c r="B53" s="96" t="s">
+      <c r="K54" s="34"/>
+      <c r="L54" s="34"/>
+      <c r="M54" s="34"/>
+      <c r="N54" s="35"/>
+    </row>
+    <row r="55" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="85" t="s">
+        <v>228</v>
+      </c>
+      <c r="C55" s="86"/>
+      <c r="D55" s="87"/>
+      <c r="E55" s="87"/>
+      <c r="F55" s="84"/>
+      <c r="G55" s="84"/>
+      <c r="H55" s="84"/>
+      <c r="I55" s="34"/>
+      <c r="J55" s="45" t="s">
+        <v>234</v>
+      </c>
+      <c r="K55" s="34"/>
+      <c r="L55" s="34"/>
+      <c r="M55" s="34"/>
+      <c r="N55" s="35"/>
+    </row>
+    <row r="56" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="85" t="s">
+        <v>229</v>
+      </c>
+      <c r="C56" s="86"/>
+      <c r="D56" s="87"/>
+      <c r="E56" s="87"/>
+      <c r="F56" s="84" t="s">
+        <v>222</v>
+      </c>
+      <c r="G56" s="84"/>
+      <c r="H56" s="84"/>
+      <c r="I56" s="34"/>
+      <c r="J56" s="34"/>
+      <c r="K56" s="34"/>
+      <c r="L56" s="34"/>
+      <c r="M56" s="34"/>
+      <c r="N56" s="35"/>
+    </row>
+    <row r="57" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="44" t="s">
         <v>230</v>
       </c>
-      <c r="C53" s="96"/>
-      <c r="D53" s="72"/>
-      <c r="E53" s="72"/>
-      <c r="F53" s="65"/>
-      <c r="G53" s="65"/>
-      <c r="H53" s="65"/>
-      <c r="I53" s="68"/>
-      <c r="J53" s="98" t="s">
-        <v>239</v>
-      </c>
-      <c r="K53" s="68"/>
-      <c r="L53" s="68"/>
-      <c r="M53" s="68"/>
-      <c r="N53" s="69"/>
-    </row>
-    <row r="54" spans="2:14" ht="15.95" customHeight="1">
-      <c r="B54" s="95" t="s">
-        <v>234</v>
-      </c>
-      <c r="C54" s="96"/>
-      <c r="D54" s="72"/>
-      <c r="E54" s="72"/>
-      <c r="F54" s="65" t="s">
-        <v>228</v>
-      </c>
-      <c r="G54" s="65"/>
-      <c r="H54" s="65"/>
-      <c r="I54" s="68"/>
-      <c r="J54" s="98" t="s">
-        <v>238</v>
-      </c>
-      <c r="K54" s="68"/>
-      <c r="L54" s="68"/>
-      <c r="M54" s="68"/>
-      <c r="N54" s="69"/>
-    </row>
-    <row r="55" spans="2:14" ht="15.95" customHeight="1">
-      <c r="B55" s="95" t="s">
-        <v>235</v>
-      </c>
-      <c r="C55" s="96"/>
-      <c r="D55" s="72"/>
-      <c r="E55" s="72"/>
-      <c r="F55" s="65"/>
-      <c r="G55" s="65"/>
-      <c r="H55" s="65"/>
-      <c r="I55" s="68"/>
-      <c r="J55" s="98" t="s">
-        <v>241</v>
-      </c>
-      <c r="K55" s="68"/>
-      <c r="L55" s="68"/>
-      <c r="M55" s="68"/>
-      <c r="N55" s="69"/>
-    </row>
-    <row r="56" spans="2:14" ht="15.95" customHeight="1">
-      <c r="B56" s="95" t="s">
-        <v>236</v>
-      </c>
-      <c r="C56" s="96"/>
-      <c r="D56" s="72"/>
-      <c r="E56" s="72"/>
-      <c r="F56" s="65" t="s">
-        <v>229</v>
-      </c>
-      <c r="G56" s="65"/>
-      <c r="H56" s="65"/>
-      <c r="I56" s="68"/>
-      <c r="J56" s="68"/>
-      <c r="K56" s="68"/>
-      <c r="L56" s="68"/>
-      <c r="M56" s="68"/>
-      <c r="N56" s="69"/>
-    </row>
-    <row r="57" spans="2:14" ht="15.95" customHeight="1">
-      <c r="B57" s="97" t="s">
-        <v>237</v>
-      </c>
-      <c r="C57" s="68"/>
-      <c r="D57" s="68"/>
-      <c r="E57" s="68"/>
-      <c r="F57" s="68"/>
-      <c r="G57" s="68"/>
-      <c r="H57" s="68"/>
-      <c r="I57" s="68"/>
-      <c r="J57" s="68"/>
-      <c r="K57" s="68"/>
-      <c r="L57" s="68"/>
-      <c r="M57" s="68"/>
-      <c r="N57" s="69"/>
-    </row>
-    <row r="58" spans="2:14" ht="15.95" customHeight="1">
-      <c r="B58" s="68"/>
-      <c r="C58" s="68"/>
-      <c r="D58" s="68"/>
-      <c r="E58" s="68"/>
-      <c r="F58" s="68"/>
-      <c r="G58" s="68"/>
-      <c r="H58" s="68"/>
-      <c r="I58" s="68"/>
-      <c r="J58" s="68"/>
-      <c r="K58" s="68"/>
-      <c r="L58" s="68"/>
-      <c r="M58" s="69"/>
-      <c r="N58" s="69"/>
-    </row>
-    <row r="59" spans="2:14" ht="15.95" customHeight="1">
-      <c r="B59" s="68"/>
-      <c r="C59" s="68"/>
-      <c r="D59" s="68"/>
-      <c r="E59" s="68"/>
-      <c r="F59" s="68"/>
-      <c r="G59" s="68"/>
-      <c r="H59" s="68"/>
-      <c r="I59" s="68"/>
-      <c r="J59" s="68"/>
-      <c r="K59" s="68"/>
-      <c r="L59" s="68"/>
-      <c r="M59" s="69"/>
-      <c r="N59" s="69"/>
-    </row>
-    <row r="60" spans="2:14" ht="15.95" customHeight="1">
-      <c r="B60" s="68"/>
-      <c r="C60" s="68"/>
-      <c r="D60" s="68"/>
-      <c r="E60" s="68"/>
-      <c r="F60" s="68"/>
-      <c r="G60" s="68"/>
-      <c r="H60" s="68"/>
-      <c r="I60" s="68"/>
-      <c r="J60" s="68"/>
-      <c r="K60" s="68"/>
-      <c r="L60" s="68"/>
-      <c r="M60" s="69"/>
-      <c r="N60" s="69"/>
-    </row>
-    <row r="61" spans="2:14" ht="15.95" customHeight="1">
-      <c r="B61" s="93"/>
-      <c r="C61" s="93"/>
-      <c r="D61" s="93"/>
-      <c r="E61" s="68"/>
-      <c r="F61" s="68"/>
-      <c r="G61" s="68"/>
-      <c r="H61" s="68"/>
-      <c r="I61" s="68"/>
-      <c r="J61" s="68"/>
-      <c r="K61" s="68"/>
-      <c r="L61" s="68"/>
-      <c r="M61" s="69"/>
-      <c r="N61" s="69"/>
-    </row>
-    <row r="62" spans="2:14" ht="15.95" customHeight="1">
-      <c r="B62" s="68"/>
-      <c r="C62" s="93"/>
-      <c r="D62" s="93"/>
-      <c r="E62" s="68"/>
-      <c r="F62" s="68"/>
-      <c r="G62" s="68"/>
-      <c r="H62" s="68"/>
-      <c r="I62" s="68"/>
-      <c r="J62" s="68"/>
-      <c r="K62" s="68"/>
-      <c r="L62" s="68"/>
-      <c r="M62" s="69"/>
-      <c r="N62" s="69"/>
-    </row>
-    <row r="63" spans="2:14" ht="15.95" customHeight="1">
-      <c r="B63" s="68"/>
-      <c r="C63" s="93"/>
-      <c r="D63" s="93"/>
-      <c r="E63" s="68"/>
-      <c r="F63" s="68"/>
-      <c r="G63" s="68"/>
-      <c r="H63" s="68"/>
-      <c r="I63" s="68"/>
-      <c r="J63" s="68"/>
-      <c r="K63" s="68"/>
-      <c r="L63" s="68"/>
-      <c r="M63" s="69"/>
-      <c r="N63" s="69"/>
-    </row>
-    <row r="64" spans="2:14" ht="15.95" customHeight="1">
-      <c r="B64" s="68"/>
-      <c r="C64" s="93"/>
-      <c r="D64" s="93"/>
-      <c r="E64" s="68"/>
-      <c r="F64" s="68"/>
-      <c r="G64" s="68"/>
-      <c r="H64" s="68"/>
-      <c r="I64" s="68"/>
-      <c r="J64" s="68"/>
-      <c r="K64" s="68"/>
-      <c r="L64" s="68"/>
-      <c r="M64" s="69"/>
-      <c r="N64" s="69"/>
-    </row>
-    <row r="65" spans="2:14" ht="15.95" customHeight="1">
-      <c r="B65" s="68"/>
-      <c r="C65" s="93"/>
-      <c r="D65" s="93"/>
-      <c r="E65" s="68"/>
-      <c r="F65" s="68"/>
-      <c r="G65" s="68"/>
-      <c r="H65" s="68"/>
-      <c r="I65" s="68"/>
-      <c r="J65" s="68"/>
-      <c r="K65" s="68"/>
-      <c r="L65" s="68"/>
-      <c r="M65" s="69"/>
-      <c r="N65" s="69"/>
-    </row>
-    <row r="66" spans="2:14" ht="15.95" customHeight="1">
-      <c r="B66" s="68"/>
-      <c r="C66" s="93"/>
-      <c r="D66" s="93"/>
-      <c r="E66" s="68"/>
-      <c r="F66" s="68"/>
-      <c r="G66" s="68"/>
-      <c r="H66" s="68"/>
-      <c r="I66" s="68"/>
-      <c r="J66" s="68"/>
-      <c r="K66" s="68"/>
-      <c r="L66" s="68"/>
-      <c r="M66" s="69"/>
-      <c r="N66" s="69"/>
-    </row>
-    <row r="67" spans="2:14" ht="15.95" customHeight="1">
-      <c r="B67" s="68"/>
-      <c r="C67" s="68"/>
-      <c r="D67" s="68"/>
-      <c r="E67" s="68"/>
-      <c r="F67" s="68"/>
-      <c r="G67" s="68"/>
-      <c r="H67" s="68"/>
-      <c r="I67" s="68"/>
-      <c r="J67" s="68"/>
-      <c r="K67" s="68"/>
-      <c r="L67" s="68"/>
-      <c r="M67" s="69"/>
-      <c r="N67" s="69"/>
-    </row>
-    <row r="68" spans="2:14" ht="15.95" customHeight="1">
+      <c r="C57" s="34"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="34"/>
+      <c r="G57" s="34"/>
+      <c r="H57" s="34"/>
+      <c r="I57" s="34"/>
+      <c r="J57" s="34"/>
+      <c r="K57" s="34"/>
+      <c r="L57" s="34"/>
+      <c r="M57" s="34"/>
+      <c r="N57" s="35"/>
+    </row>
+    <row r="58" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="34"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="34"/>
+      <c r="G58" s="34"/>
+      <c r="H58" s="34"/>
+      <c r="I58" s="34"/>
+      <c r="J58" s="34"/>
+      <c r="K58" s="34"/>
+      <c r="L58" s="34"/>
+      <c r="M58" s="35"/>
+      <c r="N58" s="35"/>
+    </row>
+    <row r="59" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="34"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="34"/>
+      <c r="I59" s="34"/>
+      <c r="J59" s="34"/>
+      <c r="K59" s="34"/>
+      <c r="L59" s="34"/>
+      <c r="M59" s="35"/>
+      <c r="N59" s="35"/>
+    </row>
+    <row r="60" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="34"/>
+      <c r="C60" s="34"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="34"/>
+      <c r="G60" s="34"/>
+      <c r="H60" s="34"/>
+      <c r="I60" s="34"/>
+      <c r="J60" s="34"/>
+      <c r="K60" s="34"/>
+      <c r="L60" s="34"/>
+      <c r="M60" s="35"/>
+      <c r="N60" s="35"/>
+    </row>
+    <row r="61" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="42"/>
+      <c r="C61" s="42"/>
+      <c r="D61" s="42"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="34"/>
+      <c r="G61" s="34"/>
+      <c r="H61" s="34"/>
+      <c r="I61" s="34"/>
+      <c r="J61" s="34"/>
+      <c r="K61" s="34"/>
+      <c r="L61" s="34"/>
+      <c r="M61" s="35"/>
+      <c r="N61" s="35"/>
+    </row>
+    <row r="62" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="34"/>
+      <c r="C62" s="42"/>
+      <c r="D62" s="42"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="34"/>
+      <c r="J62" s="34"/>
+      <c r="K62" s="34"/>
+      <c r="L62" s="34"/>
+      <c r="M62" s="35"/>
+      <c r="N62" s="35"/>
+    </row>
+    <row r="63" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="34"/>
+      <c r="C63" s="42"/>
+      <c r="D63" s="42"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="34"/>
+      <c r="G63" s="34"/>
+      <c r="H63" s="34"/>
+      <c r="I63" s="34"/>
+      <c r="J63" s="34"/>
+      <c r="K63" s="34"/>
+      <c r="L63" s="34"/>
+      <c r="M63" s="35"/>
+      <c r="N63" s="35"/>
+    </row>
+    <row r="64" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="34"/>
+      <c r="C64" s="42"/>
+      <c r="D64" s="42"/>
+      <c r="E64" s="34"/>
+      <c r="F64" s="34"/>
+      <c r="G64" s="34"/>
+      <c r="H64" s="34"/>
+      <c r="I64" s="34"/>
+      <c r="J64" s="34"/>
+      <c r="K64" s="34"/>
+      <c r="L64" s="34"/>
+      <c r="M64" s="35"/>
+      <c r="N64" s="35"/>
+    </row>
+    <row r="65" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="34"/>
+      <c r="C65" s="42"/>
+      <c r="D65" s="42"/>
+      <c r="E65" s="34"/>
+      <c r="F65" s="34"/>
+      <c r="G65" s="34"/>
+      <c r="H65" s="34"/>
+      <c r="I65" s="34"/>
+      <c r="J65" s="34"/>
+      <c r="K65" s="34"/>
+      <c r="L65" s="34"/>
+      <c r="M65" s="35"/>
+      <c r="N65" s="35"/>
+    </row>
+    <row r="66" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="34"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="42"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="34"/>
+      <c r="G66" s="34"/>
+      <c r="H66" s="34"/>
+      <c r="I66" s="34"/>
+      <c r="J66" s="34"/>
+      <c r="K66" s="34"/>
+      <c r="L66" s="34"/>
+      <c r="M66" s="35"/>
+      <c r="N66" s="35"/>
+    </row>
+    <row r="67" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="34"/>
+      <c r="C67" s="34"/>
+      <c r="D67" s="34"/>
+      <c r="E67" s="34"/>
+      <c r="F67" s="34"/>
+      <c r="G67" s="34"/>
+      <c r="H67" s="34"/>
+      <c r="I67" s="34"/>
+      <c r="J67" s="34"/>
+      <c r="K67" s="34"/>
+      <c r="L67" s="34"/>
+      <c r="M67" s="35"/>
+      <c r="N67" s="35"/>
+    </row>
+    <row r="68" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="16"/>
       <c r="C68" s="16"/>
       <c r="D68" s="16"/>
@@ -11670,7 +11706,7 @@
       <c r="K68" s="16"/>
       <c r="L68" s="16"/>
     </row>
-    <row r="69" spans="2:14" ht="15.95" customHeight="1">
+    <row r="69" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="16"/>
       <c r="C69" s="16"/>
       <c r="D69" s="16"/>
@@ -11683,7 +11719,7 @@
       <c r="K69" s="16"/>
       <c r="L69" s="16"/>
     </row>
-    <row r="70" spans="2:14" ht="15.95" customHeight="1">
+    <row r="70" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="16"/>
       <c r="C70" s="16"/>
       <c r="D70" s="16"/>
@@ -11696,7 +11732,7 @@
       <c r="K70" s="16"/>
       <c r="L70" s="16"/>
     </row>
-    <row r="71" spans="2:14" ht="15.95" customHeight="1">
+    <row r="71" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="16"/>
       <c r="C71" s="16"/>
       <c r="D71" s="16"/>
@@ -11709,7 +11745,7 @@
       <c r="K71" s="16"/>
       <c r="L71" s="16"/>
     </row>
-    <row r="72" spans="2:14" ht="15.95" customHeight="1">
+    <row r="72" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="16"/>
       <c r="C72" s="16"/>
       <c r="D72" s="16"/>
@@ -11722,7 +11758,7 @@
       <c r="K72" s="16"/>
       <c r="L72" s="16"/>
     </row>
-    <row r="73" spans="2:14" ht="15.95" customHeight="1">
+    <row r="73" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="16"/>
       <c r="C73" s="16"/>
       <c r="D73" s="16"/>
@@ -11735,7 +11771,7 @@
       <c r="K73" s="16"/>
       <c r="L73" s="16"/>
     </row>
-    <row r="74" spans="2:14" ht="15.95" customHeight="1">
+    <row r="74" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="16"/>
       <c r="C74" s="16"/>
       <c r="D74" s="16"/>
@@ -11748,7 +11784,7 @@
       <c r="K74" s="16"/>
       <c r="L74" s="16"/>
     </row>
-    <row r="75" spans="2:14" ht="15.95" customHeight="1">
+    <row r="75" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="16"/>
       <c r="C75" s="16"/>
       <c r="D75" s="16"/>
@@ -11761,7 +11797,7 @@
       <c r="K75" s="16"/>
       <c r="L75" s="16"/>
     </row>
-    <row r="76" spans="2:14" ht="15.95" customHeight="1">
+    <row r="76" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="16"/>
       <c r="C76" s="16"/>
       <c r="D76" s="16"/>
@@ -11774,7 +11810,7 @@
       <c r="K76" s="16"/>
       <c r="L76" s="16"/>
     </row>
-    <row r="77" spans="2:14" ht="15.95" customHeight="1">
+    <row r="77" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="16"/>
       <c r="C77" s="16"/>
       <c r="D77" s="16"/>
@@ -11787,7 +11823,7 @@
       <c r="K77" s="16"/>
       <c r="L77" s="16"/>
     </row>
-    <row r="78" spans="2:14" ht="15.95" customHeight="1">
+    <row r="78" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="16"/>
       <c r="C78" s="16"/>
       <c r="D78" s="16"/>
@@ -11800,7 +11836,7 @@
       <c r="K78" s="16"/>
       <c r="L78" s="16"/>
     </row>
-    <row r="79" spans="2:14" ht="15.95" customHeight="1">
+    <row r="79" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="16"/>
       <c r="C79" s="16"/>
       <c r="D79" s="16"/>
@@ -11813,7 +11849,7 @@
       <c r="K79" s="16"/>
       <c r="L79" s="16"/>
     </row>
-    <row r="80" spans="2:14" ht="15.95" customHeight="1">
+    <row r="80" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="16"/>
       <c r="C80" s="16"/>
       <c r="D80" s="16"/>
@@ -11826,7 +11862,7 @@
       <c r="K80" s="16"/>
       <c r="L80" s="16"/>
     </row>
-    <row r="81" spans="2:12" ht="15.95" customHeight="1">
+    <row r="81" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="16"/>
       <c r="C81" s="16"/>
       <c r="D81" s="16"/>
@@ -11839,7 +11875,7 @@
       <c r="K81" s="16"/>
       <c r="L81" s="16"/>
     </row>
-    <row r="82" spans="2:12" ht="15.95" customHeight="1">
+    <row r="82" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="16"/>
       <c r="C82" s="16"/>
       <c r="D82" s="16"/>
@@ -11852,7 +11888,7 @@
       <c r="K82" s="16"/>
       <c r="L82" s="16"/>
     </row>
-    <row r="83" spans="2:12" ht="15.95" customHeight="1">
+    <row r="83" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="16"/>
       <c r="C83" s="16"/>
       <c r="D83" s="16"/>
@@ -11865,7 +11901,7 @@
       <c r="K83" s="16"/>
       <c r="L83" s="16"/>
     </row>
-    <row r="84" spans="2:12" ht="15.95" customHeight="1">
+    <row r="84" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="16"/>
       <c r="C84" s="16"/>
       <c r="D84" s="16"/>
@@ -11878,7 +11914,7 @@
       <c r="K84" s="16"/>
       <c r="L84" s="16"/>
     </row>
-    <row r="85" spans="2:12" ht="15.95" customHeight="1">
+    <row r="85" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="16"/>
       <c r="C85" s="16"/>
       <c r="D85" s="16"/>
@@ -11891,7 +11927,7 @@
       <c r="K85" s="16"/>
       <c r="L85" s="16"/>
     </row>
-    <row r="86" spans="2:12" ht="15.95" customHeight="1">
+    <row r="86" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="16"/>
       <c r="C86" s="16"/>
       <c r="D86" s="16"/>
@@ -11904,7 +11940,7 @@
       <c r="K86" s="16"/>
       <c r="L86" s="16"/>
     </row>
-    <row r="87" spans="2:12" ht="15.95" customHeight="1">
+    <row r="87" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="16"/>
       <c r="C87" s="16"/>
       <c r="D87" s="16"/>
@@ -11917,7 +11953,7 @@
       <c r="K87" s="16"/>
       <c r="L87" s="16"/>
     </row>
-    <row r="88" spans="2:12" ht="15.95" customHeight="1">
+    <row r="88" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="16"/>
       <c r="C88" s="16"/>
       <c r="D88" s="16"/>
@@ -11930,7 +11966,7 @@
       <c r="K88" s="16"/>
       <c r="L88" s="16"/>
     </row>
-    <row r="89" spans="2:12" ht="15.95" customHeight="1">
+    <row r="89" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="16"/>
       <c r="C89" s="16"/>
       <c r="D89" s="16"/>
@@ -11943,7 +11979,7 @@
       <c r="K89" s="16"/>
       <c r="L89" s="16"/>
     </row>
-    <row r="90" spans="2:12" ht="15.95" customHeight="1">
+    <row r="90" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="16"/>
       <c r="C90" s="16"/>
       <c r="D90" s="16"/>
@@ -11956,7 +11992,7 @@
       <c r="K90" s="16"/>
       <c r="L90" s="16"/>
     </row>
-    <row r="91" spans="2:12" ht="15.95" customHeight="1">
+    <row r="91" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="16"/>
       <c r="C91" s="16"/>
       <c r="D91" s="16"/>
@@ -11969,7 +12005,7 @@
       <c r="K91" s="16"/>
       <c r="L91" s="16"/>
     </row>
-    <row r="92" spans="2:12" ht="15.95" customHeight="1">
+    <row r="92" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="16"/>
       <c r="C92" s="16"/>
       <c r="D92" s="16"/>
@@ -11982,7 +12018,7 @@
       <c r="K92" s="16"/>
       <c r="L92" s="16"/>
     </row>
-    <row r="93" spans="2:12" ht="15.95" customHeight="1">
+    <row r="93" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="16"/>
       <c r="C93" s="16"/>
       <c r="D93" s="16"/>
@@ -11995,7 +12031,7 @@
       <c r="K93" s="16"/>
       <c r="L93" s="16"/>
     </row>
-    <row r="94" spans="2:12" ht="15.95" customHeight="1">
+    <row r="94" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="16"/>
       <c r="C94" s="16"/>
       <c r="D94" s="16"/>
@@ -12008,7 +12044,7 @@
       <c r="K94" s="16"/>
       <c r="L94" s="16"/>
     </row>
-    <row r="95" spans="2:12" ht="15.95" customHeight="1">
+    <row r="95" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="16"/>
       <c r="C95" s="16"/>
       <c r="D95" s="16"/>
@@ -12021,7 +12057,7 @@
       <c r="K95" s="16"/>
       <c r="L95" s="16"/>
     </row>
-    <row r="96" spans="2:12" ht="15.95" customHeight="1">
+    <row r="96" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="16"/>
       <c r="C96" s="16"/>
       <c r="D96" s="16"/>
@@ -12036,33 +12072,26 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="F54:H54"/>
-    <mergeCell ref="F55:H55"/>
-    <mergeCell ref="F56:H56"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="F53:H53"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C41:D43"/>
-    <mergeCell ref="E41:H43"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="C44:D46"/>
-    <mergeCell ref="E44:H46"/>
+    <mergeCell ref="C25:J30"/>
+    <mergeCell ref="K25:O30"/>
+    <mergeCell ref="P25:Q30"/>
+    <mergeCell ref="P14:Q16"/>
+    <mergeCell ref="P17:Q19"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="P20:Q24"/>
+    <mergeCell ref="K20:O20"/>
+    <mergeCell ref="K22:O22"/>
+    <mergeCell ref="K24:O24"/>
+    <mergeCell ref="B3:O10"/>
+    <mergeCell ref="C14:J16"/>
+    <mergeCell ref="C17:J19"/>
+    <mergeCell ref="K17:O19"/>
+    <mergeCell ref="K14:O16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B13:D13"/>
     <mergeCell ref="C32:J35"/>
     <mergeCell ref="K32:O35"/>
     <mergeCell ref="P32:Q35"/>
@@ -12079,26 +12108,33 @@
     <mergeCell ref="C31:J31"/>
     <mergeCell ref="K31:O31"/>
     <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="B3:O10"/>
-    <mergeCell ref="C14:J16"/>
-    <mergeCell ref="C17:J19"/>
-    <mergeCell ref="K17:O19"/>
-    <mergeCell ref="K14:O16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="C25:J30"/>
-    <mergeCell ref="K25:O30"/>
-    <mergeCell ref="P25:Q30"/>
-    <mergeCell ref="P14:Q16"/>
-    <mergeCell ref="P17:Q19"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="P20:Q24"/>
-    <mergeCell ref="K20:O20"/>
-    <mergeCell ref="K22:O22"/>
-    <mergeCell ref="K24:O24"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C41:D43"/>
+    <mergeCell ref="E41:H43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C44:D46"/>
+    <mergeCell ref="E44:H46"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="F53:H53"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12113,91 +12149,91 @@
       <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:2">
-      <c r="A2" s="54" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="29" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B3" s="45" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B4" s="45" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B5" s="46" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B12" s="29" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B13" s="29" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B14" s="45" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" s="29" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B24" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="C24" s="47" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C25" s="47" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B27" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="C27" s="47" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B28" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="C28" s="47" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B29" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="C29" s="47" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B30" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="C30" s="47" t="s">
         <v>251</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="B3" s="98" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="B4" s="98" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="B5" s="100" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="B12" s="54" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="B13" s="54" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="B14" s="98" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="54" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="54" t="s">
-        <v>248</v>
-      </c>
-      <c r="C24" s="101" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="C25" s="101" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3">
-      <c r="B27" s="54" t="s">
-        <v>252</v>
-      </c>
-      <c r="C27" s="101" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3">
-      <c r="B28" s="54" t="s">
-        <v>254</v>
-      </c>
-      <c r="C28" s="101" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3">
-      <c r="B29" s="54" t="s">
-        <v>256</v>
-      </c>
-      <c r="C29" s="101" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3">
-      <c r="B30" s="54" t="s">
-        <v>257</v>
-      </c>
-      <c r="C30" s="101" t="s">
-        <v>258</v>
       </c>
     </row>
   </sheetData>

--- a/日语.xlsx
+++ b/日语.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="24880" windowHeight="15560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="24880" windowHeight="15560" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="动词形态" sheetId="1" r:id="rId1"/>
@@ -4319,23 +4319,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">事務所に社員が５人います。
-財布に（人民元が）２００元あります。
-私の車はガレージにあります。
-</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">2. </t>
     </r>
     <r>
@@ -6713,40 +6696,6 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>よくたり（否）</t>
-    </r>
-    <rPh sb="5" eb="6">
-      <t>fou</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>よかった（过）</t>
-    </r>
-    <rPh sb="5" eb="6">
-      <t>guo</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>ようくなかった（过否）</t>
     </r>
     <rPh sb="8" eb="9">
@@ -7741,6 +7690,21 @@
     <rPh sb="38" eb="39">
       <t>かかr</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>よかった（过）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>よくない（否）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">事務所に社員が５人います。
+財布に（人民元が）２００元あります。
+私の車はガレージにあります。
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8021,7 +7985,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -8118,12 +8082,74 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -8234,15 +8260,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8255,14 +8272,35 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8273,38 +8311,38 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8312,16 +8350,10 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8330,50 +8362,26 @@
     <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8384,17 +8392,50 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8679,7 +8720,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -8791,7 +8832,7 @@
         <v>23</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>88</v>
@@ -8811,10 +8852,10 @@
         <v>103</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>104</v>
@@ -8829,10 +8870,10 @@
         <v>108</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>109</v>
@@ -8849,10 +8890,10 @@
         <v>113</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>114</v>
@@ -9010,10 +9051,10 @@
       <c r="B11" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="54"/>
+      <c r="D11" s="51"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
@@ -9022,10 +9063,10 @@
       <c r="B12" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="C12" s="51" t="s">
+      <c r="C12" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="52"/>
+      <c r="D12" s="49"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
@@ -9034,84 +9075,79 @@
       <c r="B15" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="49" t="s">
+      <c r="C15" s="52" t="s">
         <v>145</v>
       </c>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49" t="s">
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52" t="s">
         <v>146</v>
       </c>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
     </row>
     <row r="16" spans="2:8" ht="18" x14ac:dyDescent="0.2">
       <c r="B16" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="48" t="s">
+      <c r="C16" s="53" t="s">
         <v>150</v>
       </c>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="50" t="s">
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="54" t="s">
         <v>154</v>
       </c>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
     </row>
     <row r="17" spans="2:8" ht="18" x14ac:dyDescent="0.2">
       <c r="B17" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="48" t="s">
+      <c r="C17" s="53" t="s">
         <v>151</v>
       </c>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="50" t="s">
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
     </row>
     <row r="18" spans="2:8" ht="18" x14ac:dyDescent="0.2">
       <c r="B18" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="48" t="s">
+      <c r="C18" s="53" t="s">
         <v>152</v>
       </c>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="50" t="s">
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
     </row>
     <row r="19" spans="2:8" ht="18" x14ac:dyDescent="0.2">
       <c r="B19" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="53" t="s">
         <v>153</v>
       </c>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="50" t="s">
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="54" t="s">
         <v>157</v>
       </c>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="F16:H16"/>
@@ -9119,6 +9155,11 @@
     <mergeCell ref="F18:H18"/>
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9136,10 +9177,10 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="3" spans="1:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="66"/>
+      <c r="C3" s="58"/>
     </row>
     <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
@@ -9155,33 +9196,33 @@
     </row>
     <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
-      <c r="B6" s="68"/>
-      <c r="C6" s="57" t="s">
+      <c r="B6" s="57"/>
+      <c r="C6" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57" t="s">
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
     </row>
@@ -9190,16 +9231,16 @@
       <c r="B7" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
     </row>
@@ -9208,16 +9249,16 @@
       <c r="B8" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="61" t="s">
+      <c r="C8" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61" t="s">
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
     </row>
@@ -9247,83 +9288,83 @@
     </row>
     <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="56" t="s">
+      <c r="C11" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
     </row>
     <row r="12" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="57" t="s">
+      <c r="B12" s="61"/>
+      <c r="C12" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="58" t="s">
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="60"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="64"/>
     </row>
     <row r="13" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="61" t="s">
+      <c r="C13" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61" t="s">
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
     </row>
     <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
-      <c r="B14" s="63" t="s">
+      <c r="B14" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="65" t="s">
+      <c r="C14" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="65" t="s">
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
     </row>
     <row r="15" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
     </row>
     <row r="16" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
@@ -9342,11 +9383,11 @@
       <c r="B17" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="C17" s="69" t="s">
+      <c r="C17" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8" t="s">
         <v>96</v>
@@ -9372,15 +9413,15 @@
       <c r="B19" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="61" t="s">
+      <c r="C19" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
       <c r="J19" s="8"/>
     </row>
     <row r="20" spans="1:10" ht="18" x14ac:dyDescent="0.2">
@@ -9436,10 +9477,10 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="B29" s="66" t="s">
+      <c r="B29" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="66"/>
+      <c r="C29" s="58"/>
     </row>
     <row r="30" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B30" s="8" t="s">
@@ -9455,32 +9496,32 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="67" t="s">
+      <c r="B32" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="56" t="s">
+      <c r="C32" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="56"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
     </row>
     <row r="33" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="68"/>
-      <c r="C33" s="57" t="s">
+      <c r="B33" s="57"/>
+      <c r="C33" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57" t="s">
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
     </row>
@@ -9488,16 +9529,16 @@
       <c r="B34" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="61" t="s">
+      <c r="C34" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61" t="s">
+      <c r="D34" s="55"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="G34" s="61"/>
-      <c r="H34" s="61"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="55"/>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
     </row>
@@ -9505,16 +9546,16 @@
       <c r="B35" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="61" t="s">
+      <c r="C35" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61" t="s">
+      <c r="D35" s="55"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="55"/>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
     </row>
@@ -9541,79 +9582,79 @@
       <c r="J37" s="8"/>
     </row>
     <row r="38" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="55" t="s">
+      <c r="B38" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="C38" s="56" t="s">
+      <c r="C38" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="D38" s="56"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="56"/>
-      <c r="G38" s="56"/>
-      <c r="H38" s="56"/>
-      <c r="I38" s="56"/>
-      <c r="J38" s="56"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="59"/>
+      <c r="H38" s="59"/>
+      <c r="I38" s="59"/>
+      <c r="J38" s="59"/>
     </row>
     <row r="39" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="55"/>
-      <c r="C39" s="57" t="s">
+      <c r="B39" s="61"/>
+      <c r="C39" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="D39" s="57"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="58" t="s">
+      <c r="D39" s="60"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="H39" s="59"/>
-      <c r="I39" s="59"/>
-      <c r="J39" s="60"/>
+      <c r="H39" s="63"/>
+      <c r="I39" s="63"/>
+      <c r="J39" s="64"/>
     </row>
     <row r="40" spans="2:13" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C40" s="62" t="s">
+      <c r="C40" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="D40" s="62"/>
-      <c r="E40" s="62"/>
-      <c r="F40" s="62"/>
-      <c r="G40" s="62" t="s">
+      <c r="D40" s="68"/>
+      <c r="E40" s="68"/>
+      <c r="F40" s="68"/>
+      <c r="G40" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="H40" s="62"/>
-      <c r="I40" s="62"/>
-      <c r="J40" s="62"/>
+      <c r="H40" s="68"/>
+      <c r="I40" s="68"/>
+      <c r="J40" s="68"/>
     </row>
     <row r="41" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="63" t="s">
+      <c r="B41" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="64" t="s">
+      <c r="C41" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="D41" s="62"/>
-      <c r="E41" s="62"/>
-      <c r="F41" s="62"/>
-      <c r="G41" s="64" t="s">
+      <c r="D41" s="68"/>
+      <c r="E41" s="68"/>
+      <c r="F41" s="68"/>
+      <c r="G41" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="H41" s="62"/>
-      <c r="I41" s="62"/>
-      <c r="J41" s="62"/>
+      <c r="H41" s="68"/>
+      <c r="I41" s="68"/>
+      <c r="J41" s="68"/>
     </row>
     <row r="42" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="63"/>
-      <c r="C42" s="62"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="62"/>
-      <c r="F42" s="62"/>
-      <c r="G42" s="62"/>
-      <c r="H42" s="62"/>
-      <c r="I42" s="62"/>
-      <c r="J42" s="62"/>
+      <c r="B42" s="65"/>
+      <c r="C42" s="68"/>
+      <c r="D42" s="68"/>
+      <c r="E42" s="68"/>
+      <c r="F42" s="68"/>
+      <c r="G42" s="68"/>
+      <c r="H42" s="68"/>
+      <c r="I42" s="68"/>
+      <c r="J42" s="68"/>
       <c r="K42" t="s">
         <v>60</v>
       </c>
@@ -9673,21 +9714,19 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:F42"/>
+    <mergeCell ref="G41:J42"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:F15"/>
     <mergeCell ref="G14:J15"/>
@@ -9698,19 +9737,21 @@
     <mergeCell ref="F33:H33"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="C19:I19"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:F42"/>
-    <mergeCell ref="G41:J42"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:H7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9721,8 +9762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T55"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24:H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9731,25 +9772,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="82" t="s">
-        <v>218</v>
-      </c>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
+      <c r="B1" s="70" t="s">
+        <v>215</v>
+      </c>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
       <c r="I1" s="36"/>
     </row>
     <row r="2" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
       <c r="I2" s="36"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
@@ -9759,20 +9800,20 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" s="30" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="82" t="s">
-        <v>219</v>
-      </c>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
+      <c r="B6" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="82"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" s="30" t="s">
@@ -9833,287 +9874,287 @@
       <c r="B20" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="J20" s="72" t="s">
+      <c r="J20" s="76" t="s">
         <v>187</v>
       </c>
-      <c r="K20" s="72"/>
-      <c r="L20" s="72"/>
-      <c r="M20" s="72"/>
-      <c r="N20" s="72"/>
-      <c r="O20" s="72"/>
-      <c r="P20" s="72"/>
-      <c r="Q20" s="72"/>
-      <c r="R20" s="72"/>
-      <c r="S20" s="72"/>
-      <c r="T20" s="72"/>
+      <c r="K20" s="76"/>
+      <c r="L20" s="76"/>
+      <c r="M20" s="76"/>
+      <c r="N20" s="76"/>
+      <c r="O20" s="76"/>
+      <c r="P20" s="76"/>
+      <c r="Q20" s="76"/>
+      <c r="R20" s="76"/>
+      <c r="S20" s="76"/>
+      <c r="T20" s="76"/>
     </row>
     <row r="21" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="79" t="s">
+      <c r="B21" s="81" t="s">
         <v>188</v>
       </c>
-      <c r="C21" s="81" t="s">
+      <c r="C21" s="73" t="s">
         <v>189</v>
       </c>
-      <c r="D21" s="81"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="81"/>
-      <c r="H21" s="81"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="73"/>
       <c r="I21" s="37"/>
-      <c r="J21" s="78" t="s">
+      <c r="J21" s="80" t="s">
         <v>190</v>
       </c>
-      <c r="K21" s="77" t="s">
-        <v>191</v>
-      </c>
-      <c r="L21" s="77"/>
-      <c r="M21" s="77"/>
-      <c r="N21" s="77"/>
-      <c r="O21" s="77"/>
-      <c r="P21" s="77"/>
+      <c r="K21" s="106" t="s">
+        <v>259</v>
+      </c>
+      <c r="L21" s="72"/>
+      <c r="M21" s="72"/>
+      <c r="N21" s="72"/>
+      <c r="O21" s="72"/>
+      <c r="P21" s="72"/>
       <c r="Q21" s="71"/>
       <c r="R21" s="71"/>
       <c r="S21" s="71"/>
       <c r="T21" s="71"/>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B22" s="79"/>
-      <c r="C22" s="81"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="81"/>
-      <c r="H22" s="81"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="73"/>
       <c r="I22" s="37"/>
-      <c r="J22" s="78"/>
-      <c r="K22" s="77"/>
-      <c r="L22" s="77"/>
-      <c r="M22" s="77"/>
-      <c r="N22" s="77"/>
-      <c r="O22" s="77"/>
-      <c r="P22" s="77"/>
+      <c r="J22" s="80"/>
+      <c r="K22" s="72"/>
+      <c r="L22" s="72"/>
+      <c r="M22" s="72"/>
+      <c r="N22" s="72"/>
+      <c r="O22" s="72"/>
+      <c r="P22" s="72"/>
       <c r="Q22" s="71"/>
       <c r="R22" s="71"/>
       <c r="S22" s="71"/>
       <c r="T22" s="71"/>
     </row>
     <row r="23" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="79"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="81"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="73"/>
       <c r="I23" s="37"/>
-      <c r="J23" s="78"/>
-      <c r="K23" s="77"/>
-      <c r="L23" s="77"/>
-      <c r="M23" s="77"/>
-      <c r="N23" s="77"/>
-      <c r="O23" s="77"/>
-      <c r="P23" s="77"/>
+      <c r="J23" s="80"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="72"/>
+      <c r="M23" s="72"/>
+      <c r="N23" s="72"/>
+      <c r="O23" s="72"/>
+      <c r="P23" s="72"/>
       <c r="Q23" s="71"/>
       <c r="R23" s="71"/>
       <c r="S23" s="71"/>
       <c r="T23" s="71"/>
     </row>
     <row r="24" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="75" t="s">
+      <c r="B24" s="78" t="s">
+        <v>191</v>
+      </c>
+      <c r="C24" s="73" t="s">
         <v>192</v>
       </c>
-      <c r="C24" s="81" t="s">
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="78" t="s">
         <v>193</v>
       </c>
-      <c r="D24" s="81"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="81"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="75" t="s">
+      <c r="K24" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="K24" s="77" t="s">
+      <c r="L24" s="72"/>
+      <c r="M24" s="72"/>
+      <c r="N24" s="72"/>
+      <c r="O24" s="72"/>
+      <c r="P24" s="72"/>
+      <c r="Q24" s="71" t="s">
         <v>195</v>
       </c>
-      <c r="L24" s="77"/>
-      <c r="M24" s="77"/>
-      <c r="N24" s="77"/>
-      <c r="O24" s="77"/>
-      <c r="P24" s="77"/>
-      <c r="Q24" s="83" t="s">
+      <c r="R24" s="71"/>
+      <c r="S24" s="71"/>
+      <c r="T24" s="71"/>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B25" s="78"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="78"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="72"/>
+      <c r="M25" s="72"/>
+      <c r="N25" s="72"/>
+      <c r="O25" s="72"/>
+      <c r="P25" s="72"/>
+      <c r="Q25" s="71"/>
+      <c r="R25" s="71"/>
+      <c r="S25" s="71"/>
+      <c r="T25" s="71"/>
+    </row>
+    <row r="26" spans="2:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="78"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="78"/>
+      <c r="K26" s="72"/>
+      <c r="L26" s="72"/>
+      <c r="M26" s="72"/>
+      <c r="N26" s="72"/>
+      <c r="O26" s="72"/>
+      <c r="P26" s="72"/>
+      <c r="Q26" s="71"/>
+      <c r="R26" s="71"/>
+      <c r="S26" s="71"/>
+      <c r="T26" s="71"/>
+    </row>
+    <row r="27" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="74" t="s">
         <v>196</v>
       </c>
-      <c r="R24" s="83"/>
-      <c r="S24" s="83"/>
-      <c r="T24" s="83"/>
-    </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B25" s="75"/>
-      <c r="C25" s="81"/>
-      <c r="D25" s="81"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="81"/>
-      <c r="G25" s="81"/>
-      <c r="H25" s="81"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="75"/>
-      <c r="K25" s="77"/>
-      <c r="L25" s="77"/>
-      <c r="M25" s="77"/>
-      <c r="N25" s="77"/>
-      <c r="O25" s="77"/>
-      <c r="P25" s="77"/>
-      <c r="Q25" s="83"/>
-      <c r="R25" s="83"/>
-      <c r="S25" s="83"/>
-      <c r="T25" s="83"/>
-    </row>
-    <row r="26" spans="2:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="75"/>
-      <c r="C26" s="81"/>
-      <c r="D26" s="81"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="81"/>
-      <c r="G26" s="81"/>
-      <c r="H26" s="81"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="75"/>
-      <c r="K26" s="77"/>
-      <c r="L26" s="77"/>
-      <c r="M26" s="77"/>
-      <c r="N26" s="77"/>
-      <c r="O26" s="77"/>
-      <c r="P26" s="77"/>
-      <c r="Q26" s="83"/>
-      <c r="R26" s="83"/>
-      <c r="S26" s="83"/>
-      <c r="T26" s="83"/>
-    </row>
-    <row r="27" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="80" t="s">
+      <c r="C27" s="73" t="s">
         <v>197</v>
       </c>
-      <c r="C27" s="74" t="s">
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="78" t="s">
         <v>198</v>
       </c>
-      <c r="D27" s="74"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="74"/>
-      <c r="G27" s="74"/>
-      <c r="H27" s="74"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="75" t="s">
+      <c r="K27" s="72" t="s">
         <v>199</v>
       </c>
-      <c r="K27" s="77" t="s">
+      <c r="L27" s="72"/>
+      <c r="M27" s="72"/>
+      <c r="N27" s="72"/>
+      <c r="O27" s="72"/>
+      <c r="P27" s="72"/>
+      <c r="Q27" s="73" t="s">
         <v>200</v>
       </c>
-      <c r="L27" s="77"/>
-      <c r="M27" s="77"/>
-      <c r="N27" s="77"/>
-      <c r="O27" s="77"/>
-      <c r="P27" s="77"/>
-      <c r="Q27" s="77" t="s">
+      <c r="R27" s="73"/>
+      <c r="S27" s="73"/>
+      <c r="T27" s="73"/>
+    </row>
+    <row r="28" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="74"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="78"/>
+      <c r="K28" s="72"/>
+      <c r="L28" s="72"/>
+      <c r="M28" s="72"/>
+      <c r="N28" s="72"/>
+      <c r="O28" s="72"/>
+      <c r="P28" s="72"/>
+      <c r="Q28" s="73"/>
+      <c r="R28" s="73"/>
+      <c r="S28" s="73"/>
+      <c r="T28" s="73"/>
+    </row>
+    <row r="29" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="74" t="s">
         <v>201</v>
       </c>
-      <c r="R27" s="77"/>
-      <c r="S27" s="77"/>
-      <c r="T27" s="77"/>
-    </row>
-    <row r="28" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="80"/>
-      <c r="C28" s="74"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="74"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="75"/>
-      <c r="K28" s="77"/>
-      <c r="L28" s="77"/>
-      <c r="M28" s="77"/>
-      <c r="N28" s="77"/>
-      <c r="O28" s="77"/>
-      <c r="P28" s="77"/>
-      <c r="Q28" s="77"/>
-      <c r="R28" s="77"/>
-      <c r="S28" s="77"/>
-      <c r="T28" s="77"/>
-    </row>
-    <row r="29" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="80" t="s">
+      <c r="C29" s="100" t="s">
         <v>202</v>
       </c>
-      <c r="C29" s="81" t="s">
+      <c r="D29" s="101"/>
+      <c r="E29" s="101"/>
+      <c r="F29" s="101"/>
+      <c r="G29" s="101"/>
+      <c r="H29" s="102"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="78"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="72"/>
+      <c r="N29" s="72"/>
+      <c r="O29" s="72"/>
+      <c r="P29" s="72"/>
+      <c r="Q29" s="73"/>
+      <c r="R29" s="73"/>
+      <c r="S29" s="73"/>
+      <c r="T29" s="73"/>
+    </row>
+    <row r="30" spans="2:20" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="74"/>
+      <c r="C30" s="103"/>
+      <c r="D30" s="104"/>
+      <c r="E30" s="104"/>
+      <c r="F30" s="104"/>
+      <c r="G30" s="104"/>
+      <c r="H30" s="105"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="78"/>
+      <c r="K30" s="72"/>
+      <c r="L30" s="72"/>
+      <c r="M30" s="72"/>
+      <c r="N30" s="72"/>
+      <c r="O30" s="72"/>
+      <c r="P30" s="72"/>
+      <c r="Q30" s="73"/>
+      <c r="R30" s="73"/>
+      <c r="S30" s="73"/>
+      <c r="T30" s="73"/>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="J31" s="78"/>
+      <c r="K31" s="72"/>
+      <c r="L31" s="72"/>
+      <c r="M31" s="72"/>
+      <c r="N31" s="72"/>
+      <c r="O31" s="72"/>
+      <c r="P31" s="72"/>
+      <c r="Q31" s="73"/>
+      <c r="R31" s="73"/>
+      <c r="S31" s="73"/>
+      <c r="T31" s="73"/>
+    </row>
+    <row r="32" spans="2:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J32" s="78" t="s">
         <v>203</v>
       </c>
-      <c r="D29" s="81"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="75"/>
-      <c r="K29" s="77"/>
-      <c r="L29" s="77"/>
-      <c r="M29" s="77"/>
-      <c r="N29" s="77"/>
-      <c r="O29" s="77"/>
-      <c r="P29" s="77"/>
-      <c r="Q29" s="77"/>
-      <c r="R29" s="77"/>
-      <c r="S29" s="77"/>
-      <c r="T29" s="77"/>
-    </row>
-    <row r="30" spans="2:20" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="80"/>
-      <c r="C30" s="81"/>
-      <c r="D30" s="81"/>
-      <c r="E30" s="81"/>
-      <c r="F30" s="81"/>
-      <c r="G30" s="81"/>
-      <c r="H30" s="81"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="75"/>
-      <c r="K30" s="77"/>
-      <c r="L30" s="77"/>
-      <c r="M30" s="77"/>
-      <c r="N30" s="77"/>
-      <c r="O30" s="77"/>
-      <c r="P30" s="77"/>
-      <c r="Q30" s="77"/>
-      <c r="R30" s="77"/>
-      <c r="S30" s="77"/>
-      <c r="T30" s="77"/>
-    </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="J31" s="75"/>
-      <c r="K31" s="77"/>
-      <c r="L31" s="77"/>
-      <c r="M31" s="77"/>
-      <c r="N31" s="77"/>
-      <c r="O31" s="77"/>
-      <c r="P31" s="77"/>
-      <c r="Q31" s="77"/>
-      <c r="R31" s="77"/>
-      <c r="S31" s="77"/>
-      <c r="T31" s="77"/>
-    </row>
-    <row r="32" spans="2:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J32" s="75" t="s">
+      <c r="K32" s="72" t="s">
         <v>204</v>
       </c>
-      <c r="K32" s="74" t="s">
-        <v>205</v>
-      </c>
-      <c r="L32" s="74"/>
-      <c r="M32" s="74"/>
-      <c r="N32" s="74"/>
-      <c r="O32" s="74"/>
-      <c r="P32" s="74"/>
+      <c r="L32" s="72"/>
+      <c r="M32" s="72"/>
+      <c r="N32" s="72"/>
+      <c r="O32" s="72"/>
+      <c r="P32" s="72"/>
       <c r="Q32" s="71"/>
       <c r="R32" s="71"/>
       <c r="S32" s="71"/>
@@ -10121,7 +10162,7 @@
     </row>
     <row r="33" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="39" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C33" s="39"/>
       <c r="D33" s="39"/>
@@ -10130,112 +10171,112 @@
       <c r="G33" s="39"/>
       <c r="H33" s="39"/>
       <c r="I33" s="39"/>
-      <c r="J33" s="75"/>
-      <c r="K33" s="74"/>
-      <c r="L33" s="74"/>
-      <c r="M33" s="74"/>
-      <c r="N33" s="74"/>
-      <c r="O33" s="74"/>
-      <c r="P33" s="74"/>
+      <c r="J33" s="78"/>
+      <c r="K33" s="72"/>
+      <c r="L33" s="72"/>
+      <c r="M33" s="72"/>
+      <c r="N33" s="72"/>
+      <c r="O33" s="72"/>
+      <c r="P33" s="72"/>
       <c r="Q33" s="71"/>
       <c r="R33" s="71"/>
       <c r="S33" s="71"/>
       <c r="T33" s="71"/>
     </row>
     <row r="34" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="76" t="s">
-        <v>207</v>
-      </c>
-      <c r="C34" s="76"/>
-      <c r="D34" s="76"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="76"/>
-      <c r="G34" s="76"/>
-      <c r="H34" s="76"/>
+      <c r="B34" s="79" t="s">
+        <v>206</v>
+      </c>
+      <c r="C34" s="79"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="79"/>
+      <c r="F34" s="79"/>
+      <c r="G34" s="79"/>
+      <c r="H34" s="79"/>
       <c r="I34" s="39"/>
-      <c r="J34" s="75"/>
-      <c r="K34" s="74"/>
-      <c r="L34" s="74"/>
-      <c r="M34" s="74"/>
-      <c r="N34" s="74"/>
-      <c r="O34" s="74"/>
-      <c r="P34" s="74"/>
+      <c r="J34" s="78"/>
+      <c r="K34" s="72"/>
+      <c r="L34" s="72"/>
+      <c r="M34" s="72"/>
+      <c r="N34" s="72"/>
+      <c r="O34" s="72"/>
+      <c r="P34" s="72"/>
       <c r="Q34" s="71"/>
       <c r="R34" s="71"/>
       <c r="S34" s="71"/>
       <c r="T34" s="71"/>
     </row>
     <row r="35" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="76"/>
-      <c r="C35" s="76"/>
-      <c r="D35" s="76"/>
-      <c r="E35" s="76"/>
-      <c r="F35" s="76"/>
-      <c r="G35" s="76"/>
-      <c r="H35" s="76"/>
+      <c r="B35" s="79"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="79"/>
+      <c r="F35" s="79"/>
+      <c r="G35" s="79"/>
+      <c r="H35" s="79"/>
       <c r="I35" s="39"/>
-      <c r="J35" s="75"/>
-      <c r="K35" s="74"/>
-      <c r="L35" s="74"/>
-      <c r="M35" s="74"/>
-      <c r="N35" s="74"/>
-      <c r="O35" s="74"/>
-      <c r="P35" s="74"/>
+      <c r="J35" s="78"/>
+      <c r="K35" s="72"/>
+      <c r="L35" s="72"/>
+      <c r="M35" s="72"/>
+      <c r="N35" s="72"/>
+      <c r="O35" s="72"/>
+      <c r="P35" s="72"/>
       <c r="Q35" s="71"/>
       <c r="R35" s="71"/>
       <c r="S35" s="71"/>
       <c r="T35" s="71"/>
     </row>
     <row r="36" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="76"/>
-      <c r="C36" s="76"/>
-      <c r="D36" s="76"/>
-      <c r="E36" s="76"/>
-      <c r="F36" s="76"/>
-      <c r="G36" s="76"/>
-      <c r="H36" s="76"/>
+      <c r="B36" s="79"/>
+      <c r="C36" s="79"/>
+      <c r="D36" s="79"/>
+      <c r="E36" s="79"/>
+      <c r="F36" s="79"/>
+      <c r="G36" s="79"/>
+      <c r="H36" s="79"/>
       <c r="I36" s="39"/>
-      <c r="J36" s="75"/>
-      <c r="K36" s="74"/>
-      <c r="L36" s="74"/>
-      <c r="M36" s="74"/>
-      <c r="N36" s="74"/>
-      <c r="O36" s="74"/>
-      <c r="P36" s="74"/>
+      <c r="J36" s="78"/>
+      <c r="K36" s="72"/>
+      <c r="L36" s="72"/>
+      <c r="M36" s="72"/>
+      <c r="N36" s="72"/>
+      <c r="O36" s="72"/>
+      <c r="P36" s="72"/>
       <c r="Q36" s="71"/>
       <c r="R36" s="71"/>
       <c r="S36" s="71"/>
       <c r="T36" s="71"/>
     </row>
     <row r="37" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="76"/>
-      <c r="C37" s="76"/>
-      <c r="D37" s="76"/>
-      <c r="E37" s="76"/>
-      <c r="F37" s="76"/>
-      <c r="G37" s="76"/>
-      <c r="H37" s="76"/>
+      <c r="B37" s="79"/>
+      <c r="C37" s="79"/>
+      <c r="D37" s="79"/>
+      <c r="E37" s="79"/>
+      <c r="F37" s="79"/>
+      <c r="G37" s="79"/>
+      <c r="H37" s="79"/>
       <c r="I37" s="39"/>
-      <c r="J37" s="75"/>
-      <c r="K37" s="74"/>
-      <c r="L37" s="74"/>
-      <c r="M37" s="74"/>
-      <c r="N37" s="74"/>
-      <c r="O37" s="74"/>
-      <c r="P37" s="74"/>
+      <c r="J37" s="78"/>
+      <c r="K37" s="72"/>
+      <c r="L37" s="72"/>
+      <c r="M37" s="72"/>
+      <c r="N37" s="72"/>
+      <c r="O37" s="72"/>
+      <c r="P37" s="72"/>
       <c r="Q37" s="71"/>
       <c r="R37" s="71"/>
       <c r="S37" s="71"/>
       <c r="T37" s="71"/>
     </row>
     <row r="38" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="76"/>
-      <c r="C38" s="76"/>
-      <c r="D38" s="76"/>
-      <c r="E38" s="76"/>
-      <c r="F38" s="76"/>
-      <c r="G38" s="76"/>
-      <c r="H38" s="76"/>
+      <c r="B38" s="79"/>
+      <c r="C38" s="79"/>
+      <c r="D38" s="79"/>
+      <c r="E38" s="79"/>
+      <c r="F38" s="79"/>
+      <c r="G38" s="79"/>
+      <c r="H38" s="79"/>
       <c r="I38" s="39"/>
       <c r="K38" s="39"/>
       <c r="L38" s="39"/>
@@ -10246,13 +10287,13 @@
       <c r="Q38" s="39"/>
     </row>
     <row r="39" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="76"/>
-      <c r="C39" s="76"/>
-      <c r="D39" s="76"/>
-      <c r="E39" s="76"/>
-      <c r="F39" s="76"/>
-      <c r="G39" s="76"/>
-      <c r="H39" s="76"/>
+      <c r="B39" s="79"/>
+      <c r="C39" s="79"/>
+      <c r="D39" s="79"/>
+      <c r="E39" s="79"/>
+      <c r="F39" s="79"/>
+      <c r="G39" s="79"/>
+      <c r="H39" s="79"/>
       <c r="I39" s="39"/>
       <c r="J39" s="39"/>
       <c r="K39" s="39"/>
@@ -10264,13 +10305,13 @@
       <c r="Q39" s="39"/>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B40" s="76"/>
-      <c r="C40" s="76"/>
-      <c r="D40" s="76"/>
-      <c r="E40" s="76"/>
-      <c r="F40" s="76"/>
-      <c r="G40" s="76"/>
-      <c r="H40" s="76"/>
+      <c r="B40" s="79"/>
+      <c r="C40" s="79"/>
+      <c r="D40" s="79"/>
+      <c r="E40" s="79"/>
+      <c r="F40" s="79"/>
+      <c r="G40" s="79"/>
+      <c r="H40" s="79"/>
       <c r="I40" s="39"/>
       <c r="J40" s="39"/>
       <c r="K40" s="39"/>
@@ -10278,13 +10319,13 @@
       <c r="M40" s="39"/>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B41" s="76"/>
-      <c r="C41" s="76"/>
-      <c r="D41" s="76"/>
-      <c r="E41" s="76"/>
-      <c r="F41" s="76"/>
-      <c r="G41" s="76"/>
-      <c r="H41" s="76"/>
+      <c r="B41" s="79"/>
+      <c r="C41" s="79"/>
+      <c r="D41" s="79"/>
+      <c r="E41" s="79"/>
+      <c r="F41" s="79"/>
+      <c r="G41" s="79"/>
+      <c r="H41" s="79"/>
       <c r="I41" s="39"/>
       <c r="J41" s="39"/>
       <c r="K41" s="39"/>
@@ -10292,13 +10333,13 @@
       <c r="M41" s="39"/>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B42" s="76"/>
-      <c r="C42" s="76"/>
-      <c r="D42" s="76"/>
-      <c r="E42" s="76"/>
-      <c r="F42" s="76"/>
-      <c r="G42" s="76"/>
-      <c r="H42" s="76"/>
+      <c r="B42" s="79"/>
+      <c r="C42" s="79"/>
+      <c r="D42" s="79"/>
+      <c r="E42" s="79"/>
+      <c r="F42" s="79"/>
+      <c r="G42" s="79"/>
+      <c r="H42" s="79"/>
       <c r="I42" s="39"/>
       <c r="J42" s="39"/>
       <c r="K42" s="39"/>
@@ -10306,13 +10347,13 @@
       <c r="M42" s="39"/>
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B43" s="76"/>
-      <c r="C43" s="76"/>
-      <c r="D43" s="76"/>
-      <c r="E43" s="76"/>
-      <c r="F43" s="76"/>
-      <c r="G43" s="76"/>
-      <c r="H43" s="76"/>
+      <c r="B43" s="79"/>
+      <c r="C43" s="79"/>
+      <c r="D43" s="79"/>
+      <c r="E43" s="79"/>
+      <c r="F43" s="79"/>
+      <c r="G43" s="79"/>
+      <c r="H43" s="79"/>
       <c r="I43" s="39"/>
       <c r="J43" s="39"/>
       <c r="K43" s="39"/>
@@ -10320,13 +10361,13 @@
       <c r="M43" s="39"/>
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B44" s="76"/>
-      <c r="C44" s="76"/>
-      <c r="D44" s="76"/>
-      <c r="E44" s="76"/>
-      <c r="F44" s="76"/>
-      <c r="G44" s="76"/>
-      <c r="H44" s="76"/>
+      <c r="B44" s="79"/>
+      <c r="C44" s="79"/>
+      <c r="D44" s="79"/>
+      <c r="E44" s="79"/>
+      <c r="F44" s="79"/>
+      <c r="G44" s="79"/>
+      <c r="H44" s="79"/>
       <c r="I44" s="39"/>
       <c r="J44" s="39"/>
       <c r="K44" s="39"/>
@@ -10362,12 +10403,12 @@
       <c r="M46" s="39"/>
     </row>
     <row r="47" spans="2:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="70" t="s">
-        <v>220</v>
-      </c>
-      <c r="C47" s="70"/>
-      <c r="D47" s="70"/>
-      <c r="E47" s="70"/>
+      <c r="B47" s="75" t="s">
+        <v>217</v>
+      </c>
+      <c r="C47" s="75"/>
+      <c r="D47" s="75"/>
+      <c r="E47" s="75"/>
       <c r="G47" s="39"/>
       <c r="H47" s="39"/>
       <c r="I47" s="39"/>
@@ -10377,14 +10418,14 @@
       <c r="M47" s="39"/>
     </row>
     <row r="48" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B48" s="70"/>
-      <c r="C48" s="70"/>
-      <c r="D48" s="70"/>
-      <c r="E48" s="70"/>
+      <c r="B48" s="75"/>
+      <c r="C48" s="75"/>
+      <c r="D48" s="75"/>
+      <c r="E48" s="75"/>
       <c r="G48" s="39"/>
       <c r="H48" s="39"/>
       <c r="I48" s="39" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J48" s="39"/>
       <c r="K48" s="39"/>
@@ -10393,7 +10434,7 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B49" s="30" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G49" s="39"/>
       <c r="H49" s="39"/>
@@ -10405,17 +10446,17 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="B50" s="77" t="s">
         <v>210</v>
       </c>
-      <c r="B50" s="73" t="s">
-        <v>211</v>
-      </c>
-      <c r="C50" s="73"/>
-      <c r="D50" s="73"/>
-      <c r="E50" s="73" t="s">
-        <v>212</v>
-      </c>
-      <c r="F50" s="73"/>
+      <c r="C50" s="77"/>
+      <c r="D50" s="77"/>
+      <c r="E50" s="84" t="s">
+        <v>257</v>
+      </c>
+      <c r="F50" s="77"/>
       <c r="G50" s="41"/>
       <c r="H50" s="39"/>
       <c r="I50" s="39"/>
@@ -10425,17 +10466,17 @@
       <c r="M50" s="39"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B51" s="73" t="s">
-        <v>213</v>
-      </c>
-      <c r="C51" s="73"/>
-      <c r="D51" s="73"/>
-      <c r="E51" s="73" t="s">
-        <v>214</v>
-      </c>
-      <c r="F51" s="73"/>
+      <c r="B51" s="84" t="s">
+        <v>258</v>
+      </c>
+      <c r="C51" s="77"/>
+      <c r="D51" s="77"/>
+      <c r="E51" s="77" t="s">
+        <v>211</v>
+      </c>
+      <c r="F51" s="77"/>
       <c r="G51" s="41" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H51" s="39"/>
       <c r="I51" s="39"/>
@@ -10446,29 +10487,16 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C52" s="30" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B55" s="30" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B6:D7"/>
-    <mergeCell ref="B1:H2"/>
-    <mergeCell ref="Q24:T26"/>
-    <mergeCell ref="Q21:T23"/>
-    <mergeCell ref="K21:P23"/>
-    <mergeCell ref="K24:P26"/>
-    <mergeCell ref="C27:H28"/>
-    <mergeCell ref="K27:P31"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C21:H23"/>
-    <mergeCell ref="C24:H26"/>
-    <mergeCell ref="C29:H30"/>
     <mergeCell ref="B47:E48"/>
     <mergeCell ref="Q32:T37"/>
     <mergeCell ref="J20:T20"/>
@@ -10485,6 +10513,19 @@
     <mergeCell ref="J24:J26"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C27:H28"/>
+    <mergeCell ref="K27:P31"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C21:H23"/>
+    <mergeCell ref="C24:H26"/>
+    <mergeCell ref="C29:H30"/>
+    <mergeCell ref="B6:D7"/>
+    <mergeCell ref="B1:H2"/>
+    <mergeCell ref="Q24:T26"/>
+    <mergeCell ref="Q21:T23"/>
+    <mergeCell ref="K21:P23"/>
+    <mergeCell ref="K24:P26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10496,161 +10537,161 @@
   <dimension ref="B3:R96"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+      <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="3" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="88" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="100"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
       <c r="P3" s="16"/>
       <c r="Q3" s="16"/>
       <c r="R3" s="16"/>
     </row>
     <row r="4" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
-      <c r="N4" s="100"/>
-      <c r="O4" s="100"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="88"/>
       <c r="P4" s="16"/>
       <c r="Q4" s="16"/>
       <c r="R4" s="16"/>
     </row>
     <row r="5" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="100"/>
-      <c r="O5" s="100"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="88"/>
       <c r="P5" s="16"/>
       <c r="Q5" s="16"/>
       <c r="R5" s="16"/>
     </row>
     <row r="6" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
-      <c r="N6" s="100"/>
-      <c r="O6" s="100"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="88"/>
+      <c r="N6" s="88"/>
+      <c r="O6" s="88"/>
       <c r="P6" s="16"/>
       <c r="Q6" s="16"/>
       <c r="R6" s="16"/>
     </row>
     <row r="7" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
-      <c r="N7" s="100"/>
-      <c r="O7" s="100"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="88"/>
+      <c r="L7" s="88"/>
+      <c r="M7" s="88"/>
+      <c r="N7" s="88"/>
+      <c r="O7" s="88"/>
       <c r="P7" s="16"/>
       <c r="Q7" s="16"/>
       <c r="R7" s="16"/>
     </row>
     <row r="8" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="100"/>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="100"/>
-      <c r="N8" s="100"/>
-      <c r="O8" s="100"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="88"/>
+      <c r="M8" s="88"/>
+      <c r="N8" s="88"/>
+      <c r="O8" s="88"/>
       <c r="P8" s="16"/>
       <c r="Q8" s="16"/>
       <c r="R8" s="16"/>
     </row>
     <row r="9" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="100"/>
-      <c r="C9" s="100"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="100"/>
-      <c r="I9" s="100"/>
-      <c r="J9" s="100"/>
-      <c r="K9" s="100"/>
-      <c r="L9" s="100"/>
-      <c r="M9" s="100"/>
-      <c r="N9" s="100"/>
-      <c r="O9" s="100"/>
+      <c r="B9" s="88"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="88"/>
+      <c r="M9" s="88"/>
+      <c r="N9" s="88"/>
+      <c r="O9" s="88"/>
       <c r="P9" s="16"/>
       <c r="Q9" s="16"/>
       <c r="R9" s="16"/>
     </row>
     <row r="10" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="100"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="100"/>
-      <c r="I10" s="100"/>
-      <c r="J10" s="100"/>
-      <c r="K10" s="100"/>
-      <c r="L10" s="100"/>
-      <c r="M10" s="100"/>
-      <c r="N10" s="100"/>
-      <c r="O10" s="100"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="88"/>
+      <c r="M10" s="88"/>
+      <c r="N10" s="88"/>
+      <c r="O10" s="88"/>
       <c r="P10" s="16"/>
       <c r="Q10" s="16"/>
       <c r="R10" s="16"/>
@@ -10690,11 +10731,11 @@
       <c r="N12" s="16"/>
     </row>
     <row r="13" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="101" t="s">
+      <c r="B13" s="92" t="s">
         <v>130</v>
       </c>
-      <c r="C13" s="101"/>
-      <c r="D13" s="101"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
@@ -10707,452 +10748,452 @@
       <c r="N13" s="16"/>
     </row>
     <row r="14" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="95" t="s">
+      <c r="B14" s="89" t="s">
         <v>116</v>
       </c>
-      <c r="C14" s="98" t="s">
+      <c r="C14" s="82" t="s">
         <v>117</v>
       </c>
-      <c r="D14" s="98"/>
-      <c r="E14" s="98"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="98"/>
-      <c r="H14" s="98"/>
-      <c r="I14" s="98"/>
-      <c r="J14" s="98"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="91"/>
-      <c r="M14" s="91"/>
-      <c r="N14" s="91"/>
-      <c r="O14" s="91"/>
-      <c r="P14" s="93" t="s">
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="83"/>
+      <c r="L14" s="83"/>
+      <c r="M14" s="83"/>
+      <c r="N14" s="83"/>
+      <c r="O14" s="83"/>
+      <c r="P14" s="85" t="s">
         <v>122</v>
       </c>
-      <c r="Q14" s="93"/>
+      <c r="Q14" s="85"/>
     </row>
     <row r="15" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="96"/>
-      <c r="C15" s="98"/>
-      <c r="D15" s="98"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="98"/>
-      <c r="G15" s="98"/>
-      <c r="H15" s="98"/>
-      <c r="I15" s="98"/>
-      <c r="J15" s="98"/>
-      <c r="K15" s="91"/>
-      <c r="L15" s="91"/>
-      <c r="M15" s="91"/>
-      <c r="N15" s="91"/>
-      <c r="O15" s="91"/>
-      <c r="P15" s="93"/>
-      <c r="Q15" s="93"/>
+      <c r="B15" s="90"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="83"/>
+      <c r="L15" s="83"/>
+      <c r="M15" s="83"/>
+      <c r="N15" s="83"/>
+      <c r="O15" s="83"/>
+      <c r="P15" s="85"/>
+      <c r="Q15" s="85"/>
     </row>
     <row r="16" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="97"/>
-      <c r="C16" s="98"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="98"/>
-      <c r="F16" s="98"/>
-      <c r="G16" s="98"/>
-      <c r="H16" s="98"/>
-      <c r="I16" s="98"/>
-      <c r="J16" s="98"/>
-      <c r="K16" s="91"/>
-      <c r="L16" s="91"/>
-      <c r="M16" s="91"/>
-      <c r="N16" s="91"/>
-      <c r="O16" s="91"/>
-      <c r="P16" s="93"/>
-      <c r="Q16" s="93"/>
+      <c r="B16" s="91"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="83"/>
+      <c r="L16" s="83"/>
+      <c r="M16" s="83"/>
+      <c r="N16" s="83"/>
+      <c r="O16" s="83"/>
+      <c r="P16" s="85"/>
+      <c r="Q16" s="85"/>
     </row>
     <row r="17" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="95" t="s">
+      <c r="B17" s="89" t="s">
         <v>118</v>
       </c>
-      <c r="C17" s="98" t="s">
+      <c r="C17" s="82" t="s">
         <v>119</v>
       </c>
-      <c r="D17" s="98"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="98"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="98"/>
-      <c r="J17" s="98"/>
-      <c r="K17" s="91" t="s">
+      <c r="D17" s="82"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="82"/>
+      <c r="K17" s="83" t="s">
         <v>120</v>
       </c>
-      <c r="L17" s="91"/>
-      <c r="M17" s="91"/>
-      <c r="N17" s="91"/>
-      <c r="O17" s="91"/>
-      <c r="P17" s="99"/>
-      <c r="Q17" s="99"/>
+      <c r="L17" s="83"/>
+      <c r="M17" s="83"/>
+      <c r="N17" s="83"/>
+      <c r="O17" s="83"/>
+      <c r="P17" s="84"/>
+      <c r="Q17" s="84"/>
     </row>
     <row r="18" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="96"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="98"/>
-      <c r="F18" s="98"/>
-      <c r="G18" s="98"/>
-      <c r="H18" s="98"/>
-      <c r="I18" s="98"/>
-      <c r="J18" s="98"/>
-      <c r="K18" s="91"/>
-      <c r="L18" s="91"/>
-      <c r="M18" s="91"/>
-      <c r="N18" s="91"/>
-      <c r="O18" s="91"/>
-      <c r="P18" s="99"/>
-      <c r="Q18" s="99"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="82"/>
+      <c r="K18" s="83"/>
+      <c r="L18" s="83"/>
+      <c r="M18" s="83"/>
+      <c r="N18" s="83"/>
+      <c r="O18" s="83"/>
+      <c r="P18" s="84"/>
+      <c r="Q18" s="84"/>
     </row>
     <row r="19" spans="2:17" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="97"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="98"/>
-      <c r="F19" s="98"/>
-      <c r="G19" s="98"/>
-      <c r="H19" s="98"/>
-      <c r="I19" s="98"/>
-      <c r="J19" s="98"/>
-      <c r="K19" s="91"/>
-      <c r="L19" s="91"/>
-      <c r="M19" s="91"/>
-      <c r="N19" s="91"/>
-      <c r="O19" s="91"/>
-      <c r="P19" s="99"/>
-      <c r="Q19" s="99"/>
+      <c r="B19" s="91"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="82"/>
+      <c r="K19" s="83"/>
+      <c r="L19" s="83"/>
+      <c r="M19" s="83"/>
+      <c r="N19" s="83"/>
+      <c r="O19" s="83"/>
+      <c r="P19" s="84"/>
+      <c r="Q19" s="84"/>
     </row>
     <row r="20" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="94" t="s">
         <v>121</v>
       </c>
-      <c r="C20" s="91" t="s">
+      <c r="C20" s="83" t="s">
         <v>123</v>
       </c>
-      <c r="D20" s="91"/>
-      <c r="E20" s="84" t="s">
+      <c r="D20" s="83"/>
+      <c r="E20" s="86" t="s">
         <v>158</v>
       </c>
-      <c r="F20" s="91"/>
-      <c r="G20" s="91"/>
-      <c r="H20" s="91"/>
-      <c r="I20" s="91"/>
-      <c r="J20" s="91"/>
-      <c r="K20" s="91"/>
-      <c r="L20" s="91"/>
-      <c r="M20" s="91"/>
-      <c r="N20" s="91"/>
-      <c r="O20" s="91"/>
-      <c r="P20" s="92" t="s">
+      <c r="F20" s="83"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="83"/>
+      <c r="J20" s="83"/>
+      <c r="K20" s="83"/>
+      <c r="L20" s="83"/>
+      <c r="M20" s="83"/>
+      <c r="N20" s="83"/>
+      <c r="O20" s="83"/>
+      <c r="P20" s="87" t="s">
         <v>138</v>
       </c>
-      <c r="Q20" s="93"/>
+      <c r="Q20" s="85"/>
     </row>
     <row r="21" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="94"/>
-      <c r="C21" s="91" t="s">
+      <c r="C21" s="83" t="s">
         <v>124</v>
       </c>
-      <c r="D21" s="91"/>
-      <c r="E21" s="84" t="s">
+      <c r="D21" s="83"/>
+      <c r="E21" s="86" t="s">
         <v>139</v>
       </c>
-      <c r="F21" s="91"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="91"/>
-      <c r="J21" s="91"/>
-      <c r="K21" s="91" t="s">
+      <c r="F21" s="83"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="83"/>
+      <c r="I21" s="83"/>
+      <c r="J21" s="83"/>
+      <c r="K21" s="83" t="s">
         <v>126</v>
       </c>
-      <c r="L21" s="91"/>
-      <c r="M21" s="91"/>
-      <c r="N21" s="91"/>
-      <c r="O21" s="91"/>
-      <c r="P21" s="93"/>
-      <c r="Q21" s="93"/>
+      <c r="L21" s="83"/>
+      <c r="M21" s="83"/>
+      <c r="N21" s="83"/>
+      <c r="O21" s="83"/>
+      <c r="P21" s="85"/>
+      <c r="Q21" s="85"/>
     </row>
     <row r="22" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="94"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="84" t="s">
+      <c r="C22" s="83"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="86" t="s">
         <v>140</v>
       </c>
-      <c r="F22" s="91"/>
-      <c r="G22" s="91"/>
-      <c r="H22" s="91"/>
-      <c r="I22" s="91"/>
-      <c r="J22" s="91"/>
-      <c r="K22" s="91"/>
-      <c r="L22" s="91"/>
-      <c r="M22" s="91"/>
-      <c r="N22" s="91"/>
-      <c r="O22" s="91"/>
-      <c r="P22" s="93"/>
-      <c r="Q22" s="93"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="83"/>
+      <c r="I22" s="83"/>
+      <c r="J22" s="83"/>
+      <c r="K22" s="83"/>
+      <c r="L22" s="83"/>
+      <c r="M22" s="83"/>
+      <c r="N22" s="83"/>
+      <c r="O22" s="83"/>
+      <c r="P22" s="85"/>
+      <c r="Q22" s="85"/>
     </row>
     <row r="23" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="94"/>
-      <c r="C23" s="91" t="s">
+      <c r="C23" s="83" t="s">
         <v>125</v>
       </c>
-      <c r="D23" s="91"/>
-      <c r="E23" s="84" t="s">
+      <c r="D23" s="83"/>
+      <c r="E23" s="86" t="s">
         <v>141</v>
       </c>
-      <c r="F23" s="91"/>
-      <c r="G23" s="91"/>
-      <c r="H23" s="91"/>
-      <c r="I23" s="91"/>
-      <c r="J23" s="91"/>
-      <c r="K23" s="91" t="s">
+      <c r="F23" s="83"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="83"/>
+      <c r="I23" s="83"/>
+      <c r="J23" s="83"/>
+      <c r="K23" s="83" t="s">
         <v>127</v>
       </c>
-      <c r="L23" s="91"/>
-      <c r="M23" s="91"/>
-      <c r="N23" s="91"/>
-      <c r="O23" s="91"/>
-      <c r="P23" s="93"/>
-      <c r="Q23" s="93"/>
+      <c r="L23" s="83"/>
+      <c r="M23" s="83"/>
+      <c r="N23" s="83"/>
+      <c r="O23" s="83"/>
+      <c r="P23" s="85"/>
+      <c r="Q23" s="85"/>
     </row>
     <row r="24" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="94"/>
-      <c r="C24" s="91"/>
-      <c r="D24" s="91"/>
-      <c r="E24" s="84" t="s">
+      <c r="C24" s="83"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="86" t="s">
         <v>142</v>
       </c>
-      <c r="F24" s="91"/>
-      <c r="G24" s="91"/>
-      <c r="H24" s="91"/>
-      <c r="I24" s="91"/>
-      <c r="J24" s="91"/>
-      <c r="K24" s="84" t="s">
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="83"/>
+      <c r="I24" s="83"/>
+      <c r="J24" s="83"/>
+      <c r="K24" s="86" t="s">
         <v>159</v>
       </c>
-      <c r="L24" s="91"/>
-      <c r="M24" s="91"/>
-      <c r="N24" s="91"/>
-      <c r="O24" s="91"/>
-      <c r="P24" s="93"/>
-      <c r="Q24" s="93"/>
+      <c r="L24" s="83"/>
+      <c r="M24" s="83"/>
+      <c r="N24" s="83"/>
+      <c r="O24" s="83"/>
+      <c r="P24" s="85"/>
+      <c r="Q24" s="85"/>
     </row>
     <row r="25" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="95" t="s">
+      <c r="B25" s="89" t="s">
         <v>129</v>
       </c>
-      <c r="C25" s="98" t="s">
+      <c r="C25" s="82" t="s">
         <v>160</v>
       </c>
-      <c r="D25" s="98"/>
-      <c r="E25" s="98"/>
-      <c r="F25" s="98"/>
-      <c r="G25" s="98"/>
-      <c r="H25" s="98"/>
-      <c r="I25" s="98"/>
-      <c r="J25" s="98"/>
-      <c r="K25" s="91"/>
-      <c r="L25" s="91"/>
-      <c r="M25" s="91"/>
-      <c r="N25" s="91"/>
-      <c r="O25" s="91"/>
-      <c r="P25" s="99"/>
-      <c r="Q25" s="99"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="82"/>
+      <c r="I25" s="82"/>
+      <c r="J25" s="82"/>
+      <c r="K25" s="83"/>
+      <c r="L25" s="83"/>
+      <c r="M25" s="83"/>
+      <c r="N25" s="83"/>
+      <c r="O25" s="83"/>
+      <c r="P25" s="84"/>
+      <c r="Q25" s="84"/>
     </row>
     <row r="26" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="96"/>
-      <c r="C26" s="98"/>
-      <c r="D26" s="98"/>
-      <c r="E26" s="98"/>
-      <c r="F26" s="98"/>
-      <c r="G26" s="98"/>
-      <c r="H26" s="98"/>
-      <c r="I26" s="98"/>
-      <c r="J26" s="98"/>
-      <c r="K26" s="91"/>
-      <c r="L26" s="91"/>
-      <c r="M26" s="91"/>
-      <c r="N26" s="91"/>
-      <c r="O26" s="91"/>
-      <c r="P26" s="99"/>
-      <c r="Q26" s="99"/>
+      <c r="B26" s="90"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="82"/>
+      <c r="J26" s="82"/>
+      <c r="K26" s="83"/>
+      <c r="L26" s="83"/>
+      <c r="M26" s="83"/>
+      <c r="N26" s="83"/>
+      <c r="O26" s="83"/>
+      <c r="P26" s="84"/>
+      <c r="Q26" s="84"/>
     </row>
     <row r="27" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="96"/>
-      <c r="C27" s="98"/>
-      <c r="D27" s="98"/>
-      <c r="E27" s="98"/>
-      <c r="F27" s="98"/>
-      <c r="G27" s="98"/>
-      <c r="H27" s="98"/>
-      <c r="I27" s="98"/>
-      <c r="J27" s="98"/>
-      <c r="K27" s="91"/>
-      <c r="L27" s="91"/>
-      <c r="M27" s="91"/>
-      <c r="N27" s="91"/>
-      <c r="O27" s="91"/>
-      <c r="P27" s="99"/>
-      <c r="Q27" s="99"/>
+      <c r="B27" s="90"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="82"/>
+      <c r="I27" s="82"/>
+      <c r="J27" s="82"/>
+      <c r="K27" s="83"/>
+      <c r="L27" s="83"/>
+      <c r="M27" s="83"/>
+      <c r="N27" s="83"/>
+      <c r="O27" s="83"/>
+      <c r="P27" s="84"/>
+      <c r="Q27" s="84"/>
     </row>
     <row r="28" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="96"/>
-      <c r="C28" s="98"/>
-      <c r="D28" s="98"/>
-      <c r="E28" s="98"/>
-      <c r="F28" s="98"/>
-      <c r="G28" s="98"/>
-      <c r="H28" s="98"/>
-      <c r="I28" s="98"/>
-      <c r="J28" s="98"/>
-      <c r="K28" s="91"/>
-      <c r="L28" s="91"/>
-      <c r="M28" s="91"/>
-      <c r="N28" s="91"/>
-      <c r="O28" s="91"/>
-      <c r="P28" s="99"/>
-      <c r="Q28" s="99"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="82"/>
+      <c r="D28" s="82"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="82"/>
+      <c r="H28" s="82"/>
+      <c r="I28" s="82"/>
+      <c r="J28" s="82"/>
+      <c r="K28" s="83"/>
+      <c r="L28" s="83"/>
+      <c r="M28" s="83"/>
+      <c r="N28" s="83"/>
+      <c r="O28" s="83"/>
+      <c r="P28" s="84"/>
+      <c r="Q28" s="84"/>
     </row>
     <row r="29" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="96"/>
-      <c r="C29" s="98"/>
-      <c r="D29" s="98"/>
-      <c r="E29" s="98"/>
-      <c r="F29" s="98"/>
-      <c r="G29" s="98"/>
-      <c r="H29" s="98"/>
-      <c r="I29" s="98"/>
-      <c r="J29" s="98"/>
-      <c r="K29" s="91"/>
-      <c r="L29" s="91"/>
-      <c r="M29" s="91"/>
-      <c r="N29" s="91"/>
-      <c r="O29" s="91"/>
-      <c r="P29" s="99"/>
-      <c r="Q29" s="99"/>
+      <c r="B29" s="90"/>
+      <c r="C29" s="82"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="82"/>
+      <c r="G29" s="82"/>
+      <c r="H29" s="82"/>
+      <c r="I29" s="82"/>
+      <c r="J29" s="82"/>
+      <c r="K29" s="83"/>
+      <c r="L29" s="83"/>
+      <c r="M29" s="83"/>
+      <c r="N29" s="83"/>
+      <c r="O29" s="83"/>
+      <c r="P29" s="84"/>
+      <c r="Q29" s="84"/>
     </row>
     <row r="30" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="96"/>
-      <c r="C30" s="98"/>
-      <c r="D30" s="98"/>
-      <c r="E30" s="98"/>
-      <c r="F30" s="98"/>
-      <c r="G30" s="98"/>
-      <c r="H30" s="98"/>
-      <c r="I30" s="98"/>
-      <c r="J30" s="98"/>
-      <c r="K30" s="91"/>
-      <c r="L30" s="91"/>
-      <c r="M30" s="91"/>
-      <c r="N30" s="91"/>
-      <c r="O30" s="91"/>
-      <c r="P30" s="99"/>
-      <c r="Q30" s="99"/>
+      <c r="B30" s="90"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="82"/>
+      <c r="E30" s="82"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="82"/>
+      <c r="I30" s="82"/>
+      <c r="J30" s="82"/>
+      <c r="K30" s="83"/>
+      <c r="L30" s="83"/>
+      <c r="M30" s="83"/>
+      <c r="N30" s="83"/>
+      <c r="O30" s="83"/>
+      <c r="P30" s="84"/>
+      <c r="Q30" s="84"/>
     </row>
     <row r="31" spans="2:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="C31" s="98" t="s">
+      <c r="C31" s="82" t="s">
         <v>137</v>
       </c>
-      <c r="D31" s="98"/>
-      <c r="E31" s="98"/>
-      <c r="F31" s="98"/>
-      <c r="G31" s="98"/>
-      <c r="H31" s="98"/>
-      <c r="I31" s="98"/>
-      <c r="J31" s="98"/>
-      <c r="K31" s="91"/>
-      <c r="L31" s="91"/>
-      <c r="M31" s="91"/>
-      <c r="N31" s="91"/>
-      <c r="O31" s="91"/>
-      <c r="P31" s="99"/>
-      <c r="Q31" s="99"/>
+      <c r="D31" s="82"/>
+      <c r="E31" s="82"/>
+      <c r="F31" s="82"/>
+      <c r="G31" s="82"/>
+      <c r="H31" s="82"/>
+      <c r="I31" s="82"/>
+      <c r="J31" s="82"/>
+      <c r="K31" s="83"/>
+      <c r="L31" s="83"/>
+      <c r="M31" s="83"/>
+      <c r="N31" s="83"/>
+      <c r="O31" s="83"/>
+      <c r="P31" s="84"/>
+      <c r="Q31" s="84"/>
     </row>
     <row r="32" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="95" t="s">
+      <c r="B32" s="89" t="s">
         <v>128</v>
       </c>
-      <c r="C32" s="90" t="s">
-        <v>235</v>
-      </c>
-      <c r="D32" s="90"/>
-      <c r="E32" s="90"/>
-      <c r="F32" s="90"/>
-      <c r="G32" s="90"/>
-      <c r="H32" s="90"/>
-      <c r="I32" s="90"/>
-      <c r="J32" s="90"/>
-      <c r="K32" s="91"/>
-      <c r="L32" s="91"/>
-      <c r="M32" s="91"/>
-      <c r="N32" s="91"/>
-      <c r="O32" s="91"/>
-      <c r="P32" s="92" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q32" s="93"/>
+      <c r="C32" s="93" t="s">
+        <v>232</v>
+      </c>
+      <c r="D32" s="93"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="93"/>
+      <c r="G32" s="93"/>
+      <c r="H32" s="93"/>
+      <c r="I32" s="93"/>
+      <c r="J32" s="93"/>
+      <c r="K32" s="83"/>
+      <c r="L32" s="83"/>
+      <c r="M32" s="83"/>
+      <c r="N32" s="83"/>
+      <c r="O32" s="83"/>
+      <c r="P32" s="87" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q32" s="85"/>
     </row>
     <row r="33" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="96"/>
-      <c r="C33" s="90"/>
-      <c r="D33" s="90"/>
-      <c r="E33" s="90"/>
-      <c r="F33" s="90"/>
-      <c r="G33" s="90"/>
-      <c r="H33" s="90"/>
-      <c r="I33" s="90"/>
-      <c r="J33" s="90"/>
-      <c r="K33" s="91"/>
-      <c r="L33" s="91"/>
-      <c r="M33" s="91"/>
-      <c r="N33" s="91"/>
-      <c r="O33" s="91"/>
-      <c r="P33" s="93"/>
-      <c r="Q33" s="93"/>
+      <c r="B33" s="90"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="93"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="93"/>
+      <c r="G33" s="93"/>
+      <c r="H33" s="93"/>
+      <c r="I33" s="93"/>
+      <c r="J33" s="93"/>
+      <c r="K33" s="83"/>
+      <c r="L33" s="83"/>
+      <c r="M33" s="83"/>
+      <c r="N33" s="83"/>
+      <c r="O33" s="83"/>
+      <c r="P33" s="85"/>
+      <c r="Q33" s="85"/>
     </row>
     <row r="34" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="96"/>
-      <c r="C34" s="90"/>
-      <c r="D34" s="90"/>
-      <c r="E34" s="90"/>
-      <c r="F34" s="90"/>
-      <c r="G34" s="90"/>
-      <c r="H34" s="90"/>
-      <c r="I34" s="90"/>
-      <c r="J34" s="90"/>
-      <c r="K34" s="91"/>
-      <c r="L34" s="91"/>
-      <c r="M34" s="91"/>
-      <c r="N34" s="91"/>
-      <c r="O34" s="91"/>
-      <c r="P34" s="93"/>
-      <c r="Q34" s="93"/>
+      <c r="B34" s="90"/>
+      <c r="C34" s="93"/>
+      <c r="D34" s="93"/>
+      <c r="E34" s="93"/>
+      <c r="F34" s="93"/>
+      <c r="G34" s="93"/>
+      <c r="H34" s="93"/>
+      <c r="I34" s="93"/>
+      <c r="J34" s="93"/>
+      <c r="K34" s="83"/>
+      <c r="L34" s="83"/>
+      <c r="M34" s="83"/>
+      <c r="N34" s="83"/>
+      <c r="O34" s="83"/>
+      <c r="P34" s="85"/>
+      <c r="Q34" s="85"/>
     </row>
     <row r="35" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="97"/>
-      <c r="C35" s="90"/>
-      <c r="D35" s="90"/>
-      <c r="E35" s="90"/>
-      <c r="F35" s="90"/>
-      <c r="G35" s="90"/>
-      <c r="H35" s="90"/>
-      <c r="I35" s="90"/>
-      <c r="J35" s="90"/>
-      <c r="K35" s="91"/>
-      <c r="L35" s="91"/>
-      <c r="M35" s="91"/>
-      <c r="N35" s="91"/>
-      <c r="O35" s="91"/>
-      <c r="P35" s="93"/>
-      <c r="Q35" s="93"/>
+      <c r="B35" s="91"/>
+      <c r="C35" s="93"/>
+      <c r="D35" s="93"/>
+      <c r="E35" s="93"/>
+      <c r="F35" s="93"/>
+      <c r="G35" s="93"/>
+      <c r="H35" s="93"/>
+      <c r="I35" s="93"/>
+      <c r="J35" s="93"/>
+      <c r="K35" s="83"/>
+      <c r="L35" s="83"/>
+      <c r="M35" s="83"/>
+      <c r="N35" s="83"/>
+      <c r="O35" s="83"/>
+      <c r="P35" s="85"/>
+      <c r="Q35" s="85"/>
     </row>
     <row r="36" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="33" t="s">
@@ -11233,19 +11274,19 @@
       <c r="N40" s="35"/>
     </row>
     <row r="41" spans="2:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="88" t="s">
+      <c r="B41" s="95" t="s">
         <v>162</v>
       </c>
-      <c r="C41" s="87" t="s">
+      <c r="C41" s="96" t="s">
         <v>163</v>
       </c>
-      <c r="D41" s="87"/>
-      <c r="E41" s="74" t="s">
+      <c r="D41" s="96"/>
+      <c r="E41" s="73" t="s">
         <v>164</v>
       </c>
-      <c r="F41" s="74"/>
-      <c r="G41" s="74"/>
-      <c r="H41" s="74"/>
+      <c r="F41" s="73"/>
+      <c r="G41" s="73"/>
+      <c r="H41" s="73"/>
       <c r="I41" s="34"/>
       <c r="J41" s="34"/>
       <c r="K41" s="34"/>
@@ -11254,13 +11295,13 @@
       <c r="N41" s="35"/>
     </row>
     <row r="42" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="88"/>
-      <c r="C42" s="87"/>
-      <c r="D42" s="87"/>
-      <c r="E42" s="74"/>
-      <c r="F42" s="74"/>
-      <c r="G42" s="74"/>
-      <c r="H42" s="74"/>
+      <c r="B42" s="95"/>
+      <c r="C42" s="96"/>
+      <c r="D42" s="96"/>
+      <c r="E42" s="73"/>
+      <c r="F42" s="73"/>
+      <c r="G42" s="73"/>
+      <c r="H42" s="73"/>
       <c r="I42" s="34"/>
       <c r="J42" s="43" t="s">
         <v>165</v>
@@ -11272,13 +11313,13 @@
       <c r="O42" s="25"/>
     </row>
     <row r="43" spans="2:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="88"/>
-      <c r="C43" s="87"/>
-      <c r="D43" s="87"/>
-      <c r="E43" s="74"/>
-      <c r="F43" s="74"/>
-      <c r="G43" s="74"/>
-      <c r="H43" s="74"/>
+      <c r="B43" s="95"/>
+      <c r="C43" s="96"/>
+      <c r="D43" s="96"/>
+      <c r="E43" s="73"/>
+      <c r="F43" s="73"/>
+      <c r="G43" s="73"/>
+      <c r="H43" s="73"/>
       <c r="I43" s="34"/>
       <c r="J43" s="43" t="s">
         <v>166</v>
@@ -11290,19 +11331,19 @@
       <c r="O43" s="25"/>
     </row>
     <row r="44" spans="2:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="88" t="s">
+      <c r="B44" s="95" t="s">
         <v>167</v>
       </c>
-      <c r="C44" s="89" t="s">
+      <c r="C44" s="97" t="s">
         <v>168</v>
       </c>
-      <c r="D44" s="89"/>
-      <c r="E44" s="74" t="s">
+      <c r="D44" s="97"/>
+      <c r="E44" s="73" t="s">
         <v>169</v>
       </c>
-      <c r="F44" s="74"/>
-      <c r="G44" s="74"/>
-      <c r="H44" s="74"/>
+      <c r="F44" s="73"/>
+      <c r="G44" s="73"/>
+      <c r="H44" s="73"/>
       <c r="I44" s="34"/>
       <c r="J44" s="43" t="s">
         <v>170</v>
@@ -11314,13 +11355,13 @@
       <c r="O44" s="25"/>
     </row>
     <row r="45" spans="2:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="88"/>
-      <c r="C45" s="89"/>
-      <c r="D45" s="89"/>
-      <c r="E45" s="74"/>
-      <c r="F45" s="74"/>
-      <c r="G45" s="74"/>
-      <c r="H45" s="74"/>
+      <c r="B45" s="95"/>
+      <c r="C45" s="97"/>
+      <c r="D45" s="97"/>
+      <c r="E45" s="73"/>
+      <c r="F45" s="73"/>
+      <c r="G45" s="73"/>
+      <c r="H45" s="73"/>
       <c r="I45" s="34"/>
       <c r="J45" s="43" t="s">
         <v>171</v>
@@ -11332,13 +11373,13 @@
       <c r="O45" s="25"/>
     </row>
     <row r="46" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="88"/>
-      <c r="C46" s="89"/>
-      <c r="D46" s="89"/>
-      <c r="E46" s="74"/>
-      <c r="F46" s="74"/>
-      <c r="G46" s="74"/>
-      <c r="H46" s="74"/>
+      <c r="B46" s="95"/>
+      <c r="C46" s="97"/>
+      <c r="D46" s="97"/>
+      <c r="E46" s="73"/>
+      <c r="F46" s="73"/>
+      <c r="G46" s="73"/>
+      <c r="H46" s="73"/>
       <c r="I46" s="34"/>
       <c r="J46" s="34"/>
       <c r="K46" s="34"/>
@@ -11392,17 +11433,17 @@
       <c r="N49" s="35"/>
     </row>
     <row r="50" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="85" t="s">
-        <v>224</v>
-      </c>
-      <c r="C50" s="86"/>
-      <c r="D50" s="87" t="s">
+      <c r="B50" s="98" t="s">
+        <v>221</v>
+      </c>
+      <c r="C50" s="99"/>
+      <c r="D50" s="96" t="s">
         <v>172</v>
       </c>
-      <c r="E50" s="87"/>
-      <c r="F50" s="84"/>
-      <c r="G50" s="84"/>
-      <c r="H50" s="84"/>
+      <c r="E50" s="96"/>
+      <c r="F50" s="86"/>
+      <c r="G50" s="86"/>
+      <c r="H50" s="86"/>
       <c r="I50" s="34"/>
       <c r="J50" s="34"/>
       <c r="K50" s="34"/>
@@ -11411,17 +11452,17 @@
       <c r="N50" s="35"/>
     </row>
     <row r="51" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="85" t="s">
-        <v>225</v>
-      </c>
-      <c r="C51" s="86"/>
-      <c r="D51" s="87" t="s">
+      <c r="B51" s="98" t="s">
+        <v>222</v>
+      </c>
+      <c r="C51" s="99"/>
+      <c r="D51" s="96" t="s">
         <v>173</v>
       </c>
-      <c r="E51" s="87"/>
-      <c r="F51" s="84"/>
-      <c r="G51" s="84"/>
-      <c r="H51" s="84"/>
+      <c r="E51" s="96"/>
+      <c r="F51" s="86"/>
+      <c r="G51" s="86"/>
+      <c r="H51" s="86"/>
       <c r="I51" s="34"/>
       <c r="J51" s="34"/>
       <c r="K51" s="34"/>
@@ -11430,17 +11471,17 @@
       <c r="N51" s="35"/>
     </row>
     <row r="52" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="85" t="s">
-        <v>226</v>
-      </c>
-      <c r="C52" s="86"/>
-      <c r="D52" s="87" t="s">
+      <c r="B52" s="98" t="s">
+        <v>223</v>
+      </c>
+      <c r="C52" s="99"/>
+      <c r="D52" s="96" t="s">
         <v>173</v>
       </c>
-      <c r="E52" s="87"/>
-      <c r="F52" s="84"/>
-      <c r="G52" s="84"/>
-      <c r="H52" s="84"/>
+      <c r="E52" s="96"/>
+      <c r="F52" s="86"/>
+      <c r="G52" s="86"/>
+      <c r="H52" s="86"/>
       <c r="I52" s="34"/>
       <c r="J52" s="34"/>
       <c r="K52" s="34"/>
@@ -11449,18 +11490,18 @@
       <c r="N52" s="35"/>
     </row>
     <row r="53" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="86" t="s">
-        <v>223</v>
-      </c>
-      <c r="C53" s="86"/>
-      <c r="D53" s="87"/>
-      <c r="E53" s="87"/>
-      <c r="F53" s="84"/>
-      <c r="G53" s="84"/>
-      <c r="H53" s="84"/>
+      <c r="B53" s="99" t="s">
+        <v>220</v>
+      </c>
+      <c r="C53" s="99"/>
+      <c r="D53" s="96"/>
+      <c r="E53" s="96"/>
+      <c r="F53" s="86"/>
+      <c r="G53" s="86"/>
+      <c r="H53" s="86"/>
       <c r="I53" s="34"/>
       <c r="J53" s="45" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="K53" s="34"/>
       <c r="L53" s="34"/>
@@ -11468,20 +11509,20 @@
       <c r="N53" s="35"/>
     </row>
     <row r="54" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="85" t="s">
-        <v>227</v>
-      </c>
-      <c r="C54" s="86"/>
-      <c r="D54" s="87"/>
-      <c r="E54" s="87"/>
-      <c r="F54" s="84" t="s">
-        <v>221</v>
-      </c>
-      <c r="G54" s="84"/>
-      <c r="H54" s="84"/>
+      <c r="B54" s="98" t="s">
+        <v>224</v>
+      </c>
+      <c r="C54" s="99"/>
+      <c r="D54" s="96"/>
+      <c r="E54" s="96"/>
+      <c r="F54" s="86" t="s">
+        <v>218</v>
+      </c>
+      <c r="G54" s="86"/>
+      <c r="H54" s="86"/>
       <c r="I54" s="34"/>
       <c r="J54" s="45" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K54" s="34"/>
       <c r="L54" s="34"/>
@@ -11489,18 +11530,18 @@
       <c r="N54" s="35"/>
     </row>
     <row r="55" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="85" t="s">
-        <v>228</v>
-      </c>
-      <c r="C55" s="86"/>
-      <c r="D55" s="87"/>
-      <c r="E55" s="87"/>
-      <c r="F55" s="84"/>
-      <c r="G55" s="84"/>
-      <c r="H55" s="84"/>
+      <c r="B55" s="98" t="s">
+        <v>225</v>
+      </c>
+      <c r="C55" s="99"/>
+      <c r="D55" s="96"/>
+      <c r="E55" s="96"/>
+      <c r="F55" s="86"/>
+      <c r="G55" s="86"/>
+      <c r="H55" s="86"/>
       <c r="I55" s="34"/>
       <c r="J55" s="45" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="K55" s="34"/>
       <c r="L55" s="34"/>
@@ -11508,17 +11549,17 @@
       <c r="N55" s="35"/>
     </row>
     <row r="56" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="85" t="s">
-        <v>229</v>
-      </c>
-      <c r="C56" s="86"/>
-      <c r="D56" s="87"/>
-      <c r="E56" s="87"/>
-      <c r="F56" s="84" t="s">
-        <v>222</v>
-      </c>
-      <c r="G56" s="84"/>
-      <c r="H56" s="84"/>
+      <c r="B56" s="98" t="s">
+        <v>226</v>
+      </c>
+      <c r="C56" s="99"/>
+      <c r="D56" s="96"/>
+      <c r="E56" s="96"/>
+      <c r="F56" s="86" t="s">
+        <v>219</v>
+      </c>
+      <c r="G56" s="86"/>
+      <c r="H56" s="86"/>
       <c r="I56" s="34"/>
       <c r="J56" s="34"/>
       <c r="K56" s="34"/>
@@ -11528,7 +11569,7 @@
     </row>
     <row r="57" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="44" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C57" s="34"/>
       <c r="D57" s="34"/>
@@ -12072,26 +12113,33 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="C25:J30"/>
-    <mergeCell ref="K25:O30"/>
-    <mergeCell ref="P25:Q30"/>
-    <mergeCell ref="P14:Q16"/>
-    <mergeCell ref="P17:Q19"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="P20:Q24"/>
-    <mergeCell ref="K20:O20"/>
-    <mergeCell ref="K22:O22"/>
-    <mergeCell ref="K24:O24"/>
-    <mergeCell ref="B3:O10"/>
-    <mergeCell ref="C14:J16"/>
-    <mergeCell ref="C17:J19"/>
-    <mergeCell ref="K17:O19"/>
-    <mergeCell ref="K14:O16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C41:D43"/>
+    <mergeCell ref="E41:H43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C44:D46"/>
+    <mergeCell ref="E44:H46"/>
     <mergeCell ref="C32:J35"/>
     <mergeCell ref="K32:O35"/>
     <mergeCell ref="P32:Q35"/>
@@ -12108,33 +12156,26 @@
     <mergeCell ref="C31:J31"/>
     <mergeCell ref="K31:O31"/>
     <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C41:D43"/>
-    <mergeCell ref="E41:H43"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="C44:D46"/>
-    <mergeCell ref="E44:H46"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="F54:H54"/>
-    <mergeCell ref="F55:H55"/>
-    <mergeCell ref="F56:H56"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="B3:O10"/>
+    <mergeCell ref="C14:J16"/>
+    <mergeCell ref="C17:J19"/>
+    <mergeCell ref="K17:O19"/>
+    <mergeCell ref="K14:O16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="C25:J30"/>
+    <mergeCell ref="K25:O30"/>
+    <mergeCell ref="P25:Q30"/>
+    <mergeCell ref="P14:Q16"/>
+    <mergeCell ref="P17:Q19"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="P20:Q24"/>
+    <mergeCell ref="K20:O20"/>
+    <mergeCell ref="K22:O22"/>
+    <mergeCell ref="K24:O24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12153,87 +12194,87 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B3" s="45" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B4" s="45" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B5" s="46" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B12" s="29" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B13" s="29" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B14" s="45" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="29" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" s="29" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C24" s="47" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C25" s="47" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B27" s="29" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C27" s="47" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B28" s="29" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C28" s="47" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B29" s="29" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C29" s="47" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B30" s="29" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C30" s="47" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/日语.xlsx
+++ b/日语.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="24880" windowHeight="15560" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="24880" windowHeight="15560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="动词形态" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="tmp" sheetId="9" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">动词形态!$A$1:$E$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">动词形态!$A$2:$E$7</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="264">
   <si>
     <t>三类动词</t>
     <rPh sb="0" eb="1">
@@ -87,10 +87,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 动词“ます形”去掉ます后直接加て</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>“行きます”的て形是“行って”
 动词的た形的变形与て形完全一致（）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,10 +126,6 @@
     <t>1. 词尾不是る结尾的
 2. 以る结尾。 あ、う、お段 + る
 3. 以る结尾。い、え段 + る，但是い、え段假名在汉字上面，如：入(はい)る</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 动词“ます形”去掉ます后直接加て</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1633,104 +1625,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">动词"ます形"去掉"ます"后加"て"。加"て"的时候发音会有些变化。即：
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian (正文)"/>
-        <charset val="134"/>
-      </rPr>
-      <t>"き"-&gt;"いて"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4" tint="-0.249977111117893"/>
-        <rFont val="DengXian (正文)"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>"ぎ"-&gt;"いで"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian (正文)"/>
-        <charset val="134"/>
-      </rPr>
-      <t>“び、み、に"-&gt;"んで"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4" tint="-0.249977111117893"/>
-        <rFont val="DengXian (正文)"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>"ち、り、い"-&gt;"って"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian (正文)"/>
-        <charset val="134"/>
-      </rPr>
-      <t>"し"-&gt;"して"</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>「～する」变为「～し」后接「ない」
 「来る」变为「来（こ）」后接「ない」</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7707,12 +7601,227 @@
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">动词"ます形"去掉"ます"后加"て"。加"て"的时候发音会有些变化。即：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"き"-&gt;"いて"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"ぎ"-&gt;"いで"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“び、み、に"-&gt;"んで"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="DengXian (正文)"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"ち、り、い"-&gt;"って"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"し"-&gt;"して"</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 动词“ます形”去掉ます后直接加て</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 动词“ます形”去掉ます后直接加て</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>する-&gt;して
+来る-&gt;来(き)て</t>
+    <rPh sb="7" eb="8">
+      <t>くr</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>きて</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 动词去掉る后直接加て</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动词词尾有9种：う、く、ぐ、す、つ、ぬ、ぶ、む、る</t>
+    <rPh sb="0" eb="1">
+      <t>dong ci ci wei</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>you</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">词尾: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>う、つ、る  -&gt; って</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+词尾: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>く、ぐ  -&gt; いて・いで</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+词尾: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ぬ、ぶ、む -&gt; んで</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+词尾: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>す -&gt; して</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>ci wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7928,8 +8037,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7981,6 +8098,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8149,7 +8272,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -8260,6 +8383,15 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8272,35 +8404,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8311,44 +8422,50 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8356,65 +8473,17 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -8434,9 +8503,76 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -8718,10 +8854,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8735,247 +8871,272 @@
     <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" s="6" t="s">
+    <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.3">
+      <c r="B1" s="111" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="121" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="E2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="121" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="B3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="12"/>
-    </row>
-    <row r="3" spans="1:6" ht="59" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="F3" s="12"/>
+    </row>
+    <row r="4" spans="1:6" ht="59" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="B4" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="12"/>
-    </row>
-    <row r="4" spans="1:6" ht="89" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="E4" s="5"/>
+      <c r="F4" s="12"/>
+    </row>
+    <row r="5" spans="1:6" ht="89" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="B5" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="88" customHeight="1" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="88" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="18" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="83" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="C8" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="18" t="s">
         <v>108</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="83" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="F9" s="20"/>
-    </row>
-    <row r="10" spans="1:6" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="83" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>90</v>
+        <v>253</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>84</v>
+        <v>249</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>111</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F10" s="12"/>
+        <v>112</v>
+      </c>
+      <c r="F10" s="20"/>
     </row>
     <row r="11" spans="1:6" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="D11" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="12" t="s">
-        <v>100</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="12"/>
     </row>
     <row r="12" spans="1:6" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>102</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="E12" s="5"/>
       <c r="F12" s="12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="E14" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="F13" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+    <row r="15" spans="1:6" s="110" customFormat="1" ht="89" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="107" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="108" t="s">
+        <v>257</v>
+      </c>
+      <c r="C15" s="108" t="s">
+        <v>258</v>
+      </c>
+      <c r="D15" s="108" t="s">
+        <v>259</v>
+      </c>
+      <c r="E15" s="108" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="109" t="s">
+        <v>74</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8999,37 +9160,37 @@
   <sheetData>
     <row r="3" spans="2:8" ht="18" x14ac:dyDescent="0.2">
       <c r="B3" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="18" x14ac:dyDescent="0.2">
       <c r="B4" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="26" t="s">
         <v>15</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="18" x14ac:dyDescent="0.2">
       <c r="B5" s="26" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="18" x14ac:dyDescent="0.2">
       <c r="B6" s="28" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C6" s="28"/>
     </row>
     <row r="9" spans="2:8" ht="19" x14ac:dyDescent="0.25">
       <c r="B9" s="21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -9039,7 +9200,7 @@
     </row>
     <row r="10" spans="2:8" ht="18" x14ac:dyDescent="0.2">
       <c r="B10" s="31" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -9049,105 +9210,110 @@
     </row>
     <row r="11" spans="2:8" ht="18" x14ac:dyDescent="0.2">
       <c r="B11" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="C11" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11" s="51"/>
+        <v>140</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="54"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
     </row>
     <row r="12" spans="2:8" ht="18" x14ac:dyDescent="0.2">
       <c r="B12" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="C12" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="49"/>
+        <v>141</v>
+      </c>
+      <c r="C12" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="52"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
     </row>
     <row r="15" spans="2:8" ht="18" x14ac:dyDescent="0.2">
       <c r="B15" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="52" t="s">
-        <v>145</v>
-      </c>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52" t="s">
-        <v>146</v>
-      </c>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
+        <v>22</v>
+      </c>
+      <c r="C15" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
     </row>
     <row r="16" spans="2:8" ht="18" x14ac:dyDescent="0.2">
       <c r="B16" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="53" t="s">
-        <v>150</v>
-      </c>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="54" t="s">
-        <v>154</v>
-      </c>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
+        <v>25</v>
+      </c>
+      <c r="C16" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
     </row>
     <row r="17" spans="2:8" ht="18" x14ac:dyDescent="0.2">
       <c r="B17" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="53" t="s">
-        <v>151</v>
-      </c>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="54" t="s">
-        <v>155</v>
-      </c>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
+        <v>23</v>
+      </c>
+      <c r="C17" s="48" t="s">
+        <v>148</v>
+      </c>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
     </row>
     <row r="18" spans="2:8" ht="18" x14ac:dyDescent="0.2">
       <c r="B18" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="53" t="s">
-        <v>152</v>
-      </c>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="54" t="s">
-        <v>156</v>
-      </c>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
+        <v>24</v>
+      </c>
+      <c r="C18" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
     </row>
     <row r="19" spans="2:8" ht="18" x14ac:dyDescent="0.2">
       <c r="B19" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="53" t="s">
-        <v>153</v>
-      </c>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="54" t="s">
-        <v>157</v>
-      </c>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
+        <v>26</v>
+      </c>
+      <c r="C19" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="F16:H16"/>
@@ -9155,11 +9321,6 @@
     <mergeCell ref="F18:H18"/>
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9177,10 +9338,10 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="3" spans="1:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="B3" s="58" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="58"/>
+      <c r="B3" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="66"/>
     </row>
     <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
@@ -9196,69 +9357,69 @@
     </row>
     <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
-      <c r="B5" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="59" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
+      <c r="B5" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="60" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
       <c r="B7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
       <c r="B8" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
+        <v>33</v>
+      </c>
+      <c r="C8" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
     </row>
@@ -9288,83 +9449,83 @@
     </row>
     <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
-      <c r="B11" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
+      <c r="B11" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
     </row>
     <row r="12" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="60" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="62" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="64"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="60"/>
     </row>
     <row r="13" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
+        <v>32</v>
+      </c>
+      <c r="C13" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
     </row>
     <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
-      <c r="B14" s="65" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="66" t="s">
-        <v>44</v>
-      </c>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
+      <c r="B14" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
     </row>
     <row r="15" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
     </row>
     <row r="16" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
@@ -9381,16 +9542,16 @@
     <row r="17" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="C17" s="67" t="s">
-        <v>95</v>
-      </c>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
+        <v>91</v>
+      </c>
+      <c r="C17" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -9411,17 +9572,17 @@
     <row r="19" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
       <c r="B19" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="C19" s="55" t="s">
-        <v>97</v>
-      </c>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
+        <v>95</v>
+      </c>
+      <c r="C19" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
       <c r="J19" s="8"/>
     </row>
     <row r="20" spans="1:10" ht="18" x14ac:dyDescent="0.2">
@@ -9438,23 +9599,23 @@
     </row>
     <row r="21" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B21" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B22" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B23" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B24" s="8"/>
       <c r="C24" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -9464,7 +9625,7 @@
     <row r="25" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B25" s="8"/>
       <c r="C25" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -9473,18 +9634,18 @@
     </row>
     <row r="26" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B26" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="28" x14ac:dyDescent="0.3">
+      <c r="B29" s="66" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="B29" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="58"/>
+      <c r="C29" s="66"/>
     </row>
     <row r="30" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B30" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -9492,70 +9653,70 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
+      <c r="B32" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
     </row>
     <row r="33" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="57"/>
-      <c r="C33" s="60" t="s">
-        <v>32</v>
-      </c>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="60" t="s">
-        <v>33</v>
-      </c>
-      <c r="G33" s="60"/>
-      <c r="H33" s="60"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
     </row>
     <row r="34" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="D34" s="55"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="G34" s="55"/>
-      <c r="H34" s="55"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="61"/>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
     </row>
     <row r="35" spans="2:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="D35" s="55"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="G35" s="55"/>
-      <c r="H35" s="55"/>
+        <v>33</v>
+      </c>
+      <c r="C35" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="G35" s="61"/>
+      <c r="H35" s="61"/>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
     </row>
@@ -9582,96 +9743,96 @@
       <c r="J37" s="8"/>
     </row>
     <row r="38" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="61" t="s">
+      <c r="B38" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" s="56"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="56"/>
+      <c r="I38" s="56"/>
+      <c r="J38" s="56"/>
+    </row>
+    <row r="39" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="55"/>
+      <c r="C39" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="C38" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="D38" s="59"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="59"/>
-      <c r="G38" s="59"/>
-      <c r="H38" s="59"/>
-      <c r="I38" s="59"/>
-      <c r="J38" s="59"/>
-    </row>
-    <row r="39" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="61"/>
-      <c r="C39" s="60" t="s">
-        <v>32</v>
-      </c>
-      <c r="D39" s="60"/>
-      <c r="E39" s="60"/>
-      <c r="F39" s="60"/>
-      <c r="G39" s="62" t="s">
-        <v>33</v>
-      </c>
-      <c r="H39" s="63"/>
-      <c r="I39" s="63"/>
-      <c r="J39" s="64"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="H39" s="59"/>
+      <c r="I39" s="59"/>
+      <c r="J39" s="60"/>
     </row>
     <row r="40" spans="2:13" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C40" s="68" t="s">
-        <v>52</v>
-      </c>
-      <c r="D40" s="68"/>
-      <c r="E40" s="68"/>
-      <c r="F40" s="68"/>
-      <c r="G40" s="68" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" s="62"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="62"/>
+      <c r="G40" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="H40" s="62"/>
+      <c r="I40" s="62"/>
+      <c r="J40" s="62"/>
+    </row>
+    <row r="41" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41" s="62"/>
+      <c r="E41" s="62"/>
+      <c r="F41" s="62"/>
+      <c r="G41" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="H40" s="68"/>
-      <c r="I40" s="68"/>
-      <c r="J40" s="68"/>
-    </row>
-    <row r="41" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="65" t="s">
-        <v>35</v>
-      </c>
-      <c r="C41" s="69" t="s">
-        <v>57</v>
-      </c>
-      <c r="D41" s="68"/>
-      <c r="E41" s="68"/>
-      <c r="F41" s="68"/>
-      <c r="G41" s="69" t="s">
+      <c r="H41" s="62"/>
+      <c r="I41" s="62"/>
+      <c r="J41" s="62"/>
+    </row>
+    <row r="42" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="63"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="62"/>
+      <c r="H42" s="62"/>
+      <c r="I42" s="62"/>
+      <c r="J42" s="62"/>
+      <c r="K42" t="s">
         <v>58</v>
-      </c>
-      <c r="H41" s="68"/>
-      <c r="I41" s="68"/>
-      <c r="J41" s="68"/>
-    </row>
-    <row r="42" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="65"/>
-      <c r="C42" s="68"/>
-      <c r="D42" s="68"/>
-      <c r="E42" s="68"/>
-      <c r="F42" s="68"/>
-      <c r="G42" s="68"/>
-      <c r="H42" s="68"/>
-      <c r="I42" s="68"/>
-      <c r="J42" s="68"/>
-      <c r="K42" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="44" spans="2:13" ht="18" x14ac:dyDescent="0.2">
       <c r="B44" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="2:13" ht="18" x14ac:dyDescent="0.2">
       <c r="B45" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="2:13" ht="18" x14ac:dyDescent="0.2">
       <c r="B46" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
@@ -9688,25 +9849,25 @@
     <row r="47" spans="2:13" ht="18" x14ac:dyDescent="0.2">
       <c r="B47" s="8"/>
       <c r="C47" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D47" s="8"/>
     </row>
     <row r="48" spans="2:13" ht="18" x14ac:dyDescent="0.2">
       <c r="B48" s="8"/>
       <c r="C48" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D48" s="8"/>
     </row>
     <row r="49" spans="2:3" ht="18" x14ac:dyDescent="0.2">
       <c r="B49" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="2:3" ht="18" x14ac:dyDescent="0.2">
       <c r="C50" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="2:3" ht="18" x14ac:dyDescent="0.2">
@@ -9714,19 +9875,21 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:F42"/>
-    <mergeCell ref="G41:J42"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="G13:J13"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:F15"/>
     <mergeCell ref="G14:J15"/>
@@ -9737,21 +9900,19 @@
     <mergeCell ref="F33:H33"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="C19:I19"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:F42"/>
+    <mergeCell ref="G41:J42"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="F35:H35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9762,7 +9923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24:H26"/>
     </sheetView>
   </sheetViews>
@@ -9772,389 +9933,389 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="70" t="s">
-        <v>215</v>
-      </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
+      <c r="B1" s="88" t="s">
+        <v>212</v>
+      </c>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
       <c r="I1" s="36"/>
     </row>
     <row r="2" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
       <c r="I2" s="36"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" s="30" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="70" t="s">
-        <v>216</v>
-      </c>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
+      <c r="B6" s="88" t="s">
+        <v>213</v>
+      </c>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="70"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" s="30" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" s="30" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" s="30" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" s="30" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12" s="30" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13" s="30" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="30" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" s="30" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B16" s="30" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B17" s="30" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B18" s="30" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="J20" s="72" t="s">
+        <v>184</v>
+      </c>
+      <c r="K20" s="72"/>
+      <c r="L20" s="72"/>
+      <c r="M20" s="72"/>
+      <c r="N20" s="72"/>
+      <c r="O20" s="72"/>
+      <c r="P20" s="72"/>
+      <c r="Q20" s="72"/>
+      <c r="R20" s="72"/>
+      <c r="S20" s="72"/>
+      <c r="T20" s="72"/>
+    </row>
+    <row r="21" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="80" t="s">
+        <v>185</v>
+      </c>
+      <c r="C21" s="78" t="s">
         <v>186</v>
       </c>
-      <c r="J20" s="76" t="s">
+      <c r="D21" s="78"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="78"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="79" t="s">
         <v>187</v>
       </c>
-      <c r="K20" s="76"/>
-      <c r="L20" s="76"/>
-      <c r="M20" s="76"/>
-      <c r="N20" s="76"/>
-      <c r="O20" s="76"/>
-      <c r="P20" s="76"/>
-      <c r="Q20" s="76"/>
-      <c r="R20" s="76"/>
-      <c r="S20" s="76"/>
-      <c r="T20" s="76"/>
-    </row>
-    <row r="21" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="81" t="s">
-        <v>188</v>
-      </c>
-      <c r="C21" s="73" t="s">
-        <v>189</v>
-      </c>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="73"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="80" t="s">
-        <v>190</v>
-      </c>
-      <c r="K21" s="106" t="s">
-        <v>259</v>
-      </c>
-      <c r="L21" s="72"/>
-      <c r="M21" s="72"/>
-      <c r="N21" s="72"/>
-      <c r="O21" s="72"/>
-      <c r="P21" s="72"/>
+      <c r="K21" s="89" t="s">
+        <v>256</v>
+      </c>
+      <c r="L21" s="75"/>
+      <c r="M21" s="75"/>
+      <c r="N21" s="75"/>
+      <c r="O21" s="75"/>
+      <c r="P21" s="75"/>
       <c r="Q21" s="71"/>
       <c r="R21" s="71"/>
       <c r="S21" s="71"/>
       <c r="T21" s="71"/>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B22" s="81"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="78"/>
       <c r="I22" s="37"/>
-      <c r="J22" s="80"/>
-      <c r="K22" s="72"/>
-      <c r="L22" s="72"/>
-      <c r="M22" s="72"/>
-      <c r="N22" s="72"/>
-      <c r="O22" s="72"/>
-      <c r="P22" s="72"/>
+      <c r="J22" s="79"/>
+      <c r="K22" s="75"/>
+      <c r="L22" s="75"/>
+      <c r="M22" s="75"/>
+      <c r="N22" s="75"/>
+      <c r="O22" s="75"/>
+      <c r="P22" s="75"/>
       <c r="Q22" s="71"/>
       <c r="R22" s="71"/>
       <c r="S22" s="71"/>
       <c r="T22" s="71"/>
     </row>
     <row r="23" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="81"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="73"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="78"/>
       <c r="I23" s="37"/>
-      <c r="J23" s="80"/>
-      <c r="K23" s="72"/>
-      <c r="L23" s="72"/>
-      <c r="M23" s="72"/>
-      <c r="N23" s="72"/>
-      <c r="O23" s="72"/>
-      <c r="P23" s="72"/>
+      <c r="J23" s="79"/>
+      <c r="K23" s="75"/>
+      <c r="L23" s="75"/>
+      <c r="M23" s="75"/>
+      <c r="N23" s="75"/>
+      <c r="O23" s="75"/>
+      <c r="P23" s="75"/>
       <c r="Q23" s="71"/>
       <c r="R23" s="71"/>
       <c r="S23" s="71"/>
       <c r="T23" s="71"/>
     </row>
     <row r="24" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="78" t="s">
+      <c r="B24" s="76" t="s">
+        <v>188</v>
+      </c>
+      <c r="C24" s="78" t="s">
+        <v>189</v>
+      </c>
+      <c r="D24" s="78"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="76" t="s">
+        <v>190</v>
+      </c>
+      <c r="K24" s="75" t="s">
         <v>191</v>
       </c>
-      <c r="C24" s="73" t="s">
+      <c r="L24" s="75"/>
+      <c r="M24" s="75"/>
+      <c r="N24" s="75"/>
+      <c r="O24" s="75"/>
+      <c r="P24" s="75"/>
+      <c r="Q24" s="71" t="s">
         <v>192</v>
-      </c>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="78" t="s">
-        <v>193</v>
-      </c>
-      <c r="K24" s="72" t="s">
-        <v>194</v>
-      </c>
-      <c r="L24" s="72"/>
-      <c r="M24" s="72"/>
-      <c r="N24" s="72"/>
-      <c r="O24" s="72"/>
-      <c r="P24" s="72"/>
-      <c r="Q24" s="71" t="s">
-        <v>195</v>
       </c>
       <c r="R24" s="71"/>
       <c r="S24" s="71"/>
       <c r="T24" s="71"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B25" s="78"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="78"/>
       <c r="I25" s="37"/>
-      <c r="J25" s="78"/>
-      <c r="K25" s="72"/>
-      <c r="L25" s="72"/>
-      <c r="M25" s="72"/>
-      <c r="N25" s="72"/>
-      <c r="O25" s="72"/>
-      <c r="P25" s="72"/>
+      <c r="J25" s="76"/>
+      <c r="K25" s="75"/>
+      <c r="L25" s="75"/>
+      <c r="M25" s="75"/>
+      <c r="N25" s="75"/>
+      <c r="O25" s="75"/>
+      <c r="P25" s="75"/>
       <c r="Q25" s="71"/>
       <c r="R25" s="71"/>
       <c r="S25" s="71"/>
       <c r="T25" s="71"/>
     </row>
     <row r="26" spans="2:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="78"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="78"/>
       <c r="I26" s="37"/>
-      <c r="J26" s="78"/>
-      <c r="K26" s="72"/>
-      <c r="L26" s="72"/>
-      <c r="M26" s="72"/>
-      <c r="N26" s="72"/>
-      <c r="O26" s="72"/>
-      <c r="P26" s="72"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="75"/>
+      <c r="L26" s="75"/>
+      <c r="M26" s="75"/>
+      <c r="N26" s="75"/>
+      <c r="O26" s="75"/>
+      <c r="P26" s="75"/>
       <c r="Q26" s="71"/>
       <c r="R26" s="71"/>
       <c r="S26" s="71"/>
       <c r="T26" s="71"/>
     </row>
     <row r="27" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="74" t="s">
+      <c r="B27" s="81" t="s">
+        <v>193</v>
+      </c>
+      <c r="C27" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="D27" s="78"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="78"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="76" t="s">
+        <v>195</v>
+      </c>
+      <c r="K27" s="75" t="s">
         <v>196</v>
       </c>
-      <c r="C27" s="73" t="s">
+      <c r="L27" s="75"/>
+      <c r="M27" s="75"/>
+      <c r="N27" s="75"/>
+      <c r="O27" s="75"/>
+      <c r="P27" s="75"/>
+      <c r="Q27" s="78" t="s">
         <v>197</v>
       </c>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="73"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="78" t="s">
+      <c r="R27" s="78"/>
+      <c r="S27" s="78"/>
+      <c r="T27" s="78"/>
+    </row>
+    <row r="28" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="81"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="78"/>
+      <c r="E28" s="78"/>
+      <c r="F28" s="78"/>
+      <c r="G28" s="78"/>
+      <c r="H28" s="78"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="75"/>
+      <c r="L28" s="75"/>
+      <c r="M28" s="75"/>
+      <c r="N28" s="75"/>
+      <c r="O28" s="75"/>
+      <c r="P28" s="75"/>
+      <c r="Q28" s="78"/>
+      <c r="R28" s="78"/>
+      <c r="S28" s="78"/>
+      <c r="T28" s="78"/>
+    </row>
+    <row r="29" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="81" t="s">
         <v>198</v>
       </c>
-      <c r="K27" s="72" t="s">
+      <c r="C29" s="82" t="s">
         <v>199</v>
       </c>
-      <c r="L27" s="72"/>
-      <c r="M27" s="72"/>
-      <c r="N27" s="72"/>
-      <c r="O27" s="72"/>
-      <c r="P27" s="72"/>
-      <c r="Q27" s="73" t="s">
+      <c r="D29" s="83"/>
+      <c r="E29" s="83"/>
+      <c r="F29" s="83"/>
+      <c r="G29" s="83"/>
+      <c r="H29" s="84"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="76"/>
+      <c r="K29" s="75"/>
+      <c r="L29" s="75"/>
+      <c r="M29" s="75"/>
+      <c r="N29" s="75"/>
+      <c r="O29" s="75"/>
+      <c r="P29" s="75"/>
+      <c r="Q29" s="78"/>
+      <c r="R29" s="78"/>
+      <c r="S29" s="78"/>
+      <c r="T29" s="78"/>
+    </row>
+    <row r="30" spans="2:20" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="81"/>
+      <c r="C30" s="85"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="86"/>
+      <c r="G30" s="86"/>
+      <c r="H30" s="87"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="76"/>
+      <c r="K30" s="75"/>
+      <c r="L30" s="75"/>
+      <c r="M30" s="75"/>
+      <c r="N30" s="75"/>
+      <c r="O30" s="75"/>
+      <c r="P30" s="75"/>
+      <c r="Q30" s="78"/>
+      <c r="R30" s="78"/>
+      <c r="S30" s="78"/>
+      <c r="T30" s="78"/>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="J31" s="76"/>
+      <c r="K31" s="75"/>
+      <c r="L31" s="75"/>
+      <c r="M31" s="75"/>
+      <c r="N31" s="75"/>
+      <c r="O31" s="75"/>
+      <c r="P31" s="75"/>
+      <c r="Q31" s="78"/>
+      <c r="R31" s="78"/>
+      <c r="S31" s="78"/>
+      <c r="T31" s="78"/>
+    </row>
+    <row r="32" spans="2:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J32" s="76" t="s">
         <v>200</v>
       </c>
-      <c r="R27" s="73"/>
-      <c r="S27" s="73"/>
-      <c r="T27" s="73"/>
-    </row>
-    <row r="28" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="74"/>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="78"/>
-      <c r="K28" s="72"/>
-      <c r="L28" s="72"/>
-      <c r="M28" s="72"/>
-      <c r="N28" s="72"/>
-      <c r="O28" s="72"/>
-      <c r="P28" s="72"/>
-      <c r="Q28" s="73"/>
-      <c r="R28" s="73"/>
-      <c r="S28" s="73"/>
-      <c r="T28" s="73"/>
-    </row>
-    <row r="29" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="74" t="s">
+      <c r="K32" s="75" t="s">
         <v>201</v>
       </c>
-      <c r="C29" s="100" t="s">
-        <v>202</v>
-      </c>
-      <c r="D29" s="101"/>
-      <c r="E29" s="101"/>
-      <c r="F29" s="101"/>
-      <c r="G29" s="101"/>
-      <c r="H29" s="102"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="78"/>
-      <c r="K29" s="72"/>
-      <c r="L29" s="72"/>
-      <c r="M29" s="72"/>
-      <c r="N29" s="72"/>
-      <c r="O29" s="72"/>
-      <c r="P29" s="72"/>
-      <c r="Q29" s="73"/>
-      <c r="R29" s="73"/>
-      <c r="S29" s="73"/>
-      <c r="T29" s="73"/>
-    </row>
-    <row r="30" spans="2:20" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="74"/>
-      <c r="C30" s="103"/>
-      <c r="D30" s="104"/>
-      <c r="E30" s="104"/>
-      <c r="F30" s="104"/>
-      <c r="G30" s="104"/>
-      <c r="H30" s="105"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="78"/>
-      <c r="K30" s="72"/>
-      <c r="L30" s="72"/>
-      <c r="M30" s="72"/>
-      <c r="N30" s="72"/>
-      <c r="O30" s="72"/>
-      <c r="P30" s="72"/>
-      <c r="Q30" s="73"/>
-      <c r="R30" s="73"/>
-      <c r="S30" s="73"/>
-      <c r="T30" s="73"/>
-    </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="J31" s="78"/>
-      <c r="K31" s="72"/>
-      <c r="L31" s="72"/>
-      <c r="M31" s="72"/>
-      <c r="N31" s="72"/>
-      <c r="O31" s="72"/>
-      <c r="P31" s="72"/>
-      <c r="Q31" s="73"/>
-      <c r="R31" s="73"/>
-      <c r="S31" s="73"/>
-      <c r="T31" s="73"/>
-    </row>
-    <row r="32" spans="2:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J32" s="78" t="s">
-        <v>203</v>
-      </c>
-      <c r="K32" s="72" t="s">
-        <v>204</v>
-      </c>
-      <c r="L32" s="72"/>
-      <c r="M32" s="72"/>
-      <c r="N32" s="72"/>
-      <c r="O32" s="72"/>
-      <c r="P32" s="72"/>
+      <c r="L32" s="75"/>
+      <c r="M32" s="75"/>
+      <c r="N32" s="75"/>
+      <c r="O32" s="75"/>
+      <c r="P32" s="75"/>
       <c r="Q32" s="71"/>
       <c r="R32" s="71"/>
       <c r="S32" s="71"/>
@@ -10162,7 +10323,7 @@
     </row>
     <row r="33" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="39" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C33" s="39"/>
       <c r="D33" s="39"/>
@@ -10171,112 +10332,112 @@
       <c r="G33" s="39"/>
       <c r="H33" s="39"/>
       <c r="I33" s="39"/>
-      <c r="J33" s="78"/>
-      <c r="K33" s="72"/>
-      <c r="L33" s="72"/>
-      <c r="M33" s="72"/>
-      <c r="N33" s="72"/>
-      <c r="O33" s="72"/>
-      <c r="P33" s="72"/>
+      <c r="J33" s="76"/>
+      <c r="K33" s="75"/>
+      <c r="L33" s="75"/>
+      <c r="M33" s="75"/>
+      <c r="N33" s="75"/>
+      <c r="O33" s="75"/>
+      <c r="P33" s="75"/>
       <c r="Q33" s="71"/>
       <c r="R33" s="71"/>
       <c r="S33" s="71"/>
       <c r="T33" s="71"/>
     </row>
     <row r="34" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="79" t="s">
-        <v>206</v>
-      </c>
-      <c r="C34" s="79"/>
-      <c r="D34" s="79"/>
-      <c r="E34" s="79"/>
-      <c r="F34" s="79"/>
-      <c r="G34" s="79"/>
-      <c r="H34" s="79"/>
+      <c r="B34" s="77" t="s">
+        <v>203</v>
+      </c>
+      <c r="C34" s="77"/>
+      <c r="D34" s="77"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="77"/>
+      <c r="H34" s="77"/>
       <c r="I34" s="39"/>
-      <c r="J34" s="78"/>
-      <c r="K34" s="72"/>
-      <c r="L34" s="72"/>
-      <c r="M34" s="72"/>
-      <c r="N34" s="72"/>
-      <c r="O34" s="72"/>
-      <c r="P34" s="72"/>
+      <c r="J34" s="76"/>
+      <c r="K34" s="75"/>
+      <c r="L34" s="75"/>
+      <c r="M34" s="75"/>
+      <c r="N34" s="75"/>
+      <c r="O34" s="75"/>
+      <c r="P34" s="75"/>
       <c r="Q34" s="71"/>
       <c r="R34" s="71"/>
       <c r="S34" s="71"/>
       <c r="T34" s="71"/>
     </row>
     <row r="35" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="79"/>
-      <c r="C35" s="79"/>
-      <c r="D35" s="79"/>
-      <c r="E35" s="79"/>
-      <c r="F35" s="79"/>
-      <c r="G35" s="79"/>
-      <c r="H35" s="79"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="77"/>
       <c r="I35" s="39"/>
-      <c r="J35" s="78"/>
-      <c r="K35" s="72"/>
-      <c r="L35" s="72"/>
-      <c r="M35" s="72"/>
-      <c r="N35" s="72"/>
-      <c r="O35" s="72"/>
-      <c r="P35" s="72"/>
+      <c r="J35" s="76"/>
+      <c r="K35" s="75"/>
+      <c r="L35" s="75"/>
+      <c r="M35" s="75"/>
+      <c r="N35" s="75"/>
+      <c r="O35" s="75"/>
+      <c r="P35" s="75"/>
       <c r="Q35" s="71"/>
       <c r="R35" s="71"/>
       <c r="S35" s="71"/>
       <c r="T35" s="71"/>
     </row>
     <row r="36" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="79"/>
-      <c r="C36" s="79"/>
-      <c r="D36" s="79"/>
-      <c r="E36" s="79"/>
-      <c r="F36" s="79"/>
-      <c r="G36" s="79"/>
-      <c r="H36" s="79"/>
+      <c r="B36" s="77"/>
+      <c r="C36" s="77"/>
+      <c r="D36" s="77"/>
+      <c r="E36" s="77"/>
+      <c r="F36" s="77"/>
+      <c r="G36" s="77"/>
+      <c r="H36" s="77"/>
       <c r="I36" s="39"/>
-      <c r="J36" s="78"/>
-      <c r="K36" s="72"/>
-      <c r="L36" s="72"/>
-      <c r="M36" s="72"/>
-      <c r="N36" s="72"/>
-      <c r="O36" s="72"/>
-      <c r="P36" s="72"/>
+      <c r="J36" s="76"/>
+      <c r="K36" s="75"/>
+      <c r="L36" s="75"/>
+      <c r="M36" s="75"/>
+      <c r="N36" s="75"/>
+      <c r="O36" s="75"/>
+      <c r="P36" s="75"/>
       <c r="Q36" s="71"/>
       <c r="R36" s="71"/>
       <c r="S36" s="71"/>
       <c r="T36" s="71"/>
     </row>
     <row r="37" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="79"/>
-      <c r="C37" s="79"/>
-      <c r="D37" s="79"/>
-      <c r="E37" s="79"/>
-      <c r="F37" s="79"/>
-      <c r="G37" s="79"/>
-      <c r="H37" s="79"/>
+      <c r="B37" s="77"/>
+      <c r="C37" s="77"/>
+      <c r="D37" s="77"/>
+      <c r="E37" s="77"/>
+      <c r="F37" s="77"/>
+      <c r="G37" s="77"/>
+      <c r="H37" s="77"/>
       <c r="I37" s="39"/>
-      <c r="J37" s="78"/>
-      <c r="K37" s="72"/>
-      <c r="L37" s="72"/>
-      <c r="M37" s="72"/>
-      <c r="N37" s="72"/>
-      <c r="O37" s="72"/>
-      <c r="P37" s="72"/>
+      <c r="J37" s="76"/>
+      <c r="K37" s="75"/>
+      <c r="L37" s="75"/>
+      <c r="M37" s="75"/>
+      <c r="N37" s="75"/>
+      <c r="O37" s="75"/>
+      <c r="P37" s="75"/>
       <c r="Q37" s="71"/>
       <c r="R37" s="71"/>
       <c r="S37" s="71"/>
       <c r="T37" s="71"/>
     </row>
     <row r="38" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="79"/>
-      <c r="C38" s="79"/>
-      <c r="D38" s="79"/>
-      <c r="E38" s="79"/>
-      <c r="F38" s="79"/>
-      <c r="G38" s="79"/>
-      <c r="H38" s="79"/>
+      <c r="B38" s="77"/>
+      <c r="C38" s="77"/>
+      <c r="D38" s="77"/>
+      <c r="E38" s="77"/>
+      <c r="F38" s="77"/>
+      <c r="G38" s="77"/>
+      <c r="H38" s="77"/>
       <c r="I38" s="39"/>
       <c r="K38" s="39"/>
       <c r="L38" s="39"/>
@@ -10287,13 +10448,13 @@
       <c r="Q38" s="39"/>
     </row>
     <row r="39" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="79"/>
-      <c r="C39" s="79"/>
-      <c r="D39" s="79"/>
-      <c r="E39" s="79"/>
-      <c r="F39" s="79"/>
-      <c r="G39" s="79"/>
-      <c r="H39" s="79"/>
+      <c r="B39" s="77"/>
+      <c r="C39" s="77"/>
+      <c r="D39" s="77"/>
+      <c r="E39" s="77"/>
+      <c r="F39" s="77"/>
+      <c r="G39" s="77"/>
+      <c r="H39" s="77"/>
       <c r="I39" s="39"/>
       <c r="J39" s="39"/>
       <c r="K39" s="39"/>
@@ -10305,13 +10466,13 @@
       <c r="Q39" s="39"/>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B40" s="79"/>
-      <c r="C40" s="79"/>
-      <c r="D40" s="79"/>
-      <c r="E40" s="79"/>
-      <c r="F40" s="79"/>
-      <c r="G40" s="79"/>
-      <c r="H40" s="79"/>
+      <c r="B40" s="77"/>
+      <c r="C40" s="77"/>
+      <c r="D40" s="77"/>
+      <c r="E40" s="77"/>
+      <c r="F40" s="77"/>
+      <c r="G40" s="77"/>
+      <c r="H40" s="77"/>
       <c r="I40" s="39"/>
       <c r="J40" s="39"/>
       <c r="K40" s="39"/>
@@ -10319,13 +10480,13 @@
       <c r="M40" s="39"/>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B41" s="79"/>
-      <c r="C41" s="79"/>
-      <c r="D41" s="79"/>
-      <c r="E41" s="79"/>
-      <c r="F41" s="79"/>
-      <c r="G41" s="79"/>
-      <c r="H41" s="79"/>
+      <c r="B41" s="77"/>
+      <c r="C41" s="77"/>
+      <c r="D41" s="77"/>
+      <c r="E41" s="77"/>
+      <c r="F41" s="77"/>
+      <c r="G41" s="77"/>
+      <c r="H41" s="77"/>
       <c r="I41" s="39"/>
       <c r="J41" s="39"/>
       <c r="K41" s="39"/>
@@ -10333,13 +10494,13 @@
       <c r="M41" s="39"/>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B42" s="79"/>
-      <c r="C42" s="79"/>
-      <c r="D42" s="79"/>
-      <c r="E42" s="79"/>
-      <c r="F42" s="79"/>
-      <c r="G42" s="79"/>
-      <c r="H42" s="79"/>
+      <c r="B42" s="77"/>
+      <c r="C42" s="77"/>
+      <c r="D42" s="77"/>
+      <c r="E42" s="77"/>
+      <c r="F42" s="77"/>
+      <c r="G42" s="77"/>
+      <c r="H42" s="77"/>
       <c r="I42" s="39"/>
       <c r="J42" s="39"/>
       <c r="K42" s="39"/>
@@ -10347,13 +10508,13 @@
       <c r="M42" s="39"/>
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B43" s="79"/>
-      <c r="C43" s="79"/>
-      <c r="D43" s="79"/>
-      <c r="E43" s="79"/>
-      <c r="F43" s="79"/>
-      <c r="G43" s="79"/>
-      <c r="H43" s="79"/>
+      <c r="B43" s="77"/>
+      <c r="C43" s="77"/>
+      <c r="D43" s="77"/>
+      <c r="E43" s="77"/>
+      <c r="F43" s="77"/>
+      <c r="G43" s="77"/>
+      <c r="H43" s="77"/>
       <c r="I43" s="39"/>
       <c r="J43" s="39"/>
       <c r="K43" s="39"/>
@@ -10361,13 +10522,13 @@
       <c r="M43" s="39"/>
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B44" s="79"/>
-      <c r="C44" s="79"/>
-      <c r="D44" s="79"/>
-      <c r="E44" s="79"/>
-      <c r="F44" s="79"/>
-      <c r="G44" s="79"/>
-      <c r="H44" s="79"/>
+      <c r="B44" s="77"/>
+      <c r="C44" s="77"/>
+      <c r="D44" s="77"/>
+      <c r="E44" s="77"/>
+      <c r="F44" s="77"/>
+      <c r="G44" s="77"/>
+      <c r="H44" s="77"/>
       <c r="I44" s="39"/>
       <c r="J44" s="39"/>
       <c r="K44" s="39"/>
@@ -10403,12 +10564,12 @@
       <c r="M46" s="39"/>
     </row>
     <row r="47" spans="2:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="75" t="s">
-        <v>217</v>
-      </c>
-      <c r="C47" s="75"/>
-      <c r="D47" s="75"/>
-      <c r="E47" s="75"/>
+      <c r="B47" s="70" t="s">
+        <v>214</v>
+      </c>
+      <c r="C47" s="70"/>
+      <c r="D47" s="70"/>
+      <c r="E47" s="70"/>
       <c r="G47" s="39"/>
       <c r="H47" s="39"/>
       <c r="I47" s="39"/>
@@ -10418,14 +10579,14 @@
       <c r="M47" s="39"/>
     </row>
     <row r="48" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B48" s="75"/>
-      <c r="C48" s="75"/>
-      <c r="D48" s="75"/>
-      <c r="E48" s="75"/>
+      <c r="B48" s="70"/>
+      <c r="C48" s="70"/>
+      <c r="D48" s="70"/>
+      <c r="E48" s="70"/>
       <c r="G48" s="39"/>
       <c r="H48" s="39"/>
       <c r="I48" s="39" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J48" s="39"/>
       <c r="K48" s="39"/>
@@ -10434,7 +10595,7 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B49" s="30" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G49" s="39"/>
       <c r="H49" s="39"/>
@@ -10446,17 +10607,17 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="30" t="s">
-        <v>209</v>
-      </c>
-      <c r="B50" s="77" t="s">
-        <v>210</v>
-      </c>
-      <c r="C50" s="77"/>
-      <c r="D50" s="77"/>
-      <c r="E50" s="84" t="s">
-        <v>257</v>
-      </c>
-      <c r="F50" s="77"/>
+        <v>206</v>
+      </c>
+      <c r="B50" s="74" t="s">
+        <v>207</v>
+      </c>
+      <c r="C50" s="74"/>
+      <c r="D50" s="74"/>
+      <c r="E50" s="73" t="s">
+        <v>254</v>
+      </c>
+      <c r="F50" s="74"/>
       <c r="G50" s="41"/>
       <c r="H50" s="39"/>
       <c r="I50" s="39"/>
@@ -10466,17 +10627,17 @@
       <c r="M50" s="39"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B51" s="84" t="s">
-        <v>258</v>
-      </c>
-      <c r="C51" s="77"/>
-      <c r="D51" s="77"/>
-      <c r="E51" s="77" t="s">
-        <v>211</v>
-      </c>
-      <c r="F51" s="77"/>
+      <c r="B51" s="73" t="s">
+        <v>255</v>
+      </c>
+      <c r="C51" s="74"/>
+      <c r="D51" s="74"/>
+      <c r="E51" s="74" t="s">
+        <v>208</v>
+      </c>
+      <c r="F51" s="74"/>
       <c r="G51" s="41" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H51" s="39"/>
       <c r="I51" s="39"/>
@@ -10487,16 +10648,29 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C52" s="30" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B55" s="30" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B6:D7"/>
+    <mergeCell ref="B1:H2"/>
+    <mergeCell ref="Q24:T26"/>
+    <mergeCell ref="Q21:T23"/>
+    <mergeCell ref="K21:P23"/>
+    <mergeCell ref="K24:P26"/>
+    <mergeCell ref="C27:H28"/>
+    <mergeCell ref="K27:P31"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C21:H23"/>
+    <mergeCell ref="C24:H26"/>
+    <mergeCell ref="C29:H30"/>
     <mergeCell ref="B47:E48"/>
     <mergeCell ref="Q32:T37"/>
     <mergeCell ref="J20:T20"/>
@@ -10513,19 +10687,6 @@
     <mergeCell ref="J24:J26"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C27:H28"/>
-    <mergeCell ref="K27:P31"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C21:H23"/>
-    <mergeCell ref="C24:H26"/>
-    <mergeCell ref="C29:H30"/>
-    <mergeCell ref="B6:D7"/>
-    <mergeCell ref="B1:H2"/>
-    <mergeCell ref="Q24:T26"/>
-    <mergeCell ref="Q21:T23"/>
-    <mergeCell ref="K21:P23"/>
-    <mergeCell ref="K24:P26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10543,155 +10704,155 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="3" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="88" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
+      <c r="B3" s="105" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="105"/>
+      <c r="N3" s="105"/>
+      <c r="O3" s="105"/>
       <c r="P3" s="16"/>
       <c r="Q3" s="16"/>
       <c r="R3" s="16"/>
     </row>
     <row r="4" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="88"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="105"/>
+      <c r="M4" s="105"/>
+      <c r="N4" s="105"/>
+      <c r="O4" s="105"/>
       <c r="P4" s="16"/>
       <c r="Q4" s="16"/>
       <c r="R4" s="16"/>
     </row>
     <row r="5" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="88"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="88"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="105"/>
+      <c r="L5" s="105"/>
+      <c r="M5" s="105"/>
+      <c r="N5" s="105"/>
+      <c r="O5" s="105"/>
       <c r="P5" s="16"/>
       <c r="Q5" s="16"/>
       <c r="R5" s="16"/>
     </row>
     <row r="6" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="88"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="88"/>
-      <c r="N6" s="88"/>
-      <c r="O6" s="88"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="105"/>
+      <c r="M6" s="105"/>
+      <c r="N6" s="105"/>
+      <c r="O6" s="105"/>
       <c r="P6" s="16"/>
       <c r="Q6" s="16"/>
       <c r="R6" s="16"/>
     </row>
     <row r="7" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="88"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="88"/>
-      <c r="K7" s="88"/>
-      <c r="L7" s="88"/>
-      <c r="M7" s="88"/>
-      <c r="N7" s="88"/>
-      <c r="O7" s="88"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="105"/>
+      <c r="M7" s="105"/>
+      <c r="N7" s="105"/>
+      <c r="O7" s="105"/>
       <c r="P7" s="16"/>
       <c r="Q7" s="16"/>
       <c r="R7" s="16"/>
     </row>
     <row r="8" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="88"/>
-      <c r="K8" s="88"/>
-      <c r="L8" s="88"/>
-      <c r="M8" s="88"/>
-      <c r="N8" s="88"/>
-      <c r="O8" s="88"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="105"/>
+      <c r="N8" s="105"/>
+      <c r="O8" s="105"/>
       <c r="P8" s="16"/>
       <c r="Q8" s="16"/>
       <c r="R8" s="16"/>
     </row>
     <row r="9" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="88"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="88"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="88"/>
-      <c r="K9" s="88"/>
-      <c r="L9" s="88"/>
-      <c r="M9" s="88"/>
-      <c r="N9" s="88"/>
-      <c r="O9" s="88"/>
+      <c r="B9" s="105"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="105"/>
+      <c r="M9" s="105"/>
+      <c r="N9" s="105"/>
+      <c r="O9" s="105"/>
       <c r="P9" s="16"/>
       <c r="Q9" s="16"/>
       <c r="R9" s="16"/>
     </row>
     <row r="10" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="88"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="88"/>
-      <c r="L10" s="88"/>
-      <c r="M10" s="88"/>
-      <c r="N10" s="88"/>
-      <c r="O10" s="88"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="105"/>
+      <c r="J10" s="105"/>
+      <c r="K10" s="105"/>
+      <c r="L10" s="105"/>
+      <c r="M10" s="105"/>
+      <c r="N10" s="105"/>
+      <c r="O10" s="105"/>
       <c r="P10" s="16"/>
       <c r="Q10" s="16"/>
       <c r="R10" s="16"/>
@@ -10731,11 +10892,11 @@
       <c r="N12" s="16"/>
     </row>
     <row r="13" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="92" t="s">
-        <v>130</v>
-      </c>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
+      <c r="B13" s="106" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" s="106"/>
+      <c r="D13" s="106"/>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
@@ -10748,456 +10909,456 @@
       <c r="N13" s="16"/>
     </row>
     <row r="14" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="89" t="s">
+      <c r="B14" s="101" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="104" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" s="104"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="104"/>
+      <c r="H14" s="104"/>
+      <c r="I14" s="104"/>
+      <c r="J14" s="104"/>
+      <c r="K14" s="97"/>
+      <c r="L14" s="97"/>
+      <c r="M14" s="97"/>
+      <c r="N14" s="97"/>
+      <c r="O14" s="97"/>
+      <c r="P14" s="99" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q14" s="99"/>
+    </row>
+    <row r="15" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="102"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="104"/>
+      <c r="H15" s="104"/>
+      <c r="I15" s="104"/>
+      <c r="J15" s="104"/>
+      <c r="K15" s="97"/>
+      <c r="L15" s="97"/>
+      <c r="M15" s="97"/>
+      <c r="N15" s="97"/>
+      <c r="O15" s="97"/>
+      <c r="P15" s="99"/>
+      <c r="Q15" s="99"/>
+    </row>
+    <row r="16" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="103"/>
+      <c r="C16" s="104"/>
+      <c r="D16" s="104"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="104"/>
+      <c r="H16" s="104"/>
+      <c r="I16" s="104"/>
+      <c r="J16" s="104"/>
+      <c r="K16" s="97"/>
+      <c r="L16" s="97"/>
+      <c r="M16" s="97"/>
+      <c r="N16" s="97"/>
+      <c r="O16" s="97"/>
+      <c r="P16" s="99"/>
+      <c r="Q16" s="99"/>
+    </row>
+    <row r="17" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="101" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="104" t="s">
         <v>116</v>
       </c>
-      <c r="C14" s="82" t="s">
+      <c r="D17" s="104"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="104"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="104"/>
+      <c r="J17" s="104"/>
+      <c r="K17" s="97" t="s">
         <v>117</v>
       </c>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="82"/>
-      <c r="J14" s="82"/>
-      <c r="K14" s="83"/>
-      <c r="L14" s="83"/>
-      <c r="M14" s="83"/>
-      <c r="N14" s="83"/>
-      <c r="O14" s="83"/>
-      <c r="P14" s="85" t="s">
+      <c r="L17" s="97"/>
+      <c r="M17" s="97"/>
+      <c r="N17" s="97"/>
+      <c r="O17" s="97"/>
+      <c r="P17" s="73"/>
+      <c r="Q17" s="73"/>
+    </row>
+    <row r="18" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="102"/>
+      <c r="C18" s="104"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="104"/>
+      <c r="H18" s="104"/>
+      <c r="I18" s="104"/>
+      <c r="J18" s="104"/>
+      <c r="K18" s="97"/>
+      <c r="L18" s="97"/>
+      <c r="M18" s="97"/>
+      <c r="N18" s="97"/>
+      <c r="O18" s="97"/>
+      <c r="P18" s="73"/>
+      <c r="Q18" s="73"/>
+    </row>
+    <row r="19" spans="2:17" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="103"/>
+      <c r="C19" s="104"/>
+      <c r="D19" s="104"/>
+      <c r="E19" s="104"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="104"/>
+      <c r="H19" s="104"/>
+      <c r="I19" s="104"/>
+      <c r="J19" s="104"/>
+      <c r="K19" s="97"/>
+      <c r="L19" s="97"/>
+      <c r="M19" s="97"/>
+      <c r="N19" s="97"/>
+      <c r="O19" s="97"/>
+      <c r="P19" s="73"/>
+      <c r="Q19" s="73"/>
+    </row>
+    <row r="20" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="100" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" s="97" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" s="97"/>
+      <c r="E20" s="90" t="s">
+        <v>155</v>
+      </c>
+      <c r="F20" s="97"/>
+      <c r="G20" s="97"/>
+      <c r="H20" s="97"/>
+      <c r="I20" s="97"/>
+      <c r="J20" s="97"/>
+      <c r="K20" s="97"/>
+      <c r="L20" s="97"/>
+      <c r="M20" s="97"/>
+      <c r="N20" s="97"/>
+      <c r="O20" s="97"/>
+      <c r="P20" s="98" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q20" s="99"/>
+    </row>
+    <row r="21" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="100"/>
+      <c r="C21" s="97" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21" s="97"/>
+      <c r="E21" s="90" t="s">
+        <v>136</v>
+      </c>
+      <c r="F21" s="97"/>
+      <c r="G21" s="97"/>
+      <c r="H21" s="97"/>
+      <c r="I21" s="97"/>
+      <c r="J21" s="97"/>
+      <c r="K21" s="97" t="s">
+        <v>123</v>
+      </c>
+      <c r="L21" s="97"/>
+      <c r="M21" s="97"/>
+      <c r="N21" s="97"/>
+      <c r="O21" s="97"/>
+      <c r="P21" s="99"/>
+      <c r="Q21" s="99"/>
+    </row>
+    <row r="22" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="100"/>
+      <c r="C22" s="97"/>
+      <c r="D22" s="97"/>
+      <c r="E22" s="90" t="s">
+        <v>137</v>
+      </c>
+      <c r="F22" s="97"/>
+      <c r="G22" s="97"/>
+      <c r="H22" s="97"/>
+      <c r="I22" s="97"/>
+      <c r="J22" s="97"/>
+      <c r="K22" s="97"/>
+      <c r="L22" s="97"/>
+      <c r="M22" s="97"/>
+      <c r="N22" s="97"/>
+      <c r="O22" s="97"/>
+      <c r="P22" s="99"/>
+      <c r="Q22" s="99"/>
+    </row>
+    <row r="23" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="100"/>
+      <c r="C23" s="97" t="s">
         <v>122</v>
       </c>
-      <c r="Q14" s="85"/>
-    </row>
-    <row r="15" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="90"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="82"/>
-      <c r="K15" s="83"/>
-      <c r="L15" s="83"/>
-      <c r="M15" s="83"/>
-      <c r="N15" s="83"/>
-      <c r="O15" s="83"/>
-      <c r="P15" s="85"/>
-      <c r="Q15" s="85"/>
-    </row>
-    <row r="16" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="91"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="83"/>
-      <c r="L16" s="83"/>
-      <c r="M16" s="83"/>
-      <c r="N16" s="83"/>
-      <c r="O16" s="83"/>
-      <c r="P16" s="85"/>
-      <c r="Q16" s="85"/>
-    </row>
-    <row r="17" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="89" t="s">
-        <v>118</v>
-      </c>
-      <c r="C17" s="82" t="s">
-        <v>119</v>
-      </c>
-      <c r="D17" s="82"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="82"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="82"/>
-      <c r="K17" s="83" t="s">
-        <v>120</v>
-      </c>
-      <c r="L17" s="83"/>
-      <c r="M17" s="83"/>
-      <c r="N17" s="83"/>
-      <c r="O17" s="83"/>
-      <c r="P17" s="84"/>
-      <c r="Q17" s="84"/>
-    </row>
-    <row r="18" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="90"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="82"/>
-      <c r="I18" s="82"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="83"/>
-      <c r="L18" s="83"/>
-      <c r="M18" s="83"/>
-      <c r="N18" s="83"/>
-      <c r="O18" s="83"/>
-      <c r="P18" s="84"/>
-      <c r="Q18" s="84"/>
-    </row>
-    <row r="19" spans="2:17" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="91"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="83"/>
-      <c r="L19" s="83"/>
-      <c r="M19" s="83"/>
-      <c r="N19" s="83"/>
-      <c r="O19" s="83"/>
-      <c r="P19" s="84"/>
-      <c r="Q19" s="84"/>
-    </row>
-    <row r="20" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="94" t="s">
-        <v>121</v>
-      </c>
-      <c r="C20" s="83" t="s">
-        <v>123</v>
-      </c>
-      <c r="D20" s="83"/>
-      <c r="E20" s="86" t="s">
-        <v>158</v>
-      </c>
-      <c r="F20" s="83"/>
-      <c r="G20" s="83"/>
-      <c r="H20" s="83"/>
-      <c r="I20" s="83"/>
-      <c r="J20" s="83"/>
-      <c r="K20" s="83"/>
-      <c r="L20" s="83"/>
-      <c r="M20" s="83"/>
-      <c r="N20" s="83"/>
-      <c r="O20" s="83"/>
-      <c r="P20" s="87" t="s">
+      <c r="D23" s="97"/>
+      <c r="E23" s="90" t="s">
         <v>138</v>
       </c>
-      <c r="Q20" s="85"/>
-    </row>
-    <row r="21" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="94"/>
-      <c r="C21" s="83" t="s">
+      <c r="F23" s="97"/>
+      <c r="G23" s="97"/>
+      <c r="H23" s="97"/>
+      <c r="I23" s="97"/>
+      <c r="J23" s="97"/>
+      <c r="K23" s="97" t="s">
         <v>124</v>
       </c>
-      <c r="D21" s="83"/>
-      <c r="E21" s="86" t="s">
+      <c r="L23" s="97"/>
+      <c r="M23" s="97"/>
+      <c r="N23" s="97"/>
+      <c r="O23" s="97"/>
+      <c r="P23" s="99"/>
+      <c r="Q23" s="99"/>
+    </row>
+    <row r="24" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="100"/>
+      <c r="C24" s="97"/>
+      <c r="D24" s="97"/>
+      <c r="E24" s="90" t="s">
         <v>139</v>
       </c>
-      <c r="F21" s="83"/>
-      <c r="G21" s="83"/>
-      <c r="H21" s="83"/>
-      <c r="I21" s="83"/>
-      <c r="J21" s="83"/>
-      <c r="K21" s="83" t="s">
+      <c r="F24" s="97"/>
+      <c r="G24" s="97"/>
+      <c r="H24" s="97"/>
+      <c r="I24" s="97"/>
+      <c r="J24" s="97"/>
+      <c r="K24" s="90" t="s">
+        <v>156</v>
+      </c>
+      <c r="L24" s="97"/>
+      <c r="M24" s="97"/>
+      <c r="N24" s="97"/>
+      <c r="O24" s="97"/>
+      <c r="P24" s="99"/>
+      <c r="Q24" s="99"/>
+    </row>
+    <row r="25" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="101" t="s">
         <v>126</v>
       </c>
-      <c r="L21" s="83"/>
-      <c r="M21" s="83"/>
-      <c r="N21" s="83"/>
-      <c r="O21" s="83"/>
-      <c r="P21" s="85"/>
-      <c r="Q21" s="85"/>
-    </row>
-    <row r="22" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="94"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="83"/>
-      <c r="E22" s="86" t="s">
-        <v>140</v>
-      </c>
-      <c r="F22" s="83"/>
-      <c r="G22" s="83"/>
-      <c r="H22" s="83"/>
-      <c r="I22" s="83"/>
-      <c r="J22" s="83"/>
-      <c r="K22" s="83"/>
-      <c r="L22" s="83"/>
-      <c r="M22" s="83"/>
-      <c r="N22" s="83"/>
-      <c r="O22" s="83"/>
-      <c r="P22" s="85"/>
-      <c r="Q22" s="85"/>
-    </row>
-    <row r="23" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="94"/>
-      <c r="C23" s="83" t="s">
-        <v>125</v>
-      </c>
-      <c r="D23" s="83"/>
-      <c r="E23" s="86" t="s">
-        <v>141</v>
-      </c>
-      <c r="F23" s="83"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="83"/>
-      <c r="I23" s="83"/>
-      <c r="J23" s="83"/>
-      <c r="K23" s="83" t="s">
-        <v>127</v>
-      </c>
-      <c r="L23" s="83"/>
-      <c r="M23" s="83"/>
-      <c r="N23" s="83"/>
-      <c r="O23" s="83"/>
-      <c r="P23" s="85"/>
-      <c r="Q23" s="85"/>
-    </row>
-    <row r="24" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="94"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="86" t="s">
-        <v>142</v>
-      </c>
-      <c r="F24" s="83"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="83"/>
-      <c r="I24" s="83"/>
-      <c r="J24" s="83"/>
-      <c r="K24" s="86" t="s">
-        <v>159</v>
-      </c>
-      <c r="L24" s="83"/>
-      <c r="M24" s="83"/>
-      <c r="N24" s="83"/>
-      <c r="O24" s="83"/>
-      <c r="P24" s="85"/>
-      <c r="Q24" s="85"/>
-    </row>
-    <row r="25" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="89" t="s">
-        <v>129</v>
-      </c>
-      <c r="C25" s="82" t="s">
-        <v>160</v>
-      </c>
-      <c r="D25" s="82"/>
-      <c r="E25" s="82"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="82"/>
-      <c r="I25" s="82"/>
-      <c r="J25" s="82"/>
-      <c r="K25" s="83"/>
-      <c r="L25" s="83"/>
-      <c r="M25" s="83"/>
-      <c r="N25" s="83"/>
-      <c r="O25" s="83"/>
-      <c r="P25" s="84"/>
-      <c r="Q25" s="84"/>
+      <c r="C25" s="104" t="s">
+        <v>157</v>
+      </c>
+      <c r="D25" s="104"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="104"/>
+      <c r="G25" s="104"/>
+      <c r="H25" s="104"/>
+      <c r="I25" s="104"/>
+      <c r="J25" s="104"/>
+      <c r="K25" s="97"/>
+      <c r="L25" s="97"/>
+      <c r="M25" s="97"/>
+      <c r="N25" s="97"/>
+      <c r="O25" s="97"/>
+      <c r="P25" s="73"/>
+      <c r="Q25" s="73"/>
     </row>
     <row r="26" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="90"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="82"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="82"/>
-      <c r="I26" s="82"/>
-      <c r="J26" s="82"/>
-      <c r="K26" s="83"/>
-      <c r="L26" s="83"/>
-      <c r="M26" s="83"/>
-      <c r="N26" s="83"/>
-      <c r="O26" s="83"/>
-      <c r="P26" s="84"/>
-      <c r="Q26" s="84"/>
+      <c r="B26" s="102"/>
+      <c r="C26" s="104"/>
+      <c r="D26" s="104"/>
+      <c r="E26" s="104"/>
+      <c r="F26" s="104"/>
+      <c r="G26" s="104"/>
+      <c r="H26" s="104"/>
+      <c r="I26" s="104"/>
+      <c r="J26" s="104"/>
+      <c r="K26" s="97"/>
+      <c r="L26" s="97"/>
+      <c r="M26" s="97"/>
+      <c r="N26" s="97"/>
+      <c r="O26" s="97"/>
+      <c r="P26" s="73"/>
+      <c r="Q26" s="73"/>
     </row>
     <row r="27" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="90"/>
-      <c r="C27" s="82"/>
-      <c r="D27" s="82"/>
-      <c r="E27" s="82"/>
-      <c r="F27" s="82"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="82"/>
-      <c r="I27" s="82"/>
-      <c r="J27" s="82"/>
-      <c r="K27" s="83"/>
-      <c r="L27" s="83"/>
-      <c r="M27" s="83"/>
-      <c r="N27" s="83"/>
-      <c r="O27" s="83"/>
-      <c r="P27" s="84"/>
-      <c r="Q27" s="84"/>
+      <c r="B27" s="102"/>
+      <c r="C27" s="104"/>
+      <c r="D27" s="104"/>
+      <c r="E27" s="104"/>
+      <c r="F27" s="104"/>
+      <c r="G27" s="104"/>
+      <c r="H27" s="104"/>
+      <c r="I27" s="104"/>
+      <c r="J27" s="104"/>
+      <c r="K27" s="97"/>
+      <c r="L27" s="97"/>
+      <c r="M27" s="97"/>
+      <c r="N27" s="97"/>
+      <c r="O27" s="97"/>
+      <c r="P27" s="73"/>
+      <c r="Q27" s="73"/>
     </row>
     <row r="28" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="90"/>
-      <c r="C28" s="82"/>
-      <c r="D28" s="82"/>
-      <c r="E28" s="82"/>
-      <c r="F28" s="82"/>
-      <c r="G28" s="82"/>
-      <c r="H28" s="82"/>
-      <c r="I28" s="82"/>
-      <c r="J28" s="82"/>
-      <c r="K28" s="83"/>
-      <c r="L28" s="83"/>
-      <c r="M28" s="83"/>
-      <c r="N28" s="83"/>
-      <c r="O28" s="83"/>
-      <c r="P28" s="84"/>
-      <c r="Q28" s="84"/>
+      <c r="B28" s="102"/>
+      <c r="C28" s="104"/>
+      <c r="D28" s="104"/>
+      <c r="E28" s="104"/>
+      <c r="F28" s="104"/>
+      <c r="G28" s="104"/>
+      <c r="H28" s="104"/>
+      <c r="I28" s="104"/>
+      <c r="J28" s="104"/>
+      <c r="K28" s="97"/>
+      <c r="L28" s="97"/>
+      <c r="M28" s="97"/>
+      <c r="N28" s="97"/>
+      <c r="O28" s="97"/>
+      <c r="P28" s="73"/>
+      <c r="Q28" s="73"/>
     </row>
     <row r="29" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="90"/>
-      <c r="C29" s="82"/>
-      <c r="D29" s="82"/>
-      <c r="E29" s="82"/>
-      <c r="F29" s="82"/>
-      <c r="G29" s="82"/>
-      <c r="H29" s="82"/>
-      <c r="I29" s="82"/>
-      <c r="J29" s="82"/>
-      <c r="K29" s="83"/>
-      <c r="L29" s="83"/>
-      <c r="M29" s="83"/>
-      <c r="N29" s="83"/>
-      <c r="O29" s="83"/>
-      <c r="P29" s="84"/>
-      <c r="Q29" s="84"/>
+      <c r="B29" s="102"/>
+      <c r="C29" s="104"/>
+      <c r="D29" s="104"/>
+      <c r="E29" s="104"/>
+      <c r="F29" s="104"/>
+      <c r="G29" s="104"/>
+      <c r="H29" s="104"/>
+      <c r="I29" s="104"/>
+      <c r="J29" s="104"/>
+      <c r="K29" s="97"/>
+      <c r="L29" s="97"/>
+      <c r="M29" s="97"/>
+      <c r="N29" s="97"/>
+      <c r="O29" s="97"/>
+      <c r="P29" s="73"/>
+      <c r="Q29" s="73"/>
     </row>
     <row r="30" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="90"/>
-      <c r="C30" s="82"/>
-      <c r="D30" s="82"/>
-      <c r="E30" s="82"/>
-      <c r="F30" s="82"/>
-      <c r="G30" s="82"/>
-      <c r="H30" s="82"/>
-      <c r="I30" s="82"/>
-      <c r="J30" s="82"/>
-      <c r="K30" s="83"/>
-      <c r="L30" s="83"/>
-      <c r="M30" s="83"/>
-      <c r="N30" s="83"/>
-      <c r="O30" s="83"/>
-      <c r="P30" s="84"/>
-      <c r="Q30" s="84"/>
+      <c r="B30" s="102"/>
+      <c r="C30" s="104"/>
+      <c r="D30" s="104"/>
+      <c r="E30" s="104"/>
+      <c r="F30" s="104"/>
+      <c r="G30" s="104"/>
+      <c r="H30" s="104"/>
+      <c r="I30" s="104"/>
+      <c r="J30" s="104"/>
+      <c r="K30" s="97"/>
+      <c r="L30" s="97"/>
+      <c r="M30" s="97"/>
+      <c r="N30" s="97"/>
+      <c r="O30" s="97"/>
+      <c r="P30" s="73"/>
+      <c r="Q30" s="73"/>
     </row>
     <row r="31" spans="2:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="C31" s="82" t="s">
-        <v>137</v>
-      </c>
-      <c r="D31" s="82"/>
-      <c r="E31" s="82"/>
-      <c r="F31" s="82"/>
-      <c r="G31" s="82"/>
-      <c r="H31" s="82"/>
-      <c r="I31" s="82"/>
-      <c r="J31" s="82"/>
-      <c r="K31" s="83"/>
-      <c r="L31" s="83"/>
-      <c r="M31" s="83"/>
-      <c r="N31" s="83"/>
-      <c r="O31" s="83"/>
-      <c r="P31" s="84"/>
-      <c r="Q31" s="84"/>
+        <v>133</v>
+      </c>
+      <c r="C31" s="104" t="s">
+        <v>134</v>
+      </c>
+      <c r="D31" s="104"/>
+      <c r="E31" s="104"/>
+      <c r="F31" s="104"/>
+      <c r="G31" s="104"/>
+      <c r="H31" s="104"/>
+      <c r="I31" s="104"/>
+      <c r="J31" s="104"/>
+      <c r="K31" s="97"/>
+      <c r="L31" s="97"/>
+      <c r="M31" s="97"/>
+      <c r="N31" s="97"/>
+      <c r="O31" s="97"/>
+      <c r="P31" s="73"/>
+      <c r="Q31" s="73"/>
     </row>
     <row r="32" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="89" t="s">
-        <v>128</v>
-      </c>
-      <c r="C32" s="93" t="s">
-        <v>232</v>
-      </c>
-      <c r="D32" s="93"/>
-      <c r="E32" s="93"/>
-      <c r="F32" s="93"/>
-      <c r="G32" s="93"/>
-      <c r="H32" s="93"/>
-      <c r="I32" s="93"/>
-      <c r="J32" s="93"/>
-      <c r="K32" s="83"/>
-      <c r="L32" s="83"/>
-      <c r="M32" s="83"/>
-      <c r="N32" s="83"/>
-      <c r="O32" s="83"/>
-      <c r="P32" s="87" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q32" s="85"/>
+      <c r="B32" s="101" t="s">
+        <v>125</v>
+      </c>
+      <c r="C32" s="96" t="s">
+        <v>229</v>
+      </c>
+      <c r="D32" s="96"/>
+      <c r="E32" s="96"/>
+      <c r="F32" s="96"/>
+      <c r="G32" s="96"/>
+      <c r="H32" s="96"/>
+      <c r="I32" s="96"/>
+      <c r="J32" s="96"/>
+      <c r="K32" s="97"/>
+      <c r="L32" s="97"/>
+      <c r="M32" s="97"/>
+      <c r="N32" s="97"/>
+      <c r="O32" s="97"/>
+      <c r="P32" s="98" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q32" s="99"/>
     </row>
     <row r="33" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="90"/>
-      <c r="C33" s="93"/>
-      <c r="D33" s="93"/>
-      <c r="E33" s="93"/>
-      <c r="F33" s="93"/>
-      <c r="G33" s="93"/>
-      <c r="H33" s="93"/>
-      <c r="I33" s="93"/>
-      <c r="J33" s="93"/>
-      <c r="K33" s="83"/>
-      <c r="L33" s="83"/>
-      <c r="M33" s="83"/>
-      <c r="N33" s="83"/>
-      <c r="O33" s="83"/>
-      <c r="P33" s="85"/>
-      <c r="Q33" s="85"/>
+      <c r="B33" s="102"/>
+      <c r="C33" s="96"/>
+      <c r="D33" s="96"/>
+      <c r="E33" s="96"/>
+      <c r="F33" s="96"/>
+      <c r="G33" s="96"/>
+      <c r="H33" s="96"/>
+      <c r="I33" s="96"/>
+      <c r="J33" s="96"/>
+      <c r="K33" s="97"/>
+      <c r="L33" s="97"/>
+      <c r="M33" s="97"/>
+      <c r="N33" s="97"/>
+      <c r="O33" s="97"/>
+      <c r="P33" s="99"/>
+      <c r="Q33" s="99"/>
     </row>
     <row r="34" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="90"/>
-      <c r="C34" s="93"/>
-      <c r="D34" s="93"/>
-      <c r="E34" s="93"/>
-      <c r="F34" s="93"/>
-      <c r="G34" s="93"/>
-      <c r="H34" s="93"/>
-      <c r="I34" s="93"/>
-      <c r="J34" s="93"/>
-      <c r="K34" s="83"/>
-      <c r="L34" s="83"/>
-      <c r="M34" s="83"/>
-      <c r="N34" s="83"/>
-      <c r="O34" s="83"/>
-      <c r="P34" s="85"/>
-      <c r="Q34" s="85"/>
+      <c r="B34" s="102"/>
+      <c r="C34" s="96"/>
+      <c r="D34" s="96"/>
+      <c r="E34" s="96"/>
+      <c r="F34" s="96"/>
+      <c r="G34" s="96"/>
+      <c r="H34" s="96"/>
+      <c r="I34" s="96"/>
+      <c r="J34" s="96"/>
+      <c r="K34" s="97"/>
+      <c r="L34" s="97"/>
+      <c r="M34" s="97"/>
+      <c r="N34" s="97"/>
+      <c r="O34" s="97"/>
+      <c r="P34" s="99"/>
+      <c r="Q34" s="99"/>
     </row>
     <row r="35" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="91"/>
-      <c r="C35" s="93"/>
-      <c r="D35" s="93"/>
-      <c r="E35" s="93"/>
-      <c r="F35" s="93"/>
-      <c r="G35" s="93"/>
-      <c r="H35" s="93"/>
-      <c r="I35" s="93"/>
-      <c r="J35" s="93"/>
-      <c r="K35" s="83"/>
-      <c r="L35" s="83"/>
-      <c r="M35" s="83"/>
-      <c r="N35" s="83"/>
-      <c r="O35" s="83"/>
-      <c r="P35" s="85"/>
-      <c r="Q35" s="85"/>
+      <c r="B35" s="103"/>
+      <c r="C35" s="96"/>
+      <c r="D35" s="96"/>
+      <c r="E35" s="96"/>
+      <c r="F35" s="96"/>
+      <c r="G35" s="96"/>
+      <c r="H35" s="96"/>
+      <c r="I35" s="96"/>
+      <c r="J35" s="96"/>
+      <c r="K35" s="97"/>
+      <c r="L35" s="97"/>
+      <c r="M35" s="97"/>
+      <c r="N35" s="97"/>
+      <c r="O35" s="97"/>
+      <c r="P35" s="99"/>
+      <c r="Q35" s="99"/>
     </row>
     <row r="36" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="33" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C36" s="34"/>
       <c r="D36" s="34"/>
@@ -11274,19 +11435,19 @@
       <c r="N40" s="35"/>
     </row>
     <row r="41" spans="2:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="95" t="s">
-        <v>162</v>
-      </c>
-      <c r="C41" s="96" t="s">
-        <v>163</v>
-      </c>
-      <c r="D41" s="96"/>
-      <c r="E41" s="73" t="s">
-        <v>164</v>
-      </c>
-      <c r="F41" s="73"/>
-      <c r="G41" s="73"/>
-      <c r="H41" s="73"/>
+      <c r="B41" s="94" t="s">
+        <v>159</v>
+      </c>
+      <c r="C41" s="93" t="s">
+        <v>160</v>
+      </c>
+      <c r="D41" s="93"/>
+      <c r="E41" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="F41" s="78"/>
+      <c r="G41" s="78"/>
+      <c r="H41" s="78"/>
       <c r="I41" s="34"/>
       <c r="J41" s="34"/>
       <c r="K41" s="34"/>
@@ -11295,16 +11456,16 @@
       <c r="N41" s="35"/>
     </row>
     <row r="42" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="95"/>
-      <c r="C42" s="96"/>
-      <c r="D42" s="96"/>
-      <c r="E42" s="73"/>
-      <c r="F42" s="73"/>
-      <c r="G42" s="73"/>
-      <c r="H42" s="73"/>
+      <c r="B42" s="94"/>
+      <c r="C42" s="93"/>
+      <c r="D42" s="93"/>
+      <c r="E42" s="78"/>
+      <c r="F42" s="78"/>
+      <c r="G42" s="78"/>
+      <c r="H42" s="78"/>
       <c r="I42" s="34"/>
       <c r="J42" s="43" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K42" s="30"/>
       <c r="L42" s="30"/>
@@ -11313,16 +11474,16 @@
       <c r="O42" s="25"/>
     </row>
     <row r="43" spans="2:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="95"/>
-      <c r="C43" s="96"/>
-      <c r="D43" s="96"/>
-      <c r="E43" s="73"/>
-      <c r="F43" s="73"/>
-      <c r="G43" s="73"/>
-      <c r="H43" s="73"/>
+      <c r="B43" s="94"/>
+      <c r="C43" s="93"/>
+      <c r="D43" s="93"/>
+      <c r="E43" s="78"/>
+      <c r="F43" s="78"/>
+      <c r="G43" s="78"/>
+      <c r="H43" s="78"/>
       <c r="I43" s="34"/>
       <c r="J43" s="43" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K43" s="30"/>
       <c r="L43" s="30"/>
@@ -11331,22 +11492,22 @@
       <c r="O43" s="25"/>
     </row>
     <row r="44" spans="2:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="95" t="s">
-        <v>167</v>
-      </c>
-      <c r="C44" s="97" t="s">
-        <v>168</v>
-      </c>
-      <c r="D44" s="97"/>
-      <c r="E44" s="73" t="s">
-        <v>169</v>
-      </c>
-      <c r="F44" s="73"/>
-      <c r="G44" s="73"/>
-      <c r="H44" s="73"/>
+      <c r="B44" s="94" t="s">
+        <v>164</v>
+      </c>
+      <c r="C44" s="95" t="s">
+        <v>165</v>
+      </c>
+      <c r="D44" s="95"/>
+      <c r="E44" s="78" t="s">
+        <v>166</v>
+      </c>
+      <c r="F44" s="78"/>
+      <c r="G44" s="78"/>
+      <c r="H44" s="78"/>
       <c r="I44" s="34"/>
       <c r="J44" s="43" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="K44" s="30"/>
       <c r="L44" s="30"/>
@@ -11355,16 +11516,16 @@
       <c r="O44" s="25"/>
     </row>
     <row r="45" spans="2:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="95"/>
-      <c r="C45" s="97"/>
-      <c r="D45" s="97"/>
-      <c r="E45" s="73"/>
-      <c r="F45" s="73"/>
-      <c r="G45" s="73"/>
-      <c r="H45" s="73"/>
+      <c r="B45" s="94"/>
+      <c r="C45" s="95"/>
+      <c r="D45" s="95"/>
+      <c r="E45" s="78"/>
+      <c r="F45" s="78"/>
+      <c r="G45" s="78"/>
+      <c r="H45" s="78"/>
       <c r="I45" s="34"/>
       <c r="J45" s="43" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K45" s="30"/>
       <c r="L45" s="30"/>
@@ -11373,13 +11534,13 @@
       <c r="O45" s="25"/>
     </row>
     <row r="46" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="95"/>
-      <c r="C46" s="97"/>
-      <c r="D46" s="97"/>
-      <c r="E46" s="73"/>
-      <c r="F46" s="73"/>
-      <c r="G46" s="73"/>
-      <c r="H46" s="73"/>
+      <c r="B46" s="94"/>
+      <c r="C46" s="95"/>
+      <c r="D46" s="95"/>
+      <c r="E46" s="78"/>
+      <c r="F46" s="78"/>
+      <c r="G46" s="78"/>
+      <c r="H46" s="78"/>
       <c r="I46" s="34"/>
       <c r="J46" s="34"/>
       <c r="K46" s="34"/>
@@ -11433,17 +11594,17 @@
       <c r="N49" s="35"/>
     </row>
     <row r="50" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="98" t="s">
-        <v>221</v>
-      </c>
-      <c r="C50" s="99"/>
-      <c r="D50" s="96" t="s">
-        <v>172</v>
-      </c>
-      <c r="E50" s="96"/>
-      <c r="F50" s="86"/>
-      <c r="G50" s="86"/>
-      <c r="H50" s="86"/>
+      <c r="B50" s="91" t="s">
+        <v>218</v>
+      </c>
+      <c r="C50" s="92"/>
+      <c r="D50" s="93" t="s">
+        <v>169</v>
+      </c>
+      <c r="E50" s="93"/>
+      <c r="F50" s="90"/>
+      <c r="G50" s="90"/>
+      <c r="H50" s="90"/>
       <c r="I50" s="34"/>
       <c r="J50" s="34"/>
       <c r="K50" s="34"/>
@@ -11452,17 +11613,17 @@
       <c r="N50" s="35"/>
     </row>
     <row r="51" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="98" t="s">
-        <v>222</v>
-      </c>
-      <c r="C51" s="99"/>
-      <c r="D51" s="96" t="s">
-        <v>173</v>
-      </c>
-      <c r="E51" s="96"/>
-      <c r="F51" s="86"/>
-      <c r="G51" s="86"/>
-      <c r="H51" s="86"/>
+      <c r="B51" s="91" t="s">
+        <v>219</v>
+      </c>
+      <c r="C51" s="92"/>
+      <c r="D51" s="93" t="s">
+        <v>170</v>
+      </c>
+      <c r="E51" s="93"/>
+      <c r="F51" s="90"/>
+      <c r="G51" s="90"/>
+      <c r="H51" s="90"/>
       <c r="I51" s="34"/>
       <c r="J51" s="34"/>
       <c r="K51" s="34"/>
@@ -11471,17 +11632,17 @@
       <c r="N51" s="35"/>
     </row>
     <row r="52" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="98" t="s">
-        <v>223</v>
-      </c>
-      <c r="C52" s="99"/>
-      <c r="D52" s="96" t="s">
-        <v>173</v>
-      </c>
-      <c r="E52" s="96"/>
-      <c r="F52" s="86"/>
-      <c r="G52" s="86"/>
-      <c r="H52" s="86"/>
+      <c r="B52" s="91" t="s">
+        <v>220</v>
+      </c>
+      <c r="C52" s="92"/>
+      <c r="D52" s="93" t="s">
+        <v>170</v>
+      </c>
+      <c r="E52" s="93"/>
+      <c r="F52" s="90"/>
+      <c r="G52" s="90"/>
+      <c r="H52" s="90"/>
       <c r="I52" s="34"/>
       <c r="J52" s="34"/>
       <c r="K52" s="34"/>
@@ -11490,18 +11651,18 @@
       <c r="N52" s="35"/>
     </row>
     <row r="53" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="99" t="s">
-        <v>220</v>
-      </c>
-      <c r="C53" s="99"/>
-      <c r="D53" s="96"/>
-      <c r="E53" s="96"/>
-      <c r="F53" s="86"/>
-      <c r="G53" s="86"/>
-      <c r="H53" s="86"/>
+      <c r="B53" s="92" t="s">
+        <v>217</v>
+      </c>
+      <c r="C53" s="92"/>
+      <c r="D53" s="93"/>
+      <c r="E53" s="93"/>
+      <c r="F53" s="90"/>
+      <c r="G53" s="90"/>
+      <c r="H53" s="90"/>
       <c r="I53" s="34"/>
       <c r="J53" s="45" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="K53" s="34"/>
       <c r="L53" s="34"/>
@@ -11509,20 +11670,20 @@
       <c r="N53" s="35"/>
     </row>
     <row r="54" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="98" t="s">
-        <v>224</v>
-      </c>
-      <c r="C54" s="99"/>
-      <c r="D54" s="96"/>
-      <c r="E54" s="96"/>
-      <c r="F54" s="86" t="s">
-        <v>218</v>
-      </c>
-      <c r="G54" s="86"/>
-      <c r="H54" s="86"/>
+      <c r="B54" s="91" t="s">
+        <v>221</v>
+      </c>
+      <c r="C54" s="92"/>
+      <c r="D54" s="93"/>
+      <c r="E54" s="93"/>
+      <c r="F54" s="90" t="s">
+        <v>215</v>
+      </c>
+      <c r="G54" s="90"/>
+      <c r="H54" s="90"/>
       <c r="I54" s="34"/>
       <c r="J54" s="45" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="K54" s="34"/>
       <c r="L54" s="34"/>
@@ -11530,18 +11691,18 @@
       <c r="N54" s="35"/>
     </row>
     <row r="55" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="98" t="s">
-        <v>225</v>
-      </c>
-      <c r="C55" s="99"/>
-      <c r="D55" s="96"/>
-      <c r="E55" s="96"/>
-      <c r="F55" s="86"/>
-      <c r="G55" s="86"/>
-      <c r="H55" s="86"/>
+      <c r="B55" s="91" t="s">
+        <v>222</v>
+      </c>
+      <c r="C55" s="92"/>
+      <c r="D55" s="93"/>
+      <c r="E55" s="93"/>
+      <c r="F55" s="90"/>
+      <c r="G55" s="90"/>
+      <c r="H55" s="90"/>
       <c r="I55" s="34"/>
       <c r="J55" s="45" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K55" s="34"/>
       <c r="L55" s="34"/>
@@ -11549,17 +11710,17 @@
       <c r="N55" s="35"/>
     </row>
     <row r="56" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="98" t="s">
-        <v>226</v>
-      </c>
-      <c r="C56" s="99"/>
-      <c r="D56" s="96"/>
-      <c r="E56" s="96"/>
-      <c r="F56" s="86" t="s">
-        <v>219</v>
-      </c>
-      <c r="G56" s="86"/>
-      <c r="H56" s="86"/>
+      <c r="B56" s="91" t="s">
+        <v>223</v>
+      </c>
+      <c r="C56" s="92"/>
+      <c r="D56" s="93"/>
+      <c r="E56" s="93"/>
+      <c r="F56" s="90" t="s">
+        <v>216</v>
+      </c>
+      <c r="G56" s="90"/>
+      <c r="H56" s="90"/>
       <c r="I56" s="34"/>
       <c r="J56" s="34"/>
       <c r="K56" s="34"/>
@@ -11569,7 +11730,7 @@
     </row>
     <row r="57" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="44" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C57" s="34"/>
       <c r="D57" s="34"/>
@@ -12113,33 +12274,26 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="F54:H54"/>
-    <mergeCell ref="F55:H55"/>
-    <mergeCell ref="F56:H56"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="F53:H53"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C41:D43"/>
-    <mergeCell ref="E41:H43"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="C44:D46"/>
-    <mergeCell ref="E44:H46"/>
+    <mergeCell ref="C25:J30"/>
+    <mergeCell ref="K25:O30"/>
+    <mergeCell ref="P25:Q30"/>
+    <mergeCell ref="P14:Q16"/>
+    <mergeCell ref="P17:Q19"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="P20:Q24"/>
+    <mergeCell ref="K20:O20"/>
+    <mergeCell ref="K22:O22"/>
+    <mergeCell ref="K24:O24"/>
+    <mergeCell ref="B3:O10"/>
+    <mergeCell ref="C14:J16"/>
+    <mergeCell ref="C17:J19"/>
+    <mergeCell ref="K17:O19"/>
+    <mergeCell ref="K14:O16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B13:D13"/>
     <mergeCell ref="C32:J35"/>
     <mergeCell ref="K32:O35"/>
     <mergeCell ref="P32:Q35"/>
@@ -12156,26 +12310,33 @@
     <mergeCell ref="C31:J31"/>
     <mergeCell ref="K31:O31"/>
     <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="B3:O10"/>
-    <mergeCell ref="C14:J16"/>
-    <mergeCell ref="C17:J19"/>
-    <mergeCell ref="K17:O19"/>
-    <mergeCell ref="K14:O16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="C25:J30"/>
-    <mergeCell ref="K25:O30"/>
-    <mergeCell ref="P25:Q30"/>
-    <mergeCell ref="P14:Q16"/>
-    <mergeCell ref="P17:Q19"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="P20:Q24"/>
-    <mergeCell ref="K20:O20"/>
-    <mergeCell ref="K22:O22"/>
-    <mergeCell ref="K24:O24"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C41:D43"/>
+    <mergeCell ref="E41:H43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C44:D46"/>
+    <mergeCell ref="E44:H46"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="F53:H53"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12194,87 +12355,87 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B3" s="45" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B4" s="45" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B5" s="46" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B12" s="29" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B13" s="29" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B14" s="45" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="29" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" s="29" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C24" s="47" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C25" s="47" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B27" s="29" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C27" s="47" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B28" s="29" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C28" s="47" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B29" s="29" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C29" s="47" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B30" s="29" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C30" s="47" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>

--- a/日语.xlsx
+++ b/日语.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="24880" windowHeight="15560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="24880" windowHeight="15560" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="动词形态" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="265">
   <si>
     <t>三类动词</t>
     <rPh sb="0" eb="1">
@@ -571,82 +571,6 @@
   </si>
   <si>
     <t>な形容词词干 + ではなかった</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>い形容词词干 + でした</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">い形容词词干 + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian (正文)"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ではありません</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-〜　+ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian (正文)"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ではないです</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">い形容词词干 + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian (正文)"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ではありませんでした</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-〜 + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="DengXian (正文)"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ではなかったです</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -7814,6 +7738,89 @@
     <rPh sb="0" eb="1">
       <t>ci wei</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>な形容词敬体形</t>
+    <rPh sb="1" eb="2">
+      <t>xing rong ci</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">な形容词词干 + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ではありません</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+〜　+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ではないです</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">な形容词词干 + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ではありませんでした</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+〜 + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ではなかったです</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>な形容词词干 + でした</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8383,15 +8390,19 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8404,14 +8415,35 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8422,64 +8454,34 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8503,44 +8505,47 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8551,28 +8556,30 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -8856,7 +8863,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -8872,17 +8879,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.3">
-      <c r="B1" s="111" t="s">
-        <v>262</v>
+      <c r="B1" s="52" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>0</v>
@@ -8917,7 +8924,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>8</v>
@@ -8933,19 +8940,19 @@
         <v>6</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="64" customHeight="1" x14ac:dyDescent="0.2">
@@ -8953,7 +8960,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>11</v>
@@ -8965,7 +8972,7 @@
         <v>11</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="70" customHeight="1" x14ac:dyDescent="0.2">
@@ -8973,13 +8980,13 @@
         <v>21</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>12</v>
@@ -8990,152 +8997,152 @@
     </row>
     <row r="8" spans="1:6" ht="88" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="18" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="83" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D9" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>109</v>
-      </c>
       <c r="F9" s="20" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="83" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F10" s="20"/>
     </row>
     <row r="11" spans="1:6" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="F11" s="12"/>
     </row>
     <row r="12" spans="1:6" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>99</v>
-      </c>
       <c r="F13" s="12" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="E14" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>132</v>
-      </c>
       <c r="F14" s="12"/>
     </row>
-    <row r="15" spans="1:6" s="110" customFormat="1" ht="89" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="107" t="s">
+    <row r="15" spans="1:6" s="51" customFormat="1" ht="89" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="108" t="s">
-        <v>257</v>
-      </c>
-      <c r="C15" s="108" t="s">
-        <v>258</v>
-      </c>
-      <c r="D15" s="108" t="s">
-        <v>259</v>
-      </c>
-      <c r="E15" s="108" t="s">
+      <c r="B15" s="49" t="s">
+        <v>254</v>
+      </c>
+      <c r="C15" s="49" t="s">
+        <v>255</v>
+      </c>
+      <c r="D15" s="49" t="s">
+        <v>256</v>
+      </c>
+      <c r="E15" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="109" t="s">
-        <v>74</v>
+      <c r="F15" s="50" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -9163,7 +9170,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="18" x14ac:dyDescent="0.2">
@@ -9176,7 +9183,7 @@
     </row>
     <row r="5" spans="2:8" ht="18" x14ac:dyDescent="0.2">
       <c r="B5" s="26" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>16</v>
@@ -9184,13 +9191,13 @@
     </row>
     <row r="6" spans="2:8" ht="18" x14ac:dyDescent="0.2">
       <c r="B6" s="28" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C6" s="28"/>
     </row>
     <row r="9" spans="2:8" ht="19" x14ac:dyDescent="0.25">
       <c r="B9" s="21" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -9200,7 +9207,7 @@
     </row>
     <row r="10" spans="2:8" ht="18" x14ac:dyDescent="0.2">
       <c r="B10" s="31" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -9210,24 +9217,24 @@
     </row>
     <row r="11" spans="2:8" ht="18" x14ac:dyDescent="0.2">
       <c r="B11" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="C11" s="53" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" s="54"/>
+        <v>137</v>
+      </c>
+      <c r="C11" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="56"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
     </row>
     <row r="12" spans="2:8" ht="18" x14ac:dyDescent="0.2">
       <c r="B12" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="C12" s="51" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" s="52"/>
+        <v>138</v>
+      </c>
+      <c r="C12" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="54"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
@@ -9236,84 +9243,79 @@
       <c r="B15" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49" t="s">
-        <v>143</v>
-      </c>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
+      <c r="C15" s="57" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57" t="s">
+        <v>140</v>
+      </c>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
     </row>
     <row r="16" spans="2:8" ht="18" x14ac:dyDescent="0.2">
       <c r="B16" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="48" t="s">
-        <v>147</v>
-      </c>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="50" t="s">
-        <v>151</v>
-      </c>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
+      <c r="C16" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="59" t="s">
+        <v>148</v>
+      </c>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
     </row>
     <row r="17" spans="2:8" ht="18" x14ac:dyDescent="0.2">
       <c r="B17" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="48" t="s">
-        <v>148</v>
-      </c>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="50" t="s">
-        <v>152</v>
-      </c>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
+      <c r="C17" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="59" t="s">
+        <v>149</v>
+      </c>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
     </row>
     <row r="18" spans="2:8" ht="18" x14ac:dyDescent="0.2">
       <c r="B18" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="50" t="s">
-        <v>153</v>
-      </c>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
+      <c r="C18" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="59" t="s">
+        <v>150</v>
+      </c>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
     </row>
     <row r="19" spans="2:8" ht="18" x14ac:dyDescent="0.2">
       <c r="B19" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="48" t="s">
-        <v>150</v>
-      </c>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="50" t="s">
-        <v>154</v>
-      </c>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
+      <c r="C19" s="58" t="s">
+        <v>147</v>
+      </c>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="59" t="s">
+        <v>151</v>
+      </c>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="F16:H16"/>
@@ -9321,6 +9323,11 @@
     <mergeCell ref="F18:H18"/>
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9331,17 +9338,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M51"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40:J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="3" spans="1:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="66"/>
+      <c r="C3" s="63"/>
     </row>
     <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
@@ -9357,33 +9364,33 @@
     </row>
     <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
-      <c r="B6" s="68"/>
-      <c r="C6" s="57" t="s">
+      <c r="B6" s="62"/>
+      <c r="C6" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57" t="s">
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
     </row>
@@ -9392,16 +9399,16 @@
       <c r="B7" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
     </row>
@@ -9410,16 +9417,16 @@
       <c r="B8" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="61" t="s">
+      <c r="C8" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61" t="s">
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
     </row>
@@ -9449,83 +9456,83 @@
     </row>
     <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="56" t="s">
+      <c r="C11" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
     </row>
     <row r="12" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="57" t="s">
+      <c r="B12" s="66"/>
+      <c r="C12" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="58" t="s">
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="60"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="69"/>
     </row>
     <row r="13" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="61" t="s">
+      <c r="C13" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61" t="s">
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
     </row>
     <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
-      <c r="B14" s="63" t="s">
+      <c r="B14" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="65" t="s">
+      <c r="C14" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="65" t="s">
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
     </row>
     <row r="15" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
     </row>
     <row r="16" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
@@ -9542,16 +9549,16 @@
     <row r="17" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17" s="69" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
+        <v>88</v>
+      </c>
+      <c r="C17" s="72" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -9572,17 +9579,17 @@
     <row r="19" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
       <c r="B19" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="C19" s="61" t="s">
-        <v>94</v>
-      </c>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
+        <v>92</v>
+      </c>
+      <c r="C19" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
       <c r="J19" s="8"/>
     </row>
     <row r="20" spans="1:10" ht="18" x14ac:dyDescent="0.2">
@@ -9609,13 +9616,13 @@
     </row>
     <row r="23" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B23" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B24" s="8"/>
       <c r="C24" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -9625,7 +9632,7 @@
     <row r="25" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B25" s="8"/>
       <c r="C25" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -9638,14 +9645,14 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="B29" s="66" t="s">
+      <c r="B29" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="66"/>
+      <c r="C29" s="63"/>
     </row>
     <row r="30" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B30" s="8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -9653,36 +9660,36 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="67" t="s">
+      <c r="B32" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="56" t="s">
+      <c r="C32" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="56"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="64"/>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
     </row>
     <row r="33" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="68"/>
-      <c r="C33" s="57" t="s">
+      <c r="B33" s="62"/>
+      <c r="C33" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57" t="s">
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="65"/>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
     </row>
@@ -9690,16 +9697,16 @@
       <c r="B34" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="61" t="s">
+      <c r="C34" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61" t="s">
+      <c r="D34" s="60"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="G34" s="61"/>
-      <c r="H34" s="61"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="60"/>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
     </row>
@@ -9707,16 +9714,16 @@
       <c r="B35" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="61" t="s">
+      <c r="C35" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61" t="s">
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
     </row>
@@ -9743,81 +9750,81 @@
       <c r="J37" s="8"/>
     </row>
     <row r="38" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="C38" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="D38" s="56"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="56"/>
-      <c r="G38" s="56"/>
-      <c r="H38" s="56"/>
-      <c r="I38" s="56"/>
-      <c r="J38" s="56"/>
+      <c r="B38" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="64" t="s">
+        <v>261</v>
+      </c>
+      <c r="D38" s="64"/>
+      <c r="E38" s="64"/>
+      <c r="F38" s="64"/>
+      <c r="G38" s="64"/>
+      <c r="H38" s="64"/>
+      <c r="I38" s="64"/>
+      <c r="J38" s="64"/>
     </row>
     <row r="39" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="55"/>
-      <c r="C39" s="57" t="s">
+      <c r="B39" s="66"/>
+      <c r="C39" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="D39" s="57"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="58" t="s">
+      <c r="D39" s="65"/>
+      <c r="E39" s="65"/>
+      <c r="F39" s="65"/>
+      <c r="G39" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="H39" s="59"/>
-      <c r="I39" s="59"/>
-      <c r="J39" s="60"/>
+      <c r="H39" s="68"/>
+      <c r="I39" s="68"/>
+      <c r="J39" s="69"/>
     </row>
     <row r="40" spans="2:13" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="62" t="s">
+      <c r="C40" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="D40" s="62"/>
-      <c r="E40" s="62"/>
-      <c r="F40" s="62"/>
-      <c r="G40" s="62" t="s">
-        <v>54</v>
-      </c>
-      <c r="H40" s="62"/>
-      <c r="I40" s="62"/>
-      <c r="J40" s="62"/>
+      <c r="D40" s="73"/>
+      <c r="E40" s="73"/>
+      <c r="F40" s="73"/>
+      <c r="G40" s="73" t="s">
+        <v>264</v>
+      </c>
+      <c r="H40" s="73"/>
+      <c r="I40" s="73"/>
+      <c r="J40" s="73"/>
     </row>
     <row r="41" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="63" t="s">
+      <c r="B41" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="C41" s="64" t="s">
+      <c r="C41" s="74" t="s">
+        <v>262</v>
+      </c>
+      <c r="D41" s="73"/>
+      <c r="E41" s="73"/>
+      <c r="F41" s="73"/>
+      <c r="G41" s="74" t="s">
+        <v>263</v>
+      </c>
+      <c r="H41" s="73"/>
+      <c r="I41" s="73"/>
+      <c r="J41" s="73"/>
+    </row>
+    <row r="42" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="70"/>
+      <c r="C42" s="73"/>
+      <c r="D42" s="73"/>
+      <c r="E42" s="73"/>
+      <c r="F42" s="73"/>
+      <c r="G42" s="73"/>
+      <c r="H42" s="73"/>
+      <c r="I42" s="73"/>
+      <c r="J42" s="73"/>
+      <c r="K42" t="s">
         <v>55</v>
-      </c>
-      <c r="D41" s="62"/>
-      <c r="E41" s="62"/>
-      <c r="F41" s="62"/>
-      <c r="G41" s="64" t="s">
-        <v>56</v>
-      </c>
-      <c r="H41" s="62"/>
-      <c r="I41" s="62"/>
-      <c r="J41" s="62"/>
-    </row>
-    <row r="42" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="63"/>
-      <c r="C42" s="62"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="62"/>
-      <c r="F42" s="62"/>
-      <c r="G42" s="62"/>
-      <c r="H42" s="62"/>
-      <c r="I42" s="62"/>
-      <c r="J42" s="62"/>
-      <c r="K42" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="44" spans="2:13" ht="18" x14ac:dyDescent="0.2">
@@ -9827,12 +9834,12 @@
     </row>
     <row r="45" spans="2:13" ht="18" x14ac:dyDescent="0.2">
       <c r="B45" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="2:13" ht="18" x14ac:dyDescent="0.2">
       <c r="B46" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
@@ -9849,25 +9856,25 @@
     <row r="47" spans="2:13" ht="18" x14ac:dyDescent="0.2">
       <c r="B47" s="8"/>
       <c r="C47" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D47" s="8"/>
     </row>
     <row r="48" spans="2:13" ht="18" x14ac:dyDescent="0.2">
       <c r="B48" s="8"/>
       <c r="C48" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D48" s="8"/>
     </row>
     <row r="49" spans="2:3" ht="18" x14ac:dyDescent="0.2">
       <c r="B49" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="2:3" ht="18" x14ac:dyDescent="0.2">
       <c r="C50" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="2:3" ht="18" x14ac:dyDescent="0.2">
@@ -9875,21 +9882,19 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:F42"/>
+    <mergeCell ref="G41:J42"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:F15"/>
     <mergeCell ref="G14:J15"/>
@@ -9900,19 +9905,21 @@
     <mergeCell ref="F33:H33"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="C19:I19"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:F42"/>
-    <mergeCell ref="G41:J42"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:H7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9933,397 +9940,397 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="88" t="s">
-        <v>212</v>
-      </c>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
+      <c r="B1" s="75" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
       <c r="I1" s="36"/>
     </row>
     <row r="2" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
       <c r="I2" s="36"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" s="30" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="88" t="s">
-        <v>213</v>
-      </c>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
+      <c r="B6" s="75" t="s">
+        <v>210</v>
+      </c>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="88"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" s="30" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" s="30" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" s="30" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" s="30" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12" s="30" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13" s="30" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="30" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" s="30" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B16" s="30" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B17" s="30" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B18" s="30" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="J20" s="88" t="s">
+        <v>181</v>
+      </c>
+      <c r="K20" s="88"/>
+      <c r="L20" s="88"/>
+      <c r="M20" s="88"/>
+      <c r="N20" s="88"/>
+      <c r="O20" s="88"/>
+      <c r="P20" s="88"/>
+      <c r="Q20" s="88"/>
+      <c r="R20" s="88"/>
+      <c r="S20" s="88"/>
+      <c r="T20" s="88"/>
+    </row>
+    <row r="21" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="94" t="s">
+        <v>182</v>
+      </c>
+      <c r="C21" s="79" t="s">
         <v>183</v>
       </c>
-      <c r="J20" s="72" t="s">
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="93" t="s">
         <v>184</v>
       </c>
-      <c r="K20" s="72"/>
-      <c r="L20" s="72"/>
-      <c r="M20" s="72"/>
-      <c r="N20" s="72"/>
-      <c r="O20" s="72"/>
-      <c r="P20" s="72"/>
-      <c r="Q20" s="72"/>
-      <c r="R20" s="72"/>
-      <c r="S20" s="72"/>
-      <c r="T20" s="72"/>
-    </row>
-    <row r="21" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="80" t="s">
+      <c r="K21" s="77" t="s">
+        <v>253</v>
+      </c>
+      <c r="L21" s="78"/>
+      <c r="M21" s="78"/>
+      <c r="N21" s="78"/>
+      <c r="O21" s="78"/>
+      <c r="P21" s="78"/>
+      <c r="Q21" s="76"/>
+      <c r="R21" s="76"/>
+      <c r="S21" s="76"/>
+      <c r="T21" s="76"/>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B22" s="94"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="93"/>
+      <c r="K22" s="78"/>
+      <c r="L22" s="78"/>
+      <c r="M22" s="78"/>
+      <c r="N22" s="78"/>
+      <c r="O22" s="78"/>
+      <c r="P22" s="78"/>
+      <c r="Q22" s="76"/>
+      <c r="R22" s="76"/>
+      <c r="S22" s="76"/>
+      <c r="T22" s="76"/>
+    </row>
+    <row r="23" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="94"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="79"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="93"/>
+      <c r="K23" s="78"/>
+      <c r="L23" s="78"/>
+      <c r="M23" s="78"/>
+      <c r="N23" s="78"/>
+      <c r="O23" s="78"/>
+      <c r="P23" s="78"/>
+      <c r="Q23" s="76"/>
+      <c r="R23" s="76"/>
+      <c r="S23" s="76"/>
+      <c r="T23" s="76"/>
+    </row>
+    <row r="24" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="91" t="s">
         <v>185</v>
       </c>
-      <c r="C21" s="78" t="s">
+      <c r="C24" s="79" t="s">
         <v>186</v>
       </c>
-      <c r="D21" s="78"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="78"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="79" t="s">
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="91" t="s">
         <v>187</v>
       </c>
-      <c r="K21" s="89" t="s">
-        <v>256</v>
-      </c>
-      <c r="L21" s="75"/>
-      <c r="M21" s="75"/>
-      <c r="N21" s="75"/>
-      <c r="O21" s="75"/>
-      <c r="P21" s="75"/>
-      <c r="Q21" s="71"/>
-      <c r="R21" s="71"/>
-      <c r="S21" s="71"/>
-      <c r="T21" s="71"/>
-    </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B22" s="80"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="78"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="79"/>
-      <c r="K22" s="75"/>
-      <c r="L22" s="75"/>
-      <c r="M22" s="75"/>
-      <c r="N22" s="75"/>
-      <c r="O22" s="75"/>
-      <c r="P22" s="75"/>
-      <c r="Q22" s="71"/>
-      <c r="R22" s="71"/>
-      <c r="S22" s="71"/>
-      <c r="T22" s="71"/>
-    </row>
-    <row r="23" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="80"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="78"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="79"/>
-      <c r="K23" s="75"/>
-      <c r="L23" s="75"/>
-      <c r="M23" s="75"/>
-      <c r="N23" s="75"/>
-      <c r="O23" s="75"/>
-      <c r="P23" s="75"/>
-      <c r="Q23" s="71"/>
-      <c r="R23" s="71"/>
-      <c r="S23" s="71"/>
-      <c r="T23" s="71"/>
-    </row>
-    <row r="24" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="76" t="s">
+      <c r="K24" s="78" t="s">
         <v>188</v>
       </c>
-      <c r="C24" s="78" t="s">
+      <c r="L24" s="78"/>
+      <c r="M24" s="78"/>
+      <c r="N24" s="78"/>
+      <c r="O24" s="78"/>
+      <c r="P24" s="78"/>
+      <c r="Q24" s="76" t="s">
         <v>189</v>
       </c>
-      <c r="D24" s="78"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="78"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="76" t="s">
+      <c r="R24" s="76"/>
+      <c r="S24" s="76"/>
+      <c r="T24" s="76"/>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B25" s="91"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="79"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="91"/>
+      <c r="K25" s="78"/>
+      <c r="L25" s="78"/>
+      <c r="M25" s="78"/>
+      <c r="N25" s="78"/>
+      <c r="O25" s="78"/>
+      <c r="P25" s="78"/>
+      <c r="Q25" s="76"/>
+      <c r="R25" s="76"/>
+      <c r="S25" s="76"/>
+      <c r="T25" s="76"/>
+    </row>
+    <row r="26" spans="2:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="91"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="79"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="91"/>
+      <c r="K26" s="78"/>
+      <c r="L26" s="78"/>
+      <c r="M26" s="78"/>
+      <c r="N26" s="78"/>
+      <c r="O26" s="78"/>
+      <c r="P26" s="78"/>
+      <c r="Q26" s="76"/>
+      <c r="R26" s="76"/>
+      <c r="S26" s="76"/>
+      <c r="T26" s="76"/>
+    </row>
+    <row r="27" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="80" t="s">
         <v>190</v>
       </c>
-      <c r="K24" s="75" t="s">
+      <c r="C27" s="79" t="s">
         <v>191</v>
       </c>
-      <c r="L24" s="75"/>
-      <c r="M24" s="75"/>
-      <c r="N24" s="75"/>
-      <c r="O24" s="75"/>
-      <c r="P24" s="75"/>
-      <c r="Q24" s="71" t="s">
+      <c r="D27" s="79"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="79"/>
+      <c r="H27" s="79"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="91" t="s">
         <v>192</v>
       </c>
-      <c r="R24" s="71"/>
-      <c r="S24" s="71"/>
-      <c r="T24" s="71"/>
-    </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B25" s="76"/>
-      <c r="C25" s="78"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="78"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="78"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="76"/>
-      <c r="K25" s="75"/>
-      <c r="L25" s="75"/>
-      <c r="M25" s="75"/>
-      <c r="N25" s="75"/>
-      <c r="O25" s="75"/>
-      <c r="P25" s="75"/>
-      <c r="Q25" s="71"/>
-      <c r="R25" s="71"/>
-      <c r="S25" s="71"/>
-      <c r="T25" s="71"/>
-    </row>
-    <row r="26" spans="2:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="76"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="78"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="75"/>
-      <c r="L26" s="75"/>
-      <c r="M26" s="75"/>
-      <c r="N26" s="75"/>
-      <c r="O26" s="75"/>
-      <c r="P26" s="75"/>
-      <c r="Q26" s="71"/>
-      <c r="R26" s="71"/>
-      <c r="S26" s="71"/>
-      <c r="T26" s="71"/>
-    </row>
-    <row r="27" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="81" t="s">
+      <c r="K27" s="78" t="s">
         <v>193</v>
       </c>
-      <c r="C27" s="78" t="s">
+      <c r="L27" s="78"/>
+      <c r="M27" s="78"/>
+      <c r="N27" s="78"/>
+      <c r="O27" s="78"/>
+      <c r="P27" s="78"/>
+      <c r="Q27" s="79" t="s">
         <v>194</v>
       </c>
-      <c r="D27" s="78"/>
-      <c r="E27" s="78"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="78"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="76" t="s">
+      <c r="R27" s="79"/>
+      <c r="S27" s="79"/>
+      <c r="T27" s="79"/>
+    </row>
+    <row r="28" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="80"/>
+      <c r="C28" s="79"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="79"/>
+      <c r="G28" s="79"/>
+      <c r="H28" s="79"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="91"/>
+      <c r="K28" s="78"/>
+      <c r="L28" s="78"/>
+      <c r="M28" s="78"/>
+      <c r="N28" s="78"/>
+      <c r="O28" s="78"/>
+      <c r="P28" s="78"/>
+      <c r="Q28" s="79"/>
+      <c r="R28" s="79"/>
+      <c r="S28" s="79"/>
+      <c r="T28" s="79"/>
+    </row>
+    <row r="29" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="80" t="s">
         <v>195</v>
       </c>
-      <c r="K27" s="75" t="s">
+      <c r="C29" s="81" t="s">
         <v>196</v>
       </c>
-      <c r="L27" s="75"/>
-      <c r="M27" s="75"/>
-      <c r="N27" s="75"/>
-      <c r="O27" s="75"/>
-      <c r="P27" s="75"/>
-      <c r="Q27" s="78" t="s">
+      <c r="D29" s="82"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="82"/>
+      <c r="G29" s="82"/>
+      <c r="H29" s="83"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="91"/>
+      <c r="K29" s="78"/>
+      <c r="L29" s="78"/>
+      <c r="M29" s="78"/>
+      <c r="N29" s="78"/>
+      <c r="O29" s="78"/>
+      <c r="P29" s="78"/>
+      <c r="Q29" s="79"/>
+      <c r="R29" s="79"/>
+      <c r="S29" s="79"/>
+      <c r="T29" s="79"/>
+    </row>
+    <row r="30" spans="2:20" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="80"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="85"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="86"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="91"/>
+      <c r="K30" s="78"/>
+      <c r="L30" s="78"/>
+      <c r="M30" s="78"/>
+      <c r="N30" s="78"/>
+      <c r="O30" s="78"/>
+      <c r="P30" s="78"/>
+      <c r="Q30" s="79"/>
+      <c r="R30" s="79"/>
+      <c r="S30" s="79"/>
+      <c r="T30" s="79"/>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="J31" s="91"/>
+      <c r="K31" s="78"/>
+      <c r="L31" s="78"/>
+      <c r="M31" s="78"/>
+      <c r="N31" s="78"/>
+      <c r="O31" s="78"/>
+      <c r="P31" s="78"/>
+      <c r="Q31" s="79"/>
+      <c r="R31" s="79"/>
+      <c r="S31" s="79"/>
+      <c r="T31" s="79"/>
+    </row>
+    <row r="32" spans="2:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J32" s="91" t="s">
         <v>197</v>
       </c>
-      <c r="R27" s="78"/>
-      <c r="S27" s="78"/>
-      <c r="T27" s="78"/>
-    </row>
-    <row r="28" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="81"/>
-      <c r="C28" s="78"/>
-      <c r="D28" s="78"/>
-      <c r="E28" s="78"/>
-      <c r="F28" s="78"/>
-      <c r="G28" s="78"/>
-      <c r="H28" s="78"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="76"/>
-      <c r="K28" s="75"/>
-      <c r="L28" s="75"/>
-      <c r="M28" s="75"/>
-      <c r="N28" s="75"/>
-      <c r="O28" s="75"/>
-      <c r="P28" s="75"/>
-      <c r="Q28" s="78"/>
-      <c r="R28" s="78"/>
-      <c r="S28" s="78"/>
-      <c r="T28" s="78"/>
-    </row>
-    <row r="29" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="81" t="s">
+      <c r="K32" s="78" t="s">
         <v>198</v>
       </c>
-      <c r="C29" s="82" t="s">
-        <v>199</v>
-      </c>
-      <c r="D29" s="83"/>
-      <c r="E29" s="83"/>
-      <c r="F29" s="83"/>
-      <c r="G29" s="83"/>
-      <c r="H29" s="84"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="76"/>
-      <c r="K29" s="75"/>
-      <c r="L29" s="75"/>
-      <c r="M29" s="75"/>
-      <c r="N29" s="75"/>
-      <c r="O29" s="75"/>
-      <c r="P29" s="75"/>
-      <c r="Q29" s="78"/>
-      <c r="R29" s="78"/>
-      <c r="S29" s="78"/>
-      <c r="T29" s="78"/>
-    </row>
-    <row r="30" spans="2:20" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="81"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="86"/>
-      <c r="E30" s="86"/>
-      <c r="F30" s="86"/>
-      <c r="G30" s="86"/>
-      <c r="H30" s="87"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="76"/>
-      <c r="K30" s="75"/>
-      <c r="L30" s="75"/>
-      <c r="M30" s="75"/>
-      <c r="N30" s="75"/>
-      <c r="O30" s="75"/>
-      <c r="P30" s="75"/>
-      <c r="Q30" s="78"/>
-      <c r="R30" s="78"/>
-      <c r="S30" s="78"/>
-      <c r="T30" s="78"/>
-    </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="J31" s="76"/>
-      <c r="K31" s="75"/>
-      <c r="L31" s="75"/>
-      <c r="M31" s="75"/>
-      <c r="N31" s="75"/>
-      <c r="O31" s="75"/>
-      <c r="P31" s="75"/>
-      <c r="Q31" s="78"/>
-      <c r="R31" s="78"/>
-      <c r="S31" s="78"/>
-      <c r="T31" s="78"/>
-    </row>
-    <row r="32" spans="2:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J32" s="76" t="s">
-        <v>200</v>
-      </c>
-      <c r="K32" s="75" t="s">
-        <v>201</v>
-      </c>
-      <c r="L32" s="75"/>
-      <c r="M32" s="75"/>
-      <c r="N32" s="75"/>
-      <c r="O32" s="75"/>
-      <c r="P32" s="75"/>
-      <c r="Q32" s="71"/>
-      <c r="R32" s="71"/>
-      <c r="S32" s="71"/>
-      <c r="T32" s="71"/>
+      <c r="L32" s="78"/>
+      <c r="M32" s="78"/>
+      <c r="N32" s="78"/>
+      <c r="O32" s="78"/>
+      <c r="P32" s="78"/>
+      <c r="Q32" s="76"/>
+      <c r="R32" s="76"/>
+      <c r="S32" s="76"/>
+      <c r="T32" s="76"/>
     </row>
     <row r="33" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="39" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C33" s="39"/>
       <c r="D33" s="39"/>
@@ -10332,112 +10339,112 @@
       <c r="G33" s="39"/>
       <c r="H33" s="39"/>
       <c r="I33" s="39"/>
-      <c r="J33" s="76"/>
-      <c r="K33" s="75"/>
-      <c r="L33" s="75"/>
-      <c r="M33" s="75"/>
-      <c r="N33" s="75"/>
-      <c r="O33" s="75"/>
-      <c r="P33" s="75"/>
-      <c r="Q33" s="71"/>
-      <c r="R33" s="71"/>
-      <c r="S33" s="71"/>
-      <c r="T33" s="71"/>
+      <c r="J33" s="91"/>
+      <c r="K33" s="78"/>
+      <c r="L33" s="78"/>
+      <c r="M33" s="78"/>
+      <c r="N33" s="78"/>
+      <c r="O33" s="78"/>
+      <c r="P33" s="78"/>
+      <c r="Q33" s="76"/>
+      <c r="R33" s="76"/>
+      <c r="S33" s="76"/>
+      <c r="T33" s="76"/>
     </row>
     <row r="34" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="77" t="s">
-        <v>203</v>
-      </c>
-      <c r="C34" s="77"/>
-      <c r="D34" s="77"/>
-      <c r="E34" s="77"/>
-      <c r="F34" s="77"/>
-      <c r="G34" s="77"/>
-      <c r="H34" s="77"/>
+      <c r="B34" s="92" t="s">
+        <v>200</v>
+      </c>
+      <c r="C34" s="92"/>
+      <c r="D34" s="92"/>
+      <c r="E34" s="92"/>
+      <c r="F34" s="92"/>
+      <c r="G34" s="92"/>
+      <c r="H34" s="92"/>
       <c r="I34" s="39"/>
-      <c r="J34" s="76"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="75"/>
-      <c r="M34" s="75"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="75"/>
-      <c r="P34" s="75"/>
-      <c r="Q34" s="71"/>
-      <c r="R34" s="71"/>
-      <c r="S34" s="71"/>
-      <c r="T34" s="71"/>
+      <c r="J34" s="91"/>
+      <c r="K34" s="78"/>
+      <c r="L34" s="78"/>
+      <c r="M34" s="78"/>
+      <c r="N34" s="78"/>
+      <c r="O34" s="78"/>
+      <c r="P34" s="78"/>
+      <c r="Q34" s="76"/>
+      <c r="R34" s="76"/>
+      <c r="S34" s="76"/>
+      <c r="T34" s="76"/>
     </row>
     <row r="35" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="77"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="77"/>
+      <c r="B35" s="92"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="92"/>
+      <c r="F35" s="92"/>
+      <c r="G35" s="92"/>
+      <c r="H35" s="92"/>
       <c r="I35" s="39"/>
-      <c r="J35" s="76"/>
-      <c r="K35" s="75"/>
-      <c r="L35" s="75"/>
-      <c r="M35" s="75"/>
-      <c r="N35" s="75"/>
-      <c r="O35" s="75"/>
-      <c r="P35" s="75"/>
-      <c r="Q35" s="71"/>
-      <c r="R35" s="71"/>
-      <c r="S35" s="71"/>
-      <c r="T35" s="71"/>
+      <c r="J35" s="91"/>
+      <c r="K35" s="78"/>
+      <c r="L35" s="78"/>
+      <c r="M35" s="78"/>
+      <c r="N35" s="78"/>
+      <c r="O35" s="78"/>
+      <c r="P35" s="78"/>
+      <c r="Q35" s="76"/>
+      <c r="R35" s="76"/>
+      <c r="S35" s="76"/>
+      <c r="T35" s="76"/>
     </row>
     <row r="36" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="77"/>
-      <c r="C36" s="77"/>
-      <c r="D36" s="77"/>
-      <c r="E36" s="77"/>
-      <c r="F36" s="77"/>
-      <c r="G36" s="77"/>
-      <c r="H36" s="77"/>
+      <c r="B36" s="92"/>
+      <c r="C36" s="92"/>
+      <c r="D36" s="92"/>
+      <c r="E36" s="92"/>
+      <c r="F36" s="92"/>
+      <c r="G36" s="92"/>
+      <c r="H36" s="92"/>
       <c r="I36" s="39"/>
-      <c r="J36" s="76"/>
-      <c r="K36" s="75"/>
-      <c r="L36" s="75"/>
-      <c r="M36" s="75"/>
-      <c r="N36" s="75"/>
-      <c r="O36" s="75"/>
-      <c r="P36" s="75"/>
-      <c r="Q36" s="71"/>
-      <c r="R36" s="71"/>
-      <c r="S36" s="71"/>
-      <c r="T36" s="71"/>
+      <c r="J36" s="91"/>
+      <c r="K36" s="78"/>
+      <c r="L36" s="78"/>
+      <c r="M36" s="78"/>
+      <c r="N36" s="78"/>
+      <c r="O36" s="78"/>
+      <c r="P36" s="78"/>
+      <c r="Q36" s="76"/>
+      <c r="R36" s="76"/>
+      <c r="S36" s="76"/>
+      <c r="T36" s="76"/>
     </row>
     <row r="37" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="77"/>
-      <c r="C37" s="77"/>
-      <c r="D37" s="77"/>
-      <c r="E37" s="77"/>
-      <c r="F37" s="77"/>
-      <c r="G37" s="77"/>
-      <c r="H37" s="77"/>
+      <c r="B37" s="92"/>
+      <c r="C37" s="92"/>
+      <c r="D37" s="92"/>
+      <c r="E37" s="92"/>
+      <c r="F37" s="92"/>
+      <c r="G37" s="92"/>
+      <c r="H37" s="92"/>
       <c r="I37" s="39"/>
-      <c r="J37" s="76"/>
-      <c r="K37" s="75"/>
-      <c r="L37" s="75"/>
-      <c r="M37" s="75"/>
-      <c r="N37" s="75"/>
-      <c r="O37" s="75"/>
-      <c r="P37" s="75"/>
-      <c r="Q37" s="71"/>
-      <c r="R37" s="71"/>
-      <c r="S37" s="71"/>
-      <c r="T37" s="71"/>
+      <c r="J37" s="91"/>
+      <c r="K37" s="78"/>
+      <c r="L37" s="78"/>
+      <c r="M37" s="78"/>
+      <c r="N37" s="78"/>
+      <c r="O37" s="78"/>
+      <c r="P37" s="78"/>
+      <c r="Q37" s="76"/>
+      <c r="R37" s="76"/>
+      <c r="S37" s="76"/>
+      <c r="T37" s="76"/>
     </row>
     <row r="38" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="77"/>
-      <c r="C38" s="77"/>
-      <c r="D38" s="77"/>
-      <c r="E38" s="77"/>
-      <c r="F38" s="77"/>
-      <c r="G38" s="77"/>
-      <c r="H38" s="77"/>
+      <c r="B38" s="92"/>
+      <c r="C38" s="92"/>
+      <c r="D38" s="92"/>
+      <c r="E38" s="92"/>
+      <c r="F38" s="92"/>
+      <c r="G38" s="92"/>
+      <c r="H38" s="92"/>
       <c r="I38" s="39"/>
       <c r="K38" s="39"/>
       <c r="L38" s="39"/>
@@ -10448,13 +10455,13 @@
       <c r="Q38" s="39"/>
     </row>
     <row r="39" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="77"/>
-      <c r="C39" s="77"/>
-      <c r="D39" s="77"/>
-      <c r="E39" s="77"/>
-      <c r="F39" s="77"/>
-      <c r="G39" s="77"/>
-      <c r="H39" s="77"/>
+      <c r="B39" s="92"/>
+      <c r="C39" s="92"/>
+      <c r="D39" s="92"/>
+      <c r="E39" s="92"/>
+      <c r="F39" s="92"/>
+      <c r="G39" s="92"/>
+      <c r="H39" s="92"/>
       <c r="I39" s="39"/>
       <c r="J39" s="39"/>
       <c r="K39" s="39"/>
@@ -10466,13 +10473,13 @@
       <c r="Q39" s="39"/>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B40" s="77"/>
-      <c r="C40" s="77"/>
-      <c r="D40" s="77"/>
-      <c r="E40" s="77"/>
-      <c r="F40" s="77"/>
-      <c r="G40" s="77"/>
-      <c r="H40" s="77"/>
+      <c r="B40" s="92"/>
+      <c r="C40" s="92"/>
+      <c r="D40" s="92"/>
+      <c r="E40" s="92"/>
+      <c r="F40" s="92"/>
+      <c r="G40" s="92"/>
+      <c r="H40" s="92"/>
       <c r="I40" s="39"/>
       <c r="J40" s="39"/>
       <c r="K40" s="39"/>
@@ -10480,13 +10487,13 @@
       <c r="M40" s="39"/>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B41" s="77"/>
-      <c r="C41" s="77"/>
-      <c r="D41" s="77"/>
-      <c r="E41" s="77"/>
-      <c r="F41" s="77"/>
-      <c r="G41" s="77"/>
-      <c r="H41" s="77"/>
+      <c r="B41" s="92"/>
+      <c r="C41" s="92"/>
+      <c r="D41" s="92"/>
+      <c r="E41" s="92"/>
+      <c r="F41" s="92"/>
+      <c r="G41" s="92"/>
+      <c r="H41" s="92"/>
       <c r="I41" s="39"/>
       <c r="J41" s="39"/>
       <c r="K41" s="39"/>
@@ -10494,13 +10501,13 @@
       <c r="M41" s="39"/>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B42" s="77"/>
-      <c r="C42" s="77"/>
-      <c r="D42" s="77"/>
-      <c r="E42" s="77"/>
-      <c r="F42" s="77"/>
-      <c r="G42" s="77"/>
-      <c r="H42" s="77"/>
+      <c r="B42" s="92"/>
+      <c r="C42" s="92"/>
+      <c r="D42" s="92"/>
+      <c r="E42" s="92"/>
+      <c r="F42" s="92"/>
+      <c r="G42" s="92"/>
+      <c r="H42" s="92"/>
       <c r="I42" s="39"/>
       <c r="J42" s="39"/>
       <c r="K42" s="39"/>
@@ -10508,13 +10515,13 @@
       <c r="M42" s="39"/>
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B43" s="77"/>
-      <c r="C43" s="77"/>
-      <c r="D43" s="77"/>
-      <c r="E43" s="77"/>
-      <c r="F43" s="77"/>
-      <c r="G43" s="77"/>
-      <c r="H43" s="77"/>
+      <c r="B43" s="92"/>
+      <c r="C43" s="92"/>
+      <c r="D43" s="92"/>
+      <c r="E43" s="92"/>
+      <c r="F43" s="92"/>
+      <c r="G43" s="92"/>
+      <c r="H43" s="92"/>
       <c r="I43" s="39"/>
       <c r="J43" s="39"/>
       <c r="K43" s="39"/>
@@ -10522,13 +10529,13 @@
       <c r="M43" s="39"/>
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B44" s="77"/>
-      <c r="C44" s="77"/>
-      <c r="D44" s="77"/>
-      <c r="E44" s="77"/>
-      <c r="F44" s="77"/>
-      <c r="G44" s="77"/>
-      <c r="H44" s="77"/>
+      <c r="B44" s="92"/>
+      <c r="C44" s="92"/>
+      <c r="D44" s="92"/>
+      <c r="E44" s="92"/>
+      <c r="F44" s="92"/>
+      <c r="G44" s="92"/>
+      <c r="H44" s="92"/>
       <c r="I44" s="39"/>
       <c r="J44" s="39"/>
       <c r="K44" s="39"/>
@@ -10564,12 +10571,12 @@
       <c r="M46" s="39"/>
     </row>
     <row r="47" spans="2:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="70" t="s">
-        <v>214</v>
-      </c>
-      <c r="C47" s="70"/>
-      <c r="D47" s="70"/>
-      <c r="E47" s="70"/>
+      <c r="B47" s="87" t="s">
+        <v>211</v>
+      </c>
+      <c r="C47" s="87"/>
+      <c r="D47" s="87"/>
+      <c r="E47" s="87"/>
       <c r="G47" s="39"/>
       <c r="H47" s="39"/>
       <c r="I47" s="39"/>
@@ -10579,14 +10586,14 @@
       <c r="M47" s="39"/>
     </row>
     <row r="48" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B48" s="70"/>
-      <c r="C48" s="70"/>
-      <c r="D48" s="70"/>
-      <c r="E48" s="70"/>
+      <c r="B48" s="87"/>
+      <c r="C48" s="87"/>
+      <c r="D48" s="87"/>
+      <c r="E48" s="87"/>
       <c r="G48" s="39"/>
       <c r="H48" s="39"/>
       <c r="I48" s="39" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="J48" s="39"/>
       <c r="K48" s="39"/>
@@ -10595,7 +10602,7 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B49" s="30" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G49" s="39"/>
       <c r="H49" s="39"/>
@@ -10607,17 +10614,17 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="30" t="s">
-        <v>206</v>
-      </c>
-      <c r="B50" s="74" t="s">
-        <v>207</v>
-      </c>
-      <c r="C50" s="74"/>
-      <c r="D50" s="74"/>
-      <c r="E50" s="73" t="s">
-        <v>254</v>
-      </c>
-      <c r="F50" s="74"/>
+        <v>203</v>
+      </c>
+      <c r="B50" s="90" t="s">
+        <v>204</v>
+      </c>
+      <c r="C50" s="90"/>
+      <c r="D50" s="90"/>
+      <c r="E50" s="89" t="s">
+        <v>251</v>
+      </c>
+      <c r="F50" s="90"/>
       <c r="G50" s="41"/>
       <c r="H50" s="39"/>
       <c r="I50" s="39"/>
@@ -10627,17 +10634,17 @@
       <c r="M50" s="39"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B51" s="73" t="s">
-        <v>255</v>
-      </c>
-      <c r="C51" s="74"/>
-      <c r="D51" s="74"/>
-      <c r="E51" s="74" t="s">
-        <v>208</v>
-      </c>
-      <c r="F51" s="74"/>
+      <c r="B51" s="89" t="s">
+        <v>252</v>
+      </c>
+      <c r="C51" s="90"/>
+      <c r="D51" s="90"/>
+      <c r="E51" s="90" t="s">
+        <v>205</v>
+      </c>
+      <c r="F51" s="90"/>
       <c r="G51" s="41" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H51" s="39"/>
       <c r="I51" s="39"/>
@@ -10648,29 +10655,16 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C52" s="30" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B55" s="30" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B6:D7"/>
-    <mergeCell ref="B1:H2"/>
-    <mergeCell ref="Q24:T26"/>
-    <mergeCell ref="Q21:T23"/>
-    <mergeCell ref="K21:P23"/>
-    <mergeCell ref="K24:P26"/>
-    <mergeCell ref="C27:H28"/>
-    <mergeCell ref="K27:P31"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C21:H23"/>
-    <mergeCell ref="C24:H26"/>
-    <mergeCell ref="C29:H30"/>
     <mergeCell ref="B47:E48"/>
     <mergeCell ref="Q32:T37"/>
     <mergeCell ref="J20:T20"/>
@@ -10687,6 +10681,19 @@
     <mergeCell ref="J24:J26"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C27:H28"/>
+    <mergeCell ref="K27:P31"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C21:H23"/>
+    <mergeCell ref="C24:H26"/>
+    <mergeCell ref="C29:H30"/>
+    <mergeCell ref="B6:D7"/>
+    <mergeCell ref="B1:H2"/>
+    <mergeCell ref="Q24:T26"/>
+    <mergeCell ref="Q21:T23"/>
+    <mergeCell ref="K21:P23"/>
+    <mergeCell ref="K24:P26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10704,155 +10711,155 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="3" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="105" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
+      <c r="B3" s="100" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
       <c r="P3" s="16"/>
       <c r="Q3" s="16"/>
       <c r="R3" s="16"/>
     </row>
     <row r="4" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="105"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105"/>
-      <c r="K4" s="105"/>
-      <c r="L4" s="105"/>
-      <c r="M4" s="105"/>
-      <c r="N4" s="105"/>
-      <c r="O4" s="105"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="100"/>
+      <c r="N4" s="100"/>
+      <c r="O4" s="100"/>
       <c r="P4" s="16"/>
       <c r="Q4" s="16"/>
       <c r="R4" s="16"/>
     </row>
     <row r="5" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="105"/>
-      <c r="I5" s="105"/>
-      <c r="J5" s="105"/>
-      <c r="K5" s="105"/>
-      <c r="L5" s="105"/>
-      <c r="M5" s="105"/>
-      <c r="N5" s="105"/>
-      <c r="O5" s="105"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="100"/>
+      <c r="O5" s="100"/>
       <c r="P5" s="16"/>
       <c r="Q5" s="16"/>
       <c r="R5" s="16"/>
     </row>
     <row r="6" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="105"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="105"/>
-      <c r="J6" s="105"/>
-      <c r="K6" s="105"/>
-      <c r="L6" s="105"/>
-      <c r="M6" s="105"/>
-      <c r="N6" s="105"/>
-      <c r="O6" s="105"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="M6" s="100"/>
+      <c r="N6" s="100"/>
+      <c r="O6" s="100"/>
       <c r="P6" s="16"/>
       <c r="Q6" s="16"/>
       <c r="R6" s="16"/>
     </row>
     <row r="7" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="105"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="105"/>
-      <c r="M7" s="105"/>
-      <c r="N7" s="105"/>
-      <c r="O7" s="105"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
+      <c r="N7" s="100"/>
+      <c r="O7" s="100"/>
       <c r="P7" s="16"/>
       <c r="Q7" s="16"/>
       <c r="R7" s="16"/>
     </row>
     <row r="8" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="105"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="105"/>
-      <c r="M8" s="105"/>
-      <c r="N8" s="105"/>
-      <c r="O8" s="105"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="100"/>
+      <c r="N8" s="100"/>
+      <c r="O8" s="100"/>
       <c r="P8" s="16"/>
       <c r="Q8" s="16"/>
       <c r="R8" s="16"/>
     </row>
     <row r="9" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="105"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="105"/>
-      <c r="M9" s="105"/>
-      <c r="N9" s="105"/>
-      <c r="O9" s="105"/>
+      <c r="B9" s="100"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="100"/>
+      <c r="J9" s="100"/>
+      <c r="K9" s="100"/>
+      <c r="L9" s="100"/>
+      <c r="M9" s="100"/>
+      <c r="N9" s="100"/>
+      <c r="O9" s="100"/>
       <c r="P9" s="16"/>
       <c r="Q9" s="16"/>
       <c r="R9" s="16"/>
     </row>
     <row r="10" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="105"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="105"/>
-      <c r="K10" s="105"/>
-      <c r="L10" s="105"/>
-      <c r="M10" s="105"/>
-      <c r="N10" s="105"/>
-      <c r="O10" s="105"/>
+      <c r="B10" s="100"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="100"/>
+      <c r="K10" s="100"/>
+      <c r="L10" s="100"/>
+      <c r="M10" s="100"/>
+      <c r="N10" s="100"/>
+      <c r="O10" s="100"/>
       <c r="P10" s="16"/>
       <c r="Q10" s="16"/>
       <c r="R10" s="16"/>
@@ -10892,11 +10899,11 @@
       <c r="N12" s="16"/>
     </row>
     <row r="13" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="106" t="s">
-        <v>127</v>
-      </c>
-      <c r="C13" s="106"/>
-      <c r="D13" s="106"/>
+      <c r="B13" s="104" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="104"/>
+      <c r="D13" s="104"/>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
@@ -10910,455 +10917,455 @@
     </row>
     <row r="14" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="101" t="s">
-        <v>113</v>
-      </c>
-      <c r="C14" s="104" t="s">
-        <v>114</v>
-      </c>
-      <c r="D14" s="104"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="104"/>
-      <c r="H14" s="104"/>
-      <c r="I14" s="104"/>
-      <c r="J14" s="104"/>
-      <c r="K14" s="97"/>
-      <c r="L14" s="97"/>
-      <c r="M14" s="97"/>
-      <c r="N14" s="97"/>
-      <c r="O14" s="97"/>
-      <c r="P14" s="99" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q14" s="99"/>
+        <v>110</v>
+      </c>
+      <c r="C14" s="95" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="95"/>
+      <c r="J14" s="95"/>
+      <c r="K14" s="96"/>
+      <c r="L14" s="96"/>
+      <c r="M14" s="96"/>
+      <c r="N14" s="96"/>
+      <c r="O14" s="96"/>
+      <c r="P14" s="97" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q14" s="97"/>
     </row>
     <row r="15" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="102"/>
-      <c r="C15" s="104"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="104"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="104"/>
-      <c r="H15" s="104"/>
-      <c r="I15" s="104"/>
-      <c r="J15" s="104"/>
-      <c r="K15" s="97"/>
-      <c r="L15" s="97"/>
-      <c r="M15" s="97"/>
-      <c r="N15" s="97"/>
-      <c r="O15" s="97"/>
-      <c r="P15" s="99"/>
-      <c r="Q15" s="99"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="95"/>
+      <c r="I15" s="95"/>
+      <c r="J15" s="95"/>
+      <c r="K15" s="96"/>
+      <c r="L15" s="96"/>
+      <c r="M15" s="96"/>
+      <c r="N15" s="96"/>
+      <c r="O15" s="96"/>
+      <c r="P15" s="97"/>
+      <c r="Q15" s="97"/>
     </row>
     <row r="16" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="103"/>
-      <c r="C16" s="104"/>
-      <c r="D16" s="104"/>
-      <c r="E16" s="104"/>
-      <c r="F16" s="104"/>
-      <c r="G16" s="104"/>
-      <c r="H16" s="104"/>
-      <c r="I16" s="104"/>
-      <c r="J16" s="104"/>
-      <c r="K16" s="97"/>
-      <c r="L16" s="97"/>
-      <c r="M16" s="97"/>
-      <c r="N16" s="97"/>
-      <c r="O16" s="97"/>
-      <c r="P16" s="99"/>
-      <c r="Q16" s="99"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="95"/>
+      <c r="I16" s="95"/>
+      <c r="J16" s="95"/>
+      <c r="K16" s="96"/>
+      <c r="L16" s="96"/>
+      <c r="M16" s="96"/>
+      <c r="N16" s="96"/>
+      <c r="O16" s="96"/>
+      <c r="P16" s="97"/>
+      <c r="Q16" s="97"/>
     </row>
     <row r="17" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="101" t="s">
-        <v>115</v>
-      </c>
-      <c r="C17" s="104" t="s">
-        <v>116</v>
-      </c>
-      <c r="D17" s="104"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="104"/>
-      <c r="H17" s="104"/>
-      <c r="I17" s="104"/>
-      <c r="J17" s="104"/>
-      <c r="K17" s="97" t="s">
-        <v>117</v>
-      </c>
-      <c r="L17" s="97"/>
-      <c r="M17" s="97"/>
-      <c r="N17" s="97"/>
-      <c r="O17" s="97"/>
-      <c r="P17" s="73"/>
-      <c r="Q17" s="73"/>
+        <v>112</v>
+      </c>
+      <c r="C17" s="95" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="95"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="95"/>
+      <c r="H17" s="95"/>
+      <c r="I17" s="95"/>
+      <c r="J17" s="95"/>
+      <c r="K17" s="96" t="s">
+        <v>114</v>
+      </c>
+      <c r="L17" s="96"/>
+      <c r="M17" s="96"/>
+      <c r="N17" s="96"/>
+      <c r="O17" s="96"/>
+      <c r="P17" s="89"/>
+      <c r="Q17" s="89"/>
     </row>
     <row r="18" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="102"/>
-      <c r="C18" s="104"/>
-      <c r="D18" s="104"/>
-      <c r="E18" s="104"/>
-      <c r="F18" s="104"/>
-      <c r="G18" s="104"/>
-      <c r="H18" s="104"/>
-      <c r="I18" s="104"/>
-      <c r="J18" s="104"/>
-      <c r="K18" s="97"/>
-      <c r="L18" s="97"/>
-      <c r="M18" s="97"/>
-      <c r="N18" s="97"/>
-      <c r="O18" s="97"/>
-      <c r="P18" s="73"/>
-      <c r="Q18" s="73"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="95"/>
+      <c r="J18" s="95"/>
+      <c r="K18" s="96"/>
+      <c r="L18" s="96"/>
+      <c r="M18" s="96"/>
+      <c r="N18" s="96"/>
+      <c r="O18" s="96"/>
+      <c r="P18" s="89"/>
+      <c r="Q18" s="89"/>
     </row>
     <row r="19" spans="2:17" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="103"/>
-      <c r="C19" s="104"/>
-      <c r="D19" s="104"/>
-      <c r="E19" s="104"/>
-      <c r="F19" s="104"/>
-      <c r="G19" s="104"/>
-      <c r="H19" s="104"/>
-      <c r="I19" s="104"/>
-      <c r="J19" s="104"/>
-      <c r="K19" s="97"/>
-      <c r="L19" s="97"/>
-      <c r="M19" s="97"/>
-      <c r="N19" s="97"/>
-      <c r="O19" s="97"/>
-      <c r="P19" s="73"/>
-      <c r="Q19" s="73"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="95"/>
+      <c r="H19" s="95"/>
+      <c r="I19" s="95"/>
+      <c r="J19" s="95"/>
+      <c r="K19" s="96"/>
+      <c r="L19" s="96"/>
+      <c r="M19" s="96"/>
+      <c r="N19" s="96"/>
+      <c r="O19" s="96"/>
+      <c r="P19" s="89"/>
+      <c r="Q19" s="89"/>
     </row>
     <row r="20" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="100" t="s">
+      <c r="B20" s="106" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" s="96" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="96"/>
+      <c r="E20" s="98" t="s">
+        <v>152</v>
+      </c>
+      <c r="F20" s="96"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="96"/>
+      <c r="I20" s="96"/>
+      <c r="J20" s="96"/>
+      <c r="K20" s="96"/>
+      <c r="L20" s="96"/>
+      <c r="M20" s="96"/>
+      <c r="N20" s="96"/>
+      <c r="O20" s="96"/>
+      <c r="P20" s="99" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q20" s="97"/>
+    </row>
+    <row r="21" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="106"/>
+      <c r="C21" s="96" t="s">
         <v>118</v>
       </c>
-      <c r="C20" s="97" t="s">
+      <c r="D21" s="96"/>
+      <c r="E21" s="98" t="s">
+        <v>133</v>
+      </c>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="96"/>
+      <c r="J21" s="96"/>
+      <c r="K21" s="96" t="s">
         <v>120</v>
       </c>
-      <c r="D20" s="97"/>
-      <c r="E20" s="90" t="s">
-        <v>155</v>
-      </c>
-      <c r="F20" s="97"/>
-      <c r="G20" s="97"/>
-      <c r="H20" s="97"/>
-      <c r="I20" s="97"/>
-      <c r="J20" s="97"/>
-      <c r="K20" s="97"/>
-      <c r="L20" s="97"/>
-      <c r="M20" s="97"/>
-      <c r="N20" s="97"/>
-      <c r="O20" s="97"/>
-      <c r="P20" s="98" t="s">
+      <c r="L21" s="96"/>
+      <c r="M21" s="96"/>
+      <c r="N21" s="96"/>
+      <c r="O21" s="96"/>
+      <c r="P21" s="97"/>
+      <c r="Q21" s="97"/>
+    </row>
+    <row r="22" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="106"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="98" t="s">
+        <v>134</v>
+      </c>
+      <c r="F22" s="96"/>
+      <c r="G22" s="96"/>
+      <c r="H22" s="96"/>
+      <c r="I22" s="96"/>
+      <c r="J22" s="96"/>
+      <c r="K22" s="96"/>
+      <c r="L22" s="96"/>
+      <c r="M22" s="96"/>
+      <c r="N22" s="96"/>
+      <c r="O22" s="96"/>
+      <c r="P22" s="97"/>
+      <c r="Q22" s="97"/>
+    </row>
+    <row r="23" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="106"/>
+      <c r="C23" s="96" t="s">
+        <v>119</v>
+      </c>
+      <c r="D23" s="96"/>
+      <c r="E23" s="98" t="s">
         <v>135</v>
       </c>
-      <c r="Q20" s="99"/>
-    </row>
-    <row r="21" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="100"/>
-      <c r="C21" s="97" t="s">
+      <c r="F23" s="96"/>
+      <c r="G23" s="96"/>
+      <c r="H23" s="96"/>
+      <c r="I23" s="96"/>
+      <c r="J23" s="96"/>
+      <c r="K23" s="96" t="s">
         <v>121</v>
       </c>
-      <c r="D21" s="97"/>
-      <c r="E21" s="90" t="s">
+      <c r="L23" s="96"/>
+      <c r="M23" s="96"/>
+      <c r="N23" s="96"/>
+      <c r="O23" s="96"/>
+      <c r="P23" s="97"/>
+      <c r="Q23" s="97"/>
+    </row>
+    <row r="24" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="106"/>
+      <c r="C24" s="96"/>
+      <c r="D24" s="96"/>
+      <c r="E24" s="98" t="s">
         <v>136</v>
       </c>
-      <c r="F21" s="97"/>
-      <c r="G21" s="97"/>
-      <c r="H21" s="97"/>
-      <c r="I21" s="97"/>
-      <c r="J21" s="97"/>
-      <c r="K21" s="97" t="s">
-        <v>123</v>
-      </c>
-      <c r="L21" s="97"/>
-      <c r="M21" s="97"/>
-      <c r="N21" s="97"/>
-      <c r="O21" s="97"/>
-      <c r="P21" s="99"/>
-      <c r="Q21" s="99"/>
-    </row>
-    <row r="22" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="100"/>
-      <c r="C22" s="97"/>
-      <c r="D22" s="97"/>
-      <c r="E22" s="90" t="s">
-        <v>137</v>
-      </c>
-      <c r="F22" s="97"/>
-      <c r="G22" s="97"/>
-      <c r="H22" s="97"/>
-      <c r="I22" s="97"/>
-      <c r="J22" s="97"/>
-      <c r="K22" s="97"/>
-      <c r="L22" s="97"/>
-      <c r="M22" s="97"/>
-      <c r="N22" s="97"/>
-      <c r="O22" s="97"/>
-      <c r="P22" s="99"/>
-      <c r="Q22" s="99"/>
-    </row>
-    <row r="23" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="100"/>
-      <c r="C23" s="97" t="s">
-        <v>122</v>
-      </c>
-      <c r="D23" s="97"/>
-      <c r="E23" s="90" t="s">
-        <v>138</v>
-      </c>
-      <c r="F23" s="97"/>
-      <c r="G23" s="97"/>
-      <c r="H23" s="97"/>
-      <c r="I23" s="97"/>
-      <c r="J23" s="97"/>
-      <c r="K23" s="97" t="s">
-        <v>124</v>
-      </c>
-      <c r="L23" s="97"/>
-      <c r="M23" s="97"/>
-      <c r="N23" s="97"/>
-      <c r="O23" s="97"/>
-      <c r="P23" s="99"/>
-      <c r="Q23" s="99"/>
-    </row>
-    <row r="24" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="100"/>
-      <c r="C24" s="97"/>
-      <c r="D24" s="97"/>
-      <c r="E24" s="90" t="s">
-        <v>139</v>
-      </c>
-      <c r="F24" s="97"/>
-      <c r="G24" s="97"/>
-      <c r="H24" s="97"/>
-      <c r="I24" s="97"/>
-      <c r="J24" s="97"/>
-      <c r="K24" s="90" t="s">
-        <v>156</v>
-      </c>
-      <c r="L24" s="97"/>
-      <c r="M24" s="97"/>
-      <c r="N24" s="97"/>
-      <c r="O24" s="97"/>
-      <c r="P24" s="99"/>
-      <c r="Q24" s="99"/>
+      <c r="F24" s="96"/>
+      <c r="G24" s="96"/>
+      <c r="H24" s="96"/>
+      <c r="I24" s="96"/>
+      <c r="J24" s="96"/>
+      <c r="K24" s="98" t="s">
+        <v>153</v>
+      </c>
+      <c r="L24" s="96"/>
+      <c r="M24" s="96"/>
+      <c r="N24" s="96"/>
+      <c r="O24" s="96"/>
+      <c r="P24" s="97"/>
+      <c r="Q24" s="97"/>
     </row>
     <row r="25" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="101" t="s">
-        <v>126</v>
-      </c>
-      <c r="C25" s="104" t="s">
-        <v>157</v>
-      </c>
-      <c r="D25" s="104"/>
-      <c r="E25" s="104"/>
-      <c r="F25" s="104"/>
-      <c r="G25" s="104"/>
-      <c r="H25" s="104"/>
-      <c r="I25" s="104"/>
-      <c r="J25" s="104"/>
-      <c r="K25" s="97"/>
-      <c r="L25" s="97"/>
-      <c r="M25" s="97"/>
-      <c r="N25" s="97"/>
-      <c r="O25" s="97"/>
-      <c r="P25" s="73"/>
-      <c r="Q25" s="73"/>
+        <v>123</v>
+      </c>
+      <c r="C25" s="95" t="s">
+        <v>154</v>
+      </c>
+      <c r="D25" s="95"/>
+      <c r="E25" s="95"/>
+      <c r="F25" s="95"/>
+      <c r="G25" s="95"/>
+      <c r="H25" s="95"/>
+      <c r="I25" s="95"/>
+      <c r="J25" s="95"/>
+      <c r="K25" s="96"/>
+      <c r="L25" s="96"/>
+      <c r="M25" s="96"/>
+      <c r="N25" s="96"/>
+      <c r="O25" s="96"/>
+      <c r="P25" s="89"/>
+      <c r="Q25" s="89"/>
     </row>
     <row r="26" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="102"/>
-      <c r="C26" s="104"/>
-      <c r="D26" s="104"/>
-      <c r="E26" s="104"/>
-      <c r="F26" s="104"/>
-      <c r="G26" s="104"/>
-      <c r="H26" s="104"/>
-      <c r="I26" s="104"/>
-      <c r="J26" s="104"/>
-      <c r="K26" s="97"/>
-      <c r="L26" s="97"/>
-      <c r="M26" s="97"/>
-      <c r="N26" s="97"/>
-      <c r="O26" s="97"/>
-      <c r="P26" s="73"/>
-      <c r="Q26" s="73"/>
+      <c r="C26" s="95"/>
+      <c r="D26" s="95"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="95"/>
+      <c r="G26" s="95"/>
+      <c r="H26" s="95"/>
+      <c r="I26" s="95"/>
+      <c r="J26" s="95"/>
+      <c r="K26" s="96"/>
+      <c r="L26" s="96"/>
+      <c r="M26" s="96"/>
+      <c r="N26" s="96"/>
+      <c r="O26" s="96"/>
+      <c r="P26" s="89"/>
+      <c r="Q26" s="89"/>
     </row>
     <row r="27" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="102"/>
-      <c r="C27" s="104"/>
-      <c r="D27" s="104"/>
-      <c r="E27" s="104"/>
-      <c r="F27" s="104"/>
-      <c r="G27" s="104"/>
-      <c r="H27" s="104"/>
-      <c r="I27" s="104"/>
-      <c r="J27" s="104"/>
-      <c r="K27" s="97"/>
-      <c r="L27" s="97"/>
-      <c r="M27" s="97"/>
-      <c r="N27" s="97"/>
-      <c r="O27" s="97"/>
-      <c r="P27" s="73"/>
-      <c r="Q27" s="73"/>
+      <c r="C27" s="95"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="95"/>
+      <c r="G27" s="95"/>
+      <c r="H27" s="95"/>
+      <c r="I27" s="95"/>
+      <c r="J27" s="95"/>
+      <c r="K27" s="96"/>
+      <c r="L27" s="96"/>
+      <c r="M27" s="96"/>
+      <c r="N27" s="96"/>
+      <c r="O27" s="96"/>
+      <c r="P27" s="89"/>
+      <c r="Q27" s="89"/>
     </row>
     <row r="28" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="102"/>
-      <c r="C28" s="104"/>
-      <c r="D28" s="104"/>
-      <c r="E28" s="104"/>
-      <c r="F28" s="104"/>
-      <c r="G28" s="104"/>
-      <c r="H28" s="104"/>
-      <c r="I28" s="104"/>
-      <c r="J28" s="104"/>
-      <c r="K28" s="97"/>
-      <c r="L28" s="97"/>
-      <c r="M28" s="97"/>
-      <c r="N28" s="97"/>
-      <c r="O28" s="97"/>
-      <c r="P28" s="73"/>
-      <c r="Q28" s="73"/>
+      <c r="C28" s="95"/>
+      <c r="D28" s="95"/>
+      <c r="E28" s="95"/>
+      <c r="F28" s="95"/>
+      <c r="G28" s="95"/>
+      <c r="H28" s="95"/>
+      <c r="I28" s="95"/>
+      <c r="J28" s="95"/>
+      <c r="K28" s="96"/>
+      <c r="L28" s="96"/>
+      <c r="M28" s="96"/>
+      <c r="N28" s="96"/>
+      <c r="O28" s="96"/>
+      <c r="P28" s="89"/>
+      <c r="Q28" s="89"/>
     </row>
     <row r="29" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="102"/>
-      <c r="C29" s="104"/>
-      <c r="D29" s="104"/>
-      <c r="E29" s="104"/>
-      <c r="F29" s="104"/>
-      <c r="G29" s="104"/>
-      <c r="H29" s="104"/>
-      <c r="I29" s="104"/>
-      <c r="J29" s="104"/>
-      <c r="K29" s="97"/>
-      <c r="L29" s="97"/>
-      <c r="M29" s="97"/>
-      <c r="N29" s="97"/>
-      <c r="O29" s="97"/>
-      <c r="P29" s="73"/>
-      <c r="Q29" s="73"/>
+      <c r="C29" s="95"/>
+      <c r="D29" s="95"/>
+      <c r="E29" s="95"/>
+      <c r="F29" s="95"/>
+      <c r="G29" s="95"/>
+      <c r="H29" s="95"/>
+      <c r="I29" s="95"/>
+      <c r="J29" s="95"/>
+      <c r="K29" s="96"/>
+      <c r="L29" s="96"/>
+      <c r="M29" s="96"/>
+      <c r="N29" s="96"/>
+      <c r="O29" s="96"/>
+      <c r="P29" s="89"/>
+      <c r="Q29" s="89"/>
     </row>
     <row r="30" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="102"/>
-      <c r="C30" s="104"/>
-      <c r="D30" s="104"/>
-      <c r="E30" s="104"/>
-      <c r="F30" s="104"/>
-      <c r="G30" s="104"/>
-      <c r="H30" s="104"/>
-      <c r="I30" s="104"/>
-      <c r="J30" s="104"/>
-      <c r="K30" s="97"/>
-      <c r="L30" s="97"/>
-      <c r="M30" s="97"/>
-      <c r="N30" s="97"/>
-      <c r="O30" s="97"/>
-      <c r="P30" s="73"/>
-      <c r="Q30" s="73"/>
+      <c r="C30" s="95"/>
+      <c r="D30" s="95"/>
+      <c r="E30" s="95"/>
+      <c r="F30" s="95"/>
+      <c r="G30" s="95"/>
+      <c r="H30" s="95"/>
+      <c r="I30" s="95"/>
+      <c r="J30" s="95"/>
+      <c r="K30" s="96"/>
+      <c r="L30" s="96"/>
+      <c r="M30" s="96"/>
+      <c r="N30" s="96"/>
+      <c r="O30" s="96"/>
+      <c r="P30" s="89"/>
+      <c r="Q30" s="89"/>
     </row>
     <row r="31" spans="2:17" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="C31" s="104" t="s">
-        <v>134</v>
-      </c>
-      <c r="D31" s="104"/>
-      <c r="E31" s="104"/>
-      <c r="F31" s="104"/>
-      <c r="G31" s="104"/>
-      <c r="H31" s="104"/>
-      <c r="I31" s="104"/>
-      <c r="J31" s="104"/>
-      <c r="K31" s="97"/>
-      <c r="L31" s="97"/>
-      <c r="M31" s="97"/>
-      <c r="N31" s="97"/>
-      <c r="O31" s="97"/>
-      <c r="P31" s="73"/>
-      <c r="Q31" s="73"/>
+        <v>130</v>
+      </c>
+      <c r="C31" s="95" t="s">
+        <v>131</v>
+      </c>
+      <c r="D31" s="95"/>
+      <c r="E31" s="95"/>
+      <c r="F31" s="95"/>
+      <c r="G31" s="95"/>
+      <c r="H31" s="95"/>
+      <c r="I31" s="95"/>
+      <c r="J31" s="95"/>
+      <c r="K31" s="96"/>
+      <c r="L31" s="96"/>
+      <c r="M31" s="96"/>
+      <c r="N31" s="96"/>
+      <c r="O31" s="96"/>
+      <c r="P31" s="89"/>
+      <c r="Q31" s="89"/>
     </row>
     <row r="32" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="101" t="s">
-        <v>125</v>
-      </c>
-      <c r="C32" s="96" t="s">
-        <v>229</v>
-      </c>
-      <c r="D32" s="96"/>
-      <c r="E32" s="96"/>
-      <c r="F32" s="96"/>
-      <c r="G32" s="96"/>
-      <c r="H32" s="96"/>
-      <c r="I32" s="96"/>
-      <c r="J32" s="96"/>
-      <c r="K32" s="97"/>
-      <c r="L32" s="97"/>
-      <c r="M32" s="97"/>
-      <c r="N32" s="97"/>
-      <c r="O32" s="97"/>
-      <c r="P32" s="98" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q32" s="99"/>
+        <v>122</v>
+      </c>
+      <c r="C32" s="105" t="s">
+        <v>226</v>
+      </c>
+      <c r="D32" s="105"/>
+      <c r="E32" s="105"/>
+      <c r="F32" s="105"/>
+      <c r="G32" s="105"/>
+      <c r="H32" s="105"/>
+      <c r="I32" s="105"/>
+      <c r="J32" s="105"/>
+      <c r="K32" s="96"/>
+      <c r="L32" s="96"/>
+      <c r="M32" s="96"/>
+      <c r="N32" s="96"/>
+      <c r="O32" s="96"/>
+      <c r="P32" s="99" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q32" s="97"/>
     </row>
     <row r="33" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="102"/>
-      <c r="C33" s="96"/>
-      <c r="D33" s="96"/>
-      <c r="E33" s="96"/>
-      <c r="F33" s="96"/>
-      <c r="G33" s="96"/>
-      <c r="H33" s="96"/>
-      <c r="I33" s="96"/>
-      <c r="J33" s="96"/>
-      <c r="K33" s="97"/>
-      <c r="L33" s="97"/>
-      <c r="M33" s="97"/>
-      <c r="N33" s="97"/>
-      <c r="O33" s="97"/>
-      <c r="P33" s="99"/>
-      <c r="Q33" s="99"/>
+      <c r="C33" s="105"/>
+      <c r="D33" s="105"/>
+      <c r="E33" s="105"/>
+      <c r="F33" s="105"/>
+      <c r="G33" s="105"/>
+      <c r="H33" s="105"/>
+      <c r="I33" s="105"/>
+      <c r="J33" s="105"/>
+      <c r="K33" s="96"/>
+      <c r="L33" s="96"/>
+      <c r="M33" s="96"/>
+      <c r="N33" s="96"/>
+      <c r="O33" s="96"/>
+      <c r="P33" s="97"/>
+      <c r="Q33" s="97"/>
     </row>
     <row r="34" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="102"/>
-      <c r="C34" s="96"/>
-      <c r="D34" s="96"/>
-      <c r="E34" s="96"/>
-      <c r="F34" s="96"/>
-      <c r="G34" s="96"/>
-      <c r="H34" s="96"/>
-      <c r="I34" s="96"/>
-      <c r="J34" s="96"/>
-      <c r="K34" s="97"/>
-      <c r="L34" s="97"/>
-      <c r="M34" s="97"/>
-      <c r="N34" s="97"/>
-      <c r="O34" s="97"/>
-      <c r="P34" s="99"/>
-      <c r="Q34" s="99"/>
+      <c r="C34" s="105"/>
+      <c r="D34" s="105"/>
+      <c r="E34" s="105"/>
+      <c r="F34" s="105"/>
+      <c r="G34" s="105"/>
+      <c r="H34" s="105"/>
+      <c r="I34" s="105"/>
+      <c r="J34" s="105"/>
+      <c r="K34" s="96"/>
+      <c r="L34" s="96"/>
+      <c r="M34" s="96"/>
+      <c r="N34" s="96"/>
+      <c r="O34" s="96"/>
+      <c r="P34" s="97"/>
+      <c r="Q34" s="97"/>
     </row>
     <row r="35" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="103"/>
-      <c r="C35" s="96"/>
-      <c r="D35" s="96"/>
-      <c r="E35" s="96"/>
-      <c r="F35" s="96"/>
-      <c r="G35" s="96"/>
-      <c r="H35" s="96"/>
-      <c r="I35" s="96"/>
-      <c r="J35" s="96"/>
-      <c r="K35" s="97"/>
-      <c r="L35" s="97"/>
-      <c r="M35" s="97"/>
-      <c r="N35" s="97"/>
-      <c r="O35" s="97"/>
-      <c r="P35" s="99"/>
-      <c r="Q35" s="99"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="105"/>
+      <c r="F35" s="105"/>
+      <c r="G35" s="105"/>
+      <c r="H35" s="105"/>
+      <c r="I35" s="105"/>
+      <c r="J35" s="105"/>
+      <c r="K35" s="96"/>
+      <c r="L35" s="96"/>
+      <c r="M35" s="96"/>
+      <c r="N35" s="96"/>
+      <c r="O35" s="96"/>
+      <c r="P35" s="97"/>
+      <c r="Q35" s="97"/>
     </row>
     <row r="36" spans="2:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="33" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C36" s="34"/>
       <c r="D36" s="34"/>
@@ -11435,19 +11442,19 @@
       <c r="N40" s="35"/>
     </row>
     <row r="41" spans="2:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="94" t="s">
-        <v>159</v>
-      </c>
-      <c r="C41" s="93" t="s">
-        <v>160</v>
-      </c>
-      <c r="D41" s="93"/>
-      <c r="E41" s="78" t="s">
-        <v>161</v>
-      </c>
-      <c r="F41" s="78"/>
-      <c r="G41" s="78"/>
-      <c r="H41" s="78"/>
+      <c r="B41" s="107" t="s">
+        <v>156</v>
+      </c>
+      <c r="C41" s="108" t="s">
+        <v>157</v>
+      </c>
+      <c r="D41" s="108"/>
+      <c r="E41" s="79" t="s">
+        <v>158</v>
+      </c>
+      <c r="F41" s="79"/>
+      <c r="G41" s="79"/>
+      <c r="H41" s="79"/>
       <c r="I41" s="34"/>
       <c r="J41" s="34"/>
       <c r="K41" s="34"/>
@@ -11456,16 +11463,16 @@
       <c r="N41" s="35"/>
     </row>
     <row r="42" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="94"/>
-      <c r="C42" s="93"/>
-      <c r="D42" s="93"/>
-      <c r="E42" s="78"/>
-      <c r="F42" s="78"/>
-      <c r="G42" s="78"/>
-      <c r="H42" s="78"/>
+      <c r="B42" s="107"/>
+      <c r="C42" s="108"/>
+      <c r="D42" s="108"/>
+      <c r="E42" s="79"/>
+      <c r="F42" s="79"/>
+      <c r="G42" s="79"/>
+      <c r="H42" s="79"/>
       <c r="I42" s="34"/>
       <c r="J42" s="43" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K42" s="30"/>
       <c r="L42" s="30"/>
@@ -11474,16 +11481,16 @@
       <c r="O42" s="25"/>
     </row>
     <row r="43" spans="2:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="94"/>
-      <c r="C43" s="93"/>
-      <c r="D43" s="93"/>
-      <c r="E43" s="78"/>
-      <c r="F43" s="78"/>
-      <c r="G43" s="78"/>
-      <c r="H43" s="78"/>
+      <c r="B43" s="107"/>
+      <c r="C43" s="108"/>
+      <c r="D43" s="108"/>
+      <c r="E43" s="79"/>
+      <c r="F43" s="79"/>
+      <c r="G43" s="79"/>
+      <c r="H43" s="79"/>
       <c r="I43" s="34"/>
       <c r="J43" s="43" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K43" s="30"/>
       <c r="L43" s="30"/>
@@ -11492,22 +11499,22 @@
       <c r="O43" s="25"/>
     </row>
     <row r="44" spans="2:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="94" t="s">
-        <v>164</v>
-      </c>
-      <c r="C44" s="95" t="s">
-        <v>165</v>
-      </c>
-      <c r="D44" s="95"/>
-      <c r="E44" s="78" t="s">
-        <v>166</v>
-      </c>
-      <c r="F44" s="78"/>
-      <c r="G44" s="78"/>
-      <c r="H44" s="78"/>
+      <c r="B44" s="107" t="s">
+        <v>161</v>
+      </c>
+      <c r="C44" s="109" t="s">
+        <v>162</v>
+      </c>
+      <c r="D44" s="109"/>
+      <c r="E44" s="79" t="s">
+        <v>163</v>
+      </c>
+      <c r="F44" s="79"/>
+      <c r="G44" s="79"/>
+      <c r="H44" s="79"/>
       <c r="I44" s="34"/>
       <c r="J44" s="43" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="K44" s="30"/>
       <c r="L44" s="30"/>
@@ -11516,16 +11523,16 @@
       <c r="O44" s="25"/>
     </row>
     <row r="45" spans="2:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="94"/>
-      <c r="C45" s="95"/>
-      <c r="D45" s="95"/>
-      <c r="E45" s="78"/>
-      <c r="F45" s="78"/>
-      <c r="G45" s="78"/>
-      <c r="H45" s="78"/>
+      <c r="B45" s="107"/>
+      <c r="C45" s="109"/>
+      <c r="D45" s="109"/>
+      <c r="E45" s="79"/>
+      <c r="F45" s="79"/>
+      <c r="G45" s="79"/>
+      <c r="H45" s="79"/>
       <c r="I45" s="34"/>
       <c r="J45" s="43" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K45" s="30"/>
       <c r="L45" s="30"/>
@@ -11534,13 +11541,13 @@
       <c r="O45" s="25"/>
     </row>
     <row r="46" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="94"/>
-      <c r="C46" s="95"/>
-      <c r="D46" s="95"/>
-      <c r="E46" s="78"/>
-      <c r="F46" s="78"/>
-      <c r="G46" s="78"/>
-      <c r="H46" s="78"/>
+      <c r="B46" s="107"/>
+      <c r="C46" s="109"/>
+      <c r="D46" s="109"/>
+      <c r="E46" s="79"/>
+      <c r="F46" s="79"/>
+      <c r="G46" s="79"/>
+      <c r="H46" s="79"/>
       <c r="I46" s="34"/>
       <c r="J46" s="34"/>
       <c r="K46" s="34"/>
@@ -11594,17 +11601,17 @@
       <c r="N49" s="35"/>
     </row>
     <row r="50" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="91" t="s">
-        <v>218</v>
-      </c>
-      <c r="C50" s="92"/>
-      <c r="D50" s="93" t="s">
-        <v>169</v>
-      </c>
-      <c r="E50" s="93"/>
-      <c r="F50" s="90"/>
-      <c r="G50" s="90"/>
-      <c r="H50" s="90"/>
+      <c r="B50" s="110" t="s">
+        <v>215</v>
+      </c>
+      <c r="C50" s="111"/>
+      <c r="D50" s="108" t="s">
+        <v>166</v>
+      </c>
+      <c r="E50" s="108"/>
+      <c r="F50" s="98"/>
+      <c r="G50" s="98"/>
+      <c r="H50" s="98"/>
       <c r="I50" s="34"/>
       <c r="J50" s="34"/>
       <c r="K50" s="34"/>
@@ -11613,17 +11620,17 @@
       <c r="N50" s="35"/>
     </row>
     <row r="51" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="91" t="s">
-        <v>219</v>
-      </c>
-      <c r="C51" s="92"/>
-      <c r="D51" s="93" t="s">
-        <v>170</v>
-      </c>
-      <c r="E51" s="93"/>
-      <c r="F51" s="90"/>
-      <c r="G51" s="90"/>
-      <c r="H51" s="90"/>
+      <c r="B51" s="110" t="s">
+        <v>216</v>
+      </c>
+      <c r="C51" s="111"/>
+      <c r="D51" s="108" t="s">
+        <v>167</v>
+      </c>
+      <c r="E51" s="108"/>
+      <c r="F51" s="98"/>
+      <c r="G51" s="98"/>
+      <c r="H51" s="98"/>
       <c r="I51" s="34"/>
       <c r="J51" s="34"/>
       <c r="K51" s="34"/>
@@ -11632,17 +11639,17 @@
       <c r="N51" s="35"/>
     </row>
     <row r="52" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="91" t="s">
-        <v>220</v>
-      </c>
-      <c r="C52" s="92"/>
-      <c r="D52" s="93" t="s">
-        <v>170</v>
-      </c>
-      <c r="E52" s="93"/>
-      <c r="F52" s="90"/>
-      <c r="G52" s="90"/>
-      <c r="H52" s="90"/>
+      <c r="B52" s="110" t="s">
+        <v>217</v>
+      </c>
+      <c r="C52" s="111"/>
+      <c r="D52" s="108" t="s">
+        <v>167</v>
+      </c>
+      <c r="E52" s="108"/>
+      <c r="F52" s="98"/>
+      <c r="G52" s="98"/>
+      <c r="H52" s="98"/>
       <c r="I52" s="34"/>
       <c r="J52" s="34"/>
       <c r="K52" s="34"/>
@@ -11651,18 +11658,18 @@
       <c r="N52" s="35"/>
     </row>
     <row r="53" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="92" t="s">
-        <v>217</v>
-      </c>
-      <c r="C53" s="92"/>
-      <c r="D53" s="93"/>
-      <c r="E53" s="93"/>
-      <c r="F53" s="90"/>
-      <c r="G53" s="90"/>
-      <c r="H53" s="90"/>
+      <c r="B53" s="111" t="s">
+        <v>214</v>
+      </c>
+      <c r="C53" s="111"/>
+      <c r="D53" s="108"/>
+      <c r="E53" s="108"/>
+      <c r="F53" s="98"/>
+      <c r="G53" s="98"/>
+      <c r="H53" s="98"/>
       <c r="I53" s="34"/>
       <c r="J53" s="45" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="K53" s="34"/>
       <c r="L53" s="34"/>
@@ -11670,20 +11677,20 @@
       <c r="N53" s="35"/>
     </row>
     <row r="54" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="91" t="s">
-        <v>221</v>
-      </c>
-      <c r="C54" s="92"/>
-      <c r="D54" s="93"/>
-      <c r="E54" s="93"/>
-      <c r="F54" s="90" t="s">
-        <v>215</v>
-      </c>
-      <c r="G54" s="90"/>
-      <c r="H54" s="90"/>
+      <c r="B54" s="110" t="s">
+        <v>218</v>
+      </c>
+      <c r="C54" s="111"/>
+      <c r="D54" s="108"/>
+      <c r="E54" s="108"/>
+      <c r="F54" s="98" t="s">
+        <v>212</v>
+      </c>
+      <c r="G54" s="98"/>
+      <c r="H54" s="98"/>
       <c r="I54" s="34"/>
       <c r="J54" s="45" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="K54" s="34"/>
       <c r="L54" s="34"/>
@@ -11691,18 +11698,18 @@
       <c r="N54" s="35"/>
     </row>
     <row r="55" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="91" t="s">
-        <v>222</v>
-      </c>
-      <c r="C55" s="92"/>
-      <c r="D55" s="93"/>
-      <c r="E55" s="93"/>
-      <c r="F55" s="90"/>
-      <c r="G55" s="90"/>
-      <c r="H55" s="90"/>
+      <c r="B55" s="110" t="s">
+        <v>219</v>
+      </c>
+      <c r="C55" s="111"/>
+      <c r="D55" s="108"/>
+      <c r="E55" s="108"/>
+      <c r="F55" s="98"/>
+      <c r="G55" s="98"/>
+      <c r="H55" s="98"/>
       <c r="I55" s="34"/>
       <c r="J55" s="45" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="K55" s="34"/>
       <c r="L55" s="34"/>
@@ -11710,17 +11717,17 @@
       <c r="N55" s="35"/>
     </row>
     <row r="56" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="91" t="s">
-        <v>223</v>
-      </c>
-      <c r="C56" s="92"/>
-      <c r="D56" s="93"/>
-      <c r="E56" s="93"/>
-      <c r="F56" s="90" t="s">
-        <v>216</v>
-      </c>
-      <c r="G56" s="90"/>
-      <c r="H56" s="90"/>
+      <c r="B56" s="110" t="s">
+        <v>220</v>
+      </c>
+      <c r="C56" s="111"/>
+      <c r="D56" s="108"/>
+      <c r="E56" s="108"/>
+      <c r="F56" s="98" t="s">
+        <v>213</v>
+      </c>
+      <c r="G56" s="98"/>
+      <c r="H56" s="98"/>
       <c r="I56" s="34"/>
       <c r="J56" s="34"/>
       <c r="K56" s="34"/>
@@ -11730,7 +11737,7 @@
     </row>
     <row r="57" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="44" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C57" s="34"/>
       <c r="D57" s="34"/>
@@ -12274,26 +12281,33 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="C25:J30"/>
-    <mergeCell ref="K25:O30"/>
-    <mergeCell ref="P25:Q30"/>
-    <mergeCell ref="P14:Q16"/>
-    <mergeCell ref="P17:Q19"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="P20:Q24"/>
-    <mergeCell ref="K20:O20"/>
-    <mergeCell ref="K22:O22"/>
-    <mergeCell ref="K24:O24"/>
-    <mergeCell ref="B3:O10"/>
-    <mergeCell ref="C14:J16"/>
-    <mergeCell ref="C17:J19"/>
-    <mergeCell ref="K17:O19"/>
-    <mergeCell ref="K14:O16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C41:D43"/>
+    <mergeCell ref="E41:H43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C44:D46"/>
+    <mergeCell ref="E44:H46"/>
     <mergeCell ref="C32:J35"/>
     <mergeCell ref="K32:O35"/>
     <mergeCell ref="P32:Q35"/>
@@ -12310,33 +12324,26 @@
     <mergeCell ref="C31:J31"/>
     <mergeCell ref="K31:O31"/>
     <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C41:D43"/>
-    <mergeCell ref="E41:H43"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="C44:D46"/>
-    <mergeCell ref="E44:H46"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="F54:H54"/>
-    <mergeCell ref="F55:H55"/>
-    <mergeCell ref="F56:H56"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="B3:O10"/>
+    <mergeCell ref="C14:J16"/>
+    <mergeCell ref="C17:J19"/>
+    <mergeCell ref="K17:O19"/>
+    <mergeCell ref="K14:O16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="C25:J30"/>
+    <mergeCell ref="K25:O30"/>
+    <mergeCell ref="P25:Q30"/>
+    <mergeCell ref="P14:Q16"/>
+    <mergeCell ref="P17:Q19"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="P20:Q24"/>
+    <mergeCell ref="K20:O20"/>
+    <mergeCell ref="K22:O22"/>
+    <mergeCell ref="K24:O24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12355,87 +12362,87 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B3" s="45" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B4" s="45" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B5" s="46" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B12" s="29" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B13" s="29" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B14" s="45" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="29" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" s="29" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C24" s="47" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C25" s="47" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B27" s="29" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C27" s="47" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B28" s="29" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C28" s="47" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B29" s="29" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C29" s="47" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B30" s="29" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C30" s="47" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/日语.xlsx
+++ b/日语.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="24880" windowHeight="15560" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="24880" windowHeight="15560" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="动词形态" sheetId="1" r:id="rId1"/>
@@ -4838,95 +4838,6 @@
   </si>
   <si>
     <r>
-      <t>〜</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>が</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>〜</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>へ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>〜</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>をくに行く</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="DengXian"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>来る</t>
-    </r>
-    <rPh sb="8" eb="9">
-      <t>いく</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>くR</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
@@ -7821,6 +7732,16 @@
   </si>
   <si>
     <t>な形容词词干 + でした</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〜が〜へ〜を/く/に行く(来る)</t>
+    <rPh sb="10" eb="11">
+      <t>いく</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>くR</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8403,6 +8324,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8415,35 +8345,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8454,41 +8363,68 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -8505,47 +8441,44 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8556,29 +8489,17 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8880,7 +8801,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.3">
       <c r="B1" s="52" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.2">
@@ -8940,13 +8861,13 @@
         <v>6</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>10</v>
@@ -8980,7 +8901,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>82</v>
@@ -9000,10 +8921,10 @@
         <v>97</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>98</v>
@@ -9018,10 +8939,10 @@
         <v>102</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>103</v>
@@ -9038,10 +8959,10 @@
         <v>107</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D10" s="19" t="s">
         <v>108</v>
@@ -9130,13 +9051,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="49" t="s">
+        <v>253</v>
+      </c>
+      <c r="C15" s="49" t="s">
         <v>254</v>
       </c>
-      <c r="C15" s="49" t="s">
+      <c r="D15" s="49" t="s">
         <v>255</v>
-      </c>
-      <c r="D15" s="49" t="s">
-        <v>256</v>
       </c>
       <c r="E15" s="49" t="s">
         <v>10</v>
@@ -9219,10 +9140,10 @@
       <c r="B11" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="56"/>
+      <c r="D11" s="59"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
@@ -9231,10 +9152,10 @@
       <c r="B12" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="54"/>
+      <c r="D12" s="57"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
@@ -9243,79 +9164,84 @@
       <c r="B15" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="57" t="s">
+      <c r="C15" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57" t="s">
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54" t="s">
         <v>140</v>
       </c>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
     </row>
     <row r="16" spans="2:8" ht="18" x14ac:dyDescent="0.2">
       <c r="B16" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="58" t="s">
+      <c r="C16" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="59" t="s">
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="55" t="s">
         <v>148</v>
       </c>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
     </row>
     <row r="17" spans="2:8" ht="18" x14ac:dyDescent="0.2">
       <c r="B17" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="58" t="s">
+      <c r="C17" s="53" t="s">
         <v>145</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="59" t="s">
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="55" t="s">
         <v>149</v>
       </c>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
     </row>
     <row r="18" spans="2:8" ht="18" x14ac:dyDescent="0.2">
       <c r="B18" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="58" t="s">
+      <c r="C18" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="59" t="s">
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
     </row>
     <row r="19" spans="2:8" ht="18" x14ac:dyDescent="0.2">
       <c r="B19" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="58" t="s">
+      <c r="C19" s="53" t="s">
         <v>147</v>
       </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="59" t="s">
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="55" t="s">
         <v>151</v>
       </c>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="F16:H16"/>
@@ -9323,11 +9249,6 @@
     <mergeCell ref="F18:H18"/>
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9338,17 +9259,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="G40" sqref="G40:J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="3" spans="1:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="63"/>
+      <c r="C3" s="71"/>
     </row>
     <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
@@ -9364,33 +9285,33 @@
     </row>
     <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="65" t="s">
+      <c r="B6" s="73"/>
+      <c r="C6" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65" t="s">
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
     </row>
@@ -9399,16 +9320,16 @@
       <c r="B7" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60" t="s">
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
     </row>
@@ -9417,16 +9338,16 @@
       <c r="B8" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60" t="s">
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
     </row>
@@ -9456,83 +9377,83 @@
     </row>
     <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
-      <c r="B11" s="66" t="s">
+      <c r="B11" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="64" t="s">
+      <c r="C11" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="64"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
     </row>
     <row r="12" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="65" t="s">
+      <c r="B12" s="60"/>
+      <c r="C12" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="67" t="s">
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="69"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="65"/>
     </row>
     <row r="13" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="60" t="s">
+      <c r="C13" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60" t="s">
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
     </row>
     <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
-      <c r="B14" s="70" t="s">
+      <c r="B14" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="71" t="s">
+      <c r="C14" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="71" t="s">
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
     </row>
     <row r="15" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
-      <c r="B15" s="70"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
     </row>
     <row r="16" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
@@ -9551,11 +9472,11 @@
       <c r="B17" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="72" t="s">
+      <c r="C17" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8" t="s">
         <v>90</v>
@@ -9581,15 +9502,15 @@
       <c r="B19" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
       <c r="J19" s="8"/>
     </row>
     <row r="20" spans="1:10" ht="18" x14ac:dyDescent="0.2">
@@ -9645,10 +9566,10 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="28" x14ac:dyDescent="0.3">
-      <c r="B29" s="63" t="s">
+      <c r="B29" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="63"/>
+      <c r="C29" s="71"/>
     </row>
     <row r="30" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B30" s="8" t="s">
@@ -9664,32 +9585,32 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="61" t="s">
+      <c r="B32" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="64" t="s">
+      <c r="C32" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="64"/>
-      <c r="H32" s="64"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
     </row>
     <row r="33" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="62"/>
-      <c r="C33" s="65" t="s">
+      <c r="B33" s="73"/>
+      <c r="C33" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="65"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="65" t="s">
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="G33" s="65"/>
-      <c r="H33" s="65"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
     </row>
@@ -9697,16 +9618,16 @@
       <c r="B34" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="60" t="s">
+      <c r="C34" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="D34" s="60"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="60" t="s">
+      <c r="D34" s="66"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="G34" s="60"/>
-      <c r="H34" s="60"/>
+      <c r="G34" s="66"/>
+      <c r="H34" s="66"/>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
     </row>
@@ -9714,16 +9635,16 @@
       <c r="B35" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="60" t="s">
+      <c r="C35" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="D35" s="60"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="60" t="s">
+      <c r="D35" s="66"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="G35" s="60"/>
-      <c r="H35" s="60"/>
+      <c r="G35" s="66"/>
+      <c r="H35" s="66"/>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
     </row>
@@ -9750,79 +9671,79 @@
       <c r="J37" s="8"/>
     </row>
     <row r="38" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="66" t="s">
+      <c r="B38" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="C38" s="64" t="s">
-        <v>261</v>
-      </c>
-      <c r="D38" s="64"/>
-      <c r="E38" s="64"/>
-      <c r="F38" s="64"/>
-      <c r="G38" s="64"/>
-      <c r="H38" s="64"/>
-      <c r="I38" s="64"/>
-      <c r="J38" s="64"/>
+      <c r="C38" s="61" t="s">
+        <v>260</v>
+      </c>
+      <c r="D38" s="61"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="61"/>
+      <c r="H38" s="61"/>
+      <c r="I38" s="61"/>
+      <c r="J38" s="61"/>
     </row>
     <row r="39" spans="2:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="66"/>
-      <c r="C39" s="65" t="s">
+      <c r="B39" s="60"/>
+      <c r="C39" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="D39" s="65"/>
-      <c r="E39" s="65"/>
-      <c r="F39" s="65"/>
-      <c r="G39" s="67" t="s">
+      <c r="D39" s="62"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="62"/>
+      <c r="G39" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="H39" s="68"/>
-      <c r="I39" s="68"/>
-      <c r="J39" s="69"/>
+      <c r="H39" s="64"/>
+      <c r="I39" s="64"/>
+      <c r="J39" s="65"/>
     </row>
     <row r="40" spans="2:13" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="73" t="s">
+      <c r="C40" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D40" s="73"/>
-      <c r="E40" s="73"/>
-      <c r="F40" s="73"/>
-      <c r="G40" s="73" t="s">
-        <v>264</v>
-      </c>
-      <c r="H40" s="73"/>
-      <c r="I40" s="73"/>
-      <c r="J40" s="73"/>
+      <c r="D40" s="67"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="67" t="s">
+        <v>263</v>
+      </c>
+      <c r="H40" s="67"/>
+      <c r="I40" s="67"/>
+      <c r="J40" s="67"/>
     </row>
     <row r="41" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="70" t="s">
+      <c r="B41" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="C41" s="74" t="s">
+      <c r="C41" s="69" t="s">
+        <v>261</v>
+      </c>
+      <c r="D41" s="67"/>
+      <c r="E41" s="67"/>
+      <c r="F41" s="67"/>
+      <c r="G41" s="69" t="s">
         <v>262</v>
       </c>
-      <c r="D41" s="73"/>
-      <c r="E41" s="73"/>
-      <c r="F41" s="73"/>
-      <c r="G41" s="74" t="s">
-        <v>263</v>
-      </c>
-      <c r="H41" s="73"/>
-      <c r="I41" s="73"/>
-      <c r="J41" s="73"/>
+      <c r="H41" s="67"/>
+      <c r="I41" s="67"/>
+      <c r="J41" s="67"/>
     </row>
     <row r="42" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="70"/>
-      <c r="C42" s="73"/>
-      <c r="D42" s="73"/>
-      <c r="E42" s="73"/>
-      <c r="F42" s="73"/>
-      <c r="G42" s="73"/>
-      <c r="H42" s="73"/>
-      <c r="I42" s="73"/>
-      <c r="J42" s="73"/>
+      <c r="B42" s="68"/>
+      <c r="C42" s="67"/>
+      <c r="D42" s="67"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="67"/>
+      <c r="H42" s="67"/>
+      <c r="I42" s="67"/>
+      <c r="J42" s="67"/>
       <c r="K42" t="s">
         <v>55</v>
       </c>
@@ -9882,19 +9803,21 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:F42"/>
-    <mergeCell ref="G41:J42"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="G13:J13"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:F15"/>
     <mergeCell ref="G14:J15"/>
@@ -9905,21 +9828,19 @@
     <mergeCell ref="F33:H33"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="C19:I19"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:F42"/>
+    <mergeCell ref="G41:J42"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="F35:H35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9930,8 +9851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24:H26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27:H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9940,25 +9861,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="75" t="s">
-        <v>209</v>
-      </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
+      <c r="B1" s="92" t="s">
+        <v>208</v>
+      </c>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
       <c r="I1" s="36"/>
     </row>
     <row r="2" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
       <c r="I2" s="36"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
@@ -9968,20 +9889,20 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" s="30" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="75" t="s">
-        <v>210</v>
-      </c>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
+      <c r="B6" s="92" t="s">
+        <v>209</v>
+      </c>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="75"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" s="30" t="s">
@@ -10042,115 +9963,115 @@
       <c r="B20" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="J20" s="88" t="s">
+      <c r="J20" s="77" t="s">
         <v>181</v>
       </c>
-      <c r="K20" s="88"/>
-      <c r="L20" s="88"/>
-      <c r="M20" s="88"/>
-      <c r="N20" s="88"/>
-      <c r="O20" s="88"/>
-      <c r="P20" s="88"/>
-      <c r="Q20" s="88"/>
-      <c r="R20" s="88"/>
-      <c r="S20" s="88"/>
-      <c r="T20" s="88"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="77"/>
+      <c r="N20" s="77"/>
+      <c r="O20" s="77"/>
+      <c r="P20" s="77"/>
+      <c r="Q20" s="77"/>
+      <c r="R20" s="77"/>
+      <c r="S20" s="77"/>
+      <c r="T20" s="77"/>
     </row>
     <row r="21" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="94" t="s">
+      <c r="B21" s="85" t="s">
         <v>182</v>
       </c>
-      <c r="C21" s="79" t="s">
+      <c r="C21" s="83" t="s">
         <v>183</v>
       </c>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="79"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="83"/>
       <c r="I21" s="37"/>
-      <c r="J21" s="93" t="s">
+      <c r="J21" s="84" t="s">
         <v>184</v>
       </c>
-      <c r="K21" s="77" t="s">
-        <v>253</v>
-      </c>
-      <c r="L21" s="78"/>
-      <c r="M21" s="78"/>
-      <c r="N21" s="78"/>
-      <c r="O21" s="78"/>
-      <c r="P21" s="78"/>
+      <c r="K21" s="93" t="s">
+        <v>252</v>
+      </c>
+      <c r="L21" s="80"/>
+      <c r="M21" s="80"/>
+      <c r="N21" s="80"/>
+      <c r="O21" s="80"/>
+      <c r="P21" s="80"/>
       <c r="Q21" s="76"/>
       <c r="R21" s="76"/>
       <c r="S21" s="76"/>
       <c r="T21" s="76"/>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B22" s="94"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="79"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="83"/>
       <c r="I22" s="37"/>
-      <c r="J22" s="93"/>
-      <c r="K22" s="78"/>
-      <c r="L22" s="78"/>
-      <c r="M22" s="78"/>
-      <c r="N22" s="78"/>
-      <c r="O22" s="78"/>
-      <c r="P22" s="78"/>
+      <c r="J22" s="84"/>
+      <c r="K22" s="80"/>
+      <c r="L22" s="80"/>
+      <c r="M22" s="80"/>
+      <c r="N22" s="80"/>
+      <c r="O22" s="80"/>
+      <c r="P22" s="80"/>
       <c r="Q22" s="76"/>
       <c r="R22" s="76"/>
       <c r="S22" s="76"/>
       <c r="T22" s="76"/>
     </row>
     <row r="23" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="94"/>
-      <c r="C23" s="79"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="79"/>
+      <c r="B23" s="85"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="83"/>
       <c r="I23" s="37"/>
-      <c r="J23" s="93"/>
-      <c r="K23" s="78"/>
-      <c r="L23" s="78"/>
-      <c r="M23" s="78"/>
-      <c r="N23" s="78"/>
-      <c r="O23" s="78"/>
-      <c r="P23" s="78"/>
+      <c r="J23" s="84"/>
+      <c r="K23" s="80"/>
+      <c r="L23" s="80"/>
+      <c r="M23" s="80"/>
+      <c r="N23" s="80"/>
+      <c r="O23" s="80"/>
+      <c r="P23" s="80"/>
       <c r="Q23" s="76"/>
       <c r="R23" s="76"/>
       <c r="S23" s="76"/>
       <c r="T23" s="76"/>
     </row>
     <row r="24" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="91" t="s">
+      <c r="B24" s="81" t="s">
         <v>185</v>
       </c>
-      <c r="C24" s="79" t="s">
+      <c r="C24" s="83" t="s">
         <v>186</v>
       </c>
-      <c r="D24" s="79"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="79"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="83"/>
       <c r="I24" s="37"/>
-      <c r="J24" s="91" t="s">
+      <c r="J24" s="81" t="s">
         <v>187</v>
       </c>
-      <c r="K24" s="78" t="s">
+      <c r="K24" s="80" t="s">
         <v>188</v>
       </c>
-      <c r="L24" s="78"/>
-      <c r="M24" s="78"/>
-      <c r="N24" s="78"/>
-      <c r="O24" s="78"/>
-      <c r="P24" s="78"/>
+      <c r="L24" s="80"/>
+      <c r="M24" s="80"/>
+      <c r="N24" s="80"/>
+      <c r="O24" s="80"/>
+      <c r="P24" s="80"/>
       <c r="Q24" s="76" t="s">
         <v>189</v>
       </c>
@@ -10159,170 +10080,170 @@
       <c r="T24" s="76"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B25" s="91"/>
-      <c r="C25" s="79"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="79"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="83"/>
+      <c r="H25" s="83"/>
       <c r="I25" s="37"/>
-      <c r="J25" s="91"/>
-      <c r="K25" s="78"/>
-      <c r="L25" s="78"/>
-      <c r="M25" s="78"/>
-      <c r="N25" s="78"/>
-      <c r="O25" s="78"/>
-      <c r="P25" s="78"/>
+      <c r="J25" s="81"/>
+      <c r="K25" s="80"/>
+      <c r="L25" s="80"/>
+      <c r="M25" s="80"/>
+      <c r="N25" s="80"/>
+      <c r="O25" s="80"/>
+      <c r="P25" s="80"/>
       <c r="Q25" s="76"/>
       <c r="R25" s="76"/>
       <c r="S25" s="76"/>
       <c r="T25" s="76"/>
     </row>
     <row r="26" spans="2:20" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="91"/>
-      <c r="C26" s="79"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="79"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="83"/>
+      <c r="G26" s="83"/>
+      <c r="H26" s="83"/>
       <c r="I26" s="37"/>
-      <c r="J26" s="91"/>
-      <c r="K26" s="78"/>
-      <c r="L26" s="78"/>
-      <c r="M26" s="78"/>
-      <c r="N26" s="78"/>
-      <c r="O26" s="78"/>
-      <c r="P26" s="78"/>
+      <c r="J26" s="81"/>
+      <c r="K26" s="80"/>
+      <c r="L26" s="80"/>
+      <c r="M26" s="80"/>
+      <c r="N26" s="80"/>
+      <c r="O26" s="80"/>
+      <c r="P26" s="80"/>
       <c r="Q26" s="76"/>
       <c r="R26" s="76"/>
       <c r="S26" s="76"/>
       <c r="T26" s="76"/>
     </row>
     <row r="27" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="80" t="s">
+      <c r="B27" s="86" t="s">
         <v>190</v>
       </c>
-      <c r="C27" s="79" t="s">
+      <c r="C27" s="108" t="s">
+        <v>264</v>
+      </c>
+      <c r="D27" s="83"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="83"/>
+      <c r="G27" s="83"/>
+      <c r="H27" s="83"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="81" t="s">
         <v>191</v>
       </c>
-      <c r="D27" s="79"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="79"/>
-      <c r="H27" s="79"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="91" t="s">
+      <c r="K27" s="80" t="s">
         <v>192</v>
       </c>
-      <c r="K27" s="78" t="s">
+      <c r="L27" s="80"/>
+      <c r="M27" s="80"/>
+      <c r="N27" s="80"/>
+      <c r="O27" s="80"/>
+      <c r="P27" s="80"/>
+      <c r="Q27" s="83" t="s">
         <v>193</v>
       </c>
-      <c r="L27" s="78"/>
-      <c r="M27" s="78"/>
-      <c r="N27" s="78"/>
-      <c r="O27" s="78"/>
-      <c r="P27" s="78"/>
-      <c r="Q27" s="79" t="s">
+      <c r="R27" s="83"/>
+      <c r="S27" s="83"/>
+      <c r="T27" s="83"/>
+    </row>
+    <row r="28" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="86"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="83"/>
+      <c r="E28" s="83"/>
+      <c r="F28" s="83"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="83"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="81"/>
+      <c r="K28" s="80"/>
+      <c r="L28" s="80"/>
+      <c r="M28" s="80"/>
+      <c r="N28" s="80"/>
+      <c r="O28" s="80"/>
+      <c r="P28" s="80"/>
+      <c r="Q28" s="83"/>
+      <c r="R28" s="83"/>
+      <c r="S28" s="83"/>
+      <c r="T28" s="83"/>
+    </row>
+    <row r="29" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="86" t="s">
         <v>194</v>
       </c>
-      <c r="R27" s="79"/>
-      <c r="S27" s="79"/>
-      <c r="T27" s="79"/>
-    </row>
-    <row r="28" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="80"/>
-      <c r="C28" s="79"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="79"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="91"/>
-      <c r="K28" s="78"/>
-      <c r="L28" s="78"/>
-      <c r="M28" s="78"/>
-      <c r="N28" s="78"/>
-      <c r="O28" s="78"/>
-      <c r="P28" s="78"/>
-      <c r="Q28" s="79"/>
-      <c r="R28" s="79"/>
-      <c r="S28" s="79"/>
-      <c r="T28" s="79"/>
-    </row>
-    <row r="29" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="80" t="s">
+      <c r="C29" s="111" t="s">
         <v>195</v>
       </c>
-      <c r="C29" s="81" t="s">
+      <c r="D29" s="87"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="87"/>
+      <c r="G29" s="87"/>
+      <c r="H29" s="88"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="81"/>
+      <c r="K29" s="80"/>
+      <c r="L29" s="80"/>
+      <c r="M29" s="80"/>
+      <c r="N29" s="80"/>
+      <c r="O29" s="80"/>
+      <c r="P29" s="80"/>
+      <c r="Q29" s="83"/>
+      <c r="R29" s="83"/>
+      <c r="S29" s="83"/>
+      <c r="T29" s="83"/>
+    </row>
+    <row r="30" spans="2:20" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="86"/>
+      <c r="C30" s="89"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="90"/>
+      <c r="F30" s="90"/>
+      <c r="G30" s="90"/>
+      <c r="H30" s="91"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="81"/>
+      <c r="K30" s="80"/>
+      <c r="L30" s="80"/>
+      <c r="M30" s="80"/>
+      <c r="N30" s="80"/>
+      <c r="O30" s="80"/>
+      <c r="P30" s="80"/>
+      <c r="Q30" s="83"/>
+      <c r="R30" s="83"/>
+      <c r="S30" s="83"/>
+      <c r="T30" s="83"/>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="J31" s="81"/>
+      <c r="K31" s="80"/>
+      <c r="L31" s="80"/>
+      <c r="M31" s="80"/>
+      <c r="N31" s="80"/>
+      <c r="O31" s="80"/>
+      <c r="P31" s="80"/>
+      <c r="Q31" s="83"/>
+      <c r="R31" s="83"/>
+      <c r="S31" s="83"/>
+      <c r="T31" s="83"/>
+    </row>
+    <row r="32" spans="2:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J32" s="81" t="s">
         <v>196</v>
       </c>
-      <c r="D29" s="82"/>
-      <c r="E29" s="82"/>
-      <c r="F29" s="82"/>
-      <c r="G29" s="82"/>
-      <c r="H29" s="83"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="91"/>
-      <c r="K29" s="78"/>
-      <c r="L29" s="78"/>
-      <c r="M29" s="78"/>
-      <c r="N29" s="78"/>
-      <c r="O29" s="78"/>
-      <c r="P29" s="78"/>
-      <c r="Q29" s="79"/>
-      <c r="R29" s="79"/>
-      <c r="S29" s="79"/>
-      <c r="T29" s="79"/>
-    </row>
-    <row r="30" spans="2:20" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="80"/>
-      <c r="C30" s="84"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="85"/>
-      <c r="F30" s="85"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="86"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="91"/>
-      <c r="K30" s="78"/>
-      <c r="L30" s="78"/>
-      <c r="M30" s="78"/>
-      <c r="N30" s="78"/>
-      <c r="O30" s="78"/>
-      <c r="P30" s="78"/>
-      <c r="Q30" s="79"/>
-      <c r="R30" s="79"/>
-      <c r="S30" s="79"/>
-      <c r="T30" s="79"/>
-    </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="J31" s="91"/>
-      <c r="K31" s="78"/>
-      <c r="L31" s="78"/>
-      <c r="M31" s="78"/>
-      <c r="N31" s="78"/>
-      <c r="O31" s="78"/>
-      <c r="P31" s="78"/>
-      <c r="Q31" s="79"/>
-      <c r="R31" s="79"/>
-      <c r="S31" s="79"/>
-      <c r="T31" s="79"/>
-    </row>
-    <row r="32" spans="2:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J32" s="91" t="s">
+      <c r="K32" s="80" t="s">
         <v>197</v>
       </c>
-      <c r="K32" s="78" t="s">
-        <v>198</v>
-      </c>
-      <c r="L32" s="78"/>
-      <c r="M32" s="78"/>
-      <c r="N32" s="78"/>
-      <c r="O32" s="78"/>
-      <c r="P32" s="78"/>
+      <c r="L32" s="80"/>
+      <c r="M32" s="80"/>
+      <c r="N32" s="80"/>
+      <c r="O32" s="80"/>
+      <c r="P32" s="80"/>
       <c r="Q32" s="76"/>
       <c r="R32" s="76"/>
       <c r="S32" s="76"/>
@@ -10330,7 +10251,7 @@
     </row>
     <row r="33" spans="2:20" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="39" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C33" s="39"/>
       <c r="D33" s="39"/>
@@ -10339,112 +10260,112 @@
       <c r="G33" s="39"/>
       <c r="H33" s="39"/>
       <c r="I33" s="39"/>
-      <c r="J33" s="91"/>
-      <c r="K33" s="78"/>
-      <c r="L33" s="78"/>
-      <c r="M33" s="78"/>
-      <c r="N33" s="78"/>
-      <c r="O33" s="78"/>
-      <c r="P33" s="78"/>
+      <c r="J33" s="81"/>
+      <c r="K33" s="80"/>
+      <c r="L33" s="80"/>
+      <c r="M33" s="80"/>
+      <c r="N33" s="80"/>
+      <c r="O33" s="80"/>
+      <c r="P33" s="80"/>
       <c r="Q33" s="76"/>
       <c r="R33" s="76"/>
       <c r="S33" s="76"/>
       <c r="T33" s="76"/>
     </row>
     <row r="34" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="92" t="s">
-        <v>200</v>
-      </c>
-      <c r="C34" s="92"/>
-      <c r="D34" s="92"/>
-      <c r="E34" s="92"/>
-      <c r="F34" s="92"/>
-      <c r="G34" s="92"/>
-      <c r="H34" s="92"/>
+      <c r="B34" s="82" t="s">
+        <v>199</v>
+      </c>
+      <c r="C34" s="82"/>
+      <c r="D34" s="82"/>
+      <c r="E34" s="82"/>
+      <c r="F34" s="82"/>
+      <c r="G34" s="82"/>
+      <c r="H34" s="82"/>
       <c r="I34" s="39"/>
-      <c r="J34" s="91"/>
-      <c r="K34" s="78"/>
-      <c r="L34" s="78"/>
-      <c r="M34" s="78"/>
-      <c r="N34" s="78"/>
-      <c r="O34" s="78"/>
-      <c r="P34" s="78"/>
+      <c r="J34" s="81"/>
+      <c r="K34" s="80"/>
+      <c r="L34" s="80"/>
+      <c r="M34" s="80"/>
+      <c r="N34" s="80"/>
+      <c r="O34" s="80"/>
+      <c r="P34" s="80"/>
       <c r="Q34" s="76"/>
       <c r="R34" s="76"/>
       <c r="S34" s="76"/>
       <c r="T34" s="76"/>
     </row>
     <row r="35" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="92"/>
-      <c r="C35" s="92"/>
-      <c r="D35" s="92"/>
-      <c r="E35" s="92"/>
-      <c r="F35" s="92"/>
-      <c r="G35" s="92"/>
-      <c r="H35" s="92"/>
+      <c r="B35" s="82"/>
+      <c r="C35" s="82"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="82"/>
+      <c r="F35" s="82"/>
+      <c r="G35" s="82"/>
+      <c r="H35" s="82"/>
       <c r="I35" s="39"/>
-      <c r="J35" s="91"/>
-      <c r="K35" s="78"/>
-      <c r="L35" s="78"/>
-      <c r="M35" s="78"/>
-      <c r="N35" s="78"/>
-      <c r="O35" s="78"/>
-      <c r="P35" s="78"/>
+      <c r="J35" s="81"/>
+      <c r="K35" s="80"/>
+      <c r="L35" s="80"/>
+      <c r="M35" s="80"/>
+      <c r="N35" s="80"/>
+      <c r="O35" s="80"/>
+      <c r="P35" s="80"/>
       <c r="Q35" s="76"/>
       <c r="R35" s="76"/>
       <c r="S35" s="76"/>
       <c r="T35" s="76"/>
     </row>
     <row r="36" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="92"/>
-      <c r="C36" s="92"/>
-      <c r="D36" s="92"/>
-      <c r="E36" s="92"/>
-      <c r="F36" s="92"/>
-      <c r="G36" s="92"/>
-      <c r="H36" s="92"/>
+      <c r="B36" s="82"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="82"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="82"/>
+      <c r="G36" s="82"/>
+      <c r="H36" s="82"/>
       <c r="I36" s="39"/>
-      <c r="J36" s="91"/>
-      <c r="K36" s="78"/>
-      <c r="L36" s="78"/>
-      <c r="M36" s="78"/>
-      <c r="N36" s="78"/>
-      <c r="O36" s="78"/>
-      <c r="P36" s="78"/>
+      <c r="J36" s="81"/>
+      <c r="K36" s="80"/>
+      <c r="L36" s="80"/>
+      <c r="M36" s="80"/>
+      <c r="N36" s="80"/>
+      <c r="O36" s="80"/>
+      <c r="P36" s="80"/>
       <c r="Q36" s="76"/>
       <c r="R36" s="76"/>
       <c r="S36" s="76"/>
       <c r="T36" s="76"/>
     </row>
     <row r="37" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="92"/>
-      <c r="C37" s="92"/>
-      <c r="D37" s="92"/>
-      <c r="E37" s="92"/>
-      <c r="F37" s="92"/>
-      <c r="G37" s="92"/>
-      <c r="H37" s="92"/>
+      <c r="B37" s="82"/>
+      <c r="C37" s="82"/>
+      <c r="D37" s="82"/>
+      <c r="E37" s="82"/>
+      <c r="F37" s="82"/>
+      <c r="G37" s="82"/>
+      <c r="H37" s="82"/>
       <c r="I37" s="39"/>
-      <c r="J37" s="91"/>
-      <c r="K37" s="78"/>
-      <c r="L37" s="78"/>
-      <c r="M37" s="78"/>
-      <c r="N37" s="78"/>
-      <c r="O37" s="78"/>
-      <c r="P37" s="78"/>
+      <c r="J37" s="81"/>
+      <c r="K37" s="80"/>
+      <c r="L37" s="80"/>
+      <c r="M37" s="80"/>
+      <c r="N37" s="80"/>
+      <c r="O37" s="80"/>
+      <c r="P37" s="80"/>
       <c r="Q37" s="76"/>
       <c r="R37" s="76"/>
       <c r="S37" s="76"/>
       <c r="T37" s="76"/>
     </row>
     <row r="38" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="92"/>
-      <c r="C38" s="92"/>
-      <c r="D38" s="92"/>
-      <c r="E38" s="92"/>
-      <c r="F38" s="92"/>
-      <c r="G38" s="92"/>
-      <c r="H38" s="92"/>
+      <c r="B38" s="82"/>
+      <c r="C38" s="82"/>
+      <c r="D38" s="82"/>
+      <c r="E38" s="82"/>
+      <c r="F38" s="82"/>
+      <c r="G38" s="82"/>
+      <c r="H38" s="82"/>
       <c r="I38" s="39"/>
       <c r="K38" s="39"/>
       <c r="L38" s="39"/>
@@ -10455,13 +10376,13 @@
       <c r="Q38" s="39"/>
     </row>
     <row r="39" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="92"/>
-      <c r="C39" s="92"/>
-      <c r="D39" s="92"/>
-      <c r="E39" s="92"/>
-      <c r="F39" s="92"/>
-      <c r="G39" s="92"/>
-      <c r="H39" s="92"/>
+      <c r="B39" s="82"/>
+      <c r="C39" s="82"/>
+      <c r="D39" s="82"/>
+      <c r="E39" s="82"/>
+      <c r="F39" s="82"/>
+      <c r="G39" s="82"/>
+      <c r="H39" s="82"/>
       <c r="I39" s="39"/>
       <c r="J39" s="39"/>
       <c r="K39" s="39"/>
@@ -10473,13 +10394,13 @@
       <c r="Q39" s="39"/>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B40" s="92"/>
-      <c r="C40" s="92"/>
-      <c r="D40" s="92"/>
-      <c r="E40" s="92"/>
-      <c r="F40" s="92"/>
-      <c r="G40" s="92"/>
-      <c r="H40" s="92"/>
+      <c r="B40" s="82"/>
+      <c r="C40" s="82"/>
+      <c r="D40" s="82"/>
+      <c r="E40" s="82"/>
+      <c r="F40" s="82"/>
+      <c r="G40" s="82"/>
+      <c r="H40" s="82"/>
       <c r="I40" s="39"/>
       <c r="J40" s="39"/>
       <c r="K40" s="39"/>
@@ -10487,13 +10408,13 @@
       <c r="M40" s="39"/>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B41" s="92"/>
-      <c r="C41" s="92"/>
-      <c r="D41" s="92"/>
-      <c r="E41" s="92"/>
-      <c r="F41" s="92"/>
-      <c r="G41" s="92"/>
-      <c r="H41" s="92"/>
+      <c r="B41" s="82"/>
+      <c r="C41" s="82"/>
+      <c r="D41" s="82"/>
+      <c r="E41" s="82"/>
+      <c r="F41" s="82"/>
+      <c r="G41" s="82"/>
+      <c r="H41" s="82"/>
       <c r="I41" s="39"/>
       <c r="J41" s="39"/>
       <c r="K41" s="39"/>
@@ -10501,13 +10422,13 @@
       <c r="M41" s="39"/>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B42" s="92"/>
-      <c r="C42" s="92"/>
-      <c r="D42" s="92"/>
-      <c r="E42" s="92"/>
-      <c r="F42" s="92"/>
-      <c r="G42" s="92"/>
-      <c r="H42" s="92"/>
+      <c r="B42" s="82"/>
+      <c r="C42" s="82"/>
+      <c r="D42" s="82"/>
+      <c r="E42" s="82"/>
+      <c r="F42" s="82"/>
+      <c r="G42" s="82"/>
+      <c r="H42" s="82"/>
       <c r="I42" s="39"/>
       <c r="J42" s="39"/>
       <c r="K42" s="39"/>
@@ -10515,13 +10436,13 @@
       <c r="M42" s="39"/>
     <